--- a/Lifetime_All_Modes.xlsx
+++ b/Lifetime_All_Modes.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,2550 +429,7256 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>1.84558533705567E+16</v>
+        <v>3441336093386083</v>
       </c>
       <c r="B2">
-        <v>47.58090249789151</v>
+        <v>9.630052642885738</v>
       </c>
       <c r="C2">
-        <v>6091604543982237</v>
+        <v>1224342139891354</v>
       </c>
       <c r="D2">
-        <v>15.84015389736074</v>
+        <v>3.434172923004087</v>
       </c>
       <c r="E2">
-        <v>2.529376247731609E+16</v>
+        <v>5391979603493533</v>
       </c>
       <c r="F2">
-        <v>65.05348568565059</v>
+        <v>15.06069136021255</v>
       </c>
       <c r="G2">
-        <v>6.382965901962691E+16</v>
+        <v>2.120339394472317E+16</v>
       </c>
       <c r="H2">
-        <v>162.8683149992559</v>
+        <v>58.51112371049294</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>1.799471669264853E+16</v>
+        <v>3378942918318218</v>
       </c>
       <c r="B3">
-        <v>48.51467772862696</v>
+        <v>9.651458936954674</v>
       </c>
       <c r="C3">
-        <v>5956799307017165</v>
+        <v>1202769953471919</v>
       </c>
       <c r="D3">
-        <v>16.21557158983488</v>
+        <v>3.444726004624497</v>
       </c>
       <c r="E3">
-        <v>2.474099233359196E+16</v>
+        <v>5297235968290282</v>
       </c>
       <c r="F3">
-        <v>66.51973990803961</v>
+        <v>15.09879148131114</v>
       </c>
       <c r="G3">
-        <v>6.297236557553586E+16</v>
+        <v>2.08956122872437E+16</v>
       </c>
       <c r="H3">
-        <v>167.7795158915569</v>
+        <v>58.7380639010966</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>1.746395603843046E+16</v>
+        <v>3301979007118565</v>
       </c>
       <c r="B4">
-        <v>49.54077443113185</v>
+        <v>9.663600190961574</v>
       </c>
       <c r="C4">
-        <v>5800763049174262</v>
+        <v>1176129857042556</v>
       </c>
       <c r="D4">
-        <v>16.63935535702299</v>
+        <v>3.452475777521643</v>
       </c>
       <c r="E4">
-        <v>2.410078348614786E+16</v>
+        <v>5180221631744522</v>
       </c>
       <c r="F4">
-        <v>68.14269498578722</v>
+        <v>15.12412430373709</v>
       </c>
       <c r="G4">
-        <v>6.196883926170335E+16</v>
+        <v>2.051301889080249E+16</v>
       </c>
       <c r="H4">
-        <v>173.3166230754522</v>
+        <v>58.94855744096309</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>1.690620745235288E+16</v>
+        <v>3225193752765732</v>
       </c>
       <c r="B5">
-        <v>50.63496602046249</v>
+        <v>9.691540146691501</v>
       </c>
       <c r="C5">
-        <v>5635763075136012</v>
+        <v>1149518314086300</v>
       </c>
       <c r="D5">
-        <v>17.07921611079736</v>
+        <v>3.465073943014747</v>
       </c>
       <c r="E5">
-        <v>2.34233514168123E+16</v>
+        <v>5063318616399399</v>
       </c>
       <c r="F5">
-        <v>69.89974021757726</v>
+        <v>15.17698783437313</v>
       </c>
       <c r="G5">
-        <v>6.089391530350194E+16</v>
+        <v>2.012803068345046E+16</v>
       </c>
       <c r="H5">
-        <v>179.5539837968097</v>
+        <v>59.33766438476594</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>1.637082189940862E+16</v>
+        <v>3146555466786846</v>
       </c>
       <c r="B6">
-        <v>51.67431789829589</v>
+        <v>9.70727022961505</v>
       </c>
       <c r="C6">
-        <v>5476368053522549</v>
+        <v>1122229975686020</v>
       </c>
       <c r="D6">
-        <v>17.49312687236132</v>
+        <v>3.47314743509865</v>
       </c>
       <c r="E6">
-        <v>2.276849517983418E+16</v>
+        <v>4943427837449635</v>
       </c>
       <c r="F6">
-        <v>71.59393699674678</v>
+        <v>15.21185697364135</v>
       </c>
       <c r="G6">
-        <v>5.984135882196067E+16</v>
+        <v>1.973029358931199E+16</v>
       </c>
       <c r="H6">
-        <v>185.7993991154161</v>
+        <v>59.68585260719673</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>1.585414259760507E+16</v>
+        <v>3071480380884152</v>
       </c>
       <c r="B7">
-        <v>52.69342223657944</v>
+        <v>9.733861622192743</v>
       </c>
       <c r="C7">
-        <v>5321586211564324</v>
+        <v>1096145328359023</v>
       </c>
       <c r="D7">
-        <v>17.90647195298453</v>
+        <v>3.485207464204398</v>
       </c>
       <c r="E7">
-        <v>2.213218033975044E+16</v>
+        <v>4828811588165810</v>
       </c>
       <c r="F7">
-        <v>73.25672719508309</v>
+        <v>15.26264195748149</v>
       </c>
       <c r="G7">
-        <v>5.880522779888939E+16</v>
+        <v>1.934725647798307E+16</v>
       </c>
       <c r="H7">
-        <v>191.996086955961</v>
+        <v>60.07083848091082</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>1.533341656604362E+16</v>
+        <v>2992108308464941</v>
       </c>
       <c r="B8">
-        <v>53.71702887884266</v>
+        <v>9.753425490887569</v>
       </c>
       <c r="C8">
-        <v>5164624718331558</v>
+        <v>1068532754538415</v>
       </c>
       <c r="D8">
-        <v>18.32944674767066</v>
+        <v>3.494830523556746</v>
       </c>
       <c r="E8">
-        <v>2.148648983108796E+16</v>
+        <v>4707466839823918</v>
       </c>
       <c r="F8">
-        <v>74.93448948288925</v>
+        <v>15.30331018946613</v>
       </c>
       <c r="G8">
-        <v>5.773960082519861E+16</v>
+        <v>1.893870440322665E+16</v>
       </c>
       <c r="H8">
-        <v>198.3602947706767</v>
+        <v>60.43884459036762</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>1.481561569559021E+16</v>
+        <v>2917502210722639</v>
       </c>
       <c r="B9">
-        <v>54.78570754802922</v>
+        <v>9.783459061286651</v>
       </c>
       <c r="C9">
-        <v>5007564472636119</v>
+        <v>1042545333444678</v>
       </c>
       <c r="D9">
-        <v>18.76768500733136</v>
+        <v>3.507980662742991</v>
       </c>
       <c r="E9">
-        <v>2.083997361165289E+16</v>
+        <v>4593250017096829</v>
       </c>
       <c r="F9">
-        <v>76.69076371942482</v>
+        <v>15.36015513923803</v>
       </c>
       <c r="G9">
-        <v>5.665743710791458E+16</v>
+        <v>1.855125957062566E+16</v>
       </c>
       <c r="H9">
-        <v>205.132142705437</v>
+        <v>60.86793892118704</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>1.431227091850334E+16</v>
+        <v>2840011644880684</v>
       </c>
       <c r="B10">
-        <v>55.83336039778831</v>
+        <v>9.792438006827959</v>
       </c>
       <c r="C10">
-        <v>4853934838269438</v>
+        <v>1015519319226984</v>
       </c>
       <c r="D10">
-        <v>19.1970175007815</v>
+        <v>3.513869537521531</v>
       </c>
       <c r="E10">
-        <v>2.020717194474291E+16</v>
+        <v>4474454205345626</v>
       </c>
       <c r="F10">
-        <v>78.42755887105714</v>
+        <v>15.38375236890583</v>
       </c>
       <c r="G10">
-        <v>5.558267856209027E+16</v>
+        <v>1.814525874648729E+16</v>
       </c>
       <c r="H10">
-        <v>212.0138512525523</v>
+        <v>61.16008028454891</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>1.382555734430649E+16</v>
+        <v>2764920816046634</v>
       </c>
       <c r="B11">
-        <v>56.85127408403908</v>
+        <v>9.806879252841384</v>
       </c>
       <c r="C11">
-        <v>4704470592218635</v>
+        <v>989297221809883.6</v>
       </c>
       <c r="D11">
-        <v>19.61850995909978</v>
+        <v>3.521156467319454</v>
       </c>
       <c r="E11">
-        <v>1.959114014764998E+16</v>
+        <v>4359178166986981</v>
       </c>
       <c r="F11">
-        <v>80.12392457555582</v>
+        <v>15.41742868257007</v>
       </c>
       <c r="G11">
-        <v>5.452077062804118E+16</v>
+        <v>1.774829302069402E+16</v>
       </c>
       <c r="H11">
-        <v>218.8751088997281</v>
+        <v>61.53629698067579</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>1.334799125212923E+16</v>
+        <v>2693169722051226</v>
       </c>
       <c r="B12">
-        <v>57.85023905310531</v>
+        <v>9.830213615579277</v>
       </c>
       <c r="C12">
-        <v>4556929625395202</v>
+        <v>964210894424626.9</v>
       </c>
       <c r="D12">
-        <v>20.03602796357595</v>
+        <v>3.531820331028373</v>
       </c>
       <c r="E12">
-        <v>1.898265961417023E+16</v>
+        <v>4248882285474657</v>
       </c>
       <c r="F12">
-        <v>81.79970242098121</v>
+        <v>15.46370717161637</v>
       </c>
       <c r="G12">
-        <v>5.34558671076236E+16</v>
+        <v>1.736567221409168E+16</v>
       </c>
       <c r="H12">
-        <v>225.8140441661776</v>
+        <v>61.92905962307026</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>1.28854652902321E+16</v>
+        <v>2620537276713040</v>
       </c>
       <c r="B13">
-        <v>58.87633517090555</v>
+        <v>9.839042083202131</v>
       </c>
       <c r="C13">
-        <v>4413184222455053</v>
+        <v>938785972015857.8</v>
       </c>
       <c r="D13">
-        <v>20.46401840284303</v>
+        <v>3.537203883481565</v>
       </c>
       <c r="E13">
-        <v>1.838947260032384E+16</v>
+        <v>4137084893561950</v>
       </c>
       <c r="F13">
-        <v>83.51672919896987</v>
+        <v>15.4877443839625</v>
       </c>
       <c r="G13">
-        <v>5.240152930255419E+16</v>
+        <v>1.697499955494226E+16</v>
       </c>
       <c r="H13">
-        <v>232.9743312875718</v>
+        <v>62.25037618835194</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>1.243287769323442E+16</v>
+        <v>2552379559964942</v>
       </c>
       <c r="B14">
-        <v>59.8706711389171</v>
+        <v>9.856732333771383</v>
       </c>
       <c r="C14">
-        <v>4271702961629822</v>
+        <v>914899466621465</v>
       </c>
       <c r="D14">
-        <v>20.88124616164962</v>
+        <v>3.545549120302854</v>
       </c>
       <c r="E14">
-        <v>1.780528112267494E+16</v>
+        <v>4032040395187526</v>
       </c>
       <c r="F14">
-        <v>85.19704200671458</v>
+        <v>15.52549775767282</v>
       </c>
       <c r="G14">
-        <v>5.134664919072273E+16</v>
+        <v>1.660527664781303E+16</v>
       </c>
       <c r="H14">
-        <v>240.1960131045317</v>
+        <v>62.62511363019804</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>1.199939318997811E+16</v>
+        <v>2484336391450275</v>
       </c>
       <c r="B15">
-        <v>60.86561480167339</v>
+        <v>9.87241692705919</v>
       </c>
       <c r="C15">
-        <v>4135415864562526</v>
+        <v>891026012721309.4</v>
       </c>
       <c r="D15">
-        <v>21.2976035027217</v>
+        <v>3.553703354988607</v>
       </c>
       <c r="E15">
-        <v>1.724220984124339E+16</v>
+        <v>3927041895522562</v>
       </c>
       <c r="F15">
-        <v>86.87972297586809</v>
+        <v>15.55823126084324</v>
       </c>
       <c r="G15">
-        <v>5.03134931210216E+16</v>
+        <v>1.623311300608883E+16</v>
       </c>
       <c r="H15">
-        <v>247.5244911145451</v>
+        <v>62.92837525288442</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>1.157844733201236E+16</v>
+        <v>2415138320005998</v>
       </c>
       <c r="B16">
-        <v>61.84911271417266</v>
+        <v>9.878796488445838</v>
       </c>
       <c r="C16">
-        <v>4002330771424478</v>
+        <v>866719495839353</v>
       </c>
       <c r="D16">
-        <v>21.71387304295251</v>
+        <v>3.558113126894061</v>
       </c>
       <c r="E16">
-        <v>1.669205718317528E+16</v>
+        <v>3820127018393541</v>
       </c>
       <c r="F16">
-        <v>88.54401905700435</v>
+        <v>15.57811452117532</v>
       </c>
       <c r="G16">
-        <v>4.928759736566283E+16</v>
+        <v>1.585144309228057E+16</v>
       </c>
       <c r="H16">
-        <v>254.8648790172604</v>
+        <v>63.23245735693445</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>1.116855789217817E+16</v>
+        <v>2350801302822946</v>
       </c>
       <c r="B17">
-        <v>62.82908486266352</v>
+        <v>9.889858377290103</v>
       </c>
       <c r="C17">
-        <v>3872029139002428</v>
+        <v>844095189305107.5</v>
       </c>
       <c r="D17">
-        <v>22.12956352132991</v>
+        <v>3.564081995715395</v>
       </c>
       <c r="E17">
-        <v>1.615311297344111E+16</v>
+        <v>3720600905123770</v>
       </c>
       <c r="F17">
-        <v>90.20754315214948</v>
+        <v>15.60466150080328</v>
       </c>
       <c r="G17">
-        <v>4.826595669619767E+16</v>
+        <v>1.549365264020199E+16</v>
       </c>
       <c r="H17">
-        <v>262.3324186133124</v>
+        <v>63.54774438732132</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>1.077246528990592E+16</v>
+        <v>2284983439059234</v>
       </c>
       <c r="B18">
-        <v>63.80080146284174</v>
+        <v>9.889672952862048</v>
       </c>
       <c r="C18">
-        <v>3745435326085340</v>
+        <v>820924844950055.8</v>
       </c>
       <c r="D18">
-        <v>22.54318632674421</v>
+        <v>3.566075719402557</v>
       </c>
       <c r="E18">
-        <v>1.562922180288351E+16</v>
+        <v>3618662108118331</v>
       </c>
       <c r="F18">
-        <v>91.85960583149786</v>
+        <v>15.61362349637087</v>
       </c>
       <c r="G18">
-        <v>4.725617739851756E+16</v>
+        <v>1.512465585932963E+16</v>
       </c>
       <c r="H18">
-        <v>269.8554727035185</v>
+        <v>63.79742562695867</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>1.038652468000095E+16</v>
+        <v>2223722375822442</v>
       </c>
       <c r="B19">
-        <v>64.74484087293409</v>
+        <v>9.907519646476398</v>
       </c>
       <c r="C19">
-        <v>3621435088643627</v>
+        <v>799335605761960.1</v>
       </c>
       <c r="D19">
-        <v>22.94797191133915</v>
+        <v>3.574202721367765</v>
       </c>
       <c r="E19">
-        <v>1.511579279957992E+16</v>
+        <v>3523669766644082</v>
       </c>
       <c r="F19">
-        <v>93.47502598272335</v>
+        <v>15.6512974744891</v>
       </c>
       <c r="G19">
-        <v>4.624972780771792E+16</v>
+        <v>1.477846386699107E+16</v>
       </c>
       <c r="H19">
-        <v>277.392519851542</v>
+        <v>64.17675844529592</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>1.001424324490467E+16</v>
+        <v>2163220494404835</v>
       </c>
       <c r="B20">
-        <v>65.67613717631197</v>
+        <v>9.914497994059124</v>
       </c>
       <c r="C20">
-        <v>3501205297097938</v>
+        <v>777992024698729.5</v>
       </c>
       <c r="D20">
-        <v>23.34659068115512</v>
+        <v>3.578825678185724</v>
       </c>
       <c r="E20">
-        <v>1.461771887035449E+16</v>
+        <v>3429749138353762</v>
       </c>
       <c r="F20">
-        <v>95.07570726764352</v>
+        <v>15.67013767426542</v>
       </c>
       <c r="G20">
-        <v>4.525657373659486E+16</v>
+        <v>1.443392729625168E+16</v>
       </c>
       <c r="H20">
-        <v>285.013220553332</v>
+        <v>64.43153558534108</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>9655277452937664</v>
+        <v>2103038507467298</v>
       </c>
       <c r="B21">
-        <v>66.6247127023202</v>
+        <v>9.912809473951746</v>
       </c>
       <c r="C21">
-        <v>3384692461935796</v>
+        <v>756739650199989.4</v>
       </c>
       <c r="D21">
-        <v>23.75205091797715</v>
+        <v>3.579745824130707</v>
       </c>
       <c r="E21">
-        <v>1.413480151618025E+16</v>
+        <v>3336220785203432</v>
       </c>
       <c r="F21">
-        <v>96.70017480405896</v>
+        <v>15.67738221977485</v>
       </c>
       <c r="G21">
-        <v>4.427697678068222E+16</v>
+        <v>1.408857581431865E+16</v>
       </c>
       <c r="H21">
-        <v>292.7780852904163</v>
+        <v>64.70451558397944</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>9308505285479844</v>
+        <v>2048698253650269</v>
       </c>
       <c r="B22">
-        <v>67.55932508370694</v>
+        <v>9.933295254200114</v>
       </c>
       <c r="C22">
-        <v>3271585642704149</v>
+        <v>737531597438279.6</v>
       </c>
       <c r="D22">
-        <v>24.15330191132535</v>
+        <v>3.589121543479696</v>
       </c>
       <c r="E22">
-        <v>1.366577331845991E+16</v>
+        <v>3251681379136657</v>
       </c>
       <c r="F22">
-        <v>98.3034548616629</v>
+        <v>15.71653741922585</v>
       </c>
       <c r="G22">
-        <v>4.330900015823929E+16</v>
+        <v>1.377445495511756E+16</v>
       </c>
       <c r="H22">
-        <v>300.5534815480536</v>
+        <v>65.01862563175638</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>8973466110454795</v>
+        <v>1989070005036664</v>
       </c>
       <c r="B23">
-        <v>68.47275276741554</v>
+        <v>9.920356751219837</v>
       </c>
       <c r="C23">
-        <v>3161783473995338</v>
+        <v>716433988209299.5</v>
       </c>
       <c r="D23">
-        <v>24.5478129299006</v>
+        <v>3.586957427034007</v>
       </c>
       <c r="E23">
-        <v>1.321023349625743E+16</v>
+        <v>3158817038401677</v>
       </c>
       <c r="F23">
-        <v>99.87434042383248</v>
+        <v>15.70223224770849</v>
       </c>
       <c r="G23">
-        <v>4.235241344694199E+16</v>
+        <v>1.34272270843209E+16</v>
       </c>
       <c r="H23">
-        <v>308.2941424424909</v>
+        <v>65.09078315267465</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>8648925843863916</v>
+        <v>1932242270336658</v>
       </c>
       <c r="B24">
-        <v>69.37934604166165</v>
+        <v>9.912922143179033</v>
       </c>
       <c r="C24">
-        <v>3054925925706032</v>
+        <v>696307360826194</v>
       </c>
       <c r="D24">
-        <v>24.93973192225052</v>
+        <v>3.585324038779834</v>
       </c>
       <c r="E24">
-        <v>1.27667061056445E+16</v>
+        <v>3070218298334947</v>
       </c>
       <c r="F24">
-        <v>101.436449298376</v>
+        <v>15.70138029351642</v>
       </c>
       <c r="G24">
-        <v>4.140465944936582E+16</v>
+        <v>1.309379918002072E+16</v>
       </c>
       <c r="H24">
-        <v>316.1056652412324</v>
+        <v>65.36973617904026</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>8336352442656136</v>
+        <v>1881577628588509</v>
       </c>
       <c r="B25">
-        <v>70.29255616374802</v>
+        <v>9.92315086640623</v>
       </c>
       <c r="C25">
-        <v>2951540762149804</v>
+        <v>678347094050043.1</v>
       </c>
       <c r="D25">
-        <v>25.33501225380144</v>
+        <v>3.590292175707341</v>
       </c>
       <c r="E25">
-        <v>1.233739943953565E+16</v>
+        <v>2991149155342171</v>
       </c>
       <c r="F25">
-        <v>103.0043069380223</v>
+        <v>15.72611146047936</v>
       </c>
       <c r="G25">
-        <v>4.047108832329971E+16</v>
+        <v>1.279443932189416E+16</v>
       </c>
       <c r="H25">
-        <v>323.9637159981456</v>
+        <v>65.68817553858183</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>8032307073685981</v>
+        <v>1830053668136605</v>
       </c>
       <c r="B26">
-        <v>71.17466024297934</v>
+        <v>9.923672382352343</v>
       </c>
       <c r="C26">
-        <v>2850530108133062</v>
+        <v>660066291256691.8</v>
       </c>
       <c r="D26">
-        <v>25.71922249522702</v>
+        <v>3.592205541107516</v>
       </c>
       <c r="E26">
-        <v>1.191777030264029E+16</v>
+        <v>2910662217904258</v>
       </c>
       <c r="F26">
-        <v>104.5282633317037</v>
+        <v>15.73400996236205</v>
       </c>
       <c r="G26">
-        <v>3.954236349017232E+16</v>
+        <v>1.248795140757271E+16</v>
       </c>
       <c r="H26">
-        <v>331.7866703753715</v>
+        <v>65.89194646686059</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>7740177559266757</v>
+        <v>1781207512085930</v>
       </c>
       <c r="B27">
-        <v>72.06374553135838</v>
+        <v>9.935181036471619</v>
       </c>
       <c r="C27">
-        <v>2753058393086788</v>
+        <v>642720723223411.8</v>
       </c>
       <c r="D27">
-        <v>26.10340157795662</v>
+        <v>3.598033019266881</v>
       </c>
       <c r="E27">
-        <v>1.151267157197625E+16</v>
+        <v>2834286737291912</v>
       </c>
       <c r="F27">
-        <v>106.0650336791526</v>
+        <v>15.75888415501224</v>
       </c>
       <c r="G27">
-        <v>3.862983480014761E+16</v>
+        <v>1.219545831462843E+16</v>
       </c>
       <c r="H27">
-        <v>339.7616380088911</v>
+        <v>66.1556590795321</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>7458761622275302</v>
+        <v>1731399154169760</v>
       </c>
       <c r="B28">
-        <v>72.95015890398594</v>
+        <v>9.92732330515639</v>
       </c>
       <c r="C28">
-        <v>2658767491828835</v>
+        <v>625018544566637.6</v>
       </c>
       <c r="D28">
-        <v>26.486440995517</v>
+        <v>3.597293087558543</v>
       </c>
       <c r="E28">
-        <v>1.112063200913392E+16</v>
+        <v>2756334806830859</v>
       </c>
       <c r="F28">
-        <v>107.5961585445936</v>
+        <v>15.75162199786758</v>
       </c>
       <c r="G28">
-        <v>3.7731044921453E+16</v>
+        <v>1.189524029326838E+16</v>
       </c>
       <c r="H28">
-        <v>347.7742696511225</v>
+        <v>66.23871889337886</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>7188412102018194</v>
+        <v>1681168620833675</v>
       </c>
       <c r="B29">
-        <v>73.81250777270063</v>
+        <v>9.909102181636223</v>
       </c>
       <c r="C29">
-        <v>2567816085979402</v>
+        <v>607151019360648.8</v>
       </c>
       <c r="D29">
-        <v>26.86171833831418</v>
+        <v>3.592211352122177</v>
       </c>
       <c r="E29">
-        <v>1.074232748556119E+16</v>
+        <v>2677648382514202</v>
       </c>
       <c r="F29">
-        <v>109.0858441581361</v>
+        <v>15.73025469211124</v>
       </c>
       <c r="G29">
-        <v>3.684840545584844E+16</v>
+        <v>1.159044434119437E+16</v>
       </c>
       <c r="H29">
-        <v>355.6419583879235</v>
+        <v>66.33888937857459</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>6926311717999498</v>
+        <v>1634383458504390</v>
       </c>
       <c r="B30">
-        <v>74.65452857160118</v>
+        <v>9.907615878380303</v>
       </c>
       <c r="C30">
-        <v>2479291161988067</v>
+        <v>590495191722819.9</v>
       </c>
       <c r="D30">
-        <v>27.23107872948167</v>
+        <v>3.592976411672129</v>
       </c>
       <c r="E30">
-        <v>1.037397420460501E+16</v>
+        <v>2604292347721134</v>
       </c>
       <c r="F30">
-        <v>110.5413931785723</v>
+        <v>15.73536357701183</v>
       </c>
       <c r="G30">
-        <v>3.597380835639522E+16</v>
+        <v>1.130469487492626E+16</v>
       </c>
       <c r="H30">
-        <v>363.41085159386</v>
+        <v>66.55239192210011</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>6673274822428067</v>
+        <v>1587903730336247</v>
       </c>
       <c r="B31">
-        <v>75.49521150054137</v>
+        <v>9.897519567582544</v>
       </c>
       <c r="C31">
-        <v>2393498029832889</v>
+        <v>573934834334900.4</v>
       </c>
       <c r="D31">
-        <v>27.60101616169713</v>
+        <v>3.590651057234591</v>
       </c>
       <c r="E31">
-        <v>1.001685453992305E+16</v>
+        <v>2531351254214856</v>
       </c>
       <c r="F31">
-        <v>111.9896851892358</v>
+        <v>15.7266111179176</v>
       </c>
       <c r="G31">
-        <v>3.511090868072725E+16</v>
+        <v>1.101901259562347E+16</v>
       </c>
       <c r="H31">
-        <v>371.1402872020735</v>
+        <v>66.70351920002382</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>6426917277142389</v>
+        <v>1544442152818600</v>
       </c>
       <c r="B32">
-        <v>76.31947093658631</v>
+        <v>9.897969126026464</v>
       </c>
       <c r="C32">
-        <v>2309655166098106</v>
+        <v>558437829436197.2</v>
       </c>
       <c r="D32">
-        <v>27.96097610436509</v>
+        <v>3.592234741212029</v>
       </c>
       <c r="E32">
-        <v>9667725933942934</v>
+        <v>2463088763873724</v>
       </c>
       <c r="F32">
-        <v>113.424121577566</v>
+        <v>15.73348386198512</v>
       </c>
       <c r="G32">
-        <v>3.425239548749186E+16</v>
+        <v>1.075024014202071E+16</v>
       </c>
       <c r="H32">
-        <v>379.0559401201564</v>
+        <v>66.88722407868708</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>6193146879967691</v>
+        <v>1500009326196460</v>
       </c>
       <c r="B33">
-        <v>77.14396371411348</v>
+        <v>9.88229060206079</v>
       </c>
       <c r="C33">
-        <v>2229806163484304</v>
+        <v>542582501336978.4</v>
       </c>
       <c r="D33">
-        <v>28.32078426952782</v>
+        <v>3.588222233350868</v>
       </c>
       <c r="E33">
-        <v>9335111149690456</v>
+        <v>2393242900212062</v>
       </c>
       <c r="F33">
-        <v>114.8501345269477</v>
+        <v>15.71399346098232</v>
       </c>
       <c r="G33">
-        <v>3.342013395854805E+16</v>
+        <v>1.047380273709365E+16</v>
       </c>
       <c r="H33">
-        <v>386.8629263699788</v>
+        <v>66.93482355114506</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>5964268825601553</v>
+        <v>1457084556366572</v>
       </c>
       <c r="B34">
-        <v>77.93148323873748</v>
+        <v>9.870896649394936</v>
       </c>
       <c r="C34">
-        <v>2151351832898821</v>
+        <v>527253751211602.7</v>
       </c>
       <c r="D34">
-        <v>28.67301768934848</v>
+        <v>3.58480881166989</v>
       </c>
       <c r="E34">
-        <v>9008194655784462</v>
+        <v>2325711905987224</v>
       </c>
       <c r="F34">
-        <v>116.2079402854982</v>
+        <v>15.7046055097031</v>
       </c>
       <c r="G34">
-        <v>3.258785965800289E+16</v>
+        <v>1.020513686334292E+16</v>
       </c>
       <c r="H34">
-        <v>394.2944563026045</v>
+        <v>67.13970805353702</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>5743081712561535</v>
+        <v>1418897834705766</v>
       </c>
       <c r="B35">
-        <v>78.72373799613705</v>
+        <v>9.880052295285781</v>
       </c>
       <c r="C35">
-        <v>2075271270113602</v>
+        <v>513607428465588.3</v>
       </c>
       <c r="D35">
-        <v>29.02103964074236</v>
+        <v>3.589530680517279</v>
       </c>
       <c r="E35">
-        <v>8691064076832440</v>
+        <v>2265588885339226</v>
       </c>
       <c r="F35">
-        <v>117.5849601173268</v>
+        <v>15.7240237500858</v>
       </c>
       <c r="G35">
-        <v>3.176637625516545E+16</v>
+        <v>9964781169579360</v>
       </c>
       <c r="H35">
-        <v>402.0443191607952</v>
+        <v>67.34126802037395</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>5530973290956898</v>
+        <v>1376949359715262</v>
       </c>
       <c r="B36">
-        <v>79.50849094399969</v>
+        <v>9.857209839046181</v>
       </c>
       <c r="C36">
-        <v>2002068672364241</v>
+        <v>498606411916139.8</v>
       </c>
       <c r="D36">
-        <v>29.3644061388692</v>
+        <v>3.582895054355031</v>
       </c>
       <c r="E36">
-        <v>8385831682179886</v>
+        <v>2199493022136883</v>
       </c>
       <c r="F36">
-        <v>118.9499942553041</v>
+        <v>15.69250900690195</v>
       </c>
       <c r="G36">
-        <v>3.09620003413749E+16</v>
+        <v>9699272325730974</v>
       </c>
       <c r="H36">
-        <v>409.7981423938147</v>
+        <v>67.3220628337763</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>5326689852605755</v>
+        <v>1338880644185308</v>
       </c>
       <c r="B37">
-        <v>80.28743081978315</v>
+        <v>9.854415284758181</v>
       </c>
       <c r="C37">
-        <v>1931337869996306</v>
+        <v>484983374693177.2</v>
       </c>
       <c r="D37">
-        <v>29.70771825944999</v>
+        <v>3.582598241972504</v>
       </c>
       <c r="E37">
-        <v>8090814323713952</v>
+        <v>2139464735253030</v>
       </c>
       <c r="F37">
-        <v>120.2965171895187</v>
+        <v>15.69553300229876</v>
       </c>
       <c r="G37">
-        <v>3.017120931409254E+16</v>
+        <v>9456968657278782</v>
       </c>
       <c r="H37">
-        <v>417.3752888518067</v>
+        <v>67.54610733959316</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>5129092522032676</v>
+        <v>1301837683139184</v>
       </c>
       <c r="B38">
-        <v>81.04174539666757</v>
+        <v>9.84359928298205</v>
       </c>
       <c r="C38">
-        <v>1862706493063060</v>
+        <v>471718763267510.3</v>
       </c>
       <c r="D38">
-        <v>30.04229783575464</v>
+        <v>3.580208428406111</v>
       </c>
       <c r="E38">
-        <v>7804467483008865</v>
+        <v>2081012215509172</v>
       </c>
       <c r="F38">
-        <v>121.6020354449669</v>
+        <v>15.68228414823519</v>
       </c>
       <c r="G38">
-        <v>2.93905941608943E+16</v>
+        <v>9219946593660690</v>
       </c>
       <c r="H38">
-        <v>424.788370162974</v>
+        <v>67.58098621765339</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>4938395364364252</v>
+        <v>1263626105413804</v>
       </c>
       <c r="B39">
-        <v>81.78536260929168</v>
+        <v>9.821811920207089</v>
       </c>
       <c r="C39">
-        <v>1796268911022688</v>
+        <v>458026733655963.1</v>
       </c>
       <c r="D39">
-        <v>30.36865470626196</v>
+        <v>3.573652129848897</v>
       </c>
       <c r="E39">
-        <v>7527192751838966</v>
+        <v>2020672493209830</v>
       </c>
       <c r="F39">
-        <v>122.8991163812423</v>
+        <v>15.65254691280048</v>
       </c>
       <c r="G39">
-        <v>2.862193654436878E+16</v>
+        <v>8974144983786432</v>
       </c>
       <c r="H39">
-        <v>432.3616558648695</v>
+        <v>67.57904230685135</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>4756227783561754</v>
+        <v>1227690324301667</v>
       </c>
       <c r="B40">
-        <v>82.53187039832761</v>
+        <v>9.812609897848972</v>
       </c>
       <c r="C40">
-        <v>1732615261714179</v>
+        <v>445141860535642</v>
       </c>
       <c r="D40">
-        <v>30.69681935201393</v>
+        <v>3.571375605365965</v>
       </c>
       <c r="E40">
-        <v>7261461880908754</v>
+        <v>1963886395706940</v>
       </c>
       <c r="F40">
-        <v>124.1910674495421</v>
+        <v>15.64339672391673</v>
       </c>
       <c r="G40">
-        <v>2.787300743905214E+16</v>
+        <v>8741764238526823</v>
       </c>
       <c r="H40">
-        <v>439.7872223638253</v>
+        <v>67.68761938857182</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>4579309711524332</v>
+        <v>1191801000101001</v>
       </c>
       <c r="B41">
-        <v>83.25759902574471</v>
+        <v>9.785753964172041</v>
       </c>
       <c r="C41">
-        <v>1670618839889032</v>
+        <v>432265589760728.9</v>
       </c>
       <c r="D41">
-        <v>31.0198436574182</v>
+        <v>3.562861649137438</v>
       </c>
       <c r="E41">
-        <v>7002578907378862</v>
+        <v>1907134865926598</v>
       </c>
       <c r="F41">
-        <v>125.442574148812</v>
+        <v>15.6053311481001</v>
       </c>
       <c r="G41">
-        <v>2.713136705830364E+16</v>
+        <v>8508493393884181</v>
       </c>
       <c r="H41">
-        <v>446.9451634076665</v>
+        <v>67.64505256052958</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>4408999813356733</v>
+        <v>1157053828092708</v>
       </c>
       <c r="B42">
-        <v>83.97742021642533</v>
+        <v>9.757747975035439</v>
       </c>
       <c r="C42">
-        <v>1610771880552125</v>
+        <v>419791413524147.6</v>
       </c>
       <c r="D42">
-        <v>31.3384455873435</v>
+        <v>3.553534150130958</v>
       </c>
       <c r="E42">
-        <v>6752605603167689</v>
+        <v>1852152358923680</v>
       </c>
       <c r="F42">
-        <v>126.686135530989</v>
+        <v>15.56663817258434</v>
       </c>
       <c r="G42">
-        <v>2.640356390545884E+16</v>
+        <v>8281501765536496</v>
       </c>
       <c r="H42">
-        <v>454.1283230133208</v>
+        <v>67.645180753044</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>4244399818464836</v>
+        <v>1124115631920670</v>
       </c>
       <c r="B43">
-        <v>84.6493851090152</v>
+        <v>9.746630324228407</v>
       </c>
       <c r="C43">
-        <v>1552775196445516</v>
+        <v>407959664783273.1</v>
       </c>
       <c r="D43">
-        <v>31.64025145638678</v>
+        <v>3.550013785732955</v>
       </c>
       <c r="E43">
-        <v>6510298743729138</v>
+        <v>1799998582835430</v>
       </c>
       <c r="F43">
-        <v>127.8504014651847</v>
+        <v>15.55573487781775</v>
       </c>
       <c r="G43">
-        <v>2.568670389863712E+16</v>
+        <v>8065278260435874</v>
       </c>
       <c r="H43">
-        <v>460.9248808934908</v>
+        <v>67.80040570012356</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>4085154387582274</v>
+        <v>1093682216279566</v>
       </c>
       <c r="B44">
-        <v>85.31526367823732</v>
+        <v>9.746689138900615</v>
       </c>
       <c r="C44">
-        <v>1496517926213746</v>
+        <v>397021601079545.9</v>
       </c>
       <c r="D44">
-        <v>31.93666303826332</v>
+        <v>3.550727382655964</v>
       </c>
       <c r="E44">
-        <v>6275200758141039</v>
+        <v>1751781614315403</v>
       </c>
       <c r="F44">
-        <v>129.01048815111</v>
+        <v>15.56134440947175</v>
       </c>
       <c r="G44">
-        <v>2.498006479157464E+16</v>
+        <v>7864581622580627</v>
       </c>
       <c r="H44">
-        <v>467.8453007964953</v>
+        <v>67.98408049218439</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>3932549315540010</v>
+        <v>1063699468500776</v>
       </c>
       <c r="B45">
-        <v>85.98431135516141</v>
+        <v>9.729170692034392</v>
       </c>
       <c r="C45">
-        <v>1442469590783815</v>
+        <v>386239812002055.1</v>
       </c>
       <c r="D45">
-        <v>32.23140288983546</v>
+        <v>3.545769688092017</v>
       </c>
       <c r="E45">
-        <v>6049279737186607</v>
+        <v>1704251169477284</v>
       </c>
       <c r="F45">
-        <v>130.1768700633221</v>
+        <v>15.53585167330871</v>
       </c>
       <c r="G45">
-        <v>2.429032520635158E+16</v>
+        <v>7665989467220057</v>
       </c>
       <c r="H45">
-        <v>474.8561858579679</v>
+        <v>67.92238685983108</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>3785682406539832</v>
+        <v>1032528438453804</v>
       </c>
       <c r="B46">
-        <v>86.65847914324698</v>
+        <v>9.700032266567444</v>
       </c>
       <c r="C46">
-        <v>1390326061903106</v>
+        <v>375024709369858.4</v>
       </c>
       <c r="D46">
-        <v>32.53072925059472</v>
+        <v>3.536088669301211</v>
       </c>
       <c r="E46">
-        <v>5831270448741421</v>
+        <v>1654808014882186</v>
       </c>
       <c r="F46">
-        <v>131.3379194034599</v>
+        <v>15.49404589048677</v>
       </c>
       <c r="G46">
-        <v>2.36144577058496E+16</v>
+        <v>7458606133048359</v>
       </c>
       <c r="H46">
-        <v>481.611225893354</v>
+        <v>67.87082978830868</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>3643637417735000</v>
+        <v>1004309875184415</v>
       </c>
       <c r="B47">
-        <v>87.30209722122584</v>
+        <v>9.69997934205316</v>
       </c>
       <c r="C47">
-        <v>1339774701547206</v>
+        <v>364866592307466.9</v>
       </c>
       <c r="D47">
-        <v>32.81546630957161</v>
+        <v>3.537033647455891</v>
       </c>
       <c r="E47">
-        <v>5619870706935602</v>
+        <v>1610022518871710</v>
       </c>
       <c r="F47">
-        <v>132.4579507075977</v>
+        <v>15.49777379199301</v>
       </c>
       <c r="G47">
-        <v>2.294909976657974E+16</v>
+        <v>7270049859532354</v>
       </c>
       <c r="H47">
-        <v>488.3660277809122</v>
+        <v>67.98823321272208</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>3507954243712944</v>
+        <v>974385270473082.9</v>
       </c>
       <c r="B48">
-        <v>87.94279421082425</v>
+        <v>9.666179655736366</v>
       </c>
       <c r="C48">
-        <v>1291376633751162</v>
+        <v>354088834099624.8</v>
       </c>
       <c r="D48">
-        <v>33.10173755890376</v>
+        <v>3.525862524771212</v>
       </c>
       <c r="E48">
-        <v>5417432173624966</v>
+        <v>1562502846798186</v>
       </c>
       <c r="F48">
-        <v>133.5579798463386</v>
+        <v>15.4472828130126</v>
       </c>
       <c r="G48">
-        <v>2.230242140847917E+16</v>
+        <v>7069239763474363</v>
       </c>
       <c r="H48">
-        <v>494.7303705416916</v>
+        <v>67.85580000155622</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>3375273186572975</v>
+        <v>946734565035829.6</v>
       </c>
       <c r="B49">
-        <v>88.54338704221763</v>
+        <v>9.637797382310628</v>
       </c>
       <c r="C49">
-        <v>1243944050812356</v>
+        <v>344125011662555.2</v>
       </c>
       <c r="D49">
-        <v>33.37304382890705</v>
+        <v>3.515923656000453</v>
       </c>
       <c r="E49">
-        <v>5218990629150329</v>
+        <v>1518569770823595</v>
       </c>
       <c r="F49">
-        <v>134.5957172722129</v>
+        <v>15.40775881242705</v>
       </c>
       <c r="G49">
-        <v>2.165916539330397E+16</v>
+        <v>6882901105719004</v>
       </c>
       <c r="H49">
-        <v>500.8695175381918</v>
+        <v>67.86070553191938</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>3248648950855398</v>
+        <v>920166890852653.9</v>
       </c>
       <c r="B50">
-        <v>89.15320634741023</v>
+        <v>9.620569350780048</v>
       </c>
       <c r="C50">
-        <v>1198578946262830</v>
+        <v>334546888009152.1</v>
       </c>
       <c r="D50">
-        <v>33.64480232485799</v>
+        <v>3.510794565142841</v>
       </c>
       <c r="E50">
-        <v>5029160303738635</v>
+        <v>1476335450053020</v>
       </c>
       <c r="F50">
-        <v>135.6483948892356</v>
+        <v>15.3827753811617</v>
       </c>
       <c r="G50">
-        <v>2.103488261947044E+16</v>
+        <v>6703142805433965</v>
       </c>
       <c r="H50">
-        <v>507.0958064966654</v>
+        <v>67.8088436922848</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>3125360874517695</v>
+        <v>892568575734283.9</v>
       </c>
       <c r="B51">
-        <v>89.74702388725824</v>
+        <v>9.594305334477388</v>
       </c>
       <c r="C51">
-        <v>1154316723646638</v>
+        <v>324592453177461.4</v>
       </c>
       <c r="D51">
-        <v>33.9113181161468</v>
+        <v>3.501840857447301</v>
       </c>
       <c r="E51">
-        <v>4843908775878405</v>
+        <v>1432439837054653</v>
       </c>
       <c r="F51">
-        <v>136.6720565104776</v>
+        <v>15.34572366442514</v>
       </c>
       <c r="G51">
-        <v>2.041696093425375E+16</v>
+        <v>6515660125602362</v>
       </c>
       <c r="H51">
-        <v>513.1423450889122</v>
+        <v>67.79303781717756</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>3007547727697438</v>
+        <v>868387510437407.8</v>
       </c>
       <c r="B52">
-        <v>90.38535575949204</v>
+        <v>9.586868478743883</v>
       </c>
       <c r="C52">
-        <v>1111934423914568</v>
+        <v>315866604922346.6</v>
       </c>
       <c r="D52">
-        <v>34.18789198783452</v>
+        <v>3.498788417469789</v>
       </c>
       <c r="E52">
-        <v>4666491777590998</v>
+        <v>1393960218609918</v>
       </c>
       <c r="F52">
-        <v>137.7768945390037</v>
+        <v>15.34174581879163</v>
       </c>
       <c r="G52">
-        <v>1.981686880860305E+16</v>
+        <v>6350758124501991</v>
       </c>
       <c r="H52">
-        <v>519.826535394479</v>
+        <v>68.04116146036894</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>2894549702853934</v>
+        <v>846434418772807.6</v>
       </c>
       <c r="B53">
-        <v>91.00933406161137</v>
+        <v>9.582373947814435</v>
       </c>
       <c r="C53">
-        <v>1071205209726618</v>
+        <v>307941506778747.1</v>
       </c>
       <c r="D53">
-        <v>34.46693716840682</v>
+        <v>3.498676394445548</v>
       </c>
       <c r="E53">
-        <v>4495963830011518</v>
+        <v>1359010448554336</v>
       </c>
       <c r="F53">
-        <v>138.8295279718918</v>
+        <v>15.33433745478368</v>
       </c>
       <c r="G53">
-        <v>1.923219000201016E+16</v>
+        <v>6200533683378202</v>
       </c>
       <c r="H53">
-        <v>525.6193708008011</v>
+        <v>67.96766104952687</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>2784103010969224</v>
+        <v>820136837068201.6</v>
       </c>
       <c r="B54">
-        <v>91.52656093432262</v>
+        <v>9.535865865942968</v>
       </c>
       <c r="C54">
-        <v>1031320313922586</v>
+        <v>298443996572289.5</v>
       </c>
       <c r="D54">
-        <v>34.71238022962903</v>
+        <v>3.48340902120337</v>
       </c>
       <c r="E54">
-        <v>4328941516250758</v>
+        <v>1317124651377841</v>
       </c>
       <c r="F54">
-        <v>139.6963269212368</v>
+        <v>15.26011294950897</v>
       </c>
       <c r="G54">
-        <v>1.865181481659065E+16</v>
+        <v>6019929116486084</v>
       </c>
       <c r="H54">
-        <v>530.166061617825</v>
+        <v>67.60920047959193</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>2676319606695566</v>
+        <v>796065609663913.1</v>
       </c>
       <c r="B55">
-        <v>91.94816136591704</v>
+        <v>9.514865364616904</v>
       </c>
       <c r="C55">
-        <v>992325034853863</v>
+        <v>289746676141086.4</v>
       </c>
       <c r="D55">
-        <v>34.90744866272411</v>
+        <v>3.475586882126184</v>
       </c>
       <c r="E55">
-        <v>4165616405259715</v>
+        <v>1278766241003037</v>
       </c>
       <c r="F55">
-        <v>140.4583998623076</v>
+        <v>15.23361730312119</v>
       </c>
       <c r="G55">
-        <v>1.807668907390614E+16</v>
+        <v>5853988384535610</v>
       </c>
       <c r="H55">
-        <v>535.3316258865744</v>
+        <v>67.7293571807443</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>2574461532410160</v>
+        <v>774409353664028.2</v>
       </c>
       <c r="B56">
-        <v>92.50355763538403</v>
+        <v>9.48795977838633</v>
       </c>
       <c r="C56">
-        <v>955407635381225</v>
+        <v>281918758851402.9</v>
       </c>
       <c r="D56">
-        <v>35.14760299370382</v>
+        <v>3.466113477686732</v>
       </c>
       <c r="E56">
-        <v>4010968462765532</v>
+        <v>1244240913093044</v>
       </c>
       <c r="F56">
-        <v>141.4327117730132</v>
+        <v>15.19494596128512</v>
       </c>
       <c r="G56">
-        <v>1.752499841086865E+16</v>
+        <v>5704180949053356</v>
       </c>
       <c r="H56">
-        <v>541.5189347115693</v>
+        <v>67.69549963934412</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>2476133230410362</v>
+        <v>752572053837374.6</v>
       </c>
       <c r="B57">
-        <v>93.00530658993056</v>
+        <v>9.450424629582233</v>
       </c>
       <c r="C57">
-        <v>919708534150506.9</v>
+        <v>274022362157035.3</v>
       </c>
       <c r="D57">
-        <v>35.37639567524879</v>
+        <v>3.453916298110178</v>
       </c>
       <c r="E57">
-        <v>3861400234976670</v>
+        <v>1209412298478816</v>
       </c>
       <c r="F57">
-        <v>142.2922347248294</v>
+        <v>15.13456383020025</v>
       </c>
       <c r="G57">
-        <v>1.698465950893533E+16</v>
+        <v>5552624177632993</v>
       </c>
       <c r="H57">
-        <v>546.4824145708495</v>
+        <v>67.38375019401472</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>2381023564367030</v>
+        <v>729003344235464.2</v>
       </c>
       <c r="B58">
-        <v>93.4714194798274</v>
+        <v>9.4108909379762</v>
       </c>
       <c r="C58">
-        <v>885120661105133.1</v>
+        <v>265496457269192.8</v>
       </c>
       <c r="D58">
-        <v>35.59153730702061</v>
+        <v>3.440575898569298</v>
       </c>
       <c r="E58">
-        <v>3716465406646410</v>
+        <v>1171805697678784</v>
       </c>
       <c r="F58">
-        <v>143.0931095688544</v>
+        <v>15.07307982956989</v>
       </c>
       <c r="G58">
-        <v>1.645453991057876E+16</v>
+        <v>5388487462244738</v>
       </c>
       <c r="H58">
-        <v>551.1280475417145</v>
+        <v>67.14656281336927</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>2289117269504412</v>
+        <v>707072167344981.2</v>
       </c>
       <c r="B59">
-        <v>93.89255350349273</v>
+        <v>9.380388393134316</v>
       </c>
       <c r="C59">
-        <v>851643913413075</v>
+        <v>257559724256127.4</v>
       </c>
       <c r="D59">
-        <v>35.78958693196848</v>
+        <v>3.428632777232242</v>
       </c>
       <c r="E59">
-        <v>3576165649404672</v>
+        <v>1136796531720354</v>
       </c>
       <c r="F59">
-        <v>143.8202152154202</v>
+        <v>15.03332402462714</v>
       </c>
       <c r="G59">
-        <v>1.593510233713021E+16</v>
+        <v>5235226048967827</v>
       </c>
       <c r="H59">
-        <v>555.3717387692068</v>
+        <v>67.29269102522575</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>2200064163833628</v>
+        <v>689620034594341.1</v>
       </c>
       <c r="B60">
-        <v>94.28574243528554</v>
+        <v>9.373381739770076</v>
       </c>
       <c r="C60">
-        <v>819155733839972.1</v>
+        <v>251241717860073.4</v>
       </c>
       <c r="D60">
-        <v>35.97601811548694</v>
+        <v>3.426380400432506</v>
       </c>
       <c r="E60">
-        <v>3439989256886056</v>
+        <v>1108926705946456</v>
       </c>
       <c r="F60">
-        <v>144.5033631060956</v>
+        <v>15.02551018393931</v>
       </c>
       <c r="G60">
-        <v>1.542488077165738E+16</v>
+        <v>5112899109441820</v>
       </c>
       <c r="H60">
-        <v>559.42659041463</v>
+        <v>67.36520188079876</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>2114138067973401</v>
+        <v>669361640920713.9</v>
       </c>
       <c r="B61">
-        <v>94.72478232991179</v>
+        <v>9.327443649279338</v>
       </c>
       <c r="C61">
-        <v>787760820562664.2</v>
+        <v>243905335824785.4</v>
       </c>
       <c r="D61">
-        <v>36.18212635552862</v>
+        <v>3.411429673826963</v>
       </c>
       <c r="E61">
-        <v>3308376929558538</v>
+        <v>1076563634363302</v>
       </c>
       <c r="F61">
-        <v>145.2446435478408</v>
+        <v>14.94977710550015</v>
       </c>
       <c r="G61">
-        <v>1.492595564143117E+16</v>
+        <v>4970492755002755</v>
       </c>
       <c r="H61">
-        <v>563.3896483650336</v>
+        <v>66.91318290745919</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <v>2030477391064119</v>
+        <v>648901296275545.6</v>
       </c>
       <c r="B62">
-        <v>95.23150893808034</v>
+        <v>9.299145917600315</v>
       </c>
       <c r="C62">
-        <v>757148580396911.5</v>
+        <v>236493138715036.4</v>
       </c>
       <c r="D62">
-        <v>36.41111227098646</v>
+        <v>3.401344661375154</v>
       </c>
       <c r="E62">
-        <v>3180028232146002</v>
+        <v>1043865012501933</v>
       </c>
       <c r="F62">
-        <v>146.0965280683879</v>
+        <v>14.90880024790509</v>
       </c>
       <c r="G62">
-        <v>1.443377447175647E+16</v>
+        <v>4826217700672974</v>
       </c>
       <c r="H62">
-        <v>567.9749843152129</v>
+        <v>66.87227380554002</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>1950493909041352</v>
+        <v>630877898001218.9</v>
       </c>
       <c r="B63">
-        <v>95.62426425392471</v>
+        <v>9.280237458025573</v>
       </c>
       <c r="C63">
-        <v>727840123918318.8</v>
+        <v>229961543579957.3</v>
       </c>
       <c r="D63">
-        <v>36.59162052631035</v>
+        <v>3.394348758983432</v>
       </c>
       <c r="E63">
-        <v>3057129781120350</v>
+        <v>1015050210506452</v>
       </c>
       <c r="F63">
-        <v>146.7828845965616</v>
+        <v>14.88361248341703</v>
       </c>
       <c r="G63">
-        <v>1.395716196963888E+16</v>
+        <v>4698750670911324</v>
       </c>
       <c r="H63">
-        <v>572.1690901222184</v>
+        <v>66.93555334206856</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>1873060333474064</v>
+        <v>613318185902516.9</v>
       </c>
       <c r="B64">
-        <v>96.06027949915989</v>
+        <v>9.236075788468876</v>
       </c>
       <c r="C64">
-        <v>699427000624351.1</v>
+        <v>223595971738238.8</v>
       </c>
       <c r="D64">
-        <v>36.78781423291498</v>
+        <v>3.3787680255412</v>
       </c>
       <c r="E64">
-        <v>2937970610144926</v>
+        <v>986967006256406.6</v>
       </c>
       <c r="F64">
-        <v>147.5347257850324</v>
+        <v>14.81510963302816</v>
       </c>
       <c r="G64">
-        <v>1.348995583983939E+16</v>
+        <v>4574222467139062</v>
       </c>
       <c r="H64">
-        <v>576.6216493464844</v>
+        <v>66.69369677973327</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>1799250094458504</v>
+        <v>595990307430540</v>
       </c>
       <c r="B65">
-        <v>96.54607698138639</v>
+        <v>9.210286237474447</v>
       </c>
       <c r="C65">
-        <v>672307516047923.5</v>
+        <v>217312491131702.2</v>
       </c>
       <c r="D65">
-        <v>36.99504410903189</v>
+        <v>3.370631126295897</v>
       </c>
       <c r="E65">
-        <v>2824222838641206</v>
+        <v>959245161987802.2</v>
       </c>
       <c r="F65">
-        <v>148.3828483391231</v>
+        <v>14.77301616884973</v>
       </c>
       <c r="G65">
-        <v>1.303918305339746E+16</v>
+        <v>4451007248657982</v>
       </c>
       <c r="H65">
-        <v>582.0165958866137</v>
+        <v>66.44862369855267</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66">
-        <v>1728880835564158</v>
+        <v>577044728571205.1</v>
       </c>
       <c r="B66">
-        <v>96.96837543295213</v>
+        <v>9.169876095479886</v>
       </c>
       <c r="C66">
-        <v>646419574815826.6</v>
+        <v>210440176035953.9</v>
       </c>
       <c r="D66">
-        <v>37.18378700872796</v>
+        <v>3.35675083449234</v>
       </c>
       <c r="E66">
-        <v>2715627906424604</v>
+        <v>928924546273369</v>
       </c>
       <c r="F66">
-        <v>149.1080257771903</v>
+        <v>14.70948292881205</v>
       </c>
       <c r="G66">
-        <v>1.260437652581927E+16</v>
+        <v>4315910529935752</v>
       </c>
       <c r="H66">
-        <v>586.2516653841185</v>
+        <v>66.18583234550175</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>1660694292970814</v>
+        <v>559739292149233.4</v>
       </c>
       <c r="B67">
-        <v>97.28459124316807</v>
+        <v>9.124123373653296</v>
       </c>
       <c r="C67">
-        <v>621304018435132.9</v>
+        <v>204160777597456.1</v>
       </c>
       <c r="D67">
-        <v>37.33669226301909</v>
+        <v>3.338361521917667</v>
       </c>
       <c r="E67">
-        <v>2610261169144740</v>
+        <v>901219039256298.2</v>
       </c>
       <c r="F67">
-        <v>149.6505749770125</v>
+        <v>14.64739425035232</v>
       </c>
       <c r="G67">
-        <v>1.217825023449168E+16</v>
+        <v>4192162150961021</v>
       </c>
       <c r="H67">
-        <v>589.2420710091482</v>
+        <v>66.33678469832606</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68">
-        <v>1594896226954906</v>
+        <v>547753633541538.5</v>
       </c>
       <c r="B68">
-        <v>97.59701635734866</v>
+        <v>9.135025216427278</v>
       </c>
       <c r="C68">
-        <v>597039558923376.1</v>
+        <v>199810561659525.6</v>
       </c>
       <c r="D68">
-        <v>37.4873539068718</v>
+        <v>3.34263124369431</v>
       </c>
       <c r="E68">
-        <v>2508453967219233</v>
+        <v>882024863251951.1</v>
       </c>
       <c r="F68">
-        <v>150.1853446376991</v>
+        <v>14.66689455102524</v>
       </c>
       <c r="G68">
-        <v>1.17624676508622E+16</v>
+        <v>4106259468777004</v>
       </c>
       <c r="H68">
-        <v>592.1514311008302</v>
+        <v>66.48691868728743</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <v>1531196099434767</v>
+        <v>531318879342248.7</v>
       </c>
       <c r="B69">
-        <v>97.89729824010659</v>
+        <v>9.092067823367119</v>
       </c>
       <c r="C69">
-        <v>573521843686763.4</v>
+        <v>193844025985584.4</v>
       </c>
       <c r="D69">
-        <v>37.63282805268314</v>
+        <v>3.329634420892614</v>
       </c>
       <c r="E69">
-        <v>2409769534860069</v>
+        <v>855698480917013.8</v>
       </c>
       <c r="F69">
-        <v>150.6992986085053</v>
+        <v>14.59104646620562</v>
       </c>
       <c r="G69">
-        <v>1.135556288010644E+16</v>
+        <v>3988208762253917</v>
       </c>
       <c r="H69">
-        <v>594.9277399815078</v>
+        <v>65.83924712781504</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>1469780777466929</v>
+        <v>514068291514588.4</v>
       </c>
       <c r="B70">
-        <v>98.11221593571854</v>
+        <v>9.047475855994266</v>
       </c>
       <c r="C70">
-        <v>550822507876350.1</v>
+        <v>187579423581188.5</v>
       </c>
       <c r="D70">
-        <v>37.74435281961797</v>
+        <v>3.312345588301524</v>
       </c>
       <c r="E70">
-        <v>2314509479525562</v>
+        <v>828056150761725.4</v>
       </c>
       <c r="F70">
-        <v>151.0809926033561</v>
+        <v>14.52795828484766</v>
       </c>
       <c r="G70">
-        <v>1.095908957067941E+16</v>
+        <v>3863972027242470</v>
       </c>
       <c r="H70">
-        <v>597.1633256088619</v>
+        <v>65.87341944730181</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <v>1410311501686414</v>
+        <v>502415837196488.1</v>
       </c>
       <c r="B71">
-        <v>98.31749074110316</v>
+        <v>9.054303754796694</v>
       </c>
       <c r="C71">
-        <v>528818823994909.8</v>
+        <v>183346707592170.6</v>
       </c>
       <c r="D71">
-        <v>37.85603259206778</v>
+        <v>3.314101336540247</v>
       </c>
       <c r="E71">
-        <v>2222159712723554</v>
+        <v>809378995362160.9</v>
       </c>
       <c r="F71">
-        <v>151.4309374404866</v>
+        <v>14.54504464641942</v>
       </c>
       <c r="G71">
-        <v>1.057120566338116E+16</v>
+        <v>3779862686662224</v>
       </c>
       <c r="H71">
-        <v>598.7912608081167</v>
+        <v>66.18324395322402</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
-        <v>1352523248930052</v>
+        <v>488627162650569.8</v>
       </c>
       <c r="B72">
-        <v>98.53550297458197</v>
+        <v>9.003618242073905</v>
       </c>
       <c r="C72">
-        <v>507414790757970.9</v>
+        <v>178336877816756.8</v>
       </c>
       <c r="D72">
-        <v>37.96976252426334</v>
+        <v>3.297850167062339</v>
       </c>
       <c r="E72">
-        <v>2132318103176705</v>
+        <v>787272301897889.4</v>
       </c>
       <c r="F72">
-        <v>151.8067241318699</v>
+        <v>14.45772273938921</v>
       </c>
       <c r="G72">
-        <v>1.019046737513757E+16</v>
+        <v>3680135334352621</v>
       </c>
       <c r="H72">
-        <v>600.7098247935309</v>
+        <v>65.52241881607199</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <v>1296939888336993</v>
+        <v>472768507509387.1</v>
       </c>
       <c r="B73">
-        <v>98.74103251007621</v>
+        <v>8.954709151944737</v>
       </c>
       <c r="C73">
-        <v>486806591446450.1</v>
+        <v>172573436020442.8</v>
       </c>
       <c r="D73">
-        <v>38.07181404391314</v>
+        <v>3.280837934267492</v>
       </c>
       <c r="E73">
-        <v>2045808935853221</v>
+        <v>761839542977327.2</v>
       </c>
       <c r="F73">
-        <v>152.1816290725722</v>
+        <v>14.37958610066149</v>
       </c>
       <c r="G73">
-        <v>9820636964087252</v>
+        <v>3565169730392318</v>
       </c>
       <c r="H73">
-        <v>603.1708980378735</v>
+        <v>65.1607150314022</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <v>1243581707117846</v>
+        <v>458711666316018.2</v>
       </c>
       <c r="B74">
-        <v>99.00022288683336</v>
+        <v>8.92834080337907</v>
       </c>
       <c r="C74">
-        <v>467004131650491.6</v>
+        <v>167463452452108.1</v>
       </c>
       <c r="D74">
-        <v>38.19769797595038</v>
+        <v>3.269921525440759</v>
       </c>
       <c r="E74">
-        <v>1962674704815040</v>
+        <v>739289783682668.6</v>
       </c>
       <c r="F74">
-        <v>152.623910378503</v>
+        <v>14.34608275758793</v>
       </c>
       <c r="G74">
-        <v>9462211762490380</v>
+        <v>3463026362054636</v>
       </c>
       <c r="H74">
-        <v>605.4602685014747</v>
+        <v>65.3513943545686</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
-        <v>1191942978941934</v>
+        <v>447658575256730.5</v>
       </c>
       <c r="B75">
-        <v>99.18953348349415</v>
+        <v>8.909359192520746</v>
       </c>
       <c r="C75">
-        <v>447821772586516.6</v>
+        <v>163444497840927.9</v>
       </c>
       <c r="D75">
-        <v>38.30388680243927</v>
+        <v>3.262599044787691</v>
       </c>
       <c r="E75">
-        <v>1882136848810838</v>
+        <v>721554235643236.2</v>
       </c>
       <c r="F75">
-        <v>152.930318887219</v>
+        <v>14.319982809142</v>
       </c>
       <c r="G75">
-        <v>9112108209293546</v>
+        <v>3382550690000497</v>
       </c>
       <c r="H75">
-        <v>606.3829192531887</v>
+        <v>65.39775799946725</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <v>1141625627549412</v>
+        <v>435787220513866.4</v>
       </c>
       <c r="B76">
-        <v>99.16159185723808</v>
+        <v>8.877181925277277</v>
       </c>
       <c r="C76">
-        <v>429113162363104.3</v>
+        <v>159127132800079.8</v>
       </c>
       <c r="D76">
-        <v>38.32860204934165</v>
+        <v>3.253011104835247</v>
       </c>
       <c r="E76">
-        <v>1803581485394155</v>
+        <v>702501444932207.9</v>
       </c>
       <c r="F76">
-        <v>152.8905076515938</v>
+        <v>14.26223334610346</v>
       </c>
       <c r="G76">
-        <v>8767855243836889</v>
+        <v>3295960998620870</v>
       </c>
       <c r="H76">
-        <v>605.5992404074742</v>
+        <v>64.8649057076706</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>1092562052921164</v>
+        <v>420992226699162.2</v>
       </c>
       <c r="B77">
-        <v>99.2743185223316</v>
+        <v>8.820253694086677</v>
       </c>
       <c r="C77">
-        <v>410854418663103.6</v>
+        <v>153745215676894.3</v>
       </c>
       <c r="D77">
-        <v>38.38014614353607</v>
+        <v>3.232982054223005</v>
       </c>
       <c r="E77">
-        <v>1726908813153418</v>
+        <v>678750192968558</v>
       </c>
       <c r="F77">
-        <v>153.1583905520035</v>
+        <v>14.17113135524914</v>
       </c>
       <c r="G77">
-        <v>8429175490073463</v>
+        <v>3187818737586038</v>
       </c>
       <c r="H77">
-        <v>608.779879880938</v>
+        <v>64.44331008360112</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78">
-        <v>1047375174892864</v>
+        <v>408949473455256.6</v>
       </c>
       <c r="B78">
-        <v>99.65880578842132</v>
+        <v>8.787622610743172</v>
       </c>
       <c r="C78">
-        <v>394024089382900.7</v>
+        <v>149363416701321.7</v>
       </c>
       <c r="D78">
-        <v>38.53190464874648</v>
+        <v>3.2199007224697</v>
       </c>
       <c r="E78">
-        <v>1656228913777544</v>
+        <v>659412186981299.8</v>
       </c>
       <c r="F78">
-        <v>153.8528575740802</v>
+        <v>14.12643553387874</v>
       </c>
       <c r="G78">
-        <v>8114588499980091</v>
+        <v>3099606549037394</v>
       </c>
       <c r="H78">
-        <v>613.902165485808</v>
+        <v>64.54287829034713</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <v>1003573684617469</v>
+        <v>398069141767689.2</v>
       </c>
       <c r="B79">
-        <v>99.9173048431401</v>
+        <v>8.739429751096887</v>
       </c>
       <c r="C79">
-        <v>377696662666194.1</v>
+        <v>145403755334278.6</v>
       </c>
       <c r="D79">
-        <v>38.66605667570235</v>
+        <v>3.202503849200661</v>
       </c>
       <c r="E79">
-        <v>1587655966941272</v>
+        <v>641936848004054.2</v>
       </c>
       <c r="F79">
-        <v>154.2443153513627</v>
+        <v>14.05065182484822</v>
       </c>
       <c r="G79">
-        <v>7807166442437588</v>
+        <v>3019764084816522</v>
       </c>
       <c r="H79">
-        <v>614.550620962425</v>
+        <v>64.25025101830714</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80">
-        <v>960799122911961.4</v>
+        <v>386623519863604.4</v>
       </c>
       <c r="B80">
-        <v>99.96874010207671</v>
+        <v>8.706416841711667</v>
       </c>
       <c r="C80">
-        <v>361739557684512.4</v>
+        <v>141237534686059.1</v>
       </c>
       <c r="D80">
-        <v>38.719125970562</v>
+        <v>3.191012583483201</v>
       </c>
       <c r="E80">
-        <v>1520633547233692</v>
+        <v>623549549090181.2</v>
       </c>
       <c r="F80">
-        <v>154.3171495978775</v>
+        <v>13.99797011720025</v>
       </c>
       <c r="G80">
-        <v>7504559974327927</v>
+        <v>2935624410322395</v>
       </c>
       <c r="H80">
-        <v>613.964739655359</v>
+        <v>64.00827878375182</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <v>919323391237642.1</v>
+        <v>375710026168300.9</v>
       </c>
       <c r="B81">
-        <v>99.95451702626403</v>
+        <v>8.697007679449866</v>
       </c>
       <c r="C81">
-        <v>346255183337735.3</v>
+        <v>137264212360444.7</v>
       </c>
       <c r="D81">
-        <v>38.74064163321277</v>
+        <v>3.187602532086514</v>
       </c>
       <c r="E81">
-        <v>1455592160409340</v>
+        <v>606013264383649.5</v>
       </c>
       <c r="F81">
-        <v>154.3062971613124</v>
+        <v>13.98545803914593</v>
       </c>
       <c r="G81">
-        <v>7208851581495754</v>
+        <v>2855253821751179</v>
       </c>
       <c r="H81">
-        <v>613.5886228495754</v>
+        <v>64.0441031687016</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <v>879242826272283.8</v>
+        <v>365439234550352.2</v>
       </c>
       <c r="B82">
-        <v>99.91867288980639</v>
+        <v>8.656027740923177</v>
       </c>
       <c r="C82">
-        <v>331280611414982.4</v>
+        <v>133524170252779.9</v>
       </c>
       <c r="D82">
-        <v>38.76459732119741</v>
+        <v>3.173314751023199</v>
       </c>
       <c r="E82">
-        <v>1392687946258807</v>
+        <v>589506270961763.6</v>
       </c>
       <c r="F82">
-        <v>154.2212585408405</v>
+        <v>13.91911124640231</v>
       </c>
       <c r="G82">
-        <v>6920916692517508</v>
+        <v>2779488636587922</v>
       </c>
       <c r="H82">
-        <v>611.667829237282</v>
+        <v>63.70521029397485</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <v>839621227678894.9</v>
+        <v>354112186033780.7</v>
       </c>
       <c r="B83">
-        <v>100.0819895776833</v>
+        <v>8.574326350756269</v>
       </c>
       <c r="C83">
-        <v>316466803039563.8</v>
+        <v>129398699072599.5</v>
       </c>
       <c r="D83">
-        <v>38.83342050722057</v>
+        <v>3.144512813982502</v>
       </c>
       <c r="E83">
-        <v>1330454965140602</v>
+        <v>571297824545633.6</v>
       </c>
       <c r="F83">
-        <v>154.554279929579</v>
+        <v>13.78578972376761</v>
       </c>
       <c r="G83">
-        <v>6634149406180217</v>
+        <v>2695787691832309</v>
       </c>
       <c r="H83">
-        <v>614.8370744420629</v>
+        <v>62.99586068333245</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84">
-        <v>803794244775110.4</v>
+        <v>342642886006649.2</v>
       </c>
       <c r="B84">
-        <v>100.3803437068167</v>
+        <v>8.526025411285231</v>
       </c>
       <c r="C84">
-        <v>303062545306931.6</v>
+        <v>125220562400276.2</v>
       </c>
       <c r="D84">
-        <v>38.94673942862261</v>
+        <v>3.126098888862918</v>
       </c>
       <c r="E84">
-        <v>1274140014200305</v>
+        <v>552856578464159.6</v>
       </c>
       <c r="F84">
-        <v>155.1134207438624</v>
+        <v>13.71391538189436</v>
       </c>
       <c r="G84">
-        <v>6372998657810853</v>
+        <v>2610881179429186</v>
       </c>
       <c r="H84">
-        <v>619.4566584251484</v>
+        <v>62.89410956834795</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85">
-        <v>768534730107421.8</v>
+        <v>333939796437432.8</v>
       </c>
       <c r="B85">
-        <v>100.4026731940501</v>
+        <v>8.536508166883946</v>
       </c>
       <c r="C85">
-        <v>289862061881835.9</v>
+        <v>122049550249139</v>
       </c>
       <c r="D85">
-        <v>38.99406769454539</v>
+        <v>3.12917705997431</v>
       </c>
       <c r="E85">
-        <v>1218677916436633</v>
+        <v>538860290760563.1</v>
       </c>
       <c r="F85">
-        <v>155.1036601621725</v>
+        <v>13.73614708996418</v>
       </c>
       <c r="G85">
-        <v>6114248775098959</v>
+        <v>2546348751477550</v>
       </c>
       <c r="H85">
-        <v>617.4244813080991</v>
+        <v>63.21058596055895</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86">
-        <v>734251160969203.4</v>
+        <v>324939238116764.5</v>
       </c>
       <c r="B86">
-        <v>100.4762847940167</v>
+        <v>8.486883607492679</v>
       </c>
       <c r="C86">
-        <v>277018816923366.3</v>
+        <v>118769632010532.7</v>
       </c>
       <c r="D86">
-        <v>39.05195031375747</v>
+        <v>3.112085364450375</v>
       </c>
       <c r="E86">
-        <v>1164713659200397</v>
+        <v>524383096210261.2</v>
       </c>
       <c r="F86">
-        <v>155.2029476706458</v>
+        <v>13.65394934715911</v>
       </c>
       <c r="G86">
-        <v>5860989355061187</v>
+        <v>2479515964328058</v>
       </c>
       <c r="H86">
-        <v>616.7582365009187</v>
+        <v>62.71830686212137</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87">
-        <v>701145181377371.6</v>
+        <v>315016564605235.6</v>
       </c>
       <c r="B87">
-        <v>100.6018368031565</v>
+        <v>8.418437349979913</v>
       </c>
       <c r="C87">
-        <v>264609089881565.3</v>
+        <v>115153067889934.6</v>
       </c>
       <c r="D87">
-        <v>39.0968858967372</v>
+        <v>3.088026079158824</v>
       </c>
       <c r="E87">
-        <v>1112568032085484</v>
+        <v>508419731160732.8</v>
       </c>
       <c r="F87">
-        <v>155.4943937635542</v>
+        <v>13.54194426668048</v>
       </c>
       <c r="G87">
-        <v>5614845864843622</v>
+        <v>2405724245815240</v>
       </c>
       <c r="H87">
-        <v>620.3752043194843</v>
+        <v>62.10844282492427</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88">
-        <v>670816547294519.1</v>
+        <v>305027067361680</v>
       </c>
       <c r="B88">
-        <v>100.8058603296555</v>
+        <v>8.382160957952323</v>
       </c>
       <c r="C88">
-        <v>253233856416907.1</v>
+        <v>111511496001489.5</v>
       </c>
       <c r="D88">
-        <v>39.18506533224837</v>
+        <v>3.074004999794156</v>
       </c>
       <c r="E88">
-        <v>1064766831155118</v>
+        <v>492345714735019.9</v>
       </c>
       <c r="F88">
-        <v>155.8558632973421</v>
+        <v>13.48903635133883</v>
       </c>
       <c r="G88">
-        <v>5387970834561530</v>
+        <v>2331316751809218</v>
       </c>
       <c r="H88">
-        <v>622.675112767853</v>
+        <v>62.08287234048111</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89">
-        <v>640662489798438.4</v>
+        <v>297447024770603.1</v>
       </c>
       <c r="B89">
-        <v>100.7819804288374</v>
+        <v>8.386957415390428</v>
       </c>
       <c r="C89">
-        <v>241917842400204.7</v>
+        <v>108747829962714.4</v>
       </c>
       <c r="D89">
-        <v>39.21570993223644</v>
+        <v>3.074981737740408</v>
       </c>
       <c r="E89">
-        <v>1017212098682297</v>
+        <v>480146623622208.7</v>
       </c>
       <c r="F89">
-        <v>155.7573442175904</v>
+        <v>13.50189713272642</v>
       </c>
       <c r="G89">
-        <v>5161077751775859</v>
+        <v>2274776479955032</v>
       </c>
       <c r="H89">
-        <v>619.7844447372656</v>
+        <v>62.35092949923726</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90">
-        <v>611579377918003</v>
+        <v>289655523114714.6</v>
       </c>
       <c r="B90">
-        <v>100.8819687875011</v>
+        <v>8.344637517254082</v>
       </c>
       <c r="C90">
-        <v>230997804180954</v>
+        <v>105906673365138.7</v>
       </c>
       <c r="D90">
-        <v>39.27450163930261</v>
+        <v>3.059760662352882</v>
       </c>
       <c r="E90">
-        <v>971319170548610.2</v>
+        <v>467605320078553.9</v>
       </c>
       <c r="F90">
-        <v>155.9170215342774</v>
+        <v>13.43444864050135</v>
       </c>
       <c r="G90">
-        <v>4940978820240795</v>
+        <v>2216586992365276</v>
       </c>
       <c r="H90">
-        <v>620.0248576193479</v>
+        <v>62.05690264741349</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91">
-        <v>583710474629803.2</v>
+        <v>282262266923519</v>
       </c>
       <c r="B91">
-        <v>101.0059870842032</v>
+        <v>8.329824001674782</v>
       </c>
       <c r="C91">
-        <v>220528209018782.5</v>
+        <v>103210367636938.7</v>
       </c>
       <c r="D91">
-        <v>39.34906225427881</v>
+        <v>3.05562931085865</v>
       </c>
       <c r="E91">
-        <v>927317209445063.2</v>
+        <v>455703259135122.8</v>
       </c>
       <c r="F91">
-        <v>156.0885086026495</v>
+        <v>13.40696446680252</v>
       </c>
       <c r="G91">
-        <v>4728892053169829</v>
+        <v>2161304164017378</v>
       </c>
       <c r="H91">
-        <v>619.5223424399809</v>
+        <v>61.76174891584108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92">
-        <v>556546158481540.6</v>
+        <v>272967861677342.3</v>
       </c>
       <c r="B92">
-        <v>100.7857808804666</v>
+        <v>8.269949263147893</v>
       </c>
       <c r="C92">
-        <v>210318153467411.8</v>
+        <v>99820207185104.12</v>
       </c>
       <c r="D92">
-        <v>39.29906328596189</v>
+        <v>3.034697801922443</v>
       </c>
       <c r="E92">
-        <v>884404088099276.1</v>
+        <v>440738168052816.8</v>
       </c>
       <c r="F92">
-        <v>155.6930779343608</v>
+        <v>13.30854023360921</v>
       </c>
       <c r="G92">
-        <v>4521047530550900</v>
+        <v>2091711979845364</v>
       </c>
       <c r="H92">
-        <v>615.6887084194015</v>
+        <v>61.20630347008894</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93">
-        <v>529993134879172.7</v>
+        <v>264710411022554.1</v>
       </c>
       <c r="B93">
-        <v>100.7589464603006</v>
+        <v>8.216904161797544</v>
       </c>
       <c r="C93">
-        <v>200332934245917</v>
+        <v>96807802553141.48</v>
       </c>
       <c r="D93">
-        <v>39.29685257901613</v>
+        <v>3.014280811254566</v>
       </c>
       <c r="E93">
-        <v>842434085412496.1</v>
+        <v>427440398284263.6</v>
       </c>
       <c r="F93">
-        <v>155.6906952228665</v>
+        <v>13.22916263276391</v>
       </c>
       <c r="G93">
-        <v>4316801237263793</v>
+        <v>2029796371439634</v>
       </c>
       <c r="H93">
-        <v>616.3880227298054</v>
+        <v>61.08612198768488</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94">
-        <v>505420137563780.3</v>
+        <v>257761437200457.8</v>
       </c>
       <c r="B94">
-        <v>100.9616626060448</v>
+        <v>8.18756768406085</v>
       </c>
       <c r="C94">
-        <v>191087955595213.2</v>
+        <v>94272396592945.22</v>
       </c>
       <c r="D94">
-        <v>39.36580390891523</v>
+        <v>3.003085825402848</v>
       </c>
       <c r="E94">
-        <v>803573818919817.1</v>
+        <v>416248118752980.9</v>
       </c>
       <c r="F94">
-        <v>156.1018371056</v>
+        <v>13.18542662032388</v>
       </c>
       <c r="G94">
-        <v>4126825889714774</v>
+        <v>1977627853935045</v>
       </c>
       <c r="H94">
-        <v>620.5964168866407</v>
+        <v>61.0248253781967</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95">
-        <v>482063076838162.2</v>
+        <v>250847550368048</v>
       </c>
       <c r="B95">
-        <v>101.1008043601093</v>
+        <v>8.175560712907952</v>
       </c>
       <c r="C95">
-        <v>182296565650194.7</v>
+        <v>91749477252791.12</v>
       </c>
       <c r="D95">
-        <v>39.43422453086188</v>
+        <v>2.999346398398265</v>
       </c>
       <c r="E95">
-        <v>766618689258372.2</v>
+        <v>405110830569365.8</v>
       </c>
       <c r="F95">
-        <v>156.327407399835</v>
+        <v>13.16496924459366</v>
       </c>
       <c r="G95">
-        <v>3945388266711520</v>
+        <v>1925664509916883</v>
       </c>
       <c r="H95">
-        <v>621.3395403571672</v>
+        <v>60.87082589451501</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96">
-        <v>459547008108667.1</v>
+        <v>243501483073340.2</v>
       </c>
       <c r="B96">
-        <v>101.385146316397</v>
+        <v>8.133300880318249</v>
       </c>
       <c r="C96">
-        <v>173818135711840.1</v>
+        <v>89068507967501.98</v>
       </c>
       <c r="D96">
-        <v>39.569702435133</v>
+        <v>2.984890625438023</v>
       </c>
       <c r="E96">
-        <v>730977744081324.8</v>
+        <v>393275698039530.8</v>
       </c>
       <c r="F96">
-        <v>156.7392284942432</v>
+        <v>13.09428443893222</v>
       </c>
       <c r="G96">
-        <v>3769680587967746</v>
+        <v>1870389202523351</v>
       </c>
       <c r="H96">
-        <v>621.62310750777</v>
+        <v>60.41870259375702</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97">
-        <v>437871852085489.1</v>
+        <v>235626008158751.5</v>
       </c>
       <c r="B97">
-        <v>101.4397638333252</v>
+        <v>8.051783292149114</v>
       </c>
       <c r="C97">
-        <v>165653025692248.8</v>
+        <v>86193935204045.98</v>
       </c>
       <c r="D97">
-        <v>39.62292359007315</v>
+        <v>2.95535928539738</v>
       </c>
       <c r="E97">
-        <v>696652644281475.4</v>
+        <v>380585741338412.5</v>
       </c>
       <c r="F97">
-        <v>156.7680164433356</v>
+        <v>12.96330010449777</v>
       </c>
       <c r="G97">
-        <v>3599784356246842</v>
+        <v>1811057227404708</v>
       </c>
       <c r="H97">
-        <v>619.5151021556678</v>
+        <v>59.8135420292507</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98">
-        <v>416653922640675.9</v>
+        <v>228356619071076.7</v>
       </c>
       <c r="B98">
-        <v>101.515400299011</v>
+        <v>7.990637486336109</v>
       </c>
       <c r="C98">
-        <v>157656990576542.1</v>
+        <v>83540223121007.38</v>
       </c>
       <c r="D98">
-        <v>39.65974251662684</v>
+        <v>2.932840931516019</v>
       </c>
       <c r="E98">
-        <v>663037112242123.8</v>
+        <v>368870637140003.5</v>
       </c>
       <c r="F98">
-        <v>156.9142784354695</v>
+        <v>12.86688542163081</v>
       </c>
       <c r="G98">
-        <v>3432752919858234</v>
+        <v>1756224027173793</v>
       </c>
       <c r="H98">
-        <v>620.584157812699</v>
+        <v>59.44548769700999</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99">
-        <v>397094854544652.7</v>
+        <v>221234866947552.9</v>
       </c>
       <c r="B99">
-        <v>102.0193462694451</v>
+        <v>7.931892599467491</v>
       </c>
       <c r="C99">
-        <v>150283325914835.8</v>
+        <v>80940068727495.45</v>
       </c>
       <c r="D99">
-        <v>39.84319435266108</v>
+        <v>2.911330670829538</v>
       </c>
       <c r="E99">
-        <v>632036986916881.6</v>
+        <v>357391830601305.7</v>
       </c>
       <c r="F99">
-        <v>157.7908215962505</v>
+        <v>12.77374605795221</v>
       </c>
       <c r="G99">
-        <v>3278145314970184</v>
+        <v>1702441635005650</v>
       </c>
       <c r="H99">
-        <v>626.7239698362458</v>
+        <v>59.06762868035264</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>214510167731790.6</v>
+      </c>
+      <c r="B100">
+        <v>7.883015358145891</v>
+      </c>
+      <c r="C100">
+        <v>78484571650587.53</v>
+      </c>
+      <c r="D100">
+        <v>2.892315758986838</v>
+      </c>
+      <c r="E100">
+        <v>346551511419737.9</v>
+      </c>
+      <c r="F100">
+        <v>12.70112476105583</v>
+      </c>
+      <c r="G100">
+        <v>1651600532194858</v>
+      </c>
+      <c r="H100">
+        <v>58.98804262469314</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>209528757666445.5</v>
+      </c>
+      <c r="B101">
+        <v>7.882609015671991</v>
+      </c>
+      <c r="C101">
+        <v>76665437415873.81</v>
+      </c>
+      <c r="D101">
+        <v>2.892234141679954</v>
+      </c>
+      <c r="E101">
+        <v>338520473733533.8</v>
+      </c>
+      <c r="F101">
+        <v>12.70134636821633</v>
+      </c>
+      <c r="G101">
+        <v>1613903426086239</v>
+      </c>
+      <c r="H101">
+        <v>59.01973354682028</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>203163105345134.8</v>
+      </c>
+      <c r="B102">
+        <v>7.826326331265842</v>
+      </c>
+      <c r="C102">
+        <v>74340561034942.25</v>
+      </c>
+      <c r="D102">
+        <v>2.872139262159641</v>
+      </c>
+      <c r="E102">
+        <v>328256608984939.2</v>
+      </c>
+      <c r="F102">
+        <v>12.60979470396993</v>
+      </c>
+      <c r="G102">
+        <v>1565686456504976</v>
+      </c>
+      <c r="H102">
+        <v>58.54719285612352</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>197905405259994.1</v>
+      </c>
+      <c r="B103">
+        <v>7.81100756756655</v>
+      </c>
+      <c r="C103">
+        <v>72420131618129.12</v>
+      </c>
+      <c r="D103">
+        <v>2.866291755133773</v>
+      </c>
+      <c r="E103">
+        <v>319778214015773.6</v>
+      </c>
+      <c r="F103">
+        <v>12.58728056390193</v>
+      </c>
+      <c r="G103">
+        <v>1525823991445478</v>
+      </c>
+      <c r="H103">
+        <v>58.52996302270932</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>192308448603155.4</v>
+      </c>
+      <c r="B104">
+        <v>7.777904382063948</v>
+      </c>
+      <c r="C104">
+        <v>70375584760087.19</v>
+      </c>
+      <c r="D104">
+        <v>2.855151425471889</v>
+      </c>
+      <c r="E104">
+        <v>310751777692184.3</v>
+      </c>
+      <c r="F104">
+        <v>12.53098221428342</v>
+      </c>
+      <c r="G104">
+        <v>1483351793540320</v>
+      </c>
+      <c r="H104">
+        <v>58.13000600190331</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>186166850956980.7</v>
+      </c>
+      <c r="B105">
+        <v>7.720251078050729</v>
+      </c>
+      <c r="C105">
+        <v>68131844675076.68</v>
+      </c>
+      <c r="D105">
+        <v>2.833988565425436</v>
+      </c>
+      <c r="E105">
+        <v>300845828778966.4</v>
+      </c>
+      <c r="F105">
+        <v>12.43950085132248</v>
+      </c>
+      <c r="G105">
+        <v>1436701945734426</v>
+      </c>
+      <c r="H105">
+        <v>57.75834034076738</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>181063761583524.3</v>
+      </c>
+      <c r="B106">
+        <v>7.699922235476524</v>
+      </c>
+      <c r="C106">
+        <v>66267318468024.4</v>
+      </c>
+      <c r="D106">
+        <v>2.827049287964632</v>
+      </c>
+      <c r="E106">
+        <v>292614003722492.9</v>
+      </c>
+      <c r="F106">
+        <v>12.40570298461999</v>
+      </c>
+      <c r="G106">
+        <v>1397904698400826</v>
+      </c>
+      <c r="H106">
+        <v>57.54777007878977</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>174700155842615.9</v>
+      </c>
+      <c r="B107">
+        <v>7.62814080001092</v>
+      </c>
+      <c r="C107">
+        <v>63941993818084.45</v>
+      </c>
+      <c r="D107">
+        <v>2.802746580186922</v>
+      </c>
+      <c r="E107">
+        <v>282347668990113.8</v>
+      </c>
+      <c r="F107">
+        <v>12.28285241900358</v>
+      </c>
+      <c r="G107">
+        <v>1349478755414310</v>
+      </c>
+      <c r="H107">
+        <v>56.654443151257</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>167526584695360.4</v>
+      </c>
+      <c r="B108">
+        <v>7.539007232544257</v>
+      </c>
+      <c r="C108">
+        <v>61320378940397.42</v>
+      </c>
+      <c r="D108">
+        <v>2.770110503254937</v>
+      </c>
+      <c r="E108">
+        <v>270773077854699.2</v>
+      </c>
+      <c r="F108">
+        <v>12.14045329873525</v>
+      </c>
+      <c r="G108">
+        <v>1294828622417115</v>
+      </c>
+      <c r="H108">
+        <v>56.03623150692443</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>161646145469880.5</v>
+      </c>
+      <c r="B109">
+        <v>7.497304155416558</v>
+      </c>
+      <c r="C109">
+        <v>59171091424158.38</v>
+      </c>
+      <c r="D109">
+        <v>2.752934586352436</v>
+      </c>
+      <c r="E109">
+        <v>261283736986826.7</v>
+      </c>
+      <c r="F109">
+        <v>12.08240869276191</v>
+      </c>
+      <c r="G109">
+        <v>1249981993814448</v>
+      </c>
+      <c r="H109">
+        <v>56.15895997973161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>157259500158446.1</v>
+      </c>
+      <c r="B110">
+        <v>7.480284939396931</v>
+      </c>
+      <c r="C110">
+        <v>57567633378341.7</v>
+      </c>
+      <c r="D110">
+        <v>2.746290759495809</v>
+      </c>
+      <c r="E110">
+        <v>254204232184103.8</v>
+      </c>
+      <c r="F110">
+        <v>12.05761937665312</v>
+      </c>
+      <c r="G110">
+        <v>1216499487695609</v>
+      </c>
+      <c r="H110">
+        <v>56.15380040851507</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <v>152225706403128.6</v>
+      </c>
+      <c r="B111">
+        <v>7.415206687593177</v>
+      </c>
+      <c r="C111">
+        <v>55727465225296.26</v>
+      </c>
+      <c r="D111">
+        <v>2.722292699863897</v>
+      </c>
+      <c r="E111">
+        <v>246079552842418.3</v>
+      </c>
+      <c r="F111">
+        <v>11.9542757291336</v>
+      </c>
+      <c r="G111">
+        <v>1178047714830376</v>
+      </c>
+      <c r="H111">
+        <v>55.7345672912753</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
+        <v>148325733251477.4</v>
+      </c>
+      <c r="B112">
+        <v>7.431931497785589</v>
+      </c>
+      <c r="C112">
+        <v>54301664553100</v>
+      </c>
+      <c r="D112">
+        <v>2.727626398197631</v>
+      </c>
+      <c r="E112">
+        <v>239784334512895.3</v>
+      </c>
+      <c r="F112">
+        <v>11.98551151977679</v>
+      </c>
+      <c r="G112">
+        <v>1148235040620392</v>
+      </c>
+      <c r="H112">
+        <v>56.06508641044732</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
+        <v>144553392059137.4</v>
+      </c>
+      <c r="B113">
+        <v>7.438435045853392</v>
+      </c>
+      <c r="C113">
+        <v>52922429402565.38</v>
+      </c>
+      <c r="D113">
+        <v>2.729292105150455</v>
+      </c>
+      <c r="E113">
+        <v>233694673742689.8</v>
+      </c>
+      <c r="F113">
+        <v>11.99989298553965</v>
+      </c>
+      <c r="G113">
+        <v>1119379855968706</v>
+      </c>
+      <c r="H113">
+        <v>56.30185855801113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <v>141744875685012.5</v>
+      </c>
+      <c r="B114">
+        <v>7.444073123858326</v>
+      </c>
+      <c r="C114">
+        <v>51895524616779.83</v>
+      </c>
+      <c r="D114">
+        <v>2.732291948926186</v>
+      </c>
+      <c r="E114">
+        <v>229160612675376.4</v>
+      </c>
+      <c r="F114">
+        <v>12.0056644554909</v>
+      </c>
+      <c r="G114">
+        <v>1097885491043407</v>
+      </c>
+      <c r="H114">
+        <v>56.17523228622867</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
+        <v>137183176184091.8</v>
+      </c>
+      <c r="B115">
+        <v>7.350477377119714</v>
+      </c>
+      <c r="C115">
+        <v>50227475386943.13</v>
+      </c>
+      <c r="D115">
+        <v>2.700245712355763</v>
+      </c>
+      <c r="E115">
+        <v>221795680639985.7</v>
+      </c>
+      <c r="F115">
+        <v>11.84595613816082</v>
+      </c>
+      <c r="G115">
+        <v>1062952369128568</v>
+      </c>
+      <c r="H115">
+        <v>55.03197813512485</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
+        <v>132191405636613.2</v>
+      </c>
+      <c r="B116">
+        <v>7.274498045345902</v>
+      </c>
+      <c r="C116">
+        <v>48402006787565.97</v>
+      </c>
+      <c r="D116">
+        <v>2.672608551095207</v>
+      </c>
+      <c r="E116">
+        <v>213735630633187.7</v>
+      </c>
+      <c r="F116">
+        <v>11.72342977146896</v>
+      </c>
+      <c r="G116">
+        <v>1024695755592418</v>
+      </c>
+      <c r="H116">
+        <v>54.45225833178319</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
+        <v>127720771404023</v>
+      </c>
+      <c r="B117">
+        <v>7.214314851631344</v>
+      </c>
+      <c r="C117">
+        <v>46766975371880.7</v>
+      </c>
+      <c r="D117">
+        <v>2.649775865366254</v>
+      </c>
+      <c r="E117">
+        <v>206516366560055.3</v>
+      </c>
+      <c r="F117">
+        <v>11.63044894617674</v>
+      </c>
+      <c r="G117">
+        <v>990406410423882.1</v>
+      </c>
+      <c r="H117">
+        <v>54.19171587789847</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>123821899712200</v>
+      </c>
+      <c r="B118">
+        <v>7.142149822227317</v>
+      </c>
+      <c r="C118">
+        <v>45340944843436.73</v>
+      </c>
+      <c r="D118">
+        <v>2.621337277892182</v>
+      </c>
+      <c r="E118">
+        <v>200219873811233.4</v>
+      </c>
+      <c r="F118">
+        <v>11.52312853759668</v>
+      </c>
+      <c r="G118">
+        <v>960481816554886.5</v>
+      </c>
+      <c r="H118">
+        <v>54.0906728391017</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>121579645857511.2</v>
+      </c>
+      <c r="B119">
+        <v>7.177197692220719</v>
+      </c>
+      <c r="C119">
+        <v>44520784407634.88</v>
+      </c>
+      <c r="D119">
+        <v>2.634505893912702</v>
+      </c>
+      <c r="E119">
+        <v>196598520118159.2</v>
+      </c>
+      <c r="F119">
+        <v>11.5788577133573</v>
+      </c>
+      <c r="G119">
+        <v>943263376883707.2</v>
+      </c>
+      <c r="H119">
+        <v>54.3119129586111</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120">
+        <v>117572730212638.4</v>
+      </c>
+      <c r="B120">
+        <v>7.140929685608152</v>
+      </c>
+      <c r="C120">
+        <v>43055071812267.73</v>
+      </c>
+      <c r="D120">
+        <v>2.621887141635111</v>
+      </c>
+      <c r="E120">
+        <v>190126747767380.8</v>
+      </c>
+      <c r="F120">
+        <v>11.51826096412521</v>
+      </c>
+      <c r="G120">
+        <v>912478112679800.1</v>
+      </c>
+      <c r="H120">
+        <v>53.92839320235635</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
+        <v>114928324350032.1</v>
+      </c>
+      <c r="B121">
+        <v>7.159264673080004</v>
+      </c>
+      <c r="C121">
+        <v>42087701175750.97</v>
+      </c>
+      <c r="D121">
+        <v>2.627628007819454</v>
+      </c>
+      <c r="E121">
+        <v>185855352679290.1</v>
+      </c>
+      <c r="F121">
+        <v>11.55260493053703</v>
+      </c>
+      <c r="G121">
+        <v>892149911562149.1</v>
+      </c>
+      <c r="H121">
+        <v>54.30066551538465</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
+        <v>112075939146819.6</v>
+      </c>
+      <c r="B122">
+        <v>7.11366157267009</v>
+      </c>
+      <c r="C122">
+        <v>41044196033644.37</v>
+      </c>
+      <c r="D122">
+        <v>2.612328368593096</v>
+      </c>
+      <c r="E122">
+        <v>181247766724764.8</v>
+      </c>
+      <c r="F122">
+        <v>11.4735217618143</v>
+      </c>
+      <c r="G122">
+        <v>870212978211502.4</v>
+      </c>
+      <c r="H122">
+        <v>53.6769973931982</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123">
+        <v>108264325462912</v>
+      </c>
+      <c r="B123">
+        <v>7.048230548032619</v>
+      </c>
+      <c r="C123">
+        <v>39649686392869.93</v>
+      </c>
+      <c r="D123">
+        <v>2.590579862924927</v>
+      </c>
+      <c r="E123">
+        <v>175090289571002.9</v>
+      </c>
+      <c r="F123">
+        <v>11.35914059552928</v>
+      </c>
+      <c r="G123">
+        <v>840882750350997</v>
+      </c>
+      <c r="H123">
+        <v>52.74250274909944</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
+        <v>103585416836574.9</v>
+      </c>
+      <c r="B124">
+        <v>6.956301136035455</v>
+      </c>
+      <c r="C124">
+        <v>37937738171146.62</v>
+      </c>
+      <c r="D124">
+        <v>2.555530655682767</v>
+      </c>
+      <c r="E124">
+        <v>167531103825247.2</v>
+      </c>
+      <c r="F124">
+        <v>11.21728999256904</v>
+      </c>
+      <c r="G124">
+        <v>804853472545326.6</v>
+      </c>
+      <c r="H124">
+        <v>52.3581585677409</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125">
+        <v>101256563401265.3</v>
+      </c>
+      <c r="B125">
+        <v>6.968646468091259</v>
+      </c>
+      <c r="C125">
+        <v>37085588651215.28</v>
+      </c>
+      <c r="D125">
+        <v>2.557571350503425</v>
+      </c>
+      <c r="E125">
+        <v>163768376412381.6</v>
+      </c>
+      <c r="F125">
+        <v>11.24826901533203</v>
+      </c>
+      <c r="G125">
+        <v>786910081103941.2</v>
+      </c>
+      <c r="H125">
+        <v>52.99948694209826</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
+        <v>98969063770670.89</v>
+      </c>
+      <c r="B126">
+        <v>6.958156745278441</v>
+      </c>
+      <c r="C126">
+        <v>36248535852872.1</v>
+      </c>
+      <c r="D126">
+        <v>2.554434658937403</v>
+      </c>
+      <c r="E126">
+        <v>160072295294078.2</v>
+      </c>
+      <c r="F126">
+        <v>11.2287815119083</v>
+      </c>
+      <c r="G126">
+        <v>769278588495519.8</v>
+      </c>
+      <c r="H126">
+        <v>52.78817014135796</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127">
+        <v>96172936554513.97</v>
+      </c>
+      <c r="B127">
+        <v>6.963086016586109</v>
+      </c>
+      <c r="C127">
+        <v>35225316461808.51</v>
+      </c>
+      <c r="D127">
+        <v>2.557605155563112</v>
+      </c>
+      <c r="E127">
+        <v>155554159681975</v>
+      </c>
+      <c r="F127">
+        <v>11.231540030905</v>
+      </c>
+      <c r="G127">
+        <v>747717659017185</v>
+      </c>
+      <c r="H127">
+        <v>52.56250263517273</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
+        <v>92957555536886.45</v>
+      </c>
+      <c r="B128">
+        <v>6.926989543610075</v>
+      </c>
+      <c r="C128">
+        <v>34048610512007.62</v>
+      </c>
+      <c r="D128">
+        <v>2.544926239734909</v>
+      </c>
+      <c r="E128">
+        <v>150358261312233.4</v>
+      </c>
+      <c r="F128">
+        <v>11.17152318358143</v>
+      </c>
+      <c r="G128">
+        <v>722911535910901.1</v>
+      </c>
+      <c r="H128">
+        <v>52.19674376089292</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129">
+        <v>89922868294402.31</v>
+      </c>
+      <c r="B129">
+        <v>6.839991297854607</v>
+      </c>
+      <c r="C129">
+        <v>32937968601925.62</v>
+      </c>
+      <c r="D129">
+        <v>2.513575629512407</v>
+      </c>
+      <c r="E129">
+        <v>145454051504772.8</v>
+      </c>
+      <c r="F129">
+        <v>11.02924136775535</v>
+      </c>
+      <c r="G129">
+        <v>699487326193447</v>
+      </c>
+      <c r="H129">
+        <v>51.43933799957766</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130">
+        <v>86398768750010.92</v>
+      </c>
+      <c r="B130">
+        <v>6.732845035251062</v>
+      </c>
+      <c r="C130">
+        <v>31648133720647.25</v>
+      </c>
+      <c r="D130">
+        <v>2.472275465192229</v>
+      </c>
+      <c r="E130">
+        <v>139758556175588.2</v>
+      </c>
+      <c r="F130">
+        <v>10.86535611474005</v>
+      </c>
+      <c r="G130">
+        <v>672270659605662.5</v>
+      </c>
+      <c r="H130">
+        <v>51.07090716466484</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131">
+        <v>85117573239911.02</v>
+      </c>
+      <c r="B131">
+        <v>6.839040402185156</v>
+      </c>
+      <c r="C131">
+        <v>31179190474530.43</v>
+      </c>
+      <c r="D131">
+        <v>2.510539343829207</v>
+      </c>
+      <c r="E131">
+        <v>137687845486402.3</v>
+      </c>
+      <c r="F131">
+        <v>11.04010031148911</v>
+      </c>
+      <c r="G131">
+        <v>662372032669025.2</v>
+      </c>
+      <c r="H131">
+        <v>52.04368223066332</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132">
+        <v>82316604623688.53</v>
+      </c>
+      <c r="B132">
+        <v>6.783216481846729</v>
+      </c>
+      <c r="C132">
+        <v>30153941837537.44</v>
+      </c>
+      <c r="D132">
+        <v>2.491754800790794</v>
+      </c>
+      <c r="E132">
+        <v>133160643894396.2</v>
+      </c>
+      <c r="F132">
+        <v>10.94329453466853</v>
+      </c>
+      <c r="G132">
+        <v>640724189566467.4</v>
+      </c>
+      <c r="H132">
+        <v>51.27984887953404</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133">
+        <v>79906772596688.34</v>
+      </c>
+      <c r="B133">
+        <v>6.720340695235719</v>
+      </c>
+      <c r="C133">
+        <v>29271820641316.02</v>
+      </c>
+      <c r="D133">
+        <v>2.469451031659114</v>
+      </c>
+      <c r="E133">
+        <v>129265434609573.8</v>
+      </c>
+      <c r="F133">
+        <v>10.83897417560503</v>
+      </c>
+      <c r="G133">
+        <v>622091281115564</v>
+      </c>
+      <c r="H133">
+        <v>50.65780857066626</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134">
+        <v>76664504099309.41</v>
+      </c>
+      <c r="B134">
+        <v>6.609201335728979</v>
+      </c>
+      <c r="C134">
+        <v>28084924463633.6</v>
+      </c>
+      <c r="D134">
+        <v>2.429979577907152</v>
+      </c>
+      <c r="E134">
+        <v>124024396257189.4</v>
+      </c>
+      <c r="F134">
+        <v>10.65456515084207</v>
+      </c>
+      <c r="G134">
+        <v>597010196995214</v>
+      </c>
+      <c r="H134">
+        <v>49.56132798952095</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135">
+        <v>73442929750358</v>
+      </c>
+      <c r="B135">
+        <v>6.535158971992804</v>
+      </c>
+      <c r="C135">
+        <v>26905534621525.7</v>
+      </c>
+      <c r="D135">
+        <v>2.400155267041103</v>
+      </c>
+      <c r="E135">
+        <v>118816475660493.7</v>
+      </c>
+      <c r="F135">
+        <v>10.54687297726085</v>
+      </c>
+      <c r="G135">
+        <v>572075835723695.8</v>
+      </c>
+      <c r="H135">
+        <v>49.58148791893765</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136">
+        <v>72321080043713.61</v>
+      </c>
+      <c r="B136">
+        <v>6.597111763971485</v>
+      </c>
+      <c r="C136">
+        <v>26494819191444.92</v>
+      </c>
+      <c r="D136">
+        <v>2.42204993900785</v>
+      </c>
+      <c r="E136">
+        <v>117002841951433.1</v>
+      </c>
+      <c r="F136">
+        <v>10.65073051305828</v>
+      </c>
+      <c r="G136">
+        <v>563389807767032.2</v>
+      </c>
+      <c r="H136">
+        <v>50.24483845543126</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137">
+        <v>69819906140402.12</v>
+      </c>
+      <c r="B137">
+        <v>6.500365227101475</v>
+      </c>
+      <c r="C137">
+        <v>25579095379425.54</v>
+      </c>
+      <c r="D137">
+        <v>2.388213375999507</v>
+      </c>
+      <c r="E137">
+        <v>112959184175282.4</v>
+      </c>
+      <c r="F137">
+        <v>10.48786687443566</v>
+      </c>
+      <c r="G137">
+        <v>544018408812372.9</v>
+      </c>
+      <c r="H137">
+        <v>49.16978646469175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138">
+        <v>67645897015382.12</v>
+      </c>
+      <c r="B138">
+        <v>6.467765284138511</v>
+      </c>
+      <c r="C138">
+        <v>24783118583104.33</v>
+      </c>
+      <c r="D138">
+        <v>2.377151400513741</v>
+      </c>
+      <c r="E138">
+        <v>109444292024317.7</v>
+      </c>
+      <c r="F138">
+        <v>10.43180239107091</v>
+      </c>
+      <c r="G138">
+        <v>527174341562841.2</v>
+      </c>
+      <c r="H138">
+        <v>48.74771375454354</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139">
+        <v>64680802401114.41</v>
+      </c>
+      <c r="B139">
+        <v>6.357226330728089</v>
+      </c>
+      <c r="C139">
+        <v>23697448531996.23</v>
+      </c>
+      <c r="D139">
+        <v>2.336863784392987</v>
+      </c>
+      <c r="E139">
+        <v>104650145158082.5</v>
+      </c>
+      <c r="F139">
+        <v>10.2526380831151</v>
+      </c>
+      <c r="G139">
+        <v>504191196615050.2</v>
+      </c>
+      <c r="H139">
+        <v>47.86747159730956</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140">
+        <v>62461544083705.77</v>
+      </c>
+      <c r="B140">
+        <v>6.292874534308542</v>
+      </c>
+      <c r="C140">
+        <v>22884828367626.93</v>
+      </c>
+      <c r="D140">
+        <v>2.312380681455743</v>
+      </c>
+      <c r="E140">
+        <v>101061727638475.5</v>
+      </c>
+      <c r="F140">
+        <v>10.15278613879713</v>
+      </c>
+      <c r="G140">
+        <v>486981796066324.8</v>
+      </c>
+      <c r="H140">
+        <v>47.5754666673041</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141">
+        <v>60199130886713.23</v>
+      </c>
+      <c r="B141">
+        <v>6.216879580671598</v>
+      </c>
+      <c r="C141">
+        <v>22056372587551.3</v>
+      </c>
+      <c r="D141">
+        <v>2.283173861204579</v>
+      </c>
+      <c r="E141">
+        <v>97403368429378.97</v>
+      </c>
+      <c r="F141">
+        <v>10.03605257539189</v>
+      </c>
+      <c r="G141">
+        <v>469431214512262</v>
+      </c>
+      <c r="H141">
+        <v>47.29300176174308</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142">
+        <v>58954494189703</v>
+      </c>
+      <c r="B142">
+        <v>6.246595246007845</v>
+      </c>
+      <c r="C142">
+        <v>21600594086732.82</v>
+      </c>
+      <c r="D142">
+        <v>2.292958702629375</v>
+      </c>
+      <c r="E142">
+        <v>95390700471254.41</v>
+      </c>
+      <c r="F142">
+        <v>10.08906731719633</v>
+      </c>
+      <c r="G142">
+        <v>459773179967397.8</v>
+      </c>
+      <c r="H142">
+        <v>47.77320555485718</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143">
+        <v>57510768509581.04</v>
+      </c>
+      <c r="B143">
+        <v>6.224189880245608</v>
+      </c>
+      <c r="C143">
+        <v>21071897489380.51</v>
+      </c>
+      <c r="D143">
+        <v>2.286074406444095</v>
+      </c>
+      <c r="E143">
+        <v>93056028893341.94</v>
+      </c>
+      <c r="F143">
+        <v>10.04743539726256</v>
+      </c>
+      <c r="G143">
+        <v>448567766691037.1</v>
+      </c>
+      <c r="H143">
+        <v>47.32400157894818</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144">
+        <v>55508530671699.67</v>
+      </c>
+      <c r="B144">
+        <v>6.147629389584362</v>
+      </c>
+      <c r="C144">
+        <v>20338649153616.07</v>
+      </c>
+      <c r="D144">
+        <v>2.258043079710601</v>
+      </c>
+      <c r="E144">
+        <v>89818067785024.16</v>
+      </c>
+      <c r="F144">
+        <v>9.923840438456242</v>
+      </c>
+      <c r="G144">
+        <v>433023033178103.7</v>
+      </c>
+      <c r="H144">
+        <v>46.73916323943837</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145">
+        <v>54114185350736.9</v>
+      </c>
+      <c r="B145">
+        <v>6.13713836772269</v>
+      </c>
+      <c r="C145">
+        <v>19828004065118.68</v>
+      </c>
+      <c r="D145">
+        <v>2.254060378162146</v>
+      </c>
+      <c r="E145">
+        <v>87563096871408.27</v>
+      </c>
+      <c r="F145">
+        <v>9.907712170026036</v>
+      </c>
+      <c r="G145">
+        <v>422194724624043.2</v>
+      </c>
+      <c r="H145">
+        <v>46.69831303024758</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146">
+        <v>52286413469893.05</v>
+      </c>
+      <c r="B146">
+        <v>6.047983564305452</v>
+      </c>
+      <c r="C146">
+        <v>19158607447081.71</v>
+      </c>
+      <c r="D146">
+        <v>2.222505366147039</v>
+      </c>
+      <c r="E146">
+        <v>84607082926778</v>
+      </c>
+      <c r="F146">
+        <v>9.759048013712135</v>
+      </c>
+      <c r="G146">
+        <v>407996675919553.1</v>
+      </c>
+      <c r="H146">
+        <v>45.77970560909754</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147">
+        <v>50265850898664.2</v>
+      </c>
+      <c r="B147">
+        <v>5.974591235358383</v>
+      </c>
+      <c r="C147">
+        <v>18418577996866.97</v>
+      </c>
+      <c r="D147">
+        <v>2.194763470875065</v>
+      </c>
+      <c r="E147">
+        <v>81339148177135.16</v>
+      </c>
+      <c r="F147">
+        <v>9.64426909652944</v>
+      </c>
+      <c r="G147">
+        <v>392296011963861.9</v>
+      </c>
+      <c r="H147">
+        <v>45.4049805406198</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148">
+        <v>49019315739942.76</v>
+      </c>
+      <c r="B148">
+        <v>6.010710330929223</v>
+      </c>
+      <c r="C148">
+        <v>17962021930836.25</v>
+      </c>
+      <c r="D148">
+        <v>2.207714134016209</v>
+      </c>
+      <c r="E148">
+        <v>79323012817469.98</v>
+      </c>
+      <c r="F148">
+        <v>9.704150553970324</v>
+      </c>
+      <c r="G148">
+        <v>382607249317493.3</v>
+      </c>
+      <c r="H148">
+        <v>45.75750067417859</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149">
+        <v>47293317623494.72</v>
+      </c>
+      <c r="B149">
+        <v>5.962813239500582</v>
+      </c>
+      <c r="C149">
+        <v>17329840657176.7</v>
+      </c>
+      <c r="D149">
+        <v>2.188482010632245</v>
+      </c>
+      <c r="E149">
+        <v>76531315788844.64</v>
+      </c>
+      <c r="F149">
+        <v>9.634132327858049</v>
+      </c>
+      <c r="G149">
+        <v>369188515039417.5</v>
+      </c>
+      <c r="H149">
+        <v>45.76335269290194</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150">
+        <v>47060536570721.2</v>
+      </c>
+      <c r="B150">
+        <v>6.052222018546622</v>
+      </c>
+      <c r="C150">
+        <v>17244578431744.12</v>
+      </c>
+      <c r="D150">
+        <v>2.221776943417493</v>
+      </c>
+      <c r="E150">
+        <v>76154799266917.95</v>
+      </c>
+      <c r="F150">
+        <v>9.776579773903661</v>
+      </c>
+      <c r="G150">
+        <v>367378468764943.5</v>
+      </c>
+      <c r="H150">
+        <v>46.34609068514285</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151">
+        <v>45117173177601.58</v>
+      </c>
+      <c r="B151">
+        <v>5.947211155537441</v>
+      </c>
+      <c r="C151">
+        <v>16532756052392.26</v>
+      </c>
+      <c r="D151">
+        <v>2.185030063221834</v>
+      </c>
+      <c r="E151">
+        <v>73011398109278.5</v>
+      </c>
+      <c r="F151">
+        <v>9.599607477502069</v>
+      </c>
+      <c r="G151">
+        <v>352264630937513.5</v>
+      </c>
+      <c r="H151">
+        <v>45.16730013131764</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152">
+        <v>43995779880514.52</v>
+      </c>
+      <c r="B152">
+        <v>5.985753444000228</v>
+      </c>
+      <c r="C152">
+        <v>16121996505696.04</v>
+      </c>
+      <c r="D152">
+        <v>2.196225566968166</v>
+      </c>
+      <c r="E152">
+        <v>71197482998279.58</v>
+      </c>
+      <c r="F152">
+        <v>9.674684654717026</v>
+      </c>
+      <c r="G152">
+        <v>343541155717181.9</v>
+      </c>
+      <c r="H152">
+        <v>46.11503498119098</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153">
+        <v>43683638687866.11</v>
+      </c>
+      <c r="B153">
+        <v>6.033985315947271</v>
+      </c>
+      <c r="C153">
+        <v>16007659595783.68</v>
+      </c>
+      <c r="D153">
+        <v>2.213992998750755</v>
+      </c>
+      <c r="E153">
+        <v>70692570328748.53</v>
+      </c>
+      <c r="F153">
+        <v>9.752394491068001</v>
+      </c>
+      <c r="G153">
+        <v>341112675820949.7</v>
+      </c>
+      <c r="H153">
+        <v>46.47342272499975</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154">
+        <v>42551357353489.97</v>
+      </c>
+      <c r="B154">
+        <v>5.91965102940615</v>
+      </c>
+      <c r="C154">
+        <v>15592900984440.51</v>
+      </c>
+      <c r="D154">
+        <v>2.174135671536428</v>
+      </c>
+      <c r="E154">
+        <v>68860990895507.17</v>
+      </c>
+      <c r="F154">
+        <v>9.558853540494741</v>
+      </c>
+      <c r="G154">
+        <v>332302389396856.3</v>
+      </c>
+      <c r="H154">
+        <v>45.14349048888169</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155">
+        <v>41195780348429.4</v>
+      </c>
+      <c r="B155">
+        <v>5.859697143544149</v>
+      </c>
+      <c r="C155">
+        <v>15096337165900.26</v>
+      </c>
+      <c r="D155">
+        <v>2.151445064528033</v>
+      </c>
+      <c r="E155">
+        <v>66668154002154.69</v>
+      </c>
+      <c r="F155">
+        <v>9.465146343463235</v>
+      </c>
+      <c r="G155">
+        <v>321752451997123.2</v>
+      </c>
+      <c r="H155">
+        <v>44.84277651303216</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156">
+        <v>40468397565868.99</v>
+      </c>
+      <c r="B156">
+        <v>5.910058575743954</v>
+      </c>
+      <c r="C156">
+        <v>14829883245883.99</v>
+      </c>
+      <c r="D156">
+        <v>2.168880346871061</v>
+      </c>
+      <c r="E156">
+        <v>65491485484685.38</v>
+      </c>
+      <c r="F156">
+        <v>9.551137339204102</v>
+      </c>
+      <c r="G156">
+        <v>316090527451306</v>
+      </c>
+      <c r="H156">
+        <v>45.4655208252517</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157">
+        <v>39686191152091.65</v>
+      </c>
+      <c r="B157">
+        <v>5.886311205954234</v>
+      </c>
+      <c r="C157">
+        <v>14543342474467.04</v>
+      </c>
+      <c r="D157">
+        <v>2.159972817900491</v>
+      </c>
+      <c r="E157">
+        <v>64226111217469.5</v>
+      </c>
+      <c r="F157">
+        <v>9.513723745225118</v>
+      </c>
+      <c r="G157">
+        <v>310001091531040.8</v>
+      </c>
+      <c r="H157">
+        <v>45.3316793103379</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158">
+        <v>39081882574241.67</v>
+      </c>
+      <c r="B158">
+        <v>5.908009322798248</v>
+      </c>
+      <c r="C158">
+        <v>14321967113356.25</v>
+      </c>
+      <c r="D158">
+        <v>2.168554164941509</v>
+      </c>
+      <c r="E158">
+        <v>63248508583828.64</v>
+      </c>
+      <c r="F158">
+        <v>9.546250279774357</v>
+      </c>
+      <c r="G158">
+        <v>305296037303876.8</v>
+      </c>
+      <c r="H158">
+        <v>45.36697395436207</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159">
+        <v>38040813079755.28</v>
+      </c>
+      <c r="B159">
+        <v>5.954144906282313</v>
+      </c>
+      <c r="C159">
+        <v>13940588147385.71</v>
+      </c>
+      <c r="D159">
+        <v>2.187984669252424</v>
+      </c>
+      <c r="E159">
+        <v>61564321161766.91</v>
+      </c>
+      <c r="F159">
+        <v>9.610327966353303</v>
+      </c>
+      <c r="G159">
+        <v>297189317666090.3</v>
+      </c>
+      <c r="H159">
+        <v>45.18752255574393</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160">
+        <v>36381097738630.01</v>
+      </c>
+      <c r="B160">
+        <v>5.875767668723777</v>
+      </c>
+      <c r="C160">
+        <v>13332563364520.38</v>
+      </c>
+      <c r="D160">
+        <v>2.156800404508725</v>
+      </c>
+      <c r="E160">
+        <v>58879249055796.36</v>
+      </c>
+      <c r="F160">
+        <v>9.494288404099244</v>
+      </c>
+      <c r="G160">
+        <v>284262345384152.5</v>
+      </c>
+      <c r="H160">
+        <v>45.1232188154235</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161">
+        <v>36488480218152.64</v>
+      </c>
+      <c r="B161">
+        <v>5.967433177405131</v>
+      </c>
+      <c r="C161">
+        <v>13371902718737.74</v>
+      </c>
+      <c r="D161">
+        <v>2.191509890211999</v>
+      </c>
+      <c r="E161">
+        <v>59052974114211.14</v>
+      </c>
+      <c r="F161">
+        <v>9.637843927320926</v>
+      </c>
+      <c r="G161">
+        <v>285098820144407.6</v>
+      </c>
+      <c r="H161">
+        <v>45.59361200017792</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162">
+        <v>34391442253787.79</v>
+      </c>
+      <c r="B162">
+        <v>5.746112091685302</v>
+      </c>
+      <c r="C162">
+        <v>12603643212035.35</v>
+      </c>
+      <c r="D162">
+        <v>2.114371638611446</v>
+      </c>
+      <c r="E162">
+        <v>55660286200759.88</v>
+      </c>
+      <c r="F162">
+        <v>9.263141604257282</v>
+      </c>
+      <c r="G162">
+        <v>268760862720356.2</v>
+      </c>
+      <c r="H162">
+        <v>43.03714682442267</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163">
+        <v>32756784511964.43</v>
+      </c>
+      <c r="B163">
+        <v>5.697982188994106</v>
+      </c>
+      <c r="C163">
+        <v>12004758519816.85</v>
+      </c>
+      <c r="D163">
+        <v>2.094499796971748</v>
+      </c>
+      <c r="E163">
+        <v>53015561036845.14</v>
+      </c>
+      <c r="F163">
+        <v>9.195011783920101</v>
+      </c>
+      <c r="G163">
+        <v>256021331114365.7</v>
+      </c>
+      <c r="H163">
+        <v>43.14423517276342</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164">
+        <v>31730374743345.97</v>
+      </c>
+      <c r="B164">
+        <v>5.671901220845959</v>
+      </c>
+      <c r="C164">
+        <v>11628706733811.59</v>
+      </c>
+      <c r="D164">
+        <v>2.081887728388532</v>
+      </c>
+      <c r="E164">
+        <v>51354880999666.34</v>
+      </c>
+      <c r="F164">
+        <v>9.166011205140023</v>
+      </c>
+      <c r="G164">
+        <v>248020339717332.8</v>
+      </c>
+      <c r="H164">
+        <v>43.61079036741828</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165">
+        <v>31423595521593.29</v>
+      </c>
+      <c r="B165">
+        <v>5.709714410925478</v>
+      </c>
+      <c r="C165">
+        <v>11516308863582.74</v>
+      </c>
+      <c r="D165">
+        <v>2.096571384814641</v>
+      </c>
+      <c r="E165">
+        <v>50858520880960.31</v>
+      </c>
+      <c r="F165">
+        <v>9.223730547078903</v>
+      </c>
+      <c r="G165">
+        <v>245628691658478</v>
+      </c>
+      <c r="H165">
+        <v>43.72705576032391</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166">
+        <v>30096482163716.42</v>
+      </c>
+      <c r="B166">
+        <v>5.63370689813884</v>
+      </c>
+      <c r="C166">
+        <v>11030073423434.47</v>
+      </c>
+      <c r="D166">
+        <v>2.070373748619607</v>
+      </c>
+      <c r="E166">
+        <v>48711254097212.28</v>
+      </c>
+      <c r="F166">
+        <v>9.093864314118575</v>
+      </c>
+      <c r="G166">
+        <v>235281117247625.4</v>
+      </c>
+      <c r="H166">
+        <v>42.78393121634008</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167">
+        <v>29168395483083.36</v>
+      </c>
+      <c r="B167">
+        <v>5.661217511591099</v>
+      </c>
+      <c r="C167">
+        <v>10690028707419.5</v>
+      </c>
+      <c r="D167">
+        <v>2.078616085772477</v>
+      </c>
+      <c r="E167">
+        <v>47209578053183.08</v>
+      </c>
+      <c r="F167">
+        <v>9.146402789501133</v>
+      </c>
+      <c r="G167">
+        <v>228043413425238.1</v>
+      </c>
+      <c r="H167">
+        <v>43.4052044570184</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168">
+        <v>28639300155094.69</v>
+      </c>
+      <c r="B168">
+        <v>5.682313588413368</v>
+      </c>
+      <c r="C168">
+        <v>10496169171365.69</v>
+      </c>
+      <c r="D168">
+        <v>2.085163761754171</v>
+      </c>
+      <c r="E168">
+        <v>46353471296619.13</v>
+      </c>
+      <c r="F168">
+        <v>9.185706642514743</v>
+      </c>
+      <c r="G168">
+        <v>223916750372908.5</v>
+      </c>
+      <c r="H168">
+        <v>43.83557698834083</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169">
+        <v>28191958001183.28</v>
+      </c>
+      <c r="B169">
+        <v>5.734324322609133</v>
+      </c>
+      <c r="C169">
+        <v>10332262390388.08</v>
+      </c>
+      <c r="D169">
+        <v>2.105416295236337</v>
+      </c>
+      <c r="E169">
+        <v>45629638871146.9</v>
+      </c>
+      <c r="F169">
+        <v>9.264865015131292</v>
+      </c>
+      <c r="G169">
+        <v>220427434373468.3</v>
+      </c>
+      <c r="H169">
+        <v>43.98244072281182</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170">
+        <v>27270713145473.54</v>
+      </c>
+      <c r="B170">
+        <v>5.720226754103645</v>
+      </c>
+      <c r="C170">
+        <v>9994712808334.904</v>
+      </c>
+      <c r="D170">
+        <v>2.102426406127327</v>
+      </c>
+      <c r="E170">
+        <v>44138976842277.28</v>
+      </c>
+      <c r="F170">
+        <v>9.232913812473502</v>
+      </c>
+      <c r="G170">
+        <v>213240806343682.7</v>
+      </c>
+      <c r="H170">
+        <v>43.40690290419128</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171">
+        <v>26108691158711.78</v>
+      </c>
+      <c r="B171">
+        <v>5.641473736913507</v>
+      </c>
+      <c r="C171">
+        <v>9568932994381.865</v>
+      </c>
+      <c r="D171">
+        <v>2.073569119075061</v>
+      </c>
+      <c r="E171">
+        <v>42258675546974.52</v>
+      </c>
+      <c r="F171">
+        <v>9.105623007694325</v>
+      </c>
+      <c r="G171">
+        <v>204174300044764.6</v>
+      </c>
+      <c r="H171">
+        <v>42.79909454017074</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172">
+        <v>25225765374480.75</v>
+      </c>
+      <c r="B172">
+        <v>5.605087893891111</v>
+      </c>
+      <c r="C172">
+        <v>9245411608182.277</v>
+      </c>
+      <c r="D172">
+        <v>2.060471939631311</v>
+      </c>
+      <c r="E172">
+        <v>40829958847249.63</v>
+      </c>
+      <c r="F172">
+        <v>9.045863687933577</v>
+      </c>
+      <c r="G172">
+        <v>197284224666837.4</v>
+      </c>
+      <c r="H172">
+        <v>42.47017097986824</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173">
+        <v>24032751766950.93</v>
+      </c>
+      <c r="B173">
+        <v>5.512463157016091</v>
+      </c>
+      <c r="C173">
+        <v>8808259690901.285</v>
+      </c>
+      <c r="D173">
+        <v>2.026381420740665</v>
+      </c>
+      <c r="E173">
+        <v>38899430095136.49</v>
+      </c>
+      <c r="F173">
+        <v>8.896751940551288</v>
+      </c>
+      <c r="G173">
+        <v>187972707302872</v>
+      </c>
+      <c r="H173">
+        <v>41.78575930172071</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174">
+        <v>23235558530449.97</v>
+      </c>
+      <c r="B174">
+        <v>5.482652490883281</v>
+      </c>
+      <c r="C174">
+        <v>8516141600677.117</v>
+      </c>
+      <c r="D174">
+        <v>2.014289849602764</v>
+      </c>
+      <c r="E174">
+        <v>37609390416819.7</v>
+      </c>
+      <c r="F174">
+        <v>8.853602192087758</v>
+      </c>
+      <c r="G174">
+        <v>181749548949779.5</v>
+      </c>
+      <c r="H174">
+        <v>41.80962653130169</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175">
+        <v>22468990472181.16</v>
+      </c>
+      <c r="B175">
+        <v>5.435430781484831</v>
+      </c>
+      <c r="C175">
+        <v>8235241600229.858</v>
+      </c>
+      <c r="D175">
+        <v>1.99713915353918</v>
+      </c>
+      <c r="E175">
+        <v>36368889960823.15</v>
+      </c>
+      <c r="F175">
+        <v>8.776625796261357</v>
+      </c>
+      <c r="G175">
+        <v>175764679354700.8</v>
+      </c>
+      <c r="H175">
+        <v>41.41206479338076</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176">
+        <v>21651603524629.15</v>
+      </c>
+      <c r="B176">
+        <v>5.437138192309522</v>
+      </c>
+      <c r="C176">
+        <v>7935715292467.2</v>
+      </c>
+      <c r="D176">
+        <v>1.996606143922691</v>
+      </c>
+      <c r="E176">
+        <v>35046130910838.51</v>
+      </c>
+      <c r="F176">
+        <v>8.784474532370492</v>
+      </c>
+      <c r="G176">
+        <v>169382204143105</v>
+      </c>
+      <c r="H176">
+        <v>41.68395224651422</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177">
+        <v>21303313884912.49</v>
+      </c>
+      <c r="B177">
+        <v>5.518526363318119</v>
+      </c>
+      <c r="C177">
+        <v>7808085391281.38</v>
+      </c>
+      <c r="D177">
+        <v>2.024667737631967</v>
+      </c>
+      <c r="E177">
+        <v>34482495034978.06</v>
+      </c>
+      <c r="F177">
+        <v>8.923849357605954</v>
+      </c>
+      <c r="G177">
+        <v>166662358308603.1</v>
+      </c>
+      <c r="H177">
+        <v>42.71535587606944</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178">
+        <v>21058633679348.12</v>
+      </c>
+      <c r="B178">
+        <v>5.568879591129994</v>
+      </c>
+      <c r="C178">
+        <v>7718422434807.781</v>
+      </c>
+      <c r="D178">
+        <v>2.041122604631856</v>
+      </c>
+      <c r="E178">
+        <v>34086527602508.33</v>
+      </c>
+      <c r="F178">
+        <v>9.014000115563666</v>
+      </c>
+      <c r="G178">
+        <v>164751519360488.8</v>
+      </c>
+      <c r="H178">
+        <v>43.56480617909378</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179">
+        <v>21299409945706.45</v>
+      </c>
+      <c r="B179">
+        <v>5.795010862081959</v>
+      </c>
+      <c r="C179">
+        <v>7806654797563.841</v>
+      </c>
+      <c r="D179">
+        <v>2.125955179522232</v>
+      </c>
+      <c r="E179">
+        <v>34476177282045.48</v>
+      </c>
+      <c r="F179">
+        <v>9.371592023361101</v>
+      </c>
+      <c r="G179">
+        <v>166631870966972.3</v>
+      </c>
+      <c r="H179">
+        <v>44.88923665122428</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180">
+        <v>20534180809868.99</v>
+      </c>
+      <c r="B180">
+        <v>5.810457479159097</v>
+      </c>
+      <c r="C180">
+        <v>7526235561682.084</v>
+      </c>
+      <c r="D180">
+        <v>2.133560850774672</v>
+      </c>
+      <c r="E180">
+        <v>33237795918151.44</v>
+      </c>
+      <c r="F180">
+        <v>9.388395424916457</v>
+      </c>
+      <c r="G180">
+        <v>160655522418422.9</v>
+      </c>
+      <c r="H180">
+        <v>44.58423667166034</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181">
+        <v>20304622549859.22</v>
+      </c>
+      <c r="B181">
+        <v>5.905296577175822</v>
+      </c>
+      <c r="C181">
+        <v>7442112870793.974</v>
+      </c>
+      <c r="D181">
+        <v>2.16627883166598</v>
+      </c>
+      <c r="E181">
+        <v>32866294798566.5</v>
+      </c>
+      <c r="F181">
+        <v>9.550705413137333</v>
+      </c>
+      <c r="G181">
+        <v>158862550680216</v>
+      </c>
+      <c r="H181">
+        <v>45.78219581310833</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182">
+        <v>20081499109910.91</v>
+      </c>
+      <c r="B182">
+        <v>5.943450373167263</v>
+      </c>
+      <c r="C182">
+        <v>7360347913102.923</v>
+      </c>
+      <c r="D182">
+        <v>2.180644863100216</v>
+      </c>
+      <c r="E182">
+        <v>32505205720196.98</v>
+      </c>
+      <c r="F182">
+        <v>9.610864018602912</v>
+      </c>
+      <c r="G182">
+        <v>157119772376373.6</v>
+      </c>
+      <c r="H182">
+        <v>45.99679274373278</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183">
+        <v>19772642931326.46</v>
+      </c>
+      <c r="B183">
+        <v>6.075529033332448</v>
+      </c>
+      <c r="C183">
+        <v>7247165118315.89</v>
+      </c>
+      <c r="D183">
+        <v>2.230214062955961</v>
+      </c>
+      <c r="E183">
+        <v>32005369475567.09</v>
+      </c>
+      <c r="F183">
+        <v>9.819739480735359</v>
+      </c>
+      <c r="G183">
+        <v>154707243346568.5</v>
+      </c>
+      <c r="H183">
+        <v>46.77428049679165</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184">
+        <v>19321280215816.62</v>
+      </c>
+      <c r="B184">
+        <v>6.17337191689834</v>
+      </c>
+      <c r="C184">
+        <v>7081758530254.479</v>
+      </c>
+      <c r="D184">
+        <v>2.269232997506466</v>
+      </c>
+      <c r="E184">
+        <v>31274902791283.44</v>
+      </c>
+      <c r="F184">
+        <v>9.964706181716632</v>
+      </c>
+      <c r="G184">
+        <v>151181347115024</v>
+      </c>
+      <c r="H184">
+        <v>46.85451146917173</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185">
+        <v>18385282247978.15</v>
+      </c>
+      <c r="B185">
+        <v>5.974192825497436</v>
+      </c>
+      <c r="C185">
+        <v>6738747958358.583</v>
+      </c>
+      <c r="D185">
+        <v>2.200030366390628</v>
+      </c>
+      <c r="E185">
+        <v>29760101650276.38</v>
+      </c>
+      <c r="F185">
+        <v>9.626330109012697</v>
+      </c>
+      <c r="G185">
+        <v>143868792764239.4</v>
+      </c>
+      <c r="H185">
+        <v>44.50571503093826</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186">
+        <v>17098934834544.46</v>
+      </c>
+      <c r="B186">
+        <v>5.683093045497752</v>
+      </c>
+      <c r="C186">
+        <v>6267337022918.646</v>
+      </c>
+      <c r="D186">
+        <v>2.091665742134825</v>
+      </c>
+      <c r="E186">
+        <v>27678255724922.03</v>
+      </c>
+      <c r="F186">
+        <v>9.16243195722161</v>
+      </c>
+      <c r="G186">
+        <v>133817240121149.1</v>
+      </c>
+      <c r="H186">
+        <v>42.58829481775803</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187">
+        <v>16475003764343.67</v>
+      </c>
+      <c r="B187">
+        <v>5.713954523235824</v>
+      </c>
+      <c r="C187">
+        <v>6038679480467.68</v>
+      </c>
+      <c r="D187">
+        <v>2.099815335402955</v>
+      </c>
+      <c r="E187">
+        <v>26668456196960.77</v>
+      </c>
+      <c r="F187">
+        <v>9.225945861720362</v>
+      </c>
+      <c r="G187">
+        <v>128941047650688.2</v>
+      </c>
+      <c r="H187">
+        <v>43.50610453982904</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188">
+        <v>15946839258080.44</v>
+      </c>
+      <c r="B188">
+        <v>5.712732412169001</v>
+      </c>
+      <c r="C188">
+        <v>5845116330727.441</v>
+      </c>
+      <c r="D188">
+        <v>2.098787534769693</v>
+      </c>
+      <c r="E188">
+        <v>25813640015993.63</v>
+      </c>
+      <c r="F188">
+        <v>9.226534159024421</v>
+      </c>
+      <c r="G188">
+        <v>124812899538413.5</v>
+      </c>
+      <c r="H188">
+        <v>43.62636367039651</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189">
+        <v>15479927754010.28</v>
+      </c>
+      <c r="B189">
+        <v>5.61897949061979</v>
+      </c>
+      <c r="C189">
+        <v>5673999797790.383</v>
+      </c>
+      <c r="D189">
+        <v>2.064995385823749</v>
+      </c>
+      <c r="E189">
+        <v>25057952251257.24</v>
+      </c>
+      <c r="F189">
+        <v>9.072412448514726</v>
+      </c>
+      <c r="G189">
+        <v>121163202911491.7</v>
+      </c>
+      <c r="H189">
+        <v>42.77249403764129</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190">
+        <v>14832972199506.76</v>
+      </c>
+      <c r="B190">
+        <v>5.535575057217144</v>
+      </c>
+      <c r="C190">
+        <v>5436897238147.605</v>
+      </c>
+      <c r="D190">
+        <v>2.032554473169208</v>
+      </c>
+      <c r="E190">
+        <v>24010854880918</v>
+      </c>
+      <c r="F190">
+        <v>8.94550511265782</v>
+      </c>
+      <c r="G190">
+        <v>116105688981986</v>
+      </c>
+      <c r="H190">
+        <v>42.5333214350562</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191">
+        <v>14761450831665.55</v>
+      </c>
+      <c r="B191">
+        <v>5.743642267556688</v>
+      </c>
+      <c r="C191">
+        <v>5410685220864.149</v>
+      </c>
+      <c r="D191">
+        <v>2.105135250073282</v>
+      </c>
+      <c r="E191">
+        <v>23895096742142.68</v>
+      </c>
+      <c r="F191">
+        <v>9.298159951233666</v>
+      </c>
+      <c r="G191">
+        <v>115546543852844</v>
+      </c>
+      <c r="H191">
+        <v>44.9929833423794</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192">
+        <v>14860874702626.38</v>
+      </c>
+      <c r="B192">
+        <v>5.927847385330707</v>
+      </c>
+      <c r="C192">
+        <v>5447123276251.436</v>
+      </c>
+      <c r="D192">
+        <v>2.172852720711496</v>
+      </c>
+      <c r="E192">
+        <v>24056015351623.66</v>
+      </c>
+      <c r="F192">
+        <v>9.595467453350269</v>
+      </c>
+      <c r="G192">
+        <v>116323825455956.7</v>
+      </c>
+      <c r="H192">
+        <v>46.38835022840232</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193">
+        <v>14752162340771.15</v>
+      </c>
+      <c r="B193">
+        <v>6.026851418217901</v>
+      </c>
+      <c r="C193">
+        <v>5407281059700.56</v>
+      </c>
+      <c r="D193">
+        <v>2.213662900545592</v>
+      </c>
+      <c r="E193">
+        <v>23880063203022.49</v>
+      </c>
+      <c r="F193">
+        <v>9.736336012161377</v>
+      </c>
+      <c r="G193">
+        <v>115473927099351.8</v>
+      </c>
+      <c r="H193">
+        <v>46.15005270140664</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194">
+        <v>14082152836652.23</v>
+      </c>
+      <c r="B194">
+        <v>5.932856093672189</v>
+      </c>
+      <c r="C194">
+        <v>5161726162980.314</v>
+      </c>
+      <c r="D194">
+        <v>2.181714582074556</v>
+      </c>
+      <c r="E194">
+        <v>22795637089232.81</v>
+      </c>
+      <c r="F194">
+        <v>9.573614921895125</v>
+      </c>
+      <c r="G194">
+        <v>110235543425207.5</v>
+      </c>
+      <c r="H194">
+        <v>44.87881213505366</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195">
+        <v>13568341526598.29</v>
+      </c>
+      <c r="B195">
+        <v>5.903181291325966</v>
+      </c>
+      <c r="C195">
+        <v>4973415041063.947</v>
+      </c>
+      <c r="D195">
+        <v>2.169209057196912</v>
+      </c>
+      <c r="E195">
+        <v>21964011636927.23</v>
+      </c>
+      <c r="F195">
+        <v>9.532612774372911</v>
+      </c>
+      <c r="G195">
+        <v>106217977623828.1</v>
+      </c>
+      <c r="H195">
+        <v>45.00094869307531</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196">
+        <v>13196658612469.15</v>
+      </c>
+      <c r="B196">
+        <v>5.93739025322956</v>
+      </c>
+      <c r="C196">
+        <v>4837192679275.228</v>
+      </c>
+      <c r="D196">
+        <v>2.182440839232417</v>
+      </c>
+      <c r="E196">
+        <v>21362421743003.59</v>
+      </c>
+      <c r="F196">
+        <v>9.585098853765576</v>
+      </c>
+      <c r="G196">
+        <v>103311519293963.2</v>
+      </c>
+      <c r="H196">
+        <v>45.12164347895519</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197">
+        <v>12609729660928.61</v>
+      </c>
+      <c r="B197">
+        <v>5.888970279648941</v>
+      </c>
+      <c r="C197">
+        <v>4622080437256.151</v>
+      </c>
+      <c r="D197">
+        <v>2.167529946763428</v>
+      </c>
+      <c r="E197">
+        <v>20412434870016.86</v>
+      </c>
+      <c r="F197">
+        <v>9.494754051765751</v>
+      </c>
+      <c r="G197">
+        <v>98721528030989.36</v>
+      </c>
+      <c r="H197">
+        <v>44.14530347156589</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198">
+        <v>11836714563191.89</v>
+      </c>
+      <c r="B198">
+        <v>5.685067094092769</v>
+      </c>
+      <c r="C198">
+        <v>4338763236939.68</v>
+      </c>
+      <c r="D198">
+        <v>2.091839897101815</v>
+      </c>
+      <c r="E198">
+        <v>19161237228074.54</v>
+      </c>
+      <c r="F198">
+        <v>9.168851729987541</v>
+      </c>
+      <c r="G198">
+        <v>92675589764794.98</v>
+      </c>
+      <c r="H198">
+        <v>42.7568099843765</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199">
+        <v>11387378131503.11</v>
+      </c>
+      <c r="B199">
+        <v>5.620400863989508</v>
+      </c>
+      <c r="C199">
+        <v>4174075437973.593</v>
+      </c>
+      <c r="D199">
+        <v>2.066732359217967</v>
+      </c>
+      <c r="E199">
+        <v>18433935115906.1</v>
+      </c>
+      <c r="F199">
+        <v>9.070219883822912</v>
+      </c>
+      <c r="G199">
+        <v>89160861330044.66</v>
+      </c>
+      <c r="H199">
+        <v>42.55230199479516</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200">
+        <v>10846112215988.44</v>
+      </c>
+      <c r="B200">
+        <v>5.638833668919122</v>
+      </c>
+      <c r="C200">
+        <v>3975692469075.79</v>
+      </c>
+      <c r="D200">
+        <v>2.070898929267376</v>
+      </c>
+      <c r="E200">
+        <v>17557826055128.41</v>
+      </c>
+      <c r="F200">
+        <v>9.111209179164913</v>
+      </c>
+      <c r="G200">
+        <v>84926705705790.19</v>
+      </c>
+      <c r="H200">
+        <v>43.26229729267428</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201">
+        <v>10820924952105.63</v>
+      </c>
+      <c r="B201">
+        <v>5.894848496958503</v>
+      </c>
+      <c r="C201">
+        <v>3966460869993.191</v>
+      </c>
+      <c r="D201">
+        <v>2.160690721773015</v>
+      </c>
+      <c r="E201">
+        <v>17517056973429.4</v>
+      </c>
+      <c r="F201">
+        <v>9.543063086481746</v>
+      </c>
+      <c r="G201">
+        <v>84729664202665.08</v>
+      </c>
+      <c r="H201">
+        <v>46.17922198574562</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202">
+        <v>10858374816849.97</v>
+      </c>
+      <c r="B202">
+        <v>6.00527278802718</v>
+      </c>
+      <c r="C202">
+        <v>3980186938059.551</v>
+      </c>
+      <c r="D202">
+        <v>2.201531559061414</v>
+      </c>
+      <c r="E202">
+        <v>17577674768852.22</v>
+      </c>
+      <c r="F202">
+        <v>9.720241654376448</v>
+      </c>
+      <c r="G202">
+        <v>85022636480408.19</v>
+      </c>
+      <c r="H202">
+        <v>46.95980553437288</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203">
+        <v>10786587417531.88</v>
+      </c>
+      <c r="B203">
+        <v>6.131619082416965</v>
+      </c>
+      <c r="C203">
+        <v>3953875520280.301</v>
+      </c>
+      <c r="D203">
+        <v>2.254322765911524</v>
+      </c>
+      <c r="E203">
+        <v>17461476876002.05</v>
+      </c>
+      <c r="F203">
+        <v>9.897016638498386</v>
+      </c>
+      <c r="G203">
+        <v>84461038235377.73</v>
+      </c>
+      <c r="H203">
+        <v>46.511989626122</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204">
+        <v>10047032698689.62</v>
+      </c>
+      <c r="B204">
+        <v>6.072330850370765</v>
+      </c>
+      <c r="C204">
+        <v>3682812952902.109</v>
+      </c>
+      <c r="D204">
+        <v>2.230144999428122</v>
+      </c>
+      <c r="E204">
+        <v>16264395024203.24</v>
+      </c>
+      <c r="F204">
+        <v>9.811622126589493</v>
+      </c>
+      <c r="G204">
+        <v>78675053040043.22</v>
+      </c>
+      <c r="H204">
+        <v>46.58565042515021</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205">
+        <v>10296453551658.93</v>
+      </c>
+      <c r="B205">
+        <v>6.466889885491222</v>
+      </c>
+      <c r="C205">
+        <v>3774231419203.752</v>
+      </c>
+      <c r="D205">
+        <v>2.368587341578116</v>
+      </c>
+      <c r="E205">
+        <v>16668122596173.01</v>
+      </c>
+      <c r="F205">
+        <v>10.47691847115659</v>
+      </c>
+      <c r="G205">
+        <v>80626503708166.62</v>
+      </c>
+      <c r="H205">
+        <v>51.07877162877918</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206">
+        <v>10243067713045.72</v>
+      </c>
+      <c r="B206">
+        <v>6.507563047809745</v>
+      </c>
+      <c r="C206">
+        <v>3754664319145.022</v>
+      </c>
+      <c r="D206">
+        <v>2.387046095492211</v>
+      </c>
+      <c r="E206">
+        <v>16581709239984.62</v>
+      </c>
+      <c r="F206">
+        <v>10.52745849586185</v>
+      </c>
+      <c r="G206">
+        <v>80208823629528.33</v>
+      </c>
+      <c r="H206">
+        <v>50.57984742894132</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207">
+        <v>10128238187029.64</v>
+      </c>
+      <c r="B207">
+        <v>6.678942968328911</v>
+      </c>
+      <c r="C207">
+        <v>3712576673410.992</v>
+      </c>
+      <c r="D207">
+        <v>2.454503409382995</v>
+      </c>
+      <c r="E207">
+        <v>16395839324301.95</v>
+      </c>
+      <c r="F207">
+        <v>10.78504362449428</v>
+      </c>
+      <c r="G207">
+        <v>79310407835794.56</v>
+      </c>
+      <c r="H207">
+        <v>50.89522827222489</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208">
+        <v>9644328426099.082</v>
+      </c>
+      <c r="B208">
+        <v>6.716960836477114</v>
+      </c>
+      <c r="C208">
+        <v>3535211720343.979</v>
+      </c>
+      <c r="D208">
+        <v>2.465706662689</v>
+      </c>
+      <c r="E208">
+        <v>15612549478817.45</v>
+      </c>
+      <c r="F208">
+        <v>10.85837857064077</v>
+      </c>
+      <c r="G208">
+        <v>75524152070175.81</v>
+      </c>
+      <c r="H208">
+        <v>51.7974731004459</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209">
+        <v>9810030806065.326</v>
+      </c>
+      <c r="B209">
+        <v>6.996506113547771</v>
+      </c>
+      <c r="C209">
+        <v>3595945936257.478</v>
+      </c>
+      <c r="D209">
+        <v>2.564812393362761</v>
+      </c>
+      <c r="E209">
+        <v>15880767672698.57</v>
+      </c>
+      <c r="F209">
+        <v>11.32534593024728</v>
+      </c>
+      <c r="G209">
+        <v>76820691939024.06</v>
+      </c>
+      <c r="H209">
+        <v>54.7455389635363</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210">
+        <v>9628608859827.26</v>
+      </c>
+      <c r="B210">
+        <v>7.014415240860321</v>
+      </c>
+      <c r="C210">
+        <v>3529450082475.282</v>
+      </c>
+      <c r="D210">
+        <v>2.576987406322459</v>
+      </c>
+      <c r="E210">
+        <v>15587104574059.51</v>
+      </c>
+      <c r="F210">
+        <v>11.33028913801694</v>
+      </c>
+      <c r="G210">
+        <v>75401152305017.09</v>
+      </c>
+      <c r="H210">
+        <v>53.63075117952604</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211">
+        <v>9334629919589.449</v>
+      </c>
+      <c r="B211">
+        <v>7.109899733284219</v>
+      </c>
+      <c r="C211">
+        <v>3421698702036.086</v>
+      </c>
+      <c r="D211">
+        <v>2.610900652018909</v>
+      </c>
+      <c r="E211">
+        <v>15111246078325.89</v>
+      </c>
+      <c r="F211">
+        <v>11.48957747806407</v>
+      </c>
+      <c r="G211">
+        <v>73100816713148.8</v>
+      </c>
+      <c r="H211">
+        <v>54.61971384019483</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212">
+        <v>9264606733189.053</v>
+      </c>
+      <c r="B212">
+        <v>7.307389705238233</v>
+      </c>
+      <c r="C212">
+        <v>3396033190177.991</v>
+      </c>
+      <c r="D212">
+        <v>2.685448271266099</v>
+      </c>
+      <c r="E212">
+        <v>14997900378569.82</v>
+      </c>
+      <c r="F212">
+        <v>11.80007502713664</v>
+      </c>
+      <c r="G212">
+        <v>72552880406380.86</v>
+      </c>
+      <c r="H212">
+        <v>55.69434583253199</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213">
+        <v>8836192964444.924</v>
+      </c>
+      <c r="B213">
+        <v>7.16132082853021</v>
+      </c>
+      <c r="C213">
+        <v>3239006509813.333</v>
+      </c>
+      <c r="D213">
+        <v>2.634756530490624</v>
+      </c>
+      <c r="E213">
+        <v>14304428666450.4</v>
+      </c>
+      <c r="F213">
+        <v>11.55156214380216</v>
+      </c>
+      <c r="G213">
+        <v>69200373005208.48</v>
+      </c>
+      <c r="H213">
+        <v>53.94520707734236</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214">
+        <v>8565199267845.992</v>
+      </c>
+      <c r="B214">
+        <v>7.227290836503625</v>
+      </c>
+      <c r="C214">
+        <v>3139678443400.928</v>
+      </c>
+      <c r="D214">
+        <v>2.654816944352463</v>
+      </c>
+      <c r="E214">
+        <v>13865769167563.16</v>
+      </c>
+      <c r="F214">
+        <v>11.67599098510576</v>
+      </c>
+      <c r="G214">
+        <v>67079615873779.55</v>
+      </c>
+      <c r="H214">
+        <v>55.35130032885912</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215">
+        <v>8453427499158.88</v>
+      </c>
+      <c r="B215">
+        <v>7.35228320150184</v>
+      </c>
+      <c r="C215">
+        <v>3098710286378.948</v>
+      </c>
+      <c r="D215">
+        <v>2.697022030535627</v>
+      </c>
+      <c r="E215">
+        <v>13684842691472.29</v>
+      </c>
+      <c r="F215">
+        <v>11.89385429054634</v>
+      </c>
+      <c r="G215">
+        <v>66204878296874.45</v>
+      </c>
+      <c r="H215">
+        <v>57.13585975712553</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216">
+        <v>8437114163836.154</v>
+      </c>
+      <c r="B216">
+        <v>7.588597580785917</v>
+      </c>
+      <c r="C216">
+        <v>3092730886844.496</v>
+      </c>
+      <c r="D216">
+        <v>2.787716004320818</v>
+      </c>
+      <c r="E216">
+        <v>13658436040979.53</v>
+      </c>
+      <c r="F216">
+        <v>12.25895852121784</v>
+      </c>
+      <c r="G216">
+        <v>66077207056096.88</v>
+      </c>
+      <c r="H216">
+        <v>58.08034384420869</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217">
+        <v>8083531875227.17</v>
+      </c>
+      <c r="B217">
+        <v>7.756725250095024</v>
+      </c>
+      <c r="C217">
+        <v>2963130358004.98</v>
+      </c>
+      <c r="D217">
+        <v>2.84816892525388</v>
+      </c>
+      <c r="E217">
+        <v>13086084767740.99</v>
+      </c>
+      <c r="F217">
+        <v>12.53624956526157</v>
+      </c>
+      <c r="G217">
+        <v>63309919664762.86</v>
+      </c>
+      <c r="H217">
+        <v>59.65921533372215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218">
+        <v>8164595692967.157</v>
+      </c>
+      <c r="B218">
+        <v>8.201649554170107</v>
+      </c>
+      <c r="C218">
+        <v>2992843214187.117</v>
+      </c>
+      <c r="D218">
+        <v>3.005489140464551</v>
+      </c>
+      <c r="E218">
+        <v>13217304872548.24</v>
+      </c>
+      <c r="F218">
+        <v>13.28133260880995</v>
+      </c>
+      <c r="G218">
+        <v>63944374514167.11</v>
+      </c>
+      <c r="H218">
+        <v>64.45104106901439</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219">
+        <v>8131332406228.143</v>
+      </c>
+      <c r="B219">
+        <v>8.222556396645455</v>
+      </c>
+      <c r="C219">
+        <v>2980651007443.495</v>
+      </c>
+      <c r="D219">
+        <v>3.018260885200519</v>
+      </c>
+      <c r="E219">
+        <v>13163460752938.76</v>
+      </c>
+      <c r="F219">
+        <v>13.29319870362213</v>
+      </c>
+      <c r="G219">
+        <v>63684036798408.41</v>
+      </c>
+      <c r="H219">
+        <v>63.4536211970358</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220">
+        <v>7954066440708.634</v>
+      </c>
+      <c r="B220">
+        <v>8.473228708443598</v>
+      </c>
+      <c r="C220">
+        <v>2915676446878.474</v>
+      </c>
+      <c r="D220">
+        <v>3.118274121835138</v>
+      </c>
+      <c r="E220">
+        <v>12876515271648.86</v>
+      </c>
+      <c r="F220">
+        <v>13.66435716101416</v>
+      </c>
+      <c r="G220">
+        <v>62296626403615.91</v>
+      </c>
+      <c r="H220">
+        <v>63.65846509055597</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221">
+        <v>7561227277238.439</v>
+      </c>
+      <c r="B221">
+        <v>8.659528114683853</v>
+      </c>
+      <c r="C221">
+        <v>2771685555551.627</v>
+      </c>
+      <c r="D221">
+        <v>3.188041213607744</v>
+      </c>
+      <c r="E221">
+        <v>12240611694510.09</v>
+      </c>
+      <c r="F221">
+        <v>13.95977657634506</v>
+      </c>
+      <c r="G221">
+        <v>59221839051376.05</v>
+      </c>
+      <c r="H221">
+        <v>64.81004125931776</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222">
+        <v>7373557362660.371</v>
+      </c>
+      <c r="B222">
+        <v>8.627810963972633</v>
+      </c>
+      <c r="C222">
+        <v>2702896841305.634</v>
+      </c>
+      <c r="D222">
+        <v>3.171471815995599</v>
+      </c>
+      <c r="E222">
+        <v>11936821569478.14</v>
+      </c>
+      <c r="F222">
+        <v>13.92950589680504</v>
+      </c>
+      <c r="G222">
+        <v>57752858423892.13</v>
+      </c>
+      <c r="H222">
+        <v>65.61265490446053</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223">
+        <v>7195527226846.8</v>
+      </c>
+      <c r="B223">
+        <v>8.472374900089385</v>
+      </c>
+      <c r="C223">
+        <v>2637641283944.05</v>
+      </c>
+      <c r="D223">
+        <v>3.11884437003415</v>
+      </c>
+      <c r="E223">
+        <v>11648634760585.99</v>
+      </c>
+      <c r="F223">
+        <v>13.65941777382942</v>
+      </c>
+      <c r="G223">
+        <v>56359290214764.54</v>
+      </c>
+      <c r="H223">
+        <v>63.47482388178059</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224">
+        <v>6821700876149.221</v>
+      </c>
+      <c r="B224">
+        <v>8.5237885160959</v>
+      </c>
+      <c r="C224">
+        <v>2500617463731.43</v>
+      </c>
+      <c r="D224">
+        <v>3.135283655877204</v>
+      </c>
+      <c r="E224">
+        <v>11043498930449</v>
+      </c>
+      <c r="F224">
+        <v>13.75297234595917</v>
+      </c>
+      <c r="G224">
+        <v>53432950899909.27</v>
+      </c>
+      <c r="H224">
+        <v>64.3885939789987</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225">
+        <v>6773315897058.828</v>
+      </c>
+      <c r="B225">
+        <v>8.965611718630793</v>
+      </c>
+      <c r="C225">
+        <v>2482882169990.864</v>
+      </c>
+      <c r="D225">
+        <v>3.284155710312507</v>
+      </c>
+      <c r="E225">
+        <v>10965174844120.08</v>
+      </c>
+      <c r="F225">
+        <v>14.52439752112731</v>
+      </c>
+      <c r="G225">
+        <v>53054176447496.05</v>
+      </c>
+      <c r="H225">
+        <v>70.77247851894424</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226">
+        <v>6905076442400.633</v>
+      </c>
+      <c r="B226">
+        <v>9.244574637464904</v>
+      </c>
+      <c r="C226">
+        <v>2531178361221.661</v>
+      </c>
+      <c r="D226">
+        <v>3.385971849390931</v>
+      </c>
+      <c r="E226">
+        <v>11178464504869.99</v>
+      </c>
+      <c r="F226">
+        <v>14.97788290244575</v>
+      </c>
+      <c r="G226">
+        <v>54085636644412.46</v>
+      </c>
+      <c r="H226">
+        <v>73.05949188030733</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227">
+        <v>6868181647116.769</v>
+      </c>
+      <c r="B227">
+        <v>9.502056074516414</v>
+      </c>
+      <c r="C227">
+        <v>2517654763954.792</v>
+      </c>
+      <c r="D227">
+        <v>3.479799265269445</v>
+      </c>
+      <c r="E227">
+        <v>11118740473454.78</v>
+      </c>
+      <c r="F227">
+        <v>15.397134682704</v>
+      </c>
+      <c r="G227">
+        <v>53796815658752.34</v>
+      </c>
+      <c r="H227">
+        <v>75.20758510418509</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228">
+        <v>7012265849118.629</v>
+      </c>
+      <c r="B228">
+        <v>10.23084728043293</v>
+      </c>
+      <c r="C228">
+        <v>2570468034921.269</v>
+      </c>
+      <c r="D228">
+        <v>3.755059804631302</v>
+      </c>
+      <c r="E228">
+        <v>11351978798054.69</v>
+      </c>
+      <c r="F228">
+        <v>16.54195512500361</v>
+      </c>
+      <c r="G228">
+        <v>54924729975533.75</v>
+      </c>
+      <c r="H228">
+        <v>79.05350428385137</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229">
+        <v>6734181654291.43</v>
+      </c>
+      <c r="B229">
+        <v>10.239598734975</v>
+      </c>
+      <c r="C229">
+        <v>2468537680102.326</v>
+      </c>
+      <c r="D229">
+        <v>3.769270336018755</v>
+      </c>
+      <c r="E229">
+        <v>10901825504449.14</v>
+      </c>
+      <c r="F229">
+        <v>16.50925335340593</v>
+      </c>
+      <c r="G229">
+        <v>52747817733256.88</v>
+      </c>
+      <c r="H229">
+        <v>76.746638523055</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230">
+        <v>6588647917868.88</v>
+      </c>
+      <c r="B230">
+        <v>10.76546298502656</v>
+      </c>
+      <c r="C230">
+        <v>2415192819703.9</v>
+      </c>
+      <c r="D230">
+        <v>3.962525043006552</v>
+      </c>
+      <c r="E230">
+        <v>10666239419906.67</v>
+      </c>
+      <c r="F230">
+        <v>17.35850476080813</v>
+      </c>
+      <c r="G230">
+        <v>51608503043033.57</v>
+      </c>
+      <c r="H230">
+        <v>80.75686682407797</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231">
+        <v>6347664075580.561</v>
+      </c>
+      <c r="B231">
+        <v>11.02732782741993</v>
+      </c>
+      <c r="C231">
+        <v>2326860760499.797</v>
+      </c>
+      <c r="D231">
+        <v>4.043567143686043</v>
+      </c>
+      <c r="E231">
+        <v>10276139781473.47</v>
+      </c>
+      <c r="F231">
+        <v>17.84644337771486</v>
+      </c>
+      <c r="G231">
+        <v>49721893635350.77</v>
+      </c>
+      <c r="H231">
+        <v>86.08353266372349</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232">
+        <v>6560488067154.234</v>
+      </c>
+      <c r="B232">
+        <v>11.56439125626376</v>
+      </c>
+      <c r="C232">
+        <v>2404870912801.131</v>
+      </c>
+      <c r="D232">
+        <v>4.238191528675769</v>
+      </c>
+      <c r="E232">
+        <v>10620654934907.95</v>
+      </c>
+      <c r="F232">
+        <v>18.72550328159445</v>
+      </c>
+      <c r="G232">
+        <v>51388049704028</v>
+      </c>
+      <c r="H232">
+        <v>90.80393775334515</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233">
+        <v>6367353350551.561</v>
+      </c>
+      <c r="B233">
+        <v>11.96501106858532</v>
+      </c>
+      <c r="C233">
+        <v>2334077832344.909</v>
+      </c>
+      <c r="D233">
+        <v>4.398032898289075</v>
+      </c>
+      <c r="E233">
+        <v>10308012440939.86</v>
+      </c>
+      <c r="F233">
+        <v>19.31838315756588</v>
+      </c>
+      <c r="G233">
+        <v>49876039487008.41</v>
+      </c>
+      <c r="H233">
+        <v>91.03974184636725</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234">
+        <v>6336316783633.279</v>
+      </c>
+      <c r="B234">
+        <v>13.49868142835646</v>
+      </c>
+      <c r="C234">
+        <v>2322701427844.251</v>
+      </c>
+      <c r="D234">
+        <v>4.959260932324909</v>
+      </c>
+      <c r="E234">
+        <v>10257770974891.77</v>
+      </c>
+      <c r="F234">
+        <v>21.80534083626813</v>
+      </c>
+      <c r="G234">
+        <v>49633056310010.71</v>
+      </c>
+      <c r="H234">
+        <v>103.2554418385442</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235">
+        <v>6206146027988.553</v>
+      </c>
+      <c r="B235">
+        <v>13.61307438420017</v>
+      </c>
+      <c r="C235">
+        <v>2274987473340.5</v>
+      </c>
+      <c r="D235">
+        <v>5.007409524087131</v>
+      </c>
+      <c r="E235">
+        <v>10047052434501.17</v>
+      </c>
+      <c r="F235">
+        <v>21.96406530910871</v>
+      </c>
+      <c r="G235">
+        <v>48613944539671.59</v>
+      </c>
+      <c r="H235">
+        <v>102.8124895150888</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236">
+        <v>6094145017823.226</v>
+      </c>
+      <c r="B236">
+        <v>13.32731488405262</v>
+      </c>
+      <c r="C236">
+        <v>2233933529626.24</v>
+      </c>
+      <c r="D236">
+        <v>4.923199899477498</v>
+      </c>
+      <c r="E236">
+        <v>9865746379400.82</v>
+      </c>
+      <c r="F236">
+        <v>21.41482966457629</v>
+      </c>
+      <c r="G236">
+        <v>47737066614931.95</v>
+      </c>
+      <c r="H236">
+        <v>96.41526218641971</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237">
+        <v>5665201763006.749</v>
+      </c>
+      <c r="B237">
+        <v>13.90158717090347</v>
+      </c>
+      <c r="C237">
+        <v>2076703707636.99</v>
+      </c>
+      <c r="D237">
+        <v>5.170533898567562</v>
+      </c>
+      <c r="E237">
+        <v>9171373824647.045</v>
+      </c>
+      <c r="F237">
+        <v>22.19242557750801</v>
+      </c>
+      <c r="G237">
+        <v>44378633448921.34</v>
+      </c>
+      <c r="H237">
+        <v>94.23824980969141</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238">
+        <v>5188181719852.782</v>
+      </c>
+      <c r="B238">
+        <v>14.4895875575773</v>
+      </c>
+      <c r="C238">
+        <v>1901849822600.92</v>
+      </c>
+      <c r="D238">
+        <v>5.333069281963857</v>
+      </c>
+      <c r="E238">
+        <v>8399167699043.277</v>
+      </c>
+      <c r="F238">
+        <v>23.36492927305471</v>
+      </c>
+      <c r="G238">
+        <v>40643497281837.49</v>
+      </c>
+      <c r="H238">
+        <v>108.766008861369</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239">
+        <v>5442056608742.179</v>
+      </c>
+      <c r="B239">
+        <v>15.73694786592069</v>
+      </c>
+      <c r="C239">
+        <v>1994909016609.862</v>
+      </c>
+      <c r="D239">
+        <v>5.728112093821276</v>
+      </c>
+      <c r="E239">
+        <v>8810144516470.674</v>
+      </c>
+      <c r="F239">
+        <v>25.65427365118657</v>
+      </c>
+      <c r="G239">
+        <v>42631411649209.45</v>
+      </c>
+      <c r="H239">
+        <v>133.4858068564706</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240">
+        <v>5566046588616.656</v>
+      </c>
+      <c r="B240">
+        <v>16.92372014641143</v>
+      </c>
+      <c r="C240">
+        <v>2040358048542.24</v>
+      </c>
+      <c r="D240">
+        <v>6.188877189625023</v>
+      </c>
+      <c r="E240">
+        <v>9010860767483.314</v>
+      </c>
+      <c r="F240">
+        <v>27.46231299279313</v>
+      </c>
+      <c r="G240">
+        <v>43602258608105.27</v>
+      </c>
+      <c r="H240">
+        <v>136.1042830802279</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241">
+        <v>5563963734294.791</v>
+      </c>
+      <c r="B241">
+        <v>18.37539862518807</v>
+      </c>
+      <c r="C241">
+        <v>2039594570657.125</v>
+      </c>
+      <c r="D241">
+        <v>6.764972848577845</v>
+      </c>
+      <c r="E241">
+        <v>9007489025631.975</v>
+      </c>
+      <c r="F241">
+        <v>29.62357194890393</v>
+      </c>
+      <c r="G241">
+        <v>43585949934249.17</v>
+      </c>
+      <c r="H241">
+        <v>137.573268830167</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242">
+        <v>5365623151986.659</v>
+      </c>
+      <c r="B242">
+        <v>18.9820709633304</v>
+      </c>
+      <c r="C242">
+        <v>1966891970767.844</v>
+      </c>
+      <c r="D242">
+        <v>6.98553964569039</v>
+      </c>
+      <c r="E242">
+        <v>8686413006299.652</v>
+      </c>
+      <c r="F242">
+        <v>30.61353111182459</v>
+      </c>
+      <c r="G242">
+        <v>42032924300055.41</v>
+      </c>
+      <c r="H242">
+        <v>142.7034604880129</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243">
+        <v>5394210457361.435</v>
+      </c>
+      <c r="B243">
+        <v>21.55763552371412</v>
+      </c>
+      <c r="C243">
+        <v>1977370787607.682</v>
+      </c>
+      <c r="D243">
+        <v>7.862512523276375</v>
+      </c>
+      <c r="E243">
+        <v>8732690543626.417</v>
+      </c>
+      <c r="F243">
+        <v>35.0736772283961</v>
+      </c>
+      <c r="G243">
+        <v>42256768803294.75</v>
+      </c>
+      <c r="H243">
+        <v>178.6598825355231</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244">
+        <v>5561420344066.474</v>
+      </c>
+      <c r="B244">
+        <v>24.66410002795134</v>
+      </c>
+      <c r="C244">
+        <v>2038662281608.452</v>
+      </c>
+      <c r="D244">
+        <v>9.061499047598865</v>
+      </c>
+      <c r="E244">
+        <v>9003371764246.258</v>
+      </c>
+      <c r="F244">
+        <v>39.84136036047445</v>
+      </c>
+      <c r="G244">
+        <v>43566035273221.44</v>
+      </c>
+      <c r="H244">
+        <v>188.6466139464284</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245">
+        <v>5316283545250.146</v>
+      </c>
+      <c r="B245">
+        <v>23.29392451424656</v>
+      </c>
+      <c r="C245">
+        <v>1948806283374.056</v>
+      </c>
+      <c r="D245">
+        <v>8.635010708229732</v>
+      </c>
+      <c r="E245">
+        <v>8606541285926.238</v>
+      </c>
+      <c r="F245">
+        <v>37.30505473700394</v>
+      </c>
+      <c r="G245">
+        <v>41646582471685.65</v>
+      </c>
+      <c r="H245">
+        <v>162.93043577305</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246">
+        <v>5170127144724.805</v>
+      </c>
+      <c r="B246">
+        <v>25.62893221076029</v>
+      </c>
+      <c r="C246">
+        <v>1895231805462.73</v>
+      </c>
+      <c r="D246">
+        <v>9.49180027630273</v>
+      </c>
+      <c r="E246">
+        <v>8369940578884.664</v>
+      </c>
+      <c r="F246">
+        <v>41.0810284262248</v>
+      </c>
+      <c r="G246">
+        <v>40502121477800.89</v>
+      </c>
+      <c r="H246">
+        <v>180.8616091722803</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247">
+        <v>4998931693158.782</v>
+      </c>
+      <c r="B247">
+        <v>32.94535909072464</v>
+      </c>
+      <c r="C247">
+        <v>1832478936737.376</v>
+      </c>
+      <c r="D247">
+        <v>12.13081255727416</v>
+      </c>
+      <c r="E247">
+        <v>8092805314787.143</v>
+      </c>
+      <c r="F247">
+        <v>53.10497310732995</v>
+      </c>
+      <c r="G247">
+        <v>39161559432220.14</v>
+      </c>
+      <c r="H247">
+        <v>246.2936693638744</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248">
+        <v>5066255113948.704</v>
+      </c>
+      <c r="B248">
+        <v>34.57678870694849</v>
+      </c>
+      <c r="C248">
+        <v>1857156822395.04</v>
+      </c>
+      <c r="D248">
+        <v>12.49021663913443</v>
+      </c>
+      <c r="E248">
+        <v>8201790180298.543</v>
+      </c>
+      <c r="F248">
+        <v>56.79720950503641</v>
+      </c>
+      <c r="G248">
+        <v>39688746380641.48</v>
+      </c>
+      <c r="H248">
+        <v>322.2688827414396</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249">
+        <v>5332830118447.654</v>
+      </c>
+      <c r="B249">
+        <v>39.47322569901022</v>
+      </c>
+      <c r="C249">
+        <v>1954871516953.148</v>
+      </c>
+      <c r="D249">
+        <v>14.61319322994924</v>
+      </c>
+      <c r="E249">
+        <v>8633327143896.935</v>
+      </c>
+      <c r="F249">
+        <v>63.29657345233927</v>
+      </c>
+      <c r="G249">
+        <v>41776146757232.59</v>
+      </c>
+      <c r="H249">
+        <v>279.6381313425791</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250">
+        <v>4862022564365.231</v>
+      </c>
+      <c r="B250">
+        <v>69.5527945414849</v>
+      </c>
+      <c r="C250">
+        <v>1782293814485.065</v>
+      </c>
+      <c r="D250">
+        <v>26.99174423791534</v>
+      </c>
+      <c r="E250">
+        <v>7871172885749.405</v>
+      </c>
+      <c r="F250">
+        <v>106.8180461592434</v>
+      </c>
+      <c r="G250">
+        <v>38089451993776.6</v>
+      </c>
+      <c r="H250">
+        <v>341.0956109460384</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251">
+        <v>4736085815957.209</v>
+      </c>
+      <c r="B251">
+        <v>794.642354692154</v>
+      </c>
+      <c r="C251">
+        <v>1736130594528.347</v>
+      </c>
+      <c r="D251">
+        <v>794.6742088272553</v>
+      </c>
+      <c r="E251">
+        <v>7667302328479.601</v>
+      </c>
+      <c r="F251">
+        <v>794.6771633911615</v>
+      </c>
+      <c r="G251">
+        <v>37103245319313.1</v>
+      </c>
+      <c r="H251">
+        <v>794.9357103444137</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252">
+        <v>4280324429464.663</v>
+      </c>
+      <c r="B252">
+        <v>775.8176910578354</v>
+      </c>
+      <c r="C252">
+        <v>1569066375940.12</v>
+      </c>
+      <c r="D252">
+        <v>775.8505347565111</v>
+      </c>
+      <c r="E252">
+        <v>6929496514849.012</v>
+      </c>
+      <c r="F252">
+        <v>775.8535811004585</v>
+      </c>
+      <c r="G252">
+        <v>33534018521557.83</v>
+      </c>
+      <c r="H252">
+        <v>776.1201606352653</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253">
+        <v>4197609226507.269</v>
+      </c>
+      <c r="B253">
+        <v>2717.434236766864</v>
+      </c>
+      <c r="C253">
+        <v>1538746083683.335</v>
+      </c>
+      <c r="D253">
+        <v>2717.538373239839</v>
+      </c>
+      <c r="E253">
+        <v>6795592928247.173</v>
+      </c>
+      <c r="F253">
+        <v>2717.548032147071</v>
+      </c>
+      <c r="G253">
+        <v>32886217629908.54</v>
+      </c>
+      <c r="H253">
+        <v>2718.39327253805</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254">
+        <v>4129562120311.399</v>
+      </c>
+      <c r="B254">
+        <v>1038.020266874577</v>
+      </c>
+      <c r="C254">
+        <v>1513802531555.672</v>
+      </c>
+      <c r="D254">
+        <v>1038.056882960494</v>
+      </c>
+      <c r="E254">
+        <v>6685434639235.021</v>
+      </c>
+      <c r="F254">
+        <v>1038.060279179567</v>
+      </c>
+      <c r="G254">
+        <v>32353286184885.18</v>
+      </c>
+      <c r="H254">
+        <v>1038.357480633224</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255">
+        <v>3809326573649.306</v>
+      </c>
+      <c r="B255">
+        <v>404.3322862049183</v>
+      </c>
+      <c r="C255">
+        <v>1396415610753.504</v>
+      </c>
+      <c r="D255">
+        <v>404.345272294141</v>
+      </c>
+      <c r="E255">
+        <v>6167018235739.875</v>
+      </c>
+      <c r="F255">
+        <v>404.3464767749383</v>
+      </c>
+      <c r="G255">
+        <v>29845183313172.91</v>
+      </c>
+      <c r="H255">
+        <v>404.4518810875934</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256">
+        <v>3210045459700.859</v>
+      </c>
+      <c r="B256">
+        <v>304.0168877985826</v>
+      </c>
+      <c r="C256">
+        <v>1176738707768.962</v>
+      </c>
+      <c r="D256">
+        <v>304.0262310926694</v>
+      </c>
+      <c r="E256">
+        <v>5196857356185.683</v>
+      </c>
+      <c r="F256">
+        <v>304.0270976932604</v>
+      </c>
+      <c r="G256">
+        <v>25151218330650.59</v>
+      </c>
+      <c r="H256">
+        <v>304.1029349261317</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257">
+        <v>2778790279644.576</v>
+      </c>
+      <c r="B257">
+        <v>452.8310728733951</v>
+      </c>
+      <c r="C257">
+        <v>1018653147740.096</v>
+      </c>
+      <c r="D257">
+        <v>452.8436067842335</v>
+      </c>
+      <c r="E257">
+        <v>4498702214529.621</v>
+      </c>
+      <c r="F257">
+        <v>452.8447693112329</v>
+      </c>
+      <c r="G257">
+        <v>21773051718429.28</v>
+      </c>
+      <c r="H257">
+        <v>452.9465053159572</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258">
+        <v>2611124697544.733</v>
+      </c>
+      <c r="B258">
+        <v>357.6302670387413</v>
+      </c>
+      <c r="C258">
+        <v>957191504871.5957</v>
+      </c>
+      <c r="D258">
+        <v>357.6375353067432</v>
+      </c>
+      <c r="E258">
+        <v>4227268291911.161</v>
+      </c>
+      <c r="F258">
+        <v>357.6382094374295</v>
+      </c>
+      <c r="G258">
+        <v>20459605032439.26</v>
+      </c>
+      <c r="H258">
+        <v>357.6972054536917</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259">
+        <v>2066194635571.871</v>
+      </c>
+      <c r="B259">
+        <v>210.9926391782706</v>
+      </c>
+      <c r="C259">
+        <v>757433668091.9647</v>
+      </c>
+      <c r="D259">
+        <v>210.9968628341347</v>
+      </c>
+      <c r="E259">
+        <v>3345074401831.628</v>
+      </c>
+      <c r="F259">
+        <v>210.997254575736</v>
+      </c>
+      <c r="G259">
+        <v>16190515929162.16</v>
+      </c>
+      <c r="H259">
+        <v>211.0315376980014</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260">
+        <v>1655353931241.231</v>
+      </c>
+      <c r="B260">
+        <v>199.8112920988669</v>
+      </c>
+      <c r="C260">
+        <v>606828352487.2465</v>
+      </c>
+      <c r="D260">
+        <v>199.8143251658008</v>
+      </c>
+      <c r="E260">
+        <v>2679953080273.757</v>
+      </c>
+      <c r="F260">
+        <v>199.8146064789371</v>
+      </c>
+      <c r="G260">
+        <v>12971651469083.36</v>
+      </c>
+      <c r="H260">
+        <v>199.8392259220877</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261">
+        <v>1257618994065.072</v>
+      </c>
+      <c r="B261">
+        <v>286.9510396426969</v>
+      </c>
+      <c r="C261">
+        <v>461026255091.8681</v>
+      </c>
+      <c r="D261">
+        <v>286.9552829076143</v>
+      </c>
+      <c r="E261">
+        <v>2036043869760.441</v>
+      </c>
+      <c r="F261">
+        <v>286.9556764638316</v>
+      </c>
+      <c r="G261">
+        <v>9855257285415.576</v>
+      </c>
+      <c r="H261">
+        <v>286.9901195527662</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262">
+        <v>1227602862718.929</v>
+      </c>
+      <c r="B262">
+        <v>452.3503784405112</v>
+      </c>
+      <c r="C262">
+        <v>450022866834.4446</v>
+      </c>
+      <c r="D262">
+        <v>452.3545876650316</v>
+      </c>
+      <c r="E262">
+        <v>1987449331480.822</v>
+      </c>
+      <c r="F262">
+        <v>452.3549780621517</v>
+      </c>
+      <c r="G262">
+        <v>9620061830542.881</v>
+      </c>
+      <c r="H262">
+        <v>452.3891450659879</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263">
+        <v>992749005861.6178</v>
+      </c>
+      <c r="B263">
+        <v>310.7277364643886</v>
+      </c>
+      <c r="C263">
+        <v>363929347045.1088</v>
+      </c>
+      <c r="D263">
+        <v>310.7309893469837</v>
+      </c>
+      <c r="E263">
+        <v>1607232285584.894</v>
+      </c>
+      <c r="F263">
+        <v>310.7312910450568</v>
+      </c>
+      <c r="G263">
+        <v>7779791848409.968</v>
+      </c>
+      <c r="H263">
+        <v>310.7576952630887</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264">
+        <v>915779064577.889</v>
+      </c>
+      <c r="B264">
+        <v>460.2771577164108</v>
+      </c>
+      <c r="C264">
+        <v>335713366046.4849</v>
+      </c>
+      <c r="D264">
+        <v>460.2808241533331</v>
+      </c>
+      <c r="E264">
+        <v>1482621283602.183</v>
+      </c>
+      <c r="F264">
+        <v>460.2811642067886</v>
+      </c>
+      <c r="G264">
+        <v>7176654326950.804</v>
+      </c>
+      <c r="H264">
+        <v>460.3109254413392</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265">
+        <v>798561579428.7137</v>
+      </c>
+      <c r="B265">
+        <v>457.1749770511106</v>
+      </c>
+      <c r="C265">
+        <v>292743186756.0987</v>
+      </c>
+      <c r="D265">
+        <v>457.1785646425195</v>
+      </c>
+      <c r="E265">
+        <v>1292850884536.377</v>
+      </c>
+      <c r="F265">
+        <v>457.1788973829057</v>
+      </c>
+      <c r="G265">
+        <v>6258121552101.394</v>
+      </c>
+      <c r="H265">
+        <v>457.2080186596252</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266">
+        <v>745298145751.2035</v>
+      </c>
+      <c r="B266">
+        <v>743.3973485374279</v>
+      </c>
+      <c r="C266">
+        <v>273217577229.8412</v>
+      </c>
+      <c r="D266">
+        <v>743.4024480943126</v>
+      </c>
+      <c r="E266">
+        <v>1206619379198.736</v>
+      </c>
+      <c r="F266">
+        <v>743.4029210652388</v>
+      </c>
+      <c r="G266">
+        <v>5840735798496.894</v>
+      </c>
+      <c r="H266">
+        <v>743.4443153870322</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267">
+        <v>700712025393.5409</v>
+      </c>
+      <c r="B267">
+        <v>311.7697568051767</v>
+      </c>
+      <c r="C267">
+        <v>256872931545.0889</v>
+      </c>
+      <c r="D267">
+        <v>311.7713751234181</v>
+      </c>
+      <c r="E267">
+        <v>1134436049091.493</v>
+      </c>
+      <c r="F267">
+        <v>311.7715252180501</v>
+      </c>
+      <c r="G267">
+        <v>5491344804825.401</v>
+      </c>
+      <c r="H267">
+        <v>311.7846615117758</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268">
+        <v>525939172708.9732</v>
+      </c>
+      <c r="B268">
+        <v>104.3718841543994</v>
+      </c>
+      <c r="C268">
+        <v>192803529888.6571</v>
+      </c>
+      <c r="D268">
+        <v>104.3722484858083</v>
+      </c>
+      <c r="E268">
+        <v>851484450459.1973</v>
+      </c>
+      <c r="F268">
+        <v>104.3722822764552</v>
+      </c>
+      <c r="G268">
+        <v>4121744074041.214</v>
+      </c>
+      <c r="H268">
+        <v>104.375239619907</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269">
+        <v>208896976999.2847</v>
+      </c>
+      <c r="B269">
+        <v>66.64917492638807</v>
+      </c>
+      <c r="C269">
+        <v>76579560556.80783</v>
+      </c>
+      <c r="D269">
+        <v>66.64950060388489</v>
+      </c>
+      <c r="E269">
+        <v>338200874845.7663</v>
+      </c>
+      <c r="F269">
+        <v>66.64953080946935</v>
+      </c>
+      <c r="G269">
+        <v>1637152727361.694</v>
+      </c>
+      <c r="H269">
+        <v>66.65217443455876</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270">
+        <v>220033736105.3181</v>
+      </c>
+      <c r="B270">
+        <v>-251.2419799774521</v>
+      </c>
+      <c r="C270">
+        <v>80662177851.14812</v>
+      </c>
+      <c r="D270">
+        <v>-251.242627418121</v>
+      </c>
+      <c r="E270">
+        <v>356231070817.1462</v>
+      </c>
+      <c r="F270">
+        <v>-251.2426874661347</v>
+      </c>
+      <c r="G270">
+        <v>1724431344996.131</v>
+      </c>
+      <c r="H270">
+        <v>-251.2479429509698</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271">
+        <v>294373507019.4919</v>
+      </c>
+      <c r="B271">
+        <v>-287.1537137214844</v>
+      </c>
+      <c r="C271">
+        <v>107914325039.9475</v>
+      </c>
+      <c r="D271">
+        <v>-287.1543557616663</v>
+      </c>
+      <c r="E271">
+        <v>476585608994.257</v>
+      </c>
+      <c r="F271">
+        <v>-287.1544153088186</v>
+      </c>
+      <c r="G271">
+        <v>2307026865612.712</v>
+      </c>
+      <c r="H271">
+        <v>-287.1596269517693</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272">
+        <v>320087654659.0893</v>
+      </c>
+      <c r="B272">
+        <v>-2081.151683764122</v>
+      </c>
+      <c r="C272">
+        <v>117340841826.0057</v>
+      </c>
+      <c r="D272">
+        <v>-2081.157055019228</v>
+      </c>
+      <c r="E272">
+        <v>518216236142.9704</v>
+      </c>
+      <c r="F272">
+        <v>-2081.157553186037</v>
+      </c>
+      <c r="G272">
+        <v>2508545130328.561</v>
+      </c>
+      <c r="H272">
+        <v>-2081.201153367985</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273">
+        <v>309384693055.7846</v>
+      </c>
+      <c r="B273">
+        <v>-636.4449454544429</v>
+      </c>
+      <c r="C273">
+        <v>113417257235.5729</v>
+      </c>
+      <c r="D273">
+        <v>-636.4471356374547</v>
+      </c>
+      <c r="E273">
+        <v>500888384423.3081</v>
+      </c>
+      <c r="F273">
+        <v>-636.4473387700883</v>
+      </c>
+      <c r="G273">
+        <v>2424667586849.031</v>
+      </c>
+      <c r="H273">
+        <v>-636.465117166191</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274">
+        <v>367532364932.7856</v>
+      </c>
+      <c r="B274">
+        <v>-311.5364613936674</v>
+      </c>
+      <c r="C274">
+        <v>134733526444.0373</v>
+      </c>
+      <c r="D274">
+        <v>-311.5374998722741</v>
+      </c>
+      <c r="E274">
+        <v>595028099971.6205</v>
+      </c>
+      <c r="F274">
+        <v>-311.5375961879531</v>
+      </c>
+      <c r="G274">
+        <v>2880360568588.742</v>
+      </c>
+      <c r="H274">
+        <v>-311.5460258289158</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275">
+        <v>424527423563.0553</v>
+      </c>
+      <c r="B275">
+        <v>-324.1240680696657</v>
+      </c>
+      <c r="C275">
+        <v>155627238975.5859</v>
+      </c>
+      <c r="D275">
+        <v>-324.1253608046018</v>
+      </c>
+      <c r="E275">
+        <v>687301656104.9482</v>
+      </c>
+      <c r="F275">
+        <v>-324.1254807018885</v>
+      </c>
+      <c r="G275">
+        <v>3327016415553.519</v>
+      </c>
+      <c r="H275">
+        <v>-324.135974203256</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276">
+        <v>495365749187.5103</v>
+      </c>
+      <c r="B276">
+        <v>-678.3814072423468</v>
+      </c>
+      <c r="C276">
+        <v>181595698803.2497</v>
+      </c>
+      <c r="D276">
+        <v>-678.3840301124679</v>
+      </c>
+      <c r="E276">
+        <v>801986965070.9664</v>
+      </c>
+      <c r="F276">
+        <v>-678.3842733759145</v>
+      </c>
+      <c r="G276">
+        <v>3882152495437.326</v>
+      </c>
+      <c r="H276">
+        <v>-678.4055639730641</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277">
+        <v>495796619040.0302</v>
+      </c>
+      <c r="B277">
+        <v>165.2147325161012</v>
+      </c>
+      <c r="C277">
+        <v>181753650294.9362</v>
+      </c>
+      <c r="D277">
+        <v>165.2150362225091</v>
+      </c>
+      <c r="E277">
+        <v>802684531066.66</v>
+      </c>
+      <c r="F277">
+        <v>165.215064390332</v>
+      </c>
+      <c r="G277">
+        <v>3885529057070.887</v>
+      </c>
+      <c r="H277">
+        <v>165.2175296691232</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278">
+        <v>202475706747.8017</v>
+      </c>
+      <c r="B278">
+        <v>40.4563921303094</v>
+      </c>
+      <c r="C278">
+        <v>74225590885.86507</v>
+      </c>
+      <c r="D278">
+        <v>40.45650279401894</v>
+      </c>
+      <c r="E278">
+        <v>327804961624.7429</v>
+      </c>
+      <c r="F278">
+        <v>40.45651305771334</v>
+      </c>
+      <c r="G278">
+        <v>1586829252621.748</v>
+      </c>
+      <c r="H278">
+        <v>40.45741133476218</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279">
+        <v>7329211592.190951</v>
+      </c>
+      <c r="B279">
+        <v>5.709298958038657</v>
+      </c>
+      <c r="C279">
+        <v>2686821228.054461</v>
+      </c>
+      <c r="D279">
+        <v>5.709313104168166</v>
+      </c>
+      <c r="E279">
+        <v>11865900480.92351</v>
+      </c>
+      <c r="F279">
+        <v>5.70931441617351</v>
+      </c>
+      <c r="G279">
+        <v>57440952906.65575</v>
+      </c>
+      <c r="H279">
+        <v>5.709429245714789</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280">
+        <v>77183432397.61139</v>
+      </c>
+      <c r="B280">
+        <v>-53.9201705720144</v>
+      </c>
+      <c r="C280">
+        <v>28294714951.47861</v>
+      </c>
+      <c r="D280">
+        <v>-53.92017416758954</v>
+      </c>
+      <c r="E280">
+        <v>124958909976.6852</v>
+      </c>
+      <c r="F280">
+        <v>-53.92017450106635</v>
+      </c>
+      <c r="G280">
+        <v>604903255746.08</v>
+      </c>
+      <c r="H280">
+        <v>-53.92020368764442</v>
       </c>
     </row>
   </sheetData>

--- a/Lifetime_All_Modes.xlsx
+++ b/Lifetime_All_Modes.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H280"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7256 +429,5722 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>3441336093386083</v>
+        <v>4333435837322918</v>
       </c>
       <c r="B2">
-        <v>9.630052642885738</v>
+        <v>9.700671391355046</v>
       </c>
       <c r="C2">
-        <v>1224342139891354</v>
+        <v>3817086030247024</v>
       </c>
       <c r="D2">
-        <v>3.434172923004087</v>
+        <v>8.549436026118178</v>
       </c>
       <c r="E2">
-        <v>5391979603493533</v>
+        <v>4368302834934220</v>
       </c>
       <c r="F2">
-        <v>15.06069136021255</v>
+        <v>9.779704427764077</v>
       </c>
       <c r="G2">
-        <v>2.120339394472317E+16</v>
+        <v>1.078650680888679E+16</v>
       </c>
       <c r="H2">
-        <v>58.51112371049294</v>
+        <v>24.03531502530381</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>3378942918318218</v>
+        <v>4254333258185604</v>
       </c>
       <c r="B3">
-        <v>9.651458936954674</v>
+        <v>9.720948347220558</v>
       </c>
       <c r="C3">
-        <v>1202769953471919</v>
+        <v>3749831225613071</v>
       </c>
       <c r="D3">
-        <v>3.444726004624497</v>
+        <v>8.573472693478715</v>
       </c>
       <c r="E3">
-        <v>5297235968290282</v>
+        <v>4291387084034301</v>
       </c>
       <c r="F3">
-        <v>15.09879148131114</v>
+        <v>9.806704777601617</v>
       </c>
       <c r="G3">
-        <v>2.08956122872437E+16</v>
+        <v>1.060675993993663E+16</v>
       </c>
       <c r="H3">
-        <v>58.7380639010966</v>
+        <v>24.10864898626188</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>3301979007118565</v>
+        <v>4156783624986832</v>
       </c>
       <c r="B4">
-        <v>9.663600190961574</v>
+        <v>9.731602533084942</v>
       </c>
       <c r="C4">
-        <v>1176129857042556</v>
+        <v>3666776386110465</v>
       </c>
       <c r="D4">
-        <v>3.452475777521643</v>
+        <v>8.590367481048615</v>
       </c>
       <c r="E4">
-        <v>5180221631744522</v>
+        <v>4196399148584952</v>
       </c>
       <c r="F4">
-        <v>15.12412430373709</v>
+        <v>9.825518678446556</v>
       </c>
       <c r="G4">
-        <v>2.051301889080249E+16</v>
+        <v>1.038432813919427E+16</v>
       </c>
       <c r="H4">
-        <v>58.94855744096309</v>
+        <v>24.16605565923223</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>3225193752765732</v>
+        <v>4059488974109248</v>
       </c>
       <c r="B5">
-        <v>9.691540146691501</v>
+        <v>9.758211559480696</v>
       </c>
       <c r="C5">
-        <v>1149518314086300</v>
+        <v>3583810566710786</v>
       </c>
       <c r="D5">
-        <v>3.465073943014747</v>
+        <v>8.620903378913411</v>
       </c>
       <c r="E5">
-        <v>5063318616399399</v>
+        <v>4101510238814813</v>
       </c>
       <c r="F5">
-        <v>15.17698783437313</v>
+        <v>9.86036712387318</v>
       </c>
       <c r="G5">
-        <v>2.012803068345046E+16</v>
+        <v>1.016162680309979E+16</v>
       </c>
       <c r="H5">
-        <v>59.33766438476594</v>
+        <v>24.2742810347699</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>3146555466786846</v>
+        <v>3959875995406454</v>
       </c>
       <c r="B6">
-        <v>9.70727022961505</v>
+        <v>9.772493249185356</v>
       </c>
       <c r="C6">
-        <v>1122229975686020</v>
+        <v>3498734727284394</v>
       </c>
       <c r="D6">
-        <v>3.47314743509865</v>
+        <v>8.640632463014137</v>
       </c>
       <c r="E6">
-        <v>4943427837449635</v>
+        <v>4004205185263913</v>
       </c>
       <c r="F6">
-        <v>15.21185697364135</v>
+        <v>9.882982752870797</v>
       </c>
       <c r="G6">
-        <v>1.973029358931199E+16</v>
+        <v>9932730698269804</v>
       </c>
       <c r="H6">
-        <v>59.68585260719673</v>
+        <v>24.35663899371286</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>3071480380884152</v>
+        <v>3864804698791706</v>
       </c>
       <c r="B7">
-        <v>9.733861622192743</v>
+        <v>9.797760374771842</v>
       </c>
       <c r="C7">
-        <v>1096145328359023</v>
+        <v>3417411590824649</v>
       </c>
       <c r="D7">
-        <v>3.485207464204398</v>
+        <v>8.669901253714972</v>
       </c>
       <c r="E7">
-        <v>4828811588165810</v>
+        <v>3911189529303266</v>
       </c>
       <c r="F7">
-        <v>15.26264195748149</v>
+        <v>9.916400389254152</v>
       </c>
       <c r="G7">
-        <v>1.934725647798307E+16</v>
+        <v>9713425115930714</v>
       </c>
       <c r="H7">
-        <v>60.07083848091082</v>
+        <v>24.46179803096808</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>2992108308464941</v>
+        <v>3764321862541290</v>
       </c>
       <c r="B8">
-        <v>9.753425490887569</v>
+        <v>9.815860709129419</v>
       </c>
       <c r="C8">
-        <v>1068532754538415</v>
+        <v>3331324894667018</v>
       </c>
       <c r="D8">
-        <v>3.494830523556746</v>
+        <v>8.693232247446437</v>
       </c>
       <c r="E8">
-        <v>4707466839823918</v>
+        <v>3812722500302464</v>
       </c>
       <c r="F8">
-        <v>15.30331018946613</v>
+        <v>9.943069906294783</v>
       </c>
       <c r="G8">
-        <v>1.893870440322665E+16</v>
+        <v>9480730686845292</v>
       </c>
       <c r="H8">
-        <v>60.43884459036762</v>
+        <v>24.55320179209558</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>2917502210722639</v>
+        <v>3669900778594772</v>
       </c>
       <c r="B9">
-        <v>9.783459061286651</v>
+        <v>9.844588799306424</v>
       </c>
       <c r="C9">
-        <v>1042545333444678</v>
+        <v>3250304876824743</v>
       </c>
       <c r="D9">
-        <v>3.507980662742991</v>
+        <v>8.725533330869316</v>
       </c>
       <c r="E9">
-        <v>4593250017096829</v>
+        <v>3720048060740989</v>
       </c>
       <c r="F9">
-        <v>15.36015513923803</v>
+        <v>9.980044870080032</v>
       </c>
       <c r="G9">
-        <v>1.855125957062566E+16</v>
+        <v>9261218013491174</v>
       </c>
       <c r="H9">
-        <v>60.86793892118704</v>
+        <v>24.66992894618099</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>2840011644880684</v>
+        <v>3571858121146216</v>
       </c>
       <c r="B10">
-        <v>9.792438006827959</v>
+        <v>9.852053000097797</v>
       </c>
       <c r="C10">
-        <v>1015519319226984</v>
+        <v>3166046875762417</v>
       </c>
       <c r="D10">
-        <v>3.513869537521531</v>
+        <v>8.739398192133011</v>
       </c>
       <c r="E10">
-        <v>4474454205345626</v>
+        <v>3623667047357722</v>
       </c>
       <c r="F10">
-        <v>15.38375236890583</v>
+        <v>9.99583683061419</v>
       </c>
       <c r="G10">
-        <v>1.814525874648729E+16</v>
+        <v>9032400397188312</v>
       </c>
       <c r="H10">
-        <v>61.16008028454891</v>
+        <v>24.73299064709432</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>2764920816046634</v>
+        <v>3476879943933336</v>
       </c>
       <c r="B11">
-        <v>9.806879252841384</v>
+        <v>9.865080209640638</v>
       </c>
       <c r="C11">
-        <v>989297221809883.6</v>
+        <v>3084295216260217</v>
       </c>
       <c r="D11">
-        <v>3.521156467319454</v>
+        <v>8.75773927636102</v>
       </c>
       <c r="E11">
-        <v>4359178166986981</v>
+        <v>3530150239114408</v>
       </c>
       <c r="F11">
-        <v>15.41742868257007</v>
+        <v>10.01701818605711</v>
       </c>
       <c r="G11">
-        <v>1.774829302069402E+16</v>
+        <v>8809867004453186</v>
       </c>
       <c r="H11">
-        <v>61.53629698067579</v>
+        <v>24.81605529940806</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>2693169722051226</v>
+        <v>3386152108542912</v>
       </c>
       <c r="B12">
-        <v>9.830213615579277</v>
+        <v>9.887098397309199</v>
       </c>
       <c r="C12">
-        <v>964210894424626.9</v>
+        <v>3006084504815650</v>
       </c>
       <c r="D12">
-        <v>3.531820331028373</v>
+        <v>8.783940527273769</v>
       </c>
       <c r="E12">
-        <v>4248882285474657</v>
+        <v>3440681434502336</v>
       </c>
       <c r="F12">
-        <v>15.46370717161637</v>
+        <v>10.04703680530293</v>
       </c>
       <c r="G12">
-        <v>1.736567221409168E+16</v>
+        <v>8596487554823105</v>
       </c>
       <c r="H12">
-        <v>61.92905962307026</v>
+        <v>24.91601297598333</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>2620537276713040</v>
+        <v>3294335886438536</v>
       </c>
       <c r="B13">
-        <v>9.839042083202131</v>
+        <v>9.894505368587962</v>
       </c>
       <c r="C13">
-        <v>938785972015857.8</v>
+        <v>2926818168238164</v>
       </c>
       <c r="D13">
-        <v>3.537203883481565</v>
+        <v>8.79722517297809</v>
       </c>
       <c r="E13">
-        <v>4137084893561950</v>
+        <v>3350002523311306</v>
       </c>
       <c r="F13">
-        <v>15.4877443839625</v>
+        <v>10.06234320705985</v>
       </c>
       <c r="G13">
-        <v>1.697499955494226E+16</v>
+        <v>8379741093032785</v>
       </c>
       <c r="H13">
-        <v>62.25037618835194</v>
+        <v>24.98175299701363</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>2552379559964942</v>
+        <v>3208200192457815</v>
       </c>
       <c r="B14">
-        <v>9.856732333771383</v>
+        <v>9.910913576758919</v>
       </c>
       <c r="C14">
-        <v>914899466621465</v>
+        <v>2852348097265643</v>
       </c>
       <c r="D14">
-        <v>3.545549120302854</v>
+        <v>8.818076062692271</v>
       </c>
       <c r="E14">
-        <v>4032040395187526</v>
+        <v>3264808112496846</v>
       </c>
       <c r="F14">
-        <v>15.52549775767282</v>
+        <v>10.086350804237</v>
       </c>
       <c r="G14">
-        <v>1.660527664781303E+16</v>
+        <v>8175659934279373</v>
       </c>
       <c r="H14">
-        <v>62.62511363019804</v>
+        <v>25.06904042091261</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>2484336391450275</v>
+        <v>3122232445358358</v>
       </c>
       <c r="B15">
-        <v>9.87241692705919</v>
+        <v>9.925275529458991</v>
       </c>
       <c r="C15">
-        <v>891026012721309.4</v>
+        <v>2777918716452110</v>
       </c>
       <c r="D15">
-        <v>3.553703354988607</v>
+        <v>8.837402359330223</v>
       </c>
       <c r="E15">
-        <v>3927041895522562</v>
+        <v>3179658005357808</v>
       </c>
       <c r="F15">
-        <v>15.55823126084324</v>
+        <v>10.10832748388378</v>
       </c>
       <c r="G15">
-        <v>1.623311300608883E+16</v>
+        <v>7971252157160780</v>
       </c>
       <c r="H15">
-        <v>62.92837525288442</v>
+        <v>25.14361700380475</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>2415138320005998</v>
+        <v>3034829393517568</v>
       </c>
       <c r="B16">
-        <v>9.878796488445838</v>
+        <v>9.930272628433684</v>
       </c>
       <c r="C16">
-        <v>866719495839353</v>
+        <v>2702139191259656</v>
       </c>
       <c r="D16">
-        <v>3.558113126894061</v>
+        <v>8.848300309955446</v>
       </c>
       <c r="E16">
-        <v>3820127018393541</v>
+        <v>3092960972900535</v>
       </c>
       <c r="F16">
-        <v>15.57811452117532</v>
+        <v>10.12090875182574</v>
       </c>
       <c r="G16">
-        <v>1.585144309228057E+16</v>
+        <v>7762683507337622</v>
       </c>
       <c r="H16">
-        <v>63.23245735693445</v>
+        <v>25.20218614085093</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>2350801302822946</v>
+        <v>2953587895612455</v>
       </c>
       <c r="B17">
-        <v>9.889858377290103</v>
+        <v>9.940071554131901</v>
       </c>
       <c r="C17">
-        <v>844095189305107.5</v>
+        <v>2631604230808521</v>
       </c>
       <c r="D17">
-        <v>3.564081995715395</v>
+        <v>8.863049173828728</v>
       </c>
       <c r="E17">
-        <v>3720600905123770</v>
+        <v>3012261993525146</v>
       </c>
       <c r="F17">
-        <v>15.60466150080328</v>
+        <v>10.13787852286897</v>
       </c>
       <c r="G17">
-        <v>1.549365264020199E+16</v>
+        <v>7568136233877490</v>
       </c>
       <c r="H17">
-        <v>63.54774438732132</v>
+        <v>25.26967746355098</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>2284983439059234</v>
+        <v>2870498094142086</v>
       </c>
       <c r="B18">
-        <v>9.889672952862048</v>
+        <v>9.938529006362325</v>
       </c>
       <c r="C18">
-        <v>820924844950055.8</v>
+        <v>2559366908517605</v>
       </c>
       <c r="D18">
-        <v>3.566075719402557</v>
+        <v>8.867861937216416</v>
       </c>
       <c r="E18">
-        <v>3618662108118331</v>
+        <v>2929613251813900</v>
       </c>
       <c r="F18">
-        <v>15.61362349637087</v>
+        <v>10.14347253846853</v>
       </c>
       <c r="G18">
-        <v>1.512465585932963E+16</v>
+        <v>7368477919102304</v>
       </c>
       <c r="H18">
-        <v>63.79742562695867</v>
+        <v>25.30928007417433</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>2223722375822442</v>
+        <v>2793180609015878</v>
       </c>
       <c r="B19">
-        <v>9.907519646476398</v>
+        <v>9.95520745898382</v>
       </c>
       <c r="C19">
-        <v>799335605761960.1</v>
+        <v>2492058939099960</v>
       </c>
       <c r="D19">
-        <v>3.574202721367765</v>
+        <v>8.888405561375386</v>
       </c>
       <c r="E19">
-        <v>3523669766644082</v>
+        <v>2852602415211187</v>
       </c>
       <c r="F19">
-        <v>15.6512974744891</v>
+        <v>10.16718309519043</v>
       </c>
       <c r="G19">
-        <v>1.477846386699107E+16</v>
+        <v>7182063104389375</v>
       </c>
       <c r="H19">
-        <v>64.17675844529592</v>
+        <v>25.39604486836822</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>2163220494404835</v>
+        <v>2716840001341746</v>
       </c>
       <c r="B20">
-        <v>9.914497994059124</v>
+        <v>9.960957347691879</v>
       </c>
       <c r="C20">
-        <v>777992024698729.5</v>
+        <v>2425516848897027</v>
       </c>
       <c r="D20">
-        <v>3.578825678185724</v>
+        <v>8.899362463882582</v>
       </c>
       <c r="E20">
-        <v>3429749138353762</v>
+        <v>2776466056858684</v>
       </c>
       <c r="F20">
-        <v>15.67013767426542</v>
+        <v>10.17968740884787</v>
       </c>
       <c r="G20">
-        <v>1.443392729625168E+16</v>
+        <v>6997406130341935</v>
       </c>
       <c r="H20">
-        <v>64.43153558534108</v>
+        <v>25.4480354416611</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>2103038507467298</v>
+        <v>2640921537471027</v>
       </c>
       <c r="B21">
-        <v>9.912809473951746</v>
+        <v>9.958025268428447</v>
       </c>
       <c r="C21">
-        <v>756739650199989.4</v>
+        <v>2359259110013746</v>
       </c>
       <c r="D21">
-        <v>3.579745824130707</v>
+        <v>8.902268434252033</v>
       </c>
       <c r="E21">
-        <v>3336220785203432</v>
+        <v>2700653262776152</v>
       </c>
       <c r="F21">
-        <v>15.67738221977485</v>
+        <v>10.18329962650001</v>
       </c>
       <c r="G21">
-        <v>1.408857581431865E+16</v>
+        <v>6813177204909918</v>
       </c>
       <c r="H21">
-        <v>64.70451558397944</v>
+        <v>25.48677013019432</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>2048698253650269</v>
+        <v>2572388211144929</v>
       </c>
       <c r="B22">
-        <v>9.933295254200114</v>
+        <v>9.97746323708455</v>
       </c>
       <c r="C22">
-        <v>737531597438279.6</v>
+        <v>2299374877105225</v>
       </c>
       <c r="D22">
-        <v>3.589121543479696</v>
+        <v>8.924937849262395</v>
       </c>
       <c r="E22">
-        <v>3251681379136657</v>
+        <v>2632131567115627</v>
       </c>
       <c r="F22">
-        <v>15.71653741922585</v>
+        <v>10.20916109405012</v>
       </c>
       <c r="G22">
-        <v>1.377445495511756E+16</v>
+        <v>6646358040177569</v>
       </c>
       <c r="H22">
-        <v>65.01862563175638</v>
+        <v>25.56906988400227</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>1989070005036664</v>
+        <v>2497203134478057</v>
       </c>
       <c r="B23">
-        <v>9.920356751219837</v>
+        <v>9.963200092552258</v>
       </c>
       <c r="C23">
-        <v>716433988209299.5</v>
+        <v>2233599644157108</v>
       </c>
       <c r="D23">
-        <v>3.586957427034007</v>
+        <v>8.918160771966976</v>
       </c>
       <c r="E23">
-        <v>3158817038401677</v>
+        <v>2556867498922783</v>
       </c>
       <c r="F23">
-        <v>15.70223224770849</v>
+        <v>10.20114390605385</v>
       </c>
       <c r="G23">
-        <v>1.34272270843209E+16</v>
+        <v>6462785365992714</v>
       </c>
       <c r="H23">
-        <v>65.09078315267465</v>
+        <v>25.5630993479516</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>1932242270336658</v>
+        <v>2425566218042716</v>
       </c>
       <c r="B24">
-        <v>9.912922143179033</v>
+        <v>9.954574268650102</v>
       </c>
       <c r="C24">
-        <v>696307360826194</v>
+        <v>2170851605257739</v>
       </c>
       <c r="D24">
-        <v>3.585324038779834</v>
+        <v>8.915499071565737</v>
       </c>
       <c r="E24">
-        <v>3070218298334947</v>
+        <v>2485065694666888</v>
       </c>
       <c r="F24">
-        <v>15.70138029351642</v>
+        <v>10.19859589546149</v>
       </c>
       <c r="G24">
-        <v>1.309379918002072E+16</v>
+        <v>6287324797947761</v>
       </c>
       <c r="H24">
-        <v>65.36973617904026</v>
+        <v>25.59150867077385</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>1881577628588509</v>
+        <v>2361712510711194</v>
       </c>
       <c r="B25">
-        <v>9.92315086640623</v>
+        <v>9.963798266673839</v>
       </c>
       <c r="C25">
-        <v>678347094050043.1</v>
+        <v>2114857548386643</v>
       </c>
       <c r="D25">
-        <v>3.590292175707341</v>
+        <v>8.928438883255723</v>
       </c>
       <c r="E25">
-        <v>2991149155342171</v>
+        <v>2420991037956123</v>
       </c>
       <c r="F25">
-        <v>15.72611146047936</v>
+        <v>10.21365927847525</v>
       </c>
       <c r="G25">
-        <v>1.279443932189416E+16</v>
+        <v>6130471244674208</v>
       </c>
       <c r="H25">
-        <v>65.68817553858183</v>
+        <v>25.65527550566091</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>1830053668136605</v>
+        <v>2296789382481266</v>
       </c>
       <c r="B26">
-        <v>9.923672382352343</v>
+        <v>9.963238144161787</v>
       </c>
       <c r="C26">
-        <v>660066291256691.8</v>
+        <v>2057864168276085</v>
       </c>
       <c r="D26">
-        <v>3.592205541107516</v>
+        <v>8.932914561462214</v>
       </c>
       <c r="E26">
-        <v>2910662217904258</v>
+        <v>2355771535709730</v>
       </c>
       <c r="F26">
-        <v>15.73400996236205</v>
+        <v>10.21880410144565</v>
       </c>
       <c r="G26">
-        <v>1.248795140757271E+16</v>
+        <v>5970546754978859</v>
       </c>
       <c r="H26">
-        <v>65.89194646686059</v>
+        <v>25.68787765166674</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>1781207512085930</v>
+        <v>2235253131683045</v>
       </c>
       <c r="B27">
-        <v>9.935181036471619</v>
+        <v>9.973762637033539</v>
       </c>
       <c r="C27">
-        <v>642720723223411.8</v>
+        <v>2003786534852140</v>
       </c>
       <c r="D27">
-        <v>3.598033019266881</v>
+        <v>8.947089712800043</v>
       </c>
       <c r="E27">
-        <v>2834286737291912</v>
+        <v>2293887403106362</v>
       </c>
       <c r="F27">
-        <v>15.75888415501224</v>
+        <v>10.2350301858795</v>
       </c>
       <c r="G27">
-        <v>1.219545831462843E+16</v>
+        <v>5818549335167457</v>
       </c>
       <c r="H27">
-        <v>66.1556590795321</v>
+        <v>25.74700110133105</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>1731399154169760</v>
+        <v>2172517452480322</v>
       </c>
       <c r="B28">
-        <v>9.92732330515639</v>
+        <v>9.964809740916987</v>
       </c>
       <c r="C28">
-        <v>625018544566637.6</v>
+        <v>1948597109728126</v>
       </c>
       <c r="D28">
-        <v>3.597293087558543</v>
+        <v>8.944086723966896</v>
       </c>
       <c r="E28">
-        <v>2756334806830859</v>
+        <v>2230729758066699</v>
       </c>
       <c r="F28">
-        <v>15.75162199786758</v>
+        <v>10.2313747974403</v>
       </c>
       <c r="G28">
-        <v>1.189524029326838E+16</v>
+        <v>5663170126152772</v>
       </c>
       <c r="H28">
-        <v>66.23871889337886</v>
+        <v>25.74991565470513</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>1681168620833675</v>
+        <v>2109263096693072</v>
       </c>
       <c r="B29">
-        <v>9.909102181636223</v>
+        <v>9.945465825132425</v>
       </c>
       <c r="C29">
-        <v>607151019360648.8</v>
+        <v>1892892189806870</v>
       </c>
       <c r="D29">
-        <v>3.592211352122177</v>
+        <v>8.931515031004363</v>
       </c>
       <c r="E29">
-        <v>2677648382514202</v>
+        <v>2166980935748746</v>
       </c>
       <c r="F29">
-        <v>15.73025469211124</v>
+        <v>10.21711118156289</v>
       </c>
       <c r="G29">
-        <v>1.159044434119437E+16</v>
+        <v>5506075203472981</v>
       </c>
       <c r="H29">
-        <v>66.33888937857459</v>
+        <v>25.73609029303115</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>1634383458504390</v>
+        <v>2050359265560615</v>
       </c>
       <c r="B30">
-        <v>9.907615878380303</v>
+        <v>9.942995192961282</v>
       </c>
       <c r="C30">
-        <v>590495191722819.9</v>
+        <v>1840964934404062</v>
       </c>
       <c r="D30">
-        <v>3.592976411672129</v>
+        <v>8.933710035551657</v>
       </c>
       <c r="E30">
-        <v>2604292347721134</v>
+        <v>2107554144069758</v>
       </c>
       <c r="F30">
-        <v>15.73536357701183</v>
+        <v>10.2197958527366</v>
       </c>
       <c r="G30">
-        <v>1.130469487492626E+16</v>
+        <v>5359393391567713</v>
       </c>
       <c r="H30">
-        <v>66.55239192210011</v>
+        <v>25.76532725745357</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>1587903730336247</v>
+        <v>1991851313620502</v>
       </c>
       <c r="B31">
-        <v>9.897519567582544</v>
+        <v>9.93188770412786</v>
       </c>
       <c r="C31">
-        <v>573934834334900.4</v>
+        <v>1789335323054628</v>
       </c>
       <c r="D31">
-        <v>3.590651057234591</v>
+        <v>8.92813975501269</v>
       </c>
       <c r="E31">
-        <v>2531351254214856</v>
+        <v>2048466896233211</v>
       </c>
       <c r="F31">
-        <v>15.7266111179176</v>
+        <v>10.21357459366513</v>
       </c>
       <c r="G31">
-        <v>1.101901259562347E+16</v>
+        <v>5213321302940103</v>
       </c>
       <c r="H31">
-        <v>66.70351920002382</v>
+        <v>25.771451652843</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>1544442152818600</v>
+        <v>1937152800984587</v>
       </c>
       <c r="B32">
-        <v>9.897969126026464</v>
+        <v>9.931421323369804</v>
       </c>
       <c r="C32">
-        <v>558437829436197.2</v>
+        <v>1741020886279006</v>
       </c>
       <c r="D32">
-        <v>3.592234741212029</v>
+        <v>8.93192472626516</v>
       </c>
       <c r="E32">
-        <v>2463088763873724</v>
+        <v>1993172701203069</v>
       </c>
       <c r="F32">
-        <v>15.73348386198512</v>
+        <v>10.21794929069829</v>
       </c>
       <c r="G32">
-        <v>1.075024014202071E+16</v>
+        <v>5076418990083556</v>
       </c>
       <c r="H32">
-        <v>66.88722407868708</v>
+        <v>25.80010778828987</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>1500009326196460</v>
+        <v>1881242175769306</v>
       </c>
       <c r="B33">
-        <v>9.88229060206079</v>
+        <v>9.914744917971907</v>
       </c>
       <c r="C33">
-        <v>542582501336978.4</v>
+        <v>1691589318565522</v>
       </c>
       <c r="D33">
-        <v>3.588222233350868</v>
+        <v>8.921328465166132</v>
       </c>
       <c r="E33">
-        <v>2393242900212062</v>
+        <v>1936599005862190</v>
       </c>
       <c r="F33">
-        <v>15.71399346098232</v>
+        <v>10.20574591509739</v>
       </c>
       <c r="G33">
-        <v>1.047380273709365E+16</v>
+        <v>4936140521018198</v>
       </c>
       <c r="H33">
-        <v>66.93482355114506</v>
+        <v>25.78364881240958</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>1457084556366572</v>
+        <v>1827239029977242</v>
       </c>
       <c r="B34">
-        <v>9.870896649394936</v>
+        <v>9.902425328466984</v>
       </c>
       <c r="C34">
-        <v>527253751211602.7</v>
+        <v>1643799443449478</v>
       </c>
       <c r="D34">
-        <v>3.58480881166989</v>
+        <v>8.914096699243778</v>
       </c>
       <c r="E34">
-        <v>2325711905987224</v>
+        <v>1881903258169483</v>
       </c>
       <c r="F34">
-        <v>15.7046055097031</v>
+        <v>10.19790376886379</v>
       </c>
       <c r="G34">
-        <v>1.020513686334292E+16</v>
+        <v>4800317415830982</v>
       </c>
       <c r="H34">
-        <v>67.13970805353702</v>
+        <v>25.79274045772982</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>1418897834705766</v>
+        <v>1779204931562668</v>
       </c>
       <c r="B35">
-        <v>9.880052295285781</v>
+        <v>9.910798744408536</v>
       </c>
       <c r="C35">
-        <v>513607428465588.3</v>
+        <v>1601254809706269</v>
       </c>
       <c r="D35">
-        <v>3.589530680517279</v>
+        <v>8.925400939102333</v>
       </c>
       <c r="E35">
-        <v>2265588885339226</v>
+        <v>1833209933159360</v>
       </c>
       <c r="F35">
-        <v>15.7240237500858</v>
+        <v>10.21079215226082</v>
       </c>
       <c r="G35">
-        <v>9964781169579360</v>
+        <v>4679232731128828</v>
       </c>
       <c r="H35">
-        <v>67.34126802037395</v>
+        <v>25.83848912230013</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>1376949359715262</v>
+        <v>1726447899350768</v>
       </c>
       <c r="B36">
-        <v>9.857209839046181</v>
+        <v>9.886989608697576</v>
       </c>
       <c r="C36">
-        <v>498606411916139.8</v>
+        <v>1554486697391287</v>
       </c>
       <c r="D36">
-        <v>3.582895054355031</v>
+        <v>8.908157037776849</v>
       </c>
       <c r="E36">
-        <v>2199493022136883</v>
+        <v>1779681888523413</v>
       </c>
       <c r="F36">
-        <v>15.69250900690195</v>
+        <v>10.19094415449537</v>
       </c>
       <c r="G36">
-        <v>9699272325730974</v>
+        <v>4545943300697781</v>
       </c>
       <c r="H36">
-        <v>67.3220628337763</v>
+        <v>25.80067251644577</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>1338880644185308</v>
+        <v>1678578357804306</v>
       </c>
       <c r="B37">
-        <v>9.854415284758181</v>
+        <v>9.883394570724644</v>
       </c>
       <c r="C37">
-        <v>484983374693177.2</v>
+        <v>1512014660058716</v>
       </c>
       <c r="D37">
-        <v>3.582598241972504</v>
+        <v>8.908379780528991</v>
       </c>
       <c r="E37">
-        <v>2139464735253030</v>
+        <v>1731070108562560</v>
       </c>
       <c r="F37">
-        <v>15.69553300229876</v>
+        <v>10.19153932137338</v>
       </c>
       <c r="G37">
-        <v>9456968657278782</v>
+        <v>4424729665602369</v>
       </c>
       <c r="H37">
-        <v>67.54610733959316</v>
+        <v>25.82676914267491</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>1301837683139184</v>
+        <v>1632006030227564</v>
       </c>
       <c r="B38">
-        <v>9.84359928298205</v>
+        <v>9.871754588424933</v>
       </c>
       <c r="C38">
-        <v>471718763267510.3</v>
+        <v>1470660073526179</v>
       </c>
       <c r="D38">
-        <v>3.580208428406111</v>
+        <v>8.901625913135808</v>
       </c>
       <c r="E38">
-        <v>2081012215509172</v>
+        <v>1683736612094032</v>
       </c>
       <c r="F38">
-        <v>15.68228414823519</v>
+        <v>10.18366354808601</v>
       </c>
       <c r="G38">
-        <v>9219946593660690</v>
+        <v>4306550887938415</v>
       </c>
       <c r="H38">
-        <v>67.58098621765339</v>
+        <v>25.81651532946459</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>1263626105413804</v>
+        <v>1583972096917174</v>
       </c>
       <c r="B39">
-        <v>9.821811920207089</v>
+        <v>9.849093646026828</v>
       </c>
       <c r="C39">
-        <v>458026733655963.1</v>
+        <v>1427972941185375</v>
       </c>
       <c r="D39">
-        <v>3.573652129848897</v>
+        <v>8.884949479009149</v>
       </c>
       <c r="E39">
-        <v>2020672493209830</v>
+        <v>1634877184431833</v>
       </c>
       <c r="F39">
-        <v>15.65254691280048</v>
+        <v>10.16455850855386</v>
       </c>
       <c r="G39">
-        <v>8974144983786432</v>
+        <v>4184403803036528</v>
       </c>
       <c r="H39">
-        <v>67.57904230685135</v>
+        <v>25.78190936211607</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>1227690324301667</v>
+        <v>1538806049909391</v>
       </c>
       <c r="B40">
-        <v>9.812609897848972</v>
+        <v>9.839108748493052</v>
       </c>
       <c r="C40">
-        <v>445141860535642</v>
+        <v>1387802250667896</v>
       </c>
       <c r="D40">
-        <v>3.571375605365965</v>
+        <v>8.879381448526038</v>
       </c>
       <c r="E40">
-        <v>1963886395706940</v>
+        <v>1588897382860505</v>
       </c>
       <c r="F40">
-        <v>15.64339672391673</v>
+        <v>10.15828564017304</v>
       </c>
       <c r="G40">
-        <v>8741764238526823</v>
+        <v>4069308106608924</v>
       </c>
       <c r="H40">
-        <v>67.68761938857182</v>
+        <v>25.78265188756099</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>1191801000101001</v>
+        <v>1493705266102790</v>
       </c>
       <c r="B41">
-        <v>9.785753964172041</v>
+        <v>9.811420321021561</v>
       </c>
       <c r="C41">
-        <v>432265589760728.9</v>
+        <v>1347658379363295</v>
       </c>
       <c r="D41">
-        <v>3.562861649137438</v>
+        <v>8.857907453626122</v>
       </c>
       <c r="E41">
-        <v>1907134865926598</v>
+        <v>1542947622344244</v>
       </c>
       <c r="F41">
-        <v>15.6053311481001</v>
+        <v>10.13370612845347</v>
       </c>
       <c r="G41">
-        <v>8508493393884181</v>
+        <v>3954144107288490</v>
       </c>
       <c r="H41">
-        <v>67.64505256052958</v>
+        <v>25.73364945855536</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>1157053828092708</v>
+        <v>1450046339042644</v>
       </c>
       <c r="B42">
-        <v>9.757747975035439</v>
+        <v>9.782614175690808</v>
       </c>
       <c r="C42">
-        <v>419791413524147.6</v>
+        <v>1308768103271255</v>
       </c>
       <c r="D42">
-        <v>3.553534150130958</v>
+        <v>8.835148567055771</v>
       </c>
       <c r="E42">
-        <v>1852152358923680</v>
+        <v>1498432134862619</v>
       </c>
       <c r="F42">
-        <v>15.56663817258434</v>
+        <v>10.10785705152061</v>
       </c>
       <c r="G42">
-        <v>8281501765536496</v>
+        <v>3842437527458864</v>
       </c>
       <c r="H42">
-        <v>67.645180753044</v>
+        <v>25.68697518213715</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>1124115631920670</v>
+        <v>1408666309301402</v>
       </c>
       <c r="B43">
-        <v>9.746630324228407</v>
+        <v>9.770785346169799</v>
       </c>
       <c r="C43">
-        <v>407959664783273.1</v>
+        <v>1271880699529526</v>
       </c>
       <c r="D43">
-        <v>3.550013785732955</v>
+        <v>8.827420993348596</v>
       </c>
       <c r="E43">
-        <v>1799998582835430</v>
+        <v>1456208652152360</v>
       </c>
       <c r="F43">
-        <v>15.55573487781775</v>
+        <v>10.09936404320471</v>
       </c>
       <c r="G43">
-        <v>8065278260435874</v>
+        <v>3736357165350223</v>
       </c>
       <c r="H43">
-        <v>67.80040570012356</v>
+        <v>25.6885407823448</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>1093682216279566</v>
+        <v>1370438187439476</v>
       </c>
       <c r="B44">
-        <v>9.746689138900615</v>
+        <v>9.770208268391128</v>
       </c>
       <c r="C44">
-        <v>397021601079545.9</v>
+        <v>1237779504445973</v>
       </c>
       <c r="D44">
-        <v>3.550727382655964</v>
+        <v>8.829719706638963</v>
       </c>
       <c r="E44">
-        <v>1751781614315403</v>
+        <v>1417173933947914</v>
       </c>
       <c r="F44">
-        <v>15.56134440947175</v>
+        <v>10.10219895541211</v>
       </c>
       <c r="G44">
-        <v>7864581622580627</v>
+        <v>3638179221941404</v>
       </c>
       <c r="H44">
-        <v>67.98408049218439</v>
+        <v>25.71368338038671</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>1063699468500776</v>
+        <v>1332781022833178</v>
       </c>
       <c r="B45">
-        <v>9.729170692034392</v>
+        <v>9.752006127831473</v>
       </c>
       <c r="C45">
-        <v>386239812002055.1</v>
+        <v>1204165520962229</v>
       </c>
       <c r="D45">
-        <v>3.545769688092017</v>
+        <v>8.816356826985793</v>
       </c>
       <c r="E45">
-        <v>1704251169477284</v>
+        <v>1378696450022954</v>
       </c>
       <c r="F45">
-        <v>15.53585167330871</v>
+        <v>10.08668525608294</v>
       </c>
       <c r="G45">
-        <v>7665989467220057</v>
+        <v>3541300090647970</v>
       </c>
       <c r="H45">
-        <v>67.92238685983108</v>
+        <v>25.67895371328865</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>1032528438453804</v>
+        <v>1293636547147717</v>
       </c>
       <c r="B46">
-        <v>9.700032266567444</v>
+        <v>9.722144205840555</v>
       </c>
       <c r="C46">
-        <v>375024709369858.4</v>
+        <v>1169200611897722</v>
       </c>
       <c r="D46">
-        <v>3.536088669301211</v>
+        <v>8.792340467337679</v>
       </c>
       <c r="E46">
-        <v>1654808014882186</v>
+        <v>1338672090850262</v>
       </c>
       <c r="F46">
-        <v>15.49404589048677</v>
+        <v>10.05928554445027</v>
       </c>
       <c r="G46">
-        <v>7458606133048359</v>
+        <v>3440417671063170</v>
       </c>
       <c r="H46">
-        <v>67.87082978830868</v>
+        <v>25.62359563615208</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>1004309875184415</v>
+        <v>1258204282122655</v>
       </c>
       <c r="B47">
-        <v>9.69997934205316</v>
+        <v>9.721496305690547</v>
       </c>
       <c r="C47">
-        <v>364866592307466.9</v>
+        <v>1137531027498782</v>
       </c>
       <c r="D47">
-        <v>3.537033647455891</v>
+        <v>8.794498673727206</v>
       </c>
       <c r="E47">
-        <v>1610022518871710</v>
+        <v>1302419462444659</v>
       </c>
       <c r="F47">
-        <v>15.49777379199301</v>
+        <v>10.06175809022535</v>
       </c>
       <c r="G47">
-        <v>7270049859532354</v>
+        <v>3348946173121452</v>
       </c>
       <c r="H47">
-        <v>67.98823321272208</v>
+        <v>25.6408863747344</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>974385270473082.9</v>
+        <v>1220634540964966</v>
       </c>
       <c r="B48">
-        <v>9.666179655736366</v>
+        <v>9.686988958904907</v>
       </c>
       <c r="C48">
-        <v>354088834099624.8</v>
+        <v>1103929610907677</v>
       </c>
       <c r="D48">
-        <v>3.525862524771212</v>
+        <v>8.76624348290134</v>
       </c>
       <c r="E48">
-        <v>1562502846798186</v>
+        <v>1263954991029260</v>
       </c>
       <c r="F48">
-        <v>15.4472828130126</v>
+        <v>10.02935885191138</v>
       </c>
       <c r="G48">
-        <v>7069239763474363</v>
+        <v>3251793927582458</v>
       </c>
       <c r="H48">
-        <v>67.85580000155622</v>
+        <v>25.56770271781454</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>946734565035829.6</v>
+        <v>1185923934299388</v>
       </c>
       <c r="B49">
-        <v>9.637797382310628</v>
+        <v>9.657974607550159</v>
       </c>
       <c r="C49">
-        <v>344125011662555.2</v>
+        <v>1072865771648028</v>
       </c>
       <c r="D49">
-        <v>3.515923656000453</v>
+        <v>8.742450087601673</v>
       </c>
       <c r="E49">
-        <v>1518569770823595</v>
+        <v>1228394945216653</v>
       </c>
       <c r="F49">
-        <v>15.40775881242705</v>
+        <v>10.0024444151123</v>
       </c>
       <c r="G49">
-        <v>6882901105719004</v>
+        <v>3161885815498796</v>
       </c>
       <c r="H49">
-        <v>67.86070553191938</v>
+        <v>25.51915098050063</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>920166890852653.9</v>
+        <v>1152576779090174</v>
       </c>
       <c r="B50">
-        <v>9.620569350780048</v>
+        <v>9.640148791518095</v>
       </c>
       <c r="C50">
-        <v>334546888009152.1</v>
+        <v>1043004411165386</v>
       </c>
       <c r="D50">
-        <v>3.510794565142841</v>
+        <v>8.728987949365711</v>
       </c>
       <c r="E50">
-        <v>1476335450053020</v>
+        <v>1194211055165114</v>
       </c>
       <c r="F50">
-        <v>15.3827753811617</v>
+        <v>9.986899451402374</v>
       </c>
       <c r="G50">
-        <v>6703142805433965</v>
+        <v>3075373748099834</v>
       </c>
       <c r="H50">
-        <v>67.8088436922848</v>
+        <v>25.48539255771763</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>892568575734283.9</v>
+        <v>1117940034937580</v>
       </c>
       <c r="B51">
-        <v>9.594305334477388</v>
+        <v>9.613258059818815</v>
       </c>
       <c r="C51">
-        <v>324592453177461.4</v>
+        <v>1011969839294469</v>
       </c>
       <c r="D51">
-        <v>3.501840857447301</v>
+        <v>8.707184170590899</v>
       </c>
       <c r="E51">
-        <v>1432439837054653</v>
+        <v>1158683742301277</v>
       </c>
       <c r="F51">
-        <v>15.34572366442514</v>
+        <v>9.962134258246779</v>
       </c>
       <c r="G51">
-        <v>6515660125602362</v>
+        <v>2985374933615280</v>
       </c>
       <c r="H51">
-        <v>67.79303781717756</v>
+        <v>25.43843223249893</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>868387510437407.8</v>
+        <v>1087595441243216</v>
       </c>
       <c r="B52">
-        <v>9.586868478743883</v>
+        <v>9.605319325179348</v>
       </c>
       <c r="C52">
-        <v>315866604922346.6</v>
+        <v>984765586176456.1</v>
       </c>
       <c r="D52">
-        <v>3.498788417469789</v>
+        <v>8.70186426645634</v>
       </c>
       <c r="E52">
-        <v>1393960218609918</v>
+        <v>1127540923912586</v>
       </c>
       <c r="F52">
-        <v>15.34174581879163</v>
+        <v>9.956720768639936</v>
       </c>
       <c r="G52">
-        <v>6350758124501991</v>
+        <v>2906410053787684</v>
       </c>
       <c r="H52">
-        <v>68.04116146036894</v>
+        <v>25.45467548286682</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>846434418772807.6</v>
+        <v>1060049461028147</v>
       </c>
       <c r="B53">
-        <v>9.582373947814435</v>
+        <v>9.600343877719427</v>
       </c>
       <c r="C53">
-        <v>307941506778747.1</v>
+        <v>960057801949610.4</v>
       </c>
       <c r="D53">
-        <v>3.498676394445548</v>
+        <v>8.699791707647437</v>
       </c>
       <c r="E53">
-        <v>1359010448554336</v>
+        <v>1099255745575840</v>
       </c>
       <c r="F53">
-        <v>15.33433745478368</v>
+        <v>9.953898363637022</v>
       </c>
       <c r="G53">
-        <v>6200533683378202</v>
+        <v>2834631683325044</v>
       </c>
       <c r="H53">
-        <v>67.96766104952687</v>
+        <v>25.44207011978557</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>820136837068201.6</v>
+        <v>1027055614720511</v>
       </c>
       <c r="B54">
-        <v>9.535865865942968</v>
+        <v>9.553186098994745</v>
       </c>
       <c r="C54">
-        <v>298443996572289.5</v>
+        <v>930447767017369</v>
       </c>
       <c r="D54">
-        <v>3.48340902120337</v>
+        <v>8.65992183416024</v>
       </c>
       <c r="E54">
-        <v>1317124651377841</v>
+        <v>1065358200835209</v>
       </c>
       <c r="F54">
-        <v>15.26011294950897</v>
+        <v>9.907807831024215</v>
       </c>
       <c r="G54">
-        <v>6019929116486084</v>
+        <v>2748536516937918</v>
       </c>
       <c r="H54">
-        <v>67.60920047959193</v>
+        <v>25.31989699071183</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>796065609663913.1</v>
+        <v>996858329149449</v>
       </c>
       <c r="B55">
-        <v>9.514865364616904</v>
+        <v>9.531660802027323</v>
       </c>
       <c r="C55">
-        <v>289746676141086.4</v>
+        <v>903332454036739.9</v>
       </c>
       <c r="D55">
-        <v>3.475586882126184</v>
+        <v>8.642340818741973</v>
       </c>
       <c r="E55">
-        <v>1278766241003037</v>
+        <v>1034316298178736</v>
       </c>
       <c r="F55">
-        <v>15.23361730312119</v>
+        <v>9.888254546255421</v>
       </c>
       <c r="G55">
-        <v>5853988384535610</v>
+        <v>2669622888587916</v>
       </c>
       <c r="H55">
-        <v>67.7293571807443</v>
+        <v>25.29655913329819</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>774409353664028.2</v>
+        <v>969693317278809.6</v>
       </c>
       <c r="B56">
-        <v>9.48795977838633</v>
+        <v>9.504263173467736</v>
       </c>
       <c r="C56">
-        <v>281918758851402.9</v>
+        <v>878927646949865</v>
       </c>
       <c r="D56">
-        <v>3.466113477686732</v>
+        <v>8.619428800223719</v>
       </c>
       <c r="E56">
-        <v>1244240913093044</v>
+        <v>1006377155481619</v>
       </c>
       <c r="F56">
-        <v>15.19494596128512</v>
+        <v>9.862259421141946</v>
       </c>
       <c r="G56">
-        <v>5704180949053356</v>
+        <v>2598538469562516</v>
       </c>
       <c r="H56">
-        <v>67.69549963934412</v>
+        <v>25.24523532726576</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>752572053837374.6</v>
+        <v>942303800641988</v>
       </c>
       <c r="B57">
-        <v>9.450424629582233</v>
+        <v>9.466199698776226</v>
       </c>
       <c r="C57">
-        <v>274022362157035.3</v>
+        <v>854309344165617</v>
       </c>
       <c r="D57">
-        <v>3.453916298110178</v>
+        <v>8.587305597413566</v>
       </c>
       <c r="E57">
-        <v>1209412298478816</v>
+        <v>978193352226044.1</v>
       </c>
       <c r="F57">
-        <v>15.13456383020025</v>
+        <v>9.825053331462916</v>
       </c>
       <c r="G57">
-        <v>5552624177632993</v>
+        <v>2526775269351172</v>
       </c>
       <c r="H57">
-        <v>67.38375019401472</v>
+        <v>25.14444509336741</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>729003344235464.2</v>
+        <v>912745580164960.2</v>
       </c>
       <c r="B58">
-        <v>9.4108909379762</v>
+        <v>9.426108532790597</v>
       </c>
       <c r="C58">
-        <v>265496457269192.8</v>
+        <v>827728447059938.5</v>
       </c>
       <c r="D58">
-        <v>3.440575898569298</v>
+        <v>8.55330984141195</v>
       </c>
       <c r="E58">
-        <v>1171805697678784</v>
+        <v>947762432007432.6</v>
       </c>
       <c r="F58">
-        <v>15.07307982956989</v>
+        <v>9.785975212757391</v>
       </c>
       <c r="G58">
-        <v>5388487462244738</v>
+        <v>2449226694852397</v>
       </c>
       <c r="H58">
-        <v>67.14656281336927</v>
+        <v>25.04787080628153</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>707072167344981.2</v>
+        <v>885243767367030.6</v>
       </c>
       <c r="B59">
-        <v>9.380388393134316</v>
+        <v>9.395125426467489</v>
       </c>
       <c r="C59">
-        <v>257559724256127.4</v>
+        <v>802984389232556.4</v>
       </c>
       <c r="D59">
-        <v>3.428632777232242</v>
+        <v>8.526687153937567</v>
       </c>
       <c r="E59">
-        <v>1136796531720354</v>
+        <v>919434142991199.9</v>
       </c>
       <c r="F59">
-        <v>15.03332402462714</v>
+        <v>9.756404063689276</v>
       </c>
       <c r="G59">
-        <v>5235226048967827</v>
+        <v>2376976830532185</v>
       </c>
       <c r="H59">
-        <v>67.29269102522575</v>
+        <v>25.00824856177966</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>689620034594341.1</v>
+        <v>863360581672022.9</v>
       </c>
       <c r="B60">
-        <v>9.373381739770076</v>
+        <v>9.387752420490413</v>
       </c>
       <c r="C60">
-        <v>251241717860073.4</v>
+        <v>783286975276414.2</v>
       </c>
       <c r="D60">
-        <v>3.426380400432506</v>
+        <v>8.521546610787745</v>
       </c>
       <c r="E60">
-        <v>1108926705946456</v>
+        <v>896883336733399.8</v>
       </c>
       <c r="F60">
-        <v>15.02551018393931</v>
+        <v>9.750683024646907</v>
       </c>
       <c r="G60">
-        <v>5112899109441820</v>
+        <v>2319421021978186</v>
       </c>
       <c r="H60">
-        <v>67.36520188079876</v>
+        <v>25.0052963307834</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>669361640920713.9</v>
+        <v>837960726244667.8</v>
       </c>
       <c r="B61">
-        <v>9.327443649279338</v>
+        <v>9.341312792866582</v>
       </c>
       <c r="C61">
-        <v>243905335824785.4</v>
+        <v>760414609401677.6</v>
       </c>
       <c r="D61">
-        <v>3.411429673826963</v>
+        <v>8.481765192559905</v>
       </c>
       <c r="E61">
-        <v>1076563634363302</v>
+        <v>870697452365914.9</v>
       </c>
       <c r="F61">
-        <v>14.94977710550015</v>
+        <v>9.704486560361754</v>
       </c>
       <c r="G61">
-        <v>4970492755002755</v>
+        <v>2252541668446782</v>
       </c>
       <c r="H61">
-        <v>66.91318290745919</v>
+        <v>24.87351826262147</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <v>648901296275545.6</v>
+        <v>812309951572493.9</v>
       </c>
       <c r="B62">
-        <v>9.299145917600315</v>
+        <v>9.312559260646925</v>
       </c>
       <c r="C62">
-        <v>236493138715036.4</v>
+        <v>737305877684274.5</v>
       </c>
       <c r="D62">
-        <v>3.401344661375154</v>
+        <v>8.457431659185961</v>
       </c>
       <c r="E62">
-        <v>1043865012501933</v>
+        <v>844240743057739</v>
       </c>
       <c r="F62">
-        <v>14.90880024790509</v>
+        <v>9.676888726768004</v>
       </c>
       <c r="G62">
-        <v>4826217700672974</v>
+        <v>2184920500565925</v>
       </c>
       <c r="H62">
-        <v>66.87227380554002</v>
+        <v>24.81824896504449</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>630877898001218.9</v>
+        <v>789716238641972.9</v>
       </c>
       <c r="B63">
-        <v>9.280237458025573</v>
+        <v>9.293263621586785</v>
       </c>
       <c r="C63">
-        <v>229961543579957.3</v>
+        <v>716942566046931.1</v>
       </c>
       <c r="D63">
-        <v>3.394348758983432</v>
+        <v>8.441347459050482</v>
       </c>
       <c r="E63">
-        <v>1015050210506452</v>
+        <v>820927027830975.1</v>
       </c>
       <c r="F63">
-        <v>14.88361248341703</v>
+        <v>9.658881551006743</v>
       </c>
       <c r="G63">
-        <v>4698750670911324</v>
+        <v>2125290723400228</v>
       </c>
       <c r="H63">
-        <v>66.93555334206856</v>
+        <v>24.79136719819421</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>613318185902516.9</v>
+        <v>767705509583212.6</v>
       </c>
       <c r="B64">
-        <v>9.236075788468876</v>
+        <v>9.248682542726931</v>
       </c>
       <c r="C64">
-        <v>223595971738238.8</v>
+        <v>697096859066924.6</v>
       </c>
       <c r="D64">
-        <v>3.3787680255412</v>
+        <v>8.402501031900195</v>
       </c>
       <c r="E64">
-        <v>986967006256406.6</v>
+        <v>798205749239403.5</v>
       </c>
       <c r="F64">
-        <v>14.81510963302816</v>
+        <v>9.61443848302263</v>
       </c>
       <c r="G64">
-        <v>4574222467139062</v>
+        <v>2067138435551540</v>
       </c>
       <c r="H64">
-        <v>66.69369677973327</v>
+        <v>24.68422210886801</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>595990307430540</v>
+        <v>745987042476318.5</v>
       </c>
       <c r="B65">
-        <v>9.210286237474447</v>
+        <v>9.222497690276169</v>
       </c>
       <c r="C65">
-        <v>217312491131702.2</v>
+        <v>677507084882833.1</v>
       </c>
       <c r="D65">
-        <v>3.370631126295897</v>
+        <v>8.380613902984578</v>
       </c>
       <c r="E65">
-        <v>959245161987802.2</v>
+        <v>775777329538265.1</v>
       </c>
       <c r="F65">
-        <v>14.77301616884973</v>
+        <v>9.588972127073095</v>
       </c>
       <c r="G65">
-        <v>4451007248657982</v>
+        <v>2009699027091796</v>
       </c>
       <c r="H65">
-        <v>66.44862369855267</v>
+        <v>24.61220810358935</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66">
-        <v>577044728571205.1</v>
+        <v>722242870011613</v>
       </c>
       <c r="B66">
-        <v>9.169876095479886</v>
+        <v>9.181647281313728</v>
       </c>
       <c r="C66">
-        <v>210440176035953.9</v>
+        <v>656081523274895.5</v>
       </c>
       <c r="D66">
-        <v>3.35675083449234</v>
+        <v>8.345372572490493</v>
       </c>
       <c r="E66">
-        <v>928924546273369</v>
+        <v>751246929300240.5</v>
       </c>
       <c r="F66">
-        <v>14.70948292881205</v>
+        <v>9.548484401243357</v>
       </c>
       <c r="G66">
-        <v>4315910529935752</v>
+        <v>1946834648079788</v>
       </c>
       <c r="H66">
-        <v>66.18583234550175</v>
+        <v>24.51033688442782</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>559739292149233.4</v>
+        <v>700555989616369.8</v>
       </c>
       <c r="B67">
-        <v>9.124123373653296</v>
+        <v>9.135510862923473</v>
       </c>
       <c r="C67">
-        <v>204160777597456.1</v>
+        <v>636504475914529.5</v>
       </c>
       <c r="D67">
-        <v>3.338361521917667</v>
+        <v>8.304212509616672</v>
       </c>
       <c r="E67">
-        <v>901219039256298.2</v>
+        <v>728832752901901.2</v>
       </c>
       <c r="F67">
-        <v>14.64739425035232</v>
+        <v>9.502680916739964</v>
       </c>
       <c r="G67">
-        <v>4192162150961021</v>
+        <v>1889355310261536</v>
       </c>
       <c r="H67">
-        <v>66.33678469832606</v>
+        <v>24.43996172079284</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68">
-        <v>547753633541538.5</v>
+        <v>685536733471340.5</v>
       </c>
       <c r="B68">
-        <v>9.135025216427278</v>
+        <v>9.146186301549546</v>
       </c>
       <c r="C68">
-        <v>199810561659525.6</v>
+        <v>622941969206473.2</v>
       </c>
       <c r="D68">
-        <v>3.34263124369431</v>
+        <v>8.314988701088616</v>
       </c>
       <c r="E68">
-        <v>882024863251951.1</v>
+        <v>713304659820427.6</v>
       </c>
       <c r="F68">
-        <v>14.66689455102524</v>
+        <v>9.515077853203357</v>
       </c>
       <c r="G68">
-        <v>4106259468777004</v>
+        <v>1849513330365702</v>
       </c>
       <c r="H68">
-        <v>66.48691868728743</v>
+        <v>24.47844662786266</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <v>531318879342248.7</v>
+        <v>664943595211258.2</v>
       </c>
       <c r="B69">
-        <v>9.092067823367119</v>
+        <v>9.102823165475172</v>
       </c>
       <c r="C69">
-        <v>193844025985584.4</v>
+        <v>604340322470706.8</v>
       </c>
       <c r="D69">
-        <v>3.329634420892614</v>
+        <v>8.27791823923449</v>
       </c>
       <c r="E69">
-        <v>855698480917013.8</v>
+        <v>692006992324355.4</v>
       </c>
       <c r="F69">
-        <v>14.59104646620562</v>
+        <v>9.471381074769758</v>
       </c>
       <c r="G69">
-        <v>3988208762253917</v>
+        <v>1794839184309207</v>
       </c>
       <c r="H69">
-        <v>65.83924712781504</v>
+        <v>24.33207122210041</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>514068291514588.4</v>
+        <v>643329803802297.6</v>
       </c>
       <c r="B70">
-        <v>9.047475855994266</v>
+        <v>9.057847948720958</v>
       </c>
       <c r="C70">
-        <v>187579423581188.5</v>
+        <v>584809404156489.8</v>
       </c>
       <c r="D70">
-        <v>3.312345588301524</v>
+        <v>8.238044332116662</v>
       </c>
       <c r="E70">
-        <v>828056150761725.4</v>
+        <v>669645217692709.4</v>
       </c>
       <c r="F70">
-        <v>14.52795828484766</v>
+        <v>9.426648407514433</v>
       </c>
       <c r="G70">
-        <v>3863972027242470</v>
+        <v>1737397674185853</v>
       </c>
       <c r="H70">
-        <v>65.87341944730181</v>
+        <v>24.25179911099104</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <v>502415837196488.1</v>
+        <v>628731017276212.2</v>
       </c>
       <c r="B71">
-        <v>9.054303754796694</v>
+        <v>9.064461773643595</v>
       </c>
       <c r="C71">
-        <v>183346707592170.6</v>
+        <v>571613222676436.2</v>
       </c>
       <c r="D71">
-        <v>3.314101336540247</v>
+        <v>8.244714337771375</v>
       </c>
       <c r="E71">
-        <v>809378995362160.9</v>
+        <v>654536263091564.2</v>
       </c>
       <c r="F71">
-        <v>14.54504464641942</v>
+        <v>9.434938390671507</v>
       </c>
       <c r="G71">
-        <v>3779862686662224</v>
+        <v>1698566043045349</v>
       </c>
       <c r="H71">
-        <v>66.18324395322402</v>
+        <v>24.29833244679518</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
-        <v>488627162650569.8</v>
+        <v>611456836470842.8</v>
       </c>
       <c r="B72">
-        <v>9.003618242073905</v>
+        <v>9.013426825970503</v>
       </c>
       <c r="C72">
-        <v>178336877816756.8</v>
+        <v>555994262398433.4</v>
       </c>
       <c r="D72">
-        <v>3.297850167062339</v>
+        <v>8.200258597288903</v>
       </c>
       <c r="E72">
-        <v>787272301897889.4</v>
+        <v>636653258483753.5</v>
       </c>
       <c r="F72">
-        <v>14.45772273938921</v>
+        <v>9.382980019340749</v>
       </c>
       <c r="G72">
-        <v>3680135334352621</v>
+        <v>1652583195830382</v>
       </c>
       <c r="H72">
-        <v>65.52241881607199</v>
+        <v>24.13539669228581</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <v>472768507509387.1</v>
+        <v>591590726832709</v>
       </c>
       <c r="B73">
-        <v>8.954709151944737</v>
+        <v>8.964146100642555</v>
       </c>
       <c r="C73">
-        <v>172573436020442.8</v>
+        <v>538025793904157.8</v>
       </c>
       <c r="D73">
-        <v>3.280837934267492</v>
+        <v>8.157023747847798</v>
       </c>
       <c r="E73">
-        <v>761839542977327.2</v>
+        <v>616080049793362.8</v>
       </c>
       <c r="F73">
-        <v>14.37958610066149</v>
+        <v>9.333281666308569</v>
       </c>
       <c r="G73">
-        <v>3565169730392318</v>
+        <v>1599653963711116</v>
       </c>
       <c r="H73">
-        <v>65.1607150314022</v>
+        <v>24.00633619079622</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <v>458711666316018.2</v>
+        <v>573982911989223</v>
       </c>
       <c r="B74">
-        <v>8.92834080337907</v>
+        <v>8.937487083646612</v>
       </c>
       <c r="C74">
-        <v>167463452452108.1</v>
+        <v>522094587864632.6</v>
       </c>
       <c r="D74">
-        <v>3.269921525440759</v>
+        <v>8.133415648494635</v>
       </c>
       <c r="E74">
-        <v>739289783682668.6</v>
+        <v>597839318374471.4</v>
       </c>
       <c r="F74">
-        <v>14.34608275758793</v>
+        <v>9.307270337248616</v>
       </c>
       <c r="G74">
-        <v>3463026362054636</v>
+        <v>1552699546269462</v>
       </c>
       <c r="H74">
-        <v>65.3513943545686</v>
+        <v>23.97645674513082</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
-        <v>447658575256730.5</v>
+        <v>560138410482822</v>
       </c>
       <c r="B75">
-        <v>8.909359192520746</v>
+        <v>8.918274198696329</v>
       </c>
       <c r="C75">
-        <v>163444497840927.9</v>
+        <v>509564842295396.7</v>
       </c>
       <c r="D75">
-        <v>3.262599044787691</v>
+        <v>8.116670275310749</v>
       </c>
       <c r="E75">
-        <v>721554235643236.2</v>
+        <v>583493079735138.9</v>
       </c>
       <c r="F75">
-        <v>14.319982809142</v>
+        <v>9.288534000513376</v>
       </c>
       <c r="G75">
-        <v>3382550690000497</v>
+        <v>1515752945543452</v>
       </c>
       <c r="H75">
-        <v>65.39775799946725</v>
+        <v>23.94587301599907</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <v>435787220513866.4</v>
+        <v>545269751704866.5</v>
       </c>
       <c r="B76">
-        <v>8.877181925277277</v>
+        <v>8.885815735659888</v>
       </c>
       <c r="C76">
-        <v>159127132800079.8</v>
+        <v>496104753609434.4</v>
       </c>
       <c r="D76">
-        <v>3.253011104835247</v>
+        <v>8.088880358460441</v>
       </c>
       <c r="E76">
-        <v>702501444932207.9</v>
+        <v>568081550560155.5</v>
       </c>
       <c r="F76">
-        <v>14.26223334610346</v>
+        <v>9.255667512689037</v>
       </c>
       <c r="G76">
-        <v>3295960998620870</v>
+        <v>1476045952492548</v>
       </c>
       <c r="H76">
-        <v>64.8649057076706</v>
+        <v>23.83175238165333</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>420992226699162.2</v>
+        <v>526740383252246.1</v>
       </c>
       <c r="B77">
-        <v>8.820253694086677</v>
+        <v>8.828539193539768</v>
       </c>
       <c r="C77">
-        <v>153745215676894.3</v>
+        <v>479325750422725.9</v>
       </c>
       <c r="D77">
-        <v>3.232982054223005</v>
+        <v>8.038213737479536</v>
       </c>
       <c r="E77">
-        <v>678750192968558</v>
+        <v>548869827835674.7</v>
       </c>
       <c r="F77">
-        <v>14.17113135524914</v>
+        <v>9.197481725107737</v>
       </c>
       <c r="G77">
-        <v>3187818737586038</v>
+        <v>1426523423343678</v>
       </c>
       <c r="H77">
-        <v>64.44331008360112</v>
+        <v>23.68077853157936</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78">
-        <v>408949473455256.6</v>
+        <v>511658841175572.2</v>
       </c>
       <c r="B78">
-        <v>8.787622610743172</v>
+        <v>8.795654785410651</v>
       </c>
       <c r="C78">
-        <v>149363416701321.7</v>
+        <v>465664778450877.4</v>
       </c>
       <c r="D78">
-        <v>3.2199007224697</v>
+        <v>8.008805084894538</v>
       </c>
       <c r="E78">
-        <v>659412186981299.8</v>
+        <v>533228122093490.6</v>
       </c>
       <c r="F78">
-        <v>14.12643553387874</v>
+        <v>9.164713747453108</v>
       </c>
       <c r="G78">
-        <v>3099606549037394</v>
+        <v>1386183276252972</v>
       </c>
       <c r="H78">
-        <v>64.54287829034713</v>
+        <v>23.62894310136504</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <v>398069141767689.2</v>
+        <v>498033732104458.4</v>
       </c>
       <c r="B79">
-        <v>8.739429751096887</v>
+        <v>8.747207410398794</v>
       </c>
       <c r="C79">
-        <v>145403755334278.6</v>
+        <v>453319889227355.1</v>
       </c>
       <c r="D79">
-        <v>3.202503849200661</v>
+        <v>7.965637402883549</v>
       </c>
       <c r="E79">
-        <v>641936848004054.2</v>
+        <v>519093255212698.6</v>
       </c>
       <c r="F79">
-        <v>14.05065182484822</v>
+        <v>9.115364043436841</v>
       </c>
       <c r="G79">
-        <v>3019764084816522</v>
+        <v>1349713716395983</v>
       </c>
       <c r="H79">
-        <v>64.25025101830714</v>
+        <v>23.50727623403944</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80">
-        <v>386623519863604.4</v>
+        <v>483701438388570</v>
       </c>
       <c r="B80">
-        <v>8.706416841711667</v>
+        <v>8.713941690585161</v>
       </c>
       <c r="C80">
-        <v>141237534686059.1</v>
+        <v>440331017802365.3</v>
       </c>
       <c r="D80">
-        <v>3.191012583483201</v>
+        <v>7.936458042043895</v>
       </c>
       <c r="E80">
-        <v>623549549090181.2</v>
+        <v>504220963141695.7</v>
       </c>
       <c r="F80">
-        <v>13.99797011720025</v>
+        <v>9.081829119235344</v>
       </c>
       <c r="G80">
-        <v>2935624410322395</v>
+        <v>1311325539185884</v>
       </c>
       <c r="H80">
-        <v>64.00827878375182</v>
+        <v>23.42044050451691</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <v>375710026168300.9</v>
+        <v>470036159089654.1</v>
       </c>
       <c r="B81">
-        <v>8.697007679449866</v>
+        <v>8.704315608781441</v>
       </c>
       <c r="C81">
-        <v>137264212360444.7</v>
+        <v>427943538315530.8</v>
       </c>
       <c r="D81">
-        <v>3.187602532086514</v>
+        <v>7.928554854492968</v>
       </c>
       <c r="E81">
-        <v>606013264383649.5</v>
+        <v>490037202227367.6</v>
       </c>
       <c r="F81">
-        <v>13.98545803914593</v>
+        <v>9.072964777542266</v>
       </c>
       <c r="G81">
-        <v>2855253821751179</v>
+        <v>1274699309356113</v>
       </c>
       <c r="H81">
-        <v>64.0441031687016</v>
+        <v>23.40734770228256</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <v>365439234550352.2</v>
+        <v>457176242357170.6</v>
       </c>
       <c r="B82">
-        <v>8.656027740923177</v>
+        <v>8.663100766883339</v>
       </c>
       <c r="C82">
-        <v>133524170252779.9</v>
+        <v>416283347902604.3</v>
       </c>
       <c r="D82">
-        <v>3.173314751023199</v>
+        <v>7.892075972683016</v>
       </c>
       <c r="E82">
-        <v>589506270961763.6</v>
+        <v>476686135722958.6</v>
       </c>
       <c r="F82">
-        <v>13.91911124640231</v>
+        <v>9.030979426027343</v>
       </c>
       <c r="G82">
-        <v>2779488636587922</v>
+        <v>1240209670756566</v>
       </c>
       <c r="H82">
-        <v>63.70521029397485</v>
+        <v>23.29509820088527</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <v>354112186033780.7</v>
+        <v>442994482909200.8</v>
       </c>
       <c r="B83">
-        <v>8.574326350756269</v>
+        <v>8.581111071087236</v>
       </c>
       <c r="C83">
-        <v>129398699072599.5</v>
+        <v>403421519581110.2</v>
       </c>
       <c r="D83">
-        <v>3.144512813982502</v>
+        <v>7.818672184507417</v>
       </c>
       <c r="E83">
-        <v>571297824545633.6</v>
+        <v>461959114092118</v>
       </c>
       <c r="F83">
-        <v>13.78578972376761</v>
+        <v>8.946513807908673</v>
       </c>
       <c r="G83">
-        <v>2695787691832309</v>
+        <v>1202150177385993</v>
       </c>
       <c r="H83">
-        <v>62.99586068333245</v>
+        <v>23.0663722116647</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84">
-        <v>342642886006649.2</v>
+        <v>428635350182442.7</v>
       </c>
       <c r="B84">
-        <v>8.526025411285231</v>
+        <v>8.532561206155528</v>
       </c>
       <c r="C84">
-        <v>125220562400276.2</v>
+        <v>390395498010209.2</v>
       </c>
       <c r="D84">
-        <v>3.126098888862918</v>
+        <v>7.775060266840891</v>
       </c>
       <c r="E84">
-        <v>552856578464159.6</v>
+        <v>447044019399150.4</v>
       </c>
       <c r="F84">
-        <v>13.71391538189436</v>
+        <v>8.897231303464029</v>
       </c>
       <c r="G84">
-        <v>2610881179429186</v>
+        <v>1163588190924553</v>
       </c>
       <c r="H84">
-        <v>62.89410956834795</v>
+        <v>22.96333145089297</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85">
-        <v>333939796437432.8</v>
+        <v>417739899009302.6</v>
       </c>
       <c r="B85">
-        <v>8.536508166883946</v>
+        <v>8.542893576693254</v>
       </c>
       <c r="C85">
-        <v>122049550249139</v>
+        <v>380509351164913.4</v>
       </c>
       <c r="D85">
-        <v>3.12917705997431</v>
+        <v>7.784864427730446</v>
       </c>
       <c r="E85">
-        <v>538860290760563.1</v>
+        <v>435724107311120.4</v>
       </c>
       <c r="F85">
-        <v>13.73614708996418</v>
+        <v>8.909059310112141</v>
       </c>
       <c r="G85">
-        <v>2546348751477550</v>
+        <v>1134310247960366</v>
       </c>
       <c r="H85">
-        <v>63.21058596055895</v>
+        <v>23.01653982076941</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86">
-        <v>324939238116764.5</v>
+        <v>406472489833860.7</v>
       </c>
       <c r="B86">
-        <v>8.486883607492679</v>
+        <v>8.493056537308549</v>
       </c>
       <c r="C86">
-        <v>118769632010532.7</v>
+        <v>370283671854351.3</v>
       </c>
       <c r="D86">
-        <v>3.112085364450375</v>
+        <v>7.740533109777644</v>
       </c>
       <c r="E86">
-        <v>524383096210261.2</v>
+        <v>424015379131991.5</v>
       </c>
       <c r="F86">
-        <v>13.65394934715911</v>
+        <v>8.857842420568049</v>
       </c>
       <c r="G86">
-        <v>2479515964328058</v>
+        <v>1104016612599370</v>
       </c>
       <c r="H86">
-        <v>62.71830686212137</v>
+        <v>22.87196375200388</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87">
-        <v>315016564605235.6</v>
+        <v>394051249171360.9</v>
       </c>
       <c r="B87">
-        <v>8.418437349979913</v>
+        <v>8.424369842261063</v>
       </c>
       <c r="C87">
-        <v>115153067889934.6</v>
+        <v>359008444177018.6</v>
       </c>
       <c r="D87">
-        <v>3.088026079158824</v>
+        <v>7.679058285830134</v>
       </c>
       <c r="E87">
-        <v>508419731160732.8</v>
+        <v>411104835155031.9</v>
       </c>
       <c r="F87">
-        <v>13.54194426668048</v>
+        <v>8.787060628302912</v>
       </c>
       <c r="G87">
-        <v>2405724245815240</v>
+        <v>1070601692196293</v>
       </c>
       <c r="H87">
-        <v>62.10844282492427</v>
+        <v>22.67887347934728</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88">
-        <v>305027067361680</v>
+        <v>381546914310359.1</v>
       </c>
       <c r="B88">
-        <v>8.382160957952323</v>
+        <v>8.387887196419328</v>
       </c>
       <c r="C88">
-        <v>111511496001489.5</v>
+        <v>347655250710397</v>
       </c>
       <c r="D88">
-        <v>3.074004999794156</v>
+        <v>7.646300441738401</v>
       </c>
       <c r="E88">
-        <v>492345714735019.9</v>
+        <v>398104965044391</v>
       </c>
       <c r="F88">
-        <v>13.48903635133883</v>
+        <v>8.750176001652807</v>
       </c>
       <c r="G88">
-        <v>2331316751809218</v>
+        <v>1036942993710373</v>
       </c>
       <c r="H88">
-        <v>62.08287234048111</v>
+        <v>22.60652503971593</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89">
-        <v>297447024770603.1</v>
+        <v>372058982337312.8</v>
       </c>
       <c r="B89">
-        <v>8.386957415390428</v>
+        <v>8.392551244670722</v>
       </c>
       <c r="C89">
-        <v>108747829962714.4</v>
+        <v>339039071715028.4</v>
       </c>
       <c r="D89">
-        <v>3.074981737740408</v>
+        <v>7.650842814443664</v>
       </c>
       <c r="E89">
-        <v>480146623622208.7</v>
+        <v>388239053115069.6</v>
       </c>
       <c r="F89">
-        <v>13.50189713272642</v>
+        <v>8.755971108012336</v>
       </c>
       <c r="G89">
-        <v>2274776479955032</v>
+        <v>1011390166322652</v>
       </c>
       <c r="H89">
-        <v>62.35092949923726</v>
+        <v>22.64342290770719</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90">
-        <v>289655523114714.6</v>
+        <v>362306702349282.4</v>
       </c>
       <c r="B90">
-        <v>8.344637517254082</v>
+        <v>8.3500575873835</v>
       </c>
       <c r="C90">
-        <v>105906673365138.7</v>
+        <v>330181303281677.9</v>
       </c>
       <c r="D90">
-        <v>3.059760662352882</v>
+        <v>7.612796963806834</v>
       </c>
       <c r="E90">
-        <v>467605320078553.9</v>
+        <v>378096478807491.3</v>
       </c>
       <c r="F90">
-        <v>13.43444864050135</v>
+        <v>8.712395186618178</v>
       </c>
       <c r="G90">
-        <v>2216586992365276</v>
+        <v>985113183366428</v>
       </c>
       <c r="H90">
-        <v>62.05690264741349</v>
+        <v>22.53242451714414</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91">
-        <v>282262266923519</v>
+        <v>353053202924378.4</v>
       </c>
       <c r="B91">
-        <v>8.329824001674782</v>
+        <v>8.335091275997845</v>
       </c>
       <c r="C91">
-        <v>103210367636938.7</v>
+        <v>321775131025530.1</v>
       </c>
       <c r="D91">
-        <v>3.05562931085865</v>
+        <v>7.600172166810403</v>
       </c>
       <c r="E91">
-        <v>455703259135122.8</v>
+        <v>368470974368324.6</v>
       </c>
       <c r="F91">
-        <v>13.40696446680252</v>
+        <v>8.697311922512739</v>
       </c>
       <c r="G91">
-        <v>2161304164017378</v>
+        <v>960168676051203.4</v>
       </c>
       <c r="H91">
-        <v>61.76174891584108</v>
+        <v>22.47560500600133</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92">
-        <v>272967861677342.3</v>
+        <v>341420633951868.9</v>
       </c>
       <c r="B92">
-        <v>8.269949263147893</v>
+        <v>8.275002940903164</v>
       </c>
       <c r="C92">
-        <v>99820207185104.12</v>
+        <v>311205753660031.7</v>
       </c>
       <c r="D92">
-        <v>3.034697801922443</v>
+        <v>7.546444701446902</v>
       </c>
       <c r="E92">
-        <v>440738168052816.8</v>
+        <v>356368446594224.6</v>
       </c>
       <c r="F92">
-        <v>13.30854023360921</v>
+        <v>8.635384941137147</v>
       </c>
       <c r="G92">
-        <v>2091711979845364</v>
+        <v>928795099097055.2</v>
       </c>
       <c r="H92">
-        <v>61.20630347008894</v>
+        <v>22.30461646343374</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93">
-        <v>264710411022554.1</v>
+        <v>331086288937794.7</v>
       </c>
       <c r="B93">
-        <v>8.216904161797544</v>
+        <v>8.221780249344928</v>
       </c>
       <c r="C93">
-        <v>96807802553141.48</v>
+        <v>301814091588238.3</v>
       </c>
       <c r="D93">
-        <v>3.014280811254566</v>
+        <v>7.498180608487339</v>
       </c>
       <c r="E93">
-        <v>427440398284263.6</v>
+        <v>345614430347915.8</v>
       </c>
       <c r="F93">
-        <v>13.22916263276391</v>
+        <v>8.580863100235197</v>
       </c>
       <c r="G93">
-        <v>2029796371439634</v>
+        <v>900908065179086.9</v>
       </c>
       <c r="H93">
-        <v>61.08612198768488</v>
+        <v>22.18946579129315</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94">
-        <v>257761437200457.8</v>
+        <v>322389821895829.6</v>
       </c>
       <c r="B94">
-        <v>8.18756768406085</v>
+        <v>8.19230261334163</v>
       </c>
       <c r="C94">
-        <v>94272396592945.22</v>
+        <v>293909550564657.2</v>
       </c>
       <c r="D94">
-        <v>3.003085825402848</v>
+        <v>7.471656483816133</v>
       </c>
       <c r="E94">
-        <v>416248118752980.9</v>
+        <v>336563228942993.9</v>
       </c>
       <c r="F94">
-        <v>13.18542662032388</v>
+        <v>8.550886800028911</v>
       </c>
       <c r="G94">
-        <v>1977627853935045</v>
+        <v>877429992519852.4</v>
       </c>
       <c r="H94">
-        <v>61.0248253781967</v>
+        <v>22.12658852174938</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95">
-        <v>250847550368048</v>
+        <v>313737534077351.9</v>
       </c>
       <c r="B95">
-        <v>8.175560712907952</v>
+        <v>8.180160173227387</v>
       </c>
       <c r="C95">
-        <v>91749477252791.12</v>
+        <v>286043938612758.9</v>
       </c>
       <c r="D95">
-        <v>2.999346398398265</v>
+        <v>7.46132924152238</v>
       </c>
       <c r="E95">
-        <v>405110830569365.8</v>
+        <v>327556578452035.3</v>
       </c>
       <c r="F95">
-        <v>13.16496924459366</v>
+        <v>8.538796970922188</v>
       </c>
       <c r="G95">
-        <v>1925664509916883</v>
+        <v>854061367057925.4</v>
       </c>
       <c r="H95">
-        <v>60.87082589451501</v>
+        <v>22.08899441343322</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96">
-        <v>243501483073340.2</v>
+        <v>304544693832738.4</v>
       </c>
       <c r="B96">
-        <v>8.133300880318249</v>
+        <v>8.137739160626854</v>
       </c>
       <c r="C96">
-        <v>89068507967501.98</v>
+        <v>277685580215238.9</v>
       </c>
       <c r="D96">
-        <v>2.984890625438023</v>
+        <v>7.423547836345562</v>
       </c>
       <c r="E96">
-        <v>393275698039530.8</v>
+        <v>317985672695426.2</v>
       </c>
       <c r="F96">
-        <v>13.09428443893222</v>
+        <v>8.495069474415263</v>
       </c>
       <c r="G96">
-        <v>1870389202523351</v>
+        <v>829222037429142</v>
       </c>
       <c r="H96">
-        <v>60.41870259375702</v>
+        <v>21.96262944617402</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97">
-        <v>235626008158751.5</v>
+        <v>294689691307403.4</v>
       </c>
       <c r="B97">
-        <v>8.051783292149114</v>
+        <v>8.056034676477264</v>
       </c>
       <c r="C97">
-        <v>86193935204045.98</v>
+        <v>268723631442251.2</v>
       </c>
       <c r="D97">
-        <v>2.95535928539738</v>
+        <v>7.349723938712946</v>
       </c>
       <c r="E97">
-        <v>380585741338412.5</v>
+        <v>307723581967446.6</v>
       </c>
       <c r="F97">
-        <v>12.96330010449777</v>
+        <v>8.410498648127913</v>
       </c>
       <c r="G97">
-        <v>1811057227404708</v>
+        <v>802581215297887</v>
       </c>
       <c r="H97">
-        <v>59.8135420292507</v>
+        <v>21.74378120169184</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98">
-        <v>228356619071076.7</v>
+        <v>285593425402880.4</v>
       </c>
       <c r="B98">
-        <v>7.990637486336109</v>
+        <v>7.994728176697374</v>
       </c>
       <c r="C98">
-        <v>83540223121007.38</v>
+        <v>260450251812139.5</v>
       </c>
       <c r="D98">
-        <v>2.932840931516019</v>
+        <v>7.29429091135914</v>
       </c>
       <c r="E98">
-        <v>368870637140003.5</v>
+        <v>298249924431952.5</v>
       </c>
       <c r="F98">
-        <v>12.86688542163081</v>
+        <v>8.347234150600361</v>
       </c>
       <c r="G98">
-        <v>1756224027173793</v>
+        <v>777980153712977</v>
       </c>
       <c r="H98">
-        <v>59.44548769700999</v>
+        <v>21.58818215804539</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99">
-        <v>221234866947552.9</v>
+        <v>276682187057281.1</v>
       </c>
       <c r="B99">
-        <v>7.931892599467491</v>
+        <v>7.935827639369013</v>
       </c>
       <c r="C99">
-        <v>80940068727495.45</v>
+        <v>252343847002091.4</v>
       </c>
       <c r="D99">
-        <v>2.911330670829538</v>
+        <v>7.241080044800964</v>
       </c>
       <c r="E99">
-        <v>357391830601305.7</v>
+        <v>288967438805198.2</v>
       </c>
       <c r="F99">
-        <v>12.77374605795221</v>
+        <v>8.286433463676902</v>
       </c>
       <c r="G99">
-        <v>1702441635005650</v>
+        <v>753868958842499.9</v>
       </c>
       <c r="H99">
-        <v>59.06762868035264</v>
+        <v>21.43632311883756</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100">
-        <v>214510167731790.6</v>
+        <v>268268030883282.7</v>
       </c>
       <c r="B100">
-        <v>7.883015358145891</v>
+        <v>7.886812827204209</v>
       </c>
       <c r="C100">
-        <v>78484571650587.53</v>
+        <v>244688434936956.3</v>
       </c>
       <c r="D100">
-        <v>2.892315758986838</v>
+        <v>7.196457645446894</v>
       </c>
       <c r="E100">
-        <v>346551511419737.9</v>
+        <v>280201351493496.7</v>
       </c>
       <c r="F100">
-        <v>12.70112476105583</v>
+        <v>8.23611855911542</v>
       </c>
       <c r="G100">
-        <v>1651600532194858</v>
+        <v>731093134004783.1</v>
       </c>
       <c r="H100">
-        <v>58.98804262469314</v>
+        <v>21.33272549858306</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101">
-        <v>209528757666445.5</v>
+        <v>262035297058562.4</v>
       </c>
       <c r="B101">
-        <v>7.882609015671991</v>
+        <v>7.886318933639648</v>
       </c>
       <c r="C101">
-        <v>76665437415873.81</v>
+        <v>239016987677053.9</v>
       </c>
       <c r="D101">
-        <v>2.892234141679954</v>
+        <v>7.196385837234468</v>
       </c>
       <c r="E101">
-        <v>338520473733533.8</v>
+        <v>273707054428114.9</v>
       </c>
       <c r="F101">
-        <v>12.70134636821633</v>
+        <v>8.236080891107484</v>
       </c>
       <c r="G101">
-        <v>1613903426086239</v>
+        <v>714216073895446.2</v>
       </c>
       <c r="H101">
-        <v>59.01973354682028</v>
+        <v>21.33576282035147</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102">
-        <v>203163105345134.8</v>
+        <v>254070804167768.4</v>
       </c>
       <c r="B102">
-        <v>7.826326331265842</v>
+        <v>7.829896531597061</v>
       </c>
       <c r="C102">
-        <v>74340561034942.25</v>
+        <v>231768806905874.6</v>
       </c>
       <c r="D102">
-        <v>2.872139262159641</v>
+        <v>7.145547880656992</v>
       </c>
       <c r="E102">
-        <v>328256608984939.2</v>
+        <v>265407242142002.5</v>
       </c>
       <c r="F102">
-        <v>12.60979470396993</v>
+        <v>8.177676979201861</v>
       </c>
       <c r="G102">
-        <v>1565686456504976</v>
+        <v>692642289283512.9</v>
       </c>
       <c r="H102">
-        <v>58.54719285612352</v>
+        <v>21.17946856827599</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103">
-        <v>197905405259994.1</v>
+        <v>247492716184557.8</v>
       </c>
       <c r="B103">
-        <v>7.81100756756655</v>
+        <v>7.814480395356147</v>
       </c>
       <c r="C103">
-        <v>72420131618129.12</v>
+        <v>225781555417787</v>
       </c>
       <c r="D103">
-        <v>2.866291755133773</v>
+        <v>7.131771932509083</v>
       </c>
       <c r="E103">
-        <v>319778214015773.6</v>
+        <v>258551289950335.6</v>
       </c>
       <c r="F103">
-        <v>12.58728056390193</v>
+        <v>8.162133153522131</v>
       </c>
       <c r="G103">
-        <v>1525823991445478</v>
+        <v>674817615501406.6</v>
       </c>
       <c r="H103">
-        <v>58.52996302270932</v>
+        <v>21.14819140403671</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104">
-        <v>192308448603155.4</v>
+        <v>240490343617011.1</v>
       </c>
       <c r="B104">
-        <v>7.777904382063948</v>
+        <v>7.781261837212575</v>
       </c>
       <c r="C104">
-        <v>70375584760087.19</v>
+        <v>219407347591607.1</v>
       </c>
       <c r="D104">
-        <v>2.855151425471889</v>
+        <v>7.102203955934254</v>
       </c>
       <c r="E104">
-        <v>310751777692184.3</v>
+        <v>251252221150980.4</v>
       </c>
       <c r="F104">
-        <v>12.53098221428342</v>
+        <v>8.127791624506616</v>
       </c>
       <c r="G104">
-        <v>1483351793540320</v>
+        <v>655836981142161.8</v>
       </c>
       <c r="H104">
-        <v>58.13000600190331</v>
+        <v>21.04482387882819</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105">
-        <v>186166850956980.7</v>
+        <v>232806771601976.9</v>
       </c>
       <c r="B105">
-        <v>7.720251078050729</v>
+        <v>7.723478006371976</v>
       </c>
       <c r="C105">
-        <v>68131844675076.68</v>
+        <v>212412122437665.3</v>
       </c>
       <c r="D105">
-        <v>2.833988565425436</v>
+        <v>7.049893901845847</v>
       </c>
       <c r="E105">
-        <v>300845828778966.4</v>
+        <v>243242009860094.9</v>
       </c>
       <c r="F105">
-        <v>12.43950085132248</v>
+        <v>8.068029680710207</v>
       </c>
       <c r="G105">
-        <v>1436701945734426</v>
+        <v>635002435845847.6</v>
       </c>
       <c r="H105">
-        <v>57.75834034076738</v>
+        <v>20.89545625043004</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106">
-        <v>181063761583524.3</v>
+        <v>226422608221287.1</v>
       </c>
       <c r="B106">
-        <v>7.699922235476524</v>
+        <v>7.703051546598391</v>
       </c>
       <c r="C106">
-        <v>66267318468024.4</v>
+        <v>206599158310987.2</v>
       </c>
       <c r="D106">
-        <v>2.827049287964632</v>
+        <v>7.031787865356316</v>
       </c>
       <c r="E106">
-        <v>292614003722492.9</v>
+        <v>236585586900006.2</v>
       </c>
       <c r="F106">
-        <v>12.40570298461999</v>
+        <v>8.047083957577303</v>
       </c>
       <c r="G106">
-        <v>1397904698400826</v>
+        <v>617685393199909.8</v>
       </c>
       <c r="H106">
-        <v>57.54777007878977</v>
+        <v>20.83560788055803</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107">
-        <v>174700155842615.9</v>
+        <v>218461695256684.7</v>
       </c>
       <c r="B107">
-        <v>7.62814080001092</v>
+        <v>7.631125906901011</v>
       </c>
       <c r="C107">
-        <v>63941993818084.45</v>
+        <v>199349579988164.4</v>
       </c>
       <c r="D107">
-        <v>2.802746580186922</v>
+        <v>6.967287235867848</v>
       </c>
       <c r="E107">
-        <v>282347668990113.8</v>
+        <v>228284078228086.2</v>
       </c>
       <c r="F107">
-        <v>12.28285241900358</v>
+        <v>7.972161961725617</v>
       </c>
       <c r="G107">
-        <v>1349478755414310</v>
+        <v>596083864518364</v>
       </c>
       <c r="H107">
-        <v>56.654443151257</v>
+        <v>20.60782499250466</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108">
-        <v>167526584695360.4</v>
+        <v>209487783699024.6</v>
       </c>
       <c r="B108">
-        <v>7.539007232544257</v>
+        <v>7.541836682553907</v>
       </c>
       <c r="C108">
-        <v>61320378940397.42</v>
+        <v>191176268623422.1</v>
       </c>
       <c r="D108">
-        <v>2.770110503254937</v>
+        <v>6.88629606930838</v>
       </c>
       <c r="E108">
-        <v>270773077854699.2</v>
+        <v>218924774978693.4</v>
       </c>
       <c r="F108">
-        <v>12.14045329873525</v>
+        <v>7.879539145396363</v>
       </c>
       <c r="G108">
-        <v>1294828622417115</v>
+        <v>571723556621017.5</v>
       </c>
       <c r="H108">
-        <v>56.03623150692443</v>
+        <v>20.37234105796577</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109">
-        <v>161646145469880.5</v>
+        <v>202131755716415.3</v>
       </c>
       <c r="B109">
-        <v>7.497304155416558</v>
+        <v>7.500025735902387</v>
       </c>
       <c r="C109">
-        <v>59171091424158.38</v>
+        <v>184475514736156.2</v>
       </c>
       <c r="D109">
-        <v>2.752934586352436</v>
+        <v>6.847874236124435</v>
       </c>
       <c r="E109">
-        <v>261283736986826.7</v>
+        <v>211251684925846.4</v>
       </c>
       <c r="F109">
-        <v>12.08240869276191</v>
+        <v>7.836766125685094</v>
       </c>
       <c r="G109">
-        <v>1249981993814448</v>
+        <v>551747147978668.7</v>
       </c>
       <c r="H109">
-        <v>56.15895997973161</v>
+        <v>20.30227209791208</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110">
-        <v>157259500158446.1</v>
+        <v>196644488860026.4</v>
       </c>
       <c r="B110">
-        <v>7.480284939396931</v>
+        <v>7.482928566435977</v>
       </c>
       <c r="C110">
-        <v>57567633378341.7</v>
+        <v>179476473122414.8</v>
       </c>
       <c r="D110">
-        <v>2.746290759495809</v>
+        <v>6.83242404046243</v>
       </c>
       <c r="E110">
-        <v>254204232184103.8</v>
+        <v>205527228061551.4</v>
       </c>
       <c r="F110">
-        <v>12.05761937665312</v>
+        <v>7.819389088128527</v>
       </c>
       <c r="G110">
-        <v>1216499487695609</v>
+        <v>536840970598557.9</v>
       </c>
       <c r="H110">
-        <v>56.15380040851507</v>
+        <v>20.26856935536075</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111">
-        <v>152225706403128.6</v>
+        <v>190347835890208.1</v>
       </c>
       <c r="B111">
-        <v>7.415206687593177</v>
+        <v>7.417744204945656</v>
       </c>
       <c r="C111">
-        <v>55727465225296.26</v>
+        <v>173739449196309.9</v>
       </c>
       <c r="D111">
-        <v>2.722292699863897</v>
+        <v>6.773209832387756</v>
       </c>
       <c r="E111">
-        <v>246079552842418.3</v>
+        <v>198957687043831.7</v>
       </c>
       <c r="F111">
-        <v>11.9542757291336</v>
+        <v>7.751764490540713</v>
       </c>
       <c r="G111">
-        <v>1178047714830376</v>
+        <v>519731170219652.6</v>
       </c>
       <c r="H111">
-        <v>55.7345672912753</v>
+        <v>20.09958179804022</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112">
-        <v>148325733251477.4</v>
+        <v>185469550408748.7</v>
       </c>
       <c r="B112">
-        <v>7.431931497785589</v>
+        <v>7.43441242828053</v>
       </c>
       <c r="C112">
-        <v>54301664553100</v>
+        <v>169294283379963.8</v>
       </c>
       <c r="D112">
-        <v>2.727626398197631</v>
+        <v>6.788413074919085</v>
       </c>
       <c r="E112">
-        <v>239784334512895.3</v>
+        <v>193867460366356.5</v>
       </c>
       <c r="F112">
-        <v>11.98551151977679</v>
+        <v>7.769704701386344</v>
       </c>
       <c r="G112">
-        <v>1148235040620392</v>
+        <v>506471859254672.2</v>
       </c>
       <c r="H112">
-        <v>56.06508641044732</v>
+        <v>20.1649858427332</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113">
-        <v>144553392059137.4</v>
+        <v>180750995125078</v>
       </c>
       <c r="B113">
-        <v>7.438435045853392</v>
+        <v>7.440857398490013</v>
       </c>
       <c r="C113">
-        <v>52922429402565.38</v>
+        <v>164994293161544.5</v>
       </c>
       <c r="D113">
-        <v>2.729292105150455</v>
+        <v>6.79430344171814</v>
       </c>
       <c r="E113">
-        <v>233694673742689.8</v>
+        <v>188943468777518.2</v>
       </c>
       <c r="F113">
-        <v>11.99989298553965</v>
+        <v>7.776935099448107</v>
       </c>
       <c r="G113">
-        <v>1119379855968706</v>
+        <v>493643691171248.1</v>
       </c>
       <c r="H113">
-        <v>56.30185855801113</v>
+        <v>20.20094842352219</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114">
-        <v>141744875685012.5</v>
+        <v>177238072400887.8</v>
       </c>
       <c r="B114">
-        <v>7.444073123858326</v>
+        <v>7.446448132555552</v>
       </c>
       <c r="C114">
-        <v>51895524616779.83</v>
+        <v>161792750239429.9</v>
       </c>
       <c r="D114">
-        <v>2.732291948926186</v>
+        <v>6.799921766756362</v>
       </c>
       <c r="E114">
-        <v>229160612675376.4</v>
+        <v>185277322872857.1</v>
       </c>
       <c r="F114">
-        <v>12.0056644554909</v>
+        <v>7.782858931677822</v>
       </c>
       <c r="G114">
-        <v>1097885491043407</v>
+        <v>484091311570447.2</v>
       </c>
       <c r="H114">
-        <v>56.17523228622867</v>
+        <v>20.20067621953726</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115">
-        <v>137183176184091.8</v>
+        <v>171532344077170.6</v>
       </c>
       <c r="B115">
-        <v>7.350477377119714</v>
+        <v>7.352741317967995</v>
       </c>
       <c r="C115">
-        <v>50227475386943.13</v>
+        <v>156592335089511.9</v>
       </c>
       <c r="D115">
-        <v>2.700245712355763</v>
+        <v>6.7154565583929</v>
       </c>
       <c r="E115">
-        <v>221795680639985.7</v>
+        <v>179322222546878.2</v>
       </c>
       <c r="F115">
-        <v>11.84595613816082</v>
+        <v>7.684889715718628</v>
       </c>
       <c r="G115">
-        <v>1062952369128568</v>
+        <v>468572732439300.8</v>
       </c>
       <c r="H115">
-        <v>55.03197813512485</v>
+        <v>19.90568532759561</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116">
-        <v>132191405636613.2</v>
+        <v>165288821751570.6</v>
       </c>
       <c r="B116">
-        <v>7.274498045345902</v>
+        <v>7.276656775530815</v>
       </c>
       <c r="C116">
-        <v>48402006787565.97</v>
+        <v>150901139416090.5</v>
       </c>
       <c r="D116">
-        <v>2.672608551095207</v>
+        <v>6.646392202806034</v>
       </c>
       <c r="E116">
-        <v>213735630633187.7</v>
+        <v>172805106869132.6</v>
       </c>
       <c r="F116">
-        <v>11.72342977146896</v>
+        <v>7.605771475746923</v>
       </c>
       <c r="G116">
-        <v>1024695755592418</v>
+        <v>451586484507650.6</v>
       </c>
       <c r="H116">
-        <v>54.45225833178319</v>
+        <v>19.69960647887683</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117">
-        <v>127720771404023</v>
+        <v>159697236903314.2</v>
       </c>
       <c r="B117">
-        <v>7.214314851631344</v>
+        <v>7.216385538279143</v>
       </c>
       <c r="C117">
-        <v>46766975371880.7</v>
+        <v>145803662679415.4</v>
       </c>
       <c r="D117">
-        <v>2.649775865366254</v>
+        <v>6.591385486935556</v>
       </c>
       <c r="E117">
-        <v>206516366560055.3</v>
+        <v>166967860806184.8</v>
       </c>
       <c r="F117">
-        <v>11.63044894617674</v>
+        <v>7.543321980016986</v>
       </c>
       <c r="G117">
-        <v>990406410423882.1</v>
+        <v>436369504716976.6</v>
       </c>
       <c r="H117">
-        <v>54.19171587789847</v>
+        <v>19.55544882859197</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118">
-        <v>123821899712200</v>
+        <v>154820868396764.1</v>
       </c>
       <c r="B118">
-        <v>7.142149822227317</v>
+        <v>7.144142173964172</v>
       </c>
       <c r="C118">
-        <v>45340944843436.73</v>
+        <v>141357780248780.2</v>
       </c>
       <c r="D118">
-        <v>2.621337277892182</v>
+        <v>6.524985013065519</v>
       </c>
       <c r="E118">
-        <v>200219873811233.4</v>
+        <v>161876762745817.6</v>
       </c>
       <c r="F118">
-        <v>11.52312853759668</v>
+        <v>7.4685383661165</v>
       </c>
       <c r="G118">
-        <v>960481816554886.5</v>
+        <v>423095519574287.6</v>
       </c>
       <c r="H118">
-        <v>54.0906728391017</v>
+        <v>19.40221236825848</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119">
-        <v>121579645857511.2</v>
+        <v>152016491815364.8</v>
       </c>
       <c r="B119">
-        <v>7.177197692220719</v>
+        <v>7.179163253231209</v>
       </c>
       <c r="C119">
-        <v>44520784407634.88</v>
+        <v>138800796510281.8</v>
       </c>
       <c r="D119">
-        <v>2.634505893912702</v>
+        <v>6.557222614220496</v>
       </c>
       <c r="E119">
-        <v>196598520118159.2</v>
+        <v>158948689089209.3</v>
       </c>
       <c r="F119">
-        <v>11.5788577133573</v>
+        <v>7.505291341703907</v>
       </c>
       <c r="G119">
-        <v>943263376883707.2</v>
+        <v>415460277658099</v>
       </c>
       <c r="H119">
-        <v>54.3119129586111</v>
+        <v>19.49359683966446</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120">
-        <v>117572730212638.4</v>
+        <v>147005131576883.3</v>
       </c>
       <c r="B120">
-        <v>7.140929685608152</v>
+        <v>7.142819435853291</v>
       </c>
       <c r="C120">
-        <v>43055071812267.73</v>
+        <v>134231198772978.1</v>
       </c>
       <c r="D120">
-        <v>2.621887141635111</v>
+        <v>6.524529082102738</v>
       </c>
       <c r="E120">
-        <v>190126747767380.8</v>
+        <v>153715908146150.8</v>
       </c>
       <c r="F120">
-        <v>11.51826096412521</v>
+        <v>7.46752138771441</v>
       </c>
       <c r="G120">
-        <v>912478112679800.1</v>
+        <v>401813654112516.4</v>
       </c>
       <c r="H120">
-        <v>53.92839320235635</v>
+        <v>19.38533587125307</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121">
-        <v>114928324350032.1</v>
+        <v>143697881693910.5</v>
       </c>
       <c r="B121">
-        <v>7.159264673080004</v>
+        <v>7.161119206502271</v>
       </c>
       <c r="C121">
-        <v>42087701175750.97</v>
+        <v>131215263257561.6</v>
       </c>
       <c r="D121">
-        <v>2.627628007819454</v>
+        <v>6.541075277512582</v>
       </c>
       <c r="E121">
-        <v>185855352679290.1</v>
+        <v>150262266891692.5</v>
       </c>
       <c r="F121">
-        <v>11.55260493053703</v>
+        <v>7.487088195289721</v>
       </c>
       <c r="G121">
-        <v>892149911562149.1</v>
+        <v>392805722450741.3</v>
       </c>
       <c r="H121">
-        <v>54.30066551538465</v>
+        <v>19.45755352652429</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122">
-        <v>112075939146819.6</v>
+        <v>140130564885965.2</v>
       </c>
       <c r="B122">
-        <v>7.11366157267009</v>
+        <v>7.11545572173512</v>
       </c>
       <c r="C122">
-        <v>41044196033644.37</v>
+        <v>127961966020908.9</v>
       </c>
       <c r="D122">
-        <v>2.612328368593096</v>
+        <v>6.500046610756038</v>
       </c>
       <c r="E122">
-        <v>181247766724764.8</v>
+        <v>146536811202364.2</v>
       </c>
       <c r="F122">
-        <v>11.4735217618143</v>
+        <v>7.439316385565652</v>
       </c>
       <c r="G122">
-        <v>870212978211502.4</v>
+        <v>383087811941739.3</v>
       </c>
       <c r="H122">
-        <v>53.6769973931982</v>
+        <v>19.30780691798807</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123">
-        <v>108264325462912</v>
+        <v>135363667063840.7</v>
       </c>
       <c r="B123">
-        <v>7.048230548032619</v>
+        <v>7.049943267804561</v>
       </c>
       <c r="C123">
-        <v>39649686392869.93</v>
+        <v>123614355091404.1</v>
       </c>
       <c r="D123">
-        <v>2.590579862924927</v>
+        <v>6.441229893838327</v>
       </c>
       <c r="E123">
-        <v>175090289571002.9</v>
+        <v>141558214820786.2</v>
       </c>
       <c r="F123">
-        <v>11.35914059552928</v>
+        <v>7.370707540188389</v>
       </c>
       <c r="G123">
-        <v>840882750350997</v>
+        <v>370099409054420.1</v>
       </c>
       <c r="H123">
-        <v>52.74250274909944</v>
+        <v>19.08874641145227</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124">
-        <v>103585416836574.9</v>
+        <v>129512221143095.2</v>
       </c>
       <c r="B124">
-        <v>6.956301136035455</v>
+        <v>6.957921099179589</v>
       </c>
       <c r="C124">
-        <v>37937738171146.62</v>
+        <v>118277077684431.8</v>
       </c>
       <c r="D124">
-        <v>2.555530655682767</v>
+        <v>6.357017647144708</v>
       </c>
       <c r="E124">
-        <v>167531103825247.2</v>
+        <v>135446307301856.3</v>
       </c>
       <c r="F124">
-        <v>11.21728999256904</v>
+        <v>7.275161055011315</v>
       </c>
       <c r="G124">
-        <v>804853472545326.6</v>
+        <v>354151779560099.1</v>
       </c>
       <c r="H124">
-        <v>52.3581585677409</v>
+        <v>18.86939000837524</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125">
-        <v>101256563401265.3</v>
+        <v>126599801785142.6</v>
       </c>
       <c r="B125">
-        <v>6.968646468091259</v>
+        <v>6.970238076220826</v>
       </c>
       <c r="C125">
-        <v>37085588651215.28</v>
+        <v>115620362766083.7</v>
       </c>
       <c r="D125">
-        <v>2.557571350503425</v>
+        <v>6.367560436243209</v>
       </c>
       <c r="E125">
-        <v>163768376412381.6</v>
+        <v>132404003553972</v>
       </c>
       <c r="F125">
-        <v>11.24826901533203</v>
+        <v>7.288742269529048</v>
       </c>
       <c r="G125">
-        <v>786910081103941.2</v>
+        <v>346212516969878.4</v>
       </c>
       <c r="H125">
-        <v>52.99948694209826</v>
+        <v>18.9549543322656</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126">
-        <v>98969063770670.89</v>
+        <v>123739128559584.8</v>
       </c>
       <c r="B126">
-        <v>6.958156745278441</v>
+        <v>6.959708879938939</v>
       </c>
       <c r="C126">
-        <v>36248535852872.1</v>
+        <v>113010714336096.2</v>
       </c>
       <c r="D126">
-        <v>2.554434658937403</v>
+        <v>6.358332519183827</v>
       </c>
       <c r="E126">
-        <v>160072295294078.2</v>
+        <v>129415594594844.4</v>
       </c>
       <c r="F126">
-        <v>11.2287815119083</v>
+        <v>7.277790314145519</v>
       </c>
       <c r="G126">
-        <v>769278588495519.8</v>
+        <v>338413210352352.9</v>
       </c>
       <c r="H126">
-        <v>52.78817014135796</v>
+        <v>18.91440819805336</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127">
-        <v>96172936554513.97</v>
+        <v>120242422285511.4</v>
       </c>
       <c r="B127">
-        <v>6.963086016586109</v>
+        <v>6.964593021842953</v>
       </c>
       <c r="C127">
-        <v>35225316461808.51</v>
+        <v>109820661232269.1</v>
       </c>
       <c r="D127">
-        <v>2.557605155563112</v>
+        <v>6.363440233406124</v>
       </c>
       <c r="E127">
-        <v>155554159681975</v>
+        <v>125762538099956.6</v>
       </c>
       <c r="F127">
-        <v>11.231540030905</v>
+        <v>7.282871022703332</v>
       </c>
       <c r="G127">
-        <v>747717659017185</v>
+        <v>328878343844436.4</v>
       </c>
       <c r="H127">
-        <v>52.56250263517273</v>
+        <v>18.90339478691772</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128">
-        <v>92957555536886.45</v>
+        <v>116221471433343.1</v>
       </c>
       <c r="B128">
-        <v>6.926989543610075</v>
+        <v>6.928437742872003</v>
       </c>
       <c r="C128">
-        <v>34048610512007.62</v>
+        <v>106152088783156.1</v>
       </c>
       <c r="D128">
-        <v>2.544926239734909</v>
+        <v>6.330808272492704</v>
       </c>
       <c r="E128">
-        <v>150358261312233.4</v>
+        <v>121561504955335.5</v>
       </c>
       <c r="F128">
-        <v>11.17152318358143</v>
+        <v>7.245228667387203</v>
       </c>
       <c r="G128">
-        <v>722911535910901.1</v>
+        <v>317911937684160.6</v>
       </c>
       <c r="H128">
-        <v>52.19674376089292</v>
+        <v>18.79700718687334</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129">
-        <v>89922868294402.31</v>
+        <v>112426538370273.7</v>
       </c>
       <c r="B129">
-        <v>6.839991297854607</v>
+        <v>6.841373803977875</v>
       </c>
       <c r="C129">
-        <v>32937968601925.62</v>
+        <v>102689481737745.5</v>
       </c>
       <c r="D129">
-        <v>2.513575629512407</v>
+        <v>6.251653342160636</v>
       </c>
       <c r="E129">
-        <v>145454051504772.8</v>
+        <v>117596326214417.5</v>
       </c>
       <c r="F129">
-        <v>11.02924136775535</v>
+        <v>7.154322655731264</v>
       </c>
       <c r="G129">
-        <v>699487326193447</v>
+        <v>307559968378987.2</v>
       </c>
       <c r="H129">
-        <v>51.43933799957766</v>
+        <v>18.55167894928221</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130">
-        <v>86398768750010.92</v>
+        <v>108019651481625.8</v>
       </c>
       <c r="B130">
-        <v>6.732845035251062</v>
+        <v>6.734155834814787</v>
       </c>
       <c r="C130">
-        <v>31648133720647.25</v>
+        <v>98668211419393.25</v>
       </c>
       <c r="D130">
-        <v>2.472275465192229</v>
+        <v>6.153235121394642</v>
       </c>
       <c r="E130">
-        <v>139758556175588.2</v>
+        <v>112991392222860.2</v>
       </c>
       <c r="F130">
-        <v>10.86535611474005</v>
+        <v>7.042888591669436</v>
       </c>
       <c r="G130">
-        <v>672270659605662.5</v>
+        <v>295536266835965.2</v>
       </c>
       <c r="H130">
-        <v>51.07090716466484</v>
+        <v>18.30287891359657</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131">
-        <v>85117573239911.02</v>
+        <v>106417533769103.7</v>
       </c>
       <c r="B131">
-        <v>6.839040402185156</v>
+        <v>6.840353631404304</v>
       </c>
       <c r="C131">
-        <v>31179190474530.43</v>
+        <v>97206204472634.06</v>
       </c>
       <c r="D131">
-        <v>2.510539343829207</v>
+        <v>6.250100676148058</v>
       </c>
       <c r="E131">
-        <v>137687845486402.3</v>
+        <v>111317181950248</v>
       </c>
       <c r="F131">
-        <v>11.04010031148911</v>
+        <v>7.154212305927921</v>
       </c>
       <c r="G131">
-        <v>662372032669025.2</v>
+        <v>291164421684329.6</v>
       </c>
       <c r="H131">
-        <v>52.04368223066332</v>
+        <v>18.60743545843909</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132">
-        <v>82316604623688.53</v>
+        <v>102914992636384.1</v>
       </c>
       <c r="B132">
-        <v>6.783216481846729</v>
+        <v>6.784473458183195</v>
       </c>
       <c r="C132">
-        <v>30153941837537.44</v>
+        <v>94009824864117.88</v>
       </c>
       <c r="D132">
-        <v>2.491754800790794</v>
+        <v>6.199801794650141</v>
       </c>
       <c r="E132">
-        <v>133160643894396.2</v>
+        <v>107656860062977.9</v>
       </c>
       <c r="F132">
-        <v>10.94329453466853</v>
+        <v>7.095664276168816</v>
       </c>
       <c r="G132">
-        <v>640724189566467.4</v>
+        <v>281605519259782.5</v>
       </c>
       <c r="H132">
-        <v>51.27984887953404</v>
+        <v>18.4240772297462</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133">
-        <v>79906772596688.34</v>
+        <v>99901593558934.97</v>
       </c>
       <c r="B133">
-        <v>6.720340695235719</v>
+        <v>6.721548554922884</v>
       </c>
       <c r="C133">
-        <v>29271820641316.02</v>
+        <v>91259668363435.52</v>
       </c>
       <c r="D133">
-        <v>2.469451031659114</v>
+        <v>6.142718645884005</v>
       </c>
       <c r="E133">
-        <v>129265434609573.8</v>
+        <v>104507525517846.1</v>
       </c>
       <c r="F133">
-        <v>10.83897417560503</v>
+        <v>7.029897052979322</v>
       </c>
       <c r="G133">
-        <v>622091281115564</v>
+        <v>273380234721964.3</v>
       </c>
       <c r="H133">
-        <v>50.65780857066626</v>
+        <v>18.23975891460625</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134">
-        <v>76664504099309.41</v>
+        <v>95847317670645.97</v>
       </c>
       <c r="B134">
-        <v>6.609201335728979</v>
+        <v>6.610339097607056</v>
       </c>
       <c r="C134">
-        <v>28084924463633.6</v>
+        <v>87559326219214.95</v>
       </c>
       <c r="D134">
-        <v>2.429979577907152</v>
+        <v>6.041749261450631</v>
       </c>
       <c r="E134">
-        <v>124024396257189.4</v>
+        <v>100270083480608.8</v>
       </c>
       <c r="F134">
-        <v>10.65456515084207</v>
+        <v>6.913580224124793</v>
       </c>
       <c r="G134">
-        <v>597010196995214</v>
+        <v>262311882418581.6</v>
       </c>
       <c r="H134">
-        <v>49.56132798952095</v>
+        <v>17.91392916126599</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135">
-        <v>73442929750358</v>
+        <v>91818977619826.55</v>
       </c>
       <c r="B135">
-        <v>6.535158971992804</v>
+        <v>6.536240466830448</v>
       </c>
       <c r="C135">
-        <v>26905534621525.7</v>
+        <v>83882386298708.09</v>
       </c>
       <c r="D135">
-        <v>2.400155267041103</v>
+        <v>5.973328811986478</v>
       </c>
       <c r="E135">
-        <v>118816475660493.7</v>
+        <v>96059434923541.28</v>
       </c>
       <c r="F135">
-        <v>10.54687297726085</v>
+        <v>6.836876304486764</v>
       </c>
       <c r="G135">
-        <v>572075835723695.8</v>
+        <v>251312151990888.7</v>
       </c>
       <c r="H135">
-        <v>49.58148791893765</v>
+        <v>17.76813417634706</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136">
-        <v>72321080043713.61</v>
+        <v>90416201472788.59</v>
       </c>
       <c r="B136">
-        <v>6.597111763971485</v>
+        <v>6.598188291848434</v>
       </c>
       <c r="C136">
-        <v>26494819191444.92</v>
+        <v>82601914052030.91</v>
       </c>
       <c r="D136">
-        <v>2.42204993900785</v>
+        <v>6.029715172264431</v>
       </c>
       <c r="E136">
-        <v>117002841951433.1</v>
+        <v>94593100551300.72</v>
       </c>
       <c r="F136">
-        <v>10.65073051305828</v>
+        <v>6.901940577526394</v>
       </c>
       <c r="G136">
-        <v>563389807767032.2</v>
+        <v>247481239328625.1</v>
       </c>
       <c r="H136">
-        <v>50.24483845543126</v>
+        <v>17.95483823310056</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137">
-        <v>69819906140402.12</v>
+        <v>87288725234756.75</v>
       </c>
       <c r="B137">
-        <v>6.500365227101475</v>
+        <v>6.501387028682811</v>
       </c>
       <c r="C137">
-        <v>25579095379425.54</v>
+        <v>79746995923725.75</v>
       </c>
       <c r="D137">
-        <v>2.388213375999507</v>
+        <v>5.941977978668193</v>
       </c>
       <c r="E137">
-        <v>112959184175282.4</v>
+        <v>91323785122313.72</v>
       </c>
       <c r="F137">
-        <v>10.48786687443566</v>
+        <v>6.800547256255503</v>
       </c>
       <c r="G137">
-        <v>544018408812372.9</v>
+        <v>238939304509799</v>
       </c>
       <c r="H137">
-        <v>49.16978646469175</v>
+        <v>17.66012577270391</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138">
-        <v>67645897015382.12</v>
+        <v>84570365720926.64</v>
       </c>
       <c r="B138">
-        <v>6.467765284138511</v>
+        <v>6.468749280609329</v>
       </c>
       <c r="C138">
-        <v>24783118583104.33</v>
+        <v>77265408620108.11</v>
       </c>
       <c r="D138">
-        <v>2.377151400513741</v>
+        <v>5.912588965047624</v>
       </c>
       <c r="E138">
-        <v>109444292024317.7</v>
+        <v>88481987555505.02</v>
       </c>
       <c r="F138">
-        <v>10.43180239107091</v>
+        <v>6.766398931088274</v>
       </c>
       <c r="G138">
-        <v>527174341562841.2</v>
+        <v>231513704788502.4</v>
       </c>
       <c r="H138">
-        <v>48.74771375454354</v>
+        <v>17.55526642476614</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139">
-        <v>64680802401114.41</v>
+        <v>80862883899093.7</v>
       </c>
       <c r="B139">
-        <v>6.357226330728089</v>
+        <v>6.358150706638321</v>
       </c>
       <c r="C139">
-        <v>23697448531996.23</v>
+        <v>73880655412226.16</v>
       </c>
       <c r="D139">
-        <v>2.336863784392987</v>
+        <v>5.811787832605683</v>
       </c>
       <c r="E139">
-        <v>104650145158082.5</v>
+        <v>84605922630672.81</v>
       </c>
       <c r="F139">
-        <v>10.2526380831151</v>
+        <v>6.65088103046608</v>
       </c>
       <c r="G139">
-        <v>504191196615050.2</v>
+        <v>221384571545748.1</v>
       </c>
       <c r="H139">
-        <v>47.86747159730956</v>
+        <v>17.25113907463561</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140">
-        <v>62461544083705.77</v>
+        <v>78088010147013.86</v>
       </c>
       <c r="B140">
-        <v>6.292874534308542</v>
+        <v>6.293759311481835</v>
       </c>
       <c r="C140">
-        <v>22884828367626.93</v>
+        <v>71347179698006.02</v>
       </c>
       <c r="D140">
-        <v>2.312380681455743</v>
+        <v>5.752775232546247</v>
       </c>
       <c r="E140">
-        <v>101061727638475.5</v>
+        <v>81704698781405.72</v>
       </c>
       <c r="F140">
-        <v>10.15278613879713</v>
+        <v>6.583870087172649</v>
       </c>
       <c r="G140">
-        <v>486981796066324.8</v>
+        <v>213802188668564.1</v>
       </c>
       <c r="H140">
-        <v>47.5754666673041</v>
+        <v>17.0950184187496</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141">
-        <v>60199130886713.23</v>
+        <v>75259205952694.2</v>
       </c>
       <c r="B141">
-        <v>6.216879580671598</v>
+        <v>6.217723547233626</v>
       </c>
       <c r="C141">
-        <v>22056372587551.3</v>
+        <v>68764333872667.74</v>
       </c>
       <c r="D141">
-        <v>2.283173861204579</v>
+        <v>5.682967636948577</v>
       </c>
       <c r="E141">
-        <v>97403368429378.97</v>
+        <v>78746935771924.78</v>
       </c>
       <c r="F141">
-        <v>10.03605257539189</v>
+        <v>6.50476980988392</v>
       </c>
       <c r="G141">
-        <v>469431214512262</v>
+        <v>206071374666221.2</v>
       </c>
       <c r="H141">
-        <v>47.29300176174308</v>
+        <v>16.91627433679703</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142">
-        <v>58954494189703</v>
+        <v>73702989109449.11</v>
       </c>
       <c r="B142">
-        <v>6.246595246007845</v>
+        <v>6.247427118688422</v>
       </c>
       <c r="C142">
-        <v>21600594086732.82</v>
+        <v>67343370163523.85</v>
       </c>
       <c r="D142">
-        <v>2.292958702629375</v>
+        <v>5.70980305238327</v>
       </c>
       <c r="E142">
-        <v>95390700471254.41</v>
+        <v>77119708602533.98</v>
       </c>
       <c r="F142">
-        <v>10.08906731719633</v>
+        <v>6.536174027568902</v>
       </c>
       <c r="G142">
-        <v>459773179967397.8</v>
+        <v>201817944628010.4</v>
       </c>
       <c r="H142">
-        <v>47.77320555485718</v>
+        <v>17.0209525257239</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143">
-        <v>57510768509581.04</v>
+        <v>71897854699517.91</v>
       </c>
       <c r="B143">
-        <v>6.224189880245608</v>
+        <v>6.224997046251122</v>
       </c>
       <c r="C143">
-        <v>21071897489380.51</v>
+        <v>65695072412233.75</v>
       </c>
       <c r="D143">
-        <v>2.286074406444095</v>
+        <v>5.68984222781096</v>
       </c>
       <c r="E143">
-        <v>93056028893341.94</v>
+        <v>75232147128028.38</v>
       </c>
       <c r="F143">
-        <v>10.04743539726256</v>
+        <v>6.512546601921094</v>
       </c>
       <c r="G143">
-        <v>448567766691037.1</v>
+        <v>196883768576086.7</v>
       </c>
       <c r="H143">
-        <v>47.32400157894818</v>
+        <v>16.93421194356524</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144">
-        <v>55508530671699.67</v>
+        <v>69394414998685.05</v>
       </c>
       <c r="B144">
-        <v>6.147629389584362</v>
+        <v>6.148398786490995</v>
       </c>
       <c r="C144">
-        <v>20338649153616.07</v>
+        <v>63409051301013.43</v>
       </c>
       <c r="D144">
-        <v>2.258043079710601</v>
+        <v>5.619972296532134</v>
       </c>
       <c r="E144">
-        <v>89818067785024.16</v>
+        <v>72614289761336.03</v>
       </c>
       <c r="F144">
-        <v>9.923840438456242</v>
+        <v>6.432548345387475</v>
       </c>
       <c r="G144">
-        <v>433023033178103.7</v>
+        <v>190040111002829.2</v>
       </c>
       <c r="H144">
-        <v>46.73916323943837</v>
+        <v>16.7259002793774</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145">
-        <v>54114185350736.9</v>
+        <v>67651049406503.07</v>
       </c>
       <c r="B145">
-        <v>6.13713836772269</v>
+        <v>6.137887397310931</v>
       </c>
       <c r="C145">
-        <v>19828004065118.68</v>
+        <v>61817032068635.59</v>
       </c>
       <c r="D145">
-        <v>2.254060378162146</v>
+        <v>5.610398586647854</v>
       </c>
       <c r="E145">
-        <v>87563096871408.27</v>
+        <v>70791173543882.88</v>
       </c>
       <c r="F145">
-        <v>9.907712170026036</v>
+        <v>6.421685906988663</v>
       </c>
       <c r="G145">
-        <v>422194724624043.2</v>
+        <v>185273771305362.3</v>
       </c>
       <c r="H145">
-        <v>46.69831303024758</v>
+        <v>16.70117293715431</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146">
-        <v>52286413469893.05</v>
+        <v>65365782420949.23</v>
       </c>
       <c r="B146">
-        <v>6.047983564305452</v>
+        <v>6.048695621622898</v>
       </c>
       <c r="C146">
-        <v>19158607447081.71</v>
+        <v>59730079086987.62</v>
       </c>
       <c r="D146">
-        <v>2.222505366147039</v>
+        <v>5.529377966836016</v>
       </c>
       <c r="E146">
-        <v>84607082926778</v>
+        <v>68401277587914.64</v>
       </c>
       <c r="F146">
-        <v>9.759048013712135</v>
+        <v>6.328266106811694</v>
       </c>
       <c r="G146">
-        <v>407996675919553.1</v>
+        <v>179025260489674.3</v>
       </c>
       <c r="H146">
-        <v>45.77970560909754</v>
+        <v>16.43625342596929</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147">
-        <v>50265850898664.2</v>
+        <v>62839490879400.92</v>
       </c>
       <c r="B147">
-        <v>5.974591235358383</v>
+        <v>5.975268234757583</v>
       </c>
       <c r="C147">
-        <v>18418577996866.97</v>
+        <v>57422916747025.42</v>
       </c>
       <c r="D147">
-        <v>2.194763470875065</v>
+        <v>5.462103384651746</v>
       </c>
       <c r="E147">
-        <v>81339148177135.16</v>
+        <v>65759204517387.61</v>
       </c>
       <c r="F147">
-        <v>9.64426909652944</v>
+        <v>6.251756711096319</v>
       </c>
       <c r="G147">
-        <v>392296011963861.9</v>
+        <v>172116908100486.8</v>
       </c>
       <c r="H147">
-        <v>45.4049805406198</v>
+        <v>16.25400695560691</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148">
-        <v>49019315739942.76</v>
+        <v>61280970524406.72</v>
       </c>
       <c r="B148">
-        <v>6.010710330929223</v>
+        <v>6.011374940146796</v>
       </c>
       <c r="C148">
-        <v>17962021930836.25</v>
+        <v>55999528851690.02</v>
       </c>
       <c r="D148">
-        <v>2.207714134016209</v>
+        <v>5.495069709189718</v>
       </c>
       <c r="E148">
-        <v>79323012817469.98</v>
+        <v>64129194670600.14</v>
       </c>
       <c r="F148">
-        <v>9.704150553970324</v>
+        <v>6.289694158780891</v>
       </c>
       <c r="G148">
-        <v>382607249317493.3</v>
+        <v>167854577185842.9</v>
       </c>
       <c r="H148">
-        <v>45.75750067417859</v>
+        <v>16.35971965467504</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149">
-        <v>47293317623494.72</v>
+        <v>59123000856934.2</v>
       </c>
       <c r="B149">
-        <v>5.962813239500582</v>
+        <v>5.963450826257197</v>
       </c>
       <c r="C149">
-        <v>17329840657176.7</v>
+        <v>54028600767417.94</v>
       </c>
       <c r="D149">
-        <v>2.188482010632245</v>
+        <v>5.450799056865433</v>
       </c>
       <c r="E149">
-        <v>76531315788844.64</v>
+        <v>61872161192691.87</v>
       </c>
       <c r="F149">
-        <v>9.634132327858049</v>
+        <v>6.24002027477337</v>
       </c>
       <c r="G149">
-        <v>369188515039417.5</v>
+        <v>161952297848657.3</v>
       </c>
       <c r="H149">
-        <v>45.76335269290194</v>
+        <v>16.26392110019672</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150">
-        <v>47060536570721.2</v>
+        <v>58831962173583.74</v>
       </c>
       <c r="B150">
-        <v>6.052222018546622</v>
+        <v>6.052865665726318</v>
       </c>
       <c r="C150">
-        <v>17244578431744.12</v>
+        <v>53762781892936.21</v>
       </c>
       <c r="D150">
-        <v>2.221776943417493</v>
+        <v>5.532703007975006</v>
       </c>
       <c r="E150">
-        <v>76154799266917.95</v>
+        <v>61567755190679.19</v>
       </c>
       <c r="F150">
-        <v>9.776579773903661</v>
+        <v>6.333500174415676</v>
       </c>
       <c r="G150">
-        <v>367378468764943.5</v>
+        <v>161156227719480.1</v>
       </c>
       <c r="H150">
-        <v>46.34609068514285</v>
+        <v>16.49827487430146</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151">
-        <v>45117173177601.58</v>
+        <v>56402249254133.02</v>
       </c>
       <c r="B151">
-        <v>5.947211155537441</v>
+        <v>5.94781587814517</v>
       </c>
       <c r="C151">
-        <v>16532756052392.26</v>
+        <v>51543559690486.89</v>
       </c>
       <c r="D151">
-        <v>2.185030063221834</v>
+        <v>5.437399873214298</v>
       </c>
       <c r="E151">
-        <v>73011398109278.5</v>
+        <v>59026382388223.23</v>
       </c>
       <c r="F151">
-        <v>9.599607477502069</v>
+        <v>6.223355551612189</v>
       </c>
       <c r="G151">
-        <v>352264630937513.5</v>
+        <v>154509855324942.7</v>
       </c>
       <c r="H151">
-        <v>45.16730013131764</v>
+        <v>16.17736945657231</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152">
-        <v>43995779880514.52</v>
+        <v>55000223853891.2</v>
       </c>
       <c r="B152">
-        <v>5.985753444000228</v>
+        <v>5.986349554933269</v>
       </c>
       <c r="C152">
-        <v>16121996505696.04</v>
+        <v>50262949903075.77</v>
       </c>
       <c r="D152">
-        <v>2.196225566968166</v>
+        <v>5.471680933591837</v>
       </c>
       <c r="E152">
-        <v>71197482998279.58</v>
+        <v>57559873575107.48</v>
       </c>
       <c r="F152">
-        <v>9.674684654717026</v>
+        <v>6.264371741224783</v>
       </c>
       <c r="G152">
-        <v>343541155717181.9</v>
+        <v>150674314843142.6</v>
       </c>
       <c r="H152">
-        <v>46.11503498119098</v>
+        <v>16.34303695602786</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153">
-        <v>43683638687866.11</v>
+        <v>54609969642049.88</v>
       </c>
       <c r="B153">
-        <v>6.033985315947271</v>
+        <v>6.034581960189892</v>
       </c>
       <c r="C153">
-        <v>16007659595783.68</v>
+        <v>49906485964321.84</v>
       </c>
       <c r="D153">
-        <v>2.213992998750755</v>
+        <v>5.515807842281437</v>
       </c>
       <c r="E153">
-        <v>70692570328748.53</v>
+        <v>57151663622557.85</v>
       </c>
       <c r="F153">
-        <v>9.752394491068001</v>
+        <v>6.3148532954836</v>
       </c>
       <c r="G153">
-        <v>341112675820949.7</v>
+        <v>149606643814374.4</v>
       </c>
       <c r="H153">
-        <v>46.47342272499975</v>
+        <v>16.473557901318</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154">
-        <v>42551357353489.97</v>
+        <v>53194340682785.31</v>
       </c>
       <c r="B154">
-        <v>5.91965102940615</v>
+        <v>5.920219477440148</v>
       </c>
       <c r="C154">
-        <v>15592900984440.51</v>
+        <v>48613408441544.48</v>
       </c>
       <c r="D154">
-        <v>2.174135671536428</v>
+        <v>5.412049977483679</v>
       </c>
       <c r="E154">
-        <v>68860990895507.17</v>
+        <v>55670876333000.5</v>
       </c>
       <c r="F154">
-        <v>9.558853540494741</v>
+        <v>6.194831745046029</v>
       </c>
       <c r="G154">
-        <v>332302389396856.3</v>
+        <v>145733544663889.7</v>
       </c>
       <c r="H154">
-        <v>45.14349048888169</v>
+        <v>16.12003225001708</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155">
-        <v>41195780348429.4</v>
+        <v>51499547017399.29</v>
       </c>
       <c r="B155">
-        <v>5.859697143544149</v>
+        <v>5.860242446357956</v>
       </c>
       <c r="C155">
-        <v>15096337165900.26</v>
+        <v>47065289861680.6</v>
       </c>
       <c r="D155">
-        <v>2.151445064528033</v>
+        <v>5.357066490253922</v>
       </c>
       <c r="E155">
-        <v>66668154002154.69</v>
+        <v>53898024018700.91</v>
       </c>
       <c r="F155">
-        <v>9.465146343463235</v>
+        <v>6.132312498351585</v>
       </c>
       <c r="G155">
-        <v>321752451997123.2</v>
+        <v>141096307768380.1</v>
       </c>
       <c r="H155">
-        <v>44.84277651303216</v>
+        <v>15.97145249559128</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156">
-        <v>40468397565868.99</v>
+        <v>50590149837264.83</v>
       </c>
       <c r="B156">
-        <v>5.910058575743954</v>
+        <v>5.910599732448662</v>
       </c>
       <c r="C156">
-        <v>14829883245883.99</v>
+        <v>46234576368564.26</v>
       </c>
       <c r="D156">
-        <v>2.168880346871061</v>
+        <v>5.402780972137567</v>
       </c>
       <c r="E156">
-        <v>65491485484685.38</v>
+        <v>52946719006586.27</v>
       </c>
       <c r="F156">
-        <v>9.551137339204102</v>
+        <v>6.185280711688538</v>
       </c>
       <c r="G156">
-        <v>316090527451306</v>
+        <v>138607886444100.9</v>
       </c>
       <c r="H156">
-        <v>45.4655208252517</v>
+        <v>16.1306968795333</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157">
-        <v>39686191152091.65</v>
+        <v>49612213752748.98</v>
       </c>
       <c r="B157">
-        <v>5.886311205954234</v>
+        <v>5.886839932340307</v>
       </c>
       <c r="C157">
-        <v>14543342474467.04</v>
+        <v>45341238844652.12</v>
       </c>
       <c r="D157">
-        <v>2.159972817900491</v>
+        <v>5.381039506368377</v>
       </c>
       <c r="E157">
-        <v>64226111217469.5</v>
+        <v>51923698756311.08</v>
       </c>
       <c r="F157">
-        <v>9.513723745225118</v>
+        <v>6.160515343763135</v>
       </c>
       <c r="G157">
-        <v>310001091531040.8</v>
+        <v>135931794840999.6</v>
       </c>
       <c r="H157">
-        <v>45.3316793103379</v>
+        <v>16.07045668153576</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158">
-        <v>39081882574241.67</v>
+        <v>48856692838245.55</v>
       </c>
       <c r="B158">
-        <v>5.908009322798248</v>
+        <v>5.908531479909654</v>
       </c>
       <c r="C158">
-        <v>14321967113356.25</v>
+        <v>44651065100888.09</v>
       </c>
       <c r="D158">
-        <v>2.168554164941509</v>
+        <v>5.401110418804845</v>
       </c>
       <c r="E158">
-        <v>63248508583828.64</v>
+        <v>51133334647756.09</v>
       </c>
       <c r="F158">
-        <v>9.546250279774357</v>
+        <v>6.183132325534259</v>
       </c>
       <c r="G158">
-        <v>305296037303876.8</v>
+        <v>133864247118336.2</v>
       </c>
       <c r="H158">
-        <v>45.36697395436207</v>
+        <v>16.11765501862928</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159">
-        <v>38040813079755.28</v>
+        <v>47555127928431.8</v>
       </c>
       <c r="B159">
-        <v>5.954144906282313</v>
+        <v>5.954655319109983</v>
       </c>
       <c r="C159">
-        <v>13940588147385.71</v>
+        <v>43462054059117.2</v>
       </c>
       <c r="D159">
-        <v>2.187984669252424</v>
+        <v>5.444176666820753</v>
       </c>
       <c r="E159">
-        <v>61564321161766.91</v>
+        <v>49771718133183.61</v>
       </c>
       <c r="F159">
-        <v>9.610327966353303</v>
+        <v>6.230961614931591</v>
       </c>
       <c r="G159">
-        <v>297189317666090.3</v>
+        <v>130302222680189.1</v>
       </c>
       <c r="H159">
-        <v>45.18752255574393</v>
+        <v>16.19405796712848</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160">
-        <v>36381097738630.01</v>
+        <v>45480132917155.27</v>
       </c>
       <c r="B160">
-        <v>5.875767668723777</v>
+        <v>5.876251018773816</v>
       </c>
       <c r="C160">
-        <v>13332563364520.38</v>
+        <v>41566437769274.27</v>
       </c>
       <c r="D160">
-        <v>2.156800404508725</v>
+        <v>5.37177595312002</v>
       </c>
       <c r="E160">
-        <v>58879249055796.36</v>
+        <v>47600919228404.87</v>
       </c>
       <c r="F160">
-        <v>9.494288404099244</v>
+        <v>6.149537321924369</v>
       </c>
       <c r="G160">
-        <v>284262345384152.5</v>
+        <v>124623060726118.8</v>
       </c>
       <c r="H160">
-        <v>45.1232188154235</v>
+        <v>16.03036014758698</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161">
-        <v>36488480218152.64</v>
+        <v>45614383242352.65</v>
       </c>
       <c r="B161">
-        <v>5.967433177405131</v>
+        <v>5.967924919939369</v>
       </c>
       <c r="C161">
-        <v>13371902718737.74</v>
+        <v>41689084613264.57</v>
       </c>
       <c r="D161">
-        <v>2.191509890211999</v>
+        <v>5.455933340716324</v>
       </c>
       <c r="E161">
-        <v>59052974114211.14</v>
+        <v>47741370500281.96</v>
       </c>
       <c r="F161">
-        <v>9.637843927320926</v>
+        <v>6.245245353412754</v>
       </c>
       <c r="G161">
-        <v>285098820144407.6</v>
+        <v>124990515008260.2</v>
       </c>
       <c r="H161">
-        <v>45.59361200017792</v>
+        <v>16.25885829592762</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162">
-        <v>34391442253787.79</v>
+        <v>42992663586334.04</v>
       </c>
       <c r="B162">
-        <v>5.746112091685302</v>
+        <v>5.746555528215455</v>
       </c>
       <c r="C162">
-        <v>12603643212035.35</v>
+        <v>39293910474360.57</v>
       </c>
       <c r="D162">
-        <v>2.114371638611446</v>
+        <v>5.255067506345455</v>
       </c>
       <c r="E162">
-        <v>55660286200759.88</v>
+        <v>44998492006675.3</v>
       </c>
       <c r="F162">
-        <v>9.263141604257282</v>
+        <v>6.012885664135825</v>
       </c>
       <c r="G162">
-        <v>268760862720356.2</v>
+        <v>117814210804968.1</v>
       </c>
       <c r="H162">
-        <v>43.03714682442267</v>
+        <v>15.57458852320459</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163">
-        <v>32756784511964.43</v>
+        <v>40949029611403.52</v>
       </c>
       <c r="B163">
-        <v>5.697982188994106</v>
+        <v>5.698402418374325</v>
       </c>
       <c r="C163">
-        <v>12004758519816.85</v>
+        <v>37426789905759.61</v>
       </c>
       <c r="D163">
-        <v>2.094499796971748</v>
+        <v>5.210387522444877</v>
       </c>
       <c r="E163">
-        <v>53015561036845.14</v>
+        <v>42860322314844.09</v>
       </c>
       <c r="F163">
-        <v>9.195011783920101</v>
+        <v>5.96306610890916</v>
       </c>
       <c r="G163">
-        <v>256021331114365.7</v>
+        <v>112219628832004.6</v>
       </c>
       <c r="H163">
-        <v>43.14423517276342</v>
+        <v>15.48864308098003</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164">
-        <v>31730374743345.97</v>
+        <v>39665829373158.3</v>
       </c>
       <c r="B164">
-        <v>5.671901220845959</v>
+        <v>5.672308322695085</v>
       </c>
       <c r="C164">
-        <v>11628706733811.59</v>
+        <v>36254387215170.64</v>
       </c>
       <c r="D164">
-        <v>2.081887728388532</v>
+        <v>5.185557333999439</v>
       </c>
       <c r="E164">
-        <v>51354880999666.34</v>
+        <v>41517721680262.33</v>
       </c>
       <c r="F164">
-        <v>9.166011205140023</v>
+        <v>5.936462200534965</v>
       </c>
       <c r="G164">
-        <v>248020339717332.8</v>
+        <v>108706495979287.8</v>
       </c>
       <c r="H164">
-        <v>43.61079036741828</v>
+        <v>15.47959509033099</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165">
-        <v>31423595521593.29</v>
+        <v>39282300308071.66</v>
       </c>
       <c r="B165">
-        <v>5.709714410925478</v>
+        <v>5.710119840248876</v>
       </c>
       <c r="C165">
-        <v>11516308863582.74</v>
+        <v>35903968548442.3</v>
       </c>
       <c r="D165">
-        <v>2.096571384814641</v>
+        <v>5.220412559197955</v>
       </c>
       <c r="E165">
-        <v>50858520880960.31</v>
+        <v>41116432553214.83</v>
       </c>
       <c r="F165">
-        <v>9.223730547078903</v>
+        <v>5.975889233434009</v>
       </c>
       <c r="G165">
-        <v>245628691658478</v>
+        <v>107656430775183.5</v>
       </c>
       <c r="H165">
-        <v>43.72705576032391</v>
+        <v>15.56675273582882</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166">
-        <v>30096482163716.42</v>
+        <v>37623176673875.01</v>
       </c>
       <c r="B166">
-        <v>5.63370689813884</v>
+        <v>5.634088995735986</v>
       </c>
       <c r="C166">
-        <v>11030073423434.47</v>
+        <v>34388050370402.87</v>
       </c>
       <c r="D166">
-        <v>2.070373748619607</v>
+        <v>5.151550544073497</v>
       </c>
       <c r="E166">
-        <v>48711254097212.28</v>
+        <v>39380447165342.42</v>
       </c>
       <c r="F166">
-        <v>9.093864314118575</v>
+        <v>5.896059229994924</v>
       </c>
       <c r="G166">
-        <v>235281117247625.4</v>
+        <v>103113683193417</v>
       </c>
       <c r="H166">
-        <v>42.78393121634008</v>
+        <v>15.32608926261382</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167">
-        <v>29168395483083.36</v>
+        <v>36462912064386.89</v>
       </c>
       <c r="B167">
-        <v>5.661217511591099</v>
+        <v>5.661590719227807</v>
       </c>
       <c r="C167">
-        <v>10690028707419.5</v>
+        <v>33327905584995.72</v>
       </c>
       <c r="D167">
-        <v>2.078616085772477</v>
+        <v>5.176113117235998</v>
       </c>
       <c r="E167">
-        <v>47209578053183.08</v>
+        <v>38166399646314.55</v>
       </c>
       <c r="F167">
-        <v>9.146402789501133</v>
+        <v>5.925294856863468</v>
       </c>
       <c r="G167">
-        <v>228043413425238.1</v>
+        <v>99936610954061.91</v>
       </c>
       <c r="H167">
-        <v>43.4052044570184</v>
+        <v>15.43936229518601</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168">
-        <v>28639300155094.69</v>
+        <v>35801456011056.46</v>
       </c>
       <c r="B168">
-        <v>5.682313588413368</v>
+        <v>5.682682083157863</v>
       </c>
       <c r="C168">
-        <v>10496169171365.69</v>
+        <v>32723516907361.17</v>
       </c>
       <c r="D168">
-        <v>2.085163761754171</v>
+        <v>5.1950176902842</v>
       </c>
       <c r="E168">
-        <v>46353471296619.13</v>
+        <v>37474270794848.47</v>
       </c>
       <c r="F168">
-        <v>9.185706642514743</v>
+        <v>5.947656494946197</v>
       </c>
       <c r="G168">
-        <v>223916750372908.5</v>
+        <v>98125310288324.34</v>
       </c>
       <c r="H168">
-        <v>43.83557698834083</v>
+        <v>15.52163572628269</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169">
-        <v>28191958001183.28</v>
+        <v>35242206091626.64</v>
       </c>
       <c r="B169">
-        <v>5.734324322609133</v>
+        <v>5.734689767042751</v>
       </c>
       <c r="C169">
-        <v>10332262390388.08</v>
+        <v>32212510822094.92</v>
       </c>
       <c r="D169">
-        <v>2.105416295236337</v>
+        <v>5.24298108054541</v>
       </c>
       <c r="E169">
-        <v>45629638871146.9</v>
+        <v>36889080935373.3</v>
       </c>
       <c r="F169">
-        <v>9.264865015131292</v>
+        <v>6.001878577636211</v>
       </c>
       <c r="G169">
-        <v>220427434373468.3</v>
+        <v>96593840076803.25</v>
       </c>
       <c r="H169">
-        <v>43.98244072281182</v>
+        <v>15.64039934050703</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170">
-        <v>27270713145473.54</v>
+        <v>34090504858740.7</v>
       </c>
       <c r="B170">
-        <v>5.720226754103645</v>
+        <v>5.720578238134808</v>
       </c>
       <c r="C170">
-        <v>9994712808334.904</v>
+        <v>31160145023197.2</v>
       </c>
       <c r="D170">
-        <v>2.102426406127327</v>
+        <v>5.23086735359743</v>
       </c>
       <c r="E170">
-        <v>44138976842277.28</v>
+        <v>35683940754746.83</v>
       </c>
       <c r="F170">
-        <v>9.232913812473502</v>
+        <v>5.98672149424732</v>
       </c>
       <c r="G170">
-        <v>213240806343682.7</v>
+        <v>93439846690775.56</v>
       </c>
       <c r="H170">
-        <v>43.40690290419128</v>
+        <v>15.55860229340671</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171">
-        <v>26108691158711.78</v>
+        <v>32637801144724.68</v>
       </c>
       <c r="B171">
-        <v>5.641473736913507</v>
+        <v>5.641805555215424</v>
       </c>
       <c r="C171">
-        <v>9568932994381.865</v>
+        <v>29832707106255.5</v>
       </c>
       <c r="D171">
-        <v>2.073569119075061</v>
+        <v>5.158927973644825</v>
       </c>
       <c r="E171">
-        <v>42258675546974.52</v>
+        <v>34163794953246.64</v>
       </c>
       <c r="F171">
-        <v>9.105623007694325</v>
+        <v>5.904349076932358</v>
       </c>
       <c r="G171">
-        <v>204174300044764.6</v>
+        <v>89461286926639.09</v>
       </c>
       <c r="H171">
-        <v>42.79909454017074</v>
+        <v>15.34357433450441</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172">
-        <v>25225765374480.75</v>
+        <v>31534015137382.17</v>
       </c>
       <c r="B172">
-        <v>5.605087893891111</v>
+        <v>5.605406334756917</v>
       </c>
       <c r="C172">
-        <v>9245411608182.277</v>
+        <v>28824076492709.7</v>
       </c>
       <c r="D172">
-        <v>2.060471939631311</v>
+        <v>5.125782860163618</v>
       </c>
       <c r="E172">
-        <v>40829958847249.63</v>
+        <v>33008738123473.43</v>
       </c>
       <c r="F172">
-        <v>9.045863687933577</v>
+        <v>5.866260992065126</v>
       </c>
       <c r="G172">
-        <v>197284224666837.4</v>
+        <v>86438127117968.16</v>
       </c>
       <c r="H172">
-        <v>42.47017097986824</v>
+        <v>15.23975655926335</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173">
-        <v>24032751766950.93</v>
+        <v>30042581155704.7</v>
       </c>
       <c r="B173">
-        <v>5.512463157016091</v>
+        <v>5.512761519530715</v>
       </c>
       <c r="C173">
-        <v>8808259690901.285</v>
+        <v>27461184191463.7</v>
       </c>
       <c r="D173">
-        <v>2.026381420740665</v>
+        <v>5.041111838009878</v>
       </c>
       <c r="E173">
-        <v>38899430095136.49</v>
+        <v>31447989613237.91</v>
       </c>
       <c r="F173">
-        <v>8.896751940551288</v>
+        <v>5.769397009008264</v>
       </c>
       <c r="G173">
-        <v>187972707302872</v>
+        <v>82352976683892.83</v>
       </c>
       <c r="H173">
-        <v>41.78575930172071</v>
+        <v>14.98968280001572</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174">
-        <v>23235558530449.97</v>
+        <v>29045982541229.91</v>
       </c>
       <c r="B174">
-        <v>5.482652490883281</v>
+        <v>5.482939940744731</v>
       </c>
       <c r="C174">
-        <v>8516141600677.117</v>
+        <v>26550458467789.71</v>
       </c>
       <c r="D174">
-        <v>2.014289849602764</v>
+        <v>5.013499095945241</v>
       </c>
       <c r="E174">
-        <v>37609390416819.7</v>
+        <v>30405049982375.56</v>
       </c>
       <c r="F174">
-        <v>8.853602192087758</v>
+        <v>5.738478721256439</v>
       </c>
       <c r="G174">
-        <v>181749548949779.5</v>
+        <v>79623050202644.81</v>
       </c>
       <c r="H174">
-        <v>41.80962653130169</v>
+        <v>14.9320533648807</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175">
-        <v>22468990472181.16</v>
+        <v>28087672916648.79</v>
       </c>
       <c r="B175">
-        <v>5.435430781484831</v>
+        <v>5.435706280906744</v>
       </c>
       <c r="C175">
-        <v>8235241600229.858</v>
+        <v>25674706966090.39</v>
       </c>
       <c r="D175">
-        <v>1.99713915353918</v>
+        <v>4.970414753851989</v>
       </c>
       <c r="E175">
-        <v>36368889960823.15</v>
+        <v>29402161609349.01</v>
       </c>
       <c r="F175">
-        <v>8.776625796261357</v>
+        <v>5.689055245294172</v>
       </c>
       <c r="G175">
-        <v>175764679354700.8</v>
+        <v>76997880005273</v>
       </c>
       <c r="H175">
-        <v>41.41206479338076</v>
+        <v>14.80004361267099</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176">
-        <v>21651603524629.15</v>
+        <v>27065836757385.92</v>
       </c>
       <c r="B176">
-        <v>5.437138192309522</v>
+        <v>5.437404233096212</v>
       </c>
       <c r="C176">
-        <v>7935715292467.2</v>
+        <v>24740884917660.55</v>
       </c>
       <c r="D176">
-        <v>1.996606143922691</v>
+        <v>4.971616325379207</v>
       </c>
       <c r="E176">
-        <v>35046130910838.51</v>
+        <v>28332771975804.28</v>
       </c>
       <c r="F176">
-        <v>8.784474532370492</v>
+        <v>5.691131296424364</v>
       </c>
       <c r="G176">
-        <v>169382204143105</v>
+        <v>74198550016088.52</v>
       </c>
       <c r="H176">
-        <v>41.68395224651422</v>
+        <v>14.82877990567006</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177">
-        <v>21303313884912.49</v>
+        <v>26630432196035.97</v>
       </c>
       <c r="B177">
-        <v>5.518526363318119</v>
+        <v>5.518792821736371</v>
       </c>
       <c r="C177">
-        <v>7808085391281.38</v>
+        <v>24342977913576.36</v>
       </c>
       <c r="D177">
-        <v>2.024667737631967</v>
+        <v>5.045433115596754</v>
       </c>
       <c r="E177">
-        <v>34482495034978.06</v>
+        <v>27877098727145.8</v>
       </c>
       <c r="F177">
-        <v>8.923849357605954</v>
+        <v>5.776724113789152</v>
       </c>
       <c r="G177">
-        <v>166662358308603.1</v>
+        <v>73005712148909</v>
       </c>
       <c r="H177">
-        <v>42.71535587606944</v>
+        <v>15.08812171235982</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178">
-        <v>21058633679348.12</v>
+        <v>26324552485822.12</v>
       </c>
       <c r="B178">
-        <v>5.568879591129994</v>
+        <v>5.569146229178754</v>
       </c>
       <c r="C178">
-        <v>7718422434807.781</v>
+        <v>24063439043325.27</v>
       </c>
       <c r="D178">
-        <v>2.041122604631856</v>
+        <v>5.090796243122565</v>
       </c>
       <c r="E178">
-        <v>34086527602508.33</v>
+        <v>27556977695759.34</v>
       </c>
       <c r="F178">
-        <v>9.014000115563666</v>
+        <v>5.829871672893415</v>
       </c>
       <c r="G178">
-        <v>164751519360488.8</v>
+        <v>72167706288647.52</v>
       </c>
       <c r="H178">
-        <v>43.56480617909378</v>
+        <v>15.26731036544359</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179">
-        <v>21299409945706.45</v>
+        <v>26625551799424.21</v>
       </c>
       <c r="B179">
-        <v>5.795010862081959</v>
+        <v>5.795290703396599</v>
       </c>
       <c r="C179">
-        <v>7806654797563.841</v>
+        <v>24338517804660.51</v>
       </c>
       <c r="D179">
-        <v>2.125955179522232</v>
+        <v>5.298164229494536</v>
       </c>
       <c r="E179">
-        <v>34476177282045.48</v>
+        <v>27871991120483.38</v>
       </c>
       <c r="F179">
-        <v>9.371592023361101</v>
+        <v>6.066176392656057</v>
       </c>
       <c r="G179">
-        <v>166631870966972.3</v>
+        <v>72992341629540.33</v>
       </c>
       <c r="H179">
-        <v>44.88923665122428</v>
+        <v>15.84712911869045</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180">
-        <v>20534180809868.99</v>
+        <v>25668924413785.24</v>
       </c>
       <c r="B180">
-        <v>5.810457479159097</v>
+        <v>5.810727178821025</v>
       </c>
       <c r="C180">
-        <v>7526235561682.084</v>
+        <v>23464265164796.47</v>
       </c>
       <c r="D180">
-        <v>2.133560850774672</v>
+        <v>5.312973499660708</v>
       </c>
       <c r="E180">
-        <v>33237795918151.44</v>
+        <v>26870818415297.76</v>
       </c>
       <c r="F180">
-        <v>9.388395424916457</v>
+        <v>6.081985464142872</v>
       </c>
       <c r="G180">
-        <v>160655522418422.9</v>
+        <v>70371466846063.52</v>
       </c>
       <c r="H180">
-        <v>44.58423667166034</v>
+        <v>15.85059464303386</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181">
-        <v>20304622549859.22</v>
+        <v>25381949948813.19</v>
       </c>
       <c r="B181">
-        <v>5.905296577175822</v>
+        <v>5.905568473118845</v>
       </c>
       <c r="C181">
-        <v>7442112870793.974</v>
+        <v>23201998974853.61</v>
       </c>
       <c r="D181">
-        <v>2.16627883166598</v>
+        <v>5.39899064917164</v>
       </c>
       <c r="E181">
-        <v>32866294798566.5</v>
+        <v>26570477538780.05</v>
       </c>
       <c r="F181">
-        <v>9.550705413137333</v>
+        <v>6.181712404205022</v>
       </c>
       <c r="G181">
-        <v>158862550680216</v>
+        <v>69585217960157.15</v>
       </c>
       <c r="H181">
-        <v>45.78219581310833</v>
+        <v>16.1523449829002</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182">
-        <v>20081499109910.91</v>
+        <v>25103020042528.4</v>
       </c>
       <c r="B182">
-        <v>5.943450373167263</v>
+        <v>5.943720878371208</v>
       </c>
       <c r="C182">
-        <v>7360347913102.923</v>
+        <v>22947083402157.61</v>
       </c>
       <c r="D182">
-        <v>2.180644863100216</v>
+        <v>5.434007746692961</v>
       </c>
       <c r="E182">
-        <v>32505205720196.98</v>
+        <v>26278554383800.81</v>
       </c>
       <c r="F182">
-        <v>9.610864018602912</v>
+        <v>6.221588223144851</v>
       </c>
       <c r="G182">
-        <v>157119772376373.6</v>
+        <v>68820998780486.92</v>
       </c>
       <c r="H182">
-        <v>45.99679274373278</v>
+        <v>16.24935237078742</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183">
-        <v>19772642931326.46</v>
+        <v>24716914840632.52</v>
       </c>
       <c r="B183">
-        <v>6.075529033332448</v>
+        <v>6.075800875214981</v>
       </c>
       <c r="C183">
-        <v>7247165118315.89</v>
+        <v>22594217605278.12</v>
       </c>
       <c r="D183">
-        <v>2.230214062955961</v>
+        <v>5.555153619829245</v>
       </c>
       <c r="E183">
-        <v>32005369475567.09</v>
+        <v>25874460954748.47</v>
       </c>
       <c r="F183">
-        <v>9.819739480735359</v>
+        <v>6.359634384478467</v>
       </c>
       <c r="G183">
-        <v>154707243346568.5</v>
+        <v>67763120669221.24</v>
       </c>
       <c r="H183">
-        <v>46.77428049679165</v>
+        <v>16.58814265725464</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184">
-        <v>19321280215816.62</v>
+        <v>24152661302944.29</v>
       </c>
       <c r="B184">
-        <v>6.17337191689834</v>
+        <v>6.173640694421803</v>
       </c>
       <c r="C184">
-        <v>7081758530254.479</v>
+        <v>22078535627153.89</v>
       </c>
       <c r="D184">
-        <v>2.269232997506466</v>
+        <v>5.645682424224298</v>
       </c>
       <c r="E184">
-        <v>31274902791283.44</v>
+        <v>25283914256812.78</v>
       </c>
       <c r="F184">
-        <v>9.964706181716632</v>
+        <v>6.461431337407928</v>
       </c>
       <c r="G184">
-        <v>151181347115024</v>
+        <v>66217103000552.8</v>
       </c>
       <c r="H184">
-        <v>46.85451146917173</v>
+        <v>16.79297367666857</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185">
-        <v>18385282247978.15</v>
+        <v>22982563548435.29</v>
       </c>
       <c r="B185">
-        <v>5.974192825497436</v>
+        <v>5.974438914585802</v>
       </c>
       <c r="C185">
-        <v>6738747958358.583</v>
+        <v>21009144302987.71</v>
       </c>
       <c r="D185">
-        <v>2.200030366390628</v>
+        <v>5.464917974219434</v>
       </c>
       <c r="E185">
-        <v>29760101650276.38</v>
+        <v>24059272479833.73</v>
       </c>
       <c r="F185">
-        <v>9.626330109012697</v>
+        <v>6.252177808114604</v>
       </c>
       <c r="G185">
-        <v>143868792764239.4</v>
+        <v>63010974725848.65</v>
       </c>
       <c r="H185">
-        <v>44.50571503093826</v>
+        <v>16.1718009072415</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186">
-        <v>17098934834544.46</v>
+        <v>21374499565855.95</v>
       </c>
       <c r="B186">
-        <v>5.683093045497752</v>
+        <v>5.683311077858959</v>
       </c>
       <c r="C186">
-        <v>6267337022918.646</v>
+        <v>19539443932850.04</v>
       </c>
       <c r="D186">
-        <v>2.091665742134825</v>
+        <v>5.198293907019902</v>
       </c>
       <c r="E186">
-        <v>27678255724922.03</v>
+        <v>22376205441284.75</v>
       </c>
       <c r="F186">
-        <v>9.16243195722161</v>
+        <v>5.947851673495888</v>
       </c>
       <c r="G186">
-        <v>133817240121149.1</v>
+        <v>58604494285187.85</v>
       </c>
       <c r="H186">
-        <v>42.58829481775803</v>
+        <v>15.4080254518716</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187">
-        <v>16475003764343.67</v>
+        <v>20594526196218.34</v>
       </c>
       <c r="B187">
-        <v>5.713954523235824</v>
+        <v>5.714166823884644</v>
       </c>
       <c r="C187">
-        <v>6038679480467.68</v>
+        <v>18826566802705.97</v>
       </c>
       <c r="D187">
-        <v>2.099815335402955</v>
+        <v>5.225468328969716</v>
       </c>
       <c r="E187">
-        <v>26668456196960.77</v>
+        <v>21559834640607.59</v>
       </c>
       <c r="F187">
-        <v>9.225945861720362</v>
+        <v>5.980858885103159</v>
       </c>
       <c r="G187">
-        <v>128941047650688.2</v>
+        <v>56467054487171.95</v>
       </c>
       <c r="H187">
-        <v>43.50610453982904</v>
+        <v>15.55652019958668</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188">
-        <v>15946839258080.44</v>
+        <v>19934271897518.53</v>
       </c>
       <c r="B188">
-        <v>5.712732412169001</v>
+        <v>5.712938049768233</v>
       </c>
       <c r="C188">
-        <v>5845116330727.441</v>
+        <v>18223102157676.57</v>
       </c>
       <c r="D188">
-        <v>2.098787534769693</v>
+        <v>5.224177243083425</v>
       </c>
       <c r="E188">
-        <v>25813640015993.63</v>
+        <v>20868760386126.34</v>
       </c>
       <c r="F188">
-        <v>9.226534159024421</v>
+        <v>5.979732260746781</v>
       </c>
       <c r="G188">
-        <v>124812899538413.5</v>
+        <v>54657628635148.64</v>
       </c>
       <c r="H188">
-        <v>43.62636367039651</v>
+        <v>15.5653040368426</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189">
-        <v>15479927754010.28</v>
+        <v>19350590815344.84</v>
       </c>
       <c r="B189">
-        <v>5.61897949061979</v>
+        <v>5.619175651417814</v>
       </c>
       <c r="C189">
-        <v>5673999797790.383</v>
+        <v>17689618496421.3</v>
       </c>
       <c r="D189">
-        <v>2.064995385823749</v>
+        <v>5.13868027668869</v>
       </c>
       <c r="E189">
-        <v>25057952251257.24</v>
+        <v>20257826669675.63</v>
       </c>
       <c r="F189">
-        <v>9.072412448514726</v>
+        <v>5.881488005648707</v>
       </c>
       <c r="G189">
-        <v>121163202911491.7</v>
+        <v>53058002450132.92</v>
       </c>
       <c r="H189">
-        <v>42.77249403764129</v>
+        <v>15.29708590840019</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190">
-        <v>14832972199506.76</v>
+        <v>18541840636698.76</v>
       </c>
       <c r="B190">
-        <v>5.535575057217144</v>
+        <v>5.535760724137104</v>
       </c>
       <c r="C190">
-        <v>5436897238147.605</v>
+        <v>16950412649738.14</v>
       </c>
       <c r="D190">
-        <v>2.032554473169208</v>
+        <v>5.061827667737017</v>
       </c>
       <c r="E190">
-        <v>24010854880918</v>
+        <v>19411304253763.16</v>
       </c>
       <c r="F190">
-        <v>8.94550511265782</v>
+        <v>5.79459994235152</v>
       </c>
       <c r="G190">
-        <v>116105688981986</v>
+        <v>50841479651236.74</v>
       </c>
       <c r="H190">
-        <v>42.5333214350562</v>
+        <v>15.10673541941645</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191">
-        <v>14761450831665.55</v>
+        <v>18452432911281.57</v>
       </c>
       <c r="B191">
-        <v>5.743642267556688</v>
+        <v>5.743835107431781</v>
       </c>
       <c r="C191">
-        <v>5410685220864.149</v>
+        <v>16868692416694.33</v>
       </c>
       <c r="D191">
-        <v>2.105135250073282</v>
+        <v>5.250801420529178</v>
       </c>
       <c r="E191">
-        <v>23895096742142.68</v>
+        <v>19317720011218.07</v>
       </c>
       <c r="F191">
-        <v>9.298159951233666</v>
+        <v>6.01321113167745</v>
       </c>
       <c r="G191">
-        <v>115546543852844</v>
+        <v>50596436545938.45</v>
       </c>
       <c r="H191">
-        <v>44.9929833423794</v>
+        <v>15.75260445327626</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192">
-        <v>14860874702626.38</v>
+        <v>18576721120340.85</v>
       </c>
       <c r="B192">
-        <v>5.927847385330707</v>
+        <v>5.928047690019225</v>
       </c>
       <c r="C192">
-        <v>5447123276251.436</v>
+        <v>16982293989046.09</v>
       </c>
       <c r="D192">
-        <v>2.172852720711496</v>
+        <v>5.419265144764998</v>
       </c>
       <c r="E192">
-        <v>24056015351623.66</v>
+        <v>19447814072920.55</v>
       </c>
       <c r="F192">
-        <v>9.595467453350269</v>
+        <v>6.20601257265093</v>
       </c>
       <c r="G192">
-        <v>116323825455956.7</v>
+        <v>50937077607280.52</v>
       </c>
       <c r="H192">
-        <v>46.38835022840232</v>
+        <v>16.25353954171241</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193">
-        <v>14752162340771.15</v>
+        <v>18440821518547.05</v>
       </c>
       <c r="B193">
-        <v>6.026851418217901</v>
+        <v>6.027052301331086</v>
       </c>
       <c r="C193">
-        <v>5407281059700.56</v>
+        <v>16858079389829.63</v>
       </c>
       <c r="D193">
-        <v>2.213662900545592</v>
+        <v>5.511306012922427</v>
       </c>
       <c r="E193">
-        <v>23880063203022.49</v>
+        <v>19305566202306.55</v>
       </c>
       <c r="F193">
-        <v>9.736336012161377</v>
+        <v>6.308717780091985</v>
       </c>
       <c r="G193">
-        <v>115473927099351.8</v>
+        <v>50564612687161.57</v>
       </c>
       <c r="H193">
-        <v>46.15005270140664</v>
+        <v>16.43288652503474</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194">
-        <v>14082152836652.23</v>
+        <v>17603254731175.29</v>
       </c>
       <c r="B194">
-        <v>5.932856093672189</v>
+        <v>5.933044127353809</v>
       </c>
       <c r="C194">
-        <v>5161726162980.314</v>
+        <v>16092522005671.66</v>
       </c>
       <c r="D194">
-        <v>2.181714582074556</v>
+        <v>5.4262470378311</v>
       </c>
       <c r="E194">
-        <v>22795637089232.81</v>
+        <v>18428866315821.45</v>
       </c>
       <c r="F194">
-        <v>9.573614921895125</v>
+        <v>6.209827348920973</v>
       </c>
       <c r="G194">
-        <v>110235543425207.5</v>
+        <v>48269008147515.95</v>
       </c>
       <c r="H194">
-        <v>44.87881213505366</v>
+        <v>16.12524666996732</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195">
-        <v>13568341526598.29</v>
+        <v>16960950214894.38</v>
       </c>
       <c r="B195">
-        <v>5.903181291325966</v>
+        <v>5.903361986134283</v>
       </c>
       <c r="C195">
-        <v>4973415041063.947</v>
+        <v>15505431412783.23</v>
       </c>
       <c r="D195">
-        <v>2.169209057196912</v>
+        <v>5.398591658725524</v>
       </c>
       <c r="E195">
-        <v>21964011636927.23</v>
+        <v>17756542606165.68</v>
       </c>
       <c r="F195">
-        <v>9.532612774372911</v>
+        <v>6.179132644568061</v>
       </c>
       <c r="G195">
-        <v>106217977623828.1</v>
+        <v>46508514477834.09</v>
       </c>
       <c r="H195">
-        <v>45.00094869307531</v>
+        <v>16.07708453282364</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196">
-        <v>13196658612469.15</v>
+        <v>16496318297986.98</v>
       </c>
       <c r="B196">
-        <v>5.93739025322956</v>
+        <v>5.93756686993571</v>
       </c>
       <c r="C196">
-        <v>4837192679275.228</v>
+        <v>15080736013311.7</v>
       </c>
       <c r="D196">
-        <v>2.182440839232417</v>
+        <v>5.430114782592754</v>
       </c>
       <c r="E196">
-        <v>21362421743003.59</v>
+        <v>17270190343845.69</v>
       </c>
       <c r="F196">
-        <v>9.585098853765576</v>
+        <v>6.214824729317296</v>
       </c>
       <c r="G196">
-        <v>103311519293963.2</v>
+        <v>45234969173918.63</v>
       </c>
       <c r="H196">
-        <v>45.12164347895519</v>
+        <v>16.15723661774012</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197">
-        <v>12609729660928.61</v>
+        <v>15762614058911.7</v>
       </c>
       <c r="B197">
-        <v>5.888970279648941</v>
+        <v>5.889136965541361</v>
       </c>
       <c r="C197">
-        <v>4622080437256.151</v>
+        <v>14410088563393.01</v>
       </c>
       <c r="D197">
-        <v>2.167529946763428</v>
+        <v>5.386826728125671</v>
       </c>
       <c r="E197">
-        <v>20412434870016.86</v>
+        <v>16502178802645.97</v>
       </c>
       <c r="F197">
-        <v>9.494754051765751</v>
+        <v>6.163572959822855</v>
       </c>
       <c r="G197">
-        <v>98721528030989.36</v>
+        <v>43223843384143.14</v>
       </c>
       <c r="H197">
-        <v>44.14530347156589</v>
+        <v>15.96811231804555</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198">
-        <v>11836714563191.89</v>
+        <v>14796291475078.78</v>
       </c>
       <c r="B198">
-        <v>5.685067094092769</v>
+        <v>5.685218256886913</v>
       </c>
       <c r="C198">
-        <v>4338763236939.68</v>
+        <v>13526801047411.02</v>
       </c>
       <c r="D198">
-        <v>2.091839897101815</v>
+        <v>5.200126431625896</v>
       </c>
       <c r="E198">
-        <v>19161237228074.54</v>
+        <v>15490655990167.17</v>
       </c>
       <c r="F198">
-        <v>9.168851729987541</v>
+        <v>5.950341273207032</v>
       </c>
       <c r="G198">
-        <v>92675589764794.98</v>
+        <v>40574986077164.34</v>
       </c>
       <c r="H198">
-        <v>42.7568099843765</v>
+        <v>15.4286300075221</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199">
-        <v>11387378131503.11</v>
+        <v>14234591274685.95</v>
       </c>
       <c r="B199">
-        <v>5.620400863989508</v>
+        <v>5.620544958011147</v>
       </c>
       <c r="C199">
-        <v>4174075437973.593</v>
+        <v>13013360011360.95</v>
       </c>
       <c r="D199">
-        <v>2.066732359217967</v>
+        <v>5.140552812564819</v>
       </c>
       <c r="E199">
-        <v>18433935115906.1</v>
+        <v>14902673661679.94</v>
       </c>
       <c r="F199">
-        <v>9.070219883822912</v>
+        <v>5.882958864963597</v>
       </c>
       <c r="G199">
-        <v>89160861330044.66</v>
+        <v>39035210607248.94</v>
       </c>
       <c r="H199">
-        <v>42.55230199479516</v>
+        <v>15.27980389814291</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200">
-        <v>10846112215988.44</v>
+        <v>13557974674756.06</v>
       </c>
       <c r="B200">
-        <v>5.638833668919122</v>
+        <v>5.638971893832683</v>
       </c>
       <c r="C200">
-        <v>3975692469075.79</v>
+        <v>12394868795101.8</v>
       </c>
       <c r="D200">
-        <v>2.070898929267376</v>
+        <v>5.156554819985764</v>
       </c>
       <c r="E200">
-        <v>17557826055128.41</v>
+        <v>14194389840436.77</v>
       </c>
       <c r="F200">
-        <v>9.111209179164913</v>
+        <v>5.902833182882619</v>
       </c>
       <c r="G200">
-        <v>84926705705790.19</v>
+        <v>37180360821178.84</v>
       </c>
       <c r="H200">
-        <v>43.26229729267428</v>
+        <v>15.38305662993407</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201">
-        <v>10820924952105.63</v>
+        <v>13526489043723.29</v>
       </c>
       <c r="B201">
-        <v>5.894848496958503</v>
+        <v>5.894993578149056</v>
       </c>
       <c r="C201">
-        <v>3966460869993.191</v>
+        <v>12366087781407.25</v>
       </c>
       <c r="D201">
-        <v>2.160690721773015</v>
+        <v>5.389246182363111</v>
       </c>
       <c r="E201">
-        <v>17517056973429.4</v>
+        <v>14161430393027.85</v>
       </c>
       <c r="F201">
-        <v>9.543063086481746</v>
+        <v>6.171727817037986</v>
       </c>
       <c r="G201">
-        <v>84729664202665.08</v>
+        <v>37094045857808.81</v>
       </c>
       <c r="H201">
-        <v>46.17922198574562</v>
+        <v>16.16792273608063</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202">
-        <v>10858374816849.97</v>
+        <v>13573303682340.71</v>
       </c>
       <c r="B202">
-        <v>6.00527278802718</v>
+        <v>6.005421020570508</v>
       </c>
       <c r="C202">
-        <v>3980186938059.551</v>
+        <v>12408881034174.79</v>
       </c>
       <c r="D202">
-        <v>2.201531559061414</v>
+        <v>5.490321469164726</v>
       </c>
       <c r="E202">
-        <v>17577674768852.22</v>
+        <v>14210436379248.06</v>
       </c>
       <c r="F202">
-        <v>9.720241654376448</v>
+        <v>6.287259022022294</v>
       </c>
       <c r="G202">
-        <v>85022636480408.19</v>
+        <v>37222383837881.53</v>
       </c>
       <c r="H202">
-        <v>46.95980553437288</v>
+        <v>16.4632260149738</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203">
-        <v>10786587417531.88</v>
+        <v>13483565016607.47</v>
       </c>
       <c r="B203">
-        <v>6.131619082416965</v>
+        <v>6.131768114050313</v>
       </c>
       <c r="C203">
-        <v>3953875520280.301</v>
+        <v>12326850903895.94</v>
       </c>
       <c r="D203">
-        <v>2.254322765911524</v>
+        <v>5.608018636709409</v>
       </c>
       <c r="E203">
-        <v>17461476876002.05</v>
+        <v>14116497096714.62</v>
       </c>
       <c r="F203">
-        <v>9.897016638498386</v>
+        <v>6.418179446562049</v>
       </c>
       <c r="G203">
-        <v>84461038235377.73</v>
+        <v>36976373366783.61</v>
       </c>
       <c r="H203">
-        <v>46.511989626122</v>
+        <v>16.67807138724837</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204">
-        <v>10047032698689.62</v>
+        <v>12559077823368.01</v>
       </c>
       <c r="B204">
-        <v>6.072330850370765</v>
+        <v>6.072468710650276</v>
       </c>
       <c r="C204">
-        <v>3682812952902.109</v>
+        <v>11481769202016.43</v>
       </c>
       <c r="D204">
-        <v>2.230144999428122</v>
+        <v>5.553024488935514</v>
       </c>
       <c r="E204">
-        <v>16264395024203.24</v>
+        <v>13148726088299.37</v>
       </c>
       <c r="F204">
-        <v>9.811622126589493</v>
+        <v>6.356667609904552</v>
       </c>
       <c r="G204">
-        <v>78675053040043.22</v>
+        <v>34441911508284.74</v>
       </c>
       <c r="H204">
-        <v>46.58565042515021</v>
+        <v>16.56552499806656</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205">
-        <v>10296453551658.93</v>
+        <v>12870868312309.42</v>
       </c>
       <c r="B205">
-        <v>6.466889885491222</v>
+        <v>6.467041688353953</v>
       </c>
       <c r="C205">
-        <v>3774231419203.752</v>
+        <v>11766781160077.09</v>
       </c>
       <c r="D205">
-        <v>2.368587341578116</v>
+        <v>5.911646226460908</v>
       </c>
       <c r="E205">
-        <v>16668122596173.01</v>
+        <v>13475116231450.15</v>
       </c>
       <c r="F205">
-        <v>10.47691847115659</v>
+        <v>6.771049518852079</v>
       </c>
       <c r="G205">
-        <v>80626503708166.62</v>
+        <v>35296691393514.09</v>
       </c>
       <c r="H205">
-        <v>51.07877162877918</v>
+        <v>17.77407592150124</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206">
-        <v>10243067713045.72</v>
+        <v>12804132897274.35</v>
       </c>
       <c r="B206">
-        <v>6.507563047809745</v>
+        <v>6.5077143057798</v>
       </c>
       <c r="C206">
-        <v>3754664319145.022</v>
+        <v>11705777538741.92</v>
       </c>
       <c r="D206">
-        <v>2.387046095492211</v>
+        <v>5.95003360691339</v>
       </c>
       <c r="E206">
-        <v>16581709239984.62</v>
+        <v>13405256075268.4</v>
       </c>
       <c r="F206">
-        <v>10.52745849586185</v>
+        <v>6.812886484924334</v>
       </c>
       <c r="G206">
-        <v>80208823629528.33</v>
+        <v>35113736020400.79</v>
       </c>
       <c r="H206">
-        <v>50.57984742894132</v>
+        <v>17.8126253607499</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207">
-        <v>10128238187029.64</v>
+        <v>12660589340673.47</v>
       </c>
       <c r="B207">
-        <v>6.678942968328911</v>
+        <v>6.679095583698265</v>
       </c>
       <c r="C207">
-        <v>3712576673410.992</v>
+        <v>11574562448332.95</v>
       </c>
       <c r="D207">
-        <v>2.454503409382995</v>
+        <v>6.108284222035846</v>
       </c>
       <c r="E207">
-        <v>16395839324301.95</v>
+        <v>13254991110280.95</v>
       </c>
       <c r="F207">
-        <v>10.78504362449428</v>
+        <v>6.991347751278923</v>
       </c>
       <c r="G207">
-        <v>79310407835794.56</v>
+        <v>34720208815990.5</v>
       </c>
       <c r="H207">
-        <v>50.89522827222489</v>
+        <v>18.1885014251934</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208">
-        <v>9644328426099.082</v>
+        <v>12055674942564.82</v>
       </c>
       <c r="B208">
-        <v>6.716960836477114</v>
+        <v>6.717107467278518</v>
       </c>
       <c r="C208">
-        <v>3535211720343.979</v>
+        <v>11021598319639.65</v>
       </c>
       <c r="D208">
-        <v>2.465706662689</v>
+        <v>6.142144811798507</v>
       </c>
       <c r="E208">
-        <v>15612549478817.45</v>
+        <v>12621747286489.5</v>
       </c>
       <c r="F208">
-        <v>10.85837857064077</v>
+        <v>7.031760431091814</v>
       </c>
       <c r="G208">
-        <v>75524152070175.81</v>
+        <v>33061794623632.45</v>
       </c>
       <c r="H208">
-        <v>51.7974731004459</v>
+        <v>18.34860520451983</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209">
-        <v>9810030806065.326</v>
+        <v>12262812080577.53</v>
       </c>
       <c r="B209">
-        <v>6.996506113547771</v>
+        <v>6.996662167958021</v>
       </c>
       <c r="C209">
-        <v>3595945936257.478</v>
+        <v>11210947129558.09</v>
       </c>
       <c r="D209">
-        <v>2.564812393362761</v>
+        <v>6.396573879434244</v>
       </c>
       <c r="E209">
-        <v>15880767672698.57</v>
+        <v>12838585894976.6</v>
       </c>
       <c r="F209">
-        <v>11.32534593024728</v>
+        <v>7.325135892206899</v>
       </c>
       <c r="G209">
-        <v>76820691939024.06</v>
+        <v>33629680831366.35</v>
       </c>
       <c r="H209">
-        <v>54.7455389635363</v>
+        <v>19.18389101975058</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210">
-        <v>9628608859827.26</v>
+        <v>12036024623564.42</v>
       </c>
       <c r="B210">
-        <v>7.014415240860321</v>
+        <v>7.014567752903072</v>
       </c>
       <c r="C210">
-        <v>3529450082475.282</v>
+        <v>11003635475183.53</v>
       </c>
       <c r="D210">
-        <v>2.576987406322459</v>
+        <v>6.41484851578794</v>
       </c>
       <c r="E210">
-        <v>15587104574059.51</v>
+        <v>12601176582389.39</v>
       </c>
       <c r="F210">
-        <v>11.33028913801694</v>
+        <v>7.342716555308319</v>
       </c>
       <c r="G210">
-        <v>75401152305017.09</v>
+        <v>33007921099373.52</v>
       </c>
       <c r="H210">
-        <v>53.63075117952604</v>
+        <v>19.11878116086069</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211">
-        <v>9334629919589.449</v>
+        <v>11668535102026.18</v>
       </c>
       <c r="B211">
-        <v>7.109899733284219</v>
+        <v>7.11004979945776</v>
       </c>
       <c r="C211">
-        <v>3421698702036.086</v>
+        <v>10667702997150.23</v>
       </c>
       <c r="D211">
-        <v>2.610900652018909</v>
+        <v>6.501793575827</v>
       </c>
       <c r="E211">
-        <v>15111246078325.89</v>
+        <v>12216473143195.73</v>
       </c>
       <c r="F211">
-        <v>11.48957747806407</v>
+        <v>7.442937329712116</v>
       </c>
       <c r="G211">
-        <v>73100816713148.8</v>
+        <v>32000398274065.18</v>
       </c>
       <c r="H211">
-        <v>54.61971384019483</v>
+        <v>19.40297187133084</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212">
-        <v>9264606733189.053</v>
+        <v>11581002417023.4</v>
       </c>
       <c r="B212">
-        <v>7.307389705238233</v>
+        <v>7.307542451845621</v>
       </c>
       <c r="C212">
-        <v>3396033190177.991</v>
+        <v>10587686583779.57</v>
       </c>
       <c r="D212">
-        <v>2.685448271266099</v>
+        <v>6.683077702630905</v>
       </c>
       <c r="E212">
-        <v>14997900378569.82</v>
+        <v>12124839872478.87</v>
       </c>
       <c r="F212">
-        <v>11.80007502713664</v>
+        <v>7.649256963378599</v>
       </c>
       <c r="G212">
-        <v>72552880406380.86</v>
+        <v>31760412740173.05</v>
       </c>
       <c r="H212">
-        <v>55.69434583253199</v>
+        <v>19.90100336517889</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213">
-        <v>8836192964444.924</v>
+        <v>11045463163442.62</v>
       </c>
       <c r="B213">
-        <v>7.16132082853021</v>
+        <v>7.161463051350403</v>
       </c>
       <c r="C213">
-        <v>3239006509813.333</v>
+        <v>10098130332739.16</v>
       </c>
       <c r="D213">
-        <v>2.634756530490624</v>
+        <v>6.550514638113997</v>
       </c>
       <c r="E213">
-        <v>14304428666450.4</v>
+        <v>11564209332368.74</v>
       </c>
       <c r="F213">
-        <v>11.55156214380216</v>
+        <v>7.495758689638092</v>
       </c>
       <c r="G213">
-        <v>69200373005208.48</v>
+        <v>30292119483194.81</v>
       </c>
       <c r="H213">
-        <v>53.94520707734236</v>
+        <v>19.4435807841007</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214">
-        <v>8565199267845.992</v>
+        <v>10706707638213.49</v>
       </c>
       <c r="B214">
-        <v>7.227290836503625</v>
+        <v>7.227430677575041</v>
       </c>
       <c r="C214">
-        <v>3139678443400.928</v>
+        <v>9788458908093.197</v>
       </c>
       <c r="D214">
-        <v>2.654816944352463</v>
+        <v>6.609456096870336</v>
       </c>
       <c r="E214">
-        <v>13865769167563.16</v>
+        <v>11209579435464.53</v>
       </c>
       <c r="F214">
-        <v>11.67599098510576</v>
+        <v>7.56571476546981</v>
       </c>
       <c r="G214">
-        <v>67079615873779.55</v>
+        <v>29363330063876.5</v>
       </c>
       <c r="H214">
-        <v>55.35130032885912</v>
+        <v>19.7077557606142</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215">
-        <v>8453427499158.88</v>
+        <v>10566987520238.2</v>
       </c>
       <c r="B215">
-        <v>7.35228320150184</v>
+        <v>7.352424224577944</v>
       </c>
       <c r="C215">
-        <v>3098710286378.948</v>
+        <v>9660734006075.658</v>
       </c>
       <c r="D215">
-        <v>2.697022030535627</v>
+        <v>6.722519150846167</v>
       </c>
       <c r="E215">
-        <v>13684842691472.29</v>
+        <v>11063311266147.82</v>
       </c>
       <c r="F215">
-        <v>11.89385429054634</v>
+        <v>7.697350495410483</v>
       </c>
       <c r="G215">
-        <v>66204878296874.45</v>
+        <v>28980245240335.97</v>
       </c>
       <c r="H215">
-        <v>57.13585975712553</v>
+        <v>20.12420923481287</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216">
-        <v>8437114163836.154</v>
+        <v>10546595067842.4</v>
       </c>
       <c r="B216">
-        <v>7.588597580785917</v>
+        <v>7.588742217177129</v>
       </c>
       <c r="C216">
-        <v>3092730886844.496</v>
+        <v>9642092254159.607</v>
       </c>
       <c r="D216">
-        <v>2.787716004320818</v>
+        <v>6.93994330671931</v>
       </c>
       <c r="E216">
-        <v>13658436040979.53</v>
+        <v>11041963079898.95</v>
       </c>
       <c r="F216">
-        <v>12.25895852121784</v>
+        <v>7.943912167134447</v>
       </c>
       <c r="G216">
-        <v>66077207056096.88</v>
+        <v>28924332963495.15</v>
       </c>
       <c r="H216">
-        <v>58.08034384420869</v>
+        <v>20.68948944827732</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217">
-        <v>8083531875227.17</v>
+        <v>10104600602437.7</v>
       </c>
       <c r="B217">
-        <v>7.756725250095024</v>
+        <v>7.756867064213986</v>
       </c>
       <c r="C217">
-        <v>2963130358004.98</v>
+        <v>9238041497408.035</v>
       </c>
       <c r="D217">
-        <v>2.84816892525388</v>
+        <v>7.09327852976662</v>
       </c>
       <c r="E217">
-        <v>13086084767740.99</v>
+        <v>10579251662050.58</v>
       </c>
       <c r="F217">
-        <v>12.53624956526157</v>
+        <v>8.120216475785755</v>
       </c>
       <c r="G217">
-        <v>63309919664762.86</v>
+        <v>27712453262745.88</v>
       </c>
       <c r="H217">
-        <v>59.65921533372215</v>
+        <v>21.17483277668809</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218">
-        <v>8164595692967.157</v>
+        <v>10205934118683.31</v>
       </c>
       <c r="B218">
-        <v>8.201649554170107</v>
+        <v>8.201801992964443</v>
       </c>
       <c r="C218">
-        <v>2992843214187.117</v>
+        <v>9330676165901.629</v>
       </c>
       <c r="D218">
-        <v>3.005489140464551</v>
+        <v>7.498101148403509</v>
       </c>
       <c r="E218">
-        <v>13217304872548.24</v>
+        <v>10685335168808.43</v>
       </c>
       <c r="F218">
-        <v>13.28133260880995</v>
+        <v>8.587261439893414</v>
       </c>
       <c r="G218">
-        <v>63944374514167.11</v>
+        <v>27990296254202.71</v>
       </c>
       <c r="H218">
-        <v>64.45104106901439</v>
+        <v>22.51315519236785</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219">
-        <v>8131332406228.143</v>
+        <v>10164353469419.22</v>
       </c>
       <c r="B219">
-        <v>8.222556396645455</v>
+        <v>8.222707795479675</v>
       </c>
       <c r="C219">
-        <v>2980651007443.495</v>
+        <v>9292664975628.383</v>
       </c>
       <c r="D219">
-        <v>3.018260885200519</v>
+        <v>7.518941534326154</v>
       </c>
       <c r="E219">
-        <v>13163460752938.76</v>
+        <v>10641805458102.23</v>
       </c>
       <c r="F219">
-        <v>13.29319870362213</v>
+        <v>8.60807431056506</v>
       </c>
       <c r="G219">
-        <v>63684036798408.41</v>
+        <v>27876287825813.79</v>
       </c>
       <c r="H219">
-        <v>63.4536211970358</v>
+        <v>22.46585785352894</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220">
-        <v>7954066440708.634</v>
+        <v>9942762907169.008</v>
       </c>
       <c r="B220">
-        <v>8.473228708443598</v>
+        <v>8.473380103274193</v>
       </c>
       <c r="C220">
-        <v>2915676446878.474</v>
+        <v>9090096200632.049</v>
       </c>
       <c r="D220">
-        <v>3.118274121835138</v>
+        <v>7.750864114460406</v>
       </c>
       <c r="E220">
-        <v>12876515271648.86</v>
+        <v>10409827440861.63</v>
       </c>
       <c r="F220">
-        <v>13.66435716101416</v>
+        <v>8.868832588683675</v>
       </c>
       <c r="G220">
-        <v>62296626403615.91</v>
+        <v>27268712995034.23</v>
       </c>
       <c r="H220">
-        <v>63.65846509055597</v>
+        <v>22.98963453125775</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221">
-        <v>7561227277238.439</v>
+        <v>9451696627052.168</v>
       </c>
       <c r="B221">
-        <v>8.659528114683853</v>
+        <v>8.659674969580559</v>
       </c>
       <c r="C221">
-        <v>2771685555551.627</v>
+        <v>8641181145061.636</v>
       </c>
       <c r="D221">
-        <v>3.188041213607744</v>
+        <v>7.921709926639704</v>
       </c>
       <c r="E221">
-        <v>12240611694510.09</v>
+        <v>9895738156279.102</v>
       </c>
       <c r="F221">
-        <v>13.95977657634506</v>
+        <v>9.063612439979297</v>
       </c>
       <c r="G221">
-        <v>59221839051376.05</v>
+        <v>25922244263778.89</v>
       </c>
       <c r="H221">
-        <v>64.81004125931776</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="A222">
-        <v>7373557362660.371</v>
-      </c>
-      <c r="B222">
-        <v>8.627810963972633</v>
-      </c>
-      <c r="C222">
-        <v>2702896841305.634</v>
-      </c>
-      <c r="D222">
-        <v>3.171471815995599</v>
-      </c>
-      <c r="E222">
-        <v>11936821569478.14</v>
-      </c>
-      <c r="F222">
-        <v>13.92950589680504</v>
-      </c>
-      <c r="G222">
-        <v>57752858423892.13</v>
-      </c>
-      <c r="H222">
-        <v>65.61265490446053</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="A223">
-        <v>7195527226846.8</v>
-      </c>
-      <c r="B223">
-        <v>8.472374900089385</v>
-      </c>
-      <c r="C223">
-        <v>2637641283944.05</v>
-      </c>
-      <c r="D223">
-        <v>3.11884437003415</v>
-      </c>
-      <c r="E223">
-        <v>11648634760585.99</v>
-      </c>
-      <c r="F223">
-        <v>13.65941777382942</v>
-      </c>
-      <c r="G223">
-        <v>56359290214764.54</v>
-      </c>
-      <c r="H223">
-        <v>63.47482388178059</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="A224">
-        <v>6821700876149.221</v>
-      </c>
-      <c r="B224">
-        <v>8.5237885160959</v>
-      </c>
-      <c r="C224">
-        <v>2500617463731.43</v>
-      </c>
-      <c r="D224">
-        <v>3.135283655877204</v>
-      </c>
-      <c r="E224">
-        <v>11043498930449</v>
-      </c>
-      <c r="F224">
-        <v>13.75297234595917</v>
-      </c>
-      <c r="G224">
-        <v>53432950899909.27</v>
-      </c>
-      <c r="H224">
-        <v>64.3885939789987</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="A225">
-        <v>6773315897058.828</v>
-      </c>
-      <c r="B225">
-        <v>8.965611718630793</v>
-      </c>
-      <c r="C225">
-        <v>2482882169990.864</v>
-      </c>
-      <c r="D225">
-        <v>3.284155710312507</v>
-      </c>
-      <c r="E225">
-        <v>10965174844120.08</v>
-      </c>
-      <c r="F225">
-        <v>14.52439752112731</v>
-      </c>
-      <c r="G225">
-        <v>53054176447496.05</v>
-      </c>
-      <c r="H225">
-        <v>70.77247851894424</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
-      <c r="A226">
-        <v>6905076442400.633</v>
-      </c>
-      <c r="B226">
-        <v>9.244574637464904</v>
-      </c>
-      <c r="C226">
-        <v>2531178361221.661</v>
-      </c>
-      <c r="D226">
-        <v>3.385971849390931</v>
-      </c>
-      <c r="E226">
-        <v>11178464504869.99</v>
-      </c>
-      <c r="F226">
-        <v>14.97788290244575</v>
-      </c>
-      <c r="G226">
-        <v>54085636644412.46</v>
-      </c>
-      <c r="H226">
-        <v>73.05949188030733</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="A227">
-        <v>6868181647116.769</v>
-      </c>
-      <c r="B227">
-        <v>9.502056074516414</v>
-      </c>
-      <c r="C227">
-        <v>2517654763954.792</v>
-      </c>
-      <c r="D227">
-        <v>3.479799265269445</v>
-      </c>
-      <c r="E227">
-        <v>11118740473454.78</v>
-      </c>
-      <c r="F227">
-        <v>15.397134682704</v>
-      </c>
-      <c r="G227">
-        <v>53796815658752.34</v>
-      </c>
-      <c r="H227">
-        <v>75.20758510418509</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="A228">
-        <v>7012265849118.629</v>
-      </c>
-      <c r="B228">
-        <v>10.23084728043293</v>
-      </c>
-      <c r="C228">
-        <v>2570468034921.269</v>
-      </c>
-      <c r="D228">
-        <v>3.755059804631302</v>
-      </c>
-      <c r="E228">
-        <v>11351978798054.69</v>
-      </c>
-      <c r="F228">
-        <v>16.54195512500361</v>
-      </c>
-      <c r="G228">
-        <v>54924729975533.75</v>
-      </c>
-      <c r="H228">
-        <v>79.05350428385137</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="A229">
-        <v>6734181654291.43</v>
-      </c>
-      <c r="B229">
-        <v>10.239598734975</v>
-      </c>
-      <c r="C229">
-        <v>2468537680102.326</v>
-      </c>
-      <c r="D229">
-        <v>3.769270336018755</v>
-      </c>
-      <c r="E229">
-        <v>10901825504449.14</v>
-      </c>
-      <c r="F229">
-        <v>16.50925335340593</v>
-      </c>
-      <c r="G229">
-        <v>52747817733256.88</v>
-      </c>
-      <c r="H229">
-        <v>76.746638523055</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="A230">
-        <v>6588647917868.88</v>
-      </c>
-      <c r="B230">
-        <v>10.76546298502656</v>
-      </c>
-      <c r="C230">
-        <v>2415192819703.9</v>
-      </c>
-      <c r="D230">
-        <v>3.962525043006552</v>
-      </c>
-      <c r="E230">
-        <v>10666239419906.67</v>
-      </c>
-      <c r="F230">
-        <v>17.35850476080813</v>
-      </c>
-      <c r="G230">
-        <v>51608503043033.57</v>
-      </c>
-      <c r="H230">
-        <v>80.75686682407797</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="A231">
-        <v>6347664075580.561</v>
-      </c>
-      <c r="B231">
-        <v>11.02732782741993</v>
-      </c>
-      <c r="C231">
-        <v>2326860760499.797</v>
-      </c>
-      <c r="D231">
-        <v>4.043567143686043</v>
-      </c>
-      <c r="E231">
-        <v>10276139781473.47</v>
-      </c>
-      <c r="F231">
-        <v>17.84644337771486</v>
-      </c>
-      <c r="G231">
-        <v>49721893635350.77</v>
-      </c>
-      <c r="H231">
-        <v>86.08353266372349</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="A232">
-        <v>6560488067154.234</v>
-      </c>
-      <c r="B232">
-        <v>11.56439125626376</v>
-      </c>
-      <c r="C232">
-        <v>2404870912801.131</v>
-      </c>
-      <c r="D232">
-        <v>4.238191528675769</v>
-      </c>
-      <c r="E232">
-        <v>10620654934907.95</v>
-      </c>
-      <c r="F232">
-        <v>18.72550328159445</v>
-      </c>
-      <c r="G232">
-        <v>51388049704028</v>
-      </c>
-      <c r="H232">
-        <v>90.80393775334515</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="A233">
-        <v>6367353350551.561</v>
-      </c>
-      <c r="B233">
-        <v>11.96501106858532</v>
-      </c>
-      <c r="C233">
-        <v>2334077832344.909</v>
-      </c>
-      <c r="D233">
-        <v>4.398032898289075</v>
-      </c>
-      <c r="E233">
-        <v>10308012440939.86</v>
-      </c>
-      <c r="F233">
-        <v>19.31838315756588</v>
-      </c>
-      <c r="G233">
-        <v>49876039487008.41</v>
-      </c>
-      <c r="H233">
-        <v>91.03974184636725</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="A234">
-        <v>6336316783633.279</v>
-      </c>
-      <c r="B234">
-        <v>13.49868142835646</v>
-      </c>
-      <c r="C234">
-        <v>2322701427844.251</v>
-      </c>
-      <c r="D234">
-        <v>4.959260932324909</v>
-      </c>
-      <c r="E234">
-        <v>10257770974891.77</v>
-      </c>
-      <c r="F234">
-        <v>21.80534083626813</v>
-      </c>
-      <c r="G234">
-        <v>49633056310010.71</v>
-      </c>
-      <c r="H234">
-        <v>103.2554418385442</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
-      <c r="A235">
-        <v>6206146027988.553</v>
-      </c>
-      <c r="B235">
-        <v>13.61307438420017</v>
-      </c>
-      <c r="C235">
-        <v>2274987473340.5</v>
-      </c>
-      <c r="D235">
-        <v>5.007409524087131</v>
-      </c>
-      <c r="E235">
-        <v>10047052434501.17</v>
-      </c>
-      <c r="F235">
-        <v>21.96406530910871</v>
-      </c>
-      <c r="G235">
-        <v>48613944539671.59</v>
-      </c>
-      <c r="H235">
-        <v>102.8124895150888</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="A236">
-        <v>6094145017823.226</v>
-      </c>
-      <c r="B236">
-        <v>13.32731488405262</v>
-      </c>
-      <c r="C236">
-        <v>2233933529626.24</v>
-      </c>
-      <c r="D236">
-        <v>4.923199899477498</v>
-      </c>
-      <c r="E236">
-        <v>9865746379400.82</v>
-      </c>
-      <c r="F236">
-        <v>21.41482966457629</v>
-      </c>
-      <c r="G236">
-        <v>47737066614931.95</v>
-      </c>
-      <c r="H236">
-        <v>96.41526218641971</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="A237">
-        <v>5665201763006.749</v>
-      </c>
-      <c r="B237">
-        <v>13.90158717090347</v>
-      </c>
-      <c r="C237">
-        <v>2076703707636.99</v>
-      </c>
-      <c r="D237">
-        <v>5.170533898567562</v>
-      </c>
-      <c r="E237">
-        <v>9171373824647.045</v>
-      </c>
-      <c r="F237">
-        <v>22.19242557750801</v>
-      </c>
-      <c r="G237">
-        <v>44378633448921.34</v>
-      </c>
-      <c r="H237">
-        <v>94.23824980969141</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="A238">
-        <v>5188181719852.782</v>
-      </c>
-      <c r="B238">
-        <v>14.4895875575773</v>
-      </c>
-      <c r="C238">
-        <v>1901849822600.92</v>
-      </c>
-      <c r="D238">
-        <v>5.333069281963857</v>
-      </c>
-      <c r="E238">
-        <v>8399167699043.277</v>
-      </c>
-      <c r="F238">
-        <v>23.36492927305471</v>
-      </c>
-      <c r="G238">
-        <v>40643497281837.49</v>
-      </c>
-      <c r="H238">
-        <v>108.766008861369</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="A239">
-        <v>5442056608742.179</v>
-      </c>
-      <c r="B239">
-        <v>15.73694786592069</v>
-      </c>
-      <c r="C239">
-        <v>1994909016609.862</v>
-      </c>
-      <c r="D239">
-        <v>5.728112093821276</v>
-      </c>
-      <c r="E239">
-        <v>8810144516470.674</v>
-      </c>
-      <c r="F239">
-        <v>25.65427365118657</v>
-      </c>
-      <c r="G239">
-        <v>42631411649209.45</v>
-      </c>
-      <c r="H239">
-        <v>133.4858068564706</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="A240">
-        <v>5566046588616.656</v>
-      </c>
-      <c r="B240">
-        <v>16.92372014641143</v>
-      </c>
-      <c r="C240">
-        <v>2040358048542.24</v>
-      </c>
-      <c r="D240">
-        <v>6.188877189625023</v>
-      </c>
-      <c r="E240">
-        <v>9010860767483.314</v>
-      </c>
-      <c r="F240">
-        <v>27.46231299279313</v>
-      </c>
-      <c r="G240">
-        <v>43602258608105.27</v>
-      </c>
-      <c r="H240">
-        <v>136.1042830802279</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
-      <c r="A241">
-        <v>5563963734294.791</v>
-      </c>
-      <c r="B241">
-        <v>18.37539862518807</v>
-      </c>
-      <c r="C241">
-        <v>2039594570657.125</v>
-      </c>
-      <c r="D241">
-        <v>6.764972848577845</v>
-      </c>
-      <c r="E241">
-        <v>9007489025631.975</v>
-      </c>
-      <c r="F241">
-        <v>29.62357194890393</v>
-      </c>
-      <c r="G241">
-        <v>43585949934249.17</v>
-      </c>
-      <c r="H241">
-        <v>137.573268830167</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
-      <c r="A242">
-        <v>5365623151986.659</v>
-      </c>
-      <c r="B242">
-        <v>18.9820709633304</v>
-      </c>
-      <c r="C242">
-        <v>1966891970767.844</v>
-      </c>
-      <c r="D242">
-        <v>6.98553964569039</v>
-      </c>
-      <c r="E242">
-        <v>8686413006299.652</v>
-      </c>
-      <c r="F242">
-        <v>30.61353111182459</v>
-      </c>
-      <c r="G242">
-        <v>42032924300055.41</v>
-      </c>
-      <c r="H242">
-        <v>142.7034604880129</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="A243">
-        <v>5394210457361.435</v>
-      </c>
-      <c r="B243">
-        <v>21.55763552371412</v>
-      </c>
-      <c r="C243">
-        <v>1977370787607.682</v>
-      </c>
-      <c r="D243">
-        <v>7.862512523276375</v>
-      </c>
-      <c r="E243">
-        <v>8732690543626.417</v>
-      </c>
-      <c r="F243">
-        <v>35.0736772283961</v>
-      </c>
-      <c r="G243">
-        <v>42256768803294.75</v>
-      </c>
-      <c r="H243">
-        <v>178.6598825355231</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="A244">
-        <v>5561420344066.474</v>
-      </c>
-      <c r="B244">
-        <v>24.66410002795134</v>
-      </c>
-      <c r="C244">
-        <v>2038662281608.452</v>
-      </c>
-      <c r="D244">
-        <v>9.061499047598865</v>
-      </c>
-      <c r="E244">
-        <v>9003371764246.258</v>
-      </c>
-      <c r="F244">
-        <v>39.84136036047445</v>
-      </c>
-      <c r="G244">
-        <v>43566035273221.44</v>
-      </c>
-      <c r="H244">
-        <v>188.6466139464284</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="A245">
-        <v>5316283545250.146</v>
-      </c>
-      <c r="B245">
-        <v>23.29392451424656</v>
-      </c>
-      <c r="C245">
-        <v>1948806283374.056</v>
-      </c>
-      <c r="D245">
-        <v>8.635010708229732</v>
-      </c>
-      <c r="E245">
-        <v>8606541285926.238</v>
-      </c>
-      <c r="F245">
-        <v>37.30505473700394</v>
-      </c>
-      <c r="G245">
-        <v>41646582471685.65</v>
-      </c>
-      <c r="H245">
-        <v>162.93043577305</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="A246">
-        <v>5170127144724.805</v>
-      </c>
-      <c r="B246">
-        <v>25.62893221076029</v>
-      </c>
-      <c r="C246">
-        <v>1895231805462.73</v>
-      </c>
-      <c r="D246">
-        <v>9.49180027630273</v>
-      </c>
-      <c r="E246">
-        <v>8369940578884.664</v>
-      </c>
-      <c r="F246">
-        <v>41.0810284262248</v>
-      </c>
-      <c r="G246">
-        <v>40502121477800.89</v>
-      </c>
-      <c r="H246">
-        <v>180.8616091722803</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
-      <c r="A247">
-        <v>4998931693158.782</v>
-      </c>
-      <c r="B247">
-        <v>32.94535909072464</v>
-      </c>
-      <c r="C247">
-        <v>1832478936737.376</v>
-      </c>
-      <c r="D247">
-        <v>12.13081255727416</v>
-      </c>
-      <c r="E247">
-        <v>8092805314787.143</v>
-      </c>
-      <c r="F247">
-        <v>53.10497310732995</v>
-      </c>
-      <c r="G247">
-        <v>39161559432220.14</v>
-      </c>
-      <c r="H247">
-        <v>246.2936693638744</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="A248">
-        <v>5066255113948.704</v>
-      </c>
-      <c r="B248">
-        <v>34.57678870694849</v>
-      </c>
-      <c r="C248">
-        <v>1857156822395.04</v>
-      </c>
-      <c r="D248">
-        <v>12.49021663913443</v>
-      </c>
-      <c r="E248">
-        <v>8201790180298.543</v>
-      </c>
-      <c r="F248">
-        <v>56.79720950503641</v>
-      </c>
-      <c r="G248">
-        <v>39688746380641.48</v>
-      </c>
-      <c r="H248">
-        <v>322.2688827414396</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="A249">
-        <v>5332830118447.654</v>
-      </c>
-      <c r="B249">
-        <v>39.47322569901022</v>
-      </c>
-      <c r="C249">
-        <v>1954871516953.148</v>
-      </c>
-      <c r="D249">
-        <v>14.61319322994924</v>
-      </c>
-      <c r="E249">
-        <v>8633327143896.935</v>
-      </c>
-      <c r="F249">
-        <v>63.29657345233927</v>
-      </c>
-      <c r="G249">
-        <v>41776146757232.59</v>
-      </c>
-      <c r="H249">
-        <v>279.6381313425791</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250">
-        <v>4862022564365.231</v>
-      </c>
-      <c r="B250">
-        <v>69.5527945414849</v>
-      </c>
-      <c r="C250">
-        <v>1782293814485.065</v>
-      </c>
-      <c r="D250">
-        <v>26.99174423791534</v>
-      </c>
-      <c r="E250">
-        <v>7871172885749.405</v>
-      </c>
-      <c r="F250">
-        <v>106.8180461592434</v>
-      </c>
-      <c r="G250">
-        <v>38089451993776.6</v>
-      </c>
-      <c r="H250">
-        <v>341.0956109460384</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251">
-        <v>4736085815957.209</v>
-      </c>
-      <c r="B251">
-        <v>794.642354692154</v>
-      </c>
-      <c r="C251">
-        <v>1736130594528.347</v>
-      </c>
-      <c r="D251">
-        <v>794.6742088272553</v>
-      </c>
-      <c r="E251">
-        <v>7667302328479.601</v>
-      </c>
-      <c r="F251">
-        <v>794.6771633911615</v>
-      </c>
-      <c r="G251">
-        <v>37103245319313.1</v>
-      </c>
-      <c r="H251">
-        <v>794.9357103444137</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
-      <c r="A252">
-        <v>4280324429464.663</v>
-      </c>
-      <c r="B252">
-        <v>775.8176910578354</v>
-      </c>
-      <c r="C252">
-        <v>1569066375940.12</v>
-      </c>
-      <c r="D252">
-        <v>775.8505347565111</v>
-      </c>
-      <c r="E252">
-        <v>6929496514849.012</v>
-      </c>
-      <c r="F252">
-        <v>775.8535811004585</v>
-      </c>
-      <c r="G252">
-        <v>33534018521557.83</v>
-      </c>
-      <c r="H252">
-        <v>776.1201606352653</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="A253">
-        <v>4197609226507.269</v>
-      </c>
-      <c r="B253">
-        <v>2717.434236766864</v>
-      </c>
-      <c r="C253">
-        <v>1538746083683.335</v>
-      </c>
-      <c r="D253">
-        <v>2717.538373239839</v>
-      </c>
-      <c r="E253">
-        <v>6795592928247.173</v>
-      </c>
-      <c r="F253">
-        <v>2717.548032147071</v>
-      </c>
-      <c r="G253">
-        <v>32886217629908.54</v>
-      </c>
-      <c r="H253">
-        <v>2718.39327253805</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
-      <c r="A254">
-        <v>4129562120311.399</v>
-      </c>
-      <c r="B254">
-        <v>1038.020266874577</v>
-      </c>
-      <c r="C254">
-        <v>1513802531555.672</v>
-      </c>
-      <c r="D254">
-        <v>1038.056882960494</v>
-      </c>
-      <c r="E254">
-        <v>6685434639235.021</v>
-      </c>
-      <c r="F254">
-        <v>1038.060279179567</v>
-      </c>
-      <c r="G254">
-        <v>32353286184885.18</v>
-      </c>
-      <c r="H254">
-        <v>1038.357480633224</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
-      <c r="A255">
-        <v>3809326573649.306</v>
-      </c>
-      <c r="B255">
-        <v>404.3322862049183</v>
-      </c>
-      <c r="C255">
-        <v>1396415610753.504</v>
-      </c>
-      <c r="D255">
-        <v>404.345272294141</v>
-      </c>
-      <c r="E255">
-        <v>6167018235739.875</v>
-      </c>
-      <c r="F255">
-        <v>404.3464767749383</v>
-      </c>
-      <c r="G255">
-        <v>29845183313172.91</v>
-      </c>
-      <c r="H255">
-        <v>404.4518810875934</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="A256">
-        <v>3210045459700.859</v>
-      </c>
-      <c r="B256">
-        <v>304.0168877985826</v>
-      </c>
-      <c r="C256">
-        <v>1176738707768.962</v>
-      </c>
-      <c r="D256">
-        <v>304.0262310926694</v>
-      </c>
-      <c r="E256">
-        <v>5196857356185.683</v>
-      </c>
-      <c r="F256">
-        <v>304.0270976932604</v>
-      </c>
-      <c r="G256">
-        <v>25151218330650.59</v>
-      </c>
-      <c r="H256">
-        <v>304.1029349261317</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="A257">
-        <v>2778790279644.576</v>
-      </c>
-      <c r="B257">
-        <v>452.8310728733951</v>
-      </c>
-      <c r="C257">
-        <v>1018653147740.096</v>
-      </c>
-      <c r="D257">
-        <v>452.8436067842335</v>
-      </c>
-      <c r="E257">
-        <v>4498702214529.621</v>
-      </c>
-      <c r="F257">
-        <v>452.8447693112329</v>
-      </c>
-      <c r="G257">
-        <v>21773051718429.28</v>
-      </c>
-      <c r="H257">
-        <v>452.9465053159572</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
-      <c r="A258">
-        <v>2611124697544.733</v>
-      </c>
-      <c r="B258">
-        <v>357.6302670387413</v>
-      </c>
-      <c r="C258">
-        <v>957191504871.5957</v>
-      </c>
-      <c r="D258">
-        <v>357.6375353067432</v>
-      </c>
-      <c r="E258">
-        <v>4227268291911.161</v>
-      </c>
-      <c r="F258">
-        <v>357.6382094374295</v>
-      </c>
-      <c r="G258">
-        <v>20459605032439.26</v>
-      </c>
-      <c r="H258">
-        <v>357.6972054536917</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
-      <c r="A259">
-        <v>2066194635571.871</v>
-      </c>
-      <c r="B259">
-        <v>210.9926391782706</v>
-      </c>
-      <c r="C259">
-        <v>757433668091.9647</v>
-      </c>
-      <c r="D259">
-        <v>210.9968628341347</v>
-      </c>
-      <c r="E259">
-        <v>3345074401831.628</v>
-      </c>
-      <c r="F259">
-        <v>210.997254575736</v>
-      </c>
-      <c r="G259">
-        <v>16190515929162.16</v>
-      </c>
-      <c r="H259">
-        <v>211.0315376980014</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="A260">
-        <v>1655353931241.231</v>
-      </c>
-      <c r="B260">
-        <v>199.8112920988669</v>
-      </c>
-      <c r="C260">
-        <v>606828352487.2465</v>
-      </c>
-      <c r="D260">
-        <v>199.8143251658008</v>
-      </c>
-      <c r="E260">
-        <v>2679953080273.757</v>
-      </c>
-      <c r="F260">
-        <v>199.8146064789371</v>
-      </c>
-      <c r="G260">
-        <v>12971651469083.36</v>
-      </c>
-      <c r="H260">
-        <v>199.8392259220877</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
-      <c r="A261">
-        <v>1257618994065.072</v>
-      </c>
-      <c r="B261">
-        <v>286.9510396426969</v>
-      </c>
-      <c r="C261">
-        <v>461026255091.8681</v>
-      </c>
-      <c r="D261">
-        <v>286.9552829076143</v>
-      </c>
-      <c r="E261">
-        <v>2036043869760.441</v>
-      </c>
-      <c r="F261">
-        <v>286.9556764638316</v>
-      </c>
-      <c r="G261">
-        <v>9855257285415.576</v>
-      </c>
-      <c r="H261">
-        <v>286.9901195527662</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
-      <c r="A262">
-        <v>1227602862718.929</v>
-      </c>
-      <c r="B262">
-        <v>452.3503784405112</v>
-      </c>
-      <c r="C262">
-        <v>450022866834.4446</v>
-      </c>
-      <c r="D262">
-        <v>452.3545876650316</v>
-      </c>
-      <c r="E262">
-        <v>1987449331480.822</v>
-      </c>
-      <c r="F262">
-        <v>452.3549780621517</v>
-      </c>
-      <c r="G262">
-        <v>9620061830542.881</v>
-      </c>
-      <c r="H262">
-        <v>452.3891450659879</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="A263">
-        <v>992749005861.6178</v>
-      </c>
-      <c r="B263">
-        <v>310.7277364643886</v>
-      </c>
-      <c r="C263">
-        <v>363929347045.1088</v>
-      </c>
-      <c r="D263">
-        <v>310.7309893469837</v>
-      </c>
-      <c r="E263">
-        <v>1607232285584.894</v>
-      </c>
-      <c r="F263">
-        <v>310.7312910450568</v>
-      </c>
-      <c r="G263">
-        <v>7779791848409.968</v>
-      </c>
-      <c r="H263">
-        <v>310.7576952630887</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="A264">
-        <v>915779064577.889</v>
-      </c>
-      <c r="B264">
-        <v>460.2771577164108</v>
-      </c>
-      <c r="C264">
-        <v>335713366046.4849</v>
-      </c>
-      <c r="D264">
-        <v>460.2808241533331</v>
-      </c>
-      <c r="E264">
-        <v>1482621283602.183</v>
-      </c>
-      <c r="F264">
-        <v>460.2811642067886</v>
-      </c>
-      <c r="G264">
-        <v>7176654326950.804</v>
-      </c>
-      <c r="H264">
-        <v>460.3109254413392</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="A265">
-        <v>798561579428.7137</v>
-      </c>
-      <c r="B265">
-        <v>457.1749770511106</v>
-      </c>
-      <c r="C265">
-        <v>292743186756.0987</v>
-      </c>
-      <c r="D265">
-        <v>457.1785646425195</v>
-      </c>
-      <c r="E265">
-        <v>1292850884536.377</v>
-      </c>
-      <c r="F265">
-        <v>457.1788973829057</v>
-      </c>
-      <c r="G265">
-        <v>6258121552101.394</v>
-      </c>
-      <c r="H265">
-        <v>457.2080186596252</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="A266">
-        <v>745298145751.2035</v>
-      </c>
-      <c r="B266">
-        <v>743.3973485374279</v>
-      </c>
-      <c r="C266">
-        <v>273217577229.8412</v>
-      </c>
-      <c r="D266">
-        <v>743.4024480943126</v>
-      </c>
-      <c r="E266">
-        <v>1206619379198.736</v>
-      </c>
-      <c r="F266">
-        <v>743.4029210652388</v>
-      </c>
-      <c r="G266">
-        <v>5840735798496.894</v>
-      </c>
-      <c r="H266">
-        <v>743.4443153870322</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
-      <c r="A267">
-        <v>700712025393.5409</v>
-      </c>
-      <c r="B267">
-        <v>311.7697568051767</v>
-      </c>
-      <c r="C267">
-        <v>256872931545.0889</v>
-      </c>
-      <c r="D267">
-        <v>311.7713751234181</v>
-      </c>
-      <c r="E267">
-        <v>1134436049091.493</v>
-      </c>
-      <c r="F267">
-        <v>311.7715252180501</v>
-      </c>
-      <c r="G267">
-        <v>5491344804825.401</v>
-      </c>
-      <c r="H267">
-        <v>311.7846615117758</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="A268">
-        <v>525939172708.9732</v>
-      </c>
-      <c r="B268">
-        <v>104.3718841543994</v>
-      </c>
-      <c r="C268">
-        <v>192803529888.6571</v>
-      </c>
-      <c r="D268">
-        <v>104.3722484858083</v>
-      </c>
-      <c r="E268">
-        <v>851484450459.1973</v>
-      </c>
-      <c r="F268">
-        <v>104.3722822764552</v>
-      </c>
-      <c r="G268">
-        <v>4121744074041.214</v>
-      </c>
-      <c r="H268">
-        <v>104.375239619907</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
-      <c r="A269">
-        <v>208896976999.2847</v>
-      </c>
-      <c r="B269">
-        <v>66.64917492638807</v>
-      </c>
-      <c r="C269">
-        <v>76579560556.80783</v>
-      </c>
-      <c r="D269">
-        <v>66.64950060388489</v>
-      </c>
-      <c r="E269">
-        <v>338200874845.7663</v>
-      </c>
-      <c r="F269">
-        <v>66.64953080946935</v>
-      </c>
-      <c r="G269">
-        <v>1637152727361.694</v>
-      </c>
-      <c r="H269">
-        <v>66.65217443455876</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="A270">
-        <v>220033736105.3181</v>
-      </c>
-      <c r="B270">
-        <v>-251.2419799774521</v>
-      </c>
-      <c r="C270">
-        <v>80662177851.14812</v>
-      </c>
-      <c r="D270">
-        <v>-251.242627418121</v>
-      </c>
-      <c r="E270">
-        <v>356231070817.1462</v>
-      </c>
-      <c r="F270">
-        <v>-251.2426874661347</v>
-      </c>
-      <c r="G270">
-        <v>1724431344996.131</v>
-      </c>
-      <c r="H270">
-        <v>-251.2479429509698</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="A271">
-        <v>294373507019.4919</v>
-      </c>
-      <c r="B271">
-        <v>-287.1537137214844</v>
-      </c>
-      <c r="C271">
-        <v>107914325039.9475</v>
-      </c>
-      <c r="D271">
-        <v>-287.1543557616663</v>
-      </c>
-      <c r="E271">
-        <v>476585608994.257</v>
-      </c>
-      <c r="F271">
-        <v>-287.1544153088186</v>
-      </c>
-      <c r="G271">
-        <v>2307026865612.712</v>
-      </c>
-      <c r="H271">
-        <v>-287.1596269517693</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="A272">
-        <v>320087654659.0893</v>
-      </c>
-      <c r="B272">
-        <v>-2081.151683764122</v>
-      </c>
-      <c r="C272">
-        <v>117340841826.0057</v>
-      </c>
-      <c r="D272">
-        <v>-2081.157055019228</v>
-      </c>
-      <c r="E272">
-        <v>518216236142.9704</v>
-      </c>
-      <c r="F272">
-        <v>-2081.157553186037</v>
-      </c>
-      <c r="G272">
-        <v>2508545130328.561</v>
-      </c>
-      <c r="H272">
-        <v>-2081.201153367985</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="A273">
-        <v>309384693055.7846</v>
-      </c>
-      <c r="B273">
-        <v>-636.4449454544429</v>
-      </c>
-      <c r="C273">
-        <v>113417257235.5729</v>
-      </c>
-      <c r="D273">
-        <v>-636.4471356374547</v>
-      </c>
-      <c r="E273">
-        <v>500888384423.3081</v>
-      </c>
-      <c r="F273">
-        <v>-636.4473387700883</v>
-      </c>
-      <c r="G273">
-        <v>2424667586849.031</v>
-      </c>
-      <c r="H273">
-        <v>-636.465117166191</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="A274">
-        <v>367532364932.7856</v>
-      </c>
-      <c r="B274">
-        <v>-311.5364613936674</v>
-      </c>
-      <c r="C274">
-        <v>134733526444.0373</v>
-      </c>
-      <c r="D274">
-        <v>-311.5374998722741</v>
-      </c>
-      <c r="E274">
-        <v>595028099971.6205</v>
-      </c>
-      <c r="F274">
-        <v>-311.5375961879531</v>
-      </c>
-      <c r="G274">
-        <v>2880360568588.742</v>
-      </c>
-      <c r="H274">
-        <v>-311.5460258289158</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="A275">
-        <v>424527423563.0553</v>
-      </c>
-      <c r="B275">
-        <v>-324.1240680696657</v>
-      </c>
-      <c r="C275">
-        <v>155627238975.5859</v>
-      </c>
-      <c r="D275">
-        <v>-324.1253608046018</v>
-      </c>
-      <c r="E275">
-        <v>687301656104.9482</v>
-      </c>
-      <c r="F275">
-        <v>-324.1254807018885</v>
-      </c>
-      <c r="G275">
-        <v>3327016415553.519</v>
-      </c>
-      <c r="H275">
-        <v>-324.135974203256</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="A276">
-        <v>495365749187.5103</v>
-      </c>
-      <c r="B276">
-        <v>-678.3814072423468</v>
-      </c>
-      <c r="C276">
-        <v>181595698803.2497</v>
-      </c>
-      <c r="D276">
-        <v>-678.3840301124679</v>
-      </c>
-      <c r="E276">
-        <v>801986965070.9664</v>
-      </c>
-      <c r="F276">
-        <v>-678.3842733759145</v>
-      </c>
-      <c r="G276">
-        <v>3882152495437.326</v>
-      </c>
-      <c r="H276">
-        <v>-678.4055639730641</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="A277">
-        <v>495796619040.0302</v>
-      </c>
-      <c r="B277">
-        <v>165.2147325161012</v>
-      </c>
-      <c r="C277">
-        <v>181753650294.9362</v>
-      </c>
-      <c r="D277">
-        <v>165.2150362225091</v>
-      </c>
-      <c r="E277">
-        <v>802684531066.66</v>
-      </c>
-      <c r="F277">
-        <v>165.215064390332</v>
-      </c>
-      <c r="G277">
-        <v>3885529057070.887</v>
-      </c>
-      <c r="H277">
-        <v>165.2175296691232</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="A278">
-        <v>202475706747.8017</v>
-      </c>
-      <c r="B278">
-        <v>40.4563921303094</v>
-      </c>
-      <c r="C278">
-        <v>74225590885.86507</v>
-      </c>
-      <c r="D278">
-        <v>40.45650279401894</v>
-      </c>
-      <c r="E278">
-        <v>327804961624.7429</v>
-      </c>
-      <c r="F278">
-        <v>40.45651305771334</v>
-      </c>
-      <c r="G278">
-        <v>1586829252621.748</v>
-      </c>
-      <c r="H278">
-        <v>40.45741133476218</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="A279">
-        <v>7329211592.190951</v>
-      </c>
-      <c r="B279">
-        <v>5.709298958038657</v>
-      </c>
-      <c r="C279">
-        <v>2686821228.054461</v>
-      </c>
-      <c r="D279">
-        <v>5.709313104168166</v>
-      </c>
-      <c r="E279">
-        <v>11865900480.92351</v>
-      </c>
-      <c r="F279">
-        <v>5.70931441617351</v>
-      </c>
-      <c r="G279">
-        <v>57440952906.65575</v>
-      </c>
-      <c r="H279">
-        <v>5.709429245714789</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="A280">
-        <v>77183432397.61139</v>
-      </c>
-      <c r="B280">
-        <v>-53.9201705720144</v>
-      </c>
-      <c r="C280">
-        <v>28294714951.47861</v>
-      </c>
-      <c r="D280">
-        <v>-53.92017416758954</v>
-      </c>
-      <c r="E280">
-        <v>124958909976.6852</v>
-      </c>
-      <c r="F280">
-        <v>-53.92017450106635</v>
-      </c>
-      <c r="G280">
-        <v>604903255746.08</v>
-      </c>
-      <c r="H280">
-        <v>-53.92020368764442</v>
+        <v>23.47152681061927</v>
       </c>
     </row>
   </sheetData>

--- a/Lifetime_All_Modes.xlsx
+++ b/Lifetime_All_Modes.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H221"/>
+  <dimension ref="A1:H260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,5722 +429,6736 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>4333435837322918</v>
+        <v>2.83355423249052E+16</v>
       </c>
       <c r="B2">
-        <v>9.700671391355046</v>
+        <v>514.3380596114838</v>
       </c>
       <c r="C2">
-        <v>3817086030247024</v>
+        <v>2.095259613133127E+16</v>
       </c>
       <c r="D2">
-        <v>8.549436026118178</v>
+        <v>593.3186903576812</v>
       </c>
       <c r="E2">
-        <v>4368302834934220</v>
+        <v>2.194219561581332E+16</v>
       </c>
       <c r="F2">
-        <v>9.779704427764077</v>
+        <v>596.2792952675012</v>
       </c>
       <c r="G2">
-        <v>1.078650680888679E+16</v>
+        <v>3.573849312854028E+16</v>
       </c>
       <c r="H2">
-        <v>24.03531502530381</v>
+        <v>749.3501148677983</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>4254333258185604</v>
+        <v>2.516602980444679E+16</v>
       </c>
       <c r="B3">
-        <v>9.720948347220558</v>
+        <v>524.1637963163213</v>
       </c>
       <c r="C3">
-        <v>3749831225613071</v>
+        <v>1.898157252145197E+16</v>
       </c>
       <c r="D3">
-        <v>8.573472693478715</v>
+        <v>623.1122027234539</v>
       </c>
       <c r="E3">
-        <v>4291387084034301</v>
+        <v>1.988122437855043E+16</v>
       </c>
       <c r="F3">
-        <v>9.806704777601617</v>
+        <v>624.5306332212042</v>
       </c>
       <c r="G3">
-        <v>1.060675993993663E+16</v>
+        <v>3.301733758754113E+16</v>
       </c>
       <c r="H3">
-        <v>24.10864898626188</v>
+        <v>782.6014669936479</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>4156783624986832</v>
+        <v>2.257729882615543E+16</v>
       </c>
       <c r="B4">
-        <v>9.731602533084942</v>
+        <v>577.3063671288993</v>
       </c>
       <c r="C4">
-        <v>3666776386110465</v>
+        <v>1.732132041864793E+16</v>
       </c>
       <c r="D4">
-        <v>8.590367481048615</v>
+        <v>681.7584893082432</v>
       </c>
       <c r="E4">
-        <v>4196399148584952</v>
+        <v>1.814471368129797E+16</v>
       </c>
       <c r="F4">
-        <v>9.825518678446556</v>
+        <v>682.7830757315888</v>
       </c>
       <c r="G4">
-        <v>1.038432813919427E+16</v>
+        <v>3.068594348713623E+16</v>
       </c>
       <c r="H4">
-        <v>24.16605565923223</v>
+        <v>854.4042871685291</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>4059488974109248</v>
+        <v>2.043175498543968E+16</v>
       </c>
       <c r="B5">
-        <v>9.758211559480696</v>
+        <v>628.1642742465257</v>
       </c>
       <c r="C5">
-        <v>3583810566710786</v>
+        <v>1.590788009270409E+16</v>
       </c>
       <c r="D5">
-        <v>8.620903378913411</v>
+        <v>734.4500453359924</v>
       </c>
       <c r="E5">
-        <v>4101510238814813</v>
+        <v>1.666599322366515E+16</v>
       </c>
       <c r="F5">
-        <v>9.86036712387318</v>
+        <v>735.4121753175577</v>
       </c>
       <c r="G5">
-        <v>1.016162680309979E+16</v>
+        <v>2.867005274981956E+16</v>
       </c>
       <c r="H5">
-        <v>24.2742810347699</v>
+        <v>921.9935139837165</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>3959875995406454</v>
+        <v>1.863513145726835E+16</v>
       </c>
       <c r="B6">
-        <v>9.772493249185356</v>
+        <v>679.1540272136259</v>
       </c>
       <c r="C6">
-        <v>3498734727284394</v>
+        <v>1.469617922697749E+16</v>
       </c>
       <c r="D6">
-        <v>8.640632463014137</v>
+        <v>786.5863233134521</v>
       </c>
       <c r="E6">
-        <v>4004205185263913</v>
+        <v>1.53980656837502E+16</v>
       </c>
       <c r="F6">
-        <v>9.882982752870797</v>
+        <v>787.5400346487028</v>
       </c>
       <c r="G6">
-        <v>9932730698269804</v>
+        <v>2.691714214463622E+16</v>
       </c>
       <c r="H6">
-        <v>24.35663899371286</v>
+        <v>989.8322581969044</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>3864804698791706</v>
+        <v>1.710617957526767E+16</v>
       </c>
       <c r="B7">
-        <v>9.797760374771842</v>
+        <v>727.9941379178445</v>
       </c>
       <c r="C7">
-        <v>3417411590824649</v>
+        <v>1.364344087031009E+16</v>
       </c>
       <c r="D7">
-        <v>8.669901253714972</v>
+        <v>836.0795196935476</v>
       </c>
       <c r="E7">
-        <v>3911189529303266</v>
+        <v>1.429627806156167E+16</v>
       </c>
       <c r="F7">
-        <v>9.916400389254152</v>
+        <v>837.022287736736</v>
       </c>
       <c r="G7">
-        <v>9713425115930714</v>
+        <v>2.537418357510436E+16</v>
       </c>
       <c r="H7">
-        <v>24.46179803096808</v>
+        <v>1054.925669560037</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>3764321862541290</v>
+        <v>1.578721159564384E+16</v>
       </c>
       <c r="B8">
-        <v>9.815860709129419</v>
+        <v>774.9489281176164</v>
       </c>
       <c r="C8">
-        <v>3331324894667018</v>
+        <v>1.271839482425982E+16</v>
       </c>
       <c r="D8">
-        <v>8.693232247446437</v>
+        <v>883.3028398942018</v>
       </c>
       <c r="E8">
-        <v>3812722500302464</v>
+        <v>1.332797875004808E+16</v>
       </c>
       <c r="F8">
-        <v>9.943069906294783</v>
+        <v>884.2329232616451</v>
       </c>
       <c r="G8">
-        <v>9480730686845292</v>
+        <v>2.400191205967181E+16</v>
       </c>
       <c r="H8">
-        <v>24.55320179209558</v>
+        <v>1117.757115518829</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>3669900778594772</v>
+        <v>1.463710067733334E+16</v>
       </c>
       <c r="B9">
-        <v>9.844588799306424</v>
+        <v>818.9298047829726</v>
       </c>
       <c r="C9">
-        <v>3250304876824743</v>
+        <v>1.189832086946765E+16</v>
       </c>
       <c r="D9">
-        <v>8.725533330869316</v>
+        <v>927.0438643460917</v>
       </c>
       <c r="E9">
-        <v>3720048060740989</v>
+        <v>1.246943924792948E+16</v>
       </c>
       <c r="F9">
-        <v>9.980044870080032</v>
+        <v>927.9583086186562</v>
       </c>
       <c r="G9">
-        <v>9261218013491174</v>
+        <v>2.277162197988522E+16</v>
       </c>
       <c r="H9">
-        <v>24.66992894618099</v>
+        <v>1176.758585145659</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>3571858121146216</v>
+        <v>1.362094949145417E+16</v>
       </c>
       <c r="B10">
-        <v>9.852053000097797</v>
+        <v>865.7357610184999</v>
       </c>
       <c r="C10">
-        <v>3166046875762417</v>
+        <v>1.116283036302834E+16</v>
       </c>
       <c r="D10">
-        <v>8.739398192133011</v>
+        <v>974.0264463670666</v>
       </c>
       <c r="E10">
-        <v>3623667047357722</v>
+        <v>1.169935381850483E+16</v>
       </c>
       <c r="F10">
-        <v>9.99583683061419</v>
+        <v>974.9300563021106</v>
       </c>
       <c r="G10">
-        <v>9032400397188312</v>
+        <v>2.165655370087092E+16</v>
       </c>
       <c r="H10">
-        <v>24.73299064709432</v>
+        <v>1240.634083399025</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>3476879943933336</v>
+        <v>1.273021505160606E+16</v>
       </c>
       <c r="B11">
-        <v>9.865080209640638</v>
+        <v>911.4643633386347</v>
       </c>
       <c r="C11">
-        <v>3084295216260217</v>
+        <v>1.050930823531873E+16</v>
       </c>
       <c r="D11">
-        <v>8.75773927636102</v>
+        <v>1019.560045540656</v>
       </c>
       <c r="E11">
-        <v>3530150239114408</v>
+        <v>1.101501523706137E+16</v>
       </c>
       <c r="F11">
-        <v>10.01701818605711</v>
+        <v>1020.45067398994</v>
       </c>
       <c r="G11">
-        <v>8809867004453186</v>
+        <v>2.065595036996592E+16</v>
       </c>
       <c r="H11">
-        <v>24.81605529940806</v>
+        <v>1303.041969369028</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>3386152108542912</v>
+        <v>1.192817671139385E+16</v>
       </c>
       <c r="B12">
-        <v>9.887098397309199</v>
+        <v>948.7250003900476</v>
       </c>
       <c r="C12">
-        <v>3006084504815650</v>
+        <v>9913538412356426</v>
       </c>
       <c r="D12">
-        <v>8.783940527273769</v>
+        <v>1055.742613463218</v>
       </c>
       <c r="E12">
-        <v>3440681434502336</v>
+        <v>1.039108887169271E+16</v>
       </c>
       <c r="F12">
-        <v>10.04703680530293</v>
+        <v>1056.614047613396</v>
       </c>
       <c r="G12">
-        <v>8596487554823105</v>
+        <v>1.97352792955253E+16</v>
       </c>
       <c r="H12">
-        <v>24.91601297598333</v>
+        <v>1354.309572932217</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>3294335886438536</v>
+        <v>1.120638568395309E+16</v>
       </c>
       <c r="B13">
-        <v>9.894505368587962</v>
+        <v>990.5909761380794</v>
       </c>
       <c r="C13">
-        <v>2926818168238164</v>
+        <v>9371227002018716</v>
       </c>
       <c r="D13">
-        <v>8.79722517297809</v>
+        <v>1097.041540971114</v>
       </c>
       <c r="E13">
-        <v>3350002523311306</v>
+        <v>9823094711213924</v>
       </c>
       <c r="F13">
-        <v>10.06234320705985</v>
+        <v>1097.898823008335</v>
       </c>
       <c r="G13">
-        <v>8379741093032785</v>
+        <v>1.888979889439234E+16</v>
       </c>
       <c r="H13">
-        <v>24.98175299701363</v>
+        <v>1412.749106947948</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>3208200192457815</v>
+        <v>1.055706191465882E+16</v>
       </c>
       <c r="B14">
-        <v>9.910913576758919</v>
+        <v>1030.245088262978</v>
       </c>
       <c r="C14">
-        <v>2852348097265643</v>
+        <v>8878215072057704</v>
       </c>
       <c r="D14">
-        <v>8.818076062692271</v>
+        <v>1135.820546918559</v>
       </c>
       <c r="E14">
-        <v>3264808112496846</v>
+        <v>9306691061941086</v>
       </c>
       <c r="F14">
-        <v>10.086350804237</v>
+        <v>1136.661943810315</v>
       </c>
       <c r="G14">
-        <v>8175659934279373</v>
+        <v>1.811472005061706E+16</v>
       </c>
       <c r="H14">
-        <v>25.06904042091261</v>
+        <v>1468.458215305631</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>3122232445358358</v>
+        <v>9964432755826102</v>
       </c>
       <c r="B15">
-        <v>9.925275529458991</v>
+        <v>1067.084637372316</v>
       </c>
       <c r="C15">
-        <v>2777918716452110</v>
+        <v>8423859330556308</v>
       </c>
       <c r="D15">
-        <v>8.837402359330223</v>
+        <v>1171.583586447031</v>
       </c>
       <c r="E15">
-        <v>3179658005357808</v>
+        <v>8830740772692785</v>
       </c>
       <c r="F15">
-        <v>10.10832748388378</v>
+        <v>1172.408250104494</v>
       </c>
       <c r="G15">
-        <v>7971252157160780</v>
+        <v>1.739469059151303E+16</v>
       </c>
       <c r="H15">
-        <v>25.14361700380475</v>
+        <v>1521.009698763168</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>3034829393517568</v>
+        <v>9425296722180698</v>
       </c>
       <c r="B16">
-        <v>9.930272628433684</v>
+        <v>1109.856535900944</v>
       </c>
       <c r="C16">
-        <v>2702139191259656</v>
+        <v>8006769139668328</v>
       </c>
       <c r="D16">
-        <v>8.848300309955446</v>
+        <v>1213.850841802695</v>
       </c>
       <c r="E16">
-        <v>3092960972900535</v>
+        <v>8393795932147372</v>
       </c>
       <c r="F16">
-        <v>10.12090875182574</v>
+        <v>1214.663909345109</v>
       </c>
       <c r="G16">
-        <v>7762683507337622</v>
+        <v>1.672864309042034E+16</v>
       </c>
       <c r="H16">
-        <v>25.20218614085093</v>
+        <v>1582.607882199758</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>2953587895612455</v>
+        <v>8935159218412562</v>
       </c>
       <c r="B17">
-        <v>9.940071554131901</v>
+        <v>1146.627913089032</v>
       </c>
       <c r="C17">
-        <v>2631604230808521</v>
+        <v>7624403263708238</v>
       </c>
       <c r="D17">
-        <v>8.863049173828728</v>
+        <v>1249.486817362279</v>
       </c>
       <c r="E17">
-        <v>3012261993525146</v>
+        <v>7993202043543617</v>
       </c>
       <c r="F17">
-        <v>10.13787852286897</v>
+        <v>1250.283896546301</v>
       </c>
       <c r="G17">
-        <v>7568136233877490</v>
+        <v>1.61135700022861E+16</v>
       </c>
       <c r="H17">
-        <v>25.26967746355098</v>
+        <v>1636.031420408953</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>2870498094142086</v>
+        <v>8480839252665462</v>
       </c>
       <c r="B18">
-        <v>9.938529006362325</v>
+        <v>1180.5986093275</v>
       </c>
       <c r="C18">
-        <v>2559366908517605</v>
+        <v>7267203373370603</v>
       </c>
       <c r="D18">
-        <v>8.867861937216416</v>
+        <v>1282.213704951338</v>
       </c>
       <c r="E18">
-        <v>2929613251813900</v>
+        <v>7618951042635824</v>
       </c>
       <c r="F18">
-        <v>10.14347253846853</v>
+        <v>1282.994553765334</v>
       </c>
       <c r="G18">
-        <v>7368477919102304</v>
+        <v>1.553492232203259E+16</v>
       </c>
       <c r="H18">
-        <v>25.30928007417433</v>
+        <v>1686.470524795065</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>2793180609015878</v>
+        <v>8064518079839175</v>
       </c>
       <c r="B19">
-        <v>9.95520745898382</v>
+        <v>1216.12386934781</v>
       </c>
       <c r="C19">
-        <v>2492058939099960</v>
+        <v>6937477952076242</v>
       </c>
       <c r="D19">
-        <v>8.888405561375386</v>
+        <v>1316.558563263599</v>
       </c>
       <c r="E19">
-        <v>2852602415211187</v>
+        <v>7273466434645345</v>
       </c>
       <c r="F19">
-        <v>10.16718309519043</v>
+        <v>1317.324124527419</v>
       </c>
       <c r="G19">
-        <v>7182063104389375</v>
+        <v>1.49971362681957E+16</v>
       </c>
       <c r="H19">
-        <v>25.39604486836822</v>
+        <v>1739.418152769263</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>2716840001341746</v>
+        <v>7677122118323970</v>
       </c>
       <c r="B20">
-        <v>9.960957347691879</v>
+        <v>1248.599745862113</v>
       </c>
       <c r="C20">
-        <v>2425516848897027</v>
+        <v>6628551701311793</v>
       </c>
       <c r="D20">
-        <v>8.899362463882582</v>
+        <v>1347.712528241058</v>
       </c>
       <c r="E20">
-        <v>2776466056858684</v>
+        <v>6949758005428475</v>
       </c>
       <c r="F20">
-        <v>10.17968740884787</v>
+        <v>1348.46221843245</v>
       </c>
       <c r="G20">
-        <v>6997406130341935</v>
+        <v>1.44899447743328E+16</v>
       </c>
       <c r="H20">
-        <v>25.4480354416611</v>
+        <v>1788.901828509771</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>2640921537471027</v>
+        <v>7319309534166748</v>
       </c>
       <c r="B21">
-        <v>9.958025268428447</v>
+        <v>1289.542547614482</v>
       </c>
       <c r="C21">
-        <v>2359259110013746</v>
+        <v>6341371253233346</v>
       </c>
       <c r="D21">
-        <v>8.902268434252033</v>
+        <v>1388.002313025213</v>
       </c>
       <c r="E21">
-        <v>2700653262776152</v>
+        <v>6648821072881264</v>
       </c>
       <c r="F21">
-        <v>10.18329962650001</v>
+        <v>1388.741588284433</v>
       </c>
       <c r="G21">
-        <v>6813177204909918</v>
+        <v>1.401542711084518E+16</v>
       </c>
       <c r="H21">
-        <v>25.48677013019432</v>
+        <v>1851.051463083467</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>2572388211144929</v>
+        <v>6989203509370700</v>
       </c>
       <c r="B22">
-        <v>9.97746323708455</v>
+        <v>1318.623033313732</v>
       </c>
       <c r="C22">
-        <v>2299374877105225</v>
+        <v>6074824817228481</v>
       </c>
       <c r="D22">
-        <v>8.924937849262395</v>
+        <v>1415.468801462711</v>
       </c>
       <c r="E22">
-        <v>2632131567115627</v>
+        <v>6369493742565366</v>
       </c>
       <c r="F22">
-        <v>10.20916109405012</v>
+        <v>1416.190798333292</v>
       </c>
       <c r="G22">
-        <v>6646358040177569</v>
+        <v>1.357226647110248E+16</v>
       </c>
       <c r="H22">
-        <v>25.56906988400227</v>
+        <v>1896.461284227375</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>2497203134478057</v>
+        <v>6676903445440264</v>
       </c>
       <c r="B23">
-        <v>9.963200092552258</v>
+        <v>1344.781708067814</v>
       </c>
       <c r="C23">
-        <v>2233599644157108</v>
+        <v>5821212301593261</v>
       </c>
       <c r="D23">
-        <v>8.918160771966976</v>
+        <v>1439.987685887732</v>
       </c>
       <c r="E23">
-        <v>2556867498922783</v>
+        <v>6103709042420776</v>
       </c>
       <c r="F23">
-        <v>10.20114390605385</v>
+        <v>1440.692650092873</v>
       </c>
       <c r="G23">
-        <v>6462785365992714</v>
+        <v>1.314804389032888E+16</v>
       </c>
       <c r="H23">
-        <v>25.5630993479516</v>
+        <v>1938.799578837075</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>2425566218042716</v>
+        <v>6387439897676368</v>
       </c>
       <c r="B24">
-        <v>9.954574268650102</v>
+        <v>1380.259860551658</v>
       </c>
       <c r="C24">
-        <v>2170851605257739</v>
+        <v>5584868591999961</v>
       </c>
       <c r="D24">
-        <v>8.915499071565737</v>
+        <v>1474.422578385925</v>
       </c>
       <c r="E24">
-        <v>2485065694666888</v>
+        <v>5856011886533332</v>
       </c>
       <c r="F24">
-        <v>10.19859589546149</v>
+        <v>1475.115227563225</v>
       </c>
       <c r="G24">
-        <v>6287324797947761</v>
+        <v>1.275034401098739E+16</v>
       </c>
       <c r="H24">
-        <v>25.59150867077385</v>
+        <v>1994.754992526309</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>2361712510711194</v>
+        <v>6116025209592006</v>
       </c>
       <c r="B25">
-        <v>9.963798266673839</v>
+        <v>1410.01243710563</v>
       </c>
       <c r="C25">
-        <v>2114857548386643</v>
+        <v>5362126769892170</v>
       </c>
       <c r="D25">
-        <v>8.928438883255723</v>
+        <v>1502.80880650495</v>
       </c>
       <c r="E25">
-        <v>2420991037956123</v>
+        <v>5622561110797638</v>
       </c>
       <c r="F25">
-        <v>10.21365927847525</v>
+        <v>1503.487089245072</v>
       </c>
       <c r="G25">
-        <v>6130471244674208</v>
+        <v>1.237334138304274E+16</v>
       </c>
       <c r="H25">
-        <v>25.65527550566091</v>
+        <v>2043.157505161538</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>2296789382481266</v>
+        <v>5861726623172096</v>
       </c>
       <c r="B26">
-        <v>9.963238144161787</v>
+        <v>1442.555866698907</v>
       </c>
       <c r="C26">
-        <v>2057864168276085</v>
+        <v>5152418528027842</v>
       </c>
       <c r="D26">
-        <v>8.932914561462214</v>
+        <v>1534.200510814418</v>
       </c>
       <c r="E26">
-        <v>2355771535709730</v>
+        <v>5402762629187968</v>
       </c>
       <c r="F26">
-        <v>10.21880410144565</v>
+        <v>1534.866286461664</v>
       </c>
       <c r="G26">
-        <v>5970546754978859</v>
+        <v>1.201635802516091E+16</v>
       </c>
       <c r="H26">
-        <v>25.68787765166674</v>
+        <v>2096.150645570509</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>2235253131683045</v>
+        <v>5623537339188617</v>
       </c>
       <c r="B27">
-        <v>9.973762637033539</v>
+        <v>1469.371929114543</v>
       </c>
       <c r="C27">
-        <v>2003786534852140</v>
+        <v>4955091886775439</v>
       </c>
       <c r="D27">
-        <v>8.947089712800043</v>
+        <v>1559.50551922699</v>
       </c>
       <c r="E27">
-        <v>2293887403106362</v>
+        <v>5195934481212118</v>
       </c>
       <c r="F27">
-        <v>10.2350301858795</v>
+        <v>1560.156442302457</v>
       </c>
       <c r="G27">
-        <v>5818549335167457</v>
+        <v>1.16785522963294E+16</v>
       </c>
       <c r="H27">
-        <v>25.74700110133105</v>
+        <v>2141.213465057175</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>2172517452480322</v>
+        <v>5397873522398365</v>
       </c>
       <c r="B28">
-        <v>9.964809740916987</v>
+        <v>1491.537396472854</v>
       </c>
       <c r="C28">
-        <v>1948597109728126</v>
+        <v>4767323939215572</v>
       </c>
       <c r="D28">
-        <v>8.944086723966896</v>
+        <v>1579.960653466398</v>
       </c>
       <c r="E28">
-        <v>2230729758066699</v>
+        <v>4999118967534693</v>
       </c>
       <c r="F28">
-        <v>10.2313747974403</v>
+        <v>1580.595570330414</v>
       </c>
       <c r="G28">
-        <v>5663170126152772</v>
+        <v>1.135531205220495E+16</v>
       </c>
       <c r="H28">
-        <v>25.74991565470513</v>
+        <v>2180.186114671617</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>2109263096693072</v>
+        <v>5184914564820528</v>
       </c>
       <c r="B29">
-        <v>9.945465825132425</v>
+        <v>1519.70953868639</v>
       </c>
       <c r="C29">
-        <v>1892892189806870</v>
+        <v>4589386791420536</v>
       </c>
       <c r="D29">
-        <v>8.931515031004363</v>
+        <v>1606.814774676863</v>
       </c>
       <c r="E29">
-        <v>2166980935748746</v>
+        <v>4812602254905457</v>
       </c>
       <c r="F29">
-        <v>10.21711118156289</v>
+        <v>1607.436750617015</v>
       </c>
       <c r="G29">
-        <v>5506075203472981</v>
+        <v>1.104729251008197E+16</v>
       </c>
       <c r="H29">
-        <v>25.73609029303115</v>
+        <v>2228.402777682192</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>2050359265560615</v>
+        <v>4984365789993502</v>
       </c>
       <c r="B30">
-        <v>9.942995192961282</v>
+        <v>1554.538752113011</v>
       </c>
       <c r="C30">
-        <v>1840964934404062</v>
+        <v>4421152315773766</v>
       </c>
       <c r="D30">
-        <v>8.933710035551657</v>
+        <v>1640.740046315945</v>
       </c>
       <c r="E30">
-        <v>2107554144069758</v>
+        <v>4636250946089590</v>
       </c>
       <c r="F30">
-        <v>10.2197958527366</v>
+        <v>1641.352259346425</v>
       </c>
       <c r="G30">
-        <v>5359393391567713</v>
+        <v>1.075446382780335E+16</v>
       </c>
       <c r="H30">
-        <v>25.76532725745357</v>
+        <v>2286.90762756898</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>1991851313620502</v>
+        <v>4796307247745877</v>
       </c>
       <c r="B31">
-        <v>9.93188770412786</v>
+        <v>1587.736990736685</v>
       </c>
       <c r="C31">
-        <v>1789335323054628</v>
+        <v>4262800223441688</v>
       </c>
       <c r="D31">
-        <v>8.92813975501269</v>
+        <v>1672.933823047689</v>
       </c>
       <c r="E31">
-        <v>2048466896233211</v>
+        <v>4470254284525346</v>
       </c>
       <c r="F31">
-        <v>10.21357459366513</v>
+        <v>1673.535749018705</v>
       </c>
       <c r="G31">
-        <v>5213321302940103</v>
+        <v>1.047733463324575E+16</v>
       </c>
       <c r="H31">
-        <v>25.771451652843</v>
+        <v>2343.33571502352</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>1937152800984587</v>
+        <v>4618239383782433</v>
       </c>
       <c r="B32">
-        <v>9.931421323369804</v>
+        <v>1602.689260421658</v>
       </c>
       <c r="C32">
-        <v>1741020886279006</v>
+        <v>4112322773347566</v>
       </c>
       <c r="D32">
-        <v>8.93192472626516</v>
+        <v>1685.932141618406</v>
       </c>
       <c r="E32">
-        <v>1993172701203069</v>
+        <v>4312508343278651</v>
       </c>
       <c r="F32">
-        <v>10.21794929069829</v>
+        <v>1686.517277996981</v>
       </c>
       <c r="G32">
-        <v>5076418990083556</v>
+        <v>1.021256411219361E+16</v>
       </c>
       <c r="H32">
-        <v>25.80010778828987</v>
+        <v>2373.198233783241</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>1881242175769306</v>
+        <v>4447062620520279</v>
       </c>
       <c r="B33">
-        <v>9.914744917971907</v>
+        <v>1632.177773288152</v>
       </c>
       <c r="C33">
-        <v>1691589318565522</v>
+        <v>3967169392386248</v>
       </c>
       <c r="D33">
-        <v>8.921328465166132</v>
+        <v>1714.370787554185</v>
       </c>
       <c r="E33">
-        <v>1936599005862190</v>
+        <v>4160339872129798</v>
       </c>
       <c r="F33">
-        <v>10.20574591509739</v>
+        <v>1714.945721600678</v>
       </c>
       <c r="G33">
-        <v>4936140521018198</v>
+        <v>9955775686851000</v>
       </c>
       <c r="H33">
-        <v>25.78364881240958</v>
+        <v>2425.60481533489</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>1827239029977242</v>
+        <v>4288015557415019</v>
       </c>
       <c r="B34">
-        <v>9.902425328466984</v>
+        <v>1660.78108777771</v>
       </c>
       <c r="C34">
-        <v>1643799443449478</v>
+        <v>3831857815680398</v>
       </c>
       <c r="D34">
-        <v>8.914096699243778</v>
+        <v>1741.747324348378</v>
       </c>
       <c r="E34">
-        <v>1881903258169483</v>
+        <v>4018485514362820</v>
       </c>
       <c r="F34">
-        <v>10.19790376886379</v>
+        <v>1742.3109418972</v>
       </c>
       <c r="G34">
-        <v>4800317415830982</v>
+        <v>9715104672132372</v>
       </c>
       <c r="H34">
-        <v>25.79274045772982</v>
+        <v>2476.175098840137</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>1779204931562668</v>
+        <v>4134133066238010</v>
       </c>
       <c r="B35">
-        <v>9.910798744408536</v>
+        <v>1678.846962177548</v>
       </c>
       <c r="C35">
-        <v>1601254809706269</v>
+        <v>3700528438920616</v>
       </c>
       <c r="D35">
-        <v>8.925400939102333</v>
+        <v>1758.257086522875</v>
       </c>
       <c r="E35">
-        <v>1833209933159360</v>
+        <v>3880802831622874</v>
       </c>
       <c r="F35">
-        <v>10.21079215226082</v>
+        <v>1758.80731611128</v>
       </c>
       <c r="G35">
-        <v>4679232731128828</v>
+        <v>9480255725918518</v>
       </c>
       <c r="H35">
-        <v>25.83848912230013</v>
+        <v>2512.291332573297</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>1726447899350768</v>
+        <v>3989562548346133</v>
       </c>
       <c r="B36">
-        <v>9.886989608697576</v>
+        <v>1718.386528807669</v>
       </c>
       <c r="C36">
-        <v>1554486697391287</v>
+        <v>3576773362880530</v>
       </c>
       <c r="D36">
-        <v>8.908157037776849</v>
+        <v>1797.205889286196</v>
       </c>
       <c r="E36">
-        <v>1779681888523413</v>
+        <v>3751058094153628</v>
       </c>
       <c r="F36">
-        <v>10.19094415449537</v>
+        <v>1797.74954949092</v>
       </c>
       <c r="G36">
-        <v>4545943300697781</v>
+        <v>9257750471572990</v>
       </c>
       <c r="H36">
-        <v>25.80067251644577</v>
+        <v>2580.447298716153</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>1678578357804306</v>
+        <v>3852744116340306</v>
       </c>
       <c r="B37">
-        <v>9.883394570724644</v>
+        <v>1728.663494070906</v>
       </c>
       <c r="C37">
-        <v>1512014660058716</v>
+        <v>3459317938685000</v>
       </c>
       <c r="D37">
-        <v>8.908379780528991</v>
+        <v>1805.541956718523</v>
       </c>
       <c r="E37">
-        <v>1731070108562560</v>
+        <v>3627915414051189</v>
       </c>
       <c r="F37">
-        <v>10.19153932137338</v>
+        <v>1806.069876754247</v>
       </c>
       <c r="G37">
-        <v>4424729665602369</v>
+        <v>9045432136336630</v>
       </c>
       <c r="H37">
-        <v>25.82676914267491</v>
+        <v>2604.717066190879</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>1632006030227564</v>
+        <v>3719439075210944</v>
       </c>
       <c r="B38">
-        <v>9.871754588424933</v>
+        <v>1732.01884669036</v>
       </c>
       <c r="C38">
-        <v>1470660073526179</v>
+        <v>3344560905779494</v>
       </c>
       <c r="D38">
-        <v>8.901625913135808</v>
+        <v>1806.803715238577</v>
       </c>
       <c r="E38">
-        <v>1683736612094032</v>
+        <v>3507599436300804</v>
       </c>
       <c r="F38">
-        <v>10.18366354808601</v>
+        <v>1807.31504504509</v>
       </c>
       <c r="G38">
-        <v>4306550887938415</v>
+        <v>8836857780710704</v>
       </c>
       <c r="H38">
-        <v>25.81651532946459</v>
+        <v>2619.450949517241</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>1583972096917174</v>
+        <v>3592472112500986</v>
       </c>
       <c r="B39">
-        <v>9.849093646026828</v>
+        <v>1763.520472621791</v>
       </c>
       <c r="C39">
-        <v>1427972941185375</v>
+        <v>3234965521008600</v>
       </c>
       <c r="D39">
-        <v>8.884949479009149</v>
+        <v>1837.437053582752</v>
       </c>
       <c r="E39">
-        <v>1634877184431833</v>
+        <v>3392692975746830</v>
       </c>
       <c r="F39">
-        <v>10.16455850855386</v>
+        <v>1837.940307030079</v>
       </c>
       <c r="G39">
-        <v>4184403803036528</v>
+        <v>8636557458526944</v>
       </c>
       <c r="H39">
-        <v>25.78190936211607</v>
+        <v>2676.819320075455</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>1538806049909391</v>
+        <v>3472542241976108</v>
       </c>
       <c r="B40">
-        <v>9.839108748493052</v>
+        <v>1781.301908263986</v>
       </c>
       <c r="C40">
-        <v>1387802250667896</v>
+        <v>3131177911035948</v>
       </c>
       <c r="D40">
-        <v>8.879381448526038</v>
+        <v>1853.742690965094</v>
       </c>
       <c r="E40">
-        <v>1588897382860505</v>
+        <v>3283873786948806</v>
       </c>
       <c r="F40">
-        <v>10.15828564017304</v>
+        <v>1854.233844928672</v>
       </c>
       <c r="G40">
-        <v>4069308106608924</v>
+        <v>8445815039752020</v>
       </c>
       <c r="H40">
-        <v>25.78265188756099</v>
+        <v>2713.171294342706</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>1493705266102790</v>
+        <v>3356199913063623</v>
       </c>
       <c r="B41">
-        <v>9.811420321021561</v>
+        <v>1796.91649227851</v>
       </c>
       <c r="C41">
-        <v>1347658379363295</v>
+        <v>3030245219390050</v>
       </c>
       <c r="D41">
-        <v>8.857907453626122</v>
+        <v>1867.923187010199</v>
       </c>
       <c r="E41">
-        <v>1542947622344244</v>
+        <v>3178046099320353</v>
       </c>
       <c r="F41">
-        <v>10.13370612845347</v>
+        <v>1868.402682715258</v>
       </c>
       <c r="G41">
-        <v>3954144107288490</v>
+        <v>8259274688009526</v>
       </c>
       <c r="H41">
-        <v>25.73364945855536</v>
+        <v>2747.127188895717</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>1450046339042644</v>
+        <v>3246170325856890</v>
       </c>
       <c r="B42">
-        <v>9.782614175690808</v>
+        <v>1838.785588317509</v>
       </c>
       <c r="C42">
-        <v>1308768103271255</v>
+        <v>2934560767919951</v>
       </c>
       <c r="D42">
-        <v>8.835148567055771</v>
+        <v>1909.37457916128</v>
       </c>
       <c r="E42">
-        <v>1498432134862619</v>
+        <v>3077719519027361</v>
       </c>
       <c r="F42">
-        <v>10.10785705152061</v>
+        <v>1909.849378854626</v>
       </c>
       <c r="G42">
-        <v>3842437527458864</v>
+        <v>8081425616418059</v>
       </c>
       <c r="H42">
-        <v>25.68697518213715</v>
+        <v>2821.139926984079</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>1408666309301402</v>
+        <v>3142234866788788</v>
       </c>
       <c r="B43">
-        <v>9.770785346169799</v>
+        <v>1868.133832536782</v>
       </c>
       <c r="C43">
-        <v>1271880699529526</v>
+        <v>2843970211356723</v>
       </c>
       <c r="D43">
-        <v>8.827420993348596</v>
+        <v>1937.808892135144</v>
       </c>
       <c r="E43">
-        <v>1456208652152360</v>
+        <v>2982732474153837</v>
       </c>
       <c r="F43">
-        <v>10.09936404320471</v>
+        <v>1938.275749625439</v>
       </c>
       <c r="G43">
-        <v>3736357165350223</v>
+        <v>7912085675744911</v>
       </c>
       <c r="H43">
-        <v>25.6885407823448</v>
+        <v>2875.944581636315</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>1370438187439476</v>
+        <v>3042309735559861</v>
       </c>
       <c r="B44">
-        <v>9.770208268391128</v>
+        <v>1858.710451485989</v>
       </c>
       <c r="C44">
-        <v>1237779504445973</v>
+        <v>2756685028462154</v>
       </c>
       <c r="D44">
-        <v>8.829719706638963</v>
+        <v>1926.058301324172</v>
       </c>
       <c r="E44">
-        <v>1417173933947914</v>
+        <v>2891209846222909</v>
       </c>
       <c r="F44">
-        <v>10.10219895541211</v>
+        <v>1926.507864550311</v>
       </c>
       <c r="G44">
-        <v>3638179221941404</v>
+        <v>7747989155220787</v>
       </c>
       <c r="H44">
-        <v>25.71368338038671</v>
+        <v>2871.059376491295</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>1332781022833178</v>
+        <v>2943856502017090</v>
       </c>
       <c r="B45">
-        <v>9.752006127831473</v>
+        <v>1863.322876044399</v>
       </c>
       <c r="C45">
-        <v>1204165520962229</v>
+        <v>2670501825057144</v>
       </c>
       <c r="D45">
-        <v>8.816356826985793</v>
+        <v>1929.008749621522</v>
       </c>
       <c r="E45">
-        <v>1378696450022954</v>
+        <v>2800841374817988</v>
       </c>
       <c r="F45">
-        <v>10.08668525608294</v>
+        <v>1929.445610550586</v>
       </c>
       <c r="G45">
-        <v>3541300090647970</v>
+        <v>7585009094430744</v>
       </c>
       <c r="H45">
-        <v>25.67895371328865</v>
+        <v>2888.793894522463</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>1293636547147717</v>
+        <v>2850826331029400</v>
       </c>
       <c r="B46">
-        <v>9.722144205840555</v>
+        <v>1902.728131146039</v>
       </c>
       <c r="C46">
-        <v>1169200611897722</v>
+        <v>2588896872363624</v>
       </c>
       <c r="D46">
-        <v>8.792340467337679</v>
+        <v>1967.927411170249</v>
       </c>
       <c r="E46">
-        <v>1338672090850262</v>
+        <v>2715272274947670</v>
       </c>
       <c r="F46">
-        <v>10.05928554445027</v>
+        <v>1968.359462921858</v>
       </c>
       <c r="G46">
-        <v>3440417671063170</v>
+        <v>7429758386321653</v>
       </c>
       <c r="H46">
-        <v>25.62359563615208</v>
+        <v>2959.883517817029</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>1258204282122655</v>
+        <v>2762264531170130</v>
       </c>
       <c r="B47">
-        <v>9.721496305690547</v>
+        <v>1937.384559761707</v>
       </c>
       <c r="C47">
-        <v>1137531027498782</v>
+        <v>2511057782990632</v>
       </c>
       <c r="D47">
-        <v>8.794498673727206</v>
+        <v>2001.958974175203</v>
       </c>
       <c r="E47">
-        <v>1302419462444659</v>
+        <v>2633650876373586</v>
       </c>
       <c r="F47">
-        <v>10.06175809022535</v>
+        <v>2002.385384371183</v>
       </c>
       <c r="G47">
-        <v>3348946173121452</v>
+        <v>7280778637048991</v>
       </c>
       <c r="H47">
-        <v>25.6408863747344</v>
+        <v>3023.868659310465</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>1220634540964966</v>
+        <v>2678023022831776</v>
       </c>
       <c r="B48">
-        <v>9.686988958904907</v>
+        <v>1930.250671443689</v>
       </c>
       <c r="C48">
-        <v>1103929610907677</v>
+        <v>2436875673515704</v>
       </c>
       <c r="D48">
-        <v>8.76624348290134</v>
+        <v>1992.775069526497</v>
       </c>
       <c r="E48">
-        <v>1263954991029260</v>
+        <v>2555863157847708</v>
       </c>
       <c r="F48">
-        <v>10.02935885191138</v>
+        <v>1993.186506346336</v>
       </c>
       <c r="G48">
-        <v>3251793927582458</v>
+        <v>7137936726642968</v>
       </c>
       <c r="H48">
-        <v>25.56770271781454</v>
+        <v>3021.964734819803</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>1185923934299388</v>
+        <v>2594112075549196</v>
       </c>
       <c r="B49">
-        <v>9.657974607550159</v>
+        <v>1920.709359658888</v>
       </c>
       <c r="C49">
-        <v>1072865771648028</v>
+        <v>2362847713451634</v>
       </c>
       <c r="D49">
-        <v>8.742450087601673</v>
+        <v>1981.288370791793</v>
       </c>
       <c r="E49">
-        <v>1228394945216653</v>
+        <v>2478236110246670</v>
       </c>
       <c r="F49">
-        <v>10.0024444151123</v>
+        <v>1981.685661742892</v>
       </c>
       <c r="G49">
-        <v>3161885815498796</v>
+        <v>6994501990170544</v>
       </c>
       <c r="H49">
-        <v>25.51915098050063</v>
+        <v>3017.528535283006</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>1152576779090174</v>
+        <v>2514330175720123</v>
       </c>
       <c r="B50">
-        <v>9.640148791518095</v>
+        <v>1989.628908810723</v>
       </c>
       <c r="C50">
-        <v>1043004411165386</v>
+        <v>2292334804507377</v>
       </c>
       <c r="D50">
-        <v>8.728987949365711</v>
+        <v>2050.730896938346</v>
       </c>
       <c r="E50">
-        <v>1194211055165114</v>
+        <v>2404294106125484</v>
       </c>
       <c r="F50">
-        <v>9.986899451402374</v>
+        <v>2051.130296860401</v>
       </c>
       <c r="G50">
-        <v>3075373748099834</v>
+        <v>6857000314179461</v>
       </c>
       <c r="H50">
-        <v>25.48539255771763</v>
+        <v>3136.207791786969</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>1117940034937580</v>
+        <v>2440949435044826</v>
       </c>
       <c r="B51">
-        <v>9.613258059818815</v>
+        <v>2003.54150953188</v>
       </c>
       <c r="C51">
-        <v>1011969839294469</v>
+        <v>2227368709979709</v>
       </c>
       <c r="D51">
-        <v>8.707184170590899</v>
+        <v>2063.316731118106</v>
       </c>
       <c r="E51">
-        <v>1158683742301277</v>
+        <v>2336167882738916</v>
       </c>
       <c r="F51">
-        <v>9.962134258246779</v>
+        <v>2063.706173746201</v>
       </c>
       <c r="G51">
-        <v>2985374933615280</v>
+        <v>6729510480279225</v>
       </c>
       <c r="H51">
-        <v>25.43843223249893</v>
+        <v>3166.330966543343</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>1087595441243216</v>
+        <v>2366670109722012</v>
       </c>
       <c r="B52">
-        <v>9.605319325179348</v>
+        <v>1977.141790930315</v>
       </c>
       <c r="C52">
-        <v>984765586176456.1</v>
+        <v>2161498329632649</v>
       </c>
       <c r="D52">
-        <v>8.70186426645634</v>
+        <v>2034.636493209017</v>
       </c>
       <c r="E52">
-        <v>1127540923912586</v>
+        <v>2267092623186674</v>
       </c>
       <c r="F52">
-        <v>9.956720768639936</v>
+        <v>2035.009904261749</v>
       </c>
       <c r="G52">
-        <v>2906410053787684</v>
+        <v>6599409847854887</v>
       </c>
       <c r="H52">
-        <v>25.45467548286682</v>
+        <v>3134.917818363266</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>1060049461028147</v>
+        <v>2295871111065168</v>
       </c>
       <c r="B53">
-        <v>9.600343877719427</v>
+        <v>2007.994654745967</v>
       </c>
       <c r="C53">
-        <v>960057801949610.4</v>
+        <v>2098611755886994</v>
       </c>
       <c r="D53">
-        <v>8.699791707647437</v>
+        <v>2064.826132307944</v>
       </c>
       <c r="E53">
-        <v>1099255745575840</v>
+        <v>2201145627881682</v>
       </c>
       <c r="F53">
-        <v>9.953898363637022</v>
+        <v>2065.194075736185</v>
       </c>
       <c r="G53">
-        <v>2834631683325044</v>
+        <v>6474368712646665</v>
       </c>
       <c r="H53">
-        <v>25.44207011978557</v>
+        <v>3193.125399815716</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>1027055614720511</v>
+        <v>2228094253454954</v>
       </c>
       <c r="B54">
-        <v>9.553186098994745</v>
+        <v>2037.575643613232</v>
       </c>
       <c r="C54">
-        <v>930447767017369</v>
+        <v>2038315200150844</v>
       </c>
       <c r="D54">
-        <v>8.65992183416024</v>
+        <v>2093.731024746057</v>
       </c>
       <c r="E54">
-        <v>1065358200835209</v>
+        <v>2137914037390005</v>
       </c>
       <c r="F54">
-        <v>9.907807831024215</v>
+        <v>2094.093481035844</v>
       </c>
       <c r="G54">
-        <v>2748536516937918</v>
+        <v>6353665196543021</v>
       </c>
       <c r="H54">
-        <v>25.31989699071183</v>
+        <v>3249.346720932042</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>996858329149449</v>
+        <v>2163338596571684</v>
       </c>
       <c r="B55">
-        <v>9.531660802027323</v>
+        <v>2061.116881609062</v>
       </c>
       <c r="C55">
-        <v>903332454036739.9</v>
+        <v>1980619616811610</v>
       </c>
       <c r="D55">
-        <v>8.642340818741973</v>
+        <v>2116.433690734419</v>
       </c>
       <c r="E55">
-        <v>1034316298178736</v>
+        <v>2077409422369263</v>
       </c>
       <c r="F55">
-        <v>9.888254546255421</v>
+        <v>2116.7896690639</v>
       </c>
       <c r="G55">
-        <v>2669622888587916</v>
+        <v>6237378237958224</v>
       </c>
       <c r="H55">
-        <v>25.29655913329819</v>
+        <v>3295.650392913597</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>969693317278809.6</v>
+        <v>2100883302807750</v>
       </c>
       <c r="B56">
-        <v>9.504263173467736</v>
+        <v>2070.688219339495</v>
       </c>
       <c r="C56">
-        <v>878927646949865</v>
+        <v>1924892748689930</v>
       </c>
       <c r="D56">
-        <v>8.619428800223719</v>
+        <v>2124.821740027043</v>
       </c>
       <c r="E56">
-        <v>1006377155481619</v>
+        <v>2018968813086024</v>
       </c>
       <c r="F56">
-        <v>9.862259421141946</v>
+        <v>2125.169086724202</v>
       </c>
       <c r="G56">
-        <v>2598538469562516</v>
+        <v>6124280962078696</v>
       </c>
       <c r="H56">
-        <v>25.24523532726576</v>
+        <v>3319.517904942165</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>942303800641988</v>
+        <v>2040371240152610</v>
       </c>
       <c r="B57">
-        <v>9.466199698776226</v>
+        <v>2073.998540766501</v>
       </c>
       <c r="C57">
-        <v>854309344165617</v>
+        <v>1870823582280143</v>
       </c>
       <c r="D57">
-        <v>8.587305597413566</v>
+        <v>2126.818885515852</v>
       </c>
       <c r="E57">
-        <v>978193352226044.1</v>
+        <v>1962266104280060</v>
       </c>
       <c r="F57">
-        <v>9.825053331462916</v>
+        <v>2127.156833219867</v>
       </c>
       <c r="G57">
-        <v>2526775269351172</v>
+        <v>6013772619956030</v>
       </c>
       <c r="H57">
-        <v>25.14444509336741</v>
+        <v>3333.153686733019</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>912745580164960.2</v>
+        <v>1981648409703582</v>
       </c>
       <c r="B58">
-        <v>9.426108532790597</v>
+        <v>2070.8444939123</v>
       </c>
       <c r="C58">
-        <v>827728447059938.5</v>
+        <v>1818281029320438</v>
       </c>
       <c r="D58">
-        <v>8.55330984141195</v>
+        <v>2122.217451291893</v>
       </c>
       <c r="E58">
-        <v>947762432007432.6</v>
+        <v>1907163868511841</v>
       </c>
       <c r="F58">
-        <v>9.785975212757391</v>
+        <v>2122.545206257613</v>
       </c>
       <c r="G58">
-        <v>2449226694852397</v>
+        <v>5905608404482629</v>
       </c>
       <c r="H58">
-        <v>25.04787080628153</v>
+        <v>3336.056549751147</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>885243767367030.6</v>
+        <v>1924391605775368</v>
       </c>
       <c r="B59">
-        <v>9.395125426467489</v>
+        <v>2040.281101669748</v>
       </c>
       <c r="C59">
-        <v>802984389232556.4</v>
+        <v>1766981414447868</v>
       </c>
       <c r="D59">
-        <v>8.526687153937567</v>
+        <v>2089.553121168984</v>
       </c>
       <c r="E59">
-        <v>919434142991199.9</v>
+        <v>1853364649469028</v>
       </c>
       <c r="F59">
-        <v>9.756404063689276</v>
+        <v>2089.866581423816</v>
       </c>
       <c r="G59">
-        <v>2376976830532185</v>
+        <v>5799219980350240</v>
       </c>
       <c r="H59">
-        <v>25.00824856177966</v>
+        <v>3294.133815169593</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>863360581672022.9</v>
+        <v>1867332660550636</v>
       </c>
       <c r="B60">
-        <v>9.387752420490413</v>
+        <v>2061.700757943967</v>
       </c>
       <c r="C60">
-        <v>783286975276414.2</v>
+        <v>1715791102042938</v>
       </c>
       <c r="D60">
-        <v>8.521546610787745</v>
+        <v>2110.264804302363</v>
       </c>
       <c r="E60">
-        <v>896883336733399.8</v>
+        <v>1799679592954590</v>
       </c>
       <c r="F60">
-        <v>9.750683024646907</v>
+        <v>2110.572915105912</v>
       </c>
       <c r="G60">
-        <v>2319421021978186</v>
+        <v>5692239579457449</v>
       </c>
       <c r="H60">
-        <v>25.0052963307834</v>
+        <v>3337.432437853964</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>837960726244667.8</v>
+        <v>1814617809754438</v>
       </c>
       <c r="B61">
-        <v>9.341312792866582</v>
+        <v>2144.925750170851</v>
       </c>
       <c r="C61">
-        <v>760414609401677.6</v>
+        <v>1668437439708948</v>
       </c>
       <c r="D61">
-        <v>8.481765192559905</v>
+        <v>2194.13163659253</v>
       </c>
       <c r="E61">
-        <v>870697452365914.9</v>
+        <v>1750017750101114</v>
       </c>
       <c r="F61">
-        <v>9.704486560361754</v>
+        <v>2194.442975849998</v>
       </c>
       <c r="G61">
-        <v>2252541668446782</v>
+        <v>5592504353928791</v>
       </c>
       <c r="H61">
-        <v>24.87351826262147</v>
+        <v>3478.918826268365</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <v>812309951572493.9</v>
+        <v>1764796860173993</v>
       </c>
       <c r="B62">
-        <v>9.312559260646925</v>
+        <v>2114.637361371379</v>
       </c>
       <c r="C62">
-        <v>737305877684274.5</v>
+        <v>1623629531460618</v>
       </c>
       <c r="D62">
-        <v>8.457431659185961</v>
+        <v>2161.836940090862</v>
       </c>
       <c r="E62">
-        <v>844240743057739</v>
+        <v>1703025383368625</v>
       </c>
       <c r="F62">
-        <v>9.676888726768004</v>
+        <v>2162.134787251964</v>
       </c>
       <c r="G62">
-        <v>2184920500565925</v>
+        <v>5497405620533717</v>
       </c>
       <c r="H62">
-        <v>24.81824896504449</v>
+        <v>3434.917406408225</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>789716238641972.9</v>
+        <v>1713468845227312</v>
       </c>
       <c r="B63">
-        <v>9.293263621586785</v>
+        <v>2040.023625100414</v>
       </c>
       <c r="C63">
-        <v>716942566046931.1</v>
+        <v>1577411194591332</v>
       </c>
       <c r="D63">
-        <v>8.441347459050482</v>
+        <v>2084.418134651626</v>
       </c>
       <c r="E63">
-        <v>820927027830975.1</v>
+        <v>1654553453572859</v>
       </c>
       <c r="F63">
-        <v>9.658881551006743</v>
+        <v>2084.697548443553</v>
       </c>
       <c r="G63">
-        <v>2125290723400228</v>
+        <v>5398530094179297</v>
       </c>
       <c r="H63">
-        <v>24.79136719819421</v>
+        <v>3320.625204745782</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>767705509583212.6</v>
+        <v>1662997831238077</v>
       </c>
       <c r="B64">
-        <v>9.248682542726931</v>
+        <v>2076.743187866004</v>
       </c>
       <c r="C64">
-        <v>697096859066924.6</v>
+        <v>1531909816684473</v>
       </c>
       <c r="D64">
-        <v>8.402501031900195</v>
+        <v>2120.808996798609</v>
       </c>
       <c r="E64">
-        <v>798205749239403.5</v>
+        <v>1606833070616711</v>
       </c>
       <c r="F64">
-        <v>9.61443848302263</v>
+        <v>2121.085622763256</v>
       </c>
       <c r="G64">
-        <v>2067138435551540</v>
+        <v>5300363856687735</v>
       </c>
       <c r="H64">
-        <v>24.68422210886801</v>
+        <v>3387.389656842132</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>745987042476318.5</v>
+        <v>1616415276772771</v>
       </c>
       <c r="B65">
-        <v>9.222497690276169</v>
+        <v>2140.11948629286</v>
       </c>
       <c r="C65">
-        <v>677507084882833.1</v>
+        <v>1489865607005450</v>
       </c>
       <c r="D65">
-        <v>8.380613902984578</v>
+        <v>2184.321119641211</v>
       </c>
       <c r="E65">
-        <v>775777329538265.1</v>
+        <v>1562738127464035</v>
       </c>
       <c r="F65">
-        <v>9.588972127073095</v>
+        <v>2184.597886388831</v>
       </c>
       <c r="G65">
-        <v>2009699027091796</v>
+        <v>5208884330181355</v>
       </c>
       <c r="H65">
-        <v>24.61220810358935</v>
+        <v>3495.399124847588</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66">
-        <v>722242870011613</v>
+        <v>1571456432358420</v>
       </c>
       <c r="B66">
-        <v>9.181647281313728</v>
+        <v>2162.815730259533</v>
       </c>
       <c r="C66">
-        <v>656081523274895.5</v>
+        <v>1449242616360594</v>
       </c>
       <c r="D66">
-        <v>8.345372572490493</v>
+        <v>2206.365586523912</v>
       </c>
       <c r="E66">
-        <v>751246929300240.5</v>
+        <v>1520133425694080</v>
       </c>
       <c r="F66">
-        <v>9.548484401243357</v>
+        <v>2206.637605077832</v>
       </c>
       <c r="G66">
-        <v>1946834648079788</v>
+        <v>5119750210500618</v>
       </c>
       <c r="H66">
-        <v>24.51033688442782</v>
+        <v>3537.524396384443</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>700555989616369.8</v>
+        <v>1528353905229581</v>
       </c>
       <c r="B67">
-        <v>9.135510862923473</v>
+        <v>2155.18718424677</v>
       </c>
       <c r="C67">
-        <v>636504475914529.5</v>
+        <v>1410255860472178</v>
       </c>
       <c r="D67">
-        <v>8.304212509616672</v>
+        <v>2197.460367437709</v>
       </c>
       <c r="E67">
-        <v>728832752901901.2</v>
+        <v>1479244503150665</v>
       </c>
       <c r="F67">
-        <v>9.502680916739964</v>
+        <v>2197.723770238955</v>
       </c>
       <c r="G67">
-        <v>1889355310261536</v>
+        <v>5033475299462902</v>
       </c>
       <c r="H67">
-        <v>24.43996172079284</v>
+        <v>3528.815850043765</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68">
-        <v>685536733471340.5</v>
+        <v>1485507288512447</v>
       </c>
       <c r="B68">
-        <v>9.146186301549546</v>
+        <v>2111.245085749997</v>
       </c>
       <c r="C68">
-        <v>622941969206473.2</v>
+        <v>1371460549015039</v>
       </c>
       <c r="D68">
-        <v>8.314988701088616</v>
+        <v>2151.603479305697</v>
       </c>
       <c r="E68">
-        <v>713304659820427.6</v>
+        <v>1438556097273791</v>
       </c>
       <c r="F68">
-        <v>9.515077853203357</v>
+        <v>2151.854347558567</v>
       </c>
       <c r="G68">
-        <v>1849513330365702</v>
+        <v>4946871479442057</v>
       </c>
       <c r="H68">
-        <v>24.47844662786266</v>
+        <v>3460.823583230442</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <v>664943595211258.2</v>
+        <v>1443075561856316</v>
       </c>
       <c r="B69">
-        <v>9.102823165475172</v>
+        <v>2131.910958426584</v>
       </c>
       <c r="C69">
-        <v>604340322470706.8</v>
+        <v>1333001375554604</v>
       </c>
       <c r="D69">
-        <v>8.27791823923449</v>
+        <v>2171.666456328212</v>
       </c>
       <c r="E69">
-        <v>692006992324355.4</v>
+        <v>1398219967643698</v>
       </c>
       <c r="F69">
-        <v>9.471381074769758</v>
+        <v>2171.912996943039</v>
       </c>
       <c r="G69">
-        <v>1794839184309207</v>
+        <v>4860233061339708</v>
       </c>
       <c r="H69">
-        <v>24.33207122210041</v>
+        <v>3499.246994712331</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>643329803802297.6</v>
+        <v>1403467859330063</v>
       </c>
       <c r="B70">
-        <v>9.057847948720958</v>
+        <v>2215.230236815012</v>
       </c>
       <c r="C70">
-        <v>584809404156489.8</v>
+        <v>1297066174940496</v>
       </c>
       <c r="D70">
-        <v>8.238044332116662</v>
+        <v>2255.49542976447</v>
       </c>
       <c r="E70">
-        <v>669645217692709.4</v>
+        <v>1360530752650440</v>
       </c>
       <c r="F70">
-        <v>9.426648407514433</v>
+        <v>2255.74455734821</v>
       </c>
       <c r="G70">
-        <v>1737397674185853</v>
+        <v>4778532334499018</v>
       </c>
       <c r="H70">
-        <v>24.25179911099104</v>
+        <v>3638.841193617857</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <v>628731017276212.2</v>
+        <v>1366288823519190</v>
       </c>
       <c r="B71">
-        <v>9.064461773643595</v>
+        <v>2228.855981503558</v>
       </c>
       <c r="C71">
-        <v>571613222676436.2</v>
+        <v>1263302976556206</v>
       </c>
       <c r="D71">
-        <v>8.244714337771375</v>
+        <v>2268.323740354751</v>
       </c>
       <c r="E71">
-        <v>654536263091564.2</v>
+        <v>1325119346970991</v>
       </c>
       <c r="F71">
-        <v>9.434938390671507</v>
+        <v>2268.567386078642</v>
       </c>
       <c r="G71">
-        <v>1698566043045349</v>
+        <v>4701073018863255</v>
       </c>
       <c r="H71">
-        <v>24.29833244679518</v>
+        <v>3662.441246855932</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
-        <v>611456836470842.8</v>
+        <v>1329172253519400</v>
       </c>
       <c r="B72">
-        <v>9.013426825970503</v>
+        <v>2176.597827574091</v>
       </c>
       <c r="C72">
-        <v>555994262398433.4</v>
+        <v>1229565968495244</v>
       </c>
       <c r="D72">
-        <v>8.200258597288903</v>
+        <v>2214.185513088863</v>
       </c>
       <c r="E72">
-        <v>636653258483753.5</v>
+        <v>1289735207480190</v>
       </c>
       <c r="F72">
-        <v>9.382980019340749</v>
+        <v>2214.417043317459</v>
       </c>
       <c r="G72">
-        <v>1652583195830382</v>
+        <v>4622961224552789</v>
       </c>
       <c r="H72">
-        <v>24.13539669228581</v>
+        <v>3578.451992444421</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <v>591590726832709</v>
+        <v>1292276217659843</v>
       </c>
       <c r="B73">
-        <v>8.964146100642555</v>
+        <v>2175.184372405705</v>
       </c>
       <c r="C73">
-        <v>538025793904157.8</v>
+        <v>1195999042671401</v>
       </c>
       <c r="D73">
-        <v>8.157023747847798</v>
+        <v>2211.833959436892</v>
       </c>
       <c r="E73">
-        <v>616080049793362.8</v>
+        <v>1254529253014516</v>
       </c>
       <c r="F73">
-        <v>9.333281666308569</v>
+        <v>2212.059221695979</v>
       </c>
       <c r="G73">
-        <v>1599653963711116</v>
+        <v>4544496124273408</v>
       </c>
       <c r="H73">
-        <v>24.00633619079622</v>
+        <v>3578.252504094066</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <v>573982911989223</v>
+        <v>1257167379097123</v>
       </c>
       <c r="B74">
-        <v>8.937487083646612</v>
+        <v>2201.081085286621</v>
       </c>
       <c r="C74">
-        <v>522094587864632.6</v>
+        <v>1164029817667414</v>
       </c>
       <c r="D74">
-        <v>8.133415648494635</v>
+        <v>2237.221094538437</v>
       </c>
       <c r="E74">
-        <v>597839318374471.4</v>
+        <v>1220998826476438</v>
       </c>
       <c r="F74">
-        <v>9.307270337248616</v>
+        <v>2237.442744963833</v>
       </c>
       <c r="G74">
-        <v>1552699546269462</v>
+        <v>4469033314313994</v>
       </c>
       <c r="H74">
-        <v>23.97645674513082</v>
+        <v>3621.170890999235</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
-        <v>560138410482822</v>
+        <v>1223051740940154</v>
       </c>
       <c r="B75">
-        <v>8.918274198696329</v>
+        <v>2206.268144483457</v>
       </c>
       <c r="C75">
-        <v>509564842295396.7</v>
+        <v>1132938483191742</v>
       </c>
       <c r="D75">
-        <v>8.116670275310749</v>
+        <v>2241.591313285518</v>
       </c>
       <c r="E75">
-        <v>583493079735138.9</v>
+        <v>1188388987257085</v>
       </c>
       <c r="F75">
-        <v>9.288534000513376</v>
+        <v>2241.807498971391</v>
       </c>
       <c r="G75">
-        <v>1515752945543452</v>
+        <v>4394918307042752</v>
       </c>
       <c r="H75">
-        <v>23.94587301599907</v>
+        <v>3629.90044957522</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <v>545269751704866.5</v>
+        <v>1189979774828535</v>
       </c>
       <c r="B76">
-        <v>8.885815735659888</v>
+        <v>2217.166112063546</v>
       </c>
       <c r="C76">
-        <v>496104753609434.4</v>
+        <v>1102773270432860</v>
       </c>
       <c r="D76">
-        <v>8.088880358460441</v>
+        <v>2251.781911394765</v>
       </c>
       <c r="E76">
-        <v>568081550560155.5</v>
+        <v>1156750337111653</v>
       </c>
       <c r="F76">
-        <v>9.255667512689037</v>
+        <v>2251.993331111049</v>
       </c>
       <c r="G76">
-        <v>1476045952492548</v>
+        <v>4322289868808232</v>
       </c>
       <c r="H76">
-        <v>23.83175238165333</v>
+        <v>3647.45402031727</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>526740383252246.1</v>
+        <v>1158002240172263</v>
       </c>
       <c r="B77">
-        <v>8.828539193539768</v>
+        <v>2196.350162220296</v>
       </c>
       <c r="C77">
-        <v>479325750422725.9</v>
+        <v>1073582770411513</v>
       </c>
       <c r="D77">
-        <v>8.038213737479536</v>
+        <v>2229.763057926006</v>
       </c>
       <c r="E77">
-        <v>548869827835674.7</v>
+        <v>1126133855804824</v>
       </c>
       <c r="F77">
-        <v>9.197481725107737</v>
+        <v>2229.966712054445</v>
       </c>
       <c r="G77">
-        <v>1426523423343678</v>
+        <v>4251294417836332</v>
       </c>
       <c r="H77">
-        <v>23.68077853157936</v>
+        <v>3611.570689576747</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78">
-        <v>511658841175572.2</v>
+        <v>1126078365152130</v>
       </c>
       <c r="B78">
-        <v>8.795654785410651</v>
+        <v>2182.057609384937</v>
       </c>
       <c r="C78">
-        <v>465664778450877.4</v>
+        <v>1044418087216710</v>
       </c>
       <c r="D78">
-        <v>8.008805084894538</v>
+        <v>2214.442363110859</v>
       </c>
       <c r="E78">
-        <v>533228122093490.6</v>
+        <v>1095544300902350</v>
       </c>
       <c r="F78">
-        <v>9.164713747453108</v>
+        <v>2214.639355765794</v>
       </c>
       <c r="G78">
-        <v>1386183276252972</v>
+        <v>4179621504340430</v>
       </c>
       <c r="H78">
-        <v>23.62894310136504</v>
+        <v>3587.264501271804</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <v>498033732104458.4</v>
+        <v>1095455450724798</v>
       </c>
       <c r="B79">
-        <v>8.747207410398794</v>
+        <v>2227.06087007125</v>
       </c>
       <c r="C79">
-        <v>453319889227355.1</v>
+        <v>1016420084997185</v>
       </c>
       <c r="D79">
-        <v>7.965637402883549</v>
+        <v>2259.292624925679</v>
       </c>
       <c r="E79">
-        <v>519093255212698.6</v>
+        <v>1066178283840624</v>
       </c>
       <c r="F79">
-        <v>9.115364043436841</v>
+        <v>2259.488300540121</v>
       </c>
       <c r="G79">
-        <v>1349713716395983</v>
+        <v>4110080931586164</v>
       </c>
       <c r="H79">
-        <v>23.50727623403944</v>
+        <v>3659.294801380193</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80">
-        <v>483701438388570</v>
+        <v>1066462032966472</v>
       </c>
       <c r="B80">
-        <v>8.713941690585161</v>
+        <v>2242.331675547657</v>
       </c>
       <c r="C80">
-        <v>440331017802365.3</v>
+        <v>989892120574512.8</v>
       </c>
       <c r="D80">
-        <v>7.936458042043895</v>
+        <v>2273.953636287103</v>
       </c>
       <c r="E80">
-        <v>504220963141695.7</v>
+        <v>1038354003448455</v>
       </c>
       <c r="F80">
-        <v>9.081829119235344</v>
+        <v>2274.145237530378</v>
       </c>
       <c r="G80">
-        <v>1311325539185884</v>
+        <v>4043490955711126</v>
       </c>
       <c r="H80">
-        <v>23.42044050451691</v>
+        <v>3680.7295308229</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <v>470036159089654.1</v>
+        <v>1037812239506294</v>
       </c>
       <c r="B81">
-        <v>8.704315608781441</v>
+        <v>2183.152775934605</v>
       </c>
       <c r="C81">
-        <v>427943538315530.8</v>
+        <v>963659587553831.8</v>
       </c>
       <c r="D81">
-        <v>7.928554854492968</v>
+        <v>2213.155123237</v>
       </c>
       <c r="E81">
-        <v>490037202227367.6</v>
+        <v>1010839467681891</v>
       </c>
       <c r="F81">
-        <v>9.072964777542266</v>
+        <v>2213.336562363513</v>
       </c>
       <c r="G81">
-        <v>1274699309356113</v>
+        <v>3976935830940146</v>
       </c>
       <c r="H81">
-        <v>23.40734770228256</v>
+        <v>3579.780406564045</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <v>457176242357170.6</v>
+        <v>1008846805660947</v>
       </c>
       <c r="B82">
-        <v>8.663100766883339</v>
+        <v>2184.334675097571</v>
       </c>
       <c r="C82">
-        <v>416283347902604.3</v>
+        <v>937118801259825</v>
       </c>
       <c r="D82">
-        <v>7.892075972683016</v>
+        <v>2213.638540332287</v>
       </c>
       <c r="E82">
-        <v>476686135722958.6</v>
+        <v>983001489255034.1</v>
       </c>
       <c r="F82">
-        <v>9.030979426027343</v>
+        <v>2213.815425086212</v>
       </c>
       <c r="G82">
-        <v>1240209670756566</v>
+        <v>3908844533873040</v>
       </c>
       <c r="H82">
-        <v>23.29509820088527</v>
+        <v>3579.392704264638</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <v>442994482909200.8</v>
+        <v>981835362775788.2</v>
       </c>
       <c r="B83">
-        <v>8.581111071087236</v>
+        <v>2240.617175530598</v>
       </c>
       <c r="C83">
-        <v>403421519581110.2</v>
+        <v>912350940435842.2</v>
       </c>
       <c r="D83">
-        <v>7.818672184507417</v>
+        <v>2269.899547951905</v>
       </c>
       <c r="E83">
-        <v>461959114092118</v>
+        <v>957022975508398.4</v>
       </c>
       <c r="F83">
-        <v>8.946513807908673</v>
+        <v>2270.075973297992</v>
       </c>
       <c r="G83">
-        <v>1202150177385993</v>
+        <v>3844580429717764</v>
       </c>
       <c r="H83">
-        <v>23.0663722116647</v>
+        <v>3666.258328484383</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84">
-        <v>428635350182442.7</v>
+        <v>955737132456622.8</v>
       </c>
       <c r="B84">
-        <v>8.532561206155528</v>
+        <v>2229.238590219</v>
       </c>
       <c r="C84">
-        <v>390395498010209.2</v>
+        <v>888404339828879.4</v>
       </c>
       <c r="D84">
-        <v>7.775060266840891</v>
+        <v>2257.632652212239</v>
       </c>
       <c r="E84">
-        <v>447044019399150.4</v>
+        <v>931905761184266.1</v>
       </c>
       <c r="F84">
-        <v>8.897231303464029</v>
+        <v>2257.803415818192</v>
       </c>
       <c r="G84">
-        <v>1163588190924553</v>
+        <v>3781749521374446</v>
       </c>
       <c r="H84">
-        <v>22.96333145089297</v>
+        <v>3641.984071368904</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85">
-        <v>417739899009302.6</v>
+        <v>929873522099791.8</v>
       </c>
       <c r="B85">
-        <v>8.542893576693254</v>
+        <v>2215.68141794215</v>
       </c>
       <c r="C85">
-        <v>380509351164913.4</v>
+        <v>864657350479234</v>
       </c>
       <c r="D85">
-        <v>7.784864427730446</v>
+        <v>2243.209098872915</v>
       </c>
       <c r="E85">
-        <v>435724107311120.4</v>
+        <v>906997815007610</v>
       </c>
       <c r="F85">
-        <v>8.909059310112141</v>
+        <v>2243.374359217802</v>
       </c>
       <c r="G85">
-        <v>1134310247960366</v>
+        <v>3718729236244998</v>
       </c>
       <c r="H85">
-        <v>23.01653982076941</v>
+        <v>3614.635989304095</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86">
-        <v>406472489833860.7</v>
+        <v>904872116409700.5</v>
       </c>
       <c r="B86">
-        <v>8.493056537308549</v>
+        <v>2215.147362548683</v>
       </c>
       <c r="C86">
-        <v>370283671854351.3</v>
+        <v>841687129680820.6</v>
       </c>
       <c r="D86">
-        <v>7.740533109777644</v>
+        <v>2241.968001566423</v>
       </c>
       <c r="E86">
-        <v>424015379131991.5</v>
+        <v>882904516818947.1</v>
       </c>
       <c r="F86">
-        <v>8.857842420568049</v>
+        <v>2242.128733500961</v>
       </c>
       <c r="G86">
-        <v>1104016612599370</v>
+        <v>3657059238655365</v>
       </c>
       <c r="H86">
-        <v>22.87196375200388</v>
+        <v>3607.177571240636</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87">
-        <v>394051249171360.9</v>
+        <v>880364174612104.9</v>
       </c>
       <c r="B87">
-        <v>8.424369842261063</v>
+        <v>2227.044209551173</v>
       </c>
       <c r="C87">
-        <v>359008444177018.6</v>
+        <v>819156040894957.5</v>
       </c>
       <c r="D87">
-        <v>7.679058285830134</v>
+        <v>2253.344545312267</v>
       </c>
       <c r="E87">
-        <v>411104835155031.9</v>
+        <v>859271729596194.1</v>
       </c>
       <c r="F87">
-        <v>8.787060628302912</v>
+        <v>2253.501889404526</v>
       </c>
       <c r="G87">
-        <v>1070601692196293</v>
+        <v>3595853228349277</v>
       </c>
       <c r="H87">
-        <v>22.67887347934728</v>
+        <v>3620.210488342027</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88">
-        <v>381546914310359.1</v>
+        <v>856961016349189.8</v>
       </c>
       <c r="B88">
-        <v>8.387887196419328</v>
+        <v>2251.590359631359</v>
       </c>
       <c r="C88">
-        <v>347655250710397</v>
+        <v>797627417479679.9</v>
       </c>
       <c r="D88">
-        <v>7.646300441738401</v>
+        <v>2277.50770067768</v>
       </c>
       <c r="E88">
-        <v>398104965044391</v>
+        <v>836690340511077.1</v>
       </c>
       <c r="F88">
-        <v>8.750176001652807</v>
+        <v>2277.662491832347</v>
       </c>
       <c r="G88">
-        <v>1036942993710373</v>
+        <v>3536674688453278</v>
       </c>
       <c r="H88">
-        <v>22.60652503971593</v>
+        <v>3652.300305887837</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89">
-        <v>372058982337312.8</v>
+        <v>834235146417772.5</v>
       </c>
       <c r="B89">
-        <v>8.392551244670722</v>
+        <v>2252.050463353886</v>
       </c>
       <c r="C89">
-        <v>339039071715028.4</v>
+        <v>776709447643144.5</v>
       </c>
       <c r="D89">
-        <v>7.650842814443664</v>
+        <v>2277.326186288754</v>
       </c>
       <c r="E89">
-        <v>388239053115069.6</v>
+        <v>814749387223877.9</v>
       </c>
       <c r="F89">
-        <v>8.755971108012336</v>
+        <v>2277.476897141364</v>
       </c>
       <c r="G89">
-        <v>1011390166322652</v>
+        <v>3478490214264832</v>
       </c>
       <c r="H89">
-        <v>22.64342290770719</v>
+        <v>3644.98704129068</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90">
-        <v>362306702349282.4</v>
+        <v>812064464788237.5</v>
       </c>
       <c r="B90">
-        <v>8.3500575873835</v>
+        <v>2240.753740688305</v>
       </c>
       <c r="C90">
-        <v>330181303281677.9</v>
+        <v>756290701807973.6</v>
       </c>
       <c r="D90">
-        <v>7.612796963806834</v>
+        <v>2265.272349178272</v>
       </c>
       <c r="E90">
-        <v>378096478807491.3</v>
+        <v>793331996961915.5</v>
       </c>
       <c r="F90">
-        <v>8.712395186618178</v>
+        <v>2265.418308651309</v>
       </c>
       <c r="G90">
-        <v>985113183366428</v>
+        <v>3421010898927263</v>
       </c>
       <c r="H90">
-        <v>22.53242451714414</v>
+        <v>3618.112045820048</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91">
-        <v>353053202924378.4</v>
+        <v>790311438361347.9</v>
       </c>
       <c r="B91">
-        <v>8.335091275997845</v>
+        <v>2259.67937545669</v>
       </c>
       <c r="C91">
-        <v>321775131025530.1</v>
+        <v>736245247789922.9</v>
       </c>
       <c r="D91">
-        <v>7.600172166810403</v>
+        <v>2283.804256119806</v>
       </c>
       <c r="E91">
-        <v>368470974368324.6</v>
+        <v>772306083192744.1</v>
       </c>
       <c r="F91">
-        <v>8.697311922512739</v>
+        <v>2283.947645474927</v>
       </c>
       <c r="G91">
-        <v>960168676051203.4</v>
+        <v>3363892734778536</v>
       </c>
       <c r="H91">
-        <v>22.47560500600133</v>
+        <v>3640.326913717874</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92">
-        <v>341420633951868.9</v>
+        <v>769675377482417.1</v>
       </c>
       <c r="B92">
-        <v>8.275002940903164</v>
+        <v>2229.474449063955</v>
       </c>
       <c r="C92">
-        <v>311205753660031.7</v>
+        <v>717218647452603.5</v>
       </c>
       <c r="D92">
-        <v>7.546444701446902</v>
+        <v>2252.644274166918</v>
       </c>
       <c r="E92">
-        <v>356368446594224.6</v>
+        <v>752348790771347.6</v>
       </c>
       <c r="F92">
-        <v>8.635384941137147</v>
+        <v>2252.781767271543</v>
       </c>
       <c r="G92">
-        <v>928795099097055.2</v>
+        <v>3309014419182874</v>
       </c>
       <c r="H92">
-        <v>22.30461646343374</v>
+        <v>3580.555894493723</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93">
-        <v>331086288937794.7</v>
+        <v>748469893242930.1</v>
       </c>
       <c r="B93">
-        <v>8.221780249344928</v>
+        <v>2231.384895095533</v>
       </c>
       <c r="C93">
-        <v>301814091588238.3</v>
+        <v>697656420841911.6</v>
       </c>
       <c r="D93">
-        <v>7.498180608487339</v>
+        <v>2254.041058938786</v>
       </c>
       <c r="E93">
-        <v>345614430347915.8</v>
+        <v>731829604393856.4</v>
       </c>
       <c r="F93">
-        <v>8.580863100235197</v>
+        <v>2254.175301758926</v>
       </c>
       <c r="G93">
-        <v>900908065179086.9</v>
+        <v>3251884275918358</v>
       </c>
       <c r="H93">
-        <v>22.18946579129315</v>
+        <v>3575.977566749822</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94">
-        <v>322389821895829.6</v>
+        <v>729021453876306.4</v>
       </c>
       <c r="B94">
-        <v>8.19230261334163</v>
+        <v>2248.530661291922</v>
       </c>
       <c r="C94">
-        <v>293909550564657.2</v>
+        <v>679705596006305</v>
       </c>
       <c r="D94">
-        <v>7.471656483816133</v>
+        <v>2270.739640959481</v>
       </c>
       <c r="E94">
-        <v>336563228942993.9</v>
+        <v>713000587469091.2</v>
       </c>
       <c r="F94">
-        <v>8.550886800028911</v>
+        <v>2270.871029591196</v>
       </c>
       <c r="G94">
-        <v>877429992519852.4</v>
+        <v>3198798858015490</v>
       </c>
       <c r="H94">
-        <v>22.12658852174938</v>
+        <v>3590.699814454782</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95">
-        <v>313737534077351.9</v>
+        <v>709174276006809.9</v>
       </c>
       <c r="B95">
-        <v>8.180160173227387</v>
+        <v>2146.217014366476</v>
       </c>
       <c r="C95">
-        <v>286043938612758.9</v>
+        <v>661377352669589.2</v>
       </c>
       <c r="D95">
-        <v>7.46132924152238</v>
+        <v>2166.872030699061</v>
       </c>
       <c r="E95">
-        <v>327556578452035.3</v>
+        <v>693775628595499.4</v>
       </c>
       <c r="F95">
-        <v>8.538796970922188</v>
+        <v>2166.994041046313</v>
       </c>
       <c r="G95">
-        <v>854061367057925.4</v>
+        <v>3143912448245444</v>
       </c>
       <c r="H95">
-        <v>22.08899441343322</v>
+        <v>3416.612575379976</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96">
-        <v>304544693832738.4</v>
+        <v>688973349851096</v>
       </c>
       <c r="B96">
-        <v>8.137739160626854</v>
+        <v>2065.685382171541</v>
       </c>
       <c r="C96">
-        <v>277685580215238.9</v>
+        <v>642712670716806.8</v>
       </c>
       <c r="D96">
-        <v>7.423547836345562</v>
+        <v>2085.039363393028</v>
       </c>
       <c r="E96">
-        <v>317985672695426.2</v>
+        <v>674197709107148.9</v>
       </c>
       <c r="F96">
-        <v>8.495069474415263</v>
+        <v>2085.153511861507</v>
       </c>
       <c r="G96">
-        <v>829222037429142</v>
+        <v>3087272549333867</v>
       </c>
       <c r="H96">
-        <v>21.96262944617402</v>
+        <v>3277.511834076214</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97">
-        <v>294689691307403.4</v>
+        <v>668750128785430.9</v>
       </c>
       <c r="B97">
-        <v>8.056034676477264</v>
+        <v>2091.76469622308</v>
       </c>
       <c r="C97">
-        <v>268723631442251.2</v>
+        <v>624017494117991.5</v>
       </c>
       <c r="D97">
-        <v>7.349723938712946</v>
+        <v>2110.866819573846</v>
       </c>
       <c r="E97">
-        <v>307723581967446.6</v>
+        <v>654587740567611.2</v>
       </c>
       <c r="F97">
-        <v>8.410498648127913</v>
+        <v>2110.97931270036</v>
       </c>
       <c r="G97">
-        <v>802581215297887</v>
+        <v>3029747358408406</v>
       </c>
       <c r="H97">
-        <v>21.74378120169184</v>
+        <v>3308.78469296377</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98">
-        <v>285593425402880.4</v>
+        <v>650224959195520</v>
       </c>
       <c r="B98">
-        <v>7.994728176697374</v>
+        <v>2138.299035152444</v>
       </c>
       <c r="C98">
-        <v>260450251812139.5</v>
+        <v>606883351886370.4</v>
       </c>
       <c r="D98">
-        <v>7.29429091135914</v>
+        <v>2157.272856960796</v>
       </c>
       <c r="E98">
-        <v>298249924431952.5</v>
+        <v>636615136090216.6</v>
       </c>
       <c r="F98">
-        <v>8.347234150600361</v>
+        <v>2157.3844252016</v>
       </c>
       <c r="G98">
-        <v>777980153712977</v>
+        <v>2976293620840885</v>
       </c>
       <c r="H98">
-        <v>21.58818215804539</v>
+        <v>3368.335595441401</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99">
-        <v>276682187057281.1</v>
+        <v>631895009946134</v>
       </c>
       <c r="B99">
-        <v>7.935827639369013</v>
+        <v>2213.149276571739</v>
       </c>
       <c r="C99">
-        <v>252343847002091.4</v>
+        <v>589921546537094</v>
       </c>
       <c r="D99">
-        <v>7.241080044800964</v>
+        <v>2232.317658211491</v>
       </c>
       <c r="E99">
-        <v>288967438805198.2</v>
+        <v>618823250200103.2</v>
       </c>
       <c r="F99">
-        <v>8.286433463676902</v>
+        <v>2232.430214896324</v>
       </c>
       <c r="G99">
-        <v>753868958842499.9</v>
+        <v>2922653876590825</v>
       </c>
       <c r="H99">
-        <v>21.43632311883756</v>
+        <v>3475.540199236357</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100">
-        <v>268268030883282.7</v>
+        <v>615620119830998.6</v>
       </c>
       <c r="B100">
-        <v>7.886812827204209</v>
+        <v>2251.626751638421</v>
       </c>
       <c r="C100">
-        <v>244688434936956.3</v>
+        <v>574854535925840.9</v>
       </c>
       <c r="D100">
-        <v>7.196457645446894</v>
+        <v>2270.574299441918</v>
       </c>
       <c r="E100">
-        <v>280201351493496.7</v>
+        <v>603018843841620.8</v>
       </c>
       <c r="F100">
-        <v>8.23611855911542</v>
+        <v>2270.685402815062</v>
       </c>
       <c r="G100">
-        <v>731093134004783.1</v>
+        <v>2874374025745815</v>
       </c>
       <c r="H100">
-        <v>21.33272549858306</v>
+        <v>3519.57921988764</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101">
-        <v>262035297058562.4</v>
+        <v>598757564555052.2</v>
       </c>
       <c r="B101">
-        <v>7.886318933639648</v>
+        <v>2231.317615648006</v>
       </c>
       <c r="C101">
-        <v>239016987677053.9</v>
+        <v>559236635776262.9</v>
       </c>
       <c r="D101">
-        <v>7.196385837234468</v>
+        <v>2249.658736663751</v>
       </c>
       <c r="E101">
-        <v>273707054428114.9</v>
+        <v>586636544026277.1</v>
       </c>
       <c r="F101">
-        <v>8.236080891107484</v>
+        <v>2249.766145660235</v>
       </c>
       <c r="G101">
-        <v>714216073895446.2</v>
+        <v>2823672120490016</v>
       </c>
       <c r="H101">
-        <v>21.33576282035147</v>
+        <v>3476.670003967461</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102">
-        <v>254070804167768.4</v>
+        <v>583096997028959.9</v>
       </c>
       <c r="B102">
-        <v>7.829896531597061</v>
+        <v>2208.787805023665</v>
       </c>
       <c r="C102">
-        <v>231768806905874.6</v>
+        <v>544725752768000.6</v>
       </c>
       <c r="D102">
-        <v>7.145547880656992</v>
+        <v>2226.437867058345</v>
       </c>
       <c r="E102">
-        <v>265407242142002.5</v>
+        <v>571415403958263.9</v>
       </c>
       <c r="F102">
-        <v>8.177676979201861</v>
+        <v>2226.541089661217</v>
       </c>
       <c r="G102">
-        <v>692642289283512.9</v>
+        <v>2775938148710362</v>
       </c>
       <c r="H102">
-        <v>21.17946856827599</v>
+        <v>3425.526340863378</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103">
-        <v>247492716184557.8</v>
+        <v>566762025699225.9</v>
       </c>
       <c r="B103">
-        <v>7.814480395356147</v>
+        <v>2211.319873886269</v>
       </c>
       <c r="C103">
-        <v>225781555417787</v>
+        <v>529583546322340.2</v>
       </c>
       <c r="D103">
-        <v>7.131771932509083</v>
+        <v>2228.586195303718</v>
       </c>
       <c r="E103">
-        <v>258551289950335.6</v>
+        <v>555531999276878.7</v>
       </c>
       <c r="F103">
-        <v>8.162133153522131</v>
+        <v>2228.687047959764</v>
       </c>
       <c r="G103">
-        <v>674817615501406.6</v>
+        <v>2725455475762976</v>
       </c>
       <c r="H103">
-        <v>21.14819140403671</v>
+        <v>3418.297242157751</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104">
-        <v>240490343617011.1</v>
+        <v>552033396359543.9</v>
       </c>
       <c r="B104">
-        <v>7.781261837212575</v>
+        <v>2207.919848083107</v>
       </c>
       <c r="C104">
-        <v>219407347591607.1</v>
+        <v>515924746125526.8</v>
       </c>
       <c r="D104">
-        <v>7.102203955934254</v>
+        <v>2224.661485314265</v>
       </c>
       <c r="E104">
-        <v>251252221150980.4</v>
+        <v>541204577196384.1</v>
       </c>
       <c r="F104">
-        <v>8.127791624506616</v>
+        <v>2224.759144467825</v>
       </c>
       <c r="G104">
-        <v>655836981142161.8</v>
+        <v>2679303719267368</v>
       </c>
       <c r="H104">
-        <v>21.04482387882819</v>
+        <v>3395.496040175922</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105">
-        <v>232806771601976.9</v>
+        <v>536459092512197.2</v>
       </c>
       <c r="B105">
-        <v>7.723478006371976</v>
+        <v>2110.45326133683</v>
       </c>
       <c r="C105">
-        <v>212412122437665.3</v>
+        <v>501475863583552.4</v>
       </c>
       <c r="D105">
-        <v>7.049893901845847</v>
+        <v>2126.058371995905</v>
       </c>
       <c r="E105">
-        <v>243242009860094.9</v>
+        <v>526048360601065</v>
       </c>
       <c r="F105">
-        <v>8.068029680710207</v>
+        <v>2126.14928801576</v>
       </c>
       <c r="G105">
-        <v>635002435845847.6</v>
+        <v>2629819490053394</v>
       </c>
       <c r="H105">
-        <v>20.89545625043004</v>
+        <v>3232.757985113532</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106">
-        <v>226422608221287.1</v>
+        <v>521225397336958</v>
       </c>
       <c r="B106">
-        <v>7.703051546598391</v>
+        <v>2065.52996549898</v>
       </c>
       <c r="C106">
-        <v>206599158310987.2</v>
+        <v>487337161011733.1</v>
       </c>
       <c r="D106">
-        <v>7.031787865356316</v>
+        <v>2080.376504278324</v>
       </c>
       <c r="E106">
-        <v>236585586900006.2</v>
+        <v>511217472497658.6</v>
       </c>
       <c r="F106">
-        <v>8.047083957577303</v>
+        <v>2080.46288868299</v>
       </c>
       <c r="G106">
-        <v>617685393199909.8</v>
+        <v>2580708611417598</v>
       </c>
       <c r="H106">
-        <v>20.83560788055803</v>
+        <v>3148.60753249281</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107">
-        <v>218461695256684.7</v>
+        <v>505874923213070.9</v>
       </c>
       <c r="B107">
-        <v>7.631125906901011</v>
+        <v>2045.972140111517</v>
       </c>
       <c r="C107">
-        <v>199349579988164.4</v>
+        <v>473084241301165.8</v>
       </c>
       <c r="D107">
-        <v>6.967287235867848</v>
+        <v>2060.287706256613</v>
       </c>
       <c r="E107">
-        <v>228284078228086.2</v>
+        <v>496266739403323.2</v>
       </c>
       <c r="F107">
-        <v>7.972161961725617</v>
+        <v>2060.370896114346</v>
       </c>
       <c r="G107">
-        <v>596083864518364</v>
+        <v>2530479740505067</v>
       </c>
       <c r="H107">
-        <v>20.60782499250466</v>
+        <v>3104.817382188714</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108">
-        <v>209487783699024.6</v>
+        <v>491258204973291.5</v>
       </c>
       <c r="B108">
-        <v>7.541836682553907</v>
+        <v>2128.895127930703</v>
       </c>
       <c r="C108">
-        <v>191176268623422.1</v>
+        <v>459507159467977.9</v>
       </c>
       <c r="D108">
-        <v>6.88629606930838</v>
+        <v>2143.395241196853</v>
       </c>
       <c r="E108">
-        <v>218924774978693.4</v>
+        <v>482024899000762.9</v>
       </c>
       <c r="F108">
-        <v>7.879539145396363</v>
+        <v>2143.479400397128</v>
       </c>
       <c r="G108">
-        <v>571723556621017.5</v>
+        <v>2481928520096088</v>
       </c>
       <c r="H108">
-        <v>20.37234105796577</v>
+        <v>3215.760626208374</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109">
-        <v>202131755716415.3</v>
+        <v>477907132004569.2</v>
       </c>
       <c r="B109">
-        <v>7.500025735902387</v>
+        <v>2178.453718323511</v>
       </c>
       <c r="C109">
-        <v>184475514736156.2</v>
+        <v>447101041069546.1</v>
       </c>
       <c r="D109">
-        <v>6.847874236124435</v>
+        <v>2192.872395962947</v>
       </c>
       <c r="E109">
-        <v>211251684925846.4</v>
+        <v>469011325729616.7</v>
       </c>
       <c r="F109">
-        <v>7.836766125685094</v>
+        <v>2192.955982442723</v>
       </c>
       <c r="G109">
-        <v>551747147978668.7</v>
+        <v>2436937412079234</v>
       </c>
       <c r="H109">
-        <v>20.30227209791208</v>
+        <v>3273.270272618505</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110">
-        <v>196644488860026.4</v>
+        <v>464669462732979.4</v>
       </c>
       <c r="B110">
-        <v>7.482928566435977</v>
+        <v>2174.45393613633</v>
       </c>
       <c r="C110">
-        <v>179476473122414.8</v>
+        <v>434795896615935.4</v>
       </c>
       <c r="D110">
-        <v>6.83242404046243</v>
+        <v>2188.47788950709</v>
       </c>
       <c r="E110">
-        <v>205527228061551.4</v>
+        <v>456103643337842.3</v>
       </c>
       <c r="F110">
-        <v>7.819389088128527</v>
+        <v>2188.559096326028</v>
       </c>
       <c r="G110">
-        <v>536840970598557.9</v>
+        <v>2391695575748438</v>
       </c>
       <c r="H110">
-        <v>20.26856935536075</v>
+        <v>3252.227652329486</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111">
-        <v>190347835890208.1</v>
+        <v>452007324265571.8</v>
       </c>
       <c r="B111">
-        <v>7.417744204945656</v>
+        <v>2249.068442423007</v>
       </c>
       <c r="C111">
-        <v>173739449196309.9</v>
+        <v>423021628194271.2</v>
       </c>
       <c r="D111">
-        <v>6.773209832387756</v>
+        <v>2263.20698118787</v>
       </c>
       <c r="E111">
-        <v>198957687043831.7</v>
+        <v>443752806704315.7</v>
       </c>
       <c r="F111">
-        <v>7.751764490540713</v>
+        <v>2263.28876263914</v>
       </c>
       <c r="G111">
-        <v>519731170219652.6</v>
+        <v>2347806657787455</v>
       </c>
       <c r="H111">
-        <v>20.09958179804022</v>
+        <v>3348.320180814818</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112">
-        <v>185469550408748.7</v>
+        <v>440311249942457.4</v>
       </c>
       <c r="B112">
-        <v>7.43441242828053</v>
+        <v>2221.813611949339</v>
       </c>
       <c r="C112">
-        <v>169294283379963.8</v>
+        <v>412142104115597.7</v>
       </c>
       <c r="D112">
-        <v>6.788413074919085</v>
+        <v>2235.386485538937</v>
       </c>
       <c r="E112">
-        <v>193867460366356.5</v>
+        <v>432340506675665.4</v>
       </c>
       <c r="F112">
-        <v>7.769704701386344</v>
+        <v>2235.464909102295</v>
       </c>
       <c r="G112">
-        <v>506471859254672.2</v>
+        <v>2306711419049722</v>
       </c>
       <c r="H112">
-        <v>20.1649858427332</v>
+        <v>3289.397288146403</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113">
-        <v>180750995125078</v>
+        <v>427988332210606.1</v>
       </c>
       <c r="B113">
-        <v>7.440857398490013</v>
+        <v>2090.348835232045</v>
       </c>
       <c r="C113">
-        <v>164994293161544.5</v>
+        <v>400675772861443.8</v>
       </c>
       <c r="D113">
-        <v>6.79430344171814</v>
+        <v>2102.787750279806</v>
       </c>
       <c r="E113">
-        <v>188943468777518.2</v>
+        <v>420312640322937.2</v>
       </c>
       <c r="F113">
-        <v>7.776935099448107</v>
+        <v>2102.859545280381</v>
       </c>
       <c r="G113">
-        <v>493643691171248.1</v>
+        <v>2262814362999504</v>
       </c>
       <c r="H113">
-        <v>20.20094842352219</v>
+        <v>3079.767683038448</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114">
-        <v>177238072400887.8</v>
+        <v>415496164063182.5</v>
       </c>
       <c r="B114">
-        <v>7.446448132555552</v>
+        <v>1991.738675786138</v>
       </c>
       <c r="C114">
-        <v>161792750239429.9</v>
+        <v>389048045447838.6</v>
       </c>
       <c r="D114">
-        <v>6.799921766756362</v>
+        <v>2003.254429631114</v>
       </c>
       <c r="E114">
-        <v>185277322872857.1</v>
+        <v>408115449837479</v>
       </c>
       <c r="F114">
-        <v>7.782858931677822</v>
+        <v>2003.320822273606</v>
       </c>
       <c r="G114">
-        <v>484091311570447.2</v>
+        <v>2217661487684456</v>
       </c>
       <c r="H114">
-        <v>20.20067621953726</v>
+        <v>2918.455309999008</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115">
-        <v>171532344077170.6</v>
+        <v>402704827051686.8</v>
       </c>
       <c r="B115">
-        <v>7.352741317967995</v>
+        <v>2056.373432231468</v>
       </c>
       <c r="C115">
-        <v>156592335089511.9</v>
+        <v>377137762706158.2</v>
       </c>
       <c r="D115">
-        <v>6.7154565583929</v>
+        <v>2067.970706523964</v>
       </c>
       <c r="E115">
-        <v>179322222546878.2</v>
+        <v>395621840941056.2</v>
       </c>
       <c r="F115">
-        <v>7.684889715718628</v>
+        <v>2068.037499070096</v>
       </c>
       <c r="G115">
-        <v>468572732439300.8</v>
+        <v>2170717502243583</v>
       </c>
       <c r="H115">
-        <v>19.90568532759561</v>
+        <v>2999.893568678633</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116">
-        <v>165288821751570.6</v>
+        <v>391761260531725.8</v>
       </c>
       <c r="B116">
-        <v>7.276656775530815</v>
+        <v>2178.100927974236</v>
       </c>
       <c r="C116">
-        <v>150901139416090.5</v>
+        <v>366944687457425.6</v>
       </c>
       <c r="D116">
-        <v>6.646392202806034</v>
+        <v>2190.012142360399</v>
       </c>
       <c r="E116">
-        <v>172805106869132.6</v>
+        <v>384929522530253.3</v>
       </c>
       <c r="F116">
-        <v>7.605771475746923</v>
+        <v>2190.080669948565</v>
       </c>
       <c r="G116">
-        <v>451586484507650.6</v>
+        <v>2129961389248028</v>
       </c>
       <c r="H116">
-        <v>19.69960647887683</v>
+        <v>3157.895685309835</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117">
-        <v>159697236903314.2</v>
+        <v>380905348355993</v>
       </c>
       <c r="B117">
-        <v>7.216385538279143</v>
+        <v>2061.997551218894</v>
       </c>
       <c r="C117">
-        <v>145803662679415.4</v>
+        <v>356830251501263.1</v>
       </c>
       <c r="D117">
-        <v>6.591385486935556</v>
+        <v>2072.950973211288</v>
       </c>
       <c r="E117">
-        <v>166967860806184.8</v>
+        <v>374319676700794.6</v>
       </c>
       <c r="F117">
-        <v>7.543321980016986</v>
+        <v>2073.013926356276</v>
       </c>
       <c r="G117">
-        <v>436369504716976.6</v>
+        <v>2088969608677069</v>
       </c>
       <c r="H117">
-        <v>19.55544882859197</v>
+        <v>2972.433350318535</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118">
-        <v>154820868396764.1</v>
+        <v>369372422972992.1</v>
       </c>
       <c r="B118">
-        <v>7.144142173964172</v>
+        <v>2000.204764921591</v>
       </c>
       <c r="C118">
-        <v>141357780248780.2</v>
+        <v>346081759659882.8</v>
       </c>
       <c r="D118">
-        <v>6.524985013065519</v>
+        <v>2010.556303012454</v>
       </c>
       <c r="E118">
-        <v>161876762745817.6</v>
+        <v>363044698584145.8</v>
       </c>
       <c r="F118">
-        <v>7.4685383661165</v>
+        <v>2010.615738117282</v>
       </c>
       <c r="G118">
-        <v>423095519574287.6</v>
+        <v>2044784335052842</v>
       </c>
       <c r="H118">
-        <v>19.40221236825848</v>
+        <v>2869.31022834955</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119">
-        <v>152016491815364.8</v>
+        <v>358523671015032.6</v>
       </c>
       <c r="B119">
-        <v>7.179163253231209</v>
+        <v>2036.169793951181</v>
       </c>
       <c r="C119">
-        <v>138800796510281.8</v>
+        <v>335967811982444</v>
       </c>
       <c r="D119">
-        <v>6.557222614220496</v>
+        <v>2046.399926520149</v>
       </c>
       <c r="E119">
-        <v>158948689089209.3</v>
+        <v>352435327228030.2</v>
       </c>
       <c r="F119">
-        <v>7.505291341703907</v>
+        <v>2046.458605229575</v>
       </c>
       <c r="G119">
-        <v>415460277658099</v>
+        <v>2002597678949918</v>
       </c>
       <c r="H119">
-        <v>19.49359683966446</v>
+        <v>2903.909193746172</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120">
-        <v>147005131576883.3</v>
+        <v>348031830918190.3</v>
       </c>
       <c r="B120">
-        <v>7.142819435853291</v>
+        <v>2016.944236488363</v>
       </c>
       <c r="C120">
-        <v>134231198772978.1</v>
+        <v>326183743497658.7</v>
       </c>
       <c r="D120">
-        <v>6.524529082102738</v>
+        <v>2026.783424520295</v>
       </c>
       <c r="E120">
-        <v>153715908146150.8</v>
+        <v>342171976531091.8</v>
       </c>
       <c r="F120">
-        <v>7.46752138771441</v>
+        <v>2026.839805462001</v>
       </c>
       <c r="G120">
-        <v>401813654112516.4</v>
+        <v>1961202231586439</v>
       </c>
       <c r="H120">
-        <v>19.38533587125307</v>
+        <v>2859.783392962807</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121">
-        <v>143697881693910.5</v>
+        <v>337610124103728</v>
       </c>
       <c r="B121">
-        <v>7.161119206502271</v>
+        <v>1995.787189305679</v>
       </c>
       <c r="C121">
-        <v>131215263257561.6</v>
+        <v>316462289471437.1</v>
       </c>
       <c r="D121">
-        <v>6.541075277512582</v>
+        <v>2005.248615781484</v>
       </c>
       <c r="E121">
-        <v>150262266891692.5</v>
+        <v>331974290571946.1</v>
       </c>
       <c r="F121">
-        <v>7.487088195289721</v>
+        <v>2005.302780310325</v>
       </c>
       <c r="G121">
-        <v>392805722450741.3</v>
+        <v>1919480296335140</v>
       </c>
       <c r="H121">
-        <v>19.45755352652429</v>
+        <v>2814.01513004493</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122">
-        <v>140130564885965.2</v>
+        <v>327529471117190.2</v>
       </c>
       <c r="B122">
-        <v>7.11545572173512</v>
+        <v>2042.942373129227</v>
       </c>
       <c r="C122">
-        <v>127961966020908.9</v>
+        <v>307056324991006.2</v>
       </c>
       <c r="D122">
-        <v>6.500046610756038</v>
+        <v>2052.358617574509</v>
       </c>
       <c r="E122">
-        <v>146536811202364.2</v>
+        <v>322107533189975.4</v>
       </c>
       <c r="F122">
-        <v>7.439316385565652</v>
+        <v>2052.412473676319</v>
       </c>
       <c r="G122">
-        <v>383087811941739.3</v>
+        <v>1878529963967145</v>
       </c>
       <c r="H122">
-        <v>19.30780691798807</v>
+        <v>2864.75021264937</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123">
-        <v>135363667063840.7</v>
+        <v>318179046447534.1</v>
       </c>
       <c r="B123">
-        <v>7.049943267804561</v>
+        <v>2031.665965690065</v>
       </c>
       <c r="C123">
-        <v>123614355091404.1</v>
+        <v>298329383131271.8</v>
       </c>
       <c r="D123">
-        <v>6.441229893838327</v>
+        <v>2040.743361709557</v>
       </c>
       <c r="E123">
-        <v>141558214820786.2</v>
+        <v>312953049216549.1</v>
       </c>
       <c r="F123">
-        <v>7.370707540188389</v>
+        <v>2040.795231740908</v>
       </c>
       <c r="G123">
-        <v>370099409054420.1</v>
+        <v>1840004665047114</v>
       </c>
       <c r="H123">
-        <v>19.08874641145227</v>
+        <v>2831.136629684954</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124">
-        <v>129512221143095.2</v>
+        <v>308548348688266.3</v>
       </c>
       <c r="B124">
-        <v>6.957921099179589</v>
+        <v>2015.478103175078</v>
       </c>
       <c r="C124">
-        <v>118277077684431.8</v>
+        <v>289338506124639.5</v>
       </c>
       <c r="D124">
-        <v>6.357017647144708</v>
+        <v>2024.24615670514</v>
       </c>
       <c r="E124">
-        <v>135446307301856.3</v>
+        <v>303521685391473.1</v>
       </c>
       <c r="F124">
-        <v>7.275161055011315</v>
+        <v>2024.296215878827</v>
       </c>
       <c r="G124">
-        <v>354151779560099.1</v>
+        <v>1799759987603084</v>
       </c>
       <c r="H124">
-        <v>18.86939000837524</v>
+        <v>2794.231764570668</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125">
-        <v>126599801785142.6</v>
+        <v>299624610255889.9</v>
       </c>
       <c r="B125">
-        <v>6.970238076220826</v>
+        <v>2002.952960405758</v>
       </c>
       <c r="C125">
-        <v>115620362766083.7</v>
+        <v>281005488591002</v>
       </c>
       <c r="D125">
-        <v>6.367560436243209</v>
+        <v>2011.395003462439</v>
       </c>
       <c r="E125">
-        <v>132404003553972</v>
+        <v>294780398405424.6</v>
       </c>
       <c r="F125">
-        <v>7.288742269529048</v>
+        <v>2011.443158272936</v>
       </c>
       <c r="G125">
-        <v>346212516969878.4</v>
+        <v>1761939948561074</v>
       </c>
       <c r="H125">
-        <v>18.9549543322656</v>
+        <v>2759.272669401553</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126">
-        <v>123739128559584.8</v>
+        <v>290417866604624.5</v>
       </c>
       <c r="B126">
-        <v>6.959708879938939</v>
+        <v>1923.691332381536</v>
       </c>
       <c r="C126">
-        <v>113010714336096.2</v>
+        <v>272406046235556.7</v>
       </c>
       <c r="D126">
-        <v>6.358332519183827</v>
+        <v>1931.567731437402</v>
       </c>
       <c r="E126">
-        <v>129415594594844.4</v>
+        <v>285759620309100.2</v>
       </c>
       <c r="F126">
-        <v>7.277790314145519</v>
+        <v>1931.612621129981</v>
       </c>
       <c r="G126">
-        <v>338413210352352.9</v>
+        <v>1722367447121785</v>
       </c>
       <c r="H126">
-        <v>18.91440819805336</v>
+        <v>2635.179455213798</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127">
-        <v>120242422285511.4</v>
+        <v>281327160535146.8</v>
       </c>
       <c r="B127">
-        <v>6.964593021842953</v>
+        <v>1878.838080770258</v>
       </c>
       <c r="C127">
-        <v>109820661232269.1</v>
+        <v>263912837752824.8</v>
       </c>
       <c r="D127">
-        <v>6.363440233406124</v>
+        <v>1886.294695351465</v>
       </c>
       <c r="E127">
-        <v>125762538099956.6</v>
+        <v>276850268107765.7</v>
       </c>
       <c r="F127">
-        <v>7.282871022703332</v>
+        <v>1886.337155361821</v>
       </c>
       <c r="G127">
-        <v>328878343844436.4</v>
+        <v>1682722977520207</v>
       </c>
       <c r="H127">
-        <v>18.90339478691772</v>
+        <v>2558.057146153912</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128">
-        <v>116221471433343.1</v>
+        <v>272270027146909.5</v>
       </c>
       <c r="B128">
-        <v>6.928437742872003</v>
+        <v>1847.455747815111</v>
       </c>
       <c r="C128">
-        <v>106152088783156.1</v>
+        <v>255448867691573.8</v>
       </c>
       <c r="D128">
-        <v>6.330808272492704</v>
+        <v>1854.563831847121</v>
       </c>
       <c r="E128">
-        <v>121561504955335.5</v>
+        <v>267971574095153.2</v>
       </c>
       <c r="F128">
-        <v>7.245228667387203</v>
+        <v>1854.604272302561</v>
       </c>
       <c r="G128">
-        <v>317911937684160.6</v>
+        <v>1642640524217780</v>
       </c>
       <c r="H128">
-        <v>18.79700718687334</v>
+        <v>2500.240218086246</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129">
-        <v>112426538370273.7</v>
+        <v>263465229428417.1</v>
       </c>
       <c r="B129">
-        <v>6.841373803977875</v>
+        <v>1916.745296116015</v>
       </c>
       <c r="C129">
-        <v>102689481737745.5</v>
+        <v>247218668357003.8</v>
       </c>
       <c r="D129">
-        <v>6.251653342160636</v>
+        <v>1923.906668628881</v>
       </c>
       <c r="E129">
-        <v>117596326214417.5</v>
+        <v>259338092995600.3</v>
       </c>
       <c r="F129">
-        <v>7.154322655731264</v>
+        <v>1923.947378822448</v>
       </c>
       <c r="G129">
-        <v>307559968378987.2</v>
+        <v>1603095416098296</v>
       </c>
       <c r="H129">
-        <v>18.55167894928221</v>
+        <v>2579.533227159252</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130">
-        <v>108019651481625.8</v>
+        <v>255610544078695.4</v>
       </c>
       <c r="B130">
-        <v>6.734155834814787</v>
+        <v>2034.749356083937</v>
       </c>
       <c r="C130">
-        <v>98668211419393.25</v>
+        <v>239874878010347.6</v>
       </c>
       <c r="D130">
-        <v>6.153235121394642</v>
+        <v>2042.118396132787</v>
       </c>
       <c r="E130">
-        <v>112991392222860.2</v>
+        <v>251634444911139.8</v>
       </c>
       <c r="F130">
-        <v>7.042888591669436</v>
+        <v>2042.160253795705</v>
       </c>
       <c r="G130">
-        <v>295536266835965.2</v>
+        <v>1567318693746505</v>
       </c>
       <c r="H130">
-        <v>18.30287891359657</v>
+        <v>2721.817210408366</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131">
-        <v>106417533769103.7</v>
+        <v>248239767948502</v>
       </c>
       <c r="B131">
-        <v>6.840353631404304</v>
+        <v>2031.749824726514</v>
       </c>
       <c r="C131">
-        <v>97206204472634.06</v>
+        <v>232982062257225.2</v>
       </c>
       <c r="D131">
-        <v>6.250100676148058</v>
+        <v>2038.88592138306</v>
       </c>
       <c r="E131">
-        <v>111317181950248</v>
+        <v>244403861136692.9</v>
       </c>
       <c r="F131">
-        <v>7.154212305927921</v>
+        <v>2038.926425531665</v>
       </c>
       <c r="G131">
-        <v>291164421684329.6</v>
+        <v>1533304165989485</v>
       </c>
       <c r="H131">
-        <v>18.60743545843909</v>
+        <v>2701.732742592966</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132">
-        <v>102914992636384.1</v>
+        <v>240802293816186.7</v>
       </c>
       <c r="B132">
-        <v>6.784473458183195</v>
+        <v>1836.168981923061</v>
       </c>
       <c r="C132">
-        <v>94009824864117.88</v>
+        <v>226025439133246.9</v>
       </c>
       <c r="D132">
-        <v>6.199801794650141</v>
+        <v>1842.405099025915</v>
       </c>
       <c r="E132">
-        <v>107656860062977.9</v>
+        <v>237106334627786.6</v>
       </c>
       <c r="F132">
-        <v>7.095664276168816</v>
+        <v>1842.440467427536</v>
       </c>
       <c r="G132">
-        <v>281605519259782.5</v>
+        <v>1498534516100728</v>
       </c>
       <c r="H132">
-        <v>18.4240772297462</v>
+        <v>2425.834758192679</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133">
-        <v>99901593558934.97</v>
+        <v>232345131726101.8</v>
       </c>
       <c r="B133">
-        <v>6.721548554922884</v>
+        <v>1774.948348220932</v>
       </c>
       <c r="C133">
-        <v>91259668363435.52</v>
+        <v>218113300095508.9</v>
       </c>
       <c r="D133">
-        <v>6.142718645884005</v>
+        <v>1780.820378928296</v>
       </c>
       <c r="E133">
-        <v>104507525517846.1</v>
+        <v>228806457440381.5</v>
       </c>
       <c r="F133">
-        <v>7.029897052979322</v>
+        <v>1780.853657975723</v>
       </c>
       <c r="G133">
-        <v>273380234721964.3</v>
+        <v>1458434110336261</v>
       </c>
       <c r="H133">
-        <v>18.23975891460625</v>
+        <v>2333.913855815734</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134">
-        <v>95847317670645.97</v>
+        <v>224936913849818</v>
       </c>
       <c r="B134">
-        <v>6.610339097607056</v>
+        <v>1830.799988893911</v>
       </c>
       <c r="C134">
-        <v>87559326219214.95</v>
+        <v>211180970659966.9</v>
       </c>
       <c r="D134">
-        <v>6.041749261450631</v>
+        <v>1836.640164906875</v>
       </c>
       <c r="E134">
-        <v>100270083480608.8</v>
+        <v>221534396688036.9</v>
       </c>
       <c r="F134">
-        <v>6.913580224124793</v>
+        <v>1836.673237206563</v>
       </c>
       <c r="G134">
-        <v>262311882418581.6</v>
+        <v>1422798124317333</v>
       </c>
       <c r="H134">
-        <v>17.91392916126599</v>
+        <v>2390.748119430996</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135">
-        <v>91818977619826.55</v>
+        <v>217454180161770.2</v>
       </c>
       <c r="B135">
-        <v>6.536240466830448</v>
+        <v>1878.196166914013</v>
       </c>
       <c r="C135">
-        <v>83882386298708.09</v>
+        <v>204177454559164.6</v>
       </c>
       <c r="D135">
-        <v>5.973328811986478</v>
+        <v>1884.019200120175</v>
       </c>
       <c r="E135">
-        <v>96059434923541.28</v>
+        <v>214187651909449.5</v>
       </c>
       <c r="F135">
-        <v>6.836876304486764</v>
+        <v>1884.05215236188</v>
       </c>
       <c r="G135">
-        <v>251312151990888.7</v>
+        <v>1386304749963365</v>
       </c>
       <c r="H135">
-        <v>17.76813417634706</v>
+        <v>2440.021938828894</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136">
-        <v>90416201472788.59</v>
+        <v>210904595447789.7</v>
       </c>
       <c r="B136">
-        <v>6.598188291848434</v>
+        <v>2019.420865681671</v>
       </c>
       <c r="C136">
-        <v>82601914052030.91</v>
+        <v>198046121773611.5</v>
       </c>
       <c r="D136">
-        <v>6.029715172264431</v>
+        <v>2025.484144543433</v>
       </c>
       <c r="E136">
-        <v>94593100551300.72</v>
+        <v>207755827247227.1</v>
       </c>
       <c r="F136">
-        <v>6.901940577526394</v>
+        <v>2025.518432924113</v>
       </c>
       <c r="G136">
-        <v>247481239328625.1</v>
+        <v>1353938032110047</v>
       </c>
       <c r="H136">
-        <v>17.95483823310056</v>
+        <v>2608.018999616165</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137">
-        <v>87288725234756.75</v>
+        <v>204796275411616.2</v>
       </c>
       <c r="B137">
-        <v>6.501387028682811</v>
+        <v>1897.805091345683</v>
       </c>
       <c r="C137">
-        <v>79746995923725.75</v>
+        <v>192326860703061</v>
       </c>
       <c r="D137">
-        <v>5.941977978668193</v>
+        <v>1903.307240186587</v>
       </c>
       <c r="E137">
-        <v>91323785122313.72</v>
+        <v>201756263553228.4</v>
       </c>
       <c r="F137">
-        <v>6.800547256255503</v>
+        <v>1903.338334186251</v>
       </c>
       <c r="G137">
-        <v>238939304509799</v>
+        <v>1323384468509937</v>
       </c>
       <c r="H137">
-        <v>17.66012577270391</v>
+        <v>2435.148906881156</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138">
-        <v>84570365720926.64</v>
+        <v>197825639820008.3</v>
       </c>
       <c r="B138">
-        <v>6.468749280609329</v>
+        <v>1818.828494767025</v>
       </c>
       <c r="C138">
-        <v>77265408620108.11</v>
+        <v>185799010521659.4</v>
       </c>
       <c r="D138">
-        <v>5.912588965047624</v>
+        <v>1823.966645915589</v>
       </c>
       <c r="E138">
-        <v>88481987555505.02</v>
+        <v>194908474412763.3</v>
       </c>
       <c r="F138">
-        <v>6.766398931088274</v>
+        <v>1823.995664815553</v>
       </c>
       <c r="G138">
-        <v>231513704788502.4</v>
+        <v>1288071752996614</v>
       </c>
       <c r="H138">
-        <v>17.55526642476614</v>
+        <v>2323.37489781888</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139">
-        <v>80862883899093.7</v>
+        <v>191613906862207.6</v>
       </c>
       <c r="B139">
-        <v>6.358150706638321</v>
+        <v>2007.116529947117</v>
       </c>
       <c r="C139">
-        <v>73880655412226.16</v>
+        <v>179980779635377.2</v>
       </c>
       <c r="D139">
-        <v>5.811787832605683</v>
+        <v>2012.61547306519</v>
       </c>
       <c r="E139">
-        <v>84605922630672.81</v>
+        <v>188805077563860.5</v>
       </c>
       <c r="F139">
-        <v>6.65088103046608</v>
+        <v>2012.646510159054</v>
       </c>
       <c r="G139">
-        <v>221384571545748.1</v>
+        <v>1256191568814866</v>
       </c>
       <c r="H139">
-        <v>17.25113907463561</v>
+        <v>2550.083171847118</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140">
-        <v>78088010147013.86</v>
+        <v>186255008436532.3</v>
       </c>
       <c r="B140">
-        <v>6.293759311481835</v>
+        <v>1989.82687540532</v>
       </c>
       <c r="C140">
-        <v>71347179698006.02</v>
+        <v>174960541482868.9</v>
       </c>
       <c r="D140">
-        <v>5.752775232546247</v>
+        <v>1995.088112508816</v>
       </c>
       <c r="E140">
-        <v>81704698781405.72</v>
+        <v>183538780189145.5</v>
       </c>
       <c r="F140">
-        <v>6.583870087172649</v>
+        <v>1995.117789507563</v>
       </c>
       <c r="G140">
-        <v>213802188668564.1</v>
+        <v>1228367654000470</v>
       </c>
       <c r="H140">
-        <v>17.0950184187496</v>
+        <v>2512.132081621919</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141">
-        <v>75259205952694.2</v>
+        <v>180269147525840.9</v>
       </c>
       <c r="B141">
-        <v>6.217723547233626</v>
+        <v>1839.622365840036</v>
       </c>
       <c r="C141">
-        <v>68764333872667.74</v>
+        <v>169352067301936.3</v>
       </c>
       <c r="D141">
-        <v>5.682967636948577</v>
+        <v>1844.351315265219</v>
       </c>
       <c r="E141">
-        <v>78746935771924.78</v>
+        <v>177655409972347</v>
       </c>
       <c r="F141">
-        <v>6.50476980988392</v>
+        <v>1844.377974484942</v>
       </c>
       <c r="G141">
-        <v>206071374666221.2</v>
+        <v>1196927901608030</v>
       </c>
       <c r="H141">
-        <v>16.91627433679703</v>
+        <v>2311.4051347273</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142">
-        <v>73702989109449.11</v>
+        <v>174378320543495.7</v>
       </c>
       <c r="B142">
-        <v>6.247427118688422</v>
+        <v>1792.272059735988</v>
       </c>
       <c r="C142">
-        <v>67343370163523.85</v>
+        <v>163831712399651.1</v>
       </c>
       <c r="D142">
-        <v>5.70980305238327</v>
+        <v>1796.728918405014</v>
       </c>
       <c r="E142">
-        <v>77119708602533.98</v>
+        <v>171864472652122.7</v>
       </c>
       <c r="F142">
-        <v>6.536174027568902</v>
+        <v>1796.754028415169</v>
       </c>
       <c r="G142">
-        <v>201817944628010.4</v>
+        <v>1165605977349610</v>
       </c>
       <c r="H142">
-        <v>17.0209525257239</v>
+        <v>2239.236572830274</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143">
-        <v>71897854699517.91</v>
+        <v>168477046915298.2</v>
       </c>
       <c r="B143">
-        <v>6.224997046251122</v>
+        <v>1641.705137142339</v>
       </c>
       <c r="C143">
-        <v>65695072412233.75</v>
+        <v>158300648615769.5</v>
       </c>
       <c r="D143">
-        <v>5.68984222781096</v>
+        <v>1645.637366614322</v>
       </c>
       <c r="E143">
-        <v>75232147128028.38</v>
+        <v>166062296081398.8</v>
       </c>
       <c r="F143">
-        <v>6.512546601921094</v>
+        <v>1645.659506707039</v>
       </c>
       <c r="G143">
-        <v>196883768576086.7</v>
+        <v>1133838790716896</v>
       </c>
       <c r="H143">
-        <v>16.93421194356524</v>
+        <v>2038.192614455211</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144">
-        <v>69394414998685.05</v>
+        <v>161940387796524</v>
       </c>
       <c r="B144">
-        <v>6.148398786490995</v>
+        <v>1526.037676495357</v>
       </c>
       <c r="C144">
-        <v>63409051301013.43</v>
+        <v>152172984297417.9</v>
       </c>
       <c r="D144">
-        <v>5.619972296532134</v>
+        <v>1529.571249000666</v>
       </c>
       <c r="E144">
-        <v>72614289761336.03</v>
+        <v>159634269379187.3</v>
       </c>
       <c r="F144">
-        <v>6.432548345387475</v>
+        <v>1529.591131935576</v>
       </c>
       <c r="G144">
-        <v>190040111002829.2</v>
+        <v>1098182878835626</v>
       </c>
       <c r="H144">
-        <v>16.7259002793774</v>
+        <v>1884.22250732624</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145">
-        <v>67651049406503.07</v>
+        <v>155615519770035.5</v>
       </c>
       <c r="B145">
-        <v>6.137887397310931</v>
+        <v>1518.867037049819</v>
       </c>
       <c r="C145">
-        <v>61817032068635.59</v>
+        <v>146242782263419.5</v>
       </c>
       <c r="D145">
-        <v>5.610398586647854</v>
+        <v>1522.249550616855</v>
       </c>
       <c r="E145">
-        <v>70791173543882.88</v>
+        <v>153413377658163.3</v>
       </c>
       <c r="F145">
-        <v>6.421685906988663</v>
+        <v>1522.268571086773</v>
       </c>
       <c r="G145">
-        <v>185273771305362.3</v>
+        <v>1063199699846599</v>
       </c>
       <c r="H145">
-        <v>16.70117293715431</v>
+        <v>1863.631595616859</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146">
-        <v>65365782420949.23</v>
+        <v>149522841996884.9</v>
       </c>
       <c r="B146">
-        <v>6.048695621622898</v>
+        <v>1633.09383391425</v>
       </c>
       <c r="C146">
-        <v>59730079086987.62</v>
+        <v>140529278964646.4</v>
       </c>
       <c r="D146">
-        <v>5.529377966836016</v>
+        <v>1636.61068112736</v>
       </c>
       <c r="E146">
-        <v>68401277587914.64</v>
+        <v>147419800969782.4</v>
       </c>
       <c r="F146">
-        <v>6.328266106811694</v>
+        <v>1636.630445277541</v>
       </c>
       <c r="G146">
-        <v>179025260489674.3</v>
+        <v>1029038417062989</v>
       </c>
       <c r="H146">
-        <v>16.43625342596929</v>
+        <v>1993.337261629768</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147">
-        <v>62839490879400.92</v>
+        <v>144518687442534.3</v>
       </c>
       <c r="B147">
-        <v>5.975268234757583</v>
+        <v>1843.686042030324</v>
       </c>
       <c r="C147">
-        <v>57422916747025.42</v>
+        <v>135835818159541.8</v>
       </c>
       <c r="D147">
-        <v>5.462103384651746</v>
+        <v>1847.511366742146</v>
       </c>
       <c r="E147">
-        <v>65759204517387.61</v>
+        <v>142496264433798.5</v>
       </c>
       <c r="F147">
-        <v>6.251756711096319</v>
+        <v>1847.532852553084</v>
       </c>
       <c r="G147">
-        <v>172116908100486.8</v>
+        <v>1000631534113288</v>
       </c>
       <c r="H147">
-        <v>16.25400695560691</v>
+        <v>2237.350659816329</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148">
-        <v>61280970524406.72</v>
+        <v>140022490788093.1</v>
       </c>
       <c r="B148">
-        <v>6.011374940146796</v>
+        <v>1862.799480272325</v>
       </c>
       <c r="C148">
-        <v>55999528851690.02</v>
+        <v>131618210022230.4</v>
       </c>
       <c r="D148">
-        <v>5.495069709189718</v>
+        <v>1866.529896258991</v>
       </c>
       <c r="E148">
-        <v>64129194670600.14</v>
+        <v>138071903731846.7</v>
       </c>
       <c r="F148">
-        <v>6.289694158780891</v>
+        <v>1866.55083841824</v>
       </c>
       <c r="G148">
-        <v>167854577185842.9</v>
+        <v>974832992713241.8</v>
       </c>
       <c r="H148">
-        <v>16.35971965467504</v>
+        <v>2248.293982254067</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149">
-        <v>59123000856934.2</v>
+        <v>135408353204607.7</v>
       </c>
       <c r="B149">
-        <v>5.963450826257197</v>
+        <v>1695.538309273202</v>
       </c>
       <c r="C149">
-        <v>54028600767417.94</v>
+        <v>127289409614644.4</v>
       </c>
       <c r="D149">
-        <v>5.450799056865433</v>
+        <v>1698.815395314094</v>
       </c>
       <c r="E149">
-        <v>61872161192691.87</v>
+        <v>133530896661399.2</v>
       </c>
       <c r="F149">
-        <v>6.24002027477337</v>
+        <v>1698.833783289184</v>
       </c>
       <c r="G149">
-        <v>161952297848657.3</v>
+        <v>948080684602767.1</v>
       </c>
       <c r="H149">
-        <v>16.26392110019672</v>
+        <v>2035.566721771584</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150">
-        <v>58831962173583.74</v>
+        <v>130343268373216.9</v>
       </c>
       <c r="B150">
-        <v>6.052865665726318</v>
+        <v>1653.657598354476</v>
       </c>
       <c r="C150">
-        <v>53762781892936.21</v>
+        <v>122536895779465</v>
       </c>
       <c r="D150">
-        <v>5.532703007975006</v>
+        <v>1656.75966307425</v>
       </c>
       <c r="E150">
-        <v>61567755190679.19</v>
+        <v>128545401001233.9</v>
       </c>
       <c r="F150">
-        <v>6.333500174415676</v>
+        <v>1656.777060630762</v>
       </c>
       <c r="G150">
-        <v>161156227719480.1</v>
+        <v>918383170781661.9</v>
       </c>
       <c r="H150">
-        <v>16.49827487430146</v>
+        <v>1976.781386460914</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151">
-        <v>56402249254133.02</v>
+        <v>125855224344949.1</v>
       </c>
       <c r="B151">
-        <v>5.94781587814517</v>
+        <v>1677.957991958971</v>
       </c>
       <c r="C151">
-        <v>51543559690486.89</v>
+        <v>118325241727485.1</v>
       </c>
       <c r="D151">
-        <v>5.437399873214298</v>
+        <v>1680.982705481156</v>
       </c>
       <c r="E151">
-        <v>59026382388223.23</v>
+        <v>124127276239821.1</v>
       </c>
       <c r="F151">
-        <v>6.223355551612189</v>
+        <v>1680.999660535393</v>
       </c>
       <c r="G151">
-        <v>154509855324942.7</v>
+        <v>891772970931901.8</v>
       </c>
       <c r="H151">
-        <v>16.17736945657231</v>
+        <v>1994.330431398887</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152">
-        <v>55000223853891.2</v>
+        <v>121252663445259.4</v>
       </c>
       <c r="B152">
-        <v>5.986349554933269</v>
+        <v>1588.475695179745</v>
       </c>
       <c r="C152">
-        <v>50262949903075.77</v>
+        <v>114005565117579.2</v>
       </c>
       <c r="D152">
-        <v>5.471680933591837</v>
+        <v>1591.237222652985</v>
       </c>
       <c r="E152">
-        <v>57559873575107.48</v>
+        <v>119595829961181</v>
       </c>
       <c r="F152">
-        <v>6.264371741224783</v>
+        <v>1591.252694912283</v>
       </c>
       <c r="G152">
-        <v>150674314843142.6</v>
+        <v>864188097399998.6</v>
       </c>
       <c r="H152">
-        <v>16.34303695602786</v>
+        <v>1878.438309129265</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153">
-        <v>54609969642049.88</v>
+        <v>116603699216701.8</v>
       </c>
       <c r="B153">
-        <v>6.034581960189892</v>
+        <v>1593.477218917501</v>
       </c>
       <c r="C153">
-        <v>49906485964321.84</v>
+        <v>109641763050928.3</v>
       </c>
       <c r="D153">
-        <v>5.515807842281437</v>
+        <v>1596.153348909721</v>
       </c>
       <c r="E153">
-        <v>57151663622557.85</v>
+        <v>115018091609598.6</v>
       </c>
       <c r="F153">
-        <v>6.3148532954836</v>
+        <v>1596.168335654518</v>
       </c>
       <c r="G153">
-        <v>149606643814374.4</v>
+        <v>836014100972828.9</v>
       </c>
       <c r="H153">
-        <v>16.473557901318</v>
+        <v>1875.528774997806</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154">
-        <v>53194340682785.31</v>
+        <v>112383777102055.3</v>
       </c>
       <c r="B154">
-        <v>5.920219477440148</v>
+        <v>1514.952165381908</v>
       </c>
       <c r="C154">
-        <v>48613408441544.48</v>
+        <v>105680186048676.1</v>
       </c>
       <c r="D154">
-        <v>5.412049977483679</v>
+        <v>1517.384626560157</v>
       </c>
       <c r="E154">
-        <v>55670876333000.5</v>
+        <v>110862294536568.6</v>
       </c>
       <c r="F154">
-        <v>6.194831745046029</v>
+        <v>1517.398241873019</v>
       </c>
       <c r="G154">
-        <v>145733544663889.7</v>
+        <v>810163381603235.8</v>
       </c>
       <c r="H154">
-        <v>16.12003225001708</v>
+        <v>1772.338649572762</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155">
-        <v>51499547017399.29</v>
+        <v>107612713167095.9</v>
       </c>
       <c r="B155">
-        <v>5.860242446357956</v>
+        <v>1677.411676616474</v>
       </c>
       <c r="C155">
-        <v>47065289861680.6</v>
+        <v>101200634595491.4</v>
       </c>
       <c r="D155">
-        <v>5.357066490253922</v>
+        <v>1680.04696325518</v>
       </c>
       <c r="E155">
-        <v>53898024018700.91</v>
+        <v>106163125439843</v>
       </c>
       <c r="F155">
-        <v>6.132312498351585</v>
+        <v>1680.061708115016</v>
       </c>
       <c r="G155">
-        <v>141096307768380.1</v>
+        <v>780611708278869.5</v>
       </c>
       <c r="H155">
-        <v>15.97145249559128</v>
+        <v>1957.12995895432</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156">
-        <v>50590149837264.83</v>
+        <v>104608309089241.5</v>
       </c>
       <c r="B156">
-        <v>5.910599732448662</v>
+        <v>1895.276025463024</v>
       </c>
       <c r="C156">
-        <v>46234576368564.26</v>
+        <v>98379487210348.2</v>
       </c>
       <c r="D156">
-        <v>5.402780972137567</v>
+        <v>1898.106502452308</v>
       </c>
       <c r="E156">
-        <v>52946719006586.27</v>
+        <v>103203664653416.7</v>
       </c>
       <c r="F156">
-        <v>6.185280711688538</v>
+        <v>1898.12233222649</v>
       </c>
       <c r="G156">
-        <v>138607886444100.9</v>
+        <v>761822116062572.8</v>
       </c>
       <c r="H156">
-        <v>16.1306968795333</v>
+        <v>2196.791640383176</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157">
-        <v>49612213752748.98</v>
+        <v>100923171965033.4</v>
       </c>
       <c r="B157">
-        <v>5.886839932340307</v>
+        <v>1640.856263923969</v>
       </c>
       <c r="C157">
-        <v>45341238844652.12</v>
+        <v>94918798547572.41</v>
       </c>
       <c r="D157">
-        <v>5.381039506368377</v>
+        <v>1643.234838940957</v>
       </c>
       <c r="E157">
-        <v>51923698756311.08</v>
+        <v>99573305624951.55</v>
       </c>
       <c r="F157">
-        <v>6.160515343763135</v>
+        <v>1643.248136563809</v>
       </c>
       <c r="G157">
-        <v>135931794840999.6</v>
+        <v>738580939966823.8</v>
       </c>
       <c r="H157">
-        <v>16.07045668153576</v>
+        <v>1894.939389897807</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158">
-        <v>48856692838245.55</v>
+        <v>97153732651869.34</v>
       </c>
       <c r="B158">
-        <v>5.908531479909654</v>
+        <v>1569.371243850767</v>
       </c>
       <c r="C158">
-        <v>44651065100888.09</v>
+        <v>91378565545749.09</v>
       </c>
       <c r="D158">
-        <v>5.401110418804845</v>
+        <v>1571.564767785378</v>
       </c>
       <c r="E158">
-        <v>51133334647756.09</v>
+        <v>95859500145809.2</v>
       </c>
       <c r="F158">
-        <v>6.183132325534259</v>
+        <v>1571.57702595728</v>
       </c>
       <c r="G158">
-        <v>133864247118336.2</v>
+        <v>714582605183648.9</v>
       </c>
       <c r="H158">
-        <v>16.11765501862928</v>
+        <v>1804.410176208649</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159">
-        <v>47555127928431.8</v>
+        <v>93420146505923.88</v>
       </c>
       <c r="B159">
-        <v>5.954655319109983</v>
+        <v>1649.568625531762</v>
       </c>
       <c r="C159">
-        <v>43462054059117.2</v>
+        <v>87871629782296.75</v>
       </c>
       <c r="D159">
-        <v>5.444176666820753</v>
+        <v>1651.799990208655</v>
       </c>
       <c r="E159">
-        <v>49771718133183.61</v>
+        <v>92180622208371.78</v>
       </c>
       <c r="F159">
-        <v>6.230961614931591</v>
+        <v>1651.812455182543</v>
       </c>
       <c r="G159">
-        <v>130302222680189.1</v>
+        <v>690583310109606.6</v>
       </c>
       <c r="H159">
-        <v>16.19405796712848</v>
+        <v>1889.356901119685</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160">
-        <v>45480132917155.27</v>
+        <v>90289803754780.86</v>
       </c>
       <c r="B160">
-        <v>5.876251018773816</v>
+        <v>1583.121447830195</v>
       </c>
       <c r="C160">
-        <v>41566437769274.27</v>
+        <v>84931028560191.25</v>
       </c>
       <c r="D160">
-        <v>5.37177595312002</v>
+        <v>1585.163905119751</v>
       </c>
       <c r="E160">
-        <v>47600919228404.87</v>
+        <v>89095844031822.56</v>
       </c>
       <c r="F160">
-        <v>6.149537321924369</v>
+        <v>1585.175310160988</v>
       </c>
       <c r="G160">
-        <v>124623060726118.8</v>
+        <v>670282506490976.1</v>
       </c>
       <c r="H160">
-        <v>16.03036014758698</v>
+        <v>1803.291204323292</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161">
-        <v>45614383242352.65</v>
+        <v>86507774602885.11</v>
       </c>
       <c r="B161">
-        <v>5.967924919939369</v>
+        <v>1371.275092710873</v>
       </c>
       <c r="C161">
-        <v>41689084613264.57</v>
+        <v>81377890788966.86</v>
       </c>
       <c r="D161">
-        <v>5.455933340716324</v>
+        <v>1372.98150096631</v>
       </c>
       <c r="E161">
-        <v>47741370500281.96</v>
+        <v>85368494724781.16</v>
       </c>
       <c r="F161">
-        <v>6.245245353412754</v>
+        <v>1372.991025906307</v>
       </c>
       <c r="G161">
-        <v>124990515008260.2</v>
+        <v>645533326173599.9</v>
       </c>
       <c r="H161">
-        <v>16.25885829592762</v>
+        <v>1555.740941050729</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162">
-        <v>42992663586334.04</v>
+        <v>82643823500634.78</v>
       </c>
       <c r="B162">
-        <v>5.746555528215455</v>
+        <v>1382.749137208908</v>
       </c>
       <c r="C162">
-        <v>39293910474360.57</v>
+        <v>77747391812950.91</v>
       </c>
       <c r="D162">
-        <v>5.255067506345455</v>
+        <v>1384.404828400312</v>
       </c>
       <c r="E162">
-        <v>44998492006675.3</v>
+        <v>81559988832904.81</v>
       </c>
       <c r="F162">
-        <v>6.012885664135825</v>
+        <v>1384.414066632705</v>
       </c>
       <c r="G162">
-        <v>117814210804968.1</v>
+        <v>619992231890759.8</v>
       </c>
       <c r="H162">
-        <v>15.57458852320459</v>
+        <v>1562.264484375163</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163">
-        <v>40949029611403.52</v>
+        <v>79263921658962.67</v>
       </c>
       <c r="B163">
-        <v>5.698402418374325</v>
+        <v>1486.976154801068</v>
       </c>
       <c r="C163">
-        <v>37426789905759.61</v>
+        <v>74571367368633.25</v>
       </c>
       <c r="D163">
-        <v>5.210387522444877</v>
+        <v>1488.680961449915</v>
       </c>
       <c r="E163">
-        <v>42860322314844.09</v>
+        <v>78228238868676.33</v>
       </c>
       <c r="F163">
-        <v>5.96306610890916</v>
+        <v>1488.690470112151</v>
       </c>
       <c r="G163">
-        <v>112219628832004.6</v>
+        <v>597434518797066.5</v>
       </c>
       <c r="H163">
-        <v>15.48864308098003</v>
+        <v>1672.35248343947</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164">
-        <v>39665829373158.3</v>
+        <v>76183203890798.81</v>
       </c>
       <c r="B164">
-        <v>5.672308322695085</v>
+        <v>1444.344608134997</v>
       </c>
       <c r="C164">
-        <v>36254387215170.64</v>
+        <v>71676212051052.39</v>
       </c>
       <c r="D164">
-        <v>5.185557333999439</v>
+        <v>1445.925972541137</v>
       </c>
       <c r="E164">
-        <v>41517721680262.33</v>
+        <v>75191127917062.92</v>
       </c>
       <c r="F164">
-        <v>5.936462200534965</v>
+        <v>1445.934789465709</v>
       </c>
       <c r="G164">
-        <v>108706495979287.8</v>
+        <v>576694503454178.5</v>
       </c>
       <c r="H164">
-        <v>15.47959509033099</v>
+        <v>1616.768644779013</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165">
-        <v>39282300308071.66</v>
+        <v>72871122973967.78</v>
       </c>
       <c r="B165">
-        <v>5.710119840248876</v>
+        <v>1236.740498643795</v>
       </c>
       <c r="C165">
-        <v>35903968548442.3</v>
+        <v>68563344091120.38</v>
       </c>
       <c r="D165">
-        <v>5.220412559197955</v>
+        <v>1238.030920317066</v>
       </c>
       <c r="E165">
-        <v>41116432553214.83</v>
+        <v>71925627734383.42</v>
       </c>
       <c r="F165">
-        <v>5.975889233434009</v>
+        <v>1238.038112368182</v>
       </c>
       <c r="G165">
-        <v>107656430775183.5</v>
+        <v>554202993962416.8</v>
       </c>
       <c r="H165">
-        <v>15.56675273582882</v>
+        <v>1377.828905194531</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166">
-        <v>37623176673875.01</v>
+        <v>69041867358090.47</v>
       </c>
       <c r="B166">
-        <v>5.634088995735986</v>
+        <v>1239.027088049363</v>
       </c>
       <c r="C166">
-        <v>34388050370402.87</v>
+        <v>64964039384383</v>
       </c>
       <c r="D166">
-        <v>5.151550544073497</v>
+        <v>1240.277326854104</v>
       </c>
       <c r="E166">
-        <v>39380447165342.42</v>
+        <v>68149837350706.93</v>
       </c>
       <c r="F166">
-        <v>5.896059229994924</v>
+        <v>1240.284292554732</v>
       </c>
       <c r="G166">
-        <v>103113683193417</v>
+        <v>527944326552670.4</v>
       </c>
       <c r="H166">
-        <v>15.32608926261382</v>
+        <v>1376.07260681414</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167">
-        <v>36462912064386.89</v>
+        <v>66117538323147.64</v>
       </c>
       <c r="B167">
-        <v>5.661590719227807</v>
+        <v>1437.757950582026</v>
       </c>
       <c r="C167">
-        <v>33327905584995.72</v>
+        <v>62215052944527.97</v>
       </c>
       <c r="D167">
-        <v>5.176113117235998</v>
+        <v>1439.13551095879</v>
       </c>
       <c r="E167">
-        <v>38166399646314.55</v>
+        <v>65266057556410.55</v>
       </c>
       <c r="F167">
-        <v>5.925294856863468</v>
+        <v>1439.143183276495</v>
       </c>
       <c r="G167">
-        <v>99936610954061.91</v>
+        <v>507703374639040.6</v>
       </c>
       <c r="H167">
-        <v>15.43936229518601</v>
+        <v>1589.168198772713</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168">
-        <v>35801456011056.46</v>
+        <v>63468296617951.95</v>
       </c>
       <c r="B168">
-        <v>5.682682083157863</v>
+        <v>1334.736312017892</v>
       </c>
       <c r="C168">
-        <v>32723516907361.17</v>
+        <v>59724460234638.34</v>
       </c>
       <c r="D168">
-        <v>5.1950176902842</v>
+        <v>1335.950299157468</v>
       </c>
       <c r="E168">
-        <v>37474270794848.47</v>
+        <v>62653340360165.85</v>
       </c>
       <c r="F168">
-        <v>5.947656494946197</v>
+        <v>1335.957058202648</v>
       </c>
       <c r="G168">
-        <v>98125310288324.34</v>
+        <v>489223661833999.9</v>
       </c>
       <c r="H168">
-        <v>15.52163572628269</v>
+        <v>1468.490604258147</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169">
-        <v>35242206091626.64</v>
+        <v>60354334399770.23</v>
       </c>
       <c r="B169">
-        <v>5.734689767042751</v>
+        <v>1301.820218120977</v>
       </c>
       <c r="C169">
-        <v>32212510822094.92</v>
+        <v>56796734175481.46</v>
       </c>
       <c r="D169">
-        <v>5.24298108054541</v>
+        <v>1302.966258343408</v>
       </c>
       <c r="E169">
-        <v>36889080935373.3</v>
+        <v>59582053864055.12</v>
       </c>
       <c r="F169">
-        <v>6.001878577636211</v>
+        <v>1302.972637263036</v>
       </c>
       <c r="G169">
-        <v>96593840076803.25</v>
+        <v>467325923368771.7</v>
       </c>
       <c r="H169">
-        <v>15.64039934050703</v>
+        <v>1428.351425829022</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170">
-        <v>34090504858740.7</v>
+        <v>57849283157083.73</v>
       </c>
       <c r="B170">
-        <v>5.720578238134808</v>
+        <v>1585.540861248493</v>
       </c>
       <c r="C170">
-        <v>31160145023197.2</v>
+        <v>54441311773971.07</v>
       </c>
       <c r="D170">
-        <v>5.23086735359743</v>
+        <v>1586.879225984785</v>
       </c>
       <c r="E170">
-        <v>35683940754746.83</v>
+        <v>57111132702227.37</v>
       </c>
       <c r="F170">
-        <v>5.98672149424732</v>
+        <v>1586.886673300553</v>
       </c>
       <c r="G170">
-        <v>93439846690775.56</v>
+        <v>449569623697396.9</v>
       </c>
       <c r="H170">
-        <v>15.55860229340671</v>
+        <v>1733.617104294327</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171">
-        <v>32637801144724.68</v>
+        <v>55932289348772.57</v>
       </c>
       <c r="B171">
-        <v>5.641805555215424</v>
+        <v>1667.868980711697</v>
       </c>
       <c r="C171">
-        <v>29832707106255.5</v>
+        <v>52638706974066.41</v>
       </c>
       <c r="D171">
-        <v>5.158927973644825</v>
+        <v>1669.211292416378</v>
       </c>
       <c r="E171">
-        <v>34163794953246.64</v>
+        <v>55220136028351.62</v>
       </c>
       <c r="F171">
-        <v>5.904349076932358</v>
+        <v>1669.218759762012</v>
       </c>
       <c r="G171">
-        <v>89461286926639.09</v>
+        <v>435895777544095.4</v>
       </c>
       <c r="H171">
-        <v>15.34357433450441</v>
+        <v>1816.66141824106</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172">
-        <v>31534015137382.17</v>
+        <v>53784819132950.01</v>
       </c>
       <c r="B172">
-        <v>5.605406334756917</v>
+        <v>1473.570643290246</v>
       </c>
       <c r="C172">
-        <v>28824076492709.7</v>
+        <v>50619260416996.75</v>
       </c>
       <c r="D172">
-        <v>5.125782860163618</v>
+        <v>1474.713297666871</v>
       </c>
       <c r="E172">
-        <v>33008738123473.43</v>
+        <v>53101663932783.12</v>
       </c>
       <c r="F172">
-        <v>5.866260992065126</v>
+        <v>1474.719652830374</v>
       </c>
       <c r="G172">
-        <v>86438127117968.16</v>
+        <v>420488492944096.4</v>
       </c>
       <c r="H172">
-        <v>15.23975655926335</v>
+        <v>1600.440265339602</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173">
-        <v>30042581155704.7</v>
+        <v>51508531242165.43</v>
       </c>
       <c r="B173">
-        <v>5.512761519530715</v>
+        <v>1438.945702142137</v>
       </c>
       <c r="C173">
-        <v>27461184191463.7</v>
+        <v>48478539453880.48</v>
       </c>
       <c r="D173">
-        <v>5.041111838009878</v>
+        <v>1440.0215607959</v>
       </c>
       <c r="E173">
-        <v>31447989613237.91</v>
+        <v>50855969824760.95</v>
       </c>
       <c r="F173">
-        <v>5.769397009008264</v>
+        <v>1440.027543054348</v>
       </c>
       <c r="G173">
-        <v>82352976683892.83</v>
+        <v>404052536375697.1</v>
       </c>
       <c r="H173">
-        <v>14.98968280001572</v>
+        <v>1558.599905391284</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174">
-        <v>29045982541229.91</v>
+        <v>49446341331281.16</v>
       </c>
       <c r="B174">
-        <v>5.482939940744731</v>
+        <v>1319.792728583878</v>
       </c>
       <c r="C174">
-        <v>26550458467789.71</v>
+        <v>46539044438450.65</v>
       </c>
       <c r="D174">
-        <v>5.013499095945241</v>
+        <v>1320.728382324262</v>
       </c>
       <c r="E174">
-        <v>30405049982375.56</v>
+        <v>48821368342264.4</v>
       </c>
       <c r="F174">
-        <v>5.738478721256439</v>
+        <v>1320.733583602598</v>
       </c>
       <c r="G174">
-        <v>79623050202644.81</v>
+        <v>389068519646689.8</v>
       </c>
       <c r="H174">
-        <v>14.9320533648807</v>
+        <v>1424.048394490058</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175">
-        <v>28087672916648.79</v>
+        <v>46967745072066.16</v>
       </c>
       <c r="B175">
-        <v>5.435706280906744</v>
+        <v>1181.299995920937</v>
       </c>
       <c r="C175">
-        <v>25674706966090.39</v>
+        <v>44207765643436.73</v>
       </c>
       <c r="D175">
-        <v>4.970414753851989</v>
+        <v>1182.104808209076</v>
       </c>
       <c r="E175">
-        <v>29402161609349.01</v>
+        <v>46375770398816.11</v>
       </c>
       <c r="F175">
-        <v>5.689055245294172</v>
+        <v>1182.109281045221</v>
       </c>
       <c r="G175">
-        <v>76997880005273</v>
+        <v>370939121997624.2</v>
       </c>
       <c r="H175">
-        <v>14.80004361267099</v>
+        <v>1271.130446238418</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176">
-        <v>27065836757385.92</v>
+        <v>44627505538179.7</v>
       </c>
       <c r="B176">
-        <v>5.437404233096212</v>
+        <v>1186.204763254697</v>
       </c>
       <c r="C176">
-        <v>24740884917660.55</v>
+        <v>42006467327879.52</v>
       </c>
       <c r="D176">
-        <v>4.971616325379207</v>
+        <v>1186.972672339401</v>
       </c>
       <c r="E176">
-        <v>28332771975804.28</v>
+        <v>44066525907251.4</v>
       </c>
       <c r="F176">
-        <v>5.691131296424364</v>
+        <v>1186.976938958072</v>
       </c>
       <c r="G176">
-        <v>74198550016088.52</v>
+        <v>353700142058730.1</v>
       </c>
       <c r="H176">
-        <v>14.82877990567006</v>
+        <v>1272.076972790514</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177">
-        <v>26630432196035.97</v>
+        <v>42407947439500.06</v>
       </c>
       <c r="B177">
-        <v>5.518792821736371</v>
+        <v>1149.840956400257</v>
       </c>
       <c r="C177">
-        <v>24342977913576.36</v>
+        <v>39918548242917.47</v>
       </c>
       <c r="D177">
-        <v>5.045433115596754</v>
+        <v>1150.546067482573</v>
       </c>
       <c r="E177">
-        <v>27877098727145.8</v>
+        <v>41876219679113.77</v>
       </c>
       <c r="F177">
-        <v>5.776724113789152</v>
+        <v>1150.549984177868</v>
       </c>
       <c r="G177">
-        <v>73005712148909</v>
+        <v>337239543957563.5</v>
       </c>
       <c r="H177">
-        <v>15.08812171235982</v>
+        <v>1228.833617014871</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178">
-        <v>26324552485822.12</v>
+        <v>40157458440745.95</v>
       </c>
       <c r="B178">
-        <v>5.569146229178754</v>
+        <v>1167.063409276626</v>
       </c>
       <c r="C178">
-        <v>24063439043325.27</v>
+        <v>37801396202281.24</v>
       </c>
       <c r="D178">
-        <v>5.090796243122565</v>
+        <v>1167.747344330847</v>
       </c>
       <c r="E178">
-        <v>27556977695759.34</v>
+        <v>39655246175901.65</v>
       </c>
       <c r="F178">
-        <v>5.829871672893415</v>
+        <v>1167.751142514299</v>
       </c>
       <c r="G178">
-        <v>72167706288647.52</v>
+        <v>320438167319669.8</v>
       </c>
       <c r="H178">
-        <v>15.26731036544359</v>
+        <v>1243.8104376874</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179">
-        <v>26625551799424.21</v>
+        <v>38237579382090.77</v>
       </c>
       <c r="B179">
-        <v>5.795290703396599</v>
+        <v>1337.595283151097</v>
       </c>
       <c r="C179">
-        <v>24338517804660.51</v>
+        <v>35995157415304.97</v>
       </c>
       <c r="D179">
-        <v>5.298164229494536</v>
+        <v>1338.343010682821</v>
       </c>
       <c r="E179">
-        <v>27871991120483.38</v>
+        <v>37760431938439.01</v>
       </c>
       <c r="F179">
-        <v>6.066176392656057</v>
+        <v>1338.347162241709</v>
       </c>
       <c r="G179">
-        <v>72992341629540.33</v>
+        <v>306015247471232.9</v>
       </c>
       <c r="H179">
-        <v>15.84712911869045</v>
+        <v>1421.630704444413</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180">
-        <v>25668924413785.24</v>
+        <v>36692737325558.01</v>
       </c>
       <c r="B180">
-        <v>5.810727178821025</v>
+        <v>1400.052882940042</v>
       </c>
       <c r="C180">
-        <v>23464265164796.47</v>
+        <v>34541683973120.23</v>
       </c>
       <c r="D180">
-        <v>5.312973499660708</v>
+        <v>1400.795005253728</v>
       </c>
       <c r="E180">
-        <v>26870818415297.76</v>
+        <v>36235681745942.28</v>
       </c>
       <c r="F180">
-        <v>6.081985464142872</v>
+        <v>1400.799124865727</v>
       </c>
       <c r="G180">
-        <v>70371466846063.52</v>
+        <v>294349079712344.8</v>
       </c>
       <c r="H180">
-        <v>15.85059464303386</v>
+        <v>1483.575939707921</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181">
-        <v>25381949948813.19</v>
+        <v>35061156678314.89</v>
       </c>
       <c r="B181">
-        <v>5.905568473118845</v>
+        <v>1336.614527017143</v>
       </c>
       <c r="C181">
-        <v>23201998974853.61</v>
+        <v>33006531612214.06</v>
       </c>
       <c r="D181">
-        <v>5.39899064917164</v>
+        <v>1337.294868792304</v>
       </c>
       <c r="E181">
-        <v>26570477538780.05</v>
+        <v>34625246779018.55</v>
       </c>
       <c r="F181">
-        <v>6.181712404205022</v>
+        <v>1337.298644794949</v>
       </c>
       <c r="G181">
-        <v>69585217960157.15</v>
+        <v>281968545508568.6</v>
       </c>
       <c r="H181">
-        <v>16.1523449829002</v>
+        <v>1413.276822178454</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182">
-        <v>25103020042528.4</v>
+        <v>33513501948777.4</v>
       </c>
       <c r="B182">
-        <v>5.943720878371208</v>
+        <v>1387.860665289552</v>
       </c>
       <c r="C182">
-        <v>22947083402157.61</v>
+        <v>31550278169691.8</v>
       </c>
       <c r="D182">
-        <v>5.434007746692961</v>
+        <v>1388.537804081102</v>
       </c>
       <c r="E182">
-        <v>26278554383800.81</v>
+        <v>33097579478396.4</v>
       </c>
       <c r="F182">
-        <v>6.221588223144851</v>
+        <v>1388.541561666771</v>
       </c>
       <c r="G182">
-        <v>68820998780486.92</v>
+        <v>270167980030145.8</v>
       </c>
       <c r="H182">
-        <v>16.24935237078742</v>
+        <v>1464.253150684088</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183">
-        <v>24716914840632.52</v>
+        <v>32134467755011.2</v>
       </c>
       <c r="B183">
-        <v>6.075800875214981</v>
+        <v>1738.449775442747</v>
       </c>
       <c r="C183">
-        <v>22594217605278.12</v>
+        <v>30252632004347.64</v>
       </c>
       <c r="D183">
-        <v>5.555153619829245</v>
+        <v>1739.272147919458</v>
       </c>
       <c r="E183">
-        <v>25874460954748.47</v>
+        <v>31736297147603.54</v>
       </c>
       <c r="F183">
-        <v>6.359634384478467</v>
+        <v>1739.276710811248</v>
       </c>
       <c r="G183">
-        <v>67763120669221.24</v>
+        <v>259606046807878.9</v>
       </c>
       <c r="H183">
-        <v>16.58814265725464</v>
+        <v>1831.319058217063</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184">
-        <v>24152661302944.29</v>
+        <v>31273174073377.37</v>
       </c>
       <c r="B184">
-        <v>6.173640694421803</v>
+        <v>1606.122247123061</v>
       </c>
       <c r="C184">
-        <v>22078535627153.89</v>
+        <v>29442144026732.67</v>
       </c>
       <c r="D184">
-        <v>5.645682424224298</v>
+        <v>1606.835222772178</v>
       </c>
       <c r="E184">
-        <v>25283914256812.78</v>
+        <v>30886062937997.6</v>
       </c>
       <c r="F184">
-        <v>6.461431337407928</v>
+        <v>1606.839178038459</v>
       </c>
       <c r="G184">
-        <v>66217103000552.8</v>
+        <v>252986783377418.6</v>
       </c>
       <c r="H184">
-        <v>16.79297367666857</v>
+        <v>1686.727047165308</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185">
-        <v>22982563548435.29</v>
+        <v>29774554800388.53</v>
       </c>
       <c r="B185">
-        <v>5.974438914585802</v>
+        <v>1242.161630660452</v>
       </c>
       <c r="C185">
-        <v>21009144302987.71</v>
+        <v>28031876692621.45</v>
       </c>
       <c r="D185">
-        <v>5.464917974219434</v>
+        <v>1242.699264866813</v>
       </c>
       <c r="E185">
-        <v>24059272479833.73</v>
+        <v>29406635984714.12</v>
       </c>
       <c r="F185">
-        <v>6.252177808114604</v>
+        <v>1242.702247038804</v>
       </c>
       <c r="G185">
-        <v>63010974725848.65</v>
+        <v>241427647287414.9</v>
       </c>
       <c r="H185">
-        <v>16.1718009072415</v>
+        <v>1302.993779160531</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186">
-        <v>21374499565855.95</v>
+        <v>28368015877588.98</v>
       </c>
       <c r="B186">
-        <v>5.683311077858959</v>
+        <v>1215.666066939157</v>
       </c>
       <c r="C186">
-        <v>19539443932850.04</v>
+        <v>26708205453501.24</v>
       </c>
       <c r="D186">
-        <v>5.198293907019902</v>
+        <v>1216.165649378534</v>
       </c>
       <c r="E186">
-        <v>22376205441284.75</v>
+        <v>28018051481641.02</v>
       </c>
       <c r="F186">
-        <v>5.947851673495888</v>
+        <v>1216.168420024939</v>
       </c>
       <c r="G186">
-        <v>58604494285187.85</v>
+        <v>230530013959773</v>
       </c>
       <c r="H186">
-        <v>15.4080254518716</v>
+        <v>1272.2569437855</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187">
-        <v>20594526196218.34</v>
+        <v>26946308114996.86</v>
       </c>
       <c r="B187">
-        <v>5.714166823884644</v>
+        <v>1229.045814279972</v>
       </c>
       <c r="C187">
-        <v>18826566802705.97</v>
+        <v>25370204327003.75</v>
       </c>
       <c r="D187">
-        <v>5.225468328969716</v>
+        <v>1229.529229643827</v>
       </c>
       <c r="E187">
-        <v>21559834640607.59</v>
+        <v>26614434030066.04</v>
       </c>
       <c r="F187">
-        <v>5.980858885103159</v>
+        <v>1229.531910226537</v>
       </c>
       <c r="G187">
-        <v>56467054487171.95</v>
+        <v>219466487768182.4</v>
       </c>
       <c r="H187">
-        <v>15.55652019958668</v>
+        <v>1283.862115548003</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188">
-        <v>19934271897518.53</v>
+        <v>25710757290812.11</v>
       </c>
       <c r="B188">
-        <v>5.712938049768233</v>
+        <v>1114.91031843466</v>
       </c>
       <c r="C188">
-        <v>18223102157676.57</v>
+        <v>24207354973253.94</v>
       </c>
       <c r="D188">
-        <v>5.224177243083425</v>
+        <v>1115.320699706602</v>
       </c>
       <c r="E188">
-        <v>20868760386126.34</v>
+        <v>25394557631977.79</v>
       </c>
       <c r="F188">
-        <v>5.979732260746781</v>
+        <v>1115.322974924543</v>
       </c>
       <c r="G188">
-        <v>54657628635148.64</v>
+        <v>209811793525213.2</v>
       </c>
       <c r="H188">
-        <v>15.5653040368426</v>
+        <v>1161.497787539921</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189">
-        <v>19350590815344.84</v>
+        <v>24151335522024.96</v>
       </c>
       <c r="B189">
-        <v>5.619175651417814</v>
+        <v>1199.937973560453</v>
       </c>
       <c r="C189">
-        <v>17689618496421.3</v>
+        <v>22739632309887.77</v>
       </c>
       <c r="D189">
-        <v>5.13868027668869</v>
+        <v>1200.370030815465</v>
       </c>
       <c r="E189">
-        <v>20257826669675.63</v>
+        <v>23854856352394.73</v>
       </c>
       <c r="F189">
-        <v>5.881488005648707</v>
+        <v>1200.372425918461</v>
       </c>
       <c r="G189">
-        <v>53058002450132.92</v>
+        <v>197573041523127</v>
       </c>
       <c r="H189">
-        <v>15.29708590840019</v>
+        <v>1249.028239700126</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190">
-        <v>18541840636698.76</v>
+        <v>23271346313106.29</v>
       </c>
       <c r="B190">
-        <v>5.535760724137104</v>
+        <v>1620.373751771802</v>
       </c>
       <c r="C190">
-        <v>16950412649738.14</v>
+        <v>21911360100667.77</v>
       </c>
       <c r="D190">
-        <v>5.061827667737017</v>
+        <v>1620.921085009259</v>
       </c>
       <c r="E190">
-        <v>19411304253763.16</v>
+        <v>22985964659094.34</v>
       </c>
       <c r="F190">
-        <v>5.79459994235152</v>
+        <v>1620.924118722548</v>
       </c>
       <c r="G190">
-        <v>50841479651236.74</v>
+        <v>190640207270004</v>
       </c>
       <c r="H190">
-        <v>15.10673541941645</v>
+        <v>1682.62253290856</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191">
-        <v>18452432911281.57</v>
+        <v>22410695641834.1</v>
       </c>
       <c r="B191">
-        <v>5.743835107431781</v>
+        <v>1422.877308762558</v>
       </c>
       <c r="C191">
-        <v>16868692416694.33</v>
+        <v>21101269487193.19</v>
       </c>
       <c r="D191">
-        <v>5.250801420529178</v>
+        <v>1423.335951364469</v>
       </c>
       <c r="E191">
-        <v>19317720011218.07</v>
+        <v>22136146090449.95</v>
       </c>
       <c r="F191">
-        <v>6.01321113167745</v>
+        <v>1423.338493212578</v>
       </c>
       <c r="G191">
-        <v>50596436545938.45</v>
+        <v>183841148202297.3</v>
       </c>
       <c r="H191">
-        <v>15.75260445327626</v>
+        <v>1475.07721815366</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192">
-        <v>18576721120340.85</v>
+        <v>21362414112794.18</v>
       </c>
       <c r="B192">
-        <v>5.928047690019225</v>
+        <v>1161.718490501482</v>
       </c>
       <c r="C192">
-        <v>16982293989046.09</v>
+        <v>20114543362218.84</v>
       </c>
       <c r="D192">
-        <v>5.419265144764998</v>
+        <v>1162.07626610339</v>
       </c>
       <c r="E192">
-        <v>19447814072920.55</v>
+        <v>21101029403737.74</v>
       </c>
       <c r="F192">
-        <v>6.20601257265093</v>
+        <v>1162.078248706427</v>
       </c>
       <c r="G192">
-        <v>50937077607280.52</v>
+        <v>175534864384966.4</v>
       </c>
       <c r="H192">
-        <v>16.25353954171241</v>
+        <v>1202.468974439621</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193">
-        <v>18440821518547.05</v>
+        <v>20181993411784.37</v>
       </c>
       <c r="B193">
-        <v>6.027052301331086</v>
+        <v>1397.31150961254</v>
       </c>
       <c r="C193">
-        <v>16858079389829.63</v>
+        <v>19003401449946.8</v>
       </c>
       <c r="D193">
-        <v>5.511306012922427</v>
+        <v>1397.733003845401</v>
       </c>
       <c r="E193">
-        <v>19305566202306.55</v>
+        <v>19935395180104.75</v>
       </c>
       <c r="F193">
-        <v>6.308717780091985</v>
+        <v>1397.735339325408</v>
       </c>
       <c r="G193">
-        <v>50564612687161.57</v>
+        <v>166148529086388.3</v>
       </c>
       <c r="H193">
-        <v>16.43288652503474</v>
+        <v>1445.351839276532</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194">
-        <v>17603254731175.29</v>
+        <v>19611868450870.48</v>
       </c>
       <c r="B194">
-        <v>5.933044127353809</v>
+        <v>1750.580821737885</v>
       </c>
       <c r="C194">
-        <v>16092522005671.66</v>
+        <v>18466723464286.23</v>
       </c>
       <c r="D194">
-        <v>5.4262470378311</v>
+        <v>1751.073431257322</v>
       </c>
       <c r="E194">
-        <v>18428866315821.45</v>
+        <v>19372397503370.36</v>
       </c>
       <c r="F194">
-        <v>6.209827348920973</v>
+        <v>1751.076160476471</v>
       </c>
       <c r="G194">
-        <v>48269008147515.95</v>
+        <v>161602477004915</v>
       </c>
       <c r="H194">
-        <v>16.12524666996732</v>
+        <v>1806.770106066306</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195">
-        <v>16960950214894.38</v>
+        <v>18824182091832.96</v>
       </c>
       <c r="B195">
-        <v>5.903361986134283</v>
+        <v>1254.940962485294</v>
       </c>
       <c r="C195">
-        <v>15505431412783.23</v>
+        <v>17725232959739.94</v>
       </c>
       <c r="D195">
-        <v>5.398591658725524</v>
+        <v>1255.27933227547</v>
       </c>
       <c r="E195">
-        <v>17756542606165.68</v>
+        <v>18594542834328.07</v>
       </c>
       <c r="F195">
-        <v>6.179132644568061</v>
+        <v>1255.281206786115</v>
       </c>
       <c r="G195">
-        <v>46508514477834.09</v>
+        <v>155308068450453.3</v>
       </c>
       <c r="H195">
-        <v>16.07708453282364</v>
+        <v>1293.559149396369</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196">
-        <v>16496318297986.98</v>
+        <v>17793861916912.21</v>
       </c>
       <c r="B196">
-        <v>5.93756686993571</v>
+        <v>1158.054512682318</v>
       </c>
       <c r="C196">
-        <v>15080736013311.7</v>
+        <v>16755312960278.16</v>
       </c>
       <c r="D196">
-        <v>5.430114782592754</v>
+        <v>1158.356884543259</v>
       </c>
       <c r="E196">
-        <v>17270190343845.69</v>
+        <v>17577055886418.59</v>
       </c>
       <c r="F196">
-        <v>6.214824729317296</v>
+        <v>1158.358559476939</v>
       </c>
       <c r="G196">
-        <v>45234969173918.63</v>
+        <v>147050890473306.8</v>
       </c>
       <c r="H196">
-        <v>16.15723661774012</v>
+        <v>1192.585430395835</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197">
-        <v>15762614058911.7</v>
+        <v>16961907008309.89</v>
       </c>
       <c r="B197">
-        <v>5.889136965541361</v>
+        <v>1048.075766492604</v>
       </c>
       <c r="C197">
-        <v>14410088563393.01</v>
+        <v>15972108376217.13</v>
       </c>
       <c r="D197">
-        <v>5.386826728125671</v>
+        <v>1048.32925760955</v>
       </c>
       <c r="E197">
-        <v>16502178802645.97</v>
+        <v>16755441153760.46</v>
       </c>
       <c r="F197">
-        <v>6.163572959822855</v>
+        <v>1048.330661604546</v>
       </c>
       <c r="G197">
-        <v>43223843384143.14</v>
+        <v>140363589446170.2</v>
       </c>
       <c r="H197">
-        <v>15.96811231804555</v>
+        <v>1077.047965809209</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198">
-        <v>14796291475078.78</v>
+        <v>15832378601362.54</v>
       </c>
       <c r="B198">
-        <v>5.685218256886913</v>
+        <v>1010.632803541803</v>
       </c>
       <c r="C198">
-        <v>13526801047411.02</v>
+        <v>14908737067116.81</v>
       </c>
       <c r="D198">
-        <v>5.200126431625896</v>
+        <v>1010.870343506175</v>
       </c>
       <c r="E198">
-        <v>15490655990167.17</v>
+        <v>15639919501675.68</v>
       </c>
       <c r="F198">
-        <v>5.950341273207032</v>
+        <v>1010.871659032975</v>
       </c>
       <c r="G198">
-        <v>40574986077164.34</v>
+        <v>131255802806905.2</v>
       </c>
       <c r="H198">
-        <v>15.4286300075221</v>
+        <v>1037.798684330966</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199">
-        <v>14234591274685.95</v>
+        <v>15063211181536.46</v>
       </c>
       <c r="B199">
-        <v>5.620544958011147</v>
+        <v>1220.460688902459</v>
       </c>
       <c r="C199">
-        <v>13013360011360.95</v>
+        <v>14184600270808.42</v>
       </c>
       <c r="D199">
-        <v>5.140552812564819</v>
+        <v>1220.728318712411</v>
       </c>
       <c r="E199">
-        <v>14902673661679.94</v>
+        <v>14880269140909.26</v>
       </c>
       <c r="F199">
-        <v>5.882958864963597</v>
+        <v>1220.729800722223</v>
       </c>
       <c r="G199">
-        <v>39035210607248.94</v>
+        <v>125034794429964.8</v>
       </c>
       <c r="H199">
-        <v>15.27980389814291</v>
+        <v>1251.090472494639</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200">
-        <v>13557974674756.06</v>
+        <v>14336499863273.88</v>
       </c>
       <c r="B200">
-        <v>5.638971893832683</v>
+        <v>1168.497819930349</v>
       </c>
       <c r="C200">
-        <v>12394868795101.8</v>
+        <v>13500419158480.66</v>
       </c>
       <c r="D200">
-        <v>5.156554819985764</v>
+        <v>1168.740459531757</v>
       </c>
       <c r="E200">
-        <v>14194389840436.77</v>
+        <v>14162533909211.88</v>
       </c>
       <c r="F200">
-        <v>5.902833182882619</v>
+        <v>1168.741803039855</v>
       </c>
       <c r="G200">
-        <v>37180360821178.84</v>
+        <v>119142996085026.3</v>
       </c>
       <c r="H200">
-        <v>15.38305662993407</v>
+        <v>1196.283650474982</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201">
-        <v>13526489043723.29</v>
+        <v>13576187625487.07</v>
       </c>
       <c r="B201">
-        <v>5.894993578149056</v>
+        <v>1188.919388973994</v>
       </c>
       <c r="C201">
-        <v>12366087781407.25</v>
+        <v>12784588156345.13</v>
       </c>
       <c r="D201">
-        <v>5.389246182363111</v>
+        <v>1189.15610301412</v>
       </c>
       <c r="E201">
-        <v>14161430393027.85</v>
+        <v>13411596500526.3</v>
       </c>
       <c r="F201">
-        <v>6.171727817037986</v>
+        <v>1189.157413610496</v>
       </c>
       <c r="G201">
-        <v>37094045857808.81</v>
+        <v>112963968986708.3</v>
       </c>
       <c r="H201">
-        <v>16.16792273608063</v>
+        <v>1216.040839595015</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202">
-        <v>13573303682340.71</v>
+        <v>12952525511884.93</v>
       </c>
       <c r="B202">
-        <v>6.005421020570508</v>
+        <v>1587.340357053276</v>
       </c>
       <c r="C202">
-        <v>12408881034174.79</v>
+        <v>12197400925111.99</v>
       </c>
       <c r="D202">
-        <v>5.490321469164726</v>
+        <v>1587.644848460968</v>
       </c>
       <c r="E202">
-        <v>14210436379248.06</v>
+        <v>12795611853931.99</v>
       </c>
       <c r="F202">
-        <v>6.287259022022294</v>
+        <v>1587.64653420511</v>
       </c>
       <c r="G202">
-        <v>37222383837881.53</v>
+        <v>107884136517654.6</v>
       </c>
       <c r="H202">
-        <v>16.4632260149738</v>
+        <v>1622.24354997134</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203">
-        <v>13483565016607.47</v>
+        <v>12587208743254.96</v>
       </c>
       <c r="B203">
-        <v>6.131768114050313</v>
+        <v>1294.763626682662</v>
       </c>
       <c r="C203">
-        <v>12326850903895.94</v>
+        <v>11853444775281.89</v>
       </c>
       <c r="D203">
-        <v>5.608018636709409</v>
+        <v>1294.991873203185</v>
       </c>
       <c r="E203">
-        <v>14116497096714.62</v>
+        <v>12434787038668.96</v>
       </c>
       <c r="F203">
-        <v>6.418179446562049</v>
+        <v>1294.993136732012</v>
       </c>
       <c r="G203">
-        <v>36976373366783.61</v>
+        <v>104903799879442.8</v>
       </c>
       <c r="H203">
-        <v>16.67807138724837</v>
+        <v>1320.940982025209</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204">
-        <v>12559077823368.01</v>
+        <v>11774264346492.75</v>
       </c>
       <c r="B204">
-        <v>6.072468710650276</v>
+        <v>1008.810547952572</v>
       </c>
       <c r="C204">
-        <v>11481769202016.43</v>
+        <v>11088021371083.88</v>
       </c>
       <c r="D204">
-        <v>5.553024488935514</v>
+        <v>1008.98613911363</v>
       </c>
       <c r="E204">
-        <v>13148726088299.37</v>
+        <v>11631824845075.75</v>
       </c>
       <c r="F204">
-        <v>6.356667609904552</v>
+        <v>1008.987111099295</v>
       </c>
       <c r="G204">
-        <v>34441911508284.74</v>
+        <v>98258921827218.08</v>
       </c>
       <c r="H204">
-        <v>16.56552499806656</v>
+        <v>1028.955674417918</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205">
-        <v>12870868312309.42</v>
+        <v>11172631108543.29</v>
       </c>
       <c r="B205">
-        <v>6.467041688353953</v>
+        <v>1085.689056389417</v>
       </c>
       <c r="C205">
-        <v>11766781160077.09</v>
+        <v>10521545219797.49</v>
       </c>
       <c r="D205">
-        <v>5.911646226460908</v>
+        <v>1085.86453312148</v>
       </c>
       <c r="E205">
-        <v>13475116231450.15</v>
+        <v>11037566840596.04</v>
       </c>
       <c r="F205">
-        <v>6.771049518852079</v>
+        <v>1085.865504392202</v>
       </c>
       <c r="G205">
-        <v>35296691393514.09</v>
+        <v>93329947262131.69</v>
       </c>
       <c r="H205">
-        <v>17.77407592150124</v>
+        <v>1105.832459913394</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206">
-        <v>12804132897274.35</v>
+        <v>10527016911892.33</v>
       </c>
       <c r="B206">
-        <v>6.5077143057798</v>
+        <v>1092.487893360658</v>
       </c>
       <c r="C206">
-        <v>11705777538741.92</v>
+        <v>9913647181907.926</v>
       </c>
       <c r="D206">
-        <v>5.95003360691339</v>
+        <v>1092.656891649337</v>
       </c>
       <c r="E206">
-        <v>13405256075268.4</v>
+        <v>10399855420069.45</v>
       </c>
       <c r="F206">
-        <v>6.812886484924334</v>
+        <v>1092.657827001149</v>
       </c>
       <c r="G206">
-        <v>35113736020400.79</v>
+        <v>88029895262871.89</v>
       </c>
       <c r="H206">
-        <v>17.8126253607499</v>
+        <v>1111.896031509831</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207">
-        <v>12660589340673.47</v>
+        <v>10004769700215.4</v>
       </c>
       <c r="B207">
-        <v>6.679095583698265</v>
+        <v>1366.660699041518</v>
       </c>
       <c r="C207">
-        <v>11574562448332.95</v>
+        <v>9421900813918.564</v>
       </c>
       <c r="D207">
-        <v>6.108284222035846</v>
+        <v>1366.862427372399</v>
       </c>
       <c r="E207">
-        <v>13254991110280.95</v>
+        <v>9883992093072.541</v>
       </c>
       <c r="F207">
-        <v>6.991347751278923</v>
+        <v>1366.863543809198</v>
       </c>
       <c r="G207">
-        <v>34720208815990.5</v>
+        <v>83734424836017.36</v>
       </c>
       <c r="H207">
-        <v>18.1885014251934</v>
+        <v>1389.837114411046</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208">
-        <v>12055674942564.82</v>
+        <v>9639760778371.756</v>
       </c>
       <c r="B208">
-        <v>6.717107467278518</v>
+        <v>1685.639867933312</v>
       </c>
       <c r="C208">
-        <v>11021598319639.65</v>
+        <v>9078205109773.326</v>
       </c>
       <c r="D208">
-        <v>6.142144811798507</v>
+        <v>1685.876808341361</v>
       </c>
       <c r="E208">
-        <v>12621747286489.5</v>
+        <v>9523440325741.926</v>
       </c>
       <c r="F208">
-        <v>7.031760431091814</v>
+        <v>1685.878119590006</v>
       </c>
       <c r="G208">
-        <v>33061794623632.45</v>
+        <v>80727879663420.98</v>
       </c>
       <c r="H208">
-        <v>18.34860520451983</v>
+        <v>1712.8709045345</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209">
-        <v>12262812080577.53</v>
+        <v>9311656640561.023</v>
       </c>
       <c r="B209">
-        <v>6.996662167958021</v>
+        <v>1283.713431314121</v>
       </c>
       <c r="C209">
-        <v>11210947129558.09</v>
+        <v>8769256175911.455</v>
       </c>
       <c r="D209">
-        <v>6.396573879434244</v>
+        <v>1283.882920701755</v>
       </c>
       <c r="E209">
-        <v>12838585894976.6</v>
+        <v>9199339416187.08</v>
       </c>
       <c r="F209">
-        <v>7.325135892206899</v>
+        <v>1283.88385862157</v>
       </c>
       <c r="G209">
-        <v>33629680831366.35</v>
+        <v>78022249452977.83</v>
       </c>
       <c r="H209">
-        <v>19.18389101975058</v>
+        <v>1303.19894889555</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210">
-        <v>12036024623564.42</v>
+        <v>8760613799531.859</v>
       </c>
       <c r="B210">
-        <v>7.014567752903072</v>
+        <v>943.7365961739645</v>
       </c>
       <c r="C210">
-        <v>11003635475183.53</v>
+        <v>8250377407275.697</v>
       </c>
       <c r="D210">
-        <v>6.41484851578794</v>
+        <v>943.8563909578535</v>
       </c>
       <c r="E210">
-        <v>12601176582389.39</v>
+        <v>8655012913281.93</v>
       </c>
       <c r="F210">
-        <v>7.342716555308319</v>
+        <v>943.8570538439218</v>
       </c>
       <c r="G210">
-        <v>33007921099373.52</v>
+        <v>73471660924359.59</v>
       </c>
       <c r="H210">
-        <v>19.11878116086069</v>
+        <v>957.5131851047097</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211">
-        <v>11668535102026.18</v>
+        <v>8186568987069.694</v>
       </c>
       <c r="B211">
-        <v>7.11004979945776</v>
+        <v>833.0717424560106</v>
       </c>
       <c r="C211">
-        <v>10667702997150.23</v>
+        <v>7709830450407.771</v>
       </c>
       <c r="D211">
-        <v>6.501793575827</v>
+        <v>833.1703078530359</v>
       </c>
       <c r="E211">
-        <v>12216473143195.73</v>
+        <v>8087955482764.435</v>
       </c>
       <c r="F211">
-        <v>7.442937329712116</v>
+        <v>833.1708532295477</v>
       </c>
       <c r="G211">
-        <v>32000398274065.18</v>
+        <v>68722361532313.22</v>
       </c>
       <c r="H211">
-        <v>19.40297187133084</v>
+        <v>844.4117686996483</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212">
-        <v>11581002417023.4</v>
+        <v>7569585331434.194</v>
       </c>
       <c r="B212">
-        <v>7.307542451845621</v>
+        <v>1010.81023860945</v>
       </c>
       <c r="C212">
-        <v>10587686583779.57</v>
+        <v>7128840259609.802</v>
       </c>
       <c r="D212">
-        <v>6.683077702630905</v>
+        <v>1010.926201700723</v>
       </c>
       <c r="E212">
-        <v>12124839872478.87</v>
+        <v>7478471270338.782</v>
       </c>
       <c r="F212">
-        <v>7.649256963378599</v>
+        <v>1010.926843308701</v>
       </c>
       <c r="G212">
-        <v>31760412740173.05</v>
+        <v>63607811880021.05</v>
       </c>
       <c r="H212">
-        <v>19.90100336517889</v>
+        <v>1024.156805486431</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213">
-        <v>11045463163442.62</v>
+        <v>7278946856696.43</v>
       </c>
       <c r="B213">
-        <v>7.161463051350403</v>
+        <v>3689.156529615322</v>
       </c>
       <c r="C213">
-        <v>10098130332739.16</v>
+        <v>6855153384949.252</v>
       </c>
       <c r="D213">
-        <v>6.550514638113997</v>
+        <v>3689.565042895216</v>
       </c>
       <c r="E213">
-        <v>11564209332368.74</v>
+        <v>7191361704525.751</v>
       </c>
       <c r="F213">
-        <v>7.495758689638092</v>
+        <v>3689.567303067566</v>
       </c>
       <c r="G213">
-        <v>30292119483194.81</v>
+        <v>61194933350847.48</v>
       </c>
       <c r="H213">
-        <v>19.4435807841007</v>
+        <v>3736.186029012943</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214">
-        <v>10706707638213.49</v>
+        <v>7330449813071.24</v>
       </c>
       <c r="B214">
-        <v>7.227430677575041</v>
+        <v>14357.37229589974</v>
       </c>
       <c r="C214">
-        <v>9788458908093.197</v>
+        <v>6903652580141.787</v>
       </c>
       <c r="D214">
-        <v>6.609456096870336</v>
+        <v>14358.86714613124</v>
       </c>
       <c r="E214">
-        <v>11209579435464.53</v>
+        <v>7242239493820.193</v>
       </c>
       <c r="F214">
-        <v>7.56571476546981</v>
+        <v>14358.87541646405</v>
       </c>
       <c r="G214">
-        <v>29363330063876.5</v>
+        <v>61622678949131.52</v>
       </c>
       <c r="H214">
-        <v>19.7077557606142</v>
+        <v>14529.49066605118</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215">
-        <v>10566987520238.2</v>
+        <v>7217065720020.88</v>
       </c>
       <c r="B215">
-        <v>7.352424224577944</v>
+        <v>1479.737853081871</v>
       </c>
       <c r="C215">
-        <v>9660734006075.658</v>
+        <v>6796881190896.763</v>
       </c>
       <c r="D215">
-        <v>6.722519150846167</v>
+        <v>1479.885196316155</v>
       </c>
       <c r="E215">
-        <v>11063311266147.82</v>
+        <v>7130231608944.265</v>
       </c>
       <c r="F215">
-        <v>7.697350495410483</v>
+        <v>1479.886011480201</v>
       </c>
       <c r="G215">
-        <v>28980245240335.97</v>
+        <v>60680898216354.68</v>
       </c>
       <c r="H215">
-        <v>20.12420923481287</v>
+        <v>1496.705521216818</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216">
-        <v>10546595067842.4</v>
+        <v>6739325943769.156</v>
       </c>
       <c r="B216">
-        <v>7.588742217177129</v>
+        <v>1263.036915096412</v>
       </c>
       <c r="C216">
-        <v>9642092254159.607</v>
+        <v>6346999940878.083</v>
       </c>
       <c r="D216">
-        <v>6.93994330671931</v>
+        <v>1263.166268721675</v>
       </c>
       <c r="E216">
-        <v>11041963079898.95</v>
+        <v>6658286362092.392</v>
       </c>
       <c r="F216">
-        <v>7.943912167134447</v>
+        <v>1263.166984348202</v>
       </c>
       <c r="G216">
-        <v>28924332963495.15</v>
+        <v>56708870080542.03</v>
       </c>
       <c r="H216">
-        <v>20.68948944827732</v>
+        <v>1277.934429871274</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217">
-        <v>10104600602437.7</v>
+        <v>6570365457643.779</v>
       </c>
       <c r="B217">
-        <v>7.756867064213986</v>
+        <v>1138.196204750531</v>
       </c>
       <c r="C217">
-        <v>9238041497408.035</v>
+        <v>6187890583814.686</v>
       </c>
       <c r="D217">
-        <v>7.09327852976662</v>
+        <v>1138.29889517504</v>
       </c>
       <c r="E217">
-        <v>10579251662050.58</v>
+        <v>6491373629686.681</v>
       </c>
       <c r="F217">
-        <v>8.120216475785755</v>
+        <v>1138.299463259119</v>
       </c>
       <c r="G217">
-        <v>27712453262745.88</v>
+        <v>55302597974100.51</v>
       </c>
       <c r="H217">
-        <v>21.17483277668809</v>
+        <v>1150.027384884288</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218">
-        <v>10205934118683.31</v>
+        <v>6039685328080.271</v>
       </c>
       <c r="B218">
-        <v>8.201801992964443</v>
+        <v>967.7762891239742</v>
       </c>
       <c r="C218">
-        <v>9330676165901.629</v>
+        <v>5688146328758.04</v>
       </c>
       <c r="D218">
-        <v>7.498101148403509</v>
+        <v>967.8655188155486</v>
       </c>
       <c r="E218">
-        <v>10685335168808.43</v>
+        <v>5967119837542.323</v>
       </c>
       <c r="F218">
-        <v>8.587261439893414</v>
+        <v>967.8660124236436</v>
       </c>
       <c r="G218">
-        <v>27990296254202.71</v>
+        <v>50880595934587.43</v>
       </c>
       <c r="H218">
-        <v>22.51315519236785</v>
+        <v>978.0580704187114</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219">
-        <v>10164353469419.22</v>
+        <v>5813982117826.751</v>
       </c>
       <c r="B219">
-        <v>8.222707795479675</v>
+        <v>1178.703121569599</v>
       </c>
       <c r="C219">
-        <v>9292664975628.383</v>
+        <v>5475598099328.676</v>
       </c>
       <c r="D219">
-        <v>7.518941534326154</v>
+        <v>1178.800206147674</v>
       </c>
       <c r="E219">
-        <v>10641805458102.23</v>
+        <v>5744147345235.27</v>
       </c>
       <c r="F219">
-        <v>8.60807431056506</v>
+        <v>1178.80074318005</v>
       </c>
       <c r="G219">
-        <v>27876287825813.79</v>
+        <v>48997524263464.96</v>
       </c>
       <c r="H219">
-        <v>22.46585785352894</v>
+        <v>1189.893912553245</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220">
-        <v>9942762907169.008</v>
+        <v>5441863349173.27</v>
       </c>
       <c r="B220">
-        <v>8.473380103274193</v>
+        <v>611.8795609010471</v>
       </c>
       <c r="C220">
-        <v>9090096200632.049</v>
+        <v>5125165014216.69</v>
       </c>
       <c r="D220">
-        <v>7.750864114460406</v>
+        <v>611.9249869110621</v>
       </c>
       <c r="E220">
-        <v>10409827440861.63</v>
+        <v>5376527523896.171</v>
       </c>
       <c r="F220">
-        <v>8.868832588683675</v>
+        <v>611.9252381761726</v>
       </c>
       <c r="G220">
-        <v>27268712995034.23</v>
+        <v>45889814926229.12</v>
       </c>
       <c r="H220">
-        <v>22.98963453125775</v>
+        <v>617.1172022010303</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221">
-        <v>9451696627052.168</v>
+        <v>4736067639120.263</v>
       </c>
       <c r="B221">
-        <v>8.659674969580559</v>
+        <v>614.3812763284827</v>
       </c>
       <c r="C221">
-        <v>8641181145061.636</v>
+        <v>4460490017439.953</v>
       </c>
       <c r="D221">
-        <v>7.921709926639704</v>
+        <v>614.427828962909</v>
       </c>
       <c r="E221">
-        <v>9895738156279.102</v>
+        <v>4679253964079.094</v>
       </c>
       <c r="F221">
-        <v>9.063612439979297</v>
+        <v>614.4280864505838</v>
       </c>
       <c r="G221">
-        <v>25922244263778.89</v>
+        <v>39984899839413.95</v>
       </c>
       <c r="H221">
-        <v>23.47152681061927</v>
+        <v>619.7502551626206</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222">
+        <v>4507571534013.061</v>
+      </c>
+      <c r="B222">
+        <v>991.279401044608</v>
+      </c>
+      <c r="C222">
+        <v>4245303516038.415</v>
+      </c>
+      <c r="D222">
+        <v>991.3429909416246</v>
+      </c>
+      <c r="E222">
+        <v>4453513760442.493</v>
+      </c>
+      <c r="F222">
+        <v>991.3433426431792</v>
+      </c>
+      <c r="G222">
+        <v>38070262098025.08</v>
+      </c>
+      <c r="H222">
+        <v>998.6163642521815</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223">
+        <v>4184943839567.202</v>
+      </c>
+      <c r="B223">
+        <v>1941.821416097109</v>
+      </c>
+      <c r="C223">
+        <v>3941466035987.142</v>
+      </c>
+      <c r="D223">
+        <v>1941.950374483691</v>
+      </c>
+      <c r="E223">
+        <v>4134774726112.479</v>
+      </c>
+      <c r="F223">
+        <v>1941.951087716286</v>
+      </c>
+      <c r="G223">
+        <v>35364390971891.06</v>
+      </c>
+      <c r="H223">
+        <v>1956.702124939143</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224">
+        <v>4246365642909.53</v>
+      </c>
+      <c r="B224">
+        <v>1882.609341536604</v>
+      </c>
+      <c r="C224">
+        <v>3999310781188.705</v>
+      </c>
+      <c r="D224">
+        <v>1882.71470114387</v>
+      </c>
+      <c r="E224">
+        <v>4195456438620.767</v>
+      </c>
+      <c r="F224">
+        <v>1882.715283836128</v>
+      </c>
+      <c r="G224">
+        <v>35879757916952.21</v>
+      </c>
+      <c r="H224">
+        <v>1894.769986294251</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225">
+        <v>3911568208964.754</v>
+      </c>
+      <c r="B225">
+        <v>1091.967307060907</v>
+      </c>
+      <c r="C225">
+        <v>3684009892267.879</v>
+      </c>
+      <c r="D225">
+        <v>1092.033130694012</v>
+      </c>
+      <c r="E225">
+        <v>3864691764165.755</v>
+      </c>
+      <c r="F225">
+        <v>1092.033494731622</v>
+      </c>
+      <c r="G225">
+        <v>33069322604231.57</v>
+      </c>
+      <c r="H225">
+        <v>1099.564598193885</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226">
+        <v>3812211558019.808</v>
+      </c>
+      <c r="B226">
+        <v>11498.51902131511</v>
+      </c>
+      <c r="C226">
+        <v>3590438571735.591</v>
+      </c>
+      <c r="D226">
+        <v>11499.1827005447</v>
+      </c>
+      <c r="E226">
+        <v>3766531278287.661</v>
+      </c>
+      <c r="F226">
+        <v>11499.18637096302</v>
+      </c>
+      <c r="G226">
+        <v>32234677031103.16</v>
+      </c>
+      <c r="H226">
+        <v>11575.12956816686</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227">
+        <v>3871385639368.135</v>
+      </c>
+      <c r="B227">
+        <v>1549.612016685877</v>
+      </c>
+      <c r="C227">
+        <v>3646167102373.448</v>
+      </c>
+      <c r="D227">
+        <v>1549.68973608571</v>
+      </c>
+      <c r="E227">
+        <v>3824992991035.054</v>
+      </c>
+      <c r="F227">
+        <v>1549.690165894322</v>
+      </c>
+      <c r="G227">
+        <v>32731802161530.49</v>
+      </c>
+      <c r="H227">
+        <v>1558.58505177188</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228">
+        <v>3509418384993.871</v>
+      </c>
+      <c r="B228">
+        <v>2170.021910761024</v>
+      </c>
+      <c r="C228">
+        <v>3305274746669.617</v>
+      </c>
+      <c r="D228">
+        <v>2170.149264320568</v>
+      </c>
+      <c r="E228">
+        <v>3467381705865.917</v>
+      </c>
+      <c r="F228">
+        <v>2170.149968627952</v>
+      </c>
+      <c r="G228">
+        <v>29689359136858.21</v>
+      </c>
+      <c r="H228">
+        <v>2184.724433055078</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229">
+        <v>3675377706843.563</v>
+      </c>
+      <c r="B229">
+        <v>-958.8640228495647</v>
+      </c>
+      <c r="C229">
+        <v>3461571827807.48</v>
+      </c>
+      <c r="D229">
+        <v>-958.9171001329157</v>
+      </c>
+      <c r="E229">
+        <v>3631344317521.178</v>
+      </c>
+      <c r="F229">
+        <v>-958.9173936671605</v>
+      </c>
+      <c r="G229">
+        <v>31084752184451.4</v>
+      </c>
+      <c r="H229">
+        <v>-964.9914091362504</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230">
+        <v>3973984546049.358</v>
+      </c>
+      <c r="B230">
+        <v>-3640.807773282378</v>
+      </c>
+      <c r="C230">
+        <v>3742791718128.481</v>
+      </c>
+      <c r="D230">
+        <v>-3640.993485949382</v>
+      </c>
+      <c r="E230">
+        <v>3926356518701.917</v>
+      </c>
+      <c r="F230">
+        <v>-3640.994512998211</v>
+      </c>
+      <c r="G230">
+        <v>33593509919016.72</v>
+      </c>
+      <c r="H230">
+        <v>-3662.248132039143</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231">
+        <v>3807668933673.977</v>
+      </c>
+      <c r="B231">
+        <v>1132.012528231867</v>
+      </c>
+      <c r="C231">
+        <v>3586160448464.938</v>
+      </c>
+      <c r="D231">
+        <v>1132.073949171054</v>
+      </c>
+      <c r="E231">
+        <v>3762043336255.722</v>
+      </c>
+      <c r="F231">
+        <v>1132.074288849449</v>
+      </c>
+      <c r="G231">
+        <v>32196510114386.7</v>
+      </c>
+      <c r="H231">
+        <v>1139.103009474868</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232">
+        <v>3566312843438.339</v>
+      </c>
+      <c r="B232">
+        <v>818.0426208704504</v>
+      </c>
+      <c r="C232">
+        <v>3358856864162.259</v>
+      </c>
+      <c r="D232">
+        <v>818.084486730877</v>
+      </c>
+      <c r="E232">
+        <v>3523591738293.735</v>
+      </c>
+      <c r="F232">
+        <v>818.0847182571625</v>
+      </c>
+      <c r="G232">
+        <v>30167817077012.35</v>
+      </c>
+      <c r="H232">
+        <v>822.8763858938505</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233">
+        <v>3279289231202.243</v>
+      </c>
+      <c r="B233">
+        <v>588.253391840581</v>
+      </c>
+      <c r="C233">
+        <v>3088542588036.807</v>
+      </c>
+      <c r="D233">
+        <v>588.2805658555723</v>
+      </c>
+      <c r="E233">
+        <v>3240019994234.37</v>
+      </c>
+      <c r="F233">
+        <v>588.2807161277552</v>
+      </c>
+      <c r="G233">
+        <v>27753145968310.02</v>
+      </c>
+      <c r="H233">
+        <v>591.3915055751905</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234">
+        <v>2890668877190.84</v>
+      </c>
+      <c r="B234">
+        <v>505.2260919748181</v>
+      </c>
+      <c r="C234">
+        <v>2722542521318.636</v>
+      </c>
+      <c r="D234">
+        <v>505.2479387023145</v>
+      </c>
+      <c r="E234">
+        <v>2856069563019.969</v>
+      </c>
+      <c r="F234">
+        <v>505.2480595105186</v>
+      </c>
+      <c r="G234">
+        <v>24480076790503.39</v>
+      </c>
+      <c r="H234">
+        <v>507.7495363791892</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235">
+        <v>2585839163043.463</v>
+      </c>
+      <c r="B235">
+        <v>805.4751137013581</v>
+      </c>
+      <c r="C235">
+        <v>2435453028816.981</v>
+      </c>
+      <c r="D235">
+        <v>805.5079767954888</v>
+      </c>
+      <c r="E235">
+        <v>2554899834894.47</v>
+      </c>
+      <c r="F235">
+        <v>805.5081585168795</v>
+      </c>
+      <c r="G235">
+        <v>21909742686906.99</v>
+      </c>
+      <c r="H235">
+        <v>809.2719338514794</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236">
+        <v>2501577145826.607</v>
+      </c>
+      <c r="B236">
+        <v>886.4068724017151</v>
+      </c>
+      <c r="C236">
+        <v>2356094372329.595</v>
+      </c>
+      <c r="D236">
+        <v>886.4368741589443</v>
+      </c>
+      <c r="E236">
+        <v>2471649049440.88</v>
+      </c>
+      <c r="F236">
+        <v>886.4370400527575</v>
+      </c>
+      <c r="G236">
+        <v>21198780723537.07</v>
+      </c>
+      <c r="H236">
+        <v>889.8738412131414</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237">
+        <v>2243794037363.554</v>
+      </c>
+      <c r="B237">
+        <v>799.3183702811288</v>
+      </c>
+      <c r="C237">
+        <v>2113310926823.219</v>
+      </c>
+      <c r="D237">
+        <v>799.3464831035659</v>
+      </c>
+      <c r="E237">
+        <v>2216958332839.907</v>
+      </c>
+      <c r="F237">
+        <v>799.3466385510735</v>
+      </c>
+      <c r="G237">
+        <v>19022488219251.2</v>
+      </c>
+      <c r="H237">
+        <v>802.5672630020724</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238">
+        <v>2161352465099.187</v>
+      </c>
+      <c r="B238">
+        <v>6709.690662909971</v>
+      </c>
+      <c r="C238">
+        <v>2035666010229.97</v>
+      </c>
+      <c r="D238">
+        <v>6709.913781535171</v>
+      </c>
+      <c r="E238">
+        <v>2135505332833.476</v>
+      </c>
+      <c r="F238">
+        <v>6709.915015235217</v>
+      </c>
+      <c r="G238">
+        <v>18326092441250.05</v>
+      </c>
+      <c r="H238">
+        <v>6735.47825867059</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239">
+        <v>2204752607299.118</v>
+      </c>
+      <c r="B239">
+        <v>1536.628144567116</v>
+      </c>
+      <c r="C239">
+        <v>2076541047436.869</v>
+      </c>
+      <c r="D239">
+        <v>1536.671577120282</v>
+      </c>
+      <c r="E239">
+        <v>2178385080309.625</v>
+      </c>
+      <c r="F239">
+        <v>1536.671817269688</v>
+      </c>
+      <c r="G239">
+        <v>18692723602904.91</v>
+      </c>
+      <c r="H239">
+        <v>1541.648589293138</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240">
+        <v>1987454819823.453</v>
+      </c>
+      <c r="B240">
+        <v>605.1867719512813</v>
+      </c>
+      <c r="C240">
+        <v>1871885552065.332</v>
+      </c>
+      <c r="D240">
+        <v>605.2045812253816</v>
+      </c>
+      <c r="E240">
+        <v>1963692282859.918</v>
+      </c>
+      <c r="F240">
+        <v>605.2046796966171</v>
+      </c>
+      <c r="G240">
+        <v>16856524008854.73</v>
+      </c>
+      <c r="H240">
+        <v>607.245381721287</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241">
+        <v>1806727509384.397</v>
+      </c>
+      <c r="B241">
+        <v>561.8009082660964</v>
+      </c>
+      <c r="C241">
+        <v>1701671894181.353</v>
+      </c>
+      <c r="D241">
+        <v>561.8154349215748</v>
+      </c>
+      <c r="E241">
+        <v>1785130512612.084</v>
+      </c>
+      <c r="F241">
+        <v>561.815515240547</v>
+      </c>
+      <c r="G241">
+        <v>15328332911151.75</v>
+      </c>
+      <c r="H241">
+        <v>563.480336066077</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242">
+        <v>1597680843107.718</v>
+      </c>
+      <c r="B242">
+        <v>707.7467761590159</v>
+      </c>
+      <c r="C242">
+        <v>1504785218477.007</v>
+      </c>
+      <c r="D242">
+        <v>707.7647040078527</v>
+      </c>
+      <c r="E242">
+        <v>1578587542496.974</v>
+      </c>
+      <c r="F242">
+        <v>707.7648031308182</v>
+      </c>
+      <c r="G242">
+        <v>13559525285169.49</v>
+      </c>
+      <c r="H242">
+        <v>709.8196639506859</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243">
+        <v>1533128356823.728</v>
+      </c>
+      <c r="B243">
+        <v>1199.468033584158</v>
+      </c>
+      <c r="C243">
+        <v>1443987430055.564</v>
+      </c>
+      <c r="D243">
+        <v>1199.494321737897</v>
+      </c>
+      <c r="E243">
+        <v>1514807929030.222</v>
+      </c>
+      <c r="F243">
+        <v>1199.494467082397</v>
+      </c>
+      <c r="G243">
+        <v>13013076588981.59</v>
+      </c>
+      <c r="H243">
+        <v>1202.507937978318</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244">
+        <v>1442766204581.006</v>
+      </c>
+      <c r="B244">
+        <v>1751.993954100871</v>
+      </c>
+      <c r="C244">
+        <v>1358881004216.812</v>
+      </c>
+      <c r="D244">
+        <v>1752.032768724264</v>
+      </c>
+      <c r="E244">
+        <v>1425527460906.91</v>
+      </c>
+      <c r="F244">
+        <v>1752.032983325383</v>
+      </c>
+      <c r="G244">
+        <v>12247945683261.7</v>
+      </c>
+      <c r="H244">
+        <v>1756.482546838869</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245">
+        <v>1433320213316.203</v>
+      </c>
+      <c r="B245">
+        <v>3841.732997966963</v>
+      </c>
+      <c r="C245">
+        <v>1349984406452.874</v>
+      </c>
+      <c r="D245">
+        <v>3841.811592228159</v>
+      </c>
+      <c r="E245">
+        <v>1416194529678.581</v>
+      </c>
+      <c r="F245">
+        <v>3841.812026762669</v>
+      </c>
+      <c r="G245">
+        <v>12167949479985.92</v>
+      </c>
+      <c r="H245">
+        <v>3850.822215552389</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246">
+        <v>1397547442645.741</v>
+      </c>
+      <c r="B246">
+        <v>633.9801229864369</v>
+      </c>
+      <c r="C246">
+        <v>1316292213451.258</v>
+      </c>
+      <c r="D246">
+        <v>633.9912027004741</v>
+      </c>
+      <c r="E246">
+        <v>1380849903597.664</v>
+      </c>
+      <c r="F246">
+        <v>633.99126395752</v>
+      </c>
+      <c r="G246">
+        <v>11864974100980.35</v>
+      </c>
+      <c r="H246">
+        <v>635.2615609549715</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247">
+        <v>1166146616057.711</v>
+      </c>
+      <c r="B247">
+        <v>368.8313979247275</v>
+      </c>
+      <c r="C247">
+        <v>1098349027932.224</v>
+      </c>
+      <c r="D247">
+        <v>368.8380788890663</v>
+      </c>
+      <c r="E247">
+        <v>1152217693039.938</v>
+      </c>
+      <c r="F247">
+        <v>368.8381158261283</v>
+      </c>
+      <c r="G247">
+        <v>9904260081123.047</v>
+      </c>
+      <c r="H247">
+        <v>369.6041138977854</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248">
+        <v>1014345332788.923</v>
+      </c>
+      <c r="B248">
+        <v>1192.56085859062</v>
+      </c>
+      <c r="C248">
+        <v>955375296775.1353</v>
+      </c>
+      <c r="D248">
+        <v>1192.581925182219</v>
+      </c>
+      <c r="E248">
+        <v>1002231809630.737</v>
+      </c>
+      <c r="F248">
+        <v>1192.582041651726</v>
+      </c>
+      <c r="G248">
+        <v>8617184704988.689</v>
+      </c>
+      <c r="H248">
+        <v>1194.997744023829</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249">
+        <v>1063058665913.765</v>
+      </c>
+      <c r="B249">
+        <v>612.5671482750611</v>
+      </c>
+      <c r="C249">
+        <v>1001255919673.478</v>
+      </c>
+      <c r="D249">
+        <v>612.5738760489264</v>
+      </c>
+      <c r="E249">
+        <v>1050362649877.455</v>
+      </c>
+      <c r="F249">
+        <v>612.5739132434366</v>
+      </c>
+      <c r="G249">
+        <v>9030281204202.467</v>
+      </c>
+      <c r="H249">
+        <v>613.3455226739455</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250">
+        <v>804012946092.1278</v>
+      </c>
+      <c r="B250">
+        <v>293.9293997235544</v>
+      </c>
+      <c r="C250">
+        <v>757273121332.825</v>
+      </c>
+      <c r="D250">
+        <v>293.9336335015228</v>
+      </c>
+      <c r="E250">
+        <v>794413699174.3226</v>
+      </c>
+      <c r="F250">
+        <v>293.9336569079755</v>
+      </c>
+      <c r="G250">
+        <v>6832758078414.758</v>
+      </c>
+      <c r="H250">
+        <v>294.4191983098704</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251">
+        <v>731528818412.9215</v>
+      </c>
+      <c r="B251">
+        <v>464.7673009672775</v>
+      </c>
+      <c r="C251">
+        <v>689003452297.8396</v>
+      </c>
+      <c r="D251">
+        <v>464.771935413974</v>
+      </c>
+      <c r="E251">
+        <v>722795737830.8</v>
+      </c>
+      <c r="F251">
+        <v>464.7719610349592</v>
+      </c>
+      <c r="G251">
+        <v>6217522104735.502</v>
+      </c>
+      <c r="H251">
+        <v>465.3035351392792</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252">
+        <v>613248035120.2869</v>
+      </c>
+      <c r="B252">
+        <v>4068.023073936587</v>
+      </c>
+      <c r="C252">
+        <v>577599582430.0995</v>
+      </c>
+      <c r="D252">
+        <v>4068.072263608915</v>
+      </c>
+      <c r="E252">
+        <v>605928052944.6803</v>
+      </c>
+      <c r="F252">
+        <v>4068.072535548275</v>
+      </c>
+      <c r="G252">
+        <v>5213248183936.148</v>
+      </c>
+      <c r="H252">
+        <v>4073.714875182749</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253">
+        <v>713258110379.6326</v>
+      </c>
+      <c r="B253">
+        <v>366.524056970338</v>
+      </c>
+      <c r="C253">
+        <v>671795038864.0961</v>
+      </c>
+      <c r="D253">
+        <v>366.5255354107654</v>
+      </c>
+      <c r="E253">
+        <v>704743336017.6163</v>
+      </c>
+      <c r="F253">
+        <v>366.5255435838979</v>
+      </c>
+      <c r="G253">
+        <v>6062419035607.546</v>
+      </c>
+      <c r="H253">
+        <v>366.6951956758419</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254">
+        <v>377392076052.8795</v>
+      </c>
+      <c r="B254">
+        <v>95.19365833394055</v>
+      </c>
+      <c r="C254">
+        <v>355455281845.193</v>
+      </c>
+      <c r="D254">
+        <v>95.19444548120686</v>
+      </c>
+      <c r="E254">
+        <v>372888654134.5719</v>
+      </c>
+      <c r="F254">
+        <v>95.19444983275166</v>
+      </c>
+      <c r="G254">
+        <v>3209499032651.369</v>
+      </c>
+      <c r="H254">
+        <v>95.28473867149516</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255">
+        <v>232764762207.7057</v>
+      </c>
+      <c r="B255">
+        <v>169.7483012579917</v>
+      </c>
+      <c r="C255">
+        <v>219235228868.2182</v>
+      </c>
+      <c r="D255">
+        <v>169.7491796169938</v>
+      </c>
+      <c r="E255">
+        <v>229987665277.2236</v>
+      </c>
+      <c r="F255">
+        <v>169.7491844726632</v>
+      </c>
+      <c r="G255">
+        <v>1980009951205.88</v>
+      </c>
+      <c r="H255">
+        <v>169.849965172017</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256">
+        <v>211198429515.6056</v>
+      </c>
+      <c r="B256">
+        <v>-1577.124333407628</v>
+      </c>
+      <c r="C256">
+        <v>198922509205.1099</v>
+      </c>
+      <c r="D256">
+        <v>-1577.130538727785</v>
+      </c>
+      <c r="E256">
+        <v>208678704506.8733</v>
+      </c>
+      <c r="F256">
+        <v>-1577.130573031285</v>
+      </c>
+      <c r="G256">
+        <v>1796621462478.723</v>
+      </c>
+      <c r="H256">
+        <v>-1577.842601857154</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257">
+        <v>248995093016.1746</v>
+      </c>
+      <c r="B257">
+        <v>-871.5952799067811</v>
+      </c>
+      <c r="C257">
+        <v>234522110659.9486</v>
+      </c>
+      <c r="D257">
+        <v>-871.5979166337216</v>
+      </c>
+      <c r="E257">
+        <v>246024294975.944</v>
+      </c>
+      <c r="F257">
+        <v>-871.5979312097338</v>
+      </c>
+      <c r="G257">
+        <v>2118015174918.389</v>
+      </c>
+      <c r="H257">
+        <v>-871.9004834823601</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258">
+        <v>245822533121.1111</v>
+      </c>
+      <c r="B258">
+        <v>132.0077141860724</v>
+      </c>
+      <c r="C258">
+        <v>231533968307.4522</v>
+      </c>
+      <c r="D258">
+        <v>132.0077650028949</v>
+      </c>
+      <c r="E258">
+        <v>242889598639.7907</v>
+      </c>
+      <c r="F258">
+        <v>132.0077652838112</v>
+      </c>
+      <c r="G258">
+        <v>2091039740783.665</v>
+      </c>
+      <c r="H258">
+        <v>132.0135963599055</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259">
+        <v>23298502495.07804</v>
+      </c>
+      <c r="B259">
+        <v>24.36597487237652</v>
+      </c>
+      <c r="C259">
+        <v>21944335721.86824</v>
+      </c>
+      <c r="D259">
+        <v>24.36609976197827</v>
+      </c>
+      <c r="E259">
+        <v>23020600520.14492</v>
+      </c>
+      <c r="F259">
+        <v>24.36610045237155</v>
+      </c>
+      <c r="G259">
+        <v>198258244033.3325</v>
+      </c>
+      <c r="H259">
+        <v>24.38043337091386</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260">
+        <v>129932300237.1893</v>
+      </c>
+      <c r="B260">
+        <v>-73.84054175221665</v>
+      </c>
+      <c r="C260">
+        <v>122380122781.4362</v>
+      </c>
+      <c r="D260">
+        <v>-73.84056677085248</v>
+      </c>
+      <c r="E260">
+        <v>128382281866.0044</v>
+      </c>
+      <c r="F260">
+        <v>-73.84056690915482</v>
+      </c>
+      <c r="G260">
+        <v>1105458442400.879</v>
+      </c>
+      <c r="H260">
+        <v>-73.84343800854572</v>
       </c>
     </row>
   </sheetData>

--- a/Lifetime_All_Modes.xlsx
+++ b/Lifetime_All_Modes.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H260"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,6736 +429,5722 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>2.83355423249052E+16</v>
+        <v>4333435837322918</v>
       </c>
       <c r="B2">
-        <v>514.3380596114838</v>
+        <v>9.700671391355046</v>
       </c>
       <c r="C2">
-        <v>2.095259613133127E+16</v>
+        <v>3817086030247024</v>
       </c>
       <c r="D2">
-        <v>593.3186903576812</v>
+        <v>8.549436026118178</v>
       </c>
       <c r="E2">
-        <v>2.194219561581332E+16</v>
+        <v>4368302834934220</v>
       </c>
       <c r="F2">
-        <v>596.2792952675012</v>
+        <v>9.779704427764077</v>
       </c>
       <c r="G2">
-        <v>3.573849312854028E+16</v>
+        <v>1.078650680888679E+16</v>
       </c>
       <c r="H2">
-        <v>749.3501148677983</v>
+        <v>24.03531502530381</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>2.516602980444679E+16</v>
+        <v>4254333258185604</v>
       </c>
       <c r="B3">
-        <v>524.1637963163213</v>
+        <v>9.720948347220558</v>
       </c>
       <c r="C3">
-        <v>1.898157252145197E+16</v>
+        <v>3749831225613071</v>
       </c>
       <c r="D3">
-        <v>623.1122027234539</v>
+        <v>8.573472693478715</v>
       </c>
       <c r="E3">
-        <v>1.988122437855043E+16</v>
+        <v>4291387084034301</v>
       </c>
       <c r="F3">
-        <v>624.5306332212042</v>
+        <v>9.806704777601617</v>
       </c>
       <c r="G3">
-        <v>3.301733758754113E+16</v>
+        <v>1.060675993993663E+16</v>
       </c>
       <c r="H3">
-        <v>782.6014669936479</v>
+        <v>24.10864898626188</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>2.257729882615543E+16</v>
+        <v>4156783624986832</v>
       </c>
       <c r="B4">
-        <v>577.3063671288993</v>
+        <v>9.731602533084942</v>
       </c>
       <c r="C4">
-        <v>1.732132041864793E+16</v>
+        <v>3666776386110465</v>
       </c>
       <c r="D4">
-        <v>681.7584893082432</v>
+        <v>8.590367481048615</v>
       </c>
       <c r="E4">
-        <v>1.814471368129797E+16</v>
+        <v>4196399148584952</v>
       </c>
       <c r="F4">
-        <v>682.7830757315888</v>
+        <v>9.825518678446556</v>
       </c>
       <c r="G4">
-        <v>3.068594348713623E+16</v>
+        <v>1.038432813919427E+16</v>
       </c>
       <c r="H4">
-        <v>854.4042871685291</v>
+        <v>24.16605565923223</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>2.043175498543968E+16</v>
+        <v>4059488974109248</v>
       </c>
       <c r="B5">
-        <v>628.1642742465257</v>
+        <v>9.758211559480696</v>
       </c>
       <c r="C5">
-        <v>1.590788009270409E+16</v>
+        <v>3583810566710786</v>
       </c>
       <c r="D5">
-        <v>734.4500453359924</v>
+        <v>8.620903378913411</v>
       </c>
       <c r="E5">
-        <v>1.666599322366515E+16</v>
+        <v>4101510238814813</v>
       </c>
       <c r="F5">
-        <v>735.4121753175577</v>
+        <v>9.86036712387318</v>
       </c>
       <c r="G5">
-        <v>2.867005274981956E+16</v>
+        <v>1.016162680309979E+16</v>
       </c>
       <c r="H5">
-        <v>921.9935139837165</v>
+        <v>24.2742810347699</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>1.863513145726835E+16</v>
+        <v>3959875995406454</v>
       </c>
       <c r="B6">
-        <v>679.1540272136259</v>
+        <v>9.772493249185356</v>
       </c>
       <c r="C6">
-        <v>1.469617922697749E+16</v>
+        <v>3498734727284394</v>
       </c>
       <c r="D6">
-        <v>786.5863233134521</v>
+        <v>8.640632463014137</v>
       </c>
       <c r="E6">
-        <v>1.53980656837502E+16</v>
+        <v>4004205185263913</v>
       </c>
       <c r="F6">
-        <v>787.5400346487028</v>
+        <v>9.882982752870797</v>
       </c>
       <c r="G6">
-        <v>2.691714214463622E+16</v>
+        <v>9932730698269804</v>
       </c>
       <c r="H6">
-        <v>989.8322581969044</v>
+        <v>24.35663899371286</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>1.710617957526767E+16</v>
+        <v>3864804698791706</v>
       </c>
       <c r="B7">
-        <v>727.9941379178445</v>
+        <v>9.797760374771842</v>
       </c>
       <c r="C7">
-        <v>1.364344087031009E+16</v>
+        <v>3417411590824649</v>
       </c>
       <c r="D7">
-        <v>836.0795196935476</v>
+        <v>8.669901253714972</v>
       </c>
       <c r="E7">
-        <v>1.429627806156167E+16</v>
+        <v>3911189529303266</v>
       </c>
       <c r="F7">
-        <v>837.022287736736</v>
+        <v>9.916400389254152</v>
       </c>
       <c r="G7">
-        <v>2.537418357510436E+16</v>
+        <v>9713425115930714</v>
       </c>
       <c r="H7">
-        <v>1054.925669560037</v>
+        <v>24.46179803096808</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>1.578721159564384E+16</v>
+        <v>3764321862541290</v>
       </c>
       <c r="B8">
-        <v>774.9489281176164</v>
+        <v>9.815860709129419</v>
       </c>
       <c r="C8">
-        <v>1.271839482425982E+16</v>
+        <v>3331324894667018</v>
       </c>
       <c r="D8">
-        <v>883.3028398942018</v>
+        <v>8.693232247446437</v>
       </c>
       <c r="E8">
-        <v>1.332797875004808E+16</v>
+        <v>3812722500302464</v>
       </c>
       <c r="F8">
-        <v>884.2329232616451</v>
+        <v>9.943069906294783</v>
       </c>
       <c r="G8">
-        <v>2.400191205967181E+16</v>
+        <v>9480730686845292</v>
       </c>
       <c r="H8">
-        <v>1117.757115518829</v>
+        <v>24.55320179209558</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>1.463710067733334E+16</v>
+        <v>3669900778594772</v>
       </c>
       <c r="B9">
-        <v>818.9298047829726</v>
+        <v>9.844588799306424</v>
       </c>
       <c r="C9">
-        <v>1.189832086946765E+16</v>
+        <v>3250304876824743</v>
       </c>
       <c r="D9">
-        <v>927.0438643460917</v>
+        <v>8.725533330869316</v>
       </c>
       <c r="E9">
-        <v>1.246943924792948E+16</v>
+        <v>3720048060740989</v>
       </c>
       <c r="F9">
-        <v>927.9583086186562</v>
+        <v>9.980044870080032</v>
       </c>
       <c r="G9">
-        <v>2.277162197988522E+16</v>
+        <v>9261218013491174</v>
       </c>
       <c r="H9">
-        <v>1176.758585145659</v>
+        <v>24.66992894618099</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>1.362094949145417E+16</v>
+        <v>3571858121146216</v>
       </c>
       <c r="B10">
-        <v>865.7357610184999</v>
+        <v>9.852053000097797</v>
       </c>
       <c r="C10">
-        <v>1.116283036302834E+16</v>
+        <v>3166046875762417</v>
       </c>
       <c r="D10">
-        <v>974.0264463670666</v>
+        <v>8.739398192133011</v>
       </c>
       <c r="E10">
-        <v>1.169935381850483E+16</v>
+        <v>3623667047357722</v>
       </c>
       <c r="F10">
-        <v>974.9300563021106</v>
+        <v>9.99583683061419</v>
       </c>
       <c r="G10">
-        <v>2.165655370087092E+16</v>
+        <v>9032400397188312</v>
       </c>
       <c r="H10">
-        <v>1240.634083399025</v>
+        <v>24.73299064709432</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>1.273021505160606E+16</v>
+        <v>3476879943933336</v>
       </c>
       <c r="B11">
-        <v>911.4643633386347</v>
+        <v>9.865080209640638</v>
       </c>
       <c r="C11">
-        <v>1.050930823531873E+16</v>
+        <v>3084295216260217</v>
       </c>
       <c r="D11">
-        <v>1019.560045540656</v>
+        <v>8.75773927636102</v>
       </c>
       <c r="E11">
-        <v>1.101501523706137E+16</v>
+        <v>3530150239114408</v>
       </c>
       <c r="F11">
-        <v>1020.45067398994</v>
+        <v>10.01701818605711</v>
       </c>
       <c r="G11">
-        <v>2.065595036996592E+16</v>
+        <v>8809867004453186</v>
       </c>
       <c r="H11">
-        <v>1303.041969369028</v>
+        <v>24.81605529940806</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>1.192817671139385E+16</v>
+        <v>3386152108542912</v>
       </c>
       <c r="B12">
-        <v>948.7250003900476</v>
+        <v>9.887098397309199</v>
       </c>
       <c r="C12">
-        <v>9913538412356426</v>
+        <v>3006084504815650</v>
       </c>
       <c r="D12">
-        <v>1055.742613463218</v>
+        <v>8.783940527273769</v>
       </c>
       <c r="E12">
-        <v>1.039108887169271E+16</v>
+        <v>3440681434502336</v>
       </c>
       <c r="F12">
-        <v>1056.614047613396</v>
+        <v>10.04703680530293</v>
       </c>
       <c r="G12">
-        <v>1.97352792955253E+16</v>
+        <v>8596487554823105</v>
       </c>
       <c r="H12">
-        <v>1354.309572932217</v>
+        <v>24.91601297598333</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>1.120638568395309E+16</v>
+        <v>3294335886438536</v>
       </c>
       <c r="B13">
-        <v>990.5909761380794</v>
+        <v>9.894505368587962</v>
       </c>
       <c r="C13">
-        <v>9371227002018716</v>
+        <v>2926818168238164</v>
       </c>
       <c r="D13">
-        <v>1097.041540971114</v>
+        <v>8.79722517297809</v>
       </c>
       <c r="E13">
-        <v>9823094711213924</v>
+        <v>3350002523311306</v>
       </c>
       <c r="F13">
-        <v>1097.898823008335</v>
+        <v>10.06234320705985</v>
       </c>
       <c r="G13">
-        <v>1.888979889439234E+16</v>
+        <v>8379741093032785</v>
       </c>
       <c r="H13">
-        <v>1412.749106947948</v>
+        <v>24.98175299701363</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>1.055706191465882E+16</v>
+        <v>3208200192457815</v>
       </c>
       <c r="B14">
-        <v>1030.245088262978</v>
+        <v>9.910913576758919</v>
       </c>
       <c r="C14">
-        <v>8878215072057704</v>
+        <v>2852348097265643</v>
       </c>
       <c r="D14">
-        <v>1135.820546918559</v>
+        <v>8.818076062692271</v>
       </c>
       <c r="E14">
-        <v>9306691061941086</v>
+        <v>3264808112496846</v>
       </c>
       <c r="F14">
-        <v>1136.661943810315</v>
+        <v>10.086350804237</v>
       </c>
       <c r="G14">
-        <v>1.811472005061706E+16</v>
+        <v>8175659934279373</v>
       </c>
       <c r="H14">
-        <v>1468.458215305631</v>
+        <v>25.06904042091261</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>9964432755826102</v>
+        <v>3122232445358358</v>
       </c>
       <c r="B15">
-        <v>1067.084637372316</v>
+        <v>9.925275529458991</v>
       </c>
       <c r="C15">
-        <v>8423859330556308</v>
+        <v>2777918716452110</v>
       </c>
       <c r="D15">
-        <v>1171.583586447031</v>
+        <v>8.837402359330223</v>
       </c>
       <c r="E15">
-        <v>8830740772692785</v>
+        <v>3179658005357808</v>
       </c>
       <c r="F15">
-        <v>1172.408250104494</v>
+        <v>10.10832748388378</v>
       </c>
       <c r="G15">
-        <v>1.739469059151303E+16</v>
+        <v>7971252157160780</v>
       </c>
       <c r="H15">
-        <v>1521.009698763168</v>
+        <v>25.14361700380475</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>9425296722180698</v>
+        <v>3034829393517568</v>
       </c>
       <c r="B16">
-        <v>1109.856535900944</v>
+        <v>9.930272628433684</v>
       </c>
       <c r="C16">
-        <v>8006769139668328</v>
+        <v>2702139191259656</v>
       </c>
       <c r="D16">
-        <v>1213.850841802695</v>
+        <v>8.848300309955446</v>
       </c>
       <c r="E16">
-        <v>8393795932147372</v>
+        <v>3092960972900535</v>
       </c>
       <c r="F16">
-        <v>1214.663909345109</v>
+        <v>10.12090875182574</v>
       </c>
       <c r="G16">
-        <v>1.672864309042034E+16</v>
+        <v>7762683507337622</v>
       </c>
       <c r="H16">
-        <v>1582.607882199758</v>
+        <v>25.20218614085093</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>8935159218412562</v>
+        <v>2953587895612455</v>
       </c>
       <c r="B17">
-        <v>1146.627913089032</v>
+        <v>9.940071554131901</v>
       </c>
       <c r="C17">
-        <v>7624403263708238</v>
+        <v>2631604230808521</v>
       </c>
       <c r="D17">
-        <v>1249.486817362279</v>
+        <v>8.863049173828728</v>
       </c>
       <c r="E17">
-        <v>7993202043543617</v>
+        <v>3012261993525146</v>
       </c>
       <c r="F17">
-        <v>1250.283896546301</v>
+        <v>10.13787852286897</v>
       </c>
       <c r="G17">
-        <v>1.61135700022861E+16</v>
+        <v>7568136233877490</v>
       </c>
       <c r="H17">
-        <v>1636.031420408953</v>
+        <v>25.26967746355098</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>8480839252665462</v>
+        <v>2870498094142086</v>
       </c>
       <c r="B18">
-        <v>1180.5986093275</v>
+        <v>9.938529006362325</v>
       </c>
       <c r="C18">
-        <v>7267203373370603</v>
+        <v>2559366908517605</v>
       </c>
       <c r="D18">
-        <v>1282.213704951338</v>
+        <v>8.867861937216416</v>
       </c>
       <c r="E18">
-        <v>7618951042635824</v>
+        <v>2929613251813900</v>
       </c>
       <c r="F18">
-        <v>1282.994553765334</v>
+        <v>10.14347253846853</v>
       </c>
       <c r="G18">
-        <v>1.553492232203259E+16</v>
+        <v>7368477919102304</v>
       </c>
       <c r="H18">
-        <v>1686.470524795065</v>
+        <v>25.30928007417433</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>8064518079839175</v>
+        <v>2793180609015878</v>
       </c>
       <c r="B19">
-        <v>1216.12386934781</v>
+        <v>9.95520745898382</v>
       </c>
       <c r="C19">
-        <v>6937477952076242</v>
+        <v>2492058939099960</v>
       </c>
       <c r="D19">
-        <v>1316.558563263599</v>
+        <v>8.888405561375386</v>
       </c>
       <c r="E19">
-        <v>7273466434645345</v>
+        <v>2852602415211187</v>
       </c>
       <c r="F19">
-        <v>1317.324124527419</v>
+        <v>10.16718309519043</v>
       </c>
       <c r="G19">
-        <v>1.49971362681957E+16</v>
+        <v>7182063104389375</v>
       </c>
       <c r="H19">
-        <v>1739.418152769263</v>
+        <v>25.39604486836822</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>7677122118323970</v>
+        <v>2716840001341746</v>
       </c>
       <c r="B20">
-        <v>1248.599745862113</v>
+        <v>9.960957347691879</v>
       </c>
       <c r="C20">
-        <v>6628551701311793</v>
+        <v>2425516848897027</v>
       </c>
       <c r="D20">
-        <v>1347.712528241058</v>
+        <v>8.899362463882582</v>
       </c>
       <c r="E20">
-        <v>6949758005428475</v>
+        <v>2776466056858684</v>
       </c>
       <c r="F20">
-        <v>1348.46221843245</v>
+        <v>10.17968740884787</v>
       </c>
       <c r="G20">
-        <v>1.44899447743328E+16</v>
+        <v>6997406130341935</v>
       </c>
       <c r="H20">
-        <v>1788.901828509771</v>
+        <v>25.4480354416611</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>7319309534166748</v>
+        <v>2640921537471027</v>
       </c>
       <c r="B21">
-        <v>1289.542547614482</v>
+        <v>9.958025268428447</v>
       </c>
       <c r="C21">
-        <v>6341371253233346</v>
+        <v>2359259110013746</v>
       </c>
       <c r="D21">
-        <v>1388.002313025213</v>
+        <v>8.902268434252033</v>
       </c>
       <c r="E21">
-        <v>6648821072881264</v>
+        <v>2700653262776152</v>
       </c>
       <c r="F21">
-        <v>1388.741588284433</v>
+        <v>10.18329962650001</v>
       </c>
       <c r="G21">
-        <v>1.401542711084518E+16</v>
+        <v>6813177204909918</v>
       </c>
       <c r="H21">
-        <v>1851.051463083467</v>
+        <v>25.48677013019432</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>6989203509370700</v>
+        <v>2572388211144929</v>
       </c>
       <c r="B22">
-        <v>1318.623033313732</v>
+        <v>9.97746323708455</v>
       </c>
       <c r="C22">
-        <v>6074824817228481</v>
+        <v>2299374877105225</v>
       </c>
       <c r="D22">
-        <v>1415.468801462711</v>
+        <v>8.924937849262395</v>
       </c>
       <c r="E22">
-        <v>6369493742565366</v>
+        <v>2632131567115627</v>
       </c>
       <c r="F22">
-        <v>1416.190798333292</v>
+        <v>10.20916109405012</v>
       </c>
       <c r="G22">
-        <v>1.357226647110248E+16</v>
+        <v>6646358040177569</v>
       </c>
       <c r="H22">
-        <v>1896.461284227375</v>
+        <v>25.56906988400227</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>6676903445440264</v>
+        <v>2497203134478057</v>
       </c>
       <c r="B23">
-        <v>1344.781708067814</v>
+        <v>9.963200092552258</v>
       </c>
       <c r="C23">
-        <v>5821212301593261</v>
+        <v>2233599644157108</v>
       </c>
       <c r="D23">
-        <v>1439.987685887732</v>
+        <v>8.918160771966976</v>
       </c>
       <c r="E23">
-        <v>6103709042420776</v>
+        <v>2556867498922783</v>
       </c>
       <c r="F23">
-        <v>1440.692650092873</v>
+        <v>10.20114390605385</v>
       </c>
       <c r="G23">
-        <v>1.314804389032888E+16</v>
+        <v>6462785365992714</v>
       </c>
       <c r="H23">
-        <v>1938.799578837075</v>
+        <v>25.5630993479516</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>6387439897676368</v>
+        <v>2425566218042716</v>
       </c>
       <c r="B24">
-        <v>1380.259860551658</v>
+        <v>9.954574268650102</v>
       </c>
       <c r="C24">
-        <v>5584868591999961</v>
+        <v>2170851605257739</v>
       </c>
       <c r="D24">
-        <v>1474.422578385925</v>
+        <v>8.915499071565737</v>
       </c>
       <c r="E24">
-        <v>5856011886533332</v>
+        <v>2485065694666888</v>
       </c>
       <c r="F24">
-        <v>1475.115227563225</v>
+        <v>10.19859589546149</v>
       </c>
       <c r="G24">
-        <v>1.275034401098739E+16</v>
+        <v>6287324797947761</v>
       </c>
       <c r="H24">
-        <v>1994.754992526309</v>
+        <v>25.59150867077385</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>6116025209592006</v>
+        <v>2361712510711194</v>
       </c>
       <c r="B25">
-        <v>1410.01243710563</v>
+        <v>9.963798266673839</v>
       </c>
       <c r="C25">
-        <v>5362126769892170</v>
+        <v>2114857548386643</v>
       </c>
       <c r="D25">
-        <v>1502.80880650495</v>
+        <v>8.928438883255723</v>
       </c>
       <c r="E25">
-        <v>5622561110797638</v>
+        <v>2420991037956123</v>
       </c>
       <c r="F25">
-        <v>1503.487089245072</v>
+        <v>10.21365927847525</v>
       </c>
       <c r="G25">
-        <v>1.237334138304274E+16</v>
+        <v>6130471244674208</v>
       </c>
       <c r="H25">
-        <v>2043.157505161538</v>
+        <v>25.65527550566091</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>5861726623172096</v>
+        <v>2296789382481266</v>
       </c>
       <c r="B26">
-        <v>1442.555866698907</v>
+        <v>9.963238144161787</v>
       </c>
       <c r="C26">
-        <v>5152418528027842</v>
+        <v>2057864168276085</v>
       </c>
       <c r="D26">
-        <v>1534.200510814418</v>
+        <v>8.932914561462214</v>
       </c>
       <c r="E26">
-        <v>5402762629187968</v>
+        <v>2355771535709730</v>
       </c>
       <c r="F26">
-        <v>1534.866286461664</v>
+        <v>10.21880410144565</v>
       </c>
       <c r="G26">
-        <v>1.201635802516091E+16</v>
+        <v>5970546754978859</v>
       </c>
       <c r="H26">
-        <v>2096.150645570509</v>
+        <v>25.68787765166674</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>5623537339188617</v>
+        <v>2235253131683045</v>
       </c>
       <c r="B27">
-        <v>1469.371929114543</v>
+        <v>9.973762637033539</v>
       </c>
       <c r="C27">
-        <v>4955091886775439</v>
+        <v>2003786534852140</v>
       </c>
       <c r="D27">
-        <v>1559.50551922699</v>
+        <v>8.947089712800043</v>
       </c>
       <c r="E27">
-        <v>5195934481212118</v>
+        <v>2293887403106362</v>
       </c>
       <c r="F27">
-        <v>1560.156442302457</v>
+        <v>10.2350301858795</v>
       </c>
       <c r="G27">
-        <v>1.16785522963294E+16</v>
+        <v>5818549335167457</v>
       </c>
       <c r="H27">
-        <v>2141.213465057175</v>
+        <v>25.74700110133105</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>5397873522398365</v>
+        <v>2172517452480322</v>
       </c>
       <c r="B28">
-        <v>1491.537396472854</v>
+        <v>9.964809740916987</v>
       </c>
       <c r="C28">
-        <v>4767323939215572</v>
+        <v>1948597109728126</v>
       </c>
       <c r="D28">
-        <v>1579.960653466398</v>
+        <v>8.944086723966896</v>
       </c>
       <c r="E28">
-        <v>4999118967534693</v>
+        <v>2230729758066699</v>
       </c>
       <c r="F28">
-        <v>1580.595570330414</v>
+        <v>10.2313747974403</v>
       </c>
       <c r="G28">
-        <v>1.135531205220495E+16</v>
+        <v>5663170126152772</v>
       </c>
       <c r="H28">
-        <v>2180.186114671617</v>
+        <v>25.74991565470513</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>5184914564820528</v>
+        <v>2109263096693072</v>
       </c>
       <c r="B29">
-        <v>1519.70953868639</v>
+        <v>9.945465825132425</v>
       </c>
       <c r="C29">
-        <v>4589386791420536</v>
+        <v>1892892189806870</v>
       </c>
       <c r="D29">
-        <v>1606.814774676863</v>
+        <v>8.931515031004363</v>
       </c>
       <c r="E29">
-        <v>4812602254905457</v>
+        <v>2166980935748746</v>
       </c>
       <c r="F29">
-        <v>1607.436750617015</v>
+        <v>10.21711118156289</v>
       </c>
       <c r="G29">
-        <v>1.104729251008197E+16</v>
+        <v>5506075203472981</v>
       </c>
       <c r="H29">
-        <v>2228.402777682192</v>
+        <v>25.73609029303115</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>4984365789993502</v>
+        <v>2050359265560615</v>
       </c>
       <c r="B30">
-        <v>1554.538752113011</v>
+        <v>9.942995192961282</v>
       </c>
       <c r="C30">
-        <v>4421152315773766</v>
+        <v>1840964934404062</v>
       </c>
       <c r="D30">
-        <v>1640.740046315945</v>
+        <v>8.933710035551657</v>
       </c>
       <c r="E30">
-        <v>4636250946089590</v>
+        <v>2107554144069758</v>
       </c>
       <c r="F30">
-        <v>1641.352259346425</v>
+        <v>10.2197958527366</v>
       </c>
       <c r="G30">
-        <v>1.075446382780335E+16</v>
+        <v>5359393391567713</v>
       </c>
       <c r="H30">
-        <v>2286.90762756898</v>
+        <v>25.76532725745357</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>4796307247745877</v>
+        <v>1991851313620502</v>
       </c>
       <c r="B31">
-        <v>1587.736990736685</v>
+        <v>9.93188770412786</v>
       </c>
       <c r="C31">
-        <v>4262800223441688</v>
+        <v>1789335323054628</v>
       </c>
       <c r="D31">
-        <v>1672.933823047689</v>
+        <v>8.92813975501269</v>
       </c>
       <c r="E31">
-        <v>4470254284525346</v>
+        <v>2048466896233211</v>
       </c>
       <c r="F31">
-        <v>1673.535749018705</v>
+        <v>10.21357459366513</v>
       </c>
       <c r="G31">
-        <v>1.047733463324575E+16</v>
+        <v>5213321302940103</v>
       </c>
       <c r="H31">
-        <v>2343.33571502352</v>
+        <v>25.771451652843</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>4618239383782433</v>
+        <v>1937152800984587</v>
       </c>
       <c r="B32">
-        <v>1602.689260421658</v>
+        <v>9.931421323369804</v>
       </c>
       <c r="C32">
-        <v>4112322773347566</v>
+        <v>1741020886279006</v>
       </c>
       <c r="D32">
-        <v>1685.932141618406</v>
+        <v>8.93192472626516</v>
       </c>
       <c r="E32">
-        <v>4312508343278651</v>
+        <v>1993172701203069</v>
       </c>
       <c r="F32">
-        <v>1686.517277996981</v>
+        <v>10.21794929069829</v>
       </c>
       <c r="G32">
-        <v>1.021256411219361E+16</v>
+        <v>5076418990083556</v>
       </c>
       <c r="H32">
-        <v>2373.198233783241</v>
+        <v>25.80010778828987</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>4447062620520279</v>
+        <v>1881242175769306</v>
       </c>
       <c r="B33">
-        <v>1632.177773288152</v>
+        <v>9.914744917971907</v>
       </c>
       <c r="C33">
-        <v>3967169392386248</v>
+        <v>1691589318565522</v>
       </c>
       <c r="D33">
-        <v>1714.370787554185</v>
+        <v>8.921328465166132</v>
       </c>
       <c r="E33">
-        <v>4160339872129798</v>
+        <v>1936599005862190</v>
       </c>
       <c r="F33">
-        <v>1714.945721600678</v>
+        <v>10.20574591509739</v>
       </c>
       <c r="G33">
-        <v>9955775686851000</v>
+        <v>4936140521018198</v>
       </c>
       <c r="H33">
-        <v>2425.60481533489</v>
+        <v>25.78364881240958</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>4288015557415019</v>
+        <v>1827239029977242</v>
       </c>
       <c r="B34">
-        <v>1660.78108777771</v>
+        <v>9.902425328466984</v>
       </c>
       <c r="C34">
-        <v>3831857815680398</v>
+        <v>1643799443449478</v>
       </c>
       <c r="D34">
-        <v>1741.747324348378</v>
+        <v>8.914096699243778</v>
       </c>
       <c r="E34">
-        <v>4018485514362820</v>
+        <v>1881903258169483</v>
       </c>
       <c r="F34">
-        <v>1742.3109418972</v>
+        <v>10.19790376886379</v>
       </c>
       <c r="G34">
-        <v>9715104672132372</v>
+        <v>4800317415830982</v>
       </c>
       <c r="H34">
-        <v>2476.175098840137</v>
+        <v>25.79274045772982</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>4134133066238010</v>
+        <v>1779204931562668</v>
       </c>
       <c r="B35">
-        <v>1678.846962177548</v>
+        <v>9.910798744408536</v>
       </c>
       <c r="C35">
-        <v>3700528438920616</v>
+        <v>1601254809706269</v>
       </c>
       <c r="D35">
-        <v>1758.257086522875</v>
+        <v>8.925400939102333</v>
       </c>
       <c r="E35">
-        <v>3880802831622874</v>
+        <v>1833209933159360</v>
       </c>
       <c r="F35">
-        <v>1758.80731611128</v>
+        <v>10.21079215226082</v>
       </c>
       <c r="G35">
-        <v>9480255725918518</v>
+        <v>4679232731128828</v>
       </c>
       <c r="H35">
-        <v>2512.291332573297</v>
+        <v>25.83848912230013</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>3989562548346133</v>
+        <v>1726447899350768</v>
       </c>
       <c r="B36">
-        <v>1718.386528807669</v>
+        <v>9.886989608697576</v>
       </c>
       <c r="C36">
-        <v>3576773362880530</v>
+        <v>1554486697391287</v>
       </c>
       <c r="D36">
-        <v>1797.205889286196</v>
+        <v>8.908157037776849</v>
       </c>
       <c r="E36">
-        <v>3751058094153628</v>
+        <v>1779681888523413</v>
       </c>
       <c r="F36">
-        <v>1797.74954949092</v>
+        <v>10.19094415449537</v>
       </c>
       <c r="G36">
-        <v>9257750471572990</v>
+        <v>4545943300697781</v>
       </c>
       <c r="H36">
-        <v>2580.447298716153</v>
+        <v>25.80067251644577</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>3852744116340306</v>
+        <v>1678578357804306</v>
       </c>
       <c r="B37">
-        <v>1728.663494070906</v>
+        <v>9.883394570724644</v>
       </c>
       <c r="C37">
-        <v>3459317938685000</v>
+        <v>1512014660058716</v>
       </c>
       <c r="D37">
-        <v>1805.541956718523</v>
+        <v>8.908379780528991</v>
       </c>
       <c r="E37">
-        <v>3627915414051189</v>
+        <v>1731070108562560</v>
       </c>
       <c r="F37">
-        <v>1806.069876754247</v>
+        <v>10.19153932137338</v>
       </c>
       <c r="G37">
-        <v>9045432136336630</v>
+        <v>4424729665602369</v>
       </c>
       <c r="H37">
-        <v>2604.717066190879</v>
+        <v>25.82676914267491</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>3719439075210944</v>
+        <v>1632006030227564</v>
       </c>
       <c r="B38">
-        <v>1732.01884669036</v>
+        <v>9.871754588424933</v>
       </c>
       <c r="C38">
-        <v>3344560905779494</v>
+        <v>1470660073526179</v>
       </c>
       <c r="D38">
-        <v>1806.803715238577</v>
+        <v>8.901625913135808</v>
       </c>
       <c r="E38">
-        <v>3507599436300804</v>
+        <v>1683736612094032</v>
       </c>
       <c r="F38">
-        <v>1807.31504504509</v>
+        <v>10.18366354808601</v>
       </c>
       <c r="G38">
-        <v>8836857780710704</v>
+        <v>4306550887938415</v>
       </c>
       <c r="H38">
-        <v>2619.450949517241</v>
+        <v>25.81651532946459</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>3592472112500986</v>
+        <v>1583972096917174</v>
       </c>
       <c r="B39">
-        <v>1763.520472621791</v>
+        <v>9.849093646026828</v>
       </c>
       <c r="C39">
-        <v>3234965521008600</v>
+        <v>1427972941185375</v>
       </c>
       <c r="D39">
-        <v>1837.437053582752</v>
+        <v>8.884949479009149</v>
       </c>
       <c r="E39">
-        <v>3392692975746830</v>
+        <v>1634877184431833</v>
       </c>
       <c r="F39">
-        <v>1837.940307030079</v>
+        <v>10.16455850855386</v>
       </c>
       <c r="G39">
-        <v>8636557458526944</v>
+        <v>4184403803036528</v>
       </c>
       <c r="H39">
-        <v>2676.819320075455</v>
+        <v>25.78190936211607</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>3472542241976108</v>
+        <v>1538806049909391</v>
       </c>
       <c r="B40">
-        <v>1781.301908263986</v>
+        <v>9.839108748493052</v>
       </c>
       <c r="C40">
-        <v>3131177911035948</v>
+        <v>1387802250667896</v>
       </c>
       <c r="D40">
-        <v>1853.742690965094</v>
+        <v>8.879381448526038</v>
       </c>
       <c r="E40">
-        <v>3283873786948806</v>
+        <v>1588897382860505</v>
       </c>
       <c r="F40">
-        <v>1854.233844928672</v>
+        <v>10.15828564017304</v>
       </c>
       <c r="G40">
-        <v>8445815039752020</v>
+        <v>4069308106608924</v>
       </c>
       <c r="H40">
-        <v>2713.171294342706</v>
+        <v>25.78265188756099</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>3356199913063623</v>
+        <v>1493705266102790</v>
       </c>
       <c r="B41">
-        <v>1796.91649227851</v>
+        <v>9.811420321021561</v>
       </c>
       <c r="C41">
-        <v>3030245219390050</v>
+        <v>1347658379363295</v>
       </c>
       <c r="D41">
-        <v>1867.923187010199</v>
+        <v>8.857907453626122</v>
       </c>
       <c r="E41">
-        <v>3178046099320353</v>
+        <v>1542947622344244</v>
       </c>
       <c r="F41">
-        <v>1868.402682715258</v>
+        <v>10.13370612845347</v>
       </c>
       <c r="G41">
-        <v>8259274688009526</v>
+        <v>3954144107288490</v>
       </c>
       <c r="H41">
-        <v>2747.127188895717</v>
+        <v>25.73364945855536</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>3246170325856890</v>
+        <v>1450046339042644</v>
       </c>
       <c r="B42">
-        <v>1838.785588317509</v>
+        <v>9.782614175690808</v>
       </c>
       <c r="C42">
-        <v>2934560767919951</v>
+        <v>1308768103271255</v>
       </c>
       <c r="D42">
-        <v>1909.37457916128</v>
+        <v>8.835148567055771</v>
       </c>
       <c r="E42">
-        <v>3077719519027361</v>
+        <v>1498432134862619</v>
       </c>
       <c r="F42">
-        <v>1909.849378854626</v>
+        <v>10.10785705152061</v>
       </c>
       <c r="G42">
-        <v>8081425616418059</v>
+        <v>3842437527458864</v>
       </c>
       <c r="H42">
-        <v>2821.139926984079</v>
+        <v>25.68697518213715</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>3142234866788788</v>
+        <v>1408666309301402</v>
       </c>
       <c r="B43">
-        <v>1868.133832536782</v>
+        <v>9.770785346169799</v>
       </c>
       <c r="C43">
-        <v>2843970211356723</v>
+        <v>1271880699529526</v>
       </c>
       <c r="D43">
-        <v>1937.808892135144</v>
+        <v>8.827420993348596</v>
       </c>
       <c r="E43">
-        <v>2982732474153837</v>
+        <v>1456208652152360</v>
       </c>
       <c r="F43">
-        <v>1938.275749625439</v>
+        <v>10.09936404320471</v>
       </c>
       <c r="G43">
-        <v>7912085675744911</v>
+        <v>3736357165350223</v>
       </c>
       <c r="H43">
-        <v>2875.944581636315</v>
+        <v>25.6885407823448</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>3042309735559861</v>
+        <v>1370438187439476</v>
       </c>
       <c r="B44">
-        <v>1858.710451485989</v>
+        <v>9.770208268391128</v>
       </c>
       <c r="C44">
-        <v>2756685028462154</v>
+        <v>1237779504445973</v>
       </c>
       <c r="D44">
-        <v>1926.058301324172</v>
+        <v>8.829719706638963</v>
       </c>
       <c r="E44">
-        <v>2891209846222909</v>
+        <v>1417173933947914</v>
       </c>
       <c r="F44">
-        <v>1926.507864550311</v>
+        <v>10.10219895541211</v>
       </c>
       <c r="G44">
-        <v>7747989155220787</v>
+        <v>3638179221941404</v>
       </c>
       <c r="H44">
-        <v>2871.059376491295</v>
+        <v>25.71368338038671</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>2943856502017090</v>
+        <v>1332781022833178</v>
       </c>
       <c r="B45">
-        <v>1863.322876044399</v>
+        <v>9.752006127831473</v>
       </c>
       <c r="C45">
-        <v>2670501825057144</v>
+        <v>1204165520962229</v>
       </c>
       <c r="D45">
-        <v>1929.008749621522</v>
+        <v>8.816356826985793</v>
       </c>
       <c r="E45">
-        <v>2800841374817988</v>
+        <v>1378696450022954</v>
       </c>
       <c r="F45">
-        <v>1929.445610550586</v>
+        <v>10.08668525608294</v>
       </c>
       <c r="G45">
-        <v>7585009094430744</v>
+        <v>3541300090647970</v>
       </c>
       <c r="H45">
-        <v>2888.793894522463</v>
+        <v>25.67895371328865</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>2850826331029400</v>
+        <v>1293636547147717</v>
       </c>
       <c r="B46">
-        <v>1902.728131146039</v>
+        <v>9.722144205840555</v>
       </c>
       <c r="C46">
-        <v>2588896872363624</v>
+        <v>1169200611897722</v>
       </c>
       <c r="D46">
-        <v>1967.927411170249</v>
+        <v>8.792340467337679</v>
       </c>
       <c r="E46">
-        <v>2715272274947670</v>
+        <v>1338672090850262</v>
       </c>
       <c r="F46">
-        <v>1968.359462921858</v>
+        <v>10.05928554445027</v>
       </c>
       <c r="G46">
-        <v>7429758386321653</v>
+        <v>3440417671063170</v>
       </c>
       <c r="H46">
-        <v>2959.883517817029</v>
+        <v>25.62359563615208</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>2762264531170130</v>
+        <v>1258204282122655</v>
       </c>
       <c r="B47">
-        <v>1937.384559761707</v>
+        <v>9.721496305690547</v>
       </c>
       <c r="C47">
-        <v>2511057782990632</v>
+        <v>1137531027498782</v>
       </c>
       <c r="D47">
-        <v>2001.958974175203</v>
+        <v>8.794498673727206</v>
       </c>
       <c r="E47">
-        <v>2633650876373586</v>
+        <v>1302419462444659</v>
       </c>
       <c r="F47">
-        <v>2002.385384371183</v>
+        <v>10.06175809022535</v>
       </c>
       <c r="G47">
-        <v>7280778637048991</v>
+        <v>3348946173121452</v>
       </c>
       <c r="H47">
-        <v>3023.868659310465</v>
+        <v>25.6408863747344</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>2678023022831776</v>
+        <v>1220634540964966</v>
       </c>
       <c r="B48">
-        <v>1930.250671443689</v>
+        <v>9.686988958904907</v>
       </c>
       <c r="C48">
-        <v>2436875673515704</v>
+        <v>1103929610907677</v>
       </c>
       <c r="D48">
-        <v>1992.775069526497</v>
+        <v>8.76624348290134</v>
       </c>
       <c r="E48">
-        <v>2555863157847708</v>
+        <v>1263954991029260</v>
       </c>
       <c r="F48">
-        <v>1993.186506346336</v>
+        <v>10.02935885191138</v>
       </c>
       <c r="G48">
-        <v>7137936726642968</v>
+        <v>3251793927582458</v>
       </c>
       <c r="H48">
-        <v>3021.964734819803</v>
+        <v>25.56770271781454</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>2594112075549196</v>
+        <v>1185923934299388</v>
       </c>
       <c r="B49">
-        <v>1920.709359658888</v>
+        <v>9.657974607550159</v>
       </c>
       <c r="C49">
-        <v>2362847713451634</v>
+        <v>1072865771648028</v>
       </c>
       <c r="D49">
-        <v>1981.288370791793</v>
+        <v>8.742450087601673</v>
       </c>
       <c r="E49">
-        <v>2478236110246670</v>
+        <v>1228394945216653</v>
       </c>
       <c r="F49">
-        <v>1981.685661742892</v>
+        <v>10.0024444151123</v>
       </c>
       <c r="G49">
-        <v>6994501990170544</v>
+        <v>3161885815498796</v>
       </c>
       <c r="H49">
-        <v>3017.528535283006</v>
+        <v>25.51915098050063</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>2514330175720123</v>
+        <v>1152576779090174</v>
       </c>
       <c r="B50">
-        <v>1989.628908810723</v>
+        <v>9.640148791518095</v>
       </c>
       <c r="C50">
-        <v>2292334804507377</v>
+        <v>1043004411165386</v>
       </c>
       <c r="D50">
-        <v>2050.730896938346</v>
+        <v>8.728987949365711</v>
       </c>
       <c r="E50">
-        <v>2404294106125484</v>
+        <v>1194211055165114</v>
       </c>
       <c r="F50">
-        <v>2051.130296860401</v>
+        <v>9.986899451402374</v>
       </c>
       <c r="G50">
-        <v>6857000314179461</v>
+        <v>3075373748099834</v>
       </c>
       <c r="H50">
-        <v>3136.207791786969</v>
+        <v>25.48539255771763</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>2440949435044826</v>
+        <v>1117940034937580</v>
       </c>
       <c r="B51">
-        <v>2003.54150953188</v>
+        <v>9.613258059818815</v>
       </c>
       <c r="C51">
-        <v>2227368709979709</v>
+        <v>1011969839294469</v>
       </c>
       <c r="D51">
-        <v>2063.316731118106</v>
+        <v>8.707184170590899</v>
       </c>
       <c r="E51">
-        <v>2336167882738916</v>
+        <v>1158683742301277</v>
       </c>
       <c r="F51">
-        <v>2063.706173746201</v>
+        <v>9.962134258246779</v>
       </c>
       <c r="G51">
-        <v>6729510480279225</v>
+        <v>2985374933615280</v>
       </c>
       <c r="H51">
-        <v>3166.330966543343</v>
+        <v>25.43843223249893</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>2366670109722012</v>
+        <v>1087595441243216</v>
       </c>
       <c r="B52">
-        <v>1977.141790930315</v>
+        <v>9.605319325179348</v>
       </c>
       <c r="C52">
-        <v>2161498329632649</v>
+        <v>984765586176456.1</v>
       </c>
       <c r="D52">
-        <v>2034.636493209017</v>
+        <v>8.70186426645634</v>
       </c>
       <c r="E52">
-        <v>2267092623186674</v>
+        <v>1127540923912586</v>
       </c>
       <c r="F52">
-        <v>2035.009904261749</v>
+        <v>9.956720768639936</v>
       </c>
       <c r="G52">
-        <v>6599409847854887</v>
+        <v>2906410053787684</v>
       </c>
       <c r="H52">
-        <v>3134.917818363266</v>
+        <v>25.45467548286682</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>2295871111065168</v>
+        <v>1060049461028147</v>
       </c>
       <c r="B53">
-        <v>2007.994654745967</v>
+        <v>9.600343877719427</v>
       </c>
       <c r="C53">
-        <v>2098611755886994</v>
+        <v>960057801949610.4</v>
       </c>
       <c r="D53">
-        <v>2064.826132307944</v>
+        <v>8.699791707647437</v>
       </c>
       <c r="E53">
-        <v>2201145627881682</v>
+        <v>1099255745575840</v>
       </c>
       <c r="F53">
-        <v>2065.194075736185</v>
+        <v>9.953898363637022</v>
       </c>
       <c r="G53">
-        <v>6474368712646665</v>
+        <v>2834631683325044</v>
       </c>
       <c r="H53">
-        <v>3193.125399815716</v>
+        <v>25.44207011978557</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>2228094253454954</v>
+        <v>1027055614720511</v>
       </c>
       <c r="B54">
-        <v>2037.575643613232</v>
+        <v>9.553186098994745</v>
       </c>
       <c r="C54">
-        <v>2038315200150844</v>
+        <v>930447767017369</v>
       </c>
       <c r="D54">
-        <v>2093.731024746057</v>
+        <v>8.65992183416024</v>
       </c>
       <c r="E54">
-        <v>2137914037390005</v>
+        <v>1065358200835209</v>
       </c>
       <c r="F54">
-        <v>2094.093481035844</v>
+        <v>9.907807831024215</v>
       </c>
       <c r="G54">
-        <v>6353665196543021</v>
+        <v>2748536516937918</v>
       </c>
       <c r="H54">
-        <v>3249.346720932042</v>
+        <v>25.31989699071183</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>2163338596571684</v>
+        <v>996858329149449</v>
       </c>
       <c r="B55">
-        <v>2061.116881609062</v>
+        <v>9.531660802027323</v>
       </c>
       <c r="C55">
-        <v>1980619616811610</v>
+        <v>903332454036739.9</v>
       </c>
       <c r="D55">
-        <v>2116.433690734419</v>
+        <v>8.642340818741973</v>
       </c>
       <c r="E55">
-        <v>2077409422369263</v>
+        <v>1034316298178736</v>
       </c>
       <c r="F55">
-        <v>2116.7896690639</v>
+        <v>9.888254546255421</v>
       </c>
       <c r="G55">
-        <v>6237378237958224</v>
+        <v>2669622888587916</v>
       </c>
       <c r="H55">
-        <v>3295.650392913597</v>
+        <v>25.29655913329819</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>2100883302807750</v>
+        <v>969693317278809.6</v>
       </c>
       <c r="B56">
-        <v>2070.688219339495</v>
+        <v>9.504263173467736</v>
       </c>
       <c r="C56">
-        <v>1924892748689930</v>
+        <v>878927646949865</v>
       </c>
       <c r="D56">
-        <v>2124.821740027043</v>
+        <v>8.619428800223719</v>
       </c>
       <c r="E56">
-        <v>2018968813086024</v>
+        <v>1006377155481619</v>
       </c>
       <c r="F56">
-        <v>2125.169086724202</v>
+        <v>9.862259421141946</v>
       </c>
       <c r="G56">
-        <v>6124280962078696</v>
+        <v>2598538469562516</v>
       </c>
       <c r="H56">
-        <v>3319.517904942165</v>
+        <v>25.24523532726576</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>2040371240152610</v>
+        <v>942303800641988</v>
       </c>
       <c r="B57">
-        <v>2073.998540766501</v>
+        <v>9.466199698776226</v>
       </c>
       <c r="C57">
-        <v>1870823582280143</v>
+        <v>854309344165617</v>
       </c>
       <c r="D57">
-        <v>2126.818885515852</v>
+        <v>8.587305597413566</v>
       </c>
       <c r="E57">
-        <v>1962266104280060</v>
+        <v>978193352226044.1</v>
       </c>
       <c r="F57">
-        <v>2127.156833219867</v>
+        <v>9.825053331462916</v>
       </c>
       <c r="G57">
-        <v>6013772619956030</v>
+        <v>2526775269351172</v>
       </c>
       <c r="H57">
-        <v>3333.153686733019</v>
+        <v>25.14444509336741</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>1981648409703582</v>
+        <v>912745580164960.2</v>
       </c>
       <c r="B58">
-        <v>2070.8444939123</v>
+        <v>9.426108532790597</v>
       </c>
       <c r="C58">
-        <v>1818281029320438</v>
+        <v>827728447059938.5</v>
       </c>
       <c r="D58">
-        <v>2122.217451291893</v>
+        <v>8.55330984141195</v>
       </c>
       <c r="E58">
-        <v>1907163868511841</v>
+        <v>947762432007432.6</v>
       </c>
       <c r="F58">
-        <v>2122.545206257613</v>
+        <v>9.785975212757391</v>
       </c>
       <c r="G58">
-        <v>5905608404482629</v>
+        <v>2449226694852397</v>
       </c>
       <c r="H58">
-        <v>3336.056549751147</v>
+        <v>25.04787080628153</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>1924391605775368</v>
+        <v>885243767367030.6</v>
       </c>
       <c r="B59">
-        <v>2040.281101669748</v>
+        <v>9.395125426467489</v>
       </c>
       <c r="C59">
-        <v>1766981414447868</v>
+        <v>802984389232556.4</v>
       </c>
       <c r="D59">
-        <v>2089.553121168984</v>
+        <v>8.526687153937567</v>
       </c>
       <c r="E59">
-        <v>1853364649469028</v>
+        <v>919434142991199.9</v>
       </c>
       <c r="F59">
-        <v>2089.866581423816</v>
+        <v>9.756404063689276</v>
       </c>
       <c r="G59">
-        <v>5799219980350240</v>
+        <v>2376976830532185</v>
       </c>
       <c r="H59">
-        <v>3294.133815169593</v>
+        <v>25.00824856177966</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>1867332660550636</v>
+        <v>863360581672022.9</v>
       </c>
       <c r="B60">
-        <v>2061.700757943967</v>
+        <v>9.387752420490413</v>
       </c>
       <c r="C60">
-        <v>1715791102042938</v>
+        <v>783286975276414.2</v>
       </c>
       <c r="D60">
-        <v>2110.264804302363</v>
+        <v>8.521546610787745</v>
       </c>
       <c r="E60">
-        <v>1799679592954590</v>
+        <v>896883336733399.8</v>
       </c>
       <c r="F60">
-        <v>2110.572915105912</v>
+        <v>9.750683024646907</v>
       </c>
       <c r="G60">
-        <v>5692239579457449</v>
+        <v>2319421021978186</v>
       </c>
       <c r="H60">
-        <v>3337.432437853964</v>
+        <v>25.0052963307834</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>1814617809754438</v>
+        <v>837960726244667.8</v>
       </c>
       <c r="B61">
-        <v>2144.925750170851</v>
+        <v>9.341312792866582</v>
       </c>
       <c r="C61">
-        <v>1668437439708948</v>
+        <v>760414609401677.6</v>
       </c>
       <c r="D61">
-        <v>2194.13163659253</v>
+        <v>8.481765192559905</v>
       </c>
       <c r="E61">
-        <v>1750017750101114</v>
+        <v>870697452365914.9</v>
       </c>
       <c r="F61">
-        <v>2194.442975849998</v>
+        <v>9.704486560361754</v>
       </c>
       <c r="G61">
-        <v>5592504353928791</v>
+        <v>2252541668446782</v>
       </c>
       <c r="H61">
-        <v>3478.918826268365</v>
+        <v>24.87351826262147</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <v>1764796860173993</v>
+        <v>812309951572493.9</v>
       </c>
       <c r="B62">
-        <v>2114.637361371379</v>
+        <v>9.312559260646925</v>
       </c>
       <c r="C62">
-        <v>1623629531460618</v>
+        <v>737305877684274.5</v>
       </c>
       <c r="D62">
-        <v>2161.836940090862</v>
+        <v>8.457431659185961</v>
       </c>
       <c r="E62">
-        <v>1703025383368625</v>
+        <v>844240743057739</v>
       </c>
       <c r="F62">
-        <v>2162.134787251964</v>
+        <v>9.676888726768004</v>
       </c>
       <c r="G62">
-        <v>5497405620533717</v>
+        <v>2184920500565925</v>
       </c>
       <c r="H62">
-        <v>3434.917406408225</v>
+        <v>24.81824896504449</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>1713468845227312</v>
+        <v>789716238641972.9</v>
       </c>
       <c r="B63">
-        <v>2040.023625100414</v>
+        <v>9.293263621586785</v>
       </c>
       <c r="C63">
-        <v>1577411194591332</v>
+        <v>716942566046931.1</v>
       </c>
       <c r="D63">
-        <v>2084.418134651626</v>
+        <v>8.441347459050482</v>
       </c>
       <c r="E63">
-        <v>1654553453572859</v>
+        <v>820927027830975.1</v>
       </c>
       <c r="F63">
-        <v>2084.697548443553</v>
+        <v>9.658881551006743</v>
       </c>
       <c r="G63">
-        <v>5398530094179297</v>
+        <v>2125290723400228</v>
       </c>
       <c r="H63">
-        <v>3320.625204745782</v>
+        <v>24.79136719819421</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>1662997831238077</v>
+        <v>767705509583212.6</v>
       </c>
       <c r="B64">
-        <v>2076.743187866004</v>
+        <v>9.248682542726931</v>
       </c>
       <c r="C64">
-        <v>1531909816684473</v>
+        <v>697096859066924.6</v>
       </c>
       <c r="D64">
-        <v>2120.808996798609</v>
+        <v>8.402501031900195</v>
       </c>
       <c r="E64">
-        <v>1606833070616711</v>
+        <v>798205749239403.5</v>
       </c>
       <c r="F64">
-        <v>2121.085622763256</v>
+        <v>9.61443848302263</v>
       </c>
       <c r="G64">
-        <v>5300363856687735</v>
+        <v>2067138435551540</v>
       </c>
       <c r="H64">
-        <v>3387.389656842132</v>
+        <v>24.68422210886801</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>1616415276772771</v>
+        <v>745987042476318.5</v>
       </c>
       <c r="B65">
-        <v>2140.11948629286</v>
+        <v>9.222497690276169</v>
       </c>
       <c r="C65">
-        <v>1489865607005450</v>
+        <v>677507084882833.1</v>
       </c>
       <c r="D65">
-        <v>2184.321119641211</v>
+        <v>8.380613902984578</v>
       </c>
       <c r="E65">
-        <v>1562738127464035</v>
+        <v>775777329538265.1</v>
       </c>
       <c r="F65">
-        <v>2184.597886388831</v>
+        <v>9.588972127073095</v>
       </c>
       <c r="G65">
-        <v>5208884330181355</v>
+        <v>2009699027091796</v>
       </c>
       <c r="H65">
-        <v>3495.399124847588</v>
+        <v>24.61220810358935</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66">
-        <v>1571456432358420</v>
+        <v>722242870011613</v>
       </c>
       <c r="B66">
-        <v>2162.815730259533</v>
+        <v>9.181647281313728</v>
       </c>
       <c r="C66">
-        <v>1449242616360594</v>
+        <v>656081523274895.5</v>
       </c>
       <c r="D66">
-        <v>2206.365586523912</v>
+        <v>8.345372572490493</v>
       </c>
       <c r="E66">
-        <v>1520133425694080</v>
+        <v>751246929300240.5</v>
       </c>
       <c r="F66">
-        <v>2206.637605077832</v>
+        <v>9.548484401243357</v>
       </c>
       <c r="G66">
-        <v>5119750210500618</v>
+        <v>1946834648079788</v>
       </c>
       <c r="H66">
-        <v>3537.524396384443</v>
+        <v>24.51033688442782</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>1528353905229581</v>
+        <v>700555989616369.8</v>
       </c>
       <c r="B67">
-        <v>2155.18718424677</v>
+        <v>9.135510862923473</v>
       </c>
       <c r="C67">
-        <v>1410255860472178</v>
+        <v>636504475914529.5</v>
       </c>
       <c r="D67">
-        <v>2197.460367437709</v>
+        <v>8.304212509616672</v>
       </c>
       <c r="E67">
-        <v>1479244503150665</v>
+        <v>728832752901901.2</v>
       </c>
       <c r="F67">
-        <v>2197.723770238955</v>
+        <v>9.502680916739964</v>
       </c>
       <c r="G67">
-        <v>5033475299462902</v>
+        <v>1889355310261536</v>
       </c>
       <c r="H67">
-        <v>3528.815850043765</v>
+        <v>24.43996172079284</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68">
-        <v>1485507288512447</v>
+        <v>685536733471340.5</v>
       </c>
       <c r="B68">
-        <v>2111.245085749997</v>
+        <v>9.146186301549546</v>
       </c>
       <c r="C68">
-        <v>1371460549015039</v>
+        <v>622941969206473.2</v>
       </c>
       <c r="D68">
-        <v>2151.603479305697</v>
+        <v>8.314988701088616</v>
       </c>
       <c r="E68">
-        <v>1438556097273791</v>
+        <v>713304659820427.6</v>
       </c>
       <c r="F68">
-        <v>2151.854347558567</v>
+        <v>9.515077853203357</v>
       </c>
       <c r="G68">
-        <v>4946871479442057</v>
+        <v>1849513330365702</v>
       </c>
       <c r="H68">
-        <v>3460.823583230442</v>
+        <v>24.47844662786266</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <v>1443075561856316</v>
+        <v>664943595211258.2</v>
       </c>
       <c r="B69">
-        <v>2131.910958426584</v>
+        <v>9.102823165475172</v>
       </c>
       <c r="C69">
-        <v>1333001375554604</v>
+        <v>604340322470706.8</v>
       </c>
       <c r="D69">
-        <v>2171.666456328212</v>
+        <v>8.27791823923449</v>
       </c>
       <c r="E69">
-        <v>1398219967643698</v>
+        <v>692006992324355.4</v>
       </c>
       <c r="F69">
-        <v>2171.912996943039</v>
+        <v>9.471381074769758</v>
       </c>
       <c r="G69">
-        <v>4860233061339708</v>
+        <v>1794839184309207</v>
       </c>
       <c r="H69">
-        <v>3499.246994712331</v>
+        <v>24.33207122210041</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>1403467859330063</v>
+        <v>643329803802297.6</v>
       </c>
       <c r="B70">
-        <v>2215.230236815012</v>
+        <v>9.057847948720958</v>
       </c>
       <c r="C70">
-        <v>1297066174940496</v>
+        <v>584809404156489.8</v>
       </c>
       <c r="D70">
-        <v>2255.49542976447</v>
+        <v>8.238044332116662</v>
       </c>
       <c r="E70">
-        <v>1360530752650440</v>
+        <v>669645217692709.4</v>
       </c>
       <c r="F70">
-        <v>2255.74455734821</v>
+        <v>9.426648407514433</v>
       </c>
       <c r="G70">
-        <v>4778532334499018</v>
+        <v>1737397674185853</v>
       </c>
       <c r="H70">
-        <v>3638.841193617857</v>
+        <v>24.25179911099104</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <v>1366288823519190</v>
+        <v>628731017276212.2</v>
       </c>
       <c r="B71">
-        <v>2228.855981503558</v>
+        <v>9.064461773643595</v>
       </c>
       <c r="C71">
-        <v>1263302976556206</v>
+        <v>571613222676436.2</v>
       </c>
       <c r="D71">
-        <v>2268.323740354751</v>
+        <v>8.244714337771375</v>
       </c>
       <c r="E71">
-        <v>1325119346970991</v>
+        <v>654536263091564.2</v>
       </c>
       <c r="F71">
-        <v>2268.567386078642</v>
+        <v>9.434938390671507</v>
       </c>
       <c r="G71">
-        <v>4701073018863255</v>
+        <v>1698566043045349</v>
       </c>
       <c r="H71">
-        <v>3662.441246855932</v>
+        <v>24.29833244679518</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
-        <v>1329172253519400</v>
+        <v>611456836470842.8</v>
       </c>
       <c r="B72">
-        <v>2176.597827574091</v>
+        <v>9.013426825970503</v>
       </c>
       <c r="C72">
-        <v>1229565968495244</v>
+        <v>555994262398433.4</v>
       </c>
       <c r="D72">
-        <v>2214.185513088863</v>
+        <v>8.200258597288903</v>
       </c>
       <c r="E72">
-        <v>1289735207480190</v>
+        <v>636653258483753.5</v>
       </c>
       <c r="F72">
-        <v>2214.417043317459</v>
+        <v>9.382980019340749</v>
       </c>
       <c r="G72">
-        <v>4622961224552789</v>
+        <v>1652583195830382</v>
       </c>
       <c r="H72">
-        <v>3578.451992444421</v>
+        <v>24.13539669228581</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <v>1292276217659843</v>
+        <v>591590726832709</v>
       </c>
       <c r="B73">
-        <v>2175.184372405705</v>
+        <v>8.964146100642555</v>
       </c>
       <c r="C73">
-        <v>1195999042671401</v>
+        <v>538025793904157.8</v>
       </c>
       <c r="D73">
-        <v>2211.833959436892</v>
+        <v>8.157023747847798</v>
       </c>
       <c r="E73">
-        <v>1254529253014516</v>
+        <v>616080049793362.8</v>
       </c>
       <c r="F73">
-        <v>2212.059221695979</v>
+        <v>9.333281666308569</v>
       </c>
       <c r="G73">
-        <v>4544496124273408</v>
+        <v>1599653963711116</v>
       </c>
       <c r="H73">
-        <v>3578.252504094066</v>
+        <v>24.00633619079622</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <v>1257167379097123</v>
+        <v>573982911989223</v>
       </c>
       <c r="B74">
-        <v>2201.081085286621</v>
+        <v>8.937487083646612</v>
       </c>
       <c r="C74">
-        <v>1164029817667414</v>
+        <v>522094587864632.6</v>
       </c>
       <c r="D74">
-        <v>2237.221094538437</v>
+        <v>8.133415648494635</v>
       </c>
       <c r="E74">
-        <v>1220998826476438</v>
+        <v>597839318374471.4</v>
       </c>
       <c r="F74">
-        <v>2237.442744963833</v>
+        <v>9.307270337248616</v>
       </c>
       <c r="G74">
-        <v>4469033314313994</v>
+        <v>1552699546269462</v>
       </c>
       <c r="H74">
-        <v>3621.170890999235</v>
+        <v>23.97645674513082</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
-        <v>1223051740940154</v>
+        <v>560138410482822</v>
       </c>
       <c r="B75">
-        <v>2206.268144483457</v>
+        <v>8.918274198696329</v>
       </c>
       <c r="C75">
-        <v>1132938483191742</v>
+        <v>509564842295396.7</v>
       </c>
       <c r="D75">
-        <v>2241.591313285518</v>
+        <v>8.116670275310749</v>
       </c>
       <c r="E75">
-        <v>1188388987257085</v>
+        <v>583493079735138.9</v>
       </c>
       <c r="F75">
-        <v>2241.807498971391</v>
+        <v>9.288534000513376</v>
       </c>
       <c r="G75">
-        <v>4394918307042752</v>
+        <v>1515752945543452</v>
       </c>
       <c r="H75">
-        <v>3629.90044957522</v>
+        <v>23.94587301599907</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <v>1189979774828535</v>
+        <v>545269751704866.5</v>
       </c>
       <c r="B76">
-        <v>2217.166112063546</v>
+        <v>8.885815735659888</v>
       </c>
       <c r="C76">
-        <v>1102773270432860</v>
+        <v>496104753609434.4</v>
       </c>
       <c r="D76">
-        <v>2251.781911394765</v>
+        <v>8.088880358460441</v>
       </c>
       <c r="E76">
-        <v>1156750337111653</v>
+        <v>568081550560155.5</v>
       </c>
       <c r="F76">
-        <v>2251.993331111049</v>
+        <v>9.255667512689037</v>
       </c>
       <c r="G76">
-        <v>4322289868808232</v>
+        <v>1476045952492548</v>
       </c>
       <c r="H76">
-        <v>3647.45402031727</v>
+        <v>23.83175238165333</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>1158002240172263</v>
+        <v>526740383252246.1</v>
       </c>
       <c r="B77">
-        <v>2196.350162220296</v>
+        <v>8.828539193539768</v>
       </c>
       <c r="C77">
-        <v>1073582770411513</v>
+        <v>479325750422725.9</v>
       </c>
       <c r="D77">
-        <v>2229.763057926006</v>
+        <v>8.038213737479536</v>
       </c>
       <c r="E77">
-        <v>1126133855804824</v>
+        <v>548869827835674.7</v>
       </c>
       <c r="F77">
-        <v>2229.966712054445</v>
+        <v>9.197481725107737</v>
       </c>
       <c r="G77">
-        <v>4251294417836332</v>
+        <v>1426523423343678</v>
       </c>
       <c r="H77">
-        <v>3611.570689576747</v>
+        <v>23.68077853157936</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78">
-        <v>1126078365152130</v>
+        <v>511658841175572.2</v>
       </c>
       <c r="B78">
-        <v>2182.057609384937</v>
+        <v>8.795654785410651</v>
       </c>
       <c r="C78">
-        <v>1044418087216710</v>
+        <v>465664778450877.4</v>
       </c>
       <c r="D78">
-        <v>2214.442363110859</v>
+        <v>8.008805084894538</v>
       </c>
       <c r="E78">
-        <v>1095544300902350</v>
+        <v>533228122093490.6</v>
       </c>
       <c r="F78">
-        <v>2214.639355765794</v>
+        <v>9.164713747453108</v>
       </c>
       <c r="G78">
-        <v>4179621504340430</v>
+        <v>1386183276252972</v>
       </c>
       <c r="H78">
-        <v>3587.264501271804</v>
+        <v>23.62894310136504</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <v>1095455450724798</v>
+        <v>498033732104458.4</v>
       </c>
       <c r="B79">
-        <v>2227.06087007125</v>
+        <v>8.747207410398794</v>
       </c>
       <c r="C79">
-        <v>1016420084997185</v>
+        <v>453319889227355.1</v>
       </c>
       <c r="D79">
-        <v>2259.292624925679</v>
+        <v>7.965637402883549</v>
       </c>
       <c r="E79">
-        <v>1066178283840624</v>
+        <v>519093255212698.6</v>
       </c>
       <c r="F79">
-        <v>2259.488300540121</v>
+        <v>9.115364043436841</v>
       </c>
       <c r="G79">
-        <v>4110080931586164</v>
+        <v>1349713716395983</v>
       </c>
       <c r="H79">
-        <v>3659.294801380193</v>
+        <v>23.50727623403944</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80">
-        <v>1066462032966472</v>
+        <v>483701438388570</v>
       </c>
       <c r="B80">
-        <v>2242.331675547657</v>
+        <v>8.713941690585161</v>
       </c>
       <c r="C80">
-        <v>989892120574512.8</v>
+        <v>440331017802365.3</v>
       </c>
       <c r="D80">
-        <v>2273.953636287103</v>
+        <v>7.936458042043895</v>
       </c>
       <c r="E80">
-        <v>1038354003448455</v>
+        <v>504220963141695.7</v>
       </c>
       <c r="F80">
-        <v>2274.145237530378</v>
+        <v>9.081829119235344</v>
       </c>
       <c r="G80">
-        <v>4043490955711126</v>
+        <v>1311325539185884</v>
       </c>
       <c r="H80">
-        <v>3680.7295308229</v>
+        <v>23.42044050451691</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <v>1037812239506294</v>
+        <v>470036159089654.1</v>
       </c>
       <c r="B81">
-        <v>2183.152775934605</v>
+        <v>8.704315608781441</v>
       </c>
       <c r="C81">
-        <v>963659587553831.8</v>
+        <v>427943538315530.8</v>
       </c>
       <c r="D81">
-        <v>2213.155123237</v>
+        <v>7.928554854492968</v>
       </c>
       <c r="E81">
-        <v>1010839467681891</v>
+        <v>490037202227367.6</v>
       </c>
       <c r="F81">
-        <v>2213.336562363513</v>
+        <v>9.072964777542266</v>
       </c>
       <c r="G81">
-        <v>3976935830940146</v>
+        <v>1274699309356113</v>
       </c>
       <c r="H81">
-        <v>3579.780406564045</v>
+        <v>23.40734770228256</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <v>1008846805660947</v>
+        <v>457176242357170.6</v>
       </c>
       <c r="B82">
-        <v>2184.334675097571</v>
+        <v>8.663100766883339</v>
       </c>
       <c r="C82">
-        <v>937118801259825</v>
+        <v>416283347902604.3</v>
       </c>
       <c r="D82">
-        <v>2213.638540332287</v>
+        <v>7.892075972683016</v>
       </c>
       <c r="E82">
-        <v>983001489255034.1</v>
+        <v>476686135722958.6</v>
       </c>
       <c r="F82">
-        <v>2213.815425086212</v>
+        <v>9.030979426027343</v>
       </c>
       <c r="G82">
-        <v>3908844533873040</v>
+        <v>1240209670756566</v>
       </c>
       <c r="H82">
-        <v>3579.392704264638</v>
+        <v>23.29509820088527</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <v>981835362775788.2</v>
+        <v>442994482909200.8</v>
       </c>
       <c r="B83">
-        <v>2240.617175530598</v>
+        <v>8.581111071087236</v>
       </c>
       <c r="C83">
-        <v>912350940435842.2</v>
+        <v>403421519581110.2</v>
       </c>
       <c r="D83">
-        <v>2269.899547951905</v>
+        <v>7.818672184507417</v>
       </c>
       <c r="E83">
-        <v>957022975508398.4</v>
+        <v>461959114092118</v>
       </c>
       <c r="F83">
-        <v>2270.075973297992</v>
+        <v>8.946513807908673</v>
       </c>
       <c r="G83">
-        <v>3844580429717764</v>
+        <v>1202150177385993</v>
       </c>
       <c r="H83">
-        <v>3666.258328484383</v>
+        <v>23.0663722116647</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84">
-        <v>955737132456622.8</v>
+        <v>428635350182442.7</v>
       </c>
       <c r="B84">
-        <v>2229.238590219</v>
+        <v>8.532561206155528</v>
       </c>
       <c r="C84">
-        <v>888404339828879.4</v>
+        <v>390395498010209.2</v>
       </c>
       <c r="D84">
-        <v>2257.632652212239</v>
+        <v>7.775060266840891</v>
       </c>
       <c r="E84">
-        <v>931905761184266.1</v>
+        <v>447044019399150.4</v>
       </c>
       <c r="F84">
-        <v>2257.803415818192</v>
+        <v>8.897231303464029</v>
       </c>
       <c r="G84">
-        <v>3781749521374446</v>
+        <v>1163588190924553</v>
       </c>
       <c r="H84">
-        <v>3641.984071368904</v>
+        <v>22.96333145089297</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85">
-        <v>929873522099791.8</v>
+        <v>417739899009302.6</v>
       </c>
       <c r="B85">
-        <v>2215.68141794215</v>
+        <v>8.542893576693254</v>
       </c>
       <c r="C85">
-        <v>864657350479234</v>
+        <v>380509351164913.4</v>
       </c>
       <c r="D85">
-        <v>2243.209098872915</v>
+        <v>7.784864427730446</v>
       </c>
       <c r="E85">
-        <v>906997815007610</v>
+        <v>435724107311120.4</v>
       </c>
       <c r="F85">
-        <v>2243.374359217802</v>
+        <v>8.909059310112141</v>
       </c>
       <c r="G85">
-        <v>3718729236244998</v>
+        <v>1134310247960366</v>
       </c>
       <c r="H85">
-        <v>3614.635989304095</v>
+        <v>23.01653982076941</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86">
-        <v>904872116409700.5</v>
+        <v>406472489833860.7</v>
       </c>
       <c r="B86">
-        <v>2215.147362548683</v>
+        <v>8.493056537308549</v>
       </c>
       <c r="C86">
-        <v>841687129680820.6</v>
+        <v>370283671854351.3</v>
       </c>
       <c r="D86">
-        <v>2241.968001566423</v>
+        <v>7.740533109777644</v>
       </c>
       <c r="E86">
-        <v>882904516818947.1</v>
+        <v>424015379131991.5</v>
       </c>
       <c r="F86">
-        <v>2242.128733500961</v>
+        <v>8.857842420568049</v>
       </c>
       <c r="G86">
-        <v>3657059238655365</v>
+        <v>1104016612599370</v>
       </c>
       <c r="H86">
-        <v>3607.177571240636</v>
+        <v>22.87196375200388</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87">
-        <v>880364174612104.9</v>
+        <v>394051249171360.9</v>
       </c>
       <c r="B87">
-        <v>2227.044209551173</v>
+        <v>8.424369842261063</v>
       </c>
       <c r="C87">
-        <v>819156040894957.5</v>
+        <v>359008444177018.6</v>
       </c>
       <c r="D87">
-        <v>2253.344545312267</v>
+        <v>7.679058285830134</v>
       </c>
       <c r="E87">
-        <v>859271729596194.1</v>
+        <v>411104835155031.9</v>
       </c>
       <c r="F87">
-        <v>2253.501889404526</v>
+        <v>8.787060628302912</v>
       </c>
       <c r="G87">
-        <v>3595853228349277</v>
+        <v>1070601692196293</v>
       </c>
       <c r="H87">
-        <v>3620.210488342027</v>
+        <v>22.67887347934728</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88">
-        <v>856961016349189.8</v>
+        <v>381546914310359.1</v>
       </c>
       <c r="B88">
-        <v>2251.590359631359</v>
+        <v>8.387887196419328</v>
       </c>
       <c r="C88">
-        <v>797627417479679.9</v>
+        <v>347655250710397</v>
       </c>
       <c r="D88">
-        <v>2277.50770067768</v>
+        <v>7.646300441738401</v>
       </c>
       <c r="E88">
-        <v>836690340511077.1</v>
+        <v>398104965044391</v>
       </c>
       <c r="F88">
-        <v>2277.662491832347</v>
+        <v>8.750176001652807</v>
       </c>
       <c r="G88">
-        <v>3536674688453278</v>
+        <v>1036942993710373</v>
       </c>
       <c r="H88">
-        <v>3652.300305887837</v>
+        <v>22.60652503971593</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89">
-        <v>834235146417772.5</v>
+        <v>372058982337312.8</v>
       </c>
       <c r="B89">
-        <v>2252.050463353886</v>
+        <v>8.392551244670722</v>
       </c>
       <c r="C89">
-        <v>776709447643144.5</v>
+        <v>339039071715028.4</v>
       </c>
       <c r="D89">
-        <v>2277.326186288754</v>
+        <v>7.650842814443664</v>
       </c>
       <c r="E89">
-        <v>814749387223877.9</v>
+        <v>388239053115069.6</v>
       </c>
       <c r="F89">
-        <v>2277.476897141364</v>
+        <v>8.755971108012336</v>
       </c>
       <c r="G89">
-        <v>3478490214264832</v>
+        <v>1011390166322652</v>
       </c>
       <c r="H89">
-        <v>3644.98704129068</v>
+        <v>22.64342290770719</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90">
-        <v>812064464788237.5</v>
+        <v>362306702349282.4</v>
       </c>
       <c r="B90">
-        <v>2240.753740688305</v>
+        <v>8.3500575873835</v>
       </c>
       <c r="C90">
-        <v>756290701807973.6</v>
+        <v>330181303281677.9</v>
       </c>
       <c r="D90">
-        <v>2265.272349178272</v>
+        <v>7.612796963806834</v>
       </c>
       <c r="E90">
-        <v>793331996961915.5</v>
+        <v>378096478807491.3</v>
       </c>
       <c r="F90">
-        <v>2265.418308651309</v>
+        <v>8.712395186618178</v>
       </c>
       <c r="G90">
-        <v>3421010898927263</v>
+        <v>985113183366428</v>
       </c>
       <c r="H90">
-        <v>3618.112045820048</v>
+        <v>22.53242451714414</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91">
-        <v>790311438361347.9</v>
+        <v>353053202924378.4</v>
       </c>
       <c r="B91">
-        <v>2259.67937545669</v>
+        <v>8.335091275997845</v>
       </c>
       <c r="C91">
-        <v>736245247789922.9</v>
+        <v>321775131025530.1</v>
       </c>
       <c r="D91">
-        <v>2283.804256119806</v>
+        <v>7.600172166810403</v>
       </c>
       <c r="E91">
-        <v>772306083192744.1</v>
+        <v>368470974368324.6</v>
       </c>
       <c r="F91">
-        <v>2283.947645474927</v>
+        <v>8.697311922512739</v>
       </c>
       <c r="G91">
-        <v>3363892734778536</v>
+        <v>960168676051203.4</v>
       </c>
       <c r="H91">
-        <v>3640.326913717874</v>
+        <v>22.47560500600133</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92">
-        <v>769675377482417.1</v>
+        <v>341420633951868.9</v>
       </c>
       <c r="B92">
-        <v>2229.474449063955</v>
+        <v>8.275002940903164</v>
       </c>
       <c r="C92">
-        <v>717218647452603.5</v>
+        <v>311205753660031.7</v>
       </c>
       <c r="D92">
-        <v>2252.644274166918</v>
+        <v>7.546444701446902</v>
       </c>
       <c r="E92">
-        <v>752348790771347.6</v>
+        <v>356368446594224.6</v>
       </c>
       <c r="F92">
-        <v>2252.781767271543</v>
+        <v>8.635384941137147</v>
       </c>
       <c r="G92">
-        <v>3309014419182874</v>
+        <v>928795099097055.2</v>
       </c>
       <c r="H92">
-        <v>3580.555894493723</v>
+        <v>22.30461646343374</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93">
-        <v>748469893242930.1</v>
+        <v>331086288937794.7</v>
       </c>
       <c r="B93">
-        <v>2231.384895095533</v>
+        <v>8.221780249344928</v>
       </c>
       <c r="C93">
-        <v>697656420841911.6</v>
+        <v>301814091588238.3</v>
       </c>
       <c r="D93">
-        <v>2254.041058938786</v>
+        <v>7.498180608487339</v>
       </c>
       <c r="E93">
-        <v>731829604393856.4</v>
+        <v>345614430347915.8</v>
       </c>
       <c r="F93">
-        <v>2254.175301758926</v>
+        <v>8.580863100235197</v>
       </c>
       <c r="G93">
-        <v>3251884275918358</v>
+        <v>900908065179086.9</v>
       </c>
       <c r="H93">
-        <v>3575.977566749822</v>
+        <v>22.18946579129315</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94">
-        <v>729021453876306.4</v>
+        <v>322389821895829.6</v>
       </c>
       <c r="B94">
-        <v>2248.530661291922</v>
+        <v>8.19230261334163</v>
       </c>
       <c r="C94">
-        <v>679705596006305</v>
+        <v>293909550564657.2</v>
       </c>
       <c r="D94">
-        <v>2270.739640959481</v>
+        <v>7.471656483816133</v>
       </c>
       <c r="E94">
-        <v>713000587469091.2</v>
+        <v>336563228942993.9</v>
       </c>
       <c r="F94">
-        <v>2270.871029591196</v>
+        <v>8.550886800028911</v>
       </c>
       <c r="G94">
-        <v>3198798858015490</v>
+        <v>877429992519852.4</v>
       </c>
       <c r="H94">
-        <v>3590.699814454782</v>
+        <v>22.12658852174938</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95">
-        <v>709174276006809.9</v>
+        <v>313737534077351.9</v>
       </c>
       <c r="B95">
-        <v>2146.217014366476</v>
+        <v>8.180160173227387</v>
       </c>
       <c r="C95">
-        <v>661377352669589.2</v>
+        <v>286043938612758.9</v>
       </c>
       <c r="D95">
-        <v>2166.872030699061</v>
+        <v>7.46132924152238</v>
       </c>
       <c r="E95">
-        <v>693775628595499.4</v>
+        <v>327556578452035.3</v>
       </c>
       <c r="F95">
-        <v>2166.994041046313</v>
+        <v>8.538796970922188</v>
       </c>
       <c r="G95">
-        <v>3143912448245444</v>
+        <v>854061367057925.4</v>
       </c>
       <c r="H95">
-        <v>3416.612575379976</v>
+        <v>22.08899441343322</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96">
-        <v>688973349851096</v>
+        <v>304544693832738.4</v>
       </c>
       <c r="B96">
-        <v>2065.685382171541</v>
+        <v>8.137739160626854</v>
       </c>
       <c r="C96">
-        <v>642712670716806.8</v>
+        <v>277685580215238.9</v>
       </c>
       <c r="D96">
-        <v>2085.039363393028</v>
+        <v>7.423547836345562</v>
       </c>
       <c r="E96">
-        <v>674197709107148.9</v>
+        <v>317985672695426.2</v>
       </c>
       <c r="F96">
-        <v>2085.153511861507</v>
+        <v>8.495069474415263</v>
       </c>
       <c r="G96">
-        <v>3087272549333867</v>
+        <v>829222037429142</v>
       </c>
       <c r="H96">
-        <v>3277.511834076214</v>
+        <v>21.96262944617402</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97">
-        <v>668750128785430.9</v>
+        <v>294689691307403.4</v>
       </c>
       <c r="B97">
-        <v>2091.76469622308</v>
+        <v>8.056034676477264</v>
       </c>
       <c r="C97">
-        <v>624017494117991.5</v>
+        <v>268723631442251.2</v>
       </c>
       <c r="D97">
-        <v>2110.866819573846</v>
+        <v>7.349723938712946</v>
       </c>
       <c r="E97">
-        <v>654587740567611.2</v>
+        <v>307723581967446.6</v>
       </c>
       <c r="F97">
-        <v>2110.97931270036</v>
+        <v>8.410498648127913</v>
       </c>
       <c r="G97">
-        <v>3029747358408406</v>
+        <v>802581215297887</v>
       </c>
       <c r="H97">
-        <v>3308.78469296377</v>
+        <v>21.74378120169184</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98">
-        <v>650224959195520</v>
+        <v>285593425402880.4</v>
       </c>
       <c r="B98">
-        <v>2138.299035152444</v>
+        <v>7.994728176697374</v>
       </c>
       <c r="C98">
-        <v>606883351886370.4</v>
+        <v>260450251812139.5</v>
       </c>
       <c r="D98">
-        <v>2157.272856960796</v>
+        <v>7.29429091135914</v>
       </c>
       <c r="E98">
-        <v>636615136090216.6</v>
+        <v>298249924431952.5</v>
       </c>
       <c r="F98">
-        <v>2157.3844252016</v>
+        <v>8.347234150600361</v>
       </c>
       <c r="G98">
-        <v>2976293620840885</v>
+        <v>777980153712977</v>
       </c>
       <c r="H98">
-        <v>3368.335595441401</v>
+        <v>21.58818215804539</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99">
-        <v>631895009946134</v>
+        <v>276682187057281.1</v>
       </c>
       <c r="B99">
-        <v>2213.149276571739</v>
+        <v>7.935827639369013</v>
       </c>
       <c r="C99">
-        <v>589921546537094</v>
+        <v>252343847002091.4</v>
       </c>
       <c r="D99">
-        <v>2232.317658211491</v>
+        <v>7.241080044800964</v>
       </c>
       <c r="E99">
-        <v>618823250200103.2</v>
+        <v>288967438805198.2</v>
       </c>
       <c r="F99">
-        <v>2232.430214896324</v>
+        <v>8.286433463676902</v>
       </c>
       <c r="G99">
-        <v>2922653876590825</v>
+        <v>753868958842499.9</v>
       </c>
       <c r="H99">
-        <v>3475.540199236357</v>
+        <v>21.43632311883756</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100">
-        <v>615620119830998.6</v>
+        <v>268268030883282.7</v>
       </c>
       <c r="B100">
-        <v>2251.626751638421</v>
+        <v>7.886812827204209</v>
       </c>
       <c r="C100">
-        <v>574854535925840.9</v>
+        <v>244688434936956.3</v>
       </c>
       <c r="D100">
-        <v>2270.574299441918</v>
+        <v>7.196457645446894</v>
       </c>
       <c r="E100">
-        <v>603018843841620.8</v>
+        <v>280201351493496.7</v>
       </c>
       <c r="F100">
-        <v>2270.685402815062</v>
+        <v>8.23611855911542</v>
       </c>
       <c r="G100">
-        <v>2874374025745815</v>
+        <v>731093134004783.1</v>
       </c>
       <c r="H100">
-        <v>3519.57921988764</v>
+        <v>21.33272549858306</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101">
-        <v>598757564555052.2</v>
+        <v>262035297058562.4</v>
       </c>
       <c r="B101">
-        <v>2231.317615648006</v>
+        <v>7.886318933639648</v>
       </c>
       <c r="C101">
-        <v>559236635776262.9</v>
+        <v>239016987677053.9</v>
       </c>
       <c r="D101">
-        <v>2249.658736663751</v>
+        <v>7.196385837234468</v>
       </c>
       <c r="E101">
-        <v>586636544026277.1</v>
+        <v>273707054428114.9</v>
       </c>
       <c r="F101">
-        <v>2249.766145660235</v>
+        <v>8.236080891107484</v>
       </c>
       <c r="G101">
-        <v>2823672120490016</v>
+        <v>714216073895446.2</v>
       </c>
       <c r="H101">
-        <v>3476.670003967461</v>
+        <v>21.33576282035147</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102">
-        <v>583096997028959.9</v>
+        <v>254070804167768.4</v>
       </c>
       <c r="B102">
-        <v>2208.787805023665</v>
+        <v>7.829896531597061</v>
       </c>
       <c r="C102">
-        <v>544725752768000.6</v>
+        <v>231768806905874.6</v>
       </c>
       <c r="D102">
-        <v>2226.437867058345</v>
+        <v>7.145547880656992</v>
       </c>
       <c r="E102">
-        <v>571415403958263.9</v>
+        <v>265407242142002.5</v>
       </c>
       <c r="F102">
-        <v>2226.541089661217</v>
+        <v>8.177676979201861</v>
       </c>
       <c r="G102">
-        <v>2775938148710362</v>
+        <v>692642289283512.9</v>
       </c>
       <c r="H102">
-        <v>3425.526340863378</v>
+        <v>21.17946856827599</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103">
-        <v>566762025699225.9</v>
+        <v>247492716184557.8</v>
       </c>
       <c r="B103">
-        <v>2211.319873886269</v>
+        <v>7.814480395356147</v>
       </c>
       <c r="C103">
-        <v>529583546322340.2</v>
+        <v>225781555417787</v>
       </c>
       <c r="D103">
-        <v>2228.586195303718</v>
+        <v>7.131771932509083</v>
       </c>
       <c r="E103">
-        <v>555531999276878.7</v>
+        <v>258551289950335.6</v>
       </c>
       <c r="F103">
-        <v>2228.687047959764</v>
+        <v>8.162133153522131</v>
       </c>
       <c r="G103">
-        <v>2725455475762976</v>
+        <v>674817615501406.6</v>
       </c>
       <c r="H103">
-        <v>3418.297242157751</v>
+        <v>21.14819140403671</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104">
-        <v>552033396359543.9</v>
+        <v>240490343617011.1</v>
       </c>
       <c r="B104">
-        <v>2207.919848083107</v>
+        <v>7.781261837212575</v>
       </c>
       <c r="C104">
-        <v>515924746125526.8</v>
+        <v>219407347591607.1</v>
       </c>
       <c r="D104">
-        <v>2224.661485314265</v>
+        <v>7.102203955934254</v>
       </c>
       <c r="E104">
-        <v>541204577196384.1</v>
+        <v>251252221150980.4</v>
       </c>
       <c r="F104">
-        <v>2224.759144467825</v>
+        <v>8.127791624506616</v>
       </c>
       <c r="G104">
-        <v>2679303719267368</v>
+        <v>655836981142161.8</v>
       </c>
       <c r="H104">
-        <v>3395.496040175922</v>
+        <v>21.04482387882819</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105">
-        <v>536459092512197.2</v>
+        <v>232806771601976.9</v>
       </c>
       <c r="B105">
-        <v>2110.45326133683</v>
+        <v>7.723478006371976</v>
       </c>
       <c r="C105">
-        <v>501475863583552.4</v>
+        <v>212412122437665.3</v>
       </c>
       <c r="D105">
-        <v>2126.058371995905</v>
+        <v>7.049893901845847</v>
       </c>
       <c r="E105">
-        <v>526048360601065</v>
+        <v>243242009860094.9</v>
       </c>
       <c r="F105">
-        <v>2126.14928801576</v>
+        <v>8.068029680710207</v>
       </c>
       <c r="G105">
-        <v>2629819490053394</v>
+        <v>635002435845847.6</v>
       </c>
       <c r="H105">
-        <v>3232.757985113532</v>
+        <v>20.89545625043004</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106">
-        <v>521225397336958</v>
+        <v>226422608221287.1</v>
       </c>
       <c r="B106">
-        <v>2065.52996549898</v>
+        <v>7.703051546598391</v>
       </c>
       <c r="C106">
-        <v>487337161011733.1</v>
+        <v>206599158310987.2</v>
       </c>
       <c r="D106">
-        <v>2080.376504278324</v>
+        <v>7.031787865356316</v>
       </c>
       <c r="E106">
-        <v>511217472497658.6</v>
+        <v>236585586900006.2</v>
       </c>
       <c r="F106">
-        <v>2080.46288868299</v>
+        <v>8.047083957577303</v>
       </c>
       <c r="G106">
-        <v>2580708611417598</v>
+        <v>617685393199909.8</v>
       </c>
       <c r="H106">
-        <v>3148.60753249281</v>
+        <v>20.83560788055803</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107">
-        <v>505874923213070.9</v>
+        <v>218461695256684.7</v>
       </c>
       <c r="B107">
-        <v>2045.972140111517</v>
+        <v>7.631125906901011</v>
       </c>
       <c r="C107">
-        <v>473084241301165.8</v>
+        <v>199349579988164.4</v>
       </c>
       <c r="D107">
-        <v>2060.287706256613</v>
+        <v>6.967287235867848</v>
       </c>
       <c r="E107">
-        <v>496266739403323.2</v>
+        <v>228284078228086.2</v>
       </c>
       <c r="F107">
-        <v>2060.370896114346</v>
+        <v>7.972161961725617</v>
       </c>
       <c r="G107">
-        <v>2530479740505067</v>
+        <v>596083864518364</v>
       </c>
       <c r="H107">
-        <v>3104.817382188714</v>
+        <v>20.60782499250466</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108">
-        <v>491258204973291.5</v>
+        <v>209487783699024.6</v>
       </c>
       <c r="B108">
-        <v>2128.895127930703</v>
+        <v>7.541836682553907</v>
       </c>
       <c r="C108">
-        <v>459507159467977.9</v>
+        <v>191176268623422.1</v>
       </c>
       <c r="D108">
-        <v>2143.395241196853</v>
+        <v>6.88629606930838</v>
       </c>
       <c r="E108">
-        <v>482024899000762.9</v>
+        <v>218924774978693.4</v>
       </c>
       <c r="F108">
-        <v>2143.479400397128</v>
+        <v>7.879539145396363</v>
       </c>
       <c r="G108">
-        <v>2481928520096088</v>
+        <v>571723556621017.5</v>
       </c>
       <c r="H108">
-        <v>3215.760626208374</v>
+        <v>20.37234105796577</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109">
-        <v>477907132004569.2</v>
+        <v>202131755716415.3</v>
       </c>
       <c r="B109">
-        <v>2178.453718323511</v>
+        <v>7.500025735902387</v>
       </c>
       <c r="C109">
-        <v>447101041069546.1</v>
+        <v>184475514736156.2</v>
       </c>
       <c r="D109">
-        <v>2192.872395962947</v>
+        <v>6.847874236124435</v>
       </c>
       <c r="E109">
-        <v>469011325729616.7</v>
+        <v>211251684925846.4</v>
       </c>
       <c r="F109">
-        <v>2192.955982442723</v>
+        <v>7.836766125685094</v>
       </c>
       <c r="G109">
-        <v>2436937412079234</v>
+        <v>551747147978668.7</v>
       </c>
       <c r="H109">
-        <v>3273.270272618505</v>
+        <v>20.30227209791208</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110">
-        <v>464669462732979.4</v>
+        <v>196644488860026.4</v>
       </c>
       <c r="B110">
-        <v>2174.45393613633</v>
+        <v>7.482928566435977</v>
       </c>
       <c r="C110">
-        <v>434795896615935.4</v>
+        <v>179476473122414.8</v>
       </c>
       <c r="D110">
-        <v>2188.47788950709</v>
+        <v>6.83242404046243</v>
       </c>
       <c r="E110">
-        <v>456103643337842.3</v>
+        <v>205527228061551.4</v>
       </c>
       <c r="F110">
-        <v>2188.559096326028</v>
+        <v>7.819389088128527</v>
       </c>
       <c r="G110">
-        <v>2391695575748438</v>
+        <v>536840970598557.9</v>
       </c>
       <c r="H110">
-        <v>3252.227652329486</v>
+        <v>20.26856935536075</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111">
-        <v>452007324265571.8</v>
+        <v>190347835890208.1</v>
       </c>
       <c r="B111">
-        <v>2249.068442423007</v>
+        <v>7.417744204945656</v>
       </c>
       <c r="C111">
-        <v>423021628194271.2</v>
+        <v>173739449196309.9</v>
       </c>
       <c r="D111">
-        <v>2263.20698118787</v>
+        <v>6.773209832387756</v>
       </c>
       <c r="E111">
-        <v>443752806704315.7</v>
+        <v>198957687043831.7</v>
       </c>
       <c r="F111">
-        <v>2263.28876263914</v>
+        <v>7.751764490540713</v>
       </c>
       <c r="G111">
-        <v>2347806657787455</v>
+        <v>519731170219652.6</v>
       </c>
       <c r="H111">
-        <v>3348.320180814818</v>
+        <v>20.09958179804022</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112">
-        <v>440311249942457.4</v>
+        <v>185469550408748.7</v>
       </c>
       <c r="B112">
-        <v>2221.813611949339</v>
+        <v>7.43441242828053</v>
       </c>
       <c r="C112">
-        <v>412142104115597.7</v>
+        <v>169294283379963.8</v>
       </c>
       <c r="D112">
-        <v>2235.386485538937</v>
+        <v>6.788413074919085</v>
       </c>
       <c r="E112">
-        <v>432340506675665.4</v>
+        <v>193867460366356.5</v>
       </c>
       <c r="F112">
-        <v>2235.464909102295</v>
+        <v>7.769704701386344</v>
       </c>
       <c r="G112">
-        <v>2306711419049722</v>
+        <v>506471859254672.2</v>
       </c>
       <c r="H112">
-        <v>3289.397288146403</v>
+        <v>20.1649858427332</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113">
-        <v>427988332210606.1</v>
+        <v>180750995125078</v>
       </c>
       <c r="B113">
-        <v>2090.348835232045</v>
+        <v>7.440857398490013</v>
       </c>
       <c r="C113">
-        <v>400675772861443.8</v>
+        <v>164994293161544.5</v>
       </c>
       <c r="D113">
-        <v>2102.787750279806</v>
+        <v>6.79430344171814</v>
       </c>
       <c r="E113">
-        <v>420312640322937.2</v>
+        <v>188943468777518.2</v>
       </c>
       <c r="F113">
-        <v>2102.859545280381</v>
+        <v>7.776935099448107</v>
       </c>
       <c r="G113">
-        <v>2262814362999504</v>
+        <v>493643691171248.1</v>
       </c>
       <c r="H113">
-        <v>3079.767683038448</v>
+        <v>20.20094842352219</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114">
-        <v>415496164063182.5</v>
+        <v>177238072400887.8</v>
       </c>
       <c r="B114">
-        <v>1991.738675786138</v>
+        <v>7.446448132555552</v>
       </c>
       <c r="C114">
-        <v>389048045447838.6</v>
+        <v>161792750239429.9</v>
       </c>
       <c r="D114">
-        <v>2003.254429631114</v>
+        <v>6.799921766756362</v>
       </c>
       <c r="E114">
-        <v>408115449837479</v>
+        <v>185277322872857.1</v>
       </c>
       <c r="F114">
-        <v>2003.320822273606</v>
+        <v>7.782858931677822</v>
       </c>
       <c r="G114">
-        <v>2217661487684456</v>
+        <v>484091311570447.2</v>
       </c>
       <c r="H114">
-        <v>2918.455309999008</v>
+        <v>20.20067621953726</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115">
-        <v>402704827051686.8</v>
+        <v>171532344077170.6</v>
       </c>
       <c r="B115">
-        <v>2056.373432231468</v>
+        <v>7.352741317967995</v>
       </c>
       <c r="C115">
-        <v>377137762706158.2</v>
+        <v>156592335089511.9</v>
       </c>
       <c r="D115">
-        <v>2067.970706523964</v>
+        <v>6.7154565583929</v>
       </c>
       <c r="E115">
-        <v>395621840941056.2</v>
+        <v>179322222546878.2</v>
       </c>
       <c r="F115">
-        <v>2068.037499070096</v>
+        <v>7.684889715718628</v>
       </c>
       <c r="G115">
-        <v>2170717502243583</v>
+        <v>468572732439300.8</v>
       </c>
       <c r="H115">
-        <v>2999.893568678633</v>
+        <v>19.90568532759561</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116">
-        <v>391761260531725.8</v>
+        <v>165288821751570.6</v>
       </c>
       <c r="B116">
-        <v>2178.100927974236</v>
+        <v>7.276656775530815</v>
       </c>
       <c r="C116">
-        <v>366944687457425.6</v>
+        <v>150901139416090.5</v>
       </c>
       <c r="D116">
-        <v>2190.012142360399</v>
+        <v>6.646392202806034</v>
       </c>
       <c r="E116">
-        <v>384929522530253.3</v>
+        <v>172805106869132.6</v>
       </c>
       <c r="F116">
-        <v>2190.080669948565</v>
+        <v>7.605771475746923</v>
       </c>
       <c r="G116">
-        <v>2129961389248028</v>
+        <v>451586484507650.6</v>
       </c>
       <c r="H116">
-        <v>3157.895685309835</v>
+        <v>19.69960647887683</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117">
-        <v>380905348355993</v>
+        <v>159697236903314.2</v>
       </c>
       <c r="B117">
-        <v>2061.997551218894</v>
+        <v>7.216385538279143</v>
       </c>
       <c r="C117">
-        <v>356830251501263.1</v>
+        <v>145803662679415.4</v>
       </c>
       <c r="D117">
-        <v>2072.950973211288</v>
+        <v>6.591385486935556</v>
       </c>
       <c r="E117">
-        <v>374319676700794.6</v>
+        <v>166967860806184.8</v>
       </c>
       <c r="F117">
-        <v>2073.013926356276</v>
+        <v>7.543321980016986</v>
       </c>
       <c r="G117">
-        <v>2088969608677069</v>
+        <v>436369504716976.6</v>
       </c>
       <c r="H117">
-        <v>2972.433350318535</v>
+        <v>19.55544882859197</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118">
-        <v>369372422972992.1</v>
+        <v>154820868396764.1</v>
       </c>
       <c r="B118">
-        <v>2000.204764921591</v>
+        <v>7.144142173964172</v>
       </c>
       <c r="C118">
-        <v>346081759659882.8</v>
+        <v>141357780248780.2</v>
       </c>
       <c r="D118">
-        <v>2010.556303012454</v>
+        <v>6.524985013065519</v>
       </c>
       <c r="E118">
-        <v>363044698584145.8</v>
+        <v>161876762745817.6</v>
       </c>
       <c r="F118">
-        <v>2010.615738117282</v>
+        <v>7.4685383661165</v>
       </c>
       <c r="G118">
-        <v>2044784335052842</v>
+        <v>423095519574287.6</v>
       </c>
       <c r="H118">
-        <v>2869.31022834955</v>
+        <v>19.40221236825848</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119">
-        <v>358523671015032.6</v>
+        <v>152016491815364.8</v>
       </c>
       <c r="B119">
-        <v>2036.169793951181</v>
+        <v>7.179163253231209</v>
       </c>
       <c r="C119">
-        <v>335967811982444</v>
+        <v>138800796510281.8</v>
       </c>
       <c r="D119">
-        <v>2046.399926520149</v>
+        <v>6.557222614220496</v>
       </c>
       <c r="E119">
-        <v>352435327228030.2</v>
+        <v>158948689089209.3</v>
       </c>
       <c r="F119">
-        <v>2046.458605229575</v>
+        <v>7.505291341703907</v>
       </c>
       <c r="G119">
-        <v>2002597678949918</v>
+        <v>415460277658099</v>
       </c>
       <c r="H119">
-        <v>2903.909193746172</v>
+        <v>19.49359683966446</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120">
-        <v>348031830918190.3</v>
+        <v>147005131576883.3</v>
       </c>
       <c r="B120">
-        <v>2016.944236488363</v>
+        <v>7.142819435853291</v>
       </c>
       <c r="C120">
-        <v>326183743497658.7</v>
+        <v>134231198772978.1</v>
       </c>
       <c r="D120">
-        <v>2026.783424520295</v>
+        <v>6.524529082102738</v>
       </c>
       <c r="E120">
-        <v>342171976531091.8</v>
+        <v>153715908146150.8</v>
       </c>
       <c r="F120">
-        <v>2026.839805462001</v>
+        <v>7.46752138771441</v>
       </c>
       <c r="G120">
-        <v>1961202231586439</v>
+        <v>401813654112516.4</v>
       </c>
       <c r="H120">
-        <v>2859.783392962807</v>
+        <v>19.38533587125307</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121">
-        <v>337610124103728</v>
+        <v>143697881693910.5</v>
       </c>
       <c r="B121">
-        <v>1995.787189305679</v>
+        <v>7.161119206502271</v>
       </c>
       <c r="C121">
-        <v>316462289471437.1</v>
+        <v>131215263257561.6</v>
       </c>
       <c r="D121">
-        <v>2005.248615781484</v>
+        <v>6.541075277512582</v>
       </c>
       <c r="E121">
-        <v>331974290571946.1</v>
+        <v>150262266891692.5</v>
       </c>
       <c r="F121">
-        <v>2005.302780310325</v>
+        <v>7.487088195289721</v>
       </c>
       <c r="G121">
-        <v>1919480296335140</v>
+        <v>392805722450741.3</v>
       </c>
       <c r="H121">
-        <v>2814.01513004493</v>
+        <v>19.45755352652429</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122">
-        <v>327529471117190.2</v>
+        <v>140130564885965.2</v>
       </c>
       <c r="B122">
-        <v>2042.942373129227</v>
+        <v>7.11545572173512</v>
       </c>
       <c r="C122">
-        <v>307056324991006.2</v>
+        <v>127961966020908.9</v>
       </c>
       <c r="D122">
-        <v>2052.358617574509</v>
+        <v>6.500046610756038</v>
       </c>
       <c r="E122">
-        <v>322107533189975.4</v>
+        <v>146536811202364.2</v>
       </c>
       <c r="F122">
-        <v>2052.412473676319</v>
+        <v>7.439316385565652</v>
       </c>
       <c r="G122">
-        <v>1878529963967145</v>
+        <v>383087811941739.3</v>
       </c>
       <c r="H122">
-        <v>2864.75021264937</v>
+        <v>19.30780691798807</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123">
-        <v>318179046447534.1</v>
+        <v>135363667063840.7</v>
       </c>
       <c r="B123">
-        <v>2031.665965690065</v>
+        <v>7.049943267804561</v>
       </c>
       <c r="C123">
-        <v>298329383131271.8</v>
+        <v>123614355091404.1</v>
       </c>
       <c r="D123">
-        <v>2040.743361709557</v>
+        <v>6.441229893838327</v>
       </c>
       <c r="E123">
-        <v>312953049216549.1</v>
+        <v>141558214820786.2</v>
       </c>
       <c r="F123">
-        <v>2040.795231740908</v>
+        <v>7.370707540188389</v>
       </c>
       <c r="G123">
-        <v>1840004665047114</v>
+        <v>370099409054420.1</v>
       </c>
       <c r="H123">
-        <v>2831.136629684954</v>
+        <v>19.08874641145227</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124">
-        <v>308548348688266.3</v>
+        <v>129512221143095.2</v>
       </c>
       <c r="B124">
-        <v>2015.478103175078</v>
+        <v>6.957921099179589</v>
       </c>
       <c r="C124">
-        <v>289338506124639.5</v>
+        <v>118277077684431.8</v>
       </c>
       <c r="D124">
-        <v>2024.24615670514</v>
+        <v>6.357017647144708</v>
       </c>
       <c r="E124">
-        <v>303521685391473.1</v>
+        <v>135446307301856.3</v>
       </c>
       <c r="F124">
-        <v>2024.296215878827</v>
+        <v>7.275161055011315</v>
       </c>
       <c r="G124">
-        <v>1799759987603084</v>
+        <v>354151779560099.1</v>
       </c>
       <c r="H124">
-        <v>2794.231764570668</v>
+        <v>18.86939000837524</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125">
-        <v>299624610255889.9</v>
+        <v>126599801785142.6</v>
       </c>
       <c r="B125">
-        <v>2002.952960405758</v>
+        <v>6.970238076220826</v>
       </c>
       <c r="C125">
-        <v>281005488591002</v>
+        <v>115620362766083.7</v>
       </c>
       <c r="D125">
-        <v>2011.395003462439</v>
+        <v>6.367560436243209</v>
       </c>
       <c r="E125">
-        <v>294780398405424.6</v>
+        <v>132404003553972</v>
       </c>
       <c r="F125">
-        <v>2011.443158272936</v>
+        <v>7.288742269529048</v>
       </c>
       <c r="G125">
-        <v>1761939948561074</v>
+        <v>346212516969878.4</v>
       </c>
       <c r="H125">
-        <v>2759.272669401553</v>
+        <v>18.9549543322656</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126">
-        <v>290417866604624.5</v>
+        <v>123739128559584.8</v>
       </c>
       <c r="B126">
-        <v>1923.691332381536</v>
+        <v>6.959708879938939</v>
       </c>
       <c r="C126">
-        <v>272406046235556.7</v>
+        <v>113010714336096.2</v>
       </c>
       <c r="D126">
-        <v>1931.567731437402</v>
+        <v>6.358332519183827</v>
       </c>
       <c r="E126">
-        <v>285759620309100.2</v>
+        <v>129415594594844.4</v>
       </c>
       <c r="F126">
-        <v>1931.612621129981</v>
+        <v>7.277790314145519</v>
       </c>
       <c r="G126">
-        <v>1722367447121785</v>
+        <v>338413210352352.9</v>
       </c>
       <c r="H126">
-        <v>2635.179455213798</v>
+        <v>18.91440819805336</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127">
-        <v>281327160535146.8</v>
+        <v>120242422285511.4</v>
       </c>
       <c r="B127">
-        <v>1878.838080770258</v>
+        <v>6.964593021842953</v>
       </c>
       <c r="C127">
-        <v>263912837752824.8</v>
+        <v>109820661232269.1</v>
       </c>
       <c r="D127">
-        <v>1886.294695351465</v>
+        <v>6.363440233406124</v>
       </c>
       <c r="E127">
-        <v>276850268107765.7</v>
+        <v>125762538099956.6</v>
       </c>
       <c r="F127">
-        <v>1886.337155361821</v>
+        <v>7.282871022703332</v>
       </c>
       <c r="G127">
-        <v>1682722977520207</v>
+        <v>328878343844436.4</v>
       </c>
       <c r="H127">
-        <v>2558.057146153912</v>
+        <v>18.90339478691772</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128">
-        <v>272270027146909.5</v>
+        <v>116221471433343.1</v>
       </c>
       <c r="B128">
-        <v>1847.455747815111</v>
+        <v>6.928437742872003</v>
       </c>
       <c r="C128">
-        <v>255448867691573.8</v>
+        <v>106152088783156.1</v>
       </c>
       <c r="D128">
-        <v>1854.563831847121</v>
+        <v>6.330808272492704</v>
       </c>
       <c r="E128">
-        <v>267971574095153.2</v>
+        <v>121561504955335.5</v>
       </c>
       <c r="F128">
-        <v>1854.604272302561</v>
+        <v>7.245228667387203</v>
       </c>
       <c r="G128">
-        <v>1642640524217780</v>
+        <v>317911937684160.6</v>
       </c>
       <c r="H128">
-        <v>2500.240218086246</v>
+        <v>18.79700718687334</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129">
-        <v>263465229428417.1</v>
+        <v>112426538370273.7</v>
       </c>
       <c r="B129">
-        <v>1916.745296116015</v>
+        <v>6.841373803977875</v>
       </c>
       <c r="C129">
-        <v>247218668357003.8</v>
+        <v>102689481737745.5</v>
       </c>
       <c r="D129">
-        <v>1923.906668628881</v>
+        <v>6.251653342160636</v>
       </c>
       <c r="E129">
-        <v>259338092995600.3</v>
+        <v>117596326214417.5</v>
       </c>
       <c r="F129">
-        <v>1923.947378822448</v>
+        <v>7.154322655731264</v>
       </c>
       <c r="G129">
-        <v>1603095416098296</v>
+        <v>307559968378987.2</v>
       </c>
       <c r="H129">
-        <v>2579.533227159252</v>
+        <v>18.55167894928221</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130">
-        <v>255610544078695.4</v>
+        <v>108019651481625.8</v>
       </c>
       <c r="B130">
-        <v>2034.749356083937</v>
+        <v>6.734155834814787</v>
       </c>
       <c r="C130">
-        <v>239874878010347.6</v>
+        <v>98668211419393.25</v>
       </c>
       <c r="D130">
-        <v>2042.118396132787</v>
+        <v>6.153235121394642</v>
       </c>
       <c r="E130">
-        <v>251634444911139.8</v>
+        <v>112991392222860.2</v>
       </c>
       <c r="F130">
-        <v>2042.160253795705</v>
+        <v>7.042888591669436</v>
       </c>
       <c r="G130">
-        <v>1567318693746505</v>
+        <v>295536266835965.2</v>
       </c>
       <c r="H130">
-        <v>2721.817210408366</v>
+        <v>18.30287891359657</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131">
-        <v>248239767948502</v>
+        <v>106417533769103.7</v>
       </c>
       <c r="B131">
-        <v>2031.749824726514</v>
+        <v>6.840353631404304</v>
       </c>
       <c r="C131">
-        <v>232982062257225.2</v>
+        <v>97206204472634.06</v>
       </c>
       <c r="D131">
-        <v>2038.88592138306</v>
+        <v>6.250100676148058</v>
       </c>
       <c r="E131">
-        <v>244403861136692.9</v>
+        <v>111317181950248</v>
       </c>
       <c r="F131">
-        <v>2038.926425531665</v>
+        <v>7.154212305927921</v>
       </c>
       <c r="G131">
-        <v>1533304165989485</v>
+        <v>291164421684329.6</v>
       </c>
       <c r="H131">
-        <v>2701.732742592966</v>
+        <v>18.60743545843909</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132">
-        <v>240802293816186.7</v>
+        <v>102914992636384.1</v>
       </c>
       <c r="B132">
-        <v>1836.168981923061</v>
+        <v>6.784473458183195</v>
       </c>
       <c r="C132">
-        <v>226025439133246.9</v>
+        <v>94009824864117.88</v>
       </c>
       <c r="D132">
-        <v>1842.405099025915</v>
+        <v>6.199801794650141</v>
       </c>
       <c r="E132">
-        <v>237106334627786.6</v>
+        <v>107656860062977.9</v>
       </c>
       <c r="F132">
-        <v>1842.440467427536</v>
+        <v>7.095664276168816</v>
       </c>
       <c r="G132">
-        <v>1498534516100728</v>
+        <v>281605519259782.5</v>
       </c>
       <c r="H132">
-        <v>2425.834758192679</v>
+        <v>18.4240772297462</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133">
-        <v>232345131726101.8</v>
+        <v>99901593558934.97</v>
       </c>
       <c r="B133">
-        <v>1774.948348220932</v>
+        <v>6.721548554922884</v>
       </c>
       <c r="C133">
-        <v>218113300095508.9</v>
+        <v>91259668363435.52</v>
       </c>
       <c r="D133">
-        <v>1780.820378928296</v>
+        <v>6.142718645884005</v>
       </c>
       <c r="E133">
-        <v>228806457440381.5</v>
+        <v>104507525517846.1</v>
       </c>
       <c r="F133">
-        <v>1780.853657975723</v>
+        <v>7.029897052979322</v>
       </c>
       <c r="G133">
-        <v>1458434110336261</v>
+        <v>273380234721964.3</v>
       </c>
       <c r="H133">
-        <v>2333.913855815734</v>
+        <v>18.23975891460625</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134">
-        <v>224936913849818</v>
+        <v>95847317670645.97</v>
       </c>
       <c r="B134">
-        <v>1830.799988893911</v>
+        <v>6.610339097607056</v>
       </c>
       <c r="C134">
-        <v>211180970659966.9</v>
+        <v>87559326219214.95</v>
       </c>
       <c r="D134">
-        <v>1836.640164906875</v>
+        <v>6.041749261450631</v>
       </c>
       <c r="E134">
-        <v>221534396688036.9</v>
+        <v>100270083480608.8</v>
       </c>
       <c r="F134">
-        <v>1836.673237206563</v>
+        <v>6.913580224124793</v>
       </c>
       <c r="G134">
-        <v>1422798124317333</v>
+        <v>262311882418581.6</v>
       </c>
       <c r="H134">
-        <v>2390.748119430996</v>
+        <v>17.91392916126599</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135">
-        <v>217454180161770.2</v>
+        <v>91818977619826.55</v>
       </c>
       <c r="B135">
-        <v>1878.196166914013</v>
+        <v>6.536240466830448</v>
       </c>
       <c r="C135">
-        <v>204177454559164.6</v>
+        <v>83882386298708.09</v>
       </c>
       <c r="D135">
-        <v>1884.019200120175</v>
+        <v>5.973328811986478</v>
       </c>
       <c r="E135">
-        <v>214187651909449.5</v>
+        <v>96059434923541.28</v>
       </c>
       <c r="F135">
-        <v>1884.05215236188</v>
+        <v>6.836876304486764</v>
       </c>
       <c r="G135">
-        <v>1386304749963365</v>
+        <v>251312151990888.7</v>
       </c>
       <c r="H135">
-        <v>2440.021938828894</v>
+        <v>17.76813417634706</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136">
-        <v>210904595447789.7</v>
+        <v>90416201472788.59</v>
       </c>
       <c r="B136">
-        <v>2019.420865681671</v>
+        <v>6.598188291848434</v>
       </c>
       <c r="C136">
-        <v>198046121773611.5</v>
+        <v>82601914052030.91</v>
       </c>
       <c r="D136">
-        <v>2025.484144543433</v>
+        <v>6.029715172264431</v>
       </c>
       <c r="E136">
-        <v>207755827247227.1</v>
+        <v>94593100551300.72</v>
       </c>
       <c r="F136">
-        <v>2025.518432924113</v>
+        <v>6.901940577526394</v>
       </c>
       <c r="G136">
-        <v>1353938032110047</v>
+        <v>247481239328625.1</v>
       </c>
       <c r="H136">
-        <v>2608.018999616165</v>
+        <v>17.95483823310056</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137">
-        <v>204796275411616.2</v>
+        <v>87288725234756.75</v>
       </c>
       <c r="B137">
-        <v>1897.805091345683</v>
+        <v>6.501387028682811</v>
       </c>
       <c r="C137">
-        <v>192326860703061</v>
+        <v>79746995923725.75</v>
       </c>
       <c r="D137">
-        <v>1903.307240186587</v>
+        <v>5.941977978668193</v>
       </c>
       <c r="E137">
-        <v>201756263553228.4</v>
+        <v>91323785122313.72</v>
       </c>
       <c r="F137">
-        <v>1903.338334186251</v>
+        <v>6.800547256255503</v>
       </c>
       <c r="G137">
-        <v>1323384468509937</v>
+        <v>238939304509799</v>
       </c>
       <c r="H137">
-        <v>2435.148906881156</v>
+        <v>17.66012577270391</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138">
-        <v>197825639820008.3</v>
+        <v>84570365720926.64</v>
       </c>
       <c r="B138">
-        <v>1818.828494767025</v>
+        <v>6.468749280609329</v>
       </c>
       <c r="C138">
-        <v>185799010521659.4</v>
+        <v>77265408620108.11</v>
       </c>
       <c r="D138">
-        <v>1823.966645915589</v>
+        <v>5.912588965047624</v>
       </c>
       <c r="E138">
-        <v>194908474412763.3</v>
+        <v>88481987555505.02</v>
       </c>
       <c r="F138">
-        <v>1823.995664815553</v>
+        <v>6.766398931088274</v>
       </c>
       <c r="G138">
-        <v>1288071752996614</v>
+        <v>231513704788502.4</v>
       </c>
       <c r="H138">
-        <v>2323.37489781888</v>
+        <v>17.55526642476614</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139">
-        <v>191613906862207.6</v>
+        <v>80862883899093.7</v>
       </c>
       <c r="B139">
-        <v>2007.116529947117</v>
+        <v>6.358150706638321</v>
       </c>
       <c r="C139">
-        <v>179980779635377.2</v>
+        <v>73880655412226.16</v>
       </c>
       <c r="D139">
-        <v>2012.61547306519</v>
+        <v>5.811787832605683</v>
       </c>
       <c r="E139">
-        <v>188805077563860.5</v>
+        <v>84605922630672.81</v>
       </c>
       <c r="F139">
-        <v>2012.646510159054</v>
+        <v>6.65088103046608</v>
       </c>
       <c r="G139">
-        <v>1256191568814866</v>
+        <v>221384571545748.1</v>
       </c>
       <c r="H139">
-        <v>2550.083171847118</v>
+        <v>17.25113907463561</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140">
-        <v>186255008436532.3</v>
+        <v>78088010147013.86</v>
       </c>
       <c r="B140">
-        <v>1989.82687540532</v>
+        <v>6.293759311481835</v>
       </c>
       <c r="C140">
-        <v>174960541482868.9</v>
+        <v>71347179698006.02</v>
       </c>
       <c r="D140">
-        <v>1995.088112508816</v>
+        <v>5.752775232546247</v>
       </c>
       <c r="E140">
-        <v>183538780189145.5</v>
+        <v>81704698781405.72</v>
       </c>
       <c r="F140">
-        <v>1995.117789507563</v>
+        <v>6.583870087172649</v>
       </c>
       <c r="G140">
-        <v>1228367654000470</v>
+        <v>213802188668564.1</v>
       </c>
       <c r="H140">
-        <v>2512.132081621919</v>
+        <v>17.0950184187496</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141">
-        <v>180269147525840.9</v>
+        <v>75259205952694.2</v>
       </c>
       <c r="B141">
-        <v>1839.622365840036</v>
+        <v>6.217723547233626</v>
       </c>
       <c r="C141">
-        <v>169352067301936.3</v>
+        <v>68764333872667.74</v>
       </c>
       <c r="D141">
-        <v>1844.351315265219</v>
+        <v>5.682967636948577</v>
       </c>
       <c r="E141">
-        <v>177655409972347</v>
+        <v>78746935771924.78</v>
       </c>
       <c r="F141">
-        <v>1844.377974484942</v>
+        <v>6.50476980988392</v>
       </c>
       <c r="G141">
-        <v>1196927901608030</v>
+        <v>206071374666221.2</v>
       </c>
       <c r="H141">
-        <v>2311.4051347273</v>
+        <v>16.91627433679703</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142">
-        <v>174378320543495.7</v>
+        <v>73702989109449.11</v>
       </c>
       <c r="B142">
-        <v>1792.272059735988</v>
+        <v>6.247427118688422</v>
       </c>
       <c r="C142">
-        <v>163831712399651.1</v>
+        <v>67343370163523.85</v>
       </c>
       <c r="D142">
-        <v>1796.728918405014</v>
+        <v>5.70980305238327</v>
       </c>
       <c r="E142">
-        <v>171864472652122.7</v>
+        <v>77119708602533.98</v>
       </c>
       <c r="F142">
-        <v>1796.754028415169</v>
+        <v>6.536174027568902</v>
       </c>
       <c r="G142">
-        <v>1165605977349610</v>
+        <v>201817944628010.4</v>
       </c>
       <c r="H142">
-        <v>2239.236572830274</v>
+        <v>17.0209525257239</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143">
-        <v>168477046915298.2</v>
+        <v>71897854699517.91</v>
       </c>
       <c r="B143">
-        <v>1641.705137142339</v>
+        <v>6.224997046251122</v>
       </c>
       <c r="C143">
-        <v>158300648615769.5</v>
+        <v>65695072412233.75</v>
       </c>
       <c r="D143">
-        <v>1645.637366614322</v>
+        <v>5.68984222781096</v>
       </c>
       <c r="E143">
-        <v>166062296081398.8</v>
+        <v>75232147128028.38</v>
       </c>
       <c r="F143">
-        <v>1645.659506707039</v>
+        <v>6.512546601921094</v>
       </c>
       <c r="G143">
-        <v>1133838790716896</v>
+        <v>196883768576086.7</v>
       </c>
       <c r="H143">
-        <v>2038.192614455211</v>
+        <v>16.93421194356524</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144">
-        <v>161940387796524</v>
+        <v>69394414998685.05</v>
       </c>
       <c r="B144">
-        <v>1526.037676495357</v>
+        <v>6.148398786490995</v>
       </c>
       <c r="C144">
-        <v>152172984297417.9</v>
+        <v>63409051301013.43</v>
       </c>
       <c r="D144">
-        <v>1529.571249000666</v>
+        <v>5.619972296532134</v>
       </c>
       <c r="E144">
-        <v>159634269379187.3</v>
+        <v>72614289761336.03</v>
       </c>
       <c r="F144">
-        <v>1529.591131935576</v>
+        <v>6.432548345387475</v>
       </c>
       <c r="G144">
-        <v>1098182878835626</v>
+        <v>190040111002829.2</v>
       </c>
       <c r="H144">
-        <v>1884.22250732624</v>
+        <v>16.7259002793774</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145">
-        <v>155615519770035.5</v>
+        <v>67651049406503.07</v>
       </c>
       <c r="B145">
-        <v>1518.867037049819</v>
+        <v>6.137887397310931</v>
       </c>
       <c r="C145">
-        <v>146242782263419.5</v>
+        <v>61817032068635.59</v>
       </c>
       <c r="D145">
-        <v>1522.249550616855</v>
+        <v>5.610398586647854</v>
       </c>
       <c r="E145">
-        <v>153413377658163.3</v>
+        <v>70791173543882.88</v>
       </c>
       <c r="F145">
-        <v>1522.268571086773</v>
+        <v>6.421685906988663</v>
       </c>
       <c r="G145">
-        <v>1063199699846599</v>
+        <v>185273771305362.3</v>
       </c>
       <c r="H145">
-        <v>1863.631595616859</v>
+        <v>16.70117293715431</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146">
-        <v>149522841996884.9</v>
+        <v>65365782420949.23</v>
       </c>
       <c r="B146">
-        <v>1633.09383391425</v>
+        <v>6.048695621622898</v>
       </c>
       <c r="C146">
-        <v>140529278964646.4</v>
+        <v>59730079086987.62</v>
       </c>
       <c r="D146">
-        <v>1636.61068112736</v>
+        <v>5.529377966836016</v>
       </c>
       <c r="E146">
-        <v>147419800969782.4</v>
+        <v>68401277587914.64</v>
       </c>
       <c r="F146">
-        <v>1636.630445277541</v>
+        <v>6.328266106811694</v>
       </c>
       <c r="G146">
-        <v>1029038417062989</v>
+        <v>179025260489674.3</v>
       </c>
       <c r="H146">
-        <v>1993.337261629768</v>
+        <v>16.43625342596929</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147">
-        <v>144518687442534.3</v>
+        <v>62839490879400.92</v>
       </c>
       <c r="B147">
-        <v>1843.686042030324</v>
+        <v>5.975268234757583</v>
       </c>
       <c r="C147">
-        <v>135835818159541.8</v>
+        <v>57422916747025.42</v>
       </c>
       <c r="D147">
-        <v>1847.511366742146</v>
+        <v>5.462103384651746</v>
       </c>
       <c r="E147">
-        <v>142496264433798.5</v>
+        <v>65759204517387.61</v>
       </c>
       <c r="F147">
-        <v>1847.532852553084</v>
+        <v>6.251756711096319</v>
       </c>
       <c r="G147">
-        <v>1000631534113288</v>
+        <v>172116908100486.8</v>
       </c>
       <c r="H147">
-        <v>2237.350659816329</v>
+        <v>16.25400695560691</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148">
-        <v>140022490788093.1</v>
+        <v>61280970524406.72</v>
       </c>
       <c r="B148">
-        <v>1862.799480272325</v>
+        <v>6.011374940146796</v>
       </c>
       <c r="C148">
-        <v>131618210022230.4</v>
+        <v>55999528851690.02</v>
       </c>
       <c r="D148">
-        <v>1866.529896258991</v>
+        <v>5.495069709189718</v>
       </c>
       <c r="E148">
-        <v>138071903731846.7</v>
+        <v>64129194670600.14</v>
       </c>
       <c r="F148">
-        <v>1866.55083841824</v>
+        <v>6.289694158780891</v>
       </c>
       <c r="G148">
-        <v>974832992713241.8</v>
+        <v>167854577185842.9</v>
       </c>
       <c r="H148">
-        <v>2248.293982254067</v>
+        <v>16.35971965467504</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149">
-        <v>135408353204607.7</v>
+        <v>59123000856934.2</v>
       </c>
       <c r="B149">
-        <v>1695.538309273202</v>
+        <v>5.963450826257197</v>
       </c>
       <c r="C149">
-        <v>127289409614644.4</v>
+        <v>54028600767417.94</v>
       </c>
       <c r="D149">
-        <v>1698.815395314094</v>
+        <v>5.450799056865433</v>
       </c>
       <c r="E149">
-        <v>133530896661399.2</v>
+        <v>61872161192691.87</v>
       </c>
       <c r="F149">
-        <v>1698.833783289184</v>
+        <v>6.24002027477337</v>
       </c>
       <c r="G149">
-        <v>948080684602767.1</v>
+        <v>161952297848657.3</v>
       </c>
       <c r="H149">
-        <v>2035.566721771584</v>
+        <v>16.26392110019672</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150">
-        <v>130343268373216.9</v>
+        <v>58831962173583.74</v>
       </c>
       <c r="B150">
-        <v>1653.657598354476</v>
+        <v>6.052865665726318</v>
       </c>
       <c r="C150">
-        <v>122536895779465</v>
+        <v>53762781892936.21</v>
       </c>
       <c r="D150">
-        <v>1656.75966307425</v>
+        <v>5.532703007975006</v>
       </c>
       <c r="E150">
-        <v>128545401001233.9</v>
+        <v>61567755190679.19</v>
       </c>
       <c r="F150">
-        <v>1656.777060630762</v>
+        <v>6.333500174415676</v>
       </c>
       <c r="G150">
-        <v>918383170781661.9</v>
+        <v>161156227719480.1</v>
       </c>
       <c r="H150">
-        <v>1976.781386460914</v>
+        <v>16.49827487430146</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151">
-        <v>125855224344949.1</v>
+        <v>56402249254133.02</v>
       </c>
       <c r="B151">
-        <v>1677.957991958971</v>
+        <v>5.94781587814517</v>
       </c>
       <c r="C151">
-        <v>118325241727485.1</v>
+        <v>51543559690486.89</v>
       </c>
       <c r="D151">
-        <v>1680.982705481156</v>
+        <v>5.437399873214298</v>
       </c>
       <c r="E151">
-        <v>124127276239821.1</v>
+        <v>59026382388223.23</v>
       </c>
       <c r="F151">
-        <v>1680.999660535393</v>
+        <v>6.223355551612189</v>
       </c>
       <c r="G151">
-        <v>891772970931901.8</v>
+        <v>154509855324942.7</v>
       </c>
       <c r="H151">
-        <v>1994.330431398887</v>
+        <v>16.17736945657231</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152">
-        <v>121252663445259.4</v>
+        <v>55000223853891.2</v>
       </c>
       <c r="B152">
-        <v>1588.475695179745</v>
+        <v>5.986349554933269</v>
       </c>
       <c r="C152">
-        <v>114005565117579.2</v>
+        <v>50262949903075.77</v>
       </c>
       <c r="D152">
-        <v>1591.237222652985</v>
+        <v>5.471680933591837</v>
       </c>
       <c r="E152">
-        <v>119595829961181</v>
+        <v>57559873575107.48</v>
       </c>
       <c r="F152">
-        <v>1591.252694912283</v>
+        <v>6.264371741224783</v>
       </c>
       <c r="G152">
-        <v>864188097399998.6</v>
+        <v>150674314843142.6</v>
       </c>
       <c r="H152">
-        <v>1878.438309129265</v>
+        <v>16.34303695602786</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153">
-        <v>116603699216701.8</v>
+        <v>54609969642049.88</v>
       </c>
       <c r="B153">
-        <v>1593.477218917501</v>
+        <v>6.034581960189892</v>
       </c>
       <c r="C153">
-        <v>109641763050928.3</v>
+        <v>49906485964321.84</v>
       </c>
       <c r="D153">
-        <v>1596.153348909721</v>
+        <v>5.515807842281437</v>
       </c>
       <c r="E153">
-        <v>115018091609598.6</v>
+        <v>57151663622557.85</v>
       </c>
       <c r="F153">
-        <v>1596.168335654518</v>
+        <v>6.3148532954836</v>
       </c>
       <c r="G153">
-        <v>836014100972828.9</v>
+        <v>149606643814374.4</v>
       </c>
       <c r="H153">
-        <v>1875.528774997806</v>
+        <v>16.473557901318</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154">
-        <v>112383777102055.3</v>
+        <v>53194340682785.31</v>
       </c>
       <c r="B154">
-        <v>1514.952165381908</v>
+        <v>5.920219477440148</v>
       </c>
       <c r="C154">
-        <v>105680186048676.1</v>
+        <v>48613408441544.48</v>
       </c>
       <c r="D154">
-        <v>1517.384626560157</v>
+        <v>5.412049977483679</v>
       </c>
       <c r="E154">
-        <v>110862294536568.6</v>
+        <v>55670876333000.5</v>
       </c>
       <c r="F154">
-        <v>1517.398241873019</v>
+        <v>6.194831745046029</v>
       </c>
       <c r="G154">
-        <v>810163381603235.8</v>
+        <v>145733544663889.7</v>
       </c>
       <c r="H154">
-        <v>1772.338649572762</v>
+        <v>16.12003225001708</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155">
-        <v>107612713167095.9</v>
+        <v>51499547017399.29</v>
       </c>
       <c r="B155">
-        <v>1677.411676616474</v>
+        <v>5.860242446357956</v>
       </c>
       <c r="C155">
-        <v>101200634595491.4</v>
+        <v>47065289861680.6</v>
       </c>
       <c r="D155">
-        <v>1680.04696325518</v>
+        <v>5.357066490253922</v>
       </c>
       <c r="E155">
-        <v>106163125439843</v>
+        <v>53898024018700.91</v>
       </c>
       <c r="F155">
-        <v>1680.061708115016</v>
+        <v>6.132312498351585</v>
       </c>
       <c r="G155">
-        <v>780611708278869.5</v>
+        <v>141096307768380.1</v>
       </c>
       <c r="H155">
-        <v>1957.12995895432</v>
+        <v>15.97145249559128</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156">
-        <v>104608309089241.5</v>
+        <v>50590149837264.83</v>
       </c>
       <c r="B156">
-        <v>1895.276025463024</v>
+        <v>5.910599732448662</v>
       </c>
       <c r="C156">
-        <v>98379487210348.2</v>
+        <v>46234576368564.26</v>
       </c>
       <c r="D156">
-        <v>1898.106502452308</v>
+        <v>5.402780972137567</v>
       </c>
       <c r="E156">
-        <v>103203664653416.7</v>
+        <v>52946719006586.27</v>
       </c>
       <c r="F156">
-        <v>1898.12233222649</v>
+        <v>6.185280711688538</v>
       </c>
       <c r="G156">
-        <v>761822116062572.8</v>
+        <v>138607886444100.9</v>
       </c>
       <c r="H156">
-        <v>2196.791640383176</v>
+        <v>16.1306968795333</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157">
-        <v>100923171965033.4</v>
+        <v>49612213752748.98</v>
       </c>
       <c r="B157">
-        <v>1640.856263923969</v>
+        <v>5.886839932340307</v>
       </c>
       <c r="C157">
-        <v>94918798547572.41</v>
+        <v>45341238844652.12</v>
       </c>
       <c r="D157">
-        <v>1643.234838940957</v>
+        <v>5.381039506368377</v>
       </c>
       <c r="E157">
-        <v>99573305624951.55</v>
+        <v>51923698756311.08</v>
       </c>
       <c r="F157">
-        <v>1643.248136563809</v>
+        <v>6.160515343763135</v>
       </c>
       <c r="G157">
-        <v>738580939966823.8</v>
+        <v>135931794840999.6</v>
       </c>
       <c r="H157">
-        <v>1894.939389897807</v>
+        <v>16.07045668153576</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158">
-        <v>97153732651869.34</v>
+        <v>48856692838245.55</v>
       </c>
       <c r="B158">
-        <v>1569.371243850767</v>
+        <v>5.908531479909654</v>
       </c>
       <c r="C158">
-        <v>91378565545749.09</v>
+        <v>44651065100888.09</v>
       </c>
       <c r="D158">
-        <v>1571.564767785378</v>
+        <v>5.401110418804845</v>
       </c>
       <c r="E158">
-        <v>95859500145809.2</v>
+        <v>51133334647756.09</v>
       </c>
       <c r="F158">
-        <v>1571.57702595728</v>
+        <v>6.183132325534259</v>
       </c>
       <c r="G158">
-        <v>714582605183648.9</v>
+        <v>133864247118336.2</v>
       </c>
       <c r="H158">
-        <v>1804.410176208649</v>
+        <v>16.11765501862928</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159">
-        <v>93420146505923.88</v>
+        <v>47555127928431.8</v>
       </c>
       <c r="B159">
-        <v>1649.568625531762</v>
+        <v>5.954655319109983</v>
       </c>
       <c r="C159">
-        <v>87871629782296.75</v>
+        <v>43462054059117.2</v>
       </c>
       <c r="D159">
-        <v>1651.799990208655</v>
+        <v>5.444176666820753</v>
       </c>
       <c r="E159">
-        <v>92180622208371.78</v>
+        <v>49771718133183.61</v>
       </c>
       <c r="F159">
-        <v>1651.812455182543</v>
+        <v>6.230961614931591</v>
       </c>
       <c r="G159">
-        <v>690583310109606.6</v>
+        <v>130302222680189.1</v>
       </c>
       <c r="H159">
-        <v>1889.356901119685</v>
+        <v>16.19405796712848</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160">
-        <v>90289803754780.86</v>
+        <v>45480132917155.27</v>
       </c>
       <c r="B160">
-        <v>1583.121447830195</v>
+        <v>5.876251018773816</v>
       </c>
       <c r="C160">
-        <v>84931028560191.25</v>
+        <v>41566437769274.27</v>
       </c>
       <c r="D160">
-        <v>1585.163905119751</v>
+        <v>5.37177595312002</v>
       </c>
       <c r="E160">
-        <v>89095844031822.56</v>
+        <v>47600919228404.87</v>
       </c>
       <c r="F160">
-        <v>1585.175310160988</v>
+        <v>6.149537321924369</v>
       </c>
       <c r="G160">
-        <v>670282506490976.1</v>
+        <v>124623060726118.8</v>
       </c>
       <c r="H160">
-        <v>1803.291204323292</v>
+        <v>16.03036014758698</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161">
-        <v>86507774602885.11</v>
+        <v>45614383242352.65</v>
       </c>
       <c r="B161">
-        <v>1371.275092710873</v>
+        <v>5.967924919939369</v>
       </c>
       <c r="C161">
-        <v>81377890788966.86</v>
+        <v>41689084613264.57</v>
       </c>
       <c r="D161">
-        <v>1372.98150096631</v>
+        <v>5.455933340716324</v>
       </c>
       <c r="E161">
-        <v>85368494724781.16</v>
+        <v>47741370500281.96</v>
       </c>
       <c r="F161">
-        <v>1372.991025906307</v>
+        <v>6.245245353412754</v>
       </c>
       <c r="G161">
-        <v>645533326173599.9</v>
+        <v>124990515008260.2</v>
       </c>
       <c r="H161">
-        <v>1555.740941050729</v>
+        <v>16.25885829592762</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162">
-        <v>82643823500634.78</v>
+        <v>42992663586334.04</v>
       </c>
       <c r="B162">
-        <v>1382.749137208908</v>
+        <v>5.746555528215455</v>
       </c>
       <c r="C162">
-        <v>77747391812950.91</v>
+        <v>39293910474360.57</v>
       </c>
       <c r="D162">
-        <v>1384.404828400312</v>
+        <v>5.255067506345455</v>
       </c>
       <c r="E162">
-        <v>81559988832904.81</v>
+        <v>44998492006675.3</v>
       </c>
       <c r="F162">
-        <v>1384.414066632705</v>
+        <v>6.012885664135825</v>
       </c>
       <c r="G162">
-        <v>619992231890759.8</v>
+        <v>117814210804968.1</v>
       </c>
       <c r="H162">
-        <v>1562.264484375163</v>
+        <v>15.57458852320459</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163">
-        <v>79263921658962.67</v>
+        <v>40949029611403.52</v>
       </c>
       <c r="B163">
-        <v>1486.976154801068</v>
+        <v>5.698402418374325</v>
       </c>
       <c r="C163">
-        <v>74571367368633.25</v>
+        <v>37426789905759.61</v>
       </c>
       <c r="D163">
-        <v>1488.680961449915</v>
+        <v>5.210387522444877</v>
       </c>
       <c r="E163">
-        <v>78228238868676.33</v>
+        <v>42860322314844.09</v>
       </c>
       <c r="F163">
-        <v>1488.690470112151</v>
+        <v>5.96306610890916</v>
       </c>
       <c r="G163">
-        <v>597434518797066.5</v>
+        <v>112219628832004.6</v>
       </c>
       <c r="H163">
-        <v>1672.35248343947</v>
+        <v>15.48864308098003</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164">
-        <v>76183203890798.81</v>
+        <v>39665829373158.3</v>
       </c>
       <c r="B164">
-        <v>1444.344608134997</v>
+        <v>5.672308322695085</v>
       </c>
       <c r="C164">
-        <v>71676212051052.39</v>
+        <v>36254387215170.64</v>
       </c>
       <c r="D164">
-        <v>1445.925972541137</v>
+        <v>5.185557333999439</v>
       </c>
       <c r="E164">
-        <v>75191127917062.92</v>
+        <v>41517721680262.33</v>
       </c>
       <c r="F164">
-        <v>1445.934789465709</v>
+        <v>5.936462200534965</v>
       </c>
       <c r="G164">
-        <v>576694503454178.5</v>
+        <v>108706495979287.8</v>
       </c>
       <c r="H164">
-        <v>1616.768644779013</v>
+        <v>15.47959509033099</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165">
-        <v>72871122973967.78</v>
+        <v>39282300308071.66</v>
       </c>
       <c r="B165">
-        <v>1236.740498643795</v>
+        <v>5.710119840248876</v>
       </c>
       <c r="C165">
-        <v>68563344091120.38</v>
+        <v>35903968548442.3</v>
       </c>
       <c r="D165">
-        <v>1238.030920317066</v>
+        <v>5.220412559197955</v>
       </c>
       <c r="E165">
-        <v>71925627734383.42</v>
+        <v>41116432553214.83</v>
       </c>
       <c r="F165">
-        <v>1238.038112368182</v>
+        <v>5.975889233434009</v>
       </c>
       <c r="G165">
-        <v>554202993962416.8</v>
+        <v>107656430775183.5</v>
       </c>
       <c r="H165">
-        <v>1377.828905194531</v>
+        <v>15.56675273582882</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166">
-        <v>69041867358090.47</v>
+        <v>37623176673875.01</v>
       </c>
       <c r="B166">
-        <v>1239.027088049363</v>
+        <v>5.634088995735986</v>
       </c>
       <c r="C166">
-        <v>64964039384383</v>
+        <v>34388050370402.87</v>
       </c>
       <c r="D166">
-        <v>1240.277326854104</v>
+        <v>5.151550544073497</v>
       </c>
       <c r="E166">
-        <v>68149837350706.93</v>
+        <v>39380447165342.42</v>
       </c>
       <c r="F166">
-        <v>1240.284292554732</v>
+        <v>5.896059229994924</v>
       </c>
       <c r="G166">
-        <v>527944326552670.4</v>
+        <v>103113683193417</v>
       </c>
       <c r="H166">
-        <v>1376.07260681414</v>
+        <v>15.32608926261382</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167">
-        <v>66117538323147.64</v>
+        <v>36462912064386.89</v>
       </c>
       <c r="B167">
-        <v>1437.757950582026</v>
+        <v>5.661590719227807</v>
       </c>
       <c r="C167">
-        <v>62215052944527.97</v>
+        <v>33327905584995.72</v>
       </c>
       <c r="D167">
-        <v>1439.13551095879</v>
+        <v>5.176113117235998</v>
       </c>
       <c r="E167">
-        <v>65266057556410.55</v>
+        <v>38166399646314.55</v>
       </c>
       <c r="F167">
-        <v>1439.143183276495</v>
+        <v>5.925294856863468</v>
       </c>
       <c r="G167">
-        <v>507703374639040.6</v>
+        <v>99936610954061.91</v>
       </c>
       <c r="H167">
-        <v>1589.168198772713</v>
+        <v>15.43936229518601</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168">
-        <v>63468296617951.95</v>
+        <v>35801456011056.46</v>
       </c>
       <c r="B168">
-        <v>1334.736312017892</v>
+        <v>5.682682083157863</v>
       </c>
       <c r="C168">
-        <v>59724460234638.34</v>
+        <v>32723516907361.17</v>
       </c>
       <c r="D168">
-        <v>1335.950299157468</v>
+        <v>5.1950176902842</v>
       </c>
       <c r="E168">
-        <v>62653340360165.85</v>
+        <v>37474270794848.47</v>
       </c>
       <c r="F168">
-        <v>1335.957058202648</v>
+        <v>5.947656494946197</v>
       </c>
       <c r="G168">
-        <v>489223661833999.9</v>
+        <v>98125310288324.34</v>
       </c>
       <c r="H168">
-        <v>1468.490604258147</v>
+        <v>15.52163572628269</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169">
-        <v>60354334399770.23</v>
+        <v>35242206091626.64</v>
       </c>
       <c r="B169">
-        <v>1301.820218120977</v>
+        <v>5.734689767042751</v>
       </c>
       <c r="C169">
-        <v>56796734175481.46</v>
+        <v>32212510822094.92</v>
       </c>
       <c r="D169">
-        <v>1302.966258343408</v>
+        <v>5.24298108054541</v>
       </c>
       <c r="E169">
-        <v>59582053864055.12</v>
+        <v>36889080935373.3</v>
       </c>
       <c r="F169">
-        <v>1302.972637263036</v>
+        <v>6.001878577636211</v>
       </c>
       <c r="G169">
-        <v>467325923368771.7</v>
+        <v>96593840076803.25</v>
       </c>
       <c r="H169">
-        <v>1428.351425829022</v>
+        <v>15.64039934050703</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170">
-        <v>57849283157083.73</v>
+        <v>34090504858740.7</v>
       </c>
       <c r="B170">
-        <v>1585.540861248493</v>
+        <v>5.720578238134808</v>
       </c>
       <c r="C170">
-        <v>54441311773971.07</v>
+        <v>31160145023197.2</v>
       </c>
       <c r="D170">
-        <v>1586.879225984785</v>
+        <v>5.23086735359743</v>
       </c>
       <c r="E170">
-        <v>57111132702227.37</v>
+        <v>35683940754746.83</v>
       </c>
       <c r="F170">
-        <v>1586.886673300553</v>
+        <v>5.98672149424732</v>
       </c>
       <c r="G170">
-        <v>449569623697396.9</v>
+        <v>93439846690775.56</v>
       </c>
       <c r="H170">
-        <v>1733.617104294327</v>
+        <v>15.55860229340671</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171">
-        <v>55932289348772.57</v>
+        <v>32637801144724.68</v>
       </c>
       <c r="B171">
-        <v>1667.868980711697</v>
+        <v>5.641805555215424</v>
       </c>
       <c r="C171">
-        <v>52638706974066.41</v>
+        <v>29832707106255.5</v>
       </c>
       <c r="D171">
-        <v>1669.211292416378</v>
+        <v>5.158927973644825</v>
       </c>
       <c r="E171">
-        <v>55220136028351.62</v>
+        <v>34163794953246.64</v>
       </c>
       <c r="F171">
-        <v>1669.218759762012</v>
+        <v>5.904349076932358</v>
       </c>
       <c r="G171">
-        <v>435895777544095.4</v>
+        <v>89461286926639.09</v>
       </c>
       <c r="H171">
-        <v>1816.66141824106</v>
+        <v>15.34357433450441</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172">
-        <v>53784819132950.01</v>
+        <v>31534015137382.17</v>
       </c>
       <c r="B172">
-        <v>1473.570643290246</v>
+        <v>5.605406334756917</v>
       </c>
       <c r="C172">
-        <v>50619260416996.75</v>
+        <v>28824076492709.7</v>
       </c>
       <c r="D172">
-        <v>1474.713297666871</v>
+        <v>5.125782860163618</v>
       </c>
       <c r="E172">
-        <v>53101663932783.12</v>
+        <v>33008738123473.43</v>
       </c>
       <c r="F172">
-        <v>1474.719652830374</v>
+        <v>5.866260992065126</v>
       </c>
       <c r="G172">
-        <v>420488492944096.4</v>
+        <v>86438127117968.16</v>
       </c>
       <c r="H172">
-        <v>1600.440265339602</v>
+        <v>15.23975655926335</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173">
-        <v>51508531242165.43</v>
+        <v>30042581155704.7</v>
       </c>
       <c r="B173">
-        <v>1438.945702142137</v>
+        <v>5.512761519530715</v>
       </c>
       <c r="C173">
-        <v>48478539453880.48</v>
+        <v>27461184191463.7</v>
       </c>
       <c r="D173">
-        <v>1440.0215607959</v>
+        <v>5.041111838009878</v>
       </c>
       <c r="E173">
-        <v>50855969824760.95</v>
+        <v>31447989613237.91</v>
       </c>
       <c r="F173">
-        <v>1440.027543054348</v>
+        <v>5.769397009008264</v>
       </c>
       <c r="G173">
-        <v>404052536375697.1</v>
+        <v>82352976683892.83</v>
       </c>
       <c r="H173">
-        <v>1558.599905391284</v>
+        <v>14.98968280001572</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174">
-        <v>49446341331281.16</v>
+        <v>29045982541229.91</v>
       </c>
       <c r="B174">
-        <v>1319.792728583878</v>
+        <v>5.482939940744731</v>
       </c>
       <c r="C174">
-        <v>46539044438450.65</v>
+        <v>26550458467789.71</v>
       </c>
       <c r="D174">
-        <v>1320.728382324262</v>
+        <v>5.013499095945241</v>
       </c>
       <c r="E174">
-        <v>48821368342264.4</v>
+        <v>30405049982375.56</v>
       </c>
       <c r="F174">
-        <v>1320.733583602598</v>
+        <v>5.738478721256439</v>
       </c>
       <c r="G174">
-        <v>389068519646689.8</v>
+        <v>79623050202644.81</v>
       </c>
       <c r="H174">
-        <v>1424.048394490058</v>
+        <v>14.9320533648807</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175">
-        <v>46967745072066.16</v>
+        <v>28087672916648.79</v>
       </c>
       <c r="B175">
-        <v>1181.299995920937</v>
+        <v>5.435706280906744</v>
       </c>
       <c r="C175">
-        <v>44207765643436.73</v>
+        <v>25674706966090.39</v>
       </c>
       <c r="D175">
-        <v>1182.104808209076</v>
+        <v>4.970414753851989</v>
       </c>
       <c r="E175">
-        <v>46375770398816.11</v>
+        <v>29402161609349.01</v>
       </c>
       <c r="F175">
-        <v>1182.109281045221</v>
+        <v>5.689055245294172</v>
       </c>
       <c r="G175">
-        <v>370939121997624.2</v>
+        <v>76997880005273</v>
       </c>
       <c r="H175">
-        <v>1271.130446238418</v>
+        <v>14.80004361267099</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176">
-        <v>44627505538179.7</v>
+        <v>27065836757385.92</v>
       </c>
       <c r="B176">
-        <v>1186.204763254697</v>
+        <v>5.437404233096212</v>
       </c>
       <c r="C176">
-        <v>42006467327879.52</v>
+        <v>24740884917660.55</v>
       </c>
       <c r="D176">
-        <v>1186.972672339401</v>
+        <v>4.971616325379207</v>
       </c>
       <c r="E176">
-        <v>44066525907251.4</v>
+        <v>28332771975804.28</v>
       </c>
       <c r="F176">
-        <v>1186.976938958072</v>
+        <v>5.691131296424364</v>
       </c>
       <c r="G176">
-        <v>353700142058730.1</v>
+        <v>74198550016088.52</v>
       </c>
       <c r="H176">
-        <v>1272.076972790514</v>
+        <v>14.82877990567006</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177">
-        <v>42407947439500.06</v>
+        <v>26630432196035.97</v>
       </c>
       <c r="B177">
-        <v>1149.840956400257</v>
+        <v>5.518792821736371</v>
       </c>
       <c r="C177">
-        <v>39918548242917.47</v>
+        <v>24342977913576.36</v>
       </c>
       <c r="D177">
-        <v>1150.546067482573</v>
+        <v>5.045433115596754</v>
       </c>
       <c r="E177">
-        <v>41876219679113.77</v>
+        <v>27877098727145.8</v>
       </c>
       <c r="F177">
-        <v>1150.549984177868</v>
+        <v>5.776724113789152</v>
       </c>
       <c r="G177">
-        <v>337239543957563.5</v>
+        <v>73005712148909</v>
       </c>
       <c r="H177">
-        <v>1228.833617014871</v>
+        <v>15.08812171235982</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178">
-        <v>40157458440745.95</v>
+        <v>26324552485822.12</v>
       </c>
       <c r="B178">
-        <v>1167.063409276626</v>
+        <v>5.569146229178754</v>
       </c>
       <c r="C178">
-        <v>37801396202281.24</v>
+        <v>24063439043325.27</v>
       </c>
       <c r="D178">
-        <v>1167.747344330847</v>
+        <v>5.090796243122565</v>
       </c>
       <c r="E178">
-        <v>39655246175901.65</v>
+        <v>27556977695759.34</v>
       </c>
       <c r="F178">
-        <v>1167.751142514299</v>
+        <v>5.829871672893415</v>
       </c>
       <c r="G178">
-        <v>320438167319669.8</v>
+        <v>72167706288647.52</v>
       </c>
       <c r="H178">
-        <v>1243.8104376874</v>
+        <v>15.26731036544359</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179">
-        <v>38237579382090.77</v>
+        <v>26625551799424.21</v>
       </c>
       <c r="B179">
-        <v>1337.595283151097</v>
+        <v>5.795290703396599</v>
       </c>
       <c r="C179">
-        <v>35995157415304.97</v>
+        <v>24338517804660.51</v>
       </c>
       <c r="D179">
-        <v>1338.343010682821</v>
+        <v>5.298164229494536</v>
       </c>
       <c r="E179">
-        <v>37760431938439.01</v>
+        <v>27871991120483.38</v>
       </c>
       <c r="F179">
-        <v>1338.347162241709</v>
+        <v>6.066176392656057</v>
       </c>
       <c r="G179">
-        <v>306015247471232.9</v>
+        <v>72992341629540.33</v>
       </c>
       <c r="H179">
-        <v>1421.630704444413</v>
+        <v>15.84712911869045</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180">
-        <v>36692737325558.01</v>
+        <v>25668924413785.24</v>
       </c>
       <c r="B180">
-        <v>1400.052882940042</v>
+        <v>5.810727178821025</v>
       </c>
       <c r="C180">
-        <v>34541683973120.23</v>
+        <v>23464265164796.47</v>
       </c>
       <c r="D180">
-        <v>1400.795005253728</v>
+        <v>5.312973499660708</v>
       </c>
       <c r="E180">
-        <v>36235681745942.28</v>
+        <v>26870818415297.76</v>
       </c>
       <c r="F180">
-        <v>1400.799124865727</v>
+        <v>6.081985464142872</v>
       </c>
       <c r="G180">
-        <v>294349079712344.8</v>
+        <v>70371466846063.52</v>
       </c>
       <c r="H180">
-        <v>1483.575939707921</v>
+        <v>15.85059464303386</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181">
-        <v>35061156678314.89</v>
+        <v>25381949948813.19</v>
       </c>
       <c r="B181">
-        <v>1336.614527017143</v>
+        <v>5.905568473118845</v>
       </c>
       <c r="C181">
-        <v>33006531612214.06</v>
+        <v>23201998974853.61</v>
       </c>
       <c r="D181">
-        <v>1337.294868792304</v>
+        <v>5.39899064917164</v>
       </c>
       <c r="E181">
-        <v>34625246779018.55</v>
+        <v>26570477538780.05</v>
       </c>
       <c r="F181">
-        <v>1337.298644794949</v>
+        <v>6.181712404205022</v>
       </c>
       <c r="G181">
-        <v>281968545508568.6</v>
+        <v>69585217960157.15</v>
       </c>
       <c r="H181">
-        <v>1413.276822178454</v>
+        <v>16.1523449829002</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182">
-        <v>33513501948777.4</v>
+        <v>25103020042528.4</v>
       </c>
       <c r="B182">
-        <v>1387.860665289552</v>
+        <v>5.943720878371208</v>
       </c>
       <c r="C182">
-        <v>31550278169691.8</v>
+        <v>22947083402157.61</v>
       </c>
       <c r="D182">
-        <v>1388.537804081102</v>
+        <v>5.434007746692961</v>
       </c>
       <c r="E182">
-        <v>33097579478396.4</v>
+        <v>26278554383800.81</v>
       </c>
       <c r="F182">
-        <v>1388.541561666771</v>
+        <v>6.221588223144851</v>
       </c>
       <c r="G182">
-        <v>270167980030145.8</v>
+        <v>68820998780486.92</v>
       </c>
       <c r="H182">
-        <v>1464.253150684088</v>
+        <v>16.24935237078742</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183">
-        <v>32134467755011.2</v>
+        <v>24716914840632.52</v>
       </c>
       <c r="B183">
-        <v>1738.449775442747</v>
+        <v>6.075800875214981</v>
       </c>
       <c r="C183">
-        <v>30252632004347.64</v>
+        <v>22594217605278.12</v>
       </c>
       <c r="D183">
-        <v>1739.272147919458</v>
+        <v>5.555153619829245</v>
       </c>
       <c r="E183">
-        <v>31736297147603.54</v>
+        <v>25874460954748.47</v>
       </c>
       <c r="F183">
-        <v>1739.276710811248</v>
+        <v>6.359634384478467</v>
       </c>
       <c r="G183">
-        <v>259606046807878.9</v>
+        <v>67763120669221.24</v>
       </c>
       <c r="H183">
-        <v>1831.319058217063</v>
+        <v>16.58814265725464</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184">
-        <v>31273174073377.37</v>
+        <v>24152661302944.29</v>
       </c>
       <c r="B184">
-        <v>1606.122247123061</v>
+        <v>6.173640694421803</v>
       </c>
       <c r="C184">
-        <v>29442144026732.67</v>
+        <v>22078535627153.89</v>
       </c>
       <c r="D184">
-        <v>1606.835222772178</v>
+        <v>5.645682424224298</v>
       </c>
       <c r="E184">
-        <v>30886062937997.6</v>
+        <v>25283914256812.78</v>
       </c>
       <c r="F184">
-        <v>1606.839178038459</v>
+        <v>6.461431337407928</v>
       </c>
       <c r="G184">
-        <v>252986783377418.6</v>
+        <v>66217103000552.8</v>
       </c>
       <c r="H184">
-        <v>1686.727047165308</v>
+        <v>16.79297367666857</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185">
-        <v>29774554800388.53</v>
+        <v>22982563548435.29</v>
       </c>
       <c r="B185">
-        <v>1242.161630660452</v>
+        <v>5.974438914585802</v>
       </c>
       <c r="C185">
-        <v>28031876692621.45</v>
+        <v>21009144302987.71</v>
       </c>
       <c r="D185">
-        <v>1242.699264866813</v>
+        <v>5.464917974219434</v>
       </c>
       <c r="E185">
-        <v>29406635984714.12</v>
+        <v>24059272479833.73</v>
       </c>
       <c r="F185">
-        <v>1242.702247038804</v>
+        <v>6.252177808114604</v>
       </c>
       <c r="G185">
-        <v>241427647287414.9</v>
+        <v>63010974725848.65</v>
       </c>
       <c r="H185">
-        <v>1302.993779160531</v>
+        <v>16.1718009072415</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186">
-        <v>28368015877588.98</v>
+        <v>21374499565855.95</v>
       </c>
       <c r="B186">
-        <v>1215.666066939157</v>
+        <v>5.683311077858959</v>
       </c>
       <c r="C186">
-        <v>26708205453501.24</v>
+        <v>19539443932850.04</v>
       </c>
       <c r="D186">
-        <v>1216.165649378534</v>
+        <v>5.198293907019902</v>
       </c>
       <c r="E186">
-        <v>28018051481641.02</v>
+        <v>22376205441284.75</v>
       </c>
       <c r="F186">
-        <v>1216.168420024939</v>
+        <v>5.947851673495888</v>
       </c>
       <c r="G186">
-        <v>230530013959773</v>
+        <v>58604494285187.85</v>
       </c>
       <c r="H186">
-        <v>1272.2569437855</v>
+        <v>15.4080254518716</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187">
-        <v>26946308114996.86</v>
+        <v>20594526196218.34</v>
       </c>
       <c r="B187">
-        <v>1229.045814279972</v>
+        <v>5.714166823884644</v>
       </c>
       <c r="C187">
-        <v>25370204327003.75</v>
+        <v>18826566802705.97</v>
       </c>
       <c r="D187">
-        <v>1229.529229643827</v>
+        <v>5.225468328969716</v>
       </c>
       <c r="E187">
-        <v>26614434030066.04</v>
+        <v>21559834640607.59</v>
       </c>
       <c r="F187">
-        <v>1229.531910226537</v>
+        <v>5.980858885103159</v>
       </c>
       <c r="G187">
-        <v>219466487768182.4</v>
+        <v>56467054487171.95</v>
       </c>
       <c r="H187">
-        <v>1283.862115548003</v>
+        <v>15.55652019958668</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188">
-        <v>25710757290812.11</v>
+        <v>19934271897518.53</v>
       </c>
       <c r="B188">
-        <v>1114.91031843466</v>
+        <v>5.712938049768233</v>
       </c>
       <c r="C188">
-        <v>24207354973253.94</v>
+        <v>18223102157676.57</v>
       </c>
       <c r="D188">
-        <v>1115.320699706602</v>
+        <v>5.224177243083425</v>
       </c>
       <c r="E188">
-        <v>25394557631977.79</v>
+        <v>20868760386126.34</v>
       </c>
       <c r="F188">
-        <v>1115.322974924543</v>
+        <v>5.979732260746781</v>
       </c>
       <c r="G188">
-        <v>209811793525213.2</v>
+        <v>54657628635148.64</v>
       </c>
       <c r="H188">
-        <v>1161.497787539921</v>
+        <v>15.5653040368426</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189">
-        <v>24151335522024.96</v>
+        <v>19350590815344.84</v>
       </c>
       <c r="B189">
-        <v>1199.937973560453</v>
+        <v>5.619175651417814</v>
       </c>
       <c r="C189">
-        <v>22739632309887.77</v>
+        <v>17689618496421.3</v>
       </c>
       <c r="D189">
-        <v>1200.370030815465</v>
+        <v>5.13868027668869</v>
       </c>
       <c r="E189">
-        <v>23854856352394.73</v>
+        <v>20257826669675.63</v>
       </c>
       <c r="F189">
-        <v>1200.372425918461</v>
+        <v>5.881488005648707</v>
       </c>
       <c r="G189">
-        <v>197573041523127</v>
+        <v>53058002450132.92</v>
       </c>
       <c r="H189">
-        <v>1249.028239700126</v>
+        <v>15.29708590840019</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190">
-        <v>23271346313106.29</v>
+        <v>18541840636698.76</v>
       </c>
       <c r="B190">
-        <v>1620.373751771802</v>
+        <v>5.535760724137104</v>
       </c>
       <c r="C190">
-        <v>21911360100667.77</v>
+        <v>16950412649738.14</v>
       </c>
       <c r="D190">
-        <v>1620.921085009259</v>
+        <v>5.061827667737017</v>
       </c>
       <c r="E190">
-        <v>22985964659094.34</v>
+        <v>19411304253763.16</v>
       </c>
       <c r="F190">
-        <v>1620.924118722548</v>
+        <v>5.79459994235152</v>
       </c>
       <c r="G190">
-        <v>190640207270004</v>
+        <v>50841479651236.74</v>
       </c>
       <c r="H190">
-        <v>1682.62253290856</v>
+        <v>15.10673541941645</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191">
-        <v>22410695641834.1</v>
+        <v>18452432911281.57</v>
       </c>
       <c r="B191">
-        <v>1422.877308762558</v>
+        <v>5.743835107431781</v>
       </c>
       <c r="C191">
-        <v>21101269487193.19</v>
+        <v>16868692416694.33</v>
       </c>
       <c r="D191">
-        <v>1423.335951364469</v>
+        <v>5.250801420529178</v>
       </c>
       <c r="E191">
-        <v>22136146090449.95</v>
+        <v>19317720011218.07</v>
       </c>
       <c r="F191">
-        <v>1423.338493212578</v>
+        <v>6.01321113167745</v>
       </c>
       <c r="G191">
-        <v>183841148202297.3</v>
+        <v>50596436545938.45</v>
       </c>
       <c r="H191">
-        <v>1475.07721815366</v>
+        <v>15.75260445327626</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192">
-        <v>21362414112794.18</v>
+        <v>18576721120340.85</v>
       </c>
       <c r="B192">
-        <v>1161.718490501482</v>
+        <v>5.928047690019225</v>
       </c>
       <c r="C192">
-        <v>20114543362218.84</v>
+        <v>16982293989046.09</v>
       </c>
       <c r="D192">
-        <v>1162.07626610339</v>
+        <v>5.419265144764998</v>
       </c>
       <c r="E192">
-        <v>21101029403737.74</v>
+        <v>19447814072920.55</v>
       </c>
       <c r="F192">
-        <v>1162.078248706427</v>
+        <v>6.20601257265093</v>
       </c>
       <c r="G192">
-        <v>175534864384966.4</v>
+        <v>50937077607280.52</v>
       </c>
       <c r="H192">
-        <v>1202.468974439621</v>
+        <v>16.25353954171241</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193">
-        <v>20181993411784.37</v>
+        <v>18440821518547.05</v>
       </c>
       <c r="B193">
-        <v>1397.31150961254</v>
+        <v>6.027052301331086</v>
       </c>
       <c r="C193">
-        <v>19003401449946.8</v>
+        <v>16858079389829.63</v>
       </c>
       <c r="D193">
-        <v>1397.733003845401</v>
+        <v>5.511306012922427</v>
       </c>
       <c r="E193">
-        <v>19935395180104.75</v>
+        <v>19305566202306.55</v>
       </c>
       <c r="F193">
-        <v>1397.735339325408</v>
+        <v>6.308717780091985</v>
       </c>
       <c r="G193">
-        <v>166148529086388.3</v>
+        <v>50564612687161.57</v>
       </c>
       <c r="H193">
-        <v>1445.351839276532</v>
+        <v>16.43288652503474</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194">
-        <v>19611868450870.48</v>
+        <v>17603254731175.29</v>
       </c>
       <c r="B194">
-        <v>1750.580821737885</v>
+        <v>5.933044127353809</v>
       </c>
       <c r="C194">
-        <v>18466723464286.23</v>
+        <v>16092522005671.66</v>
       </c>
       <c r="D194">
-        <v>1751.073431257322</v>
+        <v>5.4262470378311</v>
       </c>
       <c r="E194">
-        <v>19372397503370.36</v>
+        <v>18428866315821.45</v>
       </c>
       <c r="F194">
-        <v>1751.076160476471</v>
+        <v>6.209827348920973</v>
       </c>
       <c r="G194">
-        <v>161602477004915</v>
+        <v>48269008147515.95</v>
       </c>
       <c r="H194">
-        <v>1806.770106066306</v>
+        <v>16.12524666996732</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195">
-        <v>18824182091832.96</v>
+        <v>16960950214894.38</v>
       </c>
       <c r="B195">
-        <v>1254.940962485294</v>
+        <v>5.903361986134283</v>
       </c>
       <c r="C195">
-        <v>17725232959739.94</v>
+        <v>15505431412783.23</v>
       </c>
       <c r="D195">
-        <v>1255.27933227547</v>
+        <v>5.398591658725524</v>
       </c>
       <c r="E195">
-        <v>18594542834328.07</v>
+        <v>17756542606165.68</v>
       </c>
       <c r="F195">
-        <v>1255.281206786115</v>
+        <v>6.179132644568061</v>
       </c>
       <c r="G195">
-        <v>155308068450453.3</v>
+        <v>46508514477834.09</v>
       </c>
       <c r="H195">
-        <v>1293.559149396369</v>
+        <v>16.07708453282364</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196">
-        <v>17793861916912.21</v>
+        <v>16496318297986.98</v>
       </c>
       <c r="B196">
-        <v>1158.054512682318</v>
+        <v>5.93756686993571</v>
       </c>
       <c r="C196">
-        <v>16755312960278.16</v>
+        <v>15080736013311.7</v>
       </c>
       <c r="D196">
-        <v>1158.356884543259</v>
+        <v>5.430114782592754</v>
       </c>
       <c r="E196">
-        <v>17577055886418.59</v>
+        <v>17270190343845.69</v>
       </c>
       <c r="F196">
-        <v>1158.358559476939</v>
+        <v>6.214824729317296</v>
       </c>
       <c r="G196">
-        <v>147050890473306.8</v>
+        <v>45234969173918.63</v>
       </c>
       <c r="H196">
-        <v>1192.585430395835</v>
+        <v>16.15723661774012</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197">
-        <v>16961907008309.89</v>
+        <v>15762614058911.7</v>
       </c>
       <c r="B197">
-        <v>1048.075766492604</v>
+        <v>5.889136965541361</v>
       </c>
       <c r="C197">
-        <v>15972108376217.13</v>
+        <v>14410088563393.01</v>
       </c>
       <c r="D197">
-        <v>1048.32925760955</v>
+        <v>5.386826728125671</v>
       </c>
       <c r="E197">
-        <v>16755441153760.46</v>
+        <v>16502178802645.97</v>
       </c>
       <c r="F197">
-        <v>1048.330661604546</v>
+        <v>6.163572959822855</v>
       </c>
       <c r="G197">
-        <v>140363589446170.2</v>
+        <v>43223843384143.14</v>
       </c>
       <c r="H197">
-        <v>1077.047965809209</v>
+        <v>15.96811231804555</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198">
-        <v>15832378601362.54</v>
+        <v>14796291475078.78</v>
       </c>
       <c r="B198">
-        <v>1010.632803541803</v>
+        <v>5.685218256886913</v>
       </c>
       <c r="C198">
-        <v>14908737067116.81</v>
+        <v>13526801047411.02</v>
       </c>
       <c r="D198">
-        <v>1010.870343506175</v>
+        <v>5.200126431625896</v>
       </c>
       <c r="E198">
-        <v>15639919501675.68</v>
+        <v>15490655990167.17</v>
       </c>
       <c r="F198">
-        <v>1010.871659032975</v>
+        <v>5.950341273207032</v>
       </c>
       <c r="G198">
-        <v>131255802806905.2</v>
+        <v>40574986077164.34</v>
       </c>
       <c r="H198">
-        <v>1037.798684330966</v>
+        <v>15.4286300075221</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199">
-        <v>15063211181536.46</v>
+        <v>14234591274685.95</v>
       </c>
       <c r="B199">
-        <v>1220.460688902459</v>
+        <v>5.620544958011147</v>
       </c>
       <c r="C199">
-        <v>14184600270808.42</v>
+        <v>13013360011360.95</v>
       </c>
       <c r="D199">
-        <v>1220.728318712411</v>
+        <v>5.140552812564819</v>
       </c>
       <c r="E199">
-        <v>14880269140909.26</v>
+        <v>14902673661679.94</v>
       </c>
       <c r="F199">
-        <v>1220.729800722223</v>
+        <v>5.882958864963597</v>
       </c>
       <c r="G199">
-        <v>125034794429964.8</v>
+        <v>39035210607248.94</v>
       </c>
       <c r="H199">
-        <v>1251.090472494639</v>
+        <v>15.27980389814291</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200">
-        <v>14336499863273.88</v>
+        <v>13557974674756.06</v>
       </c>
       <c r="B200">
-        <v>1168.497819930349</v>
+        <v>5.638971893832683</v>
       </c>
       <c r="C200">
-        <v>13500419158480.66</v>
+        <v>12394868795101.8</v>
       </c>
       <c r="D200">
-        <v>1168.740459531757</v>
+        <v>5.156554819985764</v>
       </c>
       <c r="E200">
-        <v>14162533909211.88</v>
+        <v>14194389840436.77</v>
       </c>
       <c r="F200">
-        <v>1168.741803039855</v>
+        <v>5.902833182882619</v>
       </c>
       <c r="G200">
-        <v>119142996085026.3</v>
+        <v>37180360821178.84</v>
       </c>
       <c r="H200">
-        <v>1196.283650474982</v>
+        <v>15.38305662993407</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201">
-        <v>13576187625487.07</v>
+        <v>13526489043723.29</v>
       </c>
       <c r="B201">
-        <v>1188.919388973994</v>
+        <v>5.894993578149056</v>
       </c>
       <c r="C201">
-        <v>12784588156345.13</v>
+        <v>12366087781407.25</v>
       </c>
       <c r="D201">
-        <v>1189.15610301412</v>
+        <v>5.389246182363111</v>
       </c>
       <c r="E201">
-        <v>13411596500526.3</v>
+        <v>14161430393027.85</v>
       </c>
       <c r="F201">
-        <v>1189.157413610496</v>
+        <v>6.171727817037986</v>
       </c>
       <c r="G201">
-        <v>112963968986708.3</v>
+        <v>37094045857808.81</v>
       </c>
       <c r="H201">
-        <v>1216.040839595015</v>
+        <v>16.16792273608063</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202">
-        <v>12952525511884.93</v>
+        <v>13573303682340.71</v>
       </c>
       <c r="B202">
-        <v>1587.340357053276</v>
+        <v>6.005421020570508</v>
       </c>
       <c r="C202">
-        <v>12197400925111.99</v>
+        <v>12408881034174.79</v>
       </c>
       <c r="D202">
-        <v>1587.644848460968</v>
+        <v>5.490321469164726</v>
       </c>
       <c r="E202">
-        <v>12795611853931.99</v>
+        <v>14210436379248.06</v>
       </c>
       <c r="F202">
-        <v>1587.64653420511</v>
+        <v>6.287259022022294</v>
       </c>
       <c r="G202">
-        <v>107884136517654.6</v>
+        <v>37222383837881.53</v>
       </c>
       <c r="H202">
-        <v>1622.24354997134</v>
+        <v>16.4632260149738</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203">
-        <v>12587208743254.96</v>
+        <v>13483565016607.47</v>
       </c>
       <c r="B203">
-        <v>1294.763626682662</v>
+        <v>6.131768114050313</v>
       </c>
       <c r="C203">
-        <v>11853444775281.89</v>
+        <v>12326850903895.94</v>
       </c>
       <c r="D203">
-        <v>1294.991873203185</v>
+        <v>5.608018636709409</v>
       </c>
       <c r="E203">
-        <v>12434787038668.96</v>
+        <v>14116497096714.62</v>
       </c>
       <c r="F203">
-        <v>1294.993136732012</v>
+        <v>6.418179446562049</v>
       </c>
       <c r="G203">
-        <v>104903799879442.8</v>
+        <v>36976373366783.61</v>
       </c>
       <c r="H203">
-        <v>1320.940982025209</v>
+        <v>16.67807138724837</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204">
-        <v>11774264346492.75</v>
+        <v>12559077823368.01</v>
       </c>
       <c r="B204">
-        <v>1008.810547952572</v>
+        <v>6.072468710650276</v>
       </c>
       <c r="C204">
-        <v>11088021371083.88</v>
+        <v>11481769202016.43</v>
       </c>
       <c r="D204">
-        <v>1008.98613911363</v>
+        <v>5.553024488935514</v>
       </c>
       <c r="E204">
-        <v>11631824845075.75</v>
+        <v>13148726088299.37</v>
       </c>
       <c r="F204">
-        <v>1008.987111099295</v>
+        <v>6.356667609904552</v>
       </c>
       <c r="G204">
-        <v>98258921827218.08</v>
+        <v>34441911508284.74</v>
       </c>
       <c r="H204">
-        <v>1028.955674417918</v>
+        <v>16.56552499806656</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205">
-        <v>11172631108543.29</v>
+        <v>12870868312309.42</v>
       </c>
       <c r="B205">
-        <v>1085.689056389417</v>
+        <v>6.467041688353953</v>
       </c>
       <c r="C205">
-        <v>10521545219797.49</v>
+        <v>11766781160077.09</v>
       </c>
       <c r="D205">
-        <v>1085.86453312148</v>
+        <v>5.911646226460908</v>
       </c>
       <c r="E205">
-        <v>11037566840596.04</v>
+        <v>13475116231450.15</v>
       </c>
       <c r="F205">
-        <v>1085.865504392202</v>
+        <v>6.771049518852079</v>
       </c>
       <c r="G205">
-        <v>93329947262131.69</v>
+        <v>35296691393514.09</v>
       </c>
       <c r="H205">
-        <v>1105.832459913394</v>
+        <v>17.77407592150124</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206">
-        <v>10527016911892.33</v>
+        <v>12804132897274.35</v>
       </c>
       <c r="B206">
-        <v>1092.487893360658</v>
+        <v>6.5077143057798</v>
       </c>
       <c r="C206">
-        <v>9913647181907.926</v>
+        <v>11705777538741.92</v>
       </c>
       <c r="D206">
-        <v>1092.656891649337</v>
+        <v>5.95003360691339</v>
       </c>
       <c r="E206">
-        <v>10399855420069.45</v>
+        <v>13405256075268.4</v>
       </c>
       <c r="F206">
-        <v>1092.657827001149</v>
+        <v>6.812886484924334</v>
       </c>
       <c r="G206">
-        <v>88029895262871.89</v>
+        <v>35113736020400.79</v>
       </c>
       <c r="H206">
-        <v>1111.896031509831</v>
+        <v>17.8126253607499</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207">
-        <v>10004769700215.4</v>
+        <v>12660589340673.47</v>
       </c>
       <c r="B207">
-        <v>1366.660699041518</v>
+        <v>6.679095583698265</v>
       </c>
       <c r="C207">
-        <v>9421900813918.564</v>
+        <v>11574562448332.95</v>
       </c>
       <c r="D207">
-        <v>1366.862427372399</v>
+        <v>6.108284222035846</v>
       </c>
       <c r="E207">
-        <v>9883992093072.541</v>
+        <v>13254991110280.95</v>
       </c>
       <c r="F207">
-        <v>1366.863543809198</v>
+        <v>6.991347751278923</v>
       </c>
       <c r="G207">
-        <v>83734424836017.36</v>
+        <v>34720208815990.5</v>
       </c>
       <c r="H207">
-        <v>1389.837114411046</v>
+        <v>18.1885014251934</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208">
-        <v>9639760778371.756</v>
+        <v>12055674942564.82</v>
       </c>
       <c r="B208">
-        <v>1685.639867933312</v>
+        <v>6.717107467278518</v>
       </c>
       <c r="C208">
-        <v>9078205109773.326</v>
+        <v>11021598319639.65</v>
       </c>
       <c r="D208">
-        <v>1685.876808341361</v>
+        <v>6.142144811798507</v>
       </c>
       <c r="E208">
-        <v>9523440325741.926</v>
+        <v>12621747286489.5</v>
       </c>
       <c r="F208">
-        <v>1685.878119590006</v>
+        <v>7.031760431091814</v>
       </c>
       <c r="G208">
-        <v>80727879663420.98</v>
+        <v>33061794623632.45</v>
       </c>
       <c r="H208">
-        <v>1712.8709045345</v>
+        <v>18.34860520451983</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209">
-        <v>9311656640561.023</v>
+        <v>12262812080577.53</v>
       </c>
       <c r="B209">
-        <v>1283.713431314121</v>
+        <v>6.996662167958021</v>
       </c>
       <c r="C209">
-        <v>8769256175911.455</v>
+        <v>11210947129558.09</v>
       </c>
       <c r="D209">
-        <v>1283.882920701755</v>
+        <v>6.396573879434244</v>
       </c>
       <c r="E209">
-        <v>9199339416187.08</v>
+        <v>12838585894976.6</v>
       </c>
       <c r="F209">
-        <v>1283.88385862157</v>
+        <v>7.325135892206899</v>
       </c>
       <c r="G209">
-        <v>78022249452977.83</v>
+        <v>33629680831366.35</v>
       </c>
       <c r="H209">
-        <v>1303.19894889555</v>
+        <v>19.18389101975058</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210">
-        <v>8760613799531.859</v>
+        <v>12036024623564.42</v>
       </c>
       <c r="B210">
-        <v>943.7365961739645</v>
+        <v>7.014567752903072</v>
       </c>
       <c r="C210">
-        <v>8250377407275.697</v>
+        <v>11003635475183.53</v>
       </c>
       <c r="D210">
-        <v>943.8563909578535</v>
+        <v>6.41484851578794</v>
       </c>
       <c r="E210">
-        <v>8655012913281.93</v>
+        <v>12601176582389.39</v>
       </c>
       <c r="F210">
-        <v>943.8570538439218</v>
+        <v>7.342716555308319</v>
       </c>
       <c r="G210">
-        <v>73471660924359.59</v>
+        <v>33007921099373.52</v>
       </c>
       <c r="H210">
-        <v>957.5131851047097</v>
+        <v>19.11878116086069</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211">
-        <v>8186568987069.694</v>
+        <v>11668535102026.18</v>
       </c>
       <c r="B211">
-        <v>833.0717424560106</v>
+        <v>7.11004979945776</v>
       </c>
       <c r="C211">
-        <v>7709830450407.771</v>
+        <v>10667702997150.23</v>
       </c>
       <c r="D211">
-        <v>833.1703078530359</v>
+        <v>6.501793575827</v>
       </c>
       <c r="E211">
-        <v>8087955482764.435</v>
+        <v>12216473143195.73</v>
       </c>
       <c r="F211">
-        <v>833.1708532295477</v>
+        <v>7.442937329712116</v>
       </c>
       <c r="G211">
-        <v>68722361532313.22</v>
+        <v>32000398274065.18</v>
       </c>
       <c r="H211">
-        <v>844.4117686996483</v>
+        <v>19.40297187133084</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212">
-        <v>7569585331434.194</v>
+        <v>11581002417023.4</v>
       </c>
       <c r="B212">
-        <v>1010.81023860945</v>
+        <v>7.307542451845621</v>
       </c>
       <c r="C212">
-        <v>7128840259609.802</v>
+        <v>10587686583779.57</v>
       </c>
       <c r="D212">
-        <v>1010.926201700723</v>
+        <v>6.683077702630905</v>
       </c>
       <c r="E212">
-        <v>7478471270338.782</v>
+        <v>12124839872478.87</v>
       </c>
       <c r="F212">
-        <v>1010.926843308701</v>
+        <v>7.649256963378599</v>
       </c>
       <c r="G212">
-        <v>63607811880021.05</v>
+        <v>31760412740173.05</v>
       </c>
       <c r="H212">
-        <v>1024.156805486431</v>
+        <v>19.90100336517889</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213">
-        <v>7278946856696.43</v>
+        <v>11045463163442.62</v>
       </c>
       <c r="B213">
-        <v>3689.156529615322</v>
+        <v>7.161463051350403</v>
       </c>
       <c r="C213">
-        <v>6855153384949.252</v>
+        <v>10098130332739.16</v>
       </c>
       <c r="D213">
-        <v>3689.565042895216</v>
+        <v>6.550514638113997</v>
       </c>
       <c r="E213">
-        <v>7191361704525.751</v>
+        <v>11564209332368.74</v>
       </c>
       <c r="F213">
-        <v>3689.567303067566</v>
+        <v>7.495758689638092</v>
       </c>
       <c r="G213">
-        <v>61194933350847.48</v>
+        <v>30292119483194.81</v>
       </c>
       <c r="H213">
-        <v>3736.186029012943</v>
+        <v>19.4435807841007</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214">
-        <v>7330449813071.24</v>
+        <v>10706707638213.49</v>
       </c>
       <c r="B214">
-        <v>14357.37229589974</v>
+        <v>7.227430677575041</v>
       </c>
       <c r="C214">
-        <v>6903652580141.787</v>
+        <v>9788458908093.197</v>
       </c>
       <c r="D214">
-        <v>14358.86714613124</v>
+        <v>6.609456096870336</v>
       </c>
       <c r="E214">
-        <v>7242239493820.193</v>
+        <v>11209579435464.53</v>
       </c>
       <c r="F214">
-        <v>14358.87541646405</v>
+        <v>7.56571476546981</v>
       </c>
       <c r="G214">
-        <v>61622678949131.52</v>
+        <v>29363330063876.5</v>
       </c>
       <c r="H214">
-        <v>14529.49066605118</v>
+        <v>19.7077557606142</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215">
-        <v>7217065720020.88</v>
+        <v>10566987520238.2</v>
       </c>
       <c r="B215">
-        <v>1479.737853081871</v>
+        <v>7.352424224577944</v>
       </c>
       <c r="C215">
-        <v>6796881190896.763</v>
+        <v>9660734006075.658</v>
       </c>
       <c r="D215">
-        <v>1479.885196316155</v>
+        <v>6.722519150846167</v>
       </c>
       <c r="E215">
-        <v>7130231608944.265</v>
+        <v>11063311266147.82</v>
       </c>
       <c r="F215">
-        <v>1479.886011480201</v>
+        <v>7.697350495410483</v>
       </c>
       <c r="G215">
-        <v>60680898216354.68</v>
+        <v>28980245240335.97</v>
       </c>
       <c r="H215">
-        <v>1496.705521216818</v>
+        <v>20.12420923481287</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216">
-        <v>6739325943769.156</v>
+        <v>10546595067842.4</v>
       </c>
       <c r="B216">
-        <v>1263.036915096412</v>
+        <v>7.588742217177129</v>
       </c>
       <c r="C216">
-        <v>6346999940878.083</v>
+        <v>9642092254159.607</v>
       </c>
       <c r="D216">
-        <v>1263.166268721675</v>
+        <v>6.93994330671931</v>
       </c>
       <c r="E216">
-        <v>6658286362092.392</v>
+        <v>11041963079898.95</v>
       </c>
       <c r="F216">
-        <v>1263.166984348202</v>
+        <v>7.943912167134447</v>
       </c>
       <c r="G216">
-        <v>56708870080542.03</v>
+        <v>28924332963495.15</v>
       </c>
       <c r="H216">
-        <v>1277.934429871274</v>
+        <v>20.68948944827732</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217">
-        <v>6570365457643.779</v>
+        <v>10104600602437.7</v>
       </c>
       <c r="B217">
-        <v>1138.196204750531</v>
+        <v>7.756867064213986</v>
       </c>
       <c r="C217">
-        <v>6187890583814.686</v>
+        <v>9238041497408.035</v>
       </c>
       <c r="D217">
-        <v>1138.29889517504</v>
+        <v>7.09327852976662</v>
       </c>
       <c r="E217">
-        <v>6491373629686.681</v>
+        <v>10579251662050.58</v>
       </c>
       <c r="F217">
-        <v>1138.299463259119</v>
+        <v>8.120216475785755</v>
       </c>
       <c r="G217">
-        <v>55302597974100.51</v>
+        <v>27712453262745.88</v>
       </c>
       <c r="H217">
-        <v>1150.027384884288</v>
+        <v>21.17483277668809</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218">
-        <v>6039685328080.271</v>
+        <v>10205934118683.31</v>
       </c>
       <c r="B218">
-        <v>967.7762891239742</v>
+        <v>8.201801992964443</v>
       </c>
       <c r="C218">
-        <v>5688146328758.04</v>
+        <v>9330676165901.629</v>
       </c>
       <c r="D218">
-        <v>967.8655188155486</v>
+        <v>7.498101148403509</v>
       </c>
       <c r="E218">
-        <v>5967119837542.323</v>
+        <v>10685335168808.43</v>
       </c>
       <c r="F218">
-        <v>967.8660124236436</v>
+        <v>8.587261439893414</v>
       </c>
       <c r="G218">
-        <v>50880595934587.43</v>
+        <v>27990296254202.71</v>
       </c>
       <c r="H218">
-        <v>978.0580704187114</v>
+        <v>22.51315519236785</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219">
-        <v>5813982117826.751</v>
+        <v>10164353469419.22</v>
       </c>
       <c r="B219">
-        <v>1178.703121569599</v>
+        <v>8.222707795479675</v>
       </c>
       <c r="C219">
-        <v>5475598099328.676</v>
+        <v>9292664975628.383</v>
       </c>
       <c r="D219">
-        <v>1178.800206147674</v>
+        <v>7.518941534326154</v>
       </c>
       <c r="E219">
-        <v>5744147345235.27</v>
+        <v>10641805458102.23</v>
       </c>
       <c r="F219">
-        <v>1178.80074318005</v>
+        <v>8.60807431056506</v>
       </c>
       <c r="G219">
-        <v>48997524263464.96</v>
+        <v>27876287825813.79</v>
       </c>
       <c r="H219">
-        <v>1189.893912553245</v>
+        <v>22.46585785352894</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220">
-        <v>5441863349173.27</v>
+        <v>9942762907169.008</v>
       </c>
       <c r="B220">
-        <v>611.8795609010471</v>
+        <v>8.473380103274193</v>
       </c>
       <c r="C220">
-        <v>5125165014216.69</v>
+        <v>9090096200632.049</v>
       </c>
       <c r="D220">
-        <v>611.9249869110621</v>
+        <v>7.750864114460406</v>
       </c>
       <c r="E220">
-        <v>5376527523896.171</v>
+        <v>10409827440861.63</v>
       </c>
       <c r="F220">
-        <v>611.9252381761726</v>
+        <v>8.868832588683675</v>
       </c>
       <c r="G220">
-        <v>45889814926229.12</v>
+        <v>27268712995034.23</v>
       </c>
       <c r="H220">
-        <v>617.1172022010303</v>
+        <v>22.98963453125775</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221">
-        <v>4736067639120.263</v>
+        <v>9451696627052.168</v>
       </c>
       <c r="B221">
-        <v>614.3812763284827</v>
+        <v>8.659674969580559</v>
       </c>
       <c r="C221">
-        <v>4460490017439.953</v>
+        <v>8641181145061.636</v>
       </c>
       <c r="D221">
-        <v>614.427828962909</v>
+        <v>7.921709926639704</v>
       </c>
       <c r="E221">
-        <v>4679253964079.094</v>
+        <v>9895738156279.102</v>
       </c>
       <c r="F221">
-        <v>614.4280864505838</v>
+        <v>9.063612439979297</v>
       </c>
       <c r="G221">
-        <v>39984899839413.95</v>
+        <v>25922244263778.89</v>
       </c>
       <c r="H221">
-        <v>619.7502551626206</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="A222">
-        <v>4507571534013.061</v>
-      </c>
-      <c r="B222">
-        <v>991.279401044608</v>
-      </c>
-      <c r="C222">
-        <v>4245303516038.415</v>
-      </c>
-      <c r="D222">
-        <v>991.3429909416246</v>
-      </c>
-      <c r="E222">
-        <v>4453513760442.493</v>
-      </c>
-      <c r="F222">
-        <v>991.3433426431792</v>
-      </c>
-      <c r="G222">
-        <v>38070262098025.08</v>
-      </c>
-      <c r="H222">
-        <v>998.6163642521815</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="A223">
-        <v>4184943839567.202</v>
-      </c>
-      <c r="B223">
-        <v>1941.821416097109</v>
-      </c>
-      <c r="C223">
-        <v>3941466035987.142</v>
-      </c>
-      <c r="D223">
-        <v>1941.950374483691</v>
-      </c>
-      <c r="E223">
-        <v>4134774726112.479</v>
-      </c>
-      <c r="F223">
-        <v>1941.951087716286</v>
-      </c>
-      <c r="G223">
-        <v>35364390971891.06</v>
-      </c>
-      <c r="H223">
-        <v>1956.702124939143</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="A224">
-        <v>4246365642909.53</v>
-      </c>
-      <c r="B224">
-        <v>1882.609341536604</v>
-      </c>
-      <c r="C224">
-        <v>3999310781188.705</v>
-      </c>
-      <c r="D224">
-        <v>1882.71470114387</v>
-      </c>
-      <c r="E224">
-        <v>4195456438620.767</v>
-      </c>
-      <c r="F224">
-        <v>1882.715283836128</v>
-      </c>
-      <c r="G224">
-        <v>35879757916952.21</v>
-      </c>
-      <c r="H224">
-        <v>1894.769986294251</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="A225">
-        <v>3911568208964.754</v>
-      </c>
-      <c r="B225">
-        <v>1091.967307060907</v>
-      </c>
-      <c r="C225">
-        <v>3684009892267.879</v>
-      </c>
-      <c r="D225">
-        <v>1092.033130694012</v>
-      </c>
-      <c r="E225">
-        <v>3864691764165.755</v>
-      </c>
-      <c r="F225">
-        <v>1092.033494731622</v>
-      </c>
-      <c r="G225">
-        <v>33069322604231.57</v>
-      </c>
-      <c r="H225">
-        <v>1099.564598193885</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
-      <c r="A226">
-        <v>3812211558019.808</v>
-      </c>
-      <c r="B226">
-        <v>11498.51902131511</v>
-      </c>
-      <c r="C226">
-        <v>3590438571735.591</v>
-      </c>
-      <c r="D226">
-        <v>11499.1827005447</v>
-      </c>
-      <c r="E226">
-        <v>3766531278287.661</v>
-      </c>
-      <c r="F226">
-        <v>11499.18637096302</v>
-      </c>
-      <c r="G226">
-        <v>32234677031103.16</v>
-      </c>
-      <c r="H226">
-        <v>11575.12956816686</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="A227">
-        <v>3871385639368.135</v>
-      </c>
-      <c r="B227">
-        <v>1549.612016685877</v>
-      </c>
-      <c r="C227">
-        <v>3646167102373.448</v>
-      </c>
-      <c r="D227">
-        <v>1549.68973608571</v>
-      </c>
-      <c r="E227">
-        <v>3824992991035.054</v>
-      </c>
-      <c r="F227">
-        <v>1549.690165894322</v>
-      </c>
-      <c r="G227">
-        <v>32731802161530.49</v>
-      </c>
-      <c r="H227">
-        <v>1558.58505177188</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="A228">
-        <v>3509418384993.871</v>
-      </c>
-      <c r="B228">
-        <v>2170.021910761024</v>
-      </c>
-      <c r="C228">
-        <v>3305274746669.617</v>
-      </c>
-      <c r="D228">
-        <v>2170.149264320568</v>
-      </c>
-      <c r="E228">
-        <v>3467381705865.917</v>
-      </c>
-      <c r="F228">
-        <v>2170.149968627952</v>
-      </c>
-      <c r="G228">
-        <v>29689359136858.21</v>
-      </c>
-      <c r="H228">
-        <v>2184.724433055078</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="A229">
-        <v>3675377706843.563</v>
-      </c>
-      <c r="B229">
-        <v>-958.8640228495647</v>
-      </c>
-      <c r="C229">
-        <v>3461571827807.48</v>
-      </c>
-      <c r="D229">
-        <v>-958.9171001329157</v>
-      </c>
-      <c r="E229">
-        <v>3631344317521.178</v>
-      </c>
-      <c r="F229">
-        <v>-958.9173936671605</v>
-      </c>
-      <c r="G229">
-        <v>31084752184451.4</v>
-      </c>
-      <c r="H229">
-        <v>-964.9914091362504</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="A230">
-        <v>3973984546049.358</v>
-      </c>
-      <c r="B230">
-        <v>-3640.807773282378</v>
-      </c>
-      <c r="C230">
-        <v>3742791718128.481</v>
-      </c>
-      <c r="D230">
-        <v>-3640.993485949382</v>
-      </c>
-      <c r="E230">
-        <v>3926356518701.917</v>
-      </c>
-      <c r="F230">
-        <v>-3640.994512998211</v>
-      </c>
-      <c r="G230">
-        <v>33593509919016.72</v>
-      </c>
-      <c r="H230">
-        <v>-3662.248132039143</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="A231">
-        <v>3807668933673.977</v>
-      </c>
-      <c r="B231">
-        <v>1132.012528231867</v>
-      </c>
-      <c r="C231">
-        <v>3586160448464.938</v>
-      </c>
-      <c r="D231">
-        <v>1132.073949171054</v>
-      </c>
-      <c r="E231">
-        <v>3762043336255.722</v>
-      </c>
-      <c r="F231">
-        <v>1132.074288849449</v>
-      </c>
-      <c r="G231">
-        <v>32196510114386.7</v>
-      </c>
-      <c r="H231">
-        <v>1139.103009474868</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="A232">
-        <v>3566312843438.339</v>
-      </c>
-      <c r="B232">
-        <v>818.0426208704504</v>
-      </c>
-      <c r="C232">
-        <v>3358856864162.259</v>
-      </c>
-      <c r="D232">
-        <v>818.084486730877</v>
-      </c>
-      <c r="E232">
-        <v>3523591738293.735</v>
-      </c>
-      <c r="F232">
-        <v>818.0847182571625</v>
-      </c>
-      <c r="G232">
-        <v>30167817077012.35</v>
-      </c>
-      <c r="H232">
-        <v>822.8763858938505</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="A233">
-        <v>3279289231202.243</v>
-      </c>
-      <c r="B233">
-        <v>588.253391840581</v>
-      </c>
-      <c r="C233">
-        <v>3088542588036.807</v>
-      </c>
-      <c r="D233">
-        <v>588.2805658555723</v>
-      </c>
-      <c r="E233">
-        <v>3240019994234.37</v>
-      </c>
-      <c r="F233">
-        <v>588.2807161277552</v>
-      </c>
-      <c r="G233">
-        <v>27753145968310.02</v>
-      </c>
-      <c r="H233">
-        <v>591.3915055751905</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="A234">
-        <v>2890668877190.84</v>
-      </c>
-      <c r="B234">
-        <v>505.2260919748181</v>
-      </c>
-      <c r="C234">
-        <v>2722542521318.636</v>
-      </c>
-      <c r="D234">
-        <v>505.2479387023145</v>
-      </c>
-      <c r="E234">
-        <v>2856069563019.969</v>
-      </c>
-      <c r="F234">
-        <v>505.2480595105186</v>
-      </c>
-      <c r="G234">
-        <v>24480076790503.39</v>
-      </c>
-      <c r="H234">
-        <v>507.7495363791892</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
-      <c r="A235">
-        <v>2585839163043.463</v>
-      </c>
-      <c r="B235">
-        <v>805.4751137013581</v>
-      </c>
-      <c r="C235">
-        <v>2435453028816.981</v>
-      </c>
-      <c r="D235">
-        <v>805.5079767954888</v>
-      </c>
-      <c r="E235">
-        <v>2554899834894.47</v>
-      </c>
-      <c r="F235">
-        <v>805.5081585168795</v>
-      </c>
-      <c r="G235">
-        <v>21909742686906.99</v>
-      </c>
-      <c r="H235">
-        <v>809.2719338514794</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="A236">
-        <v>2501577145826.607</v>
-      </c>
-      <c r="B236">
-        <v>886.4068724017151</v>
-      </c>
-      <c r="C236">
-        <v>2356094372329.595</v>
-      </c>
-      <c r="D236">
-        <v>886.4368741589443</v>
-      </c>
-      <c r="E236">
-        <v>2471649049440.88</v>
-      </c>
-      <c r="F236">
-        <v>886.4370400527575</v>
-      </c>
-      <c r="G236">
-        <v>21198780723537.07</v>
-      </c>
-      <c r="H236">
-        <v>889.8738412131414</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="A237">
-        <v>2243794037363.554</v>
-      </c>
-      <c r="B237">
-        <v>799.3183702811288</v>
-      </c>
-      <c r="C237">
-        <v>2113310926823.219</v>
-      </c>
-      <c r="D237">
-        <v>799.3464831035659</v>
-      </c>
-      <c r="E237">
-        <v>2216958332839.907</v>
-      </c>
-      <c r="F237">
-        <v>799.3466385510735</v>
-      </c>
-      <c r="G237">
-        <v>19022488219251.2</v>
-      </c>
-      <c r="H237">
-        <v>802.5672630020724</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="A238">
-        <v>2161352465099.187</v>
-      </c>
-      <c r="B238">
-        <v>6709.690662909971</v>
-      </c>
-      <c r="C238">
-        <v>2035666010229.97</v>
-      </c>
-      <c r="D238">
-        <v>6709.913781535171</v>
-      </c>
-      <c r="E238">
-        <v>2135505332833.476</v>
-      </c>
-      <c r="F238">
-        <v>6709.915015235217</v>
-      </c>
-      <c r="G238">
-        <v>18326092441250.05</v>
-      </c>
-      <c r="H238">
-        <v>6735.47825867059</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="A239">
-        <v>2204752607299.118</v>
-      </c>
-      <c r="B239">
-        <v>1536.628144567116</v>
-      </c>
-      <c r="C239">
-        <v>2076541047436.869</v>
-      </c>
-      <c r="D239">
-        <v>1536.671577120282</v>
-      </c>
-      <c r="E239">
-        <v>2178385080309.625</v>
-      </c>
-      <c r="F239">
-        <v>1536.671817269688</v>
-      </c>
-      <c r="G239">
-        <v>18692723602904.91</v>
-      </c>
-      <c r="H239">
-        <v>1541.648589293138</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="A240">
-        <v>1987454819823.453</v>
-      </c>
-      <c r="B240">
-        <v>605.1867719512813</v>
-      </c>
-      <c r="C240">
-        <v>1871885552065.332</v>
-      </c>
-      <c r="D240">
-        <v>605.2045812253816</v>
-      </c>
-      <c r="E240">
-        <v>1963692282859.918</v>
-      </c>
-      <c r="F240">
-        <v>605.2046796966171</v>
-      </c>
-      <c r="G240">
-        <v>16856524008854.73</v>
-      </c>
-      <c r="H240">
-        <v>607.245381721287</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
-      <c r="A241">
-        <v>1806727509384.397</v>
-      </c>
-      <c r="B241">
-        <v>561.8009082660964</v>
-      </c>
-      <c r="C241">
-        <v>1701671894181.353</v>
-      </c>
-      <c r="D241">
-        <v>561.8154349215748</v>
-      </c>
-      <c r="E241">
-        <v>1785130512612.084</v>
-      </c>
-      <c r="F241">
-        <v>561.815515240547</v>
-      </c>
-      <c r="G241">
-        <v>15328332911151.75</v>
-      </c>
-      <c r="H241">
-        <v>563.480336066077</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
-      <c r="A242">
-        <v>1597680843107.718</v>
-      </c>
-      <c r="B242">
-        <v>707.7467761590159</v>
-      </c>
-      <c r="C242">
-        <v>1504785218477.007</v>
-      </c>
-      <c r="D242">
-        <v>707.7647040078527</v>
-      </c>
-      <c r="E242">
-        <v>1578587542496.974</v>
-      </c>
-      <c r="F242">
-        <v>707.7648031308182</v>
-      </c>
-      <c r="G242">
-        <v>13559525285169.49</v>
-      </c>
-      <c r="H242">
-        <v>709.8196639506859</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="A243">
-        <v>1533128356823.728</v>
-      </c>
-      <c r="B243">
-        <v>1199.468033584158</v>
-      </c>
-      <c r="C243">
-        <v>1443987430055.564</v>
-      </c>
-      <c r="D243">
-        <v>1199.494321737897</v>
-      </c>
-      <c r="E243">
-        <v>1514807929030.222</v>
-      </c>
-      <c r="F243">
-        <v>1199.494467082397</v>
-      </c>
-      <c r="G243">
-        <v>13013076588981.59</v>
-      </c>
-      <c r="H243">
-        <v>1202.507937978318</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="A244">
-        <v>1442766204581.006</v>
-      </c>
-      <c r="B244">
-        <v>1751.993954100871</v>
-      </c>
-      <c r="C244">
-        <v>1358881004216.812</v>
-      </c>
-      <c r="D244">
-        <v>1752.032768724264</v>
-      </c>
-      <c r="E244">
-        <v>1425527460906.91</v>
-      </c>
-      <c r="F244">
-        <v>1752.032983325383</v>
-      </c>
-      <c r="G244">
-        <v>12247945683261.7</v>
-      </c>
-      <c r="H244">
-        <v>1756.482546838869</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="A245">
-        <v>1433320213316.203</v>
-      </c>
-      <c r="B245">
-        <v>3841.732997966963</v>
-      </c>
-      <c r="C245">
-        <v>1349984406452.874</v>
-      </c>
-      <c r="D245">
-        <v>3841.811592228159</v>
-      </c>
-      <c r="E245">
-        <v>1416194529678.581</v>
-      </c>
-      <c r="F245">
-        <v>3841.812026762669</v>
-      </c>
-      <c r="G245">
-        <v>12167949479985.92</v>
-      </c>
-      <c r="H245">
-        <v>3850.822215552389</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="A246">
-        <v>1397547442645.741</v>
-      </c>
-      <c r="B246">
-        <v>633.9801229864369</v>
-      </c>
-      <c r="C246">
-        <v>1316292213451.258</v>
-      </c>
-      <c r="D246">
-        <v>633.9912027004741</v>
-      </c>
-      <c r="E246">
-        <v>1380849903597.664</v>
-      </c>
-      <c r="F246">
-        <v>633.99126395752</v>
-      </c>
-      <c r="G246">
-        <v>11864974100980.35</v>
-      </c>
-      <c r="H246">
-        <v>635.2615609549715</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
-      <c r="A247">
-        <v>1166146616057.711</v>
-      </c>
-      <c r="B247">
-        <v>368.8313979247275</v>
-      </c>
-      <c r="C247">
-        <v>1098349027932.224</v>
-      </c>
-      <c r="D247">
-        <v>368.8380788890663</v>
-      </c>
-      <c r="E247">
-        <v>1152217693039.938</v>
-      </c>
-      <c r="F247">
-        <v>368.8381158261283</v>
-      </c>
-      <c r="G247">
-        <v>9904260081123.047</v>
-      </c>
-      <c r="H247">
-        <v>369.6041138977854</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="A248">
-        <v>1014345332788.923</v>
-      </c>
-      <c r="B248">
-        <v>1192.56085859062</v>
-      </c>
-      <c r="C248">
-        <v>955375296775.1353</v>
-      </c>
-      <c r="D248">
-        <v>1192.581925182219</v>
-      </c>
-      <c r="E248">
-        <v>1002231809630.737</v>
-      </c>
-      <c r="F248">
-        <v>1192.582041651726</v>
-      </c>
-      <c r="G248">
-        <v>8617184704988.689</v>
-      </c>
-      <c r="H248">
-        <v>1194.997744023829</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="A249">
-        <v>1063058665913.765</v>
-      </c>
-      <c r="B249">
-        <v>612.5671482750611</v>
-      </c>
-      <c r="C249">
-        <v>1001255919673.478</v>
-      </c>
-      <c r="D249">
-        <v>612.5738760489264</v>
-      </c>
-      <c r="E249">
-        <v>1050362649877.455</v>
-      </c>
-      <c r="F249">
-        <v>612.5739132434366</v>
-      </c>
-      <c r="G249">
-        <v>9030281204202.467</v>
-      </c>
-      <c r="H249">
-        <v>613.3455226739455</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250">
-        <v>804012946092.1278</v>
-      </c>
-      <c r="B250">
-        <v>293.9293997235544</v>
-      </c>
-      <c r="C250">
-        <v>757273121332.825</v>
-      </c>
-      <c r="D250">
-        <v>293.9336335015228</v>
-      </c>
-      <c r="E250">
-        <v>794413699174.3226</v>
-      </c>
-      <c r="F250">
-        <v>293.9336569079755</v>
-      </c>
-      <c r="G250">
-        <v>6832758078414.758</v>
-      </c>
-      <c r="H250">
-        <v>294.4191983098704</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251">
-        <v>731528818412.9215</v>
-      </c>
-      <c r="B251">
-        <v>464.7673009672775</v>
-      </c>
-      <c r="C251">
-        <v>689003452297.8396</v>
-      </c>
-      <c r="D251">
-        <v>464.771935413974</v>
-      </c>
-      <c r="E251">
-        <v>722795737830.8</v>
-      </c>
-      <c r="F251">
-        <v>464.7719610349592</v>
-      </c>
-      <c r="G251">
-        <v>6217522104735.502</v>
-      </c>
-      <c r="H251">
-        <v>465.3035351392792</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
-      <c r="A252">
-        <v>613248035120.2869</v>
-      </c>
-      <c r="B252">
-        <v>4068.023073936587</v>
-      </c>
-      <c r="C252">
-        <v>577599582430.0995</v>
-      </c>
-      <c r="D252">
-        <v>4068.072263608915</v>
-      </c>
-      <c r="E252">
-        <v>605928052944.6803</v>
-      </c>
-      <c r="F252">
-        <v>4068.072535548275</v>
-      </c>
-      <c r="G252">
-        <v>5213248183936.148</v>
-      </c>
-      <c r="H252">
-        <v>4073.714875182749</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="A253">
-        <v>713258110379.6326</v>
-      </c>
-      <c r="B253">
-        <v>366.524056970338</v>
-      </c>
-      <c r="C253">
-        <v>671795038864.0961</v>
-      </c>
-      <c r="D253">
-        <v>366.5255354107654</v>
-      </c>
-      <c r="E253">
-        <v>704743336017.6163</v>
-      </c>
-      <c r="F253">
-        <v>366.5255435838979</v>
-      </c>
-      <c r="G253">
-        <v>6062419035607.546</v>
-      </c>
-      <c r="H253">
-        <v>366.6951956758419</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
-      <c r="A254">
-        <v>377392076052.8795</v>
-      </c>
-      <c r="B254">
-        <v>95.19365833394055</v>
-      </c>
-      <c r="C254">
-        <v>355455281845.193</v>
-      </c>
-      <c r="D254">
-        <v>95.19444548120686</v>
-      </c>
-      <c r="E254">
-        <v>372888654134.5719</v>
-      </c>
-      <c r="F254">
-        <v>95.19444983275166</v>
-      </c>
-      <c r="G254">
-        <v>3209499032651.369</v>
-      </c>
-      <c r="H254">
-        <v>95.28473867149516</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
-      <c r="A255">
-        <v>232764762207.7057</v>
-      </c>
-      <c r="B255">
-        <v>169.7483012579917</v>
-      </c>
-      <c r="C255">
-        <v>219235228868.2182</v>
-      </c>
-      <c r="D255">
-        <v>169.7491796169938</v>
-      </c>
-      <c r="E255">
-        <v>229987665277.2236</v>
-      </c>
-      <c r="F255">
-        <v>169.7491844726632</v>
-      </c>
-      <c r="G255">
-        <v>1980009951205.88</v>
-      </c>
-      <c r="H255">
-        <v>169.849965172017</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="A256">
-        <v>211198429515.6056</v>
-      </c>
-      <c r="B256">
-        <v>-1577.124333407628</v>
-      </c>
-      <c r="C256">
-        <v>198922509205.1099</v>
-      </c>
-      <c r="D256">
-        <v>-1577.130538727785</v>
-      </c>
-      <c r="E256">
-        <v>208678704506.8733</v>
-      </c>
-      <c r="F256">
-        <v>-1577.130573031285</v>
-      </c>
-      <c r="G256">
-        <v>1796621462478.723</v>
-      </c>
-      <c r="H256">
-        <v>-1577.842601857154</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="A257">
-        <v>248995093016.1746</v>
-      </c>
-      <c r="B257">
-        <v>-871.5952799067811</v>
-      </c>
-      <c r="C257">
-        <v>234522110659.9486</v>
-      </c>
-      <c r="D257">
-        <v>-871.5979166337216</v>
-      </c>
-      <c r="E257">
-        <v>246024294975.944</v>
-      </c>
-      <c r="F257">
-        <v>-871.5979312097338</v>
-      </c>
-      <c r="G257">
-        <v>2118015174918.389</v>
-      </c>
-      <c r="H257">
-        <v>-871.9004834823601</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
-      <c r="A258">
-        <v>245822533121.1111</v>
-      </c>
-      <c r="B258">
-        <v>132.0077141860724</v>
-      </c>
-      <c r="C258">
-        <v>231533968307.4522</v>
-      </c>
-      <c r="D258">
-        <v>132.0077650028949</v>
-      </c>
-      <c r="E258">
-        <v>242889598639.7907</v>
-      </c>
-      <c r="F258">
-        <v>132.0077652838112</v>
-      </c>
-      <c r="G258">
-        <v>2091039740783.665</v>
-      </c>
-      <c r="H258">
-        <v>132.0135963599055</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
-      <c r="A259">
-        <v>23298502495.07804</v>
-      </c>
-      <c r="B259">
-        <v>24.36597487237652</v>
-      </c>
-      <c r="C259">
-        <v>21944335721.86824</v>
-      </c>
-      <c r="D259">
-        <v>24.36609976197827</v>
-      </c>
-      <c r="E259">
-        <v>23020600520.14492</v>
-      </c>
-      <c r="F259">
-        <v>24.36610045237155</v>
-      </c>
-      <c r="G259">
-        <v>198258244033.3325</v>
-      </c>
-      <c r="H259">
-        <v>24.38043337091386</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="A260">
-        <v>129932300237.1893</v>
-      </c>
-      <c r="B260">
-        <v>-73.84054175221665</v>
-      </c>
-      <c r="C260">
-        <v>122380122781.4362</v>
-      </c>
-      <c r="D260">
-        <v>-73.84056677085248</v>
-      </c>
-      <c r="E260">
-        <v>128382281866.0044</v>
-      </c>
-      <c r="F260">
-        <v>-73.84056690915482</v>
-      </c>
-      <c r="G260">
-        <v>1105458442400.879</v>
-      </c>
-      <c r="H260">
-        <v>-73.84343800854572</v>
+        <v>23.47152681061927</v>
       </c>
     </row>
   </sheetData>
